--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="160" windowWidth="29500" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2400" yWindow="40" windowWidth="29500" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="宏的使用" sheetId="2" r:id="rId2"/>
+    <sheet name="Git的使用" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,6 +151,26 @@
   </si>
   <si>
     <t>NSLog(@"复杂宏的用法.")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏的使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工具篇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言篇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +226,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +252,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -259,13 +288,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="35" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="36">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -283,6 +314,7 @@
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -629,9 +661,338 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" location="宏的使用!A1" display="宏的使用"/>
+    <hyperlink ref="C12" location="Git的使用!A1" display="Git"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F57"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="D11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="E21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="E30" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="D33" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="C38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="D40" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="D41" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="D42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="C44" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="D45" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="D46" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="D47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="D48" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="D49" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="D50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="D51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="E52" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="F53" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="E54" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="D56" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="D57" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -646,269 +1007,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="D9" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="D11" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="E17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="E20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="E21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="E25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="E26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="E27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="E28" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="E29" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="E30" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="D33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="C38" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="D39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="D41" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="D42" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="D43" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="C44" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="D45" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="D46" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="D47" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="D48" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="D49" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6">
-      <c r="D50" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="D51" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6">
-      <c r="E52" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6">
-      <c r="F53" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="E54" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="D56" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="D57" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="40" windowWidth="29500" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="13940" yWindow="1100" windowWidth="29500" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="宏的使用" sheetId="2" r:id="rId2"/>
-    <sheet name="Git的使用" sheetId="3" r:id="rId3"/>
+    <sheet name="Git基础操作" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -172,6 +172,172 @@
   <si>
     <t>语言篇</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git 5大命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git clone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git remote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git fetch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git pull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git push</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone &lt;仓库的地址&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆我的知识集仓库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果想克隆该仓库，但是不想使用KnowledgeSet这个名字，则在语法后面加入自定义的名字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone https://github.com/KnowledgeSet.git my_repository_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git clone &lt;仓库的地址&gt; &lt;自定义名称&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆远程的仓库到本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出所有远程的主机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在1中，找到克隆下来的仓库目录，及在KnowledgeSet目录下，输入git remote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Users/samson/iWork/01_workspace/GitHub/KnowledgeSet</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>$pwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ git remote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在命令后面加入 -v 选项，则可以查看远程主机的网址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ git remote -v</t>
+  </si>
+  <si>
+    <t>origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/sokasyn/KnowledgeSet.git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (fetch)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git clone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/KnowledgeSet.git</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/sokasyn/KnowledgeSet.git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (push)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ruanyifeng.com/blog/2014/06/git_remote.html</t>
   </si>
 </sst>
 </file>
@@ -235,15 +401,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -251,8 +423,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -289,14 +541,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="35" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="36">
+  <cellStyles count="39">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -332,6 +596,9 @@
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -988,19 +1255,222 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:L32"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="D9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="E10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="D12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12">
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12">
+      <c r="E20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="3:12">
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="3:12">
+      <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="3:12">
+      <c r="E23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="25" spans="3:12">
+      <c r="E25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12">
+      <c r="E26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="E27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="3:12">
+      <c r="E28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="12"/>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13940" yWindow="1100" windowWidth="29500" windowHeight="19020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="16200" yWindow="900" windowWidth="29500" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -230,18 +230,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>克隆远程的仓库到本地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用途</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>列出所有远程的主机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>例如</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,9 +243,6 @@
   </si>
   <si>
     <t>/Users/samson/iWork/01_workspace/GitHub/KnowledgeSet</t>
-  </si>
-  <si>
-    <t>origin</t>
   </si>
   <si>
     <t>$pwd</t>
@@ -339,12 +328,290 @@
   <si>
     <t>http://www.ruanyifeng.com/blog/2014/06/git_remote.html</t>
   </si>
+  <si>
+    <t>一旦远程主机的版本库有了更新(Git术语叫做commit),需要将这些更新取回本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>列出所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程的主机</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本地分支的更新，推送到远程主机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push &lt;远程主机名&gt; &lt;本地分支名&gt;:&lt;远程分支名&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果远程分支名不存在，则新建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ git status</t>
+  </si>
+  <si>
+    <t>On branch master</t>
+  </si>
+  <si>
+    <t>Your branch is ahead of 'origin/master' by 1 commit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (use "git push" to publish your local commits)</t>
+  </si>
+  <si>
+    <t>Changes not staged for commit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (use "git add &lt;file&gt;..." to update what will be committed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (use "git checkout -- &lt;file&gt;..." to discard changes in working directory)</t>
+  </si>
+  <si>
+    <t>modified:   NoteBook.xlsx</t>
+  </si>
+  <si>
+    <t>no changes added to commit (use "git add" and/or "git commit -a")</t>
+  </si>
+  <si>
+    <t>Counting objects: 5, done.</t>
+  </si>
+  <si>
+    <t>Delta compression using up to 4 threads.</t>
+  </si>
+  <si>
+    <t>Compressing objects: 100% (5/5), done.</t>
+  </si>
+  <si>
+    <t>Writing objects: 100% (5/5), 28.48 KiB | 0 bytes/s, done.</t>
+  </si>
+  <si>
+    <t>Total 5 (delta 0), reused 0 (delta 0)</t>
+  </si>
+  <si>
+    <t>To https://github.com/sokasyn/KnowledgeSet.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7c68ad8..c18b99c  master -&gt; master</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git push origin master</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.远程主机名可以通过2的 git remote获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.如果省略远程分支名,则表示将本地分支推送与之存在"追踪关系"的远程分支(通常两者的名字相同)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>该例子是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>省略的远程的分支名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，则默认的是把本地的master分支推送到主机的master分支</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>省略本地分支名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，则表示把一个空的分支推送到指定分支，相当于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除远程的分支</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin :master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于 git push origin --delete master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前分支与远程分支存在追踪关系，则本地分支名和远程分支名都可以省略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等同于 git push origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等同于 git push origin master:master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前分支只有一个追踪分支，那么主机名都可以省略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆远程的仓库到本地,并且所有本地分支默认与远程主机的同名分支建立起了追踪关系(tracking）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取回远程主机某个分支的更新，再与粉底的指定分支合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull &lt;远程主机名&gt; &lt;远程分支名&gt;:&lt;本地分支名&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当与，先fetch，再merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull origin master:master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于参数的省略，类似与4的git push</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果远程主机删除了某个分支，默认情况下，git pull不会拉去远程分支的时候，删除本地对应的分支.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是为了防止由于其他人的操作，导致我本地的分支也被删除了.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然，如果我希望跟远程完全同步，也删除我本地的分支，则需要加上参数选项 -p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull -p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等同与下面两行命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch --prune origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch -p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch &lt;远程主机名&gt; &lt;远程分支名&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -396,6 +663,13 @@
       <u/>
       <sz val="16"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF3366FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -504,7 +778,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="39">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -544,8 +818,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -559,8 +836,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="39">
+  <cellStyles count="42">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -599,6 +881,9 @@
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1255,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L32"/>
+  <dimension ref="B2:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1270,7 +1555,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1291,7 +1576,7 @@
         <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -1312,11 +1597,11 @@
     </row>
     <row r="10" spans="2:5">
       <c r="E10" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1340,23 +1625,23 @@
     </row>
     <row r="18" spans="3:12">
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="3:12">
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="3:12">
       <c r="E20" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -1367,7 +1652,7 @@
     </row>
     <row r="21" spans="3:12">
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -1378,7 +1663,7 @@
     </row>
     <row r="22" spans="3:12">
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -1388,8 +1673,8 @@
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="3:12">
-      <c r="E23" s="10" t="s">
-        <v>61</v>
+      <c r="E23" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -1400,12 +1685,12 @@
     </row>
     <row r="25" spans="3:12">
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="3:12">
       <c r="E26" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
@@ -1417,10 +1702,10 @@
     </row>
     <row r="27" spans="3:12">
       <c r="E27" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1431,10 +1716,10 @@
     </row>
     <row r="28" spans="3:12">
       <c r="E28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -1451,20 +1736,467 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="3:12">
-      <c r="C31" s="1">
+    <row r="32" spans="3:12">
+      <c r="D32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="D33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="E34" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="D44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="D45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="D46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="E47" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="E48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="4:14">
+      <c r="D51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="4:14">
+      <c r="E52" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="4:14">
+      <c r="E53" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="6"/>
+    </row>
+    <row r="54" spans="4:14">
+      <c r="E54" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="4:14">
+      <c r="E55" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9"/>
+    </row>
+    <row r="56" spans="4:14">
+      <c r="E56" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="4:14">
+      <c r="E57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="4:14">
+      <c r="E58" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="9"/>
+    </row>
+    <row r="59" spans="4:14">
+      <c r="E59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="4:14">
+      <c r="E60" s="7"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="4:14">
+      <c r="E61" s="7"/>
+      <c r="F61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="9"/>
+    </row>
+    <row r="62" spans="4:14">
+      <c r="E62" s="7"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="9"/>
+    </row>
+    <row r="63" spans="4:14">
+      <c r="E63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="4:14">
+      <c r="E64" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="5:14">
+      <c r="E65" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="9"/>
+    </row>
+    <row r="66" spans="5:14">
+      <c r="E66" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="9"/>
+    </row>
+    <row r="67" spans="5:14">
+      <c r="E67" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="9"/>
+    </row>
+    <row r="68" spans="5:14">
+      <c r="E68" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="9"/>
+    </row>
+    <row r="69" spans="5:14">
+      <c r="E69" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="5:14">
+      <c r="E70" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="9"/>
+    </row>
+    <row r="71" spans="5:14">
+      <c r="E71" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="12"/>
+    </row>
+    <row r="73" spans="5:14">
+      <c r="E73" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="5:14">
+      <c r="E74" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="5:14">
+      <c r="E75" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="5:14">
+      <c r="E77" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="5:14">
+      <c r="E78" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="5:14">
+      <c r="E79" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="5:14">
+      <c r="E80" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="E82" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="E83" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="C85" s="1">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="3:12">
-      <c r="C32" s="1">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>46</v>
+    <row r="87" spans="3:5">
+      <c r="D87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="E88" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="D89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5">
+      <c r="D90" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5">
+      <c r="E91" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5">
+      <c r="D93" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5">
+      <c r="E94" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5">
+      <c r="E95" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5">
+      <c r="E96" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="900" windowWidth="29500" windowHeight="19020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5560" yWindow="1800" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="宏的使用" sheetId="2" r:id="rId2"/>
     <sheet name="Git基础操作" sheetId="3" r:id="rId3"/>
+    <sheet name="Mac使用技巧" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -604,6 +605,46 @@
   </si>
   <si>
     <t>git fetch origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mac OX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技巧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹右键直接进入位于该文件夹的终端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统偏好设置-&gt;键盘-&gt;快捷键-&gt;服务-&gt;勾选"新建位于文件夹位置的终端窗口"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建位于文件夹位置的终端窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用到终端的时候，每次都是打开终端程序，然后一层一层的cd 进入到目标目录，很麻烦，如果能直接在目标目录进入终端将会很方便</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技巧</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -778,7 +819,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -815,6 +856,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -842,7 +887,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="46">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -884,6 +929,10 @@
     <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1213,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C12"/>
+  <dimension ref="B3:D20"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1255,6 +1304,29 @@
       </c>
       <c r="C12" s="3" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="D20" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +1614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A21" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A72" workbookViewId="0">
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
@@ -2209,4 +2281,53 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1800" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="12060" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -544,10 +544,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>取回远程主机某个分支的更新，再与粉底的指定分支合并</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>语法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -556,10 +552,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>相当与，先fetch，再merge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>git pull origin master:master</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -645,6 +637,46 @@
   </si>
   <si>
     <t>技巧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取回远程主机某个分支的更新，再与本地的指定分支合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于，先fetch，再merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch是从远程的主机获取更新到本地的仓库，不会自动merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要想更新并看到更新的结果，还需要进行merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如:先取更新，查看差别，再合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git 模型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -938,6 +970,49 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2527300" y="24879300"/>
+          <a:ext cx="6108700" cy="5778500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1264,15 +1339,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3">
@@ -1308,7 +1384,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1316,17 +1392,17 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="C19" s="1" t="s">
-        <v>124</v>
+      <c r="C19" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1334,6 +1410,7 @@
   <hyperlinks>
     <hyperlink ref="C4" location="宏的使用!A1" display="宏的使用"/>
     <hyperlink ref="C12" location="Git的使用!A1" display="Git"/>
+    <hyperlink ref="C19" location="Mac使用技巧!A1" display="使用技巧"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1612,10 +1689,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N99"/>
+  <dimension ref="B2:N103"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView showRuler="0" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -1821,12 +1898,45 @@
         <v>47</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="E34" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="D35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="E36" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="E37" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="E38" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="E39" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="E40" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="3:5">
@@ -2204,20 +2314,20 @@
         <v>54</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="3:5">
       <c r="E88" s="1" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="89" spans="3:5">
       <c r="D89" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="90" spans="3:5">
@@ -2225,56 +2335,62 @@
         <v>56</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="3:5">
       <c r="E91" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="3:5">
       <c r="D93" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="3:5">
       <c r="E94" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="3:5">
       <c r="E95" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="3:5">
       <c r="E96" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="E97" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5">
+      <c r="E98" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="5:5">
-      <c r="E97" s="1" t="s">
+    <row r="99" spans="3:5">
+      <c r="E99" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="5:5">
-      <c r="E98" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="1" t="s">
-        <v>119</v>
+    <row r="103" spans="3:5">
+      <c r="C103" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2287,7 +2403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2298,26 +2414,26 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="1300" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4200" yWindow="1500" windowWidth="29880" windowHeight="16060" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="宏的使用" sheetId="2" r:id="rId2"/>
-    <sheet name="Git基础操作" sheetId="3" r:id="rId3"/>
+    <sheet name="Git的使用" sheetId="3" r:id="rId3"/>
     <sheet name="Mac使用技巧" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="171">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Git 5大命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Git clone</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -262,6 +258,393 @@
   </si>
   <si>
     <t>origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git clone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/KnowledgeSet.git</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/sokasyn/KnowledgeSet.git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (push)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦远程主机的版本库有了更新(Git术语叫做commit),需要将这些更新取回本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将本地分支的更新，推送到远程主机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push &lt;远程主机名&gt; &lt;本地分支名&gt;:&lt;远程分支名&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果远程分支名不存在，则新建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ git status</t>
+  </si>
+  <si>
+    <t>On branch master</t>
+  </si>
+  <si>
+    <t>Your branch is ahead of 'origin/master' by 1 commit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (use "git push" to publish your local commits)</t>
+  </si>
+  <si>
+    <t>Changes not staged for commit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (use "git add &lt;file&gt;..." to update what will be committed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  (use "git checkout -- &lt;file&gt;..." to discard changes in working directory)</t>
+  </si>
+  <si>
+    <t>modified:   NoteBook.xlsx</t>
+  </si>
+  <si>
+    <t>no changes added to commit (use "git add" and/or "git commit -a")</t>
+  </si>
+  <si>
+    <t>Counting objects: 5, done.</t>
+  </si>
+  <si>
+    <t>Delta compression using up to 4 threads.</t>
+  </si>
+  <si>
+    <t>Compressing objects: 100% (5/5), done.</t>
+  </si>
+  <si>
+    <t>Writing objects: 100% (5/5), 28.48 KiB | 0 bytes/s, done.</t>
+  </si>
+  <si>
+    <t>Total 5 (delta 0), reused 0 (delta 0)</t>
+  </si>
+  <si>
+    <t>To https://github.com/sokasyn/KnowledgeSet.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7c68ad8..c18b99c  master -&gt; master</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">$ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git push origin master</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.远程主机名可以通过2的 git remote获取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b.如果省略远程分支名,则表示将本地分支推送与之存在"追踪关系"的远程分支(通常两者的名字相同)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin :master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于 git push origin --delete master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前分支与远程分支存在追踪关系，则本地分支名和远程分支名都可以省略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等同于 git push origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等同于 git push origin master:master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果当前分支只有一个追踪分支，那么主机名都可以省略</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>克隆远程的仓库到本地,并且所有本地分支默认与远程主机的同名分支建立起了追踪关系(tracking）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull &lt;远程主机名&gt; &lt;远程分支名&gt;:&lt;本地分支名&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull origin master:master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于参数的省略，类似与4的git push</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果远程主机删除了某个分支，默认情况下，git pull不会拉去远程分支的时候，删除本地对应的分支.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是为了防止由于其他人的操作，导致我本地的分支也被删除了.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然，如果我希望跟远程完全同步，也删除我本地的分支，则需要加上参数选项 -p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull -p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等同与下面两行命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch --prune origin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch -p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch &lt;远程主机名&gt; &lt;远程分支名&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mac OX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用技巧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹右键直接进入位于该文件夹的终端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统偏好设置-&gt;键盘-&gt;快捷键-&gt;服务-&gt;勾选"新建位于文件夹位置的终端窗口"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技巧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取回远程主机某个分支的更新，再与本地的指定分支合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相当于，先fetch，再merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch是从远程的主机获取更新到本地的仓库，不会自动merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要想更新并看到更新的结果，还需要进行merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git fetch origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如:先取更新，查看差别，再合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add &lt;file&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add myFile.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将myFile.txt提交到暂存区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add Image/photo.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将Image下的photo.png文件提交到暂存区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add .</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将所有新增/修改的文件提交到暂存区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有提交到暂存区的文件，才会被commit到本地的仓库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外,git add不是字面上的新增文件,修改过的文件也要add进暂存区，才会被commit到本地仓库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将暂存区的文件提交到本地仓库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -a -m "commit message"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令中的-a 表示所有,-m表示commit的信息,如果不加-m，则默认会打开vi，让你输入信息，完成后:wq，即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>列出所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程的主机</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -285,164 +668,6 @@
       </rPr>
       <t xml:space="preserve"> (fetch)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git clone </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://github.com/KnowledgeSet.git</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://github.com/sokasyn/KnowledgeSet.git</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (push)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.ruanyifeng.com/blog/2014/06/git_remote.html</t>
-  </si>
-  <si>
-    <t>一旦远程主机的版本库有了更新(Git术语叫做commit),需要将这些更新取回本地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>列出所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>远程的主机</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将本地分支的更新，推送到远程主机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push &lt;远程主机名&gt; &lt;本地分支名&gt;:&lt;远程分支名&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果远程分支名不存在，则新建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push origin master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$ git status</t>
-  </si>
-  <si>
-    <t>On branch master</t>
-  </si>
-  <si>
-    <t>Your branch is ahead of 'origin/master' by 1 commit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (use "git push" to publish your local commits)</t>
-  </si>
-  <si>
-    <t>Changes not staged for commit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (use "git add &lt;file&gt;..." to update what will be committed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (use "git checkout -- &lt;file&gt;..." to discard changes in working directory)</t>
-  </si>
-  <si>
-    <t>modified:   NoteBook.xlsx</t>
-  </si>
-  <si>
-    <t>no changes added to commit (use "git add" and/or "git commit -a")</t>
-  </si>
-  <si>
-    <t>Counting objects: 5, done.</t>
-  </si>
-  <si>
-    <t>Delta compression using up to 4 threads.</t>
-  </si>
-  <si>
-    <t>Compressing objects: 100% (5/5), done.</t>
-  </si>
-  <si>
-    <t>Writing objects: 100% (5/5), 28.48 KiB | 0 bytes/s, done.</t>
-  </si>
-  <si>
-    <t>Total 5 (delta 0), reused 0 (delta 0)</t>
-  </si>
-  <si>
-    <t>To https://github.com/sokasyn/KnowledgeSet.git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   7c68ad8..c18b99c  master -&gt; master</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">$ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>git push origin master</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.远程主机名可以通过2的 git remote获取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b.如果省略远程分支名,则表示将本地分支推送与之存在"追踪关系"的远程分支(通常两者的名字相同)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -508,175 +733,130 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>git push origin :master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相当于 git push origin --delete master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果当前分支与远程分支存在追踪关系，则本地分支名和远程分支名都可以省略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push origin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等同于 git push origin master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等同于 git push origin master:master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果当前分支只有一个追踪分支，那么主机名都可以省略</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>克隆远程的仓库到本地,并且所有本地分支默认与远程主机的同名分支建立起了追踪关系(tracking）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>语法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git pull &lt;远程主机名&gt; &lt;远程分支名&gt;:&lt;本地分支名&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git pull origin master:master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于参数的省略，类似与4的git push</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果远程主机删除了某个分支，默认情况下，git pull不会拉去远程分支的时候，删除本地对应的分支.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是为了防止由于其他人的操作，导致我本地的分支也被删除了.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当然，如果我希望跟远程完全同步，也删除我本地的分支，则需要加上参数选项 -p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git pull -p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等同与下面两行命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch --prune origin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch -p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch &lt;远程主机名&gt; &lt;远程分支名&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch origin master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mac OX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用技巧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件夹右键直接进入位于该文件夹的终端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统偏好设置-&gt;键盘-&gt;快捷键-&gt;服务-&gt;勾选"新建位于文件夹位置的终端窗口"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建位于文件夹位置的终端窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要用到终端的时候，每次都是打开终端程序，然后一层一层的cd 进入到目标目录，很麻烦，如果能直接在目标目录进入终端将会很方便</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技巧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>取回远程主机某个分支的更新，再与本地的指定分支合并</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相当于，先fetch，再merge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch是从远程的主机获取更新到本地的仓库，不会自动merge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>要想更新并看到更新的结果，还需要进行merge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch origin master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git merge master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如:先取更新，查看差别，再合并</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Git 模型</t>
+    <t>返回目录</t>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Git 与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程主机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的交互</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Git管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本地仓库</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">将文件的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增/修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 提交到暂存区(index/stage)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git 本地仓库与远程主机的交互模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地仓库模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键新建位于指定文件夹位置的终端窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用到终端的时候，每次都是打开终端程序，然后一层一层的cd 进入到目标目录，很麻烦，如果能在finder中直接在目标目录进入终端将会很方便</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -684,7 +864,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -743,6 +923,12 @@
     <font>
       <sz val="16"/>
       <color rgb="FF3366FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -851,7 +1037,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -898,28 +1084,76 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="35" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="48">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -965,6 +1199,8 @@
     <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -977,15 +1213,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1002,8 +1238,79 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2527300" y="24879300"/>
+          <a:off x="2755900" y="32385000"/>
           <a:ext cx="6108700" cy="5778500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7791450" cy="5133975"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2717800" y="5829300"/>
+          <a:ext cx="7791450" cy="5133975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11518900" y="5816600"/>
+          <a:ext cx="5038725" cy="5848350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,9 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -1382,9 +1687,17 @@
         <v>39</v>
       </c>
     </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
     <row r="17" spans="2:4">
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -1392,25 +1705,25 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="宏的使用!A1" display="宏的使用"/>
-    <hyperlink ref="C12" location="Git的使用!A1" display="Git"/>
-    <hyperlink ref="C19" location="Mac使用技巧!A1" display="使用技巧"/>
+    <hyperlink ref="C4" location="宏的使用!A1" tooltip="宏的使用" display="宏的使用"/>
+    <hyperlink ref="C12" location="Git的使用!A1" tooltip="Git" display="Git"/>
+    <hyperlink ref="C19" location="Mac使用技巧!A1" tooltip="常用小技巧" display="使用技巧"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1424,23 +1737,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4">
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:4">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -1448,37 +1765,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4">
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4">
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4">
       <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:4">
       <c r="D10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4">
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="1:4">
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="1:4">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -1486,7 +1803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="1:4">
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
         <v>12</v>
@@ -1677,6 +1994,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1689,705 +2009,829 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N103"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="22"/>
+    <col min="3" max="3" width="12.1640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="D6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="E16" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="D19" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="D20" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="E21" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="D24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="22">
+        <v>2</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="C53" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="D55" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="D56" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="D57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="E58" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="E60" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="E61" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="E62" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="C64" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12">
+      <c r="D66" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12">
+      <c r="D67" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12">
+      <c r="E68" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="3:12">
+      <c r="E69" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="13"/>
+    </row>
+    <row r="70" spans="3:12">
+      <c r="E70" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="13"/>
+    </row>
+    <row r="71" spans="3:12">
+      <c r="E71" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="16"/>
+    </row>
+    <row r="73" spans="3:12">
+      <c r="E73" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12">
+      <c r="E74" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="10"/>
+    </row>
+    <row r="75" spans="3:12">
+      <c r="E75" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="13"/>
+    </row>
+    <row r="76" spans="3:12">
+      <c r="E76" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="16"/>
+    </row>
+    <row r="78" spans="3:12">
+      <c r="C78" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12">
+      <c r="D80" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="D81" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="E82" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="D83" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5">
+      <c r="E84" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="E85" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="E86" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="E87" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="E88" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5">
+      <c r="C90" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="3:5">
+      <c r="D92" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5">
+      <c r="D93" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1" t="s">
+    <row r="94" spans="3:5">
+      <c r="D94" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5">
+      <c r="E95" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5">
+      <c r="E96" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="4:14">
+      <c r="D99" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="4:14">
+      <c r="E100" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="4:14">
+      <c r="E101" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="10"/>
+    </row>
+    <row r="102" spans="4:14">
+      <c r="E102" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="13"/>
+    </row>
+    <row r="103" spans="4:14">
+      <c r="E103" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="13"/>
+    </row>
+    <row r="104" spans="4:14">
+      <c r="E104" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="13"/>
+    </row>
+    <row r="105" spans="4:14">
+      <c r="E105" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="13"/>
+    </row>
+    <row r="106" spans="4:14">
+      <c r="E106" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="13"/>
+    </row>
+    <row r="107" spans="4:14">
+      <c r="E107" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="13"/>
+    </row>
+    <row r="108" spans="4:14">
+      <c r="E108" s="11"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="13"/>
+    </row>
+    <row r="109" spans="4:14">
+      <c r="E109" s="11"/>
+      <c r="F109" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="13"/>
+    </row>
+    <row r="110" spans="4:14">
+      <c r="E110" s="11"/>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="13"/>
+    </row>
+    <row r="111" spans="4:14">
+      <c r="E111" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F111" s="12"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="13"/>
+    </row>
+    <row r="112" spans="4:14">
+      <c r="E112" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F112" s="12"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="13"/>
+    </row>
+    <row r="113" spans="5:14">
+      <c r="E113" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F113" s="19"/>
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="13"/>
+    </row>
+    <row r="114" spans="5:14">
+      <c r="E114" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F114" s="19"/>
+      <c r="G114" s="19"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="13"/>
+    </row>
+    <row r="115" spans="5:14">
+      <c r="E115" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="13"/>
+    </row>
+    <row r="116" spans="5:14">
+      <c r="E116" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F116" s="19"/>
+      <c r="G116" s="19"/>
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="13"/>
+    </row>
+    <row r="117" spans="5:14">
+      <c r="E117" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F117" s="19"/>
+      <c r="G117" s="19"/>
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="13"/>
+    </row>
+    <row r="118" spans="5:14">
+      <c r="E118" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="13"/>
+    </row>
+    <row r="119" spans="5:14">
+      <c r="E119" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F119" s="21"/>
+      <c r="G119" s="21"/>
+      <c r="H119" s="21"/>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="15"/>
+      <c r="N119" s="16"/>
+    </row>
+    <row r="121" spans="5:14">
+      <c r="E121" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="5:14">
+      <c r="E122" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="123" spans="5:14">
+      <c r="E123" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="125" spans="5:14">
+      <c r="E125" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="5:14">
+      <c r="E126" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="5:14">
+      <c r="E127" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="128" spans="5:14">
+      <c r="E128" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5">
+      <c r="E130" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="3:5">
+      <c r="E131" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5">
+      <c r="C133" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5">
+      <c r="D135" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5">
+      <c r="E136" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5">
+      <c r="D137" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5">
+      <c r="D138" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="3:5">
+      <c r="E139" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="141" spans="3:5">
+      <c r="D141" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="D9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="E10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5">
-      <c r="E12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="E13" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="E14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5">
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
-      <c r="D19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
-      <c r="E20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="3:12">
-      <c r="E21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="3:12">
-      <c r="E22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="3:12">
-      <c r="E23" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="E25" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="E26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="3:12">
-      <c r="E27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
-    </row>
-    <row r="28" spans="3:12">
-      <c r="E28" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="C30" s="1">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12">
-      <c r="D32" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="D33" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="E34" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="D35" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="E36" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="E37" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="E38" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="E39" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="E40" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="C42" s="1">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="D44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="D45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="D46" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="E47" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="E48" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="4:14">
-      <c r="D51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="4:14">
-      <c r="E52" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="4:14">
-      <c r="E53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="4:14">
-      <c r="E54" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="8"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="9"/>
-    </row>
-    <row r="55" spans="4:14">
-      <c r="E55" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="8"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="9"/>
-    </row>
-    <row r="56" spans="4:14">
-      <c r="E56" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="9"/>
-    </row>
-    <row r="57" spans="4:14">
-      <c r="E57" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="9"/>
-    </row>
-    <row r="58" spans="4:14">
-      <c r="E58" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="8"/>
-      <c r="N58" s="9"/>
-    </row>
-    <row r="59" spans="4:14">
-      <c r="E59" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
-      <c r="M59" s="8"/>
-      <c r="N59" s="9"/>
-    </row>
-    <row r="60" spans="4:14">
-      <c r="E60" s="7"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
-      <c r="L60" s="8"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="9"/>
-    </row>
-    <row r="61" spans="4:14">
-      <c r="E61" s="7"/>
-      <c r="F61" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="8"/>
-      <c r="L61" s="8"/>
-      <c r="M61" s="8"/>
-      <c r="N61" s="9"/>
-    </row>
-    <row r="62" spans="4:14">
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="8"/>
-      <c r="L62" s="8"/>
-      <c r="M62" s="8"/>
-      <c r="N62" s="9"/>
-    </row>
-    <row r="63" spans="4:14">
-      <c r="E63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="9"/>
-    </row>
-    <row r="64" spans="4:14">
-      <c r="E64" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-      <c r="L64" s="8"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="9"/>
-    </row>
-    <row r="65" spans="5:14">
-      <c r="E65" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="9"/>
-    </row>
-    <row r="66" spans="5:14">
-      <c r="E66" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="9"/>
-    </row>
-    <row r="67" spans="5:14">
-      <c r="E67" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="8"/>
-      <c r="N67" s="9"/>
-    </row>
-    <row r="68" spans="5:14">
-      <c r="E68" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="9"/>
-    </row>
-    <row r="69" spans="5:14">
-      <c r="E69" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="8"/>
-      <c r="N69" s="9"/>
-    </row>
-    <row r="70" spans="5:14">
-      <c r="E70" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="8"/>
-      <c r="N70" s="9"/>
-    </row>
-    <row r="71" spans="5:14">
-      <c r="E71" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="17"/>
-      <c r="M71" s="11"/>
-      <c r="N71" s="12"/>
-    </row>
-    <row r="73" spans="5:14">
-      <c r="E73" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="5:14">
-      <c r="E74" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="5:14">
-      <c r="E75" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="5:14">
-      <c r="E77" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="5:14">
-      <c r="E78" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="5:14">
-      <c r="E79" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="5:14">
-      <c r="E80" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5">
-      <c r="E82" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5">
-      <c r="E83" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5">
-      <c r="C85" s="1">
-        <v>5</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5">
-      <c r="D87" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5">
-      <c r="E88" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5">
-      <c r="D89" s="1" t="s">
+    <row r="142" spans="3:5">
+      <c r="E142" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E89" s="1" t="s">
+    </row>
+    <row r="143" spans="3:5">
+      <c r="E143" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="90" spans="3:5">
-      <c r="D90" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E90" s="1" t="s">
+    <row r="144" spans="3:5">
+      <c r="E144" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="91" spans="3:5">
-      <c r="E91" s="1" t="s">
+    <row r="145" spans="4:5">
+      <c r="E145" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="3:5">
-      <c r="D93" s="1" t="s">
+    <row r="146" spans="4:5">
+      <c r="E146" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E93" s="1" t="s">
+    </row>
+    <row r="147" spans="4:5">
+      <c r="E147" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="3:5">
-      <c r="E94" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5">
-      <c r="E95" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5">
-      <c r="E96" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5">
-      <c r="E97" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5">
-      <c r="E98" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5">
-      <c r="E99" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5">
-      <c r="C103" s="1" t="s">
-        <v>139</v>
-      </c>
+    <row r="150" spans="4:5">
+      <c r="D150" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5">
+      <c r="D151" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -2401,43 +2845,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="12.1640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="1500" windowWidth="29880" windowHeight="16060" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-100" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="宏的使用" sheetId="2" r:id="rId2"/>
     <sheet name="Git的使用" sheetId="3" r:id="rId3"/>
     <sheet name="Mac使用技巧" sheetId="4" r:id="rId4"/>
+    <sheet name="Xcode调试常见问题" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="193">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -501,10 +502,6 @@
   </si>
   <si>
     <t>使用技巧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件夹右键直接进入位于该文件夹的终端</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -857,6 +854,97 @@
   </si>
   <si>
     <t>需要用到终端的时候，每次都是打开终端程序，然后一层一层的cd 进入到目标目录，很麻烦，如果能在finder中直接在目标目录进入终端将会很方便</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个同事的iPhone更新到了最新的iOS版本,在连接Xcode要安装开发的App时,报出了这个异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然,能支持多高的版本,我们可能并不会太清楚的,可以通过以下两种办法检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到目录Applications/Xcode.app/Contents/Developer/Platforms/iPhoneOS.platform/DeviceSupport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该目录下面罗列出了能支持的iOS版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在finder中的"应用程序"中找到"Xcode",右键"显示包内容"-&gt;Contents-&gt;Developer-&gt;Platforms-&gt;iPhoneOS.platform-&gt;DeviceSupport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么长的目录地址,我们可不一定随时记得住啊,怎么办,其实,我们可以到Xcode的包内容下面查看即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说白了,1跟2是一样的道理,但是我们可以下意识的想到去Xcode的包内容里去找,而不是被一长串的目录地址的记忆造成障碍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上两种方式都能到一下的目录看到Xcode所能支持的iOS版本了,发现iOS9.3确实没有在Support的行列中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新的iOS版本9.3,出来才不久,Xcode的版本7.0,支持的iOS版本最高只能是9.0.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级Xcode,问题就解决了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>could not find developer disk image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx's iPhone is busy:proccessing symbol files</t>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>承接问题1,升级了Xcode之后,连接iPhone,Build/Run的时候,出现这个提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待,直到Xcode Processing symbol files结束即可.Xcode的上方有个进度条的,大概需要5分钟左右</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试时出现: Somebody's iPhone is busy:processing symbol files</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试时出现: Could not find developer disk image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹右键直接新建位于该文件夹的终端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试常见问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1322,6 +1410,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2616200" y="3175000"/>
+          <a:ext cx="7708900" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -1644,7 +1775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D20"/>
+  <dimension ref="B3:D23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -1656,22 +1787,22 @@
     <col min="4" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:4">
       <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:4">
       <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:4">
       <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:4">
       <c r="B11" s="1">
         <v>1</v>
       </c>
@@ -1679,51 +1810,67 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="1">
+    <row r="12" spans="2:4">
+      <c r="C12" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="D14" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="1">
+    <row r="16" spans="2:4">
+      <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1">
+    <row r="21" spans="2:4">
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="C19" s="3" t="s">
+    <row r="22" spans="2:4">
+      <c r="C22" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="D20" s="1" t="s">
-        <v>117</v>
+    <row r="23" spans="2:4">
+      <c r="D23" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C4" location="宏的使用!A1" tooltip="宏的使用" display="宏的使用"/>
-    <hyperlink ref="C12" location="Git的使用!A1" tooltip="Git" display="Git"/>
-    <hyperlink ref="C19" location="Mac使用技巧!A1" tooltip="常用小技巧" display="使用技巧"/>
+    <hyperlink ref="C15" location="Git的使用!A1" tooltip="Git" display="Git"/>
+    <hyperlink ref="C22" location="Mac使用技巧!A1" tooltip="常用小技巧" display="使用技巧"/>
+    <hyperlink ref="C12" location="Xcode调试常见问题!A1" tooltip="Xcode调试常见异常信息" display="调试常见问题"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1749,7 +1896,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2024,7 +2171,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2032,114 +2179,114 @@
         <v>1</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="D7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="D8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="E11" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="E12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="E13" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="3:14">
       <c r="D19" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="3:14">
       <c r="D20" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="3:14">
       <c r="E21" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="3:14">
       <c r="D24" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="52" spans="2:5">
@@ -2147,12 +2294,12 @@
         <v>2</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="C53" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>41</v>
@@ -2204,7 +2351,7 @@
     </row>
     <row r="64" spans="2:5">
       <c r="C64" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>42</v>
@@ -2215,7 +2362,7 @@
         <v>54</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="67" spans="3:12">
@@ -2292,7 +2439,7 @@
         <v>62</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G75" s="12"/>
       <c r="H75" s="12"/>
@@ -2317,7 +2464,7 @@
     </row>
     <row r="78" spans="3:12">
       <c r="C78" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>43</v>
@@ -2346,40 +2493,40 @@
     </row>
     <row r="83" spans="3:5">
       <c r="D83" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="84" spans="3:5">
       <c r="E84" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="3:5">
       <c r="E85" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="3:5">
       <c r="E86" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="3:5">
       <c r="E87" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="3:5">
       <c r="E88" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="3:5">
       <c r="C90" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>45</v>
@@ -2429,7 +2576,7 @@
     </row>
     <row r="100" spans="4:14">
       <c r="E100" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101" spans="4:14">
@@ -2696,7 +2843,7 @@
     </row>
     <row r="121" spans="5:14">
       <c r="E121" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122" spans="5:14">
@@ -2741,7 +2888,7 @@
     </row>
     <row r="133" spans="3:5">
       <c r="C133" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>44</v>
@@ -2752,12 +2899,12 @@
         <v>53</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="3:5">
       <c r="E136" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="137" spans="3:5">
@@ -2821,7 +2968,7 @@
     </row>
     <row r="150" spans="4:5">
       <c r="D150" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="4:5">
@@ -2847,7 +2994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -2857,31 +3004,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2897,4 +3044,141 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="4860" yWindow="540" windowWidth="30160" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="235">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -945,6 +945,208 @@
   </si>
   <si>
     <t>调试常见问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分，即比较各个版本的区别(增删改)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff HEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比worksapce与最近一次commit的差别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比workspace与stage(暂存区)的差别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比stage与local repo(本地仓库)的差别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假如昨天下班前公司的电脑,GitHub主机上,个人电脑3者的代码是同步的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到了今天上班的时候，在公司的电脑前，进入workspace,在终端输入一下命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有显示任何差别,因为公司的电脑上worksapce和stage没有任何内容的改变,两者还是昨天下班前的状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$git pull origin master:master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后昨天下班后，利用个人电脑修改了temp.txt，追加了一行信息"今晚夜色不错",并且push到了GitHun主机。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有差分,temp.txt显示增加了一行"今晚夜色不错".</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接着，我打开temp.txt,再新增一行"今天天气很凉快"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以这个diff就显示增加了一行信息,输入 git diff --cached 结果也是一样的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>因为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pull,是从GitHub更新并合并到本地的workspace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(注意，是合并到workspace，而不是stage或local repo)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stage/local repo没有任何的变化</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的差分是多了两行，分别是"今晚夜色不错"和"今天天气很凉快"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我只是在worksapce中加入一行，没有进行任何git的操作，所以stage/local repo 中还是没变化的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后在终端输入命令 git diff 活着git diff -cached</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入 git add temp.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff （没有显示任何差分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached （有两行的差分)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为git add 是将workspace的更新提交到stage(对local repo没有影响),所以stage跟workspace是一样的，而local repo还是之前的状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -a -m "提交信息"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached (没有任何差分)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为git commit 之后将stage的更新提交到了local repo，所以到了这一步,workspace，stage，local repo3者实现了同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以diff就不会有差分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上5步，实现的是本地的同步,当然如果想要同步到GitHub,则可以git push origin master:master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前言</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在学习Git的时候，如果只是上网查命令，那么或许能通过一两行命令暂时达了到当时的需求，如实现了本地与主机的同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是，在理解Git的交互模型的时候，很容易被各种命令搞得不知所措，例如产生,我commit了，怎么仓库没变化(没有git add）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者，我fetch了，怎么没看到更新(fetch只是更新到本地的仓库，而不影响worksapce）等等的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解git数据交互模型,清楚各个命令在模型中的哪个环节及影响，是学好git的关键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（持续更新中)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1125,7 +1327,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1162,6 +1364,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1241,7 +1446,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="51">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1289,6 +1494,9 @@
     <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1302,13 +1510,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>200</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>224</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1340,7 +1548,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7791450" cy="5133975"/>
@@ -1373,13 +1581,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1777,7 +1985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -2156,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:N201"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
@@ -2174,805 +2382,1047 @@
         <v>153</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
     <row r="4" spans="1:5">
-      <c r="B4" s="22">
+      <c r="C4" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="C6" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="22">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="C5" s="23" t="s">
+    <row r="15" spans="1:5">
+      <c r="C15" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="D6" s="5" t="s">
+    <row r="16" spans="1:5">
+      <c r="D16" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="D7" s="5" t="s">
+    <row r="17" spans="3:5">
+      <c r="D17" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="D8" s="5" t="s">
+    <row r="18" spans="3:5">
+      <c r="D18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="E9" s="5" t="s">
+    <row r="19" spans="3:5">
+      <c r="E19" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="E10" s="6" t="s">
+    <row r="20" spans="3:5">
+      <c r="E20" s="6" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="E11" s="5" t="s">
+    <row r="21" spans="3:5">
+      <c r="E21" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="E12" s="6" t="s">
+    <row r="22" spans="3:5">
+      <c r="E22" s="6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="E13" s="5" t="s">
+    <row r="23" spans="3:5">
+      <c r="E23" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="D15" s="5" t="s">
+    <row r="25" spans="3:5">
+      <c r="D25" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="E16" s="7" t="s">
+    <row r="26" spans="3:5">
+      <c r="E26" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="3:14">
-      <c r="C18" s="23" t="s">
+    <row r="28" spans="3:5">
+      <c r="C28" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="3:14">
-      <c r="D19" s="5" t="s">
+    <row r="29" spans="3:5">
+      <c r="D29" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="3:14">
-      <c r="D20" s="5" t="s">
+    <row r="30" spans="3:5">
+      <c r="D30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="3:14">
-      <c r="E21" s="5" t="s">
+    <row r="31" spans="3:5">
+      <c r="E31" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="3:14">
-      <c r="D24" s="5" t="s">
+    <row r="34" spans="4:14">
+      <c r="D34" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N34" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
-      <c r="B52" s="22">
+    <row r="62" spans="3:5">
+      <c r="C62" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="D63" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5">
+      <c r="D64" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="E65" s="5">
+        <v>1</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="F66" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="E68" s="5">
         <v>2</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="F68" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="F69" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="E71" s="5">
+        <v>3</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6">
+      <c r="F72" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6">
+      <c r="D74" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6">
+      <c r="E75" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="E76" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="E77" s="5">
+        <v>1</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6">
+      <c r="F78" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="E79" s="5">
+        <v>2</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6">
+      <c r="F80" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6">
+      <c r="F81" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6">
+      <c r="F82" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6">
+      <c r="F83" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6">
+      <c r="F84" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6">
+      <c r="E85" s="5">
+        <v>3</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6">
+      <c r="F86" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6">
+      <c r="F87" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6">
+      <c r="F88" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6">
+      <c r="E89" s="5">
+        <v>4</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6">
+      <c r="F90" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6">
+      <c r="F91" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6">
+      <c r="F92" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6">
+      <c r="E93" s="5">
+        <v>5</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6">
+      <c r="F94" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6">
+      <c r="F95" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6">
+      <c r="F96" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="F97" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="E98" s="5">
+        <v>6</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="22">
+        <v>2</v>
+      </c>
+      <c r="C102" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
-      <c r="C53" s="23" t="s">
+    <row r="103" spans="2:6">
+      <c r="C103" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
-      <c r="D55" s="5" t="s">
+    <row r="105" spans="2:6">
+      <c r="D105" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
-      <c r="D56" s="5" t="s">
+    <row r="106" spans="2:6">
+      <c r="D106" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
-      <c r="D57" s="5" t="s">
+    <row r="107" spans="2:6">
+      <c r="D107" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
-      <c r="E58" s="5" t="s">
+    <row r="108" spans="2:6">
+      <c r="E108" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
-      <c r="E60" s="5" t="s">
+    <row r="110" spans="2:6">
+      <c r="E110" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
-      <c r="E61" s="5" t="s">
+    <row r="111" spans="2:6">
+      <c r="E111" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
-      <c r="E62" s="5" t="s">
+    <row r="112" spans="2:6">
+      <c r="E112" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
-      <c r="C64" s="23" t="s">
+    <row r="114" spans="3:12">
+      <c r="C114" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D114" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="3:12">
-      <c r="D66" s="5" t="s">
+    <row r="116" spans="3:12">
+      <c r="D116" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E116" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="3:12">
-      <c r="D67" s="5" t="s">
+    <row r="117" spans="3:12">
+      <c r="D117" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="3:12">
-      <c r="E68" s="8" t="s">
+    <row r="118" spans="3:12">
+      <c r="E118" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="10"/>
-    </row>
-    <row r="69" spans="3:12">
-      <c r="E69" s="11" t="s">
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="10"/>
+    </row>
+    <row r="119" spans="3:12">
+      <c r="E119" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="13"/>
-    </row>
-    <row r="70" spans="3:12">
-      <c r="E70" s="11" t="s">
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="13"/>
+    </row>
+    <row r="120" spans="3:12">
+      <c r="E120" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="13"/>
-    </row>
-    <row r="71" spans="3:12">
-      <c r="E71" s="14" t="s">
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="13"/>
+    </row>
+    <row r="121" spans="3:12">
+      <c r="E121" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="16"/>
-    </row>
-    <row r="73" spans="3:12">
-      <c r="E73" s="5" t="s">
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="16"/>
+    </row>
+    <row r="123" spans="3:12">
+      <c r="E123" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="3:12">
-      <c r="E74" s="8" t="s">
+    <row r="124" spans="3:12">
+      <c r="E124" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="10"/>
-    </row>
-    <row r="75" spans="3:12">
-      <c r="E75" s="11" t="s">
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="10"/>
+    </row>
+    <row r="125" spans="3:12">
+      <c r="E125" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F125" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="13"/>
-    </row>
-    <row r="76" spans="3:12">
-      <c r="E76" s="17" t="s">
+      <c r="G125" s="12"/>
+      <c r="H125" s="12"/>
+      <c r="I125" s="12"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="13"/>
+    </row>
+    <row r="126" spans="3:12">
+      <c r="E126" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F76" s="15" t="s">
+      <c r="F126" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="16"/>
-    </row>
-    <row r="78" spans="3:12">
-      <c r="C78" s="23" t="s">
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="16"/>
+    </row>
+    <row r="128" spans="3:12">
+      <c r="C128" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D128" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="80" spans="3:12">
-      <c r="D80" s="5" t="s">
+    <row r="130" spans="3:5">
+      <c r="D130" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="5" t="s">
+      <c r="E130" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="3:5">
-      <c r="D81" s="5" t="s">
+    <row r="131" spans="3:5">
+      <c r="D131" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E131" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="3:5">
-      <c r="E82" s="5" t="s">
+    <row r="132" spans="3:5">
+      <c r="E132" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="3:5">
-      <c r="D83" s="5" t="s">
+    <row r="133" spans="3:5">
+      <c r="D133" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E133" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="3:5">
-      <c r="E84" s="5" t="s">
+    <row r="134" spans="3:5">
+      <c r="E134" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="85" spans="3:5">
-      <c r="E85" s="5" t="s">
+    <row r="135" spans="3:5">
+      <c r="E135" s="5" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5">
-      <c r="E86" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="87" spans="3:5">
-      <c r="E87" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="3:5">
-      <c r="E88" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="3:5">
-      <c r="C90" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="92" spans="3:5">
-      <c r="D92" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5">
-      <c r="D93" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="3:5">
-      <c r="D94" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5">
-      <c r="E95" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5">
-      <c r="E96" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="4:14">
-      <c r="D99" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="100" spans="4:14">
-      <c r="E100" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="101" spans="4:14">
-      <c r="E101" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-      <c r="N101" s="10"/>
-    </row>
-    <row r="102" spans="4:14">
-      <c r="E102" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="13"/>
-    </row>
-    <row r="103" spans="4:14">
-      <c r="E103" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="13"/>
-    </row>
-    <row r="104" spans="4:14">
-      <c r="E104" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="13"/>
-    </row>
-    <row r="105" spans="4:14">
-      <c r="E105" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="13"/>
-    </row>
-    <row r="106" spans="4:14">
-      <c r="E106" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="13"/>
-    </row>
-    <row r="107" spans="4:14">
-      <c r="E107" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="13"/>
-    </row>
-    <row r="108" spans="4:14">
-      <c r="E108" s="11"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
-      <c r="H108" s="12"/>
-      <c r="I108" s="12"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="12"/>
-      <c r="N108" s="13"/>
-    </row>
-    <row r="109" spans="4:14">
-      <c r="E109" s="11"/>
-      <c r="F109" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="13"/>
-    </row>
-    <row r="110" spans="4:14">
-      <c r="E110" s="11"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="13"/>
-    </row>
-    <row r="111" spans="4:14">
-      <c r="E111" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12"/>
-      <c r="H111" s="12"/>
-      <c r="I111" s="12"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="12"/>
-      <c r="N111" s="13"/>
-    </row>
-    <row r="112" spans="4:14">
-      <c r="E112" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12"/>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="13"/>
-    </row>
-    <row r="113" spans="5:14">
-      <c r="E113" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="13"/>
-    </row>
-    <row r="114" spans="5:14">
-      <c r="E114" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="13"/>
-    </row>
-    <row r="115" spans="5:14">
-      <c r="E115" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F115" s="19"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="13"/>
-    </row>
-    <row r="116" spans="5:14">
-      <c r="E116" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F116" s="19"/>
-      <c r="G116" s="19"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="13"/>
-    </row>
-    <row r="117" spans="5:14">
-      <c r="E117" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F117" s="19"/>
-      <c r="G117" s="19"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="13"/>
-    </row>
-    <row r="118" spans="5:14">
-      <c r="E118" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="13"/>
-    </row>
-    <row r="119" spans="5:14">
-      <c r="E119" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F119" s="21"/>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
-      <c r="I119" s="21"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="15"/>
-      <c r="N119" s="16"/>
-    </row>
-    <row r="121" spans="5:14">
-      <c r="E121" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="5:14">
-      <c r="E122" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="123" spans="5:14">
-      <c r="E123" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="125" spans="5:14">
-      <c r="E125" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="126" spans="5:14">
-      <c r="E126" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="127" spans="5:14">
-      <c r="E127" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="128" spans="5:14">
-      <c r="E128" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5">
-      <c r="E130" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5">
-      <c r="E131" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5">
-      <c r="C133" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5">
-      <c r="D135" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="136" spans="3:5">
       <c r="E136" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="137" spans="3:5">
+      <c r="E137" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5">
+      <c r="E138" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="3:5">
+      <c r="C140" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="142" spans="3:5">
+      <c r="D142" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="143" spans="3:5">
+      <c r="D143" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="144" spans="3:5">
+      <c r="D144" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="4:14">
+      <c r="E145" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="146" spans="4:14">
+      <c r="E146" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="4:14">
+      <c r="D149" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="150" spans="4:14">
+      <c r="E150" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="4:14">
+      <c r="E151" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F151" s="9"/>
+      <c r="G151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="9"/>
+      <c r="L151" s="9"/>
+      <c r="M151" s="9"/>
+      <c r="N151" s="10"/>
+    </row>
+    <row r="152" spans="4:14">
+      <c r="E152" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="13"/>
+    </row>
+    <row r="153" spans="4:14">
+      <c r="E153" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="13"/>
+    </row>
+    <row r="154" spans="4:14">
+      <c r="E154" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="13"/>
+    </row>
+    <row r="155" spans="4:14">
+      <c r="E155" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="13"/>
+    </row>
+    <row r="156" spans="4:14">
+      <c r="E156" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F156" s="12"/>
+      <c r="G156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="I156" s="12"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12"/>
+      <c r="N156" s="13"/>
+    </row>
+    <row r="157" spans="4:14">
+      <c r="E157" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="13"/>
+    </row>
+    <row r="158" spans="4:14">
+      <c r="E158" s="11"/>
+      <c r="F158" s="12"/>
+      <c r="G158" s="12"/>
+      <c r="H158" s="12"/>
+      <c r="I158" s="12"/>
+      <c r="J158" s="12"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="12"/>
+      <c r="N158" s="13"/>
+    </row>
+    <row r="159" spans="4:14">
+      <c r="E159" s="11"/>
+      <c r="F159" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="13"/>
+    </row>
+    <row r="160" spans="4:14">
+      <c r="E160" s="11"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="13"/>
+    </row>
+    <row r="161" spans="5:14">
+      <c r="E161" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+      <c r="J161" s="12"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="13"/>
+    </row>
+    <row r="162" spans="5:14">
+      <c r="E162" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="13"/>
+    </row>
+    <row r="163" spans="5:14">
+      <c r="E163" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="13"/>
+    </row>
+    <row r="164" spans="5:14">
+      <c r="E164" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="13"/>
+    </row>
+    <row r="165" spans="5:14">
+      <c r="E165" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="13"/>
+    </row>
+    <row r="166" spans="5:14">
+      <c r="E166" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="13"/>
+    </row>
+    <row r="167" spans="5:14">
+      <c r="E167" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="12"/>
+      <c r="N167" s="13"/>
+    </row>
+    <row r="168" spans="5:14">
+      <c r="E168" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="13"/>
+    </row>
+    <row r="169" spans="5:14">
+      <c r="E169" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F169" s="21"/>
+      <c r="G169" s="21"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="21"/>
+      <c r="J169" s="21"/>
+      <c r="K169" s="21"/>
+      <c r="L169" s="21"/>
+      <c r="M169" s="15"/>
+      <c r="N169" s="16"/>
+    </row>
+    <row r="171" spans="5:14">
+      <c r="E171" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="172" spans="5:14">
+      <c r="E172" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="5:14">
+      <c r="E173" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="175" spans="5:14">
+      <c r="E175" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="5:14">
+      <c r="E176" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5">
+      <c r="E177" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5">
+      <c r="E178" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5">
+      <c r="E180" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5">
+      <c r="E181" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5">
+      <c r="C183" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5">
+      <c r="D185" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E185" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5">
+      <c r="E186" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="137" spans="3:5">
-      <c r="D137" s="5" t="s">
+    <row r="187" spans="3:5">
+      <c r="D187" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E187" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="3:5">
-      <c r="D138" s="5" t="s">
+    <row r="188" spans="3:5">
+      <c r="D188" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E188" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="3:5">
-      <c r="E139" s="5" t="s">
+    <row r="189" spans="3:5">
+      <c r="E189" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="141" spans="3:5">
-      <c r="D141" s="5" t="s">
+    <row r="191" spans="3:5">
+      <c r="D191" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E191" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="142" spans="3:5">
-      <c r="E142" s="5" t="s">
+    <row r="192" spans="3:5">
+      <c r="E192" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="3:5">
-      <c r="E143" s="5" t="s">
+    <row r="193" spans="4:5">
+      <c r="E193" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="3:5">
-      <c r="E144" s="5" t="s">
+    <row r="194" spans="4:5">
+      <c r="E194" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="4:5">
-      <c r="E145" s="5" t="s">
+    <row r="195" spans="4:5">
+      <c r="E195" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="4:5">
-      <c r="E146" s="5" t="s">
+    <row r="196" spans="4:5">
+      <c r="E196" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="147" spans="4:5">
-      <c r="E147" s="5" t="s">
+    <row r="197" spans="4:5">
+      <c r="E197" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="4:5">
-      <c r="D150" s="5" t="s">
+    <row r="200" spans="4:5">
+      <c r="D200" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="151" spans="4:5">
-      <c r="D151" s="23"/>
+    <row r="201" spans="4:5">
+      <c r="D201" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3050,7 +3500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="540" windowWidth="30160" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="26860" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,13 @@
     <sheet name="Git的使用" sheetId="3" r:id="rId3"/>
     <sheet name="Mac使用技巧" sheetId="4" r:id="rId4"/>
     <sheet name="Xcode调试常见问题" sheetId="5" r:id="rId5"/>
+    <sheet name="Excel使用技巧" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="Git_管理本地仓库">Git的使用!$C$17</definedName>
+    <definedName name="Git_配置">Git的使用!$C$247</definedName>
+    <definedName name="Git_与远程主机的交互">Git的使用!$C$120</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -23,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="291">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -301,10 +307,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>一旦远程主机的版本库有了更新(Git术语叫做commit),需要将这些更新取回本地</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>将本地分支的更新，推送到远程主机</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -537,10 +539,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>要想更新并看到更新的结果，还需要进行merge</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>git fetch origin master</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -618,30 +616,6 @@
   </si>
   <si>
     <t>将暂存区的文件提交到本地仓库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git commit -a -m "commit message"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令中的-a 表示所有,-m表示commit的信息,如果不加-m，则默认会打开vi，让你输入信息，完成后:wq，即可</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>列出所有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>远程的主机</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -664,6 +638,644 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (fetch)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回目录</t>
+  </si>
+  <si>
+    <t>返回目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git 本地仓库与远程主机的交互模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地仓库模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令流程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键新建位于指定文件夹位置的终端窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用到终端的时候，每次都是打开终端程序，然后一层一层的cd 进入到目标目录，很麻烦，如果能在finder中直接在目标目录进入终端将会很方便</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个同事的iPhone更新到了最新的iOS版本,在连接Xcode要安装开发的App时,报出了这个异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然,能支持多高的版本,我们可能并不会太清楚的,可以通过以下两种办法检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到目录Applications/Xcode.app/Contents/Developer/Platforms/iPhoneOS.platform/DeviceSupport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该目录下面罗列出了能支持的iOS版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在finder中的"应用程序"中找到"Xcode",右键"显示包内容"-&gt;Contents-&gt;Developer-&gt;Platforms-&gt;iPhoneOS.platform-&gt;DeviceSupport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么长的目录地址,我们可不一定随时记得住啊,怎么办,其实,我们可以到Xcode的包内容下面查看即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说白了,1跟2是一样的道理,但是我们可以下意识的想到去Xcode的包内容里去找,而不是被一长串的目录地址的记忆造成障碍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上两种方式都能到一下的目录看到Xcode所能支持的iOS版本了,发现iOS9.3确实没有在Support的行列中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新的iOS版本9.3,出来才不久,Xcode的版本7.0,支持的iOS版本最高只能是9.0.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级Xcode,问题就解决了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>could not find developer disk image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx's iPhone is busy:proccessing symbol files</t>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>承接问题1,升级了Xcode之后,连接iPhone,Build/Run的时候,出现这个提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待,直到Xcode Processing symbol files结束即可.Xcode的上方有个进度条的,大概需要5分钟左右</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试时出现: Somebody's iPhone is busy:processing symbol files</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试时出现: Could not find developer disk image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件夹右键直接新建位于该文件夹的终端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试常见问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>差分，即比较各个版本的区别(增删改)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff HEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比worksapce与最近一次commit的差别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比workspace与stage(暂存区)的差别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比stage与local repo(本地仓库)的差别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假如昨天下班前公司的电脑,GitHub主机上,个人电脑3者的代码是同步的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到了今天上班的时候，在公司的电脑前，进入workspace,在终端输入一下命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有显示任何差别,因为公司的电脑上worksapce和stage没有任何内容的改变,两者还是昨天下班前的状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$git pull origin master:master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后昨天下班后，利用个人电脑修改了temp.txt，追加了一行信息"今晚夜色不错",并且push到了GitHun主机。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有差分,temp.txt显示增加了一行"今晚夜色不错".</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接着，我打开temp.txt,再新增一行"今天天气很凉快"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以这个diff就显示增加了一行信息,输入 git diff --cached 结果也是一样的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>因为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pull,是从GitHub更新并合并到本地的workspace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(注意，是合并到workspace，而不是stage或local repo)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的差分是多了两行，分别是"今晚夜色不错"和"今天天气很凉快"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我只是在worksapce中加入一行，没有进行任何git的操作，所以stage/local repo 中还是没变化的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后在终端输入命令 git diff 活着git diff -cached</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入 git add temp.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff （没有显示任何差分）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached （有两行的差分)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为git add 是将workspace的更新提交到stage(对local repo没有影响),所以stage跟workspace是一样的，而local repo还是之前的状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -a -m "提交信息"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached (没有任何差分)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为git commit 之后将stage的更新提交到了local repo，所以到了这一步,workspace，stage，local repo3者实现了同步</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以diff就不会有差分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上5步，实现的是本地的同步,当然如果想要同步到GitHub,则可以git push origin master:master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理本地仓库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与远程仓库交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.gitignore的配置(忽略某些文件的版本管理)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -m "commit message"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令中-m表示commit的信息,如果不加-m，则默认会打开vi，让你输入信息，完成后:wq，即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如,我改了两本程序A文件和B文件,其中,A文件我已经确定提交,但是B文件还需要时间修改,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么我可能选择先提交A文件,而保留B文件,等改好了再提交.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种情况下,我可以git add A文件,即把A文件的改修提交到暂存区,对B文件不做A的操作,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么我git commit 只会提交A文件(因为B文件还没有被加入到暂存区)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这很有意义的,工作中,我们可不一定只改了一个文件,而且,不是所有的文件都能同时定版!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我总得有选择提交的余地吧!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然还有一种情况,我确实该了很多文件,而且都确保可以提交,那么如果一个一个的add,岂不是很麻烦?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种情况可以加一个参数-a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -a -m "commit message"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>之所以说"被追踪了的文件", 是因为新增的文件,还未git add的时候,它的状态是"Untracked files"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解git数据交互模型,清楚各个命令在模型中的哪个环节及影响，是学好git的关键.(持续学习并更新中 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在理解Git的交互模型的之前，很容易被搞混淆，例如产生,我commit了，怎么仓库没变化(没有git add）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者，我fetch了，怎么没看到更新(fetch只是更新到本地的仓库，而不影响worksapce）等等的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一旦远程主机的版本库有了更新(Git术语叫做commit),将这些更新取回local repository</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>也就是说,fetch之后,你的工作目录下的文件其实还没有被更新的,更新的是local repo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要想实实在在的在工作目录中看到这些变化,还需要手工合并.这是跟git pull的主要区别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.gitignore文件的配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略掉不用进行版本控制的文件,如一些自动生成的.DS_Store等文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在仓库根目录下新建.gitignore文件,然后在该文件中加入需要忽略的文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在终端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$touch .gitignore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$vim .gitignore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">编辑.gitignore,加入 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.DS_Store // 忽略所有的.DS_Store文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*.a       // 忽略所有的以a为扩展名的文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Temp/    // 忽略根目录下的Temp文件夹下的所有文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Temp     // 忽略根目录下的Temp文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Temp/a.h // 忽略根目录下的Temp文件夹下的a.h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!lib.a    // 不忽略lib.a(在上一种情况下,可以设置忽略某一种类型,但特例除外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果在创建并设置.gitignore之前,就已经追踪了某写文件,那么这些文件不受gitignore配置的影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如,我之前就为 temp.txt做了追踪(就算只是git add,但没有commit,也没有push)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后在 .gitignore 中加入了 temp.txt,那么这个文件还是可以正常提交的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git_配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Git_管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本地仓库</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">将文件的 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>新增/修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 提交到暂存区(index/stage)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git commit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>只会把Stage(暂存区)的更新提交到local repo,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而不会把workspace的更新提交</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>加了-a参数后,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有被追踪了的文件都会被提交(包括在暂存区,以及不在暂存区的被追踪了的文件)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stage/local repo没有任何的变化</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Git 与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程主机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的交互</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>列出所有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程的主机</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -730,15 +1342,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>返回目录</t>
-  </si>
-  <si>
-    <t>返回目录</t>
+    <t>在Excel中做文档,会遇到文档写了很长了,虽然可以通过做文档目录的方式让文档更有结构化,方便阅读</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是,要通过拖动的方式找到想要看的位置,还是比较麻烦的,那么通过连接的方式,直接定位到具体的位置是个不错的选择</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作表的链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义名称的链接(点击某个单元格,链接到所有工作表的任一个位置)----实用啊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设,我想在"目录"工作表中的点击"Git的使用"单元格,链接到"Git的使用"工作表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我可能想点击某个单元格,链接到本工作表的某个特定位置,或者链接到另一个工作表的某个特定位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种情况设置稍微有点复杂.具体如下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弹出的框框中的"在工作簿中的名称"输入框输入名称,如"Git_分支管理"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git_分支管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种链接,点击某单元格最终会链接到"Git的使用"工作表,且焦点单元格是左上角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中单元格-&gt;工具栏中的"插入"-&gt;"名称"-&gt;"定义"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键"Git的使用"单元格-&gt;"超链接"-&gt;"文档"-&gt;"查找"-&gt;在列表中选择工作表"Git的使用"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2 在点击的单元(任意单元格)"右键"-&gt;"超链接"-&gt;"文档"-&gt;"查找"-&gt;"已定义的名称"-&gt;选择你之前定义的名称"Git_分支管理"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>Git 与</t>
+      <t xml:space="preserve">    那么</t>
     </r>
     <r>
       <rPr>
@@ -748,7 +1417,43 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>远程主机</t>
+      <t>点击之后,就会跳转到"Git的使用"工作表中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C266单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处,可以跨工作表跳转</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2-1 先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给目标的单元格定义名称</t>
     </r>
     <r>
       <rPr>
@@ -758,47 +1463,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>的交互</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Git管理</t>
+      <t>(即你想要点击之后跳到的位置,如Git的使用工作表中的</t>
     </r>
     <r>
       <rPr>
         <sz val="16"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0000FF"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>本地仓库</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">将文件的 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>新增/修改</t>
+      <t>C266单元格</t>
     </r>
     <r>
       <rPr>
@@ -808,345 +1483,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 提交到暂存区(index/stage)</t>
+      <t>)</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Git 本地仓库与远程主机的交互模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地仓库模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右键新建位于指定文件夹位置的终端窗口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要用到终端的时候，每次都是打开终端程序，然后一层一层的cd 进入到目标目录，很麻烦，如果能在finder中直接在目标目录进入终端将会很方便</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个同事的iPhone更新到了最新的iOS版本,在连接Xcode要安装开发的App时,报出了这个异常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原因</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>当然,能支持多高的版本,我们可能并不会太清楚的,可以通过以下两种办法检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>到目录Applications/Xcode.app/Contents/Developer/Platforms/iPhoneOS.platform/DeviceSupport</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该目录下面罗列出了能支持的iOS版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在finder中的"应用程序"中找到"Xcode",右键"显示包内容"-&gt;Contents-&gt;Developer-&gt;Platforms-&gt;iPhoneOS.platform-&gt;DeviceSupport</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这么长的目录地址,我们可不一定随时记得住啊,怎么办,其实,我们可以到Xcode的包内容下面查看即可</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说白了,1跟2是一样的道理,但是我们可以下意识的想到去Xcode的包内容里去找,而不是被一长串的目录地址的记忆造成障碍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上两种方式都能到一下的目录看到Xcode所能支持的iOS版本了,发现iOS9.3确实没有在Support的行列中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最新的iOS版本9.3,出来才不久,Xcode的版本7.0,支持的iOS版本最高只能是9.0.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决办法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级Xcode,问题就解决了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>could not find developer disk image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx's iPhone is busy:proccessing symbol files</t>
-  </si>
-  <si>
-    <t>异常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>承接问题1,升级了Xcode之后,连接iPhone,Build/Run的时候,出现这个提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>等待,直到Xcode Processing symbol files结束即可.Xcode的上方有个进度条的,大概需要5分钟左右</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试时出现: Somebody's iPhone is busy:processing symbol files</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试时出现: Could not find developer disk image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件夹右键直接新建位于该文件夹的终端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试常见问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>差分，即比较各个版本的区别(增删改)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>语法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff HEAD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对比worksapce与最近一次commit的差别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对比workspace与stage(暂存区)的差别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对比stage与local repo(本地仓库)的差别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>案例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>假如昨天下班前公司的电脑,GitHub主机上,个人电脑3者的代码是同步的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>到了今天上班的时候，在公司的电脑前，进入workspace,在终端输入一下命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有显示任何差别,因为公司的电脑上worksapce和stage没有任何内容的改变,两者还是昨天下班前的状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$git diff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff --cached</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>$git pull origin master:master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后昨天下班后，利用个人电脑修改了temp.txt，追加了一行信息"今晚夜色不错",并且push到了GitHun主机。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>有差分,temp.txt显示增加了一行"今晚夜色不错".</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>接着，我打开temp.txt,再新增一行"今天天气很凉快"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以这个diff就显示增加了一行信息,输入 git diff --cached 结果也是一样的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>因为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pull,是从GitHub更新并合并到本地的workspace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(注意，是合并到workspace，而不是stage或local repo)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>而</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>stage/local repo没有任何的变化</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的差分是多了两行，分别是"今晚夜色不错"和"今天天气很凉快"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为我只是在worksapce中加入一行，没有进行任何git的操作，所以stage/local repo 中还是没变化的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后在终端输入命令 git diff 活着git diff -cached</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入 git add temp.txt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff （没有显示任何差分）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff --cached （有两行的差分)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为git add 是将workspace的更新提交到stage(对local repo没有影响),所以stage跟workspace是一样的，而local repo还是之前的状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git commit -a -m "提交信息"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff --cached (没有任何差分)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为git commit 之后将stage的更新提交到了local repo，所以到了这一步,workspace，stage，local repo3者实现了同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所以diff就不会有差分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上5步，实现的是本地的同步,当然如果想要同步到GitHub,则可以git push origin master:master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>前言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在学习Git的时候，如果只是上网查命令，那么或许能通过一两行命令暂时达了到当时的需求，如实现了本地与主机的同步</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是，在理解Git的交互模型的时候，很容易被各种命令搞得不知所措，例如产生,我commit了，怎么仓库没变化(没有git add）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>或者，我fetch了，怎么没看到更新(fetch只是更新到本地的仓库，而不影响worksapce）等等的问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>理解git数据交互模型,清楚各个命令在模型中的哪个环节及影响，是学好git的关键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（持续更新中)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1154,7 +1492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1219,6 +1557,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1380,7 +1725,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1445,6 +1790,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -1510,13 +1858,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>200</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>243</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1534,7 +1882,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2755900" y="32385000"/>
+          <a:off x="3721100" y="51447700"/>
           <a:ext cx="6108700" cy="5778500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1548,7 +1896,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7791450" cy="5133975"/>
@@ -1579,15 +1927,15 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1605,7 +1953,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11518900" y="5816600"/>
+          <a:off x="10706100" y="11366500"/>
           <a:ext cx="5038725" cy="5848350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1650,6 +1998,49 @@
         <a:xfrm>
           <a:off x="2616200" y="3175000"/>
           <a:ext cx="7708900" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3454400" y="3898900"/>
+          <a:ext cx="3695700" cy="3035300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2020,17 +2411,17 @@
     </row>
     <row r="12" spans="2:4">
       <c r="C12" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2046,12 +2437,12 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -2059,17 +2450,17 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="C22" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="D23" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2495,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2364,1070 +2755,1292 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N201"/>
+  <dimension ref="A1:N266"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="22"/>
-    <col min="3" max="3" width="12.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="24" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="24"/>
+      <c r="C14" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="22">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="D19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="D20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="D21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="E22" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="E23" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="E24" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="E25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="E26" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="D28" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="E29" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="D32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="E34" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="D36" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="E37" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="E38" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="E39" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="E40" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5">
+      <c r="E41" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="E42" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="D44" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="4:5">
+      <c r="E45" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="E46" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="E47" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="4:5">
+      <c r="E48" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13">
+      <c r="D52" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6">
+      <c r="D81" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6">
+      <c r="D82" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6">
+      <c r="E83" s="5">
+        <v>1</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6">
+      <c r="F84" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6">
+      <c r="E86" s="5">
+        <v>2</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6">
+      <c r="F87" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6">
+      <c r="E89" s="5">
+        <v>3</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6">
+      <c r="F90" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6">
+      <c r="D92" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6">
+      <c r="E93" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6">
+      <c r="E94" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6">
+      <c r="E95" s="5">
+        <v>1</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6">
+      <c r="F96" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6">
+      <c r="E97" s="5">
+        <v>2</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6">
+      <c r="F98" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6">
+      <c r="F99" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6">
+      <c r="F100" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6">
+      <c r="F101" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6">
+      <c r="F102" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6">
+      <c r="E103" s="5">
+        <v>3</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6">
+      <c r="F104" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6">
+      <c r="F105" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6">
+      <c r="F106" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6">
+      <c r="E107" s="5">
+        <v>4</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6">
+      <c r="F108" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6">
+      <c r="F109" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6">
+      <c r="F110" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6">
+      <c r="E111" s="5">
+        <v>5</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6">
+      <c r="F112" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="F113" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="F114" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="F115" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="E116" s="5">
+        <v>6</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="22">
+        <v>2</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="C121" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="D123" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="D124" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="D125" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="E126" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="E128" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="3:12">
+      <c r="E129" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="3:12">
+      <c r="E130" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="3:12">
+      <c r="C132" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="3:12">
+      <c r="D134" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="135" spans="3:12">
+      <c r="D135" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="136" spans="3:12">
+      <c r="E136" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="10"/>
+    </row>
+    <row r="137" spans="3:12">
+      <c r="E137" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F137" s="12"/>
+      <c r="G137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="13"/>
+    </row>
+    <row r="138" spans="3:12">
+      <c r="E138" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="13"/>
+    </row>
+    <row r="139" spans="3:12">
+      <c r="E139" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="16"/>
+    </row>
+    <row r="141" spans="3:12">
+      <c r="E141" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="3:12">
+      <c r="E142" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="10"/>
+    </row>
+    <row r="143" spans="3:12">
+      <c r="E143" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F143" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12"/>
+      <c r="I143" s="12"/>
+      <c r="J143" s="12"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="13"/>
+    </row>
+    <row r="144" spans="3:12">
+      <c r="E144" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="16"/>
+    </row>
+    <row r="146" spans="3:5">
+      <c r="C146" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5">
+      <c r="D148" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5">
+      <c r="D149" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5">
+      <c r="E150" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5">
+      <c r="D151" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5">
+      <c r="E152" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5">
+      <c r="E153" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5">
+      <c r="E154" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5">
+      <c r="E155" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="156" spans="3:5">
+      <c r="E156" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="157" spans="3:5">
+      <c r="E157" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="159" spans="3:5">
+      <c r="C159" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="4:14">
+      <c r="D161" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="162" spans="4:14">
+      <c r="D162" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="163" spans="4:14">
+      <c r="D163" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="164" spans="4:14">
+      <c r="E164" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="165" spans="4:14">
+      <c r="E165" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="168" spans="4:14">
+      <c r="D168" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="169" spans="4:14">
+      <c r="E169" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="170" spans="4:14">
+      <c r="E170" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F170" s="9"/>
+      <c r="G170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="9"/>
+      <c r="L170" s="9"/>
+      <c r="M170" s="9"/>
+      <c r="N170" s="10"/>
+    </row>
+    <row r="171" spans="4:14">
+      <c r="E171" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F171" s="12"/>
+      <c r="G171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="I171" s="12"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="12"/>
+      <c r="N171" s="13"/>
+    </row>
+    <row r="172" spans="4:14">
+      <c r="E172" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F172" s="12"/>
+      <c r="G172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="I172" s="12"/>
+      <c r="J172" s="12"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="12"/>
+      <c r="N172" s="13"/>
+    </row>
+    <row r="173" spans="4:14">
+      <c r="E173" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F173" s="12"/>
+      <c r="G173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="I173" s="12"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="12"/>
+      <c r="N173" s="13"/>
+    </row>
+    <row r="174" spans="4:14">
+      <c r="E174" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="13"/>
+    </row>
+    <row r="175" spans="4:14">
+      <c r="E175" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F175" s="12"/>
+      <c r="G175" s="12"/>
+      <c r="H175" s="12"/>
+      <c r="I175" s="12"/>
+      <c r="J175" s="12"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="12"/>
+      <c r="N175" s="13"/>
+    </row>
+    <row r="176" spans="4:14">
+      <c r="E176" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F176" s="12"/>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="13"/>
+    </row>
+    <row r="177" spans="5:14">
+      <c r="E177" s="11"/>
+      <c r="F177" s="12"/>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="13"/>
+    </row>
+    <row r="178" spans="5:14">
+      <c r="E178" s="11"/>
+      <c r="F178" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G178" s="12"/>
+      <c r="H178" s="12"/>
+      <c r="I178" s="12"/>
+      <c r="J178" s="12"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="12"/>
+      <c r="N178" s="13"/>
+    </row>
+    <row r="179" spans="5:14">
+      <c r="E179" s="11"/>
+      <c r="F179" s="12"/>
+      <c r="G179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="13"/>
+    </row>
+    <row r="180" spans="5:14">
+      <c r="E180" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F180" s="12"/>
+      <c r="G180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="13"/>
+    </row>
+    <row r="181" spans="5:14">
+      <c r="E181" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F181" s="12"/>
+      <c r="G181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="I181" s="12"/>
+      <c r="J181" s="12"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="12"/>
+      <c r="N181" s="13"/>
+    </row>
+    <row r="182" spans="5:14">
+      <c r="E182" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+      <c r="I182" s="19"/>
+      <c r="J182" s="19"/>
+      <c r="K182" s="19"/>
+      <c r="L182" s="19"/>
+      <c r="M182" s="12"/>
+      <c r="N182" s="13"/>
+    </row>
+    <row r="183" spans="5:14">
+      <c r="E183" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+      <c r="I183" s="19"/>
+      <c r="J183" s="19"/>
+      <c r="K183" s="19"/>
+      <c r="L183" s="19"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="13"/>
+    </row>
+    <row r="184" spans="5:14">
+      <c r="E184" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+      <c r="K184" s="19"/>
+      <c r="L184" s="19"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="13"/>
+    </row>
+    <row r="185" spans="5:14">
+      <c r="E185" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+      <c r="I185" s="19"/>
+      <c r="J185" s="19"/>
+      <c r="K185" s="19"/>
+      <c r="L185" s="19"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="13"/>
+    </row>
+    <row r="186" spans="5:14">
+      <c r="E186" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+      <c r="I186" s="19"/>
+      <c r="J186" s="19"/>
+      <c r="K186" s="19"/>
+      <c r="L186" s="19"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="13"/>
+    </row>
+    <row r="187" spans="5:14">
+      <c r="E187" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+      <c r="I187" s="19"/>
+      <c r="J187" s="19"/>
+      <c r="K187" s="19"/>
+      <c r="L187" s="19"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="13"/>
+    </row>
+    <row r="188" spans="5:14">
+      <c r="E188" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F188" s="21"/>
+      <c r="G188" s="21"/>
+      <c r="H188" s="21"/>
+      <c r="I188" s="21"/>
+      <c r="J188" s="21"/>
+      <c r="K188" s="21"/>
+      <c r="L188" s="21"/>
+      <c r="M188" s="15"/>
+      <c r="N188" s="16"/>
+    </row>
+    <row r="190" spans="5:14">
+      <c r="E190" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="191" spans="5:14">
+      <c r="E191" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="5:14">
+      <c r="E192" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5">
+      <c r="E194" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="195" spans="3:5">
+      <c r="E195" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="196" spans="3:5">
+      <c r="E196" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="197" spans="3:5">
+      <c r="E197" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5">
+      <c r="E199" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="200" spans="3:5">
+      <c r="E200" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="202" spans="3:5">
+      <c r="C202" s="24" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" s="22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="C4" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="C5" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="C6" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="C7" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="C8" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="C9" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="B14" s="22">
-        <v>1</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="D16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="D17" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="D18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="E19" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="E20" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="E21" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="E22" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5">
-      <c r="E23" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5">
-      <c r="D25" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="E26" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="D29" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="D30" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="E31" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" spans="4:14">
-      <c r="D34" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5">
-      <c r="C62" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5">
-      <c r="D63" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5">
-      <c r="D64" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="65" spans="4:6">
-      <c r="E65" s="5">
-        <v>1</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="66" spans="4:6">
-      <c r="F66" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="4:6">
-      <c r="E68" s="5">
-        <v>2</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="69" spans="4:6">
-      <c r="F69" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="4:6">
-      <c r="E71" s="5">
+      <c r="D202" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="3:5">
+      <c r="D204" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="205" spans="3:5">
+      <c r="E205" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="206" spans="3:5">
+      <c r="D206" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5">
+      <c r="D207" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E207" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="208" spans="3:5">
+      <c r="E208" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="210" spans="4:5">
+      <c r="D210" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5">
+      <c r="E211" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5">
+      <c r="E212" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5">
+      <c r="E213" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="214" spans="4:5">
+      <c r="E214" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5">
+      <c r="E215" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5">
+      <c r="E216" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="219" spans="4:5">
+      <c r="D219" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="220" spans="4:5">
+      <c r="D220" s="23"/>
+    </row>
+    <row r="247" spans="2:5">
+      <c r="B247" s="22">
         <v>3</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="72" spans="4:6">
-      <c r="F72" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="4:6">
-      <c r="D74" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="4:6">
-      <c r="E75" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" spans="4:6">
-      <c r="E76" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="4:6">
-      <c r="E77" s="5">
-        <v>1</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="78" spans="4:6">
-      <c r="F78" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="79" spans="4:6">
-      <c r="E79" s="5">
-        <v>2</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="4:6">
-      <c r="F80" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="81" spans="5:6">
-      <c r="F81" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6">
-      <c r="F82" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6">
-      <c r="F83" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="5:6">
-      <c r="F84" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="5:6">
-      <c r="E85" s="5">
-        <v>3</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6">
-      <c r="F86" s="5" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="87" spans="5:6">
-      <c r="F87" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="88" spans="5:6">
-      <c r="F88" s="5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6">
-      <c r="E89" s="5">
+      <c r="C247" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="248" spans="2:5">
+      <c r="C248" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="249" spans="2:5">
+      <c r="D249" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E249" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="250" spans="2:5">
+      <c r="D250" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="251" spans="2:5">
+      <c r="D251" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E251" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="252" spans="2:5">
+      <c r="E252" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="253" spans="2:5">
+      <c r="E253" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="254" spans="2:5">
+      <c r="E254" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="255" spans="2:5">
+      <c r="E255" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="256" spans="2:5">
+      <c r="E256" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="257" spans="2:5">
+      <c r="E257" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="2:5">
+      <c r="E258" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="259" spans="2:5">
+      <c r="E259" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="260" spans="2:5">
+      <c r="E260" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="262" spans="2:5">
+      <c r="D262" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E262" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="263" spans="2:5">
+      <c r="E263" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="264" spans="2:5">
+      <c r="E264" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="266" spans="2:5">
+      <c r="B266" s="22">
         <v>4</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6">
-      <c r="F90" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="5:6">
-      <c r="F91" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="92" spans="5:6">
-      <c r="F92" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="93" spans="5:6">
-      <c r="E93" s="5">
-        <v>5</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="94" spans="5:6">
-      <c r="F94" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="95" spans="5:6">
-      <c r="F95" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="96" spans="5:6">
-      <c r="F96" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="F97" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="E98" s="5">
-        <v>6</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="22">
-        <v>2</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="C103" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="D105" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="D106" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="D107" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="E108" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6">
-      <c r="E110" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6">
-      <c r="E111" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6">
-      <c r="E112" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="114" spans="3:12">
-      <c r="C114" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="3:12">
-      <c r="D116" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E116" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="3:12">
-      <c r="D117" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E117" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="118" spans="3:12">
-      <c r="E118" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="9"/>
-      <c r="K118" s="10"/>
-    </row>
-    <row r="119" spans="3:12">
-      <c r="E119" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="13"/>
-    </row>
-    <row r="120" spans="3:12">
-      <c r="E120" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="13"/>
-    </row>
-    <row r="121" spans="3:12">
-      <c r="E121" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="16"/>
-    </row>
-    <row r="123" spans="3:12">
-      <c r="E123" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="3:12">
-      <c r="E124" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
-      <c r="L124" s="10"/>
-    </row>
-    <row r="125" spans="3:12">
-      <c r="E125" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G125" s="12"/>
-      <c r="H125" s="12"/>
-      <c r="I125" s="12"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="13"/>
-    </row>
-    <row r="126" spans="3:12">
-      <c r="E126" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F126" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="15"/>
-      <c r="L126" s="16"/>
-    </row>
-    <row r="128" spans="3:12">
-      <c r="C128" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5">
-      <c r="D130" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="131" spans="3:5">
-      <c r="D131" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5">
-      <c r="E132" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="3:5">
-      <c r="D133" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="134" spans="3:5">
-      <c r="E134" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5">
-      <c r="E135" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="136" spans="3:5">
-      <c r="E136" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5">
-      <c r="E137" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5">
-      <c r="E138" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="140" spans="3:5">
-      <c r="C140" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="142" spans="3:5">
-      <c r="D142" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5">
-      <c r="D143" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="144" spans="3:5">
-      <c r="D144" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="145" spans="4:14">
-      <c r="E145" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="4:14">
-      <c r="E146" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="149" spans="4:14">
-      <c r="D149" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="150" spans="4:14">
-      <c r="E150" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="151" spans="4:14">
-      <c r="E151" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="I151" s="9"/>
-      <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
-      <c r="L151" s="9"/>
-      <c r="M151" s="9"/>
-      <c r="N151" s="10"/>
-    </row>
-    <row r="152" spans="4:14">
-      <c r="E152" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="13"/>
-    </row>
-    <row r="153" spans="4:14">
-      <c r="E153" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
-      <c r="M153" s="12"/>
-      <c r="N153" s="13"/>
-    </row>
-    <row r="154" spans="4:14">
-      <c r="E154" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="12"/>
-      <c r="M154" s="12"/>
-      <c r="N154" s="13"/>
-    </row>
-    <row r="155" spans="4:14">
-      <c r="E155" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12"/>
-      <c r="H155" s="12"/>
-      <c r="I155" s="12"/>
-      <c r="J155" s="12"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="12"/>
-      <c r="N155" s="13"/>
-    </row>
-    <row r="156" spans="4:14">
-      <c r="E156" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12"/>
-      <c r="H156" s="12"/>
-      <c r="I156" s="12"/>
-      <c r="J156" s="12"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
-      <c r="M156" s="12"/>
-      <c r="N156" s="13"/>
-    </row>
-    <row r="157" spans="4:14">
-      <c r="E157" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12"/>
-      <c r="H157" s="12"/>
-      <c r="I157" s="12"/>
-      <c r="J157" s="12"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="12"/>
-      <c r="N157" s="13"/>
-    </row>
-    <row r="158" spans="4:14">
-      <c r="E158" s="11"/>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12"/>
-      <c r="H158" s="12"/>
-      <c r="I158" s="12"/>
-      <c r="J158" s="12"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="12"/>
-      <c r="M158" s="12"/>
-      <c r="N158" s="13"/>
-    </row>
-    <row r="159" spans="4:14">
-      <c r="E159" s="11"/>
-      <c r="F159" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
-      <c r="M159" s="12"/>
-      <c r="N159" s="13"/>
-    </row>
-    <row r="160" spans="4:14">
-      <c r="E160" s="11"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
-      <c r="M160" s="12"/>
-      <c r="N160" s="13"/>
-    </row>
-    <row r="161" spans="5:14">
-      <c r="E161" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-      <c r="J161" s="12"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="12"/>
-      <c r="M161" s="12"/>
-      <c r="N161" s="13"/>
-    </row>
-    <row r="162" spans="5:14">
-      <c r="E162" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
-      <c r="M162" s="12"/>
-      <c r="N162" s="13"/>
-    </row>
-    <row r="163" spans="5:14">
-      <c r="E163" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F163" s="19"/>
-      <c r="G163" s="19"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
-      <c r="M163" s="12"/>
-      <c r="N163" s="13"/>
-    </row>
-    <row r="164" spans="5:14">
-      <c r="E164" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F164" s="19"/>
-      <c r="G164" s="19"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
-      <c r="M164" s="12"/>
-      <c r="N164" s="13"/>
-    </row>
-    <row r="165" spans="5:14">
-      <c r="E165" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="12"/>
-      <c r="N165" s="13"/>
-    </row>
-    <row r="166" spans="5:14">
-      <c r="E166" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="12"/>
-      <c r="N166" s="13"/>
-    </row>
-    <row r="167" spans="5:14">
-      <c r="E167" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F167" s="19"/>
-      <c r="G167" s="19"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="19"/>
-      <c r="K167" s="19"/>
-      <c r="L167" s="19"/>
-      <c r="M167" s="12"/>
-      <c r="N167" s="13"/>
-    </row>
-    <row r="168" spans="5:14">
-      <c r="E168" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="19"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="12"/>
-      <c r="N168" s="13"/>
-    </row>
-    <row r="169" spans="5:14">
-      <c r="E169" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="F169" s="21"/>
-      <c r="G169" s="21"/>
-      <c r="H169" s="21"/>
-      <c r="I169" s="21"/>
-      <c r="J169" s="21"/>
-      <c r="K169" s="21"/>
-      <c r="L169" s="21"/>
-      <c r="M169" s="15"/>
-      <c r="N169" s="16"/>
-    </row>
-    <row r="171" spans="5:14">
-      <c r="E171" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="172" spans="5:14">
-      <c r="E172" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="173" spans="5:14">
-      <c r="E173" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="175" spans="5:14">
-      <c r="E175" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="176" spans="5:14">
-      <c r="E176" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5">
-      <c r="E177" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="178" spans="3:5">
-      <c r="E178" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5">
-      <c r="E180" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5">
-      <c r="E181" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5">
-      <c r="C183" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5">
-      <c r="D185" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E185" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="186" spans="3:5">
-      <c r="E186" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5">
-      <c r="D187" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E187" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="188" spans="3:5">
-      <c r="D188" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E188" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5">
-      <c r="E189" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5">
-      <c r="D191" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E191" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5">
-      <c r="E192" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="193" spans="4:5">
-      <c r="E193" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="194" spans="4:5">
-      <c r="E194" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="195" spans="4:5">
-      <c r="E195" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="196" spans="4:5">
-      <c r="E196" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="197" spans="4:5">
-      <c r="E197" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="200" spans="4:5">
-      <c r="D200" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="201" spans="4:5">
-      <c r="D201" s="23"/>
+      <c r="C266" s="24" t="s">
+        <v>284</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
+    <hyperlink ref="B12" location="Git_与远程主机的交互" tooltip="Git_与远程主机的交互" display="与远程仓库交互"/>
+    <hyperlink ref="B6" location="Git_管理本地仓库" tooltip="Git_管理本地仓库" display="管理本地仓库"/>
+    <hyperlink ref="B13" location="Git_配置" tooltip="Git_配置" display="git配置"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3454,31 +4067,31 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3511,7 +4124,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3519,31 +4132,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3551,12 +4164,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3564,30 +4177,30 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3595,26 +4208,156 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="5"/>
+      <c r="D7" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="5"/>
+      <c r="D8" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="5"/>
+      <c r="D9" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="1" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="26860" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,8 @@
   </sheets>
   <definedNames>
     <definedName name="Git_管理本地仓库">Git的使用!$C$17</definedName>
-    <definedName name="Git_配置">Git的使用!$C$247</definedName>
-    <definedName name="Git_与远程主机的交互">Git的使用!$C$120</definedName>
+    <definedName name="Git_配置">Git的使用!$C$255</definedName>
+    <definedName name="Git_与远程主机的交互">Git的使用!$C$128</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="312">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -592,10 +592,6 @@
   </si>
   <si>
     <t>git add .</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将所有新增/修改的文件提交到暂存区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1090,35 +1086,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>.DS_Store // 忽略所有的.DS_Store文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*.a       // 忽略所有的以a为扩展名的文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Temp/    // 忽略根目录下的Temp文件夹下的所有文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Temp     // 忽略根目录下的Temp文件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Temp/a.h // 忽略根目录下的Temp文件夹下的a.h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>!lib.a    // 不忽略lib.a(在上一种情况下,可以设置忽略某一种类型,但特例除外</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果在创建并设置.gitignore之前,就已经追踪了某写文件,那么这些文件不受gitignore配置的影响</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1485,6 +1453,122 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>config文件的配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config commit.template &lt;文件名&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config commit.template /commit_template/default.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将commit_template目录下的 default.txt 文件作为commit 模板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果想删除该项配置则利用 --unset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --unset commit.template</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>~\$*.xlsx   // 忽略excel的编辑临时文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Temp/a.h   // 忽略根目录下的Temp文件夹下的a.h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Temp       // 忽略根目录下的Temp文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Temp/      // 忽略根目录下的Temp文件夹下的所有文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>!lib.a      // 不忽略lib.a(在上一种情况下,可以设置忽略某一种类型,但特例除外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.DS_Store   // 忽略所有的.DS_Store文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*.a         // 忽略所有的以a为扩展名的文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果在创建并设置.gitignore之前,就已经追踪了某些文件,那么这些文件不受gitignore配置的影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对git的环境进行配置,如用户名,commit信息模板,命令别名等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">git config alias.&lt;alias name&gt; &lt;commands&gt; </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config alias.st status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将"st" 作为" status"的别名,则 git st ==&gt;git status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消这项配置:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --unset alias.st</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add -u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将workspace中有更新的且被追踪了的文件提交到暂存区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在改了很多文件,又新增了不少文件的情况,我可能只关心修改的,而先不管新增的,那么这个命令就很有用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将递归当前目录下所有新增/修改的文件提交到暂存区,如果把"."换成某一个目录,则只会递归该目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add -i</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互式的添加</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1858,13 +1942,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>219</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>243</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1896,7 +1980,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7791450" cy="5133975"/>
@@ -1929,13 +2013,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2376,7 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -2411,17 +2495,17 @@
     </row>
     <row r="12" spans="2:4">
       <c r="C12" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="2:4">
@@ -2437,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -2460,7 +2544,7 @@
     </row>
     <row r="23" spans="2:4">
       <c r="D23" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2579,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2755,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N266"/>
+  <dimension ref="A1:N295"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="C266" sqref="C266"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -2772,24 +2856,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -2799,14 +2883,14 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="3"/>
       <c r="C7" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2827,20 +2911,20 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="26" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="24"/>
       <c r="C14" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -2848,12 +2932,12 @@
         <v>1</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="C18" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>128</v>
@@ -2864,7 +2948,7 @@
         <v>129</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -2899,761 +2983,681 @@
       </c>
     </row>
     <row r="25" spans="2:5">
+      <c r="D25" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="E25" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="E26" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="E28" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="E29" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="E30" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="E32" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="E33" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="D36" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="D28" s="5" t="s">
+      <c r="E36" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E28" s="6" t="s">
+    </row>
+    <row r="37" spans="3:5">
+      <c r="E37" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
-      <c r="E29" s="7" t="s">
+    <row r="39" spans="3:5">
+      <c r="C39" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
-      <c r="C31" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="5" t="s">
+    <row r="40" spans="3:5">
+      <c r="D40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
-      <c r="D32" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="5" t="s">
+    <row r="41" spans="3:5">
+      <c r="D41" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E41" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="E42" s="5" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="4:5">
-      <c r="E34" s="5" t="s">
+    <row r="44" spans="3:5">
+      <c r="D44" s="5" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36" s="5" t="s">
+      <c r="E44" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="E45" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="E37" s="5" t="s">
+    </row>
+    <row r="46" spans="3:5">
+      <c r="E46" s="5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
-      <c r="E38" s="5" t="s">
+    <row r="47" spans="3:5">
+      <c r="E47" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
-      <c r="E39" s="5" t="s">
+    <row r="48" spans="3:5">
+      <c r="E48" s="5" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
-      <c r="E40" s="5" t="s">
+    <row r="49" spans="4:13">
+      <c r="E49" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="4:5">
-      <c r="E41" s="5" t="s">
+    <row r="50" spans="4:13">
+      <c r="E50" s="5" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="E42" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="D44" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5">
-      <c r="E45" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="E46" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="E47" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="48" spans="4:5">
-      <c r="E48" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="52" spans="4:13">
       <c r="D52" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13">
+      <c r="E53" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13">
+      <c r="E54" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13">
+      <c r="E55" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13">
+      <c r="E56" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13">
+      <c r="D60" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M60" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
-      <c r="C80" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="D80" s="5" t="s">
+    </row>
+    <row r="88" spans="3:6">
+      <c r="C88" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="D89" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="81" spans="4:6">
-      <c r="D81" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E81" s="5" t="s">
+    </row>
+    <row r="90" spans="3:6">
+      <c r="D90" s="5" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="82" spans="4:6">
-      <c r="D82" s="5" t="s">
+      <c r="E90" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E82" s="5" t="s">
+    </row>
+    <row r="91" spans="3:6">
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="F92" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="E94" s="5">
+        <v>2</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6">
+      <c r="F95" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6">
+      <c r="E97" s="5">
+        <v>3</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="4:6">
-      <c r="E83" s="5">
+    <row r="98" spans="4:6">
+      <c r="F98" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6">
+      <c r="D100" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6">
+      <c r="E101" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="E102" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6">
+      <c r="E103" s="5">
         <v>1</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F103" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6">
+      <c r="F104" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6">
+      <c r="E105" s="5">
+        <v>2</v>
+      </c>
+      <c r="F105" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="4:6">
-      <c r="F84" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6">
-      <c r="E86" s="5">
-        <v>2</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" spans="4:6">
-      <c r="F87" s="5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="89" spans="4:6">
-      <c r="E89" s="5">
+    <row r="106" spans="4:6">
+      <c r="F106" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6">
+      <c r="F107" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6">
+      <c r="F108" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6">
+      <c r="F109" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6">
+      <c r="F110" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6">
+      <c r="E111" s="5">
         <v>3</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="90" spans="4:6">
-      <c r="F90" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="4:6">
-      <c r="D92" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93" spans="4:6">
-      <c r="E93" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="94" spans="4:6">
-      <c r="E94" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="95" spans="4:6">
-      <c r="E95" s="5">
-        <v>1</v>
-      </c>
-      <c r="F95" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="96" spans="4:6">
-      <c r="F96" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="97" spans="5:6">
-      <c r="E97" s="5">
-        <v>2</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="5:6">
-      <c r="F98" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="5:6">
-      <c r="F99" s="5" t="s">
+      <c r="F111" s="5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="100" spans="5:6">
-      <c r="F100" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="101" spans="5:6">
-      <c r="F101" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="102" spans="5:6">
-      <c r="F102" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="103" spans="5:6">
-      <c r="E103" s="5">
-        <v>3</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="104" spans="5:6">
-      <c r="F104" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="5:6">
-      <c r="F105" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="106" spans="5:6">
-      <c r="F106" s="5" t="s">
+    <row r="112" spans="4:6">
+      <c r="F112" s="5" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="5:6">
-      <c r="E107" s="5">
-        <v>4</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="108" spans="5:6">
-      <c r="F108" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="109" spans="5:6">
-      <c r="F109" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="110" spans="5:6">
-      <c r="F110" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="111" spans="5:6">
-      <c r="E111" s="5">
-        <v>5</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="112" spans="5:6">
-      <c r="F112" s="5" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="113" spans="2:6">
       <c r="F113" s="5" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="2:6">
       <c r="F114" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="E115" s="5">
+        <v>4</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="F116" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="F117" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="F118" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="E119" s="5">
+        <v>5</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="F120" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="F121" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="F122" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="F123" s="5" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="115" spans="2:6">
-      <c r="F115" s="5" t="s">
+    <row r="124" spans="2:6">
+      <c r="E124" s="5">
+        <v>6</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="116" spans="2:6">
-      <c r="E116" s="5">
-        <v>6</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="B120" s="22">
+    <row r="128" spans="2:6">
+      <c r="B128" s="22">
         <v>2</v>
       </c>
-      <c r="C120" s="25" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="C121" s="24" t="s">
+      <c r="C128" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="3:11">
+      <c r="C129" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="3:11">
+      <c r="D131" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="3:11">
+      <c r="D132" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="3:11">
+      <c r="D133" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134" spans="3:11">
+      <c r="E134" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="136" spans="3:11">
+      <c r="E136" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="3:11">
+      <c r="E137" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="3:11">
+      <c r="E138" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="3:11">
+      <c r="C140" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="D121" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="D123" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="D124" s="5" t="s">
+      <c r="D140" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="3:11">
+      <c r="D142" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="143" spans="3:11">
+      <c r="D143" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="144" spans="3:11">
+      <c r="E144" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="10"/>
+    </row>
+    <row r="145" spans="3:12">
+      <c r="E145" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="I145" s="12"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="13"/>
+    </row>
+    <row r="146" spans="3:12">
+      <c r="E146" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F146" s="12"/>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="13"/>
+    </row>
+    <row r="147" spans="3:12">
+      <c r="E147" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="16"/>
+    </row>
+    <row r="149" spans="3:12">
+      <c r="E149" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="3:12">
+      <c r="E150" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F150" s="9"/>
+      <c r="G150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="9"/>
+      <c r="L150" s="10"/>
+    </row>
+    <row r="151" spans="3:12">
+      <c r="E151" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="13"/>
+    </row>
+    <row r="152" spans="3:12">
+      <c r="E152" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="16"/>
+    </row>
+    <row r="154" spans="3:12">
+      <c r="C154" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="156" spans="3:12">
+      <c r="D156" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="157" spans="3:12">
+      <c r="D157" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E124" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="125" spans="2:6">
-      <c r="D125" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" spans="2:6">
-      <c r="E126" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="E128" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="129" spans="3:12">
-      <c r="E129" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="130" spans="3:12">
-      <c r="E130" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="132" spans="3:12">
-      <c r="C132" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="134" spans="3:12">
-      <c r="D134" s="5" t="s">
+      <c r="E157" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="158" spans="3:12">
+      <c r="E158" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="159" spans="3:12">
+      <c r="D159" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="160" spans="3:12">
+      <c r="E160" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="3:5">
+      <c r="E161" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="162" spans="3:5">
+      <c r="E162" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="3:5">
+      <c r="E163" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="164" spans="3:5">
+      <c r="E164" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="165" spans="3:5">
+      <c r="E165" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="167" spans="3:5">
+      <c r="C167" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="3:5">
+      <c r="D169" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="135" spans="3:12">
-      <c r="D135" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="136" spans="3:12">
-      <c r="E136" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="10"/>
-    </row>
-    <row r="137" spans="3:12">
-      <c r="E137" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="13"/>
-    </row>
-    <row r="138" spans="3:12">
-      <c r="E138" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12"/>
-      <c r="I138" s="12"/>
-      <c r="J138" s="12"/>
-      <c r="K138" s="13"/>
-    </row>
-    <row r="139" spans="3:12">
-      <c r="E139" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="16"/>
-    </row>
-    <row r="141" spans="3:12">
-      <c r="E141" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="3:12">
-      <c r="E142" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="9"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
-      <c r="L142" s="10"/>
-    </row>
-    <row r="143" spans="3:12">
-      <c r="E143" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F143" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12"/>
-      <c r="I143" s="12"/>
-      <c r="J143" s="12"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="13"/>
-    </row>
-    <row r="144" spans="3:12">
-      <c r="E144" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G144" s="15"/>
-      <c r="H144" s="15"/>
-      <c r="I144" s="15"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="15"/>
-      <c r="L144" s="16"/>
-    </row>
-    <row r="146" spans="3:5">
-      <c r="C146" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="148" spans="3:5">
-      <c r="D148" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="149" spans="3:5">
-      <c r="D149" s="5" t="s">
+      <c r="E169" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5">
+      <c r="D170" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E149" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" spans="3:5">
-      <c r="E150" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="151" spans="3:5">
-      <c r="D151" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="152" spans="3:5">
-      <c r="E152" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="153" spans="3:5">
-      <c r="E153" s="5" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="154" spans="3:5">
-      <c r="E154" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="155" spans="3:5">
-      <c r="E155" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="156" spans="3:5">
-      <c r="E156" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="157" spans="3:5">
-      <c r="E157" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="159" spans="3:5">
-      <c r="C159" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="161" spans="4:14">
-      <c r="D161" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="162" spans="4:14">
-      <c r="D162" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E162" s="5" t="s">
+      <c r="E170" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="163" spans="4:14">
-      <c r="D163" s="5" t="s">
+    <row r="171" spans="3:5">
+      <c r="D171" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="E171" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="164" spans="4:14">
-      <c r="E164" s="5" t="s">
+    <row r="172" spans="3:5">
+      <c r="E172" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="165" spans="4:14">
-      <c r="E165" s="5" t="s">
+    <row r="173" spans="3:5">
+      <c r="E173" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="168" spans="4:14">
-      <c r="D168" s="5" t="s">
+    <row r="176" spans="3:5">
+      <c r="D176" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E168" s="5" t="s">
+      <c r="E176" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="169" spans="4:14">
-      <c r="E169" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="170" spans="4:14">
-      <c r="E170" s="8" t="s">
+    <row r="177" spans="5:14">
+      <c r="E177" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="178" spans="5:14">
+      <c r="E178" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F170" s="9"/>
-      <c r="G170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="I170" s="9"/>
-      <c r="J170" s="9"/>
-      <c r="K170" s="9"/>
-      <c r="L170" s="9"/>
-      <c r="M170" s="9"/>
-      <c r="N170" s="10"/>
-    </row>
-    <row r="171" spans="4:14">
-      <c r="E171" s="11" t="s">
+      <c r="F178" s="9"/>
+      <c r="G178" s="9"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="9"/>
+      <c r="L178" s="9"/>
+      <c r="M178" s="9"/>
+      <c r="N178" s="10"/>
+    </row>
+    <row r="179" spans="5:14">
+      <c r="E179" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F171" s="12"/>
-      <c r="G171" s="12"/>
-      <c r="H171" s="12"/>
-      <c r="I171" s="12"/>
-      <c r="J171" s="12"/>
-      <c r="K171" s="12"/>
-      <c r="L171" s="12"/>
-      <c r="M171" s="12"/>
-      <c r="N171" s="13"/>
-    </row>
-    <row r="172" spans="4:14">
-      <c r="E172" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F172" s="12"/>
-      <c r="G172" s="12"/>
-      <c r="H172" s="12"/>
-      <c r="I172" s="12"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="12"/>
-      <c r="L172" s="12"/>
-      <c r="M172" s="12"/>
-      <c r="N172" s="13"/>
-    </row>
-    <row r="173" spans="4:14">
-      <c r="E173" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F173" s="12"/>
-      <c r="G173" s="12"/>
-      <c r="H173" s="12"/>
-      <c r="I173" s="12"/>
-      <c r="J173" s="12"/>
-      <c r="K173" s="12"/>
-      <c r="L173" s="12"/>
-      <c r="M173" s="12"/>
-      <c r="N173" s="13"/>
-    </row>
-    <row r="174" spans="4:14">
-      <c r="E174" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F174" s="12"/>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="12"/>
-      <c r="L174" s="12"/>
-      <c r="M174" s="12"/>
-      <c r="N174" s="13"/>
-    </row>
-    <row r="175" spans="4:14">
-      <c r="E175" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F175" s="12"/>
-      <c r="G175" s="12"/>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
-      <c r="M175" s="12"/>
-      <c r="N175" s="13"/>
-    </row>
-    <row r="176" spans="4:14">
-      <c r="E176" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F176" s="12"/>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
-      <c r="M176" s="12"/>
-      <c r="N176" s="13"/>
-    </row>
-    <row r="177" spans="5:14">
-      <c r="E177" s="11"/>
-      <c r="F177" s="12"/>
-      <c r="G177" s="12"/>
-      <c r="H177" s="12"/>
-      <c r="I177" s="12"/>
-      <c r="J177" s="12"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="12"/>
-      <c r="M177" s="12"/>
-      <c r="N177" s="13"/>
-    </row>
-    <row r="178" spans="5:14">
-      <c r="E178" s="11"/>
-      <c r="F178" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G178" s="12"/>
-      <c r="H178" s="12"/>
-      <c r="I178" s="12"/>
-      <c r="J178" s="12"/>
-      <c r="K178" s="12"/>
-      <c r="L178" s="12"/>
-      <c r="M178" s="12"/>
-      <c r="N178" s="13"/>
-    </row>
-    <row r="179" spans="5:14">
-      <c r="E179" s="11"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
@@ -3666,7 +3670,7 @@
     </row>
     <row r="180" spans="5:14">
       <c r="E180" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F180" s="12"/>
       <c r="G180" s="12"/>
@@ -3680,7 +3684,7 @@
     </row>
     <row r="181" spans="5:14">
       <c r="E181" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
@@ -3693,345 +3697,530 @@
       <c r="N181" s="13"/>
     </row>
     <row r="182" spans="5:14">
-      <c r="E182" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
-      <c r="K182" s="19"/>
-      <c r="L182" s="19"/>
+      <c r="E182" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F182" s="12"/>
+      <c r="G182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="I182" s="12"/>
+      <c r="J182" s="12"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
       <c r="M182" s="12"/>
       <c r="N182" s="13"/>
     </row>
     <row r="183" spans="5:14">
-      <c r="E183" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
-      <c r="H183" s="19"/>
-      <c r="I183" s="19"/>
-      <c r="J183" s="19"/>
-      <c r="K183" s="19"/>
-      <c r="L183" s="19"/>
+      <c r="E183" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
       <c r="M183" s="12"/>
       <c r="N183" s="13"/>
     </row>
     <row r="184" spans="5:14">
-      <c r="E184" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-      <c r="H184" s="19"/>
-      <c r="I184" s="19"/>
-      <c r="J184" s="19"/>
-      <c r="K184" s="19"/>
-      <c r="L184" s="19"/>
+      <c r="E184" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
       <c r="M184" s="12"/>
       <c r="N184" s="13"/>
     </row>
     <row r="185" spans="5:14">
-      <c r="E185" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F185" s="19"/>
-      <c r="G185" s="19"/>
-      <c r="H185" s="19"/>
-      <c r="I185" s="19"/>
-      <c r="J185" s="19"/>
-      <c r="K185" s="19"/>
-      <c r="L185" s="19"/>
+      <c r="E185" s="11"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
       <c r="M185" s="12"/>
       <c r="N185" s="13"/>
     </row>
     <row r="186" spans="5:14">
-      <c r="E186" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F186" s="19"/>
-      <c r="G186" s="19"/>
-      <c r="H186" s="19"/>
-      <c r="I186" s="19"/>
-      <c r="J186" s="19"/>
-      <c r="K186" s="19"/>
-      <c r="L186" s="19"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
       <c r="M186" s="12"/>
       <c r="N186" s="13"/>
     </row>
     <row r="187" spans="5:14">
-      <c r="E187" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F187" s="19"/>
-      <c r="G187" s="19"/>
-      <c r="H187" s="19"/>
-      <c r="I187" s="19"/>
-      <c r="J187" s="19"/>
-      <c r="K187" s="19"/>
-      <c r="L187" s="19"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
       <c r="M187" s="12"/>
       <c r="N187" s="13"/>
     </row>
     <row r="188" spans="5:14">
-      <c r="E188" s="20" t="s">
+      <c r="E188" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="13"/>
+    </row>
+    <row r="189" spans="5:14">
+      <c r="E189" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="13"/>
+    </row>
+    <row r="190" spans="5:14">
+      <c r="E190" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+      <c r="I190" s="19"/>
+      <c r="J190" s="19"/>
+      <c r="K190" s="19"/>
+      <c r="L190" s="19"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="13"/>
+    </row>
+    <row r="191" spans="5:14">
+      <c r="E191" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+      <c r="I191" s="19"/>
+      <c r="J191" s="19"/>
+      <c r="K191" s="19"/>
+      <c r="L191" s="19"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="13"/>
+    </row>
+    <row r="192" spans="5:14">
+      <c r="E192" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="19"/>
+      <c r="L192" s="19"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="13"/>
+    </row>
+    <row r="193" spans="5:14">
+      <c r="E193" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+      <c r="I193" s="19"/>
+      <c r="J193" s="19"/>
+      <c r="K193" s="19"/>
+      <c r="L193" s="19"/>
+      <c r="M193" s="12"/>
+      <c r="N193" s="13"/>
+    </row>
+    <row r="194" spans="5:14">
+      <c r="E194" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+      <c r="I194" s="19"/>
+      <c r="J194" s="19"/>
+      <c r="K194" s="19"/>
+      <c r="L194" s="19"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="13"/>
+    </row>
+    <row r="195" spans="5:14">
+      <c r="E195" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19"/>
+      <c r="I195" s="19"/>
+      <c r="J195" s="19"/>
+      <c r="K195" s="19"/>
+      <c r="L195" s="19"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="13"/>
+    </row>
+    <row r="196" spans="5:14">
+      <c r="E196" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F188" s="21"/>
-      <c r="G188" s="21"/>
-      <c r="H188" s="21"/>
-      <c r="I188" s="21"/>
-      <c r="J188" s="21"/>
-      <c r="K188" s="21"/>
-      <c r="L188" s="21"/>
-      <c r="M188" s="15"/>
-      <c r="N188" s="16"/>
-    </row>
-    <row r="190" spans="5:14">
-      <c r="E190" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="191" spans="5:14">
-      <c r="E191" s="5" t="s">
+      <c r="F196" s="21"/>
+      <c r="G196" s="21"/>
+      <c r="H196" s="21"/>
+      <c r="I196" s="21"/>
+      <c r="J196" s="21"/>
+      <c r="K196" s="21"/>
+      <c r="L196" s="21"/>
+      <c r="M196" s="15"/>
+      <c r="N196" s="16"/>
+    </row>
+    <row r="198" spans="5:14">
+      <c r="E198" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="199" spans="5:14">
+      <c r="E199" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="5:14">
-      <c r="E192" s="5" t="s">
+    <row r="200" spans="5:14">
+      <c r="E200" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="194" spans="3:5">
-      <c r="E194" s="5" t="s">
+    <row r="202" spans="5:14">
+      <c r="E202" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="195" spans="3:5">
-      <c r="E195" s="5" t="s">
+    <row r="203" spans="5:14">
+      <c r="E203" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="196" spans="3:5">
-      <c r="E196" s="5" t="s">
+    <row r="204" spans="5:14">
+      <c r="E204" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="197" spans="3:5">
-      <c r="E197" s="5" t="s">
+    <row r="205" spans="5:14">
+      <c r="E205" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="199" spans="3:5">
-      <c r="E199" s="5" t="s">
+    <row r="207" spans="5:14">
+      <c r="E207" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="200" spans="3:5">
-      <c r="E200" s="5" t="s">
+    <row r="208" spans="5:14">
+      <c r="E208" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="202" spans="3:5">
-      <c r="C202" s="24" t="s">
+    <row r="210" spans="3:5">
+      <c r="C210" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="3:5">
+      <c r="D212" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="213" spans="3:5">
+      <c r="E213" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="214" spans="3:5">
+      <c r="D214" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E214" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="3:5">
+      <c r="D215" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E215" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="216" spans="3:5">
+      <c r="E216" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="218" spans="3:5">
+      <c r="D218" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="219" spans="3:5">
+      <c r="E219" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="220" spans="3:5">
+      <c r="E220" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="221" spans="3:5">
+      <c r="E221" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="222" spans="3:5">
+      <c r="E222" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="223" spans="3:5">
+      <c r="E223" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="224" spans="3:5">
+      <c r="E224" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4">
+      <c r="D227" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D202" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="204" spans="3:5">
-      <c r="D204" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E204" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="205" spans="3:5">
-      <c r="E205" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="206" spans="3:5">
-      <c r="D206" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E206" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="3:5">
-      <c r="D207" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E207" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="208" spans="3:5">
-      <c r="E208" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="210" spans="4:5">
-      <c r="D210" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E210" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="211" spans="4:5">
-      <c r="E211" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="212" spans="4:5">
-      <c r="E212" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="213" spans="4:5">
-      <c r="E213" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="214" spans="4:5">
-      <c r="E214" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="215" spans="4:5">
-      <c r="E215" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="216" spans="4:5">
-      <c r="E216" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="219" spans="4:5">
-      <c r="D219" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="220" spans="4:5">
-      <c r="D220" s="23"/>
-    </row>
-    <row r="247" spans="2:5">
-      <c r="B247" s="22">
+    </row>
+    <row r="228" spans="4:4">
+      <c r="D228" s="23"/>
+    </row>
+    <row r="255" spans="2:4">
+      <c r="B255" s="22">
         <v>3</v>
       </c>
-      <c r="C247" s="25" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="248" spans="2:5">
-      <c r="C248" s="24" t="s">
+      <c r="C255" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4">
+      <c r="C256" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D256" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D248" s="5" t="s">
+    </row>
+    <row r="257" spans="4:5">
+      <c r="D257" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="249" spans="2:5">
-      <c r="D249" s="5" t="s">
+      <c r="E257" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="E249" s="5" t="s">
+    </row>
+    <row r="258" spans="4:5">
+      <c r="D258" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="250" spans="2:5">
-      <c r="D250" s="5" t="s">
+      <c r="E258" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E250" s="5" t="s">
+    </row>
+    <row r="259" spans="4:5">
+      <c r="D259" s="5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="251" spans="2:5">
-      <c r="D251" s="5" t="s">
+      <c r="E259" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="E251" s="5" t="s">
+    </row>
+    <row r="260" spans="4:5">
+      <c r="E260" s="5" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="252" spans="2:5">
-      <c r="E252" s="5" t="s">
+    <row r="261" spans="4:5">
+      <c r="E261" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="253" spans="2:5">
-      <c r="E253" s="5" t="s">
+    <row r="262" spans="4:5">
+      <c r="E262" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="254" spans="2:5">
-      <c r="E254" s="5" t="s">
+    <row r="263" spans="4:5">
+      <c r="E263" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="264" spans="4:5">
+      <c r="E264" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="265" spans="4:5">
+      <c r="E265" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="266" spans="4:5">
+      <c r="E266" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="267" spans="4:5">
+      <c r="E267" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="268" spans="4:5">
+      <c r="E268" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="269" spans="4:5">
+      <c r="E269" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="273" spans="3:5">
+      <c r="D273" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="255" spans="2:5">
-      <c r="E255" s="5" t="s">
+      <c r="E273" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="274" spans="3:5">
+      <c r="E274" s="5" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="256" spans="2:5">
-      <c r="E256" s="5" t="s">
+    <row r="275" spans="3:5">
+      <c r="E275" s="5" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="257" spans="2:5">
-      <c r="E257" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="258" spans="2:5">
-      <c r="E258" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="259" spans="2:5">
-      <c r="E259" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="260" spans="2:5">
-      <c r="E260" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="262" spans="2:5">
-      <c r="D262" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E262" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="263" spans="2:5">
-      <c r="E263" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="264" spans="2:5">
-      <c r="E264" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="266" spans="2:5">
-      <c r="B266" s="22">
+    <row r="277" spans="3:5">
+      <c r="C277" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="278" spans="3:5">
+      <c r="D278" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="279" spans="3:5">
+      <c r="D279" s="5">
+        <v>1</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="280" spans="3:5">
+      <c r="E280" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="281" spans="3:5">
+      <c r="E281" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="282" spans="3:5">
+      <c r="E282" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="283" spans="3:5">
+      <c r="E283" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="285" spans="3:5">
+      <c r="D285" s="5">
+        <v>2</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="286" spans="3:5">
+      <c r="E286" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="287" spans="3:5">
+      <c r="E287" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="288" spans="3:5">
+      <c r="E288" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="289" spans="2:5">
+      <c r="E289" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="295" spans="2:5">
+      <c r="B295" s="22">
         <v>4</v>
       </c>
-      <c r="C266" s="24" t="s">
-        <v>284</v>
+      <c r="C295" s="24" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4067,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4075,7 +4264,7 @@
         <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4083,7 +4272,7 @@
         <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4124,7 +4313,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4132,31 +4321,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4164,12 +4353,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4177,30 +4366,30 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -4208,26 +4397,26 @@
         <v>2</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4263,7 +4452,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4271,20 +4460,20 @@
         <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4292,25 +4481,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4321,43 +4510,43 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="5"/>
       <c r="D12" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
-    <sheet name="宏的使用" sheetId="2" r:id="rId2"/>
-    <sheet name="Git的使用" sheetId="3" r:id="rId3"/>
+    <sheet name="Git的使用" sheetId="3" r:id="rId2"/>
+    <sheet name="宏的使用" sheetId="2" r:id="rId3"/>
     <sheet name="Mac使用技巧" sheetId="4" r:id="rId4"/>
     <sheet name="Xcode调试常见问题" sheetId="5" r:id="rId5"/>
     <sheet name="Excel使用技巧" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Git_管理本地仓库">Git的使用!$C$17</definedName>
-    <definedName name="Git_配置">Git的使用!$C$255</definedName>
-    <definedName name="Git_与远程主机的交互">Git的使用!$C$128</definedName>
+    <definedName name="Git_配置">Git的使用!$C$274</definedName>
+    <definedName name="Git_与远程主机的交互">Git的使用!$C$147</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="334">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1350,27 +1350,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>在弹出的框框中的"在工作簿中的名称"输入框输入名称,如"Git_分支管理"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Git_分支管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>这种链接,点击某单元格最终会链接到"Git的使用"工作表,且焦点单元格是左上角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中单元格-&gt;工具栏中的"插入"-&gt;"名称"-&gt;"定义"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>右键"Git的使用"单元格-&gt;"超链接"-&gt;"文档"-&gt;"查找"-&gt;在列表中选择工作表"Git的使用"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2 在点击的单元(任意单元格)"右键"-&gt;"超链接"-&gt;"文档"-&gt;"查找"-&gt;"已定义的名称"-&gt;选择你之前定义的名称"Git_分支管理"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1569,6 +1553,192 @@
   </si>
   <si>
     <t>交互式的添加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm temp.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除temp.txt文件,worksapce和local repo中该文件都将被删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm -n temp.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个命令会确认要删除的文件,即,命令不会做出删除文件的操作,只是列出来,以便做确认,以免误删</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认完之后,可以采用上面1的命令做真正的删除操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm --cached temp.txt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除local repo中该文件,但workspace中保留,即只是从版本管理中移除该文件而已</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为有时候,我们可能提交了很多文件,但是其中的某些文件并不需要版本管理的,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可是这些文件却又需要在工作目录中保留,则可以选择只从版本库中移除,本地保留即可.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种情况下,每次git status则会提示这些文件Untracked..如果觉得也不需要这些提示,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么可以在.gitignore中配置忽略这些文件.git status 就显示clean了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>别忘了,git rm  之后,还是要commit的!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    选中单元格-&gt;工具栏中的"插入"-&gt;"名称"-&gt;"定义"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>效果:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点击某单元格最终会链接到"Git的使用"工作表,且焦点单元格是左上角</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    在弹出的框框中的"在工作簿中的名称"输入框</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输入名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,如"Git_分支管理"</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2 做超链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选中单元格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(任意)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"右键"-&gt;"超链接"-&gt;"文档"-&gt;"查找"-&gt;"已定义的名称"-&gt;选择已定义的名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Git_分支管理"</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object-C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1926,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1793,6 +1963,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1878,7 +2051,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="54">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1929,6 +2102,9 @@
     <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1942,13 +2118,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>227</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2458,9 +2634,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D23"/>
+  <dimension ref="B3:D24"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A5" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -2476,84 +2652,92 @@
       </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="1" t="s">
+    <row r="11" spans="2:4">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="1">
+    <row r="12" spans="2:4">
+      <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="C12" s="3" t="s">
+    <row r="13" spans="2:4">
+      <c r="C13" s="3" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="D15" s="1" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1">
         <v>3</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="1" t="s">
+    <row r="21" spans="2:4">
+      <c r="B21" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="1">
+    <row r="22" spans="2:4">
+      <c r="B22" s="1">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="C22" s="3" t="s">
+    <row r="23" spans="2:4">
+      <c r="C23" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="D23" s="1" t="s">
+    <row r="24" spans="2:4">
+      <c r="D24" s="1" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="宏的使用!A1" tooltip="宏的使用" display="宏的使用"/>
-    <hyperlink ref="C15" location="Git的使用!A1" tooltip="Git" display="Git"/>
-    <hyperlink ref="C22" location="Mac使用技巧!A1" tooltip="常用小技巧" display="使用技巧"/>
-    <hyperlink ref="C12" location="Xcode调试常见问题!A1" tooltip="Xcode调试常见异常信息" display="调试常见问题"/>
+    <hyperlink ref="C5" location="宏的使用!A1" tooltip="宏的使用" display="宏的使用"/>
+    <hyperlink ref="C16" location="Git的使用!A1" tooltip="Git" display="Git"/>
+    <hyperlink ref="C23" location="Mac使用技巧!A1" tooltip="常用小技巧" display="使用技巧"/>
+    <hyperlink ref="C13" location="Xcode调试常见问题!A1" tooltip="Xcode调试常见异常信息" display="调试常见问题"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2566,6 +2750,1510 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N314"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="22"/>
+    <col min="3" max="3" width="12.1640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="24"/>
+      <c r="C14" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="22">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="D19" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="D20" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="D21" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="E22" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="E23" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="E24" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="D25" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="E26" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="E28" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="E29" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="E30" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="E32" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="E33" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="D36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="E37" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="D40" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="D41" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="E42" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="D44" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="E45" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="E46" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="E47" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="E48" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13">
+      <c r="E49" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13">
+      <c r="E50" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13">
+      <c r="D52" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13">
+      <c r="E53" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13">
+      <c r="E54" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13">
+      <c r="E55" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13">
+      <c r="E56" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13">
+      <c r="D60" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="C88" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="D89" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="D90" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="E91" s="5">
+        <v>1</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="F92" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="E94" s="5">
+        <v>2</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6">
+      <c r="F95" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6">
+      <c r="E97" s="5">
+        <v>3</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6">
+      <c r="F98" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6">
+      <c r="D100" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6">
+      <c r="E101" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6">
+      <c r="E102" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6">
+      <c r="E103" s="5">
+        <v>1</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6">
+      <c r="F104" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6">
+      <c r="E105" s="5">
+        <v>2</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6">
+      <c r="F106" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6">
+      <c r="F107" s="5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6">
+      <c r="F108" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6">
+      <c r="F109" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6">
+      <c r="F110" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6">
+      <c r="E111" s="5">
+        <v>3</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6">
+      <c r="F112" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="113" spans="3:6">
+      <c r="F113" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="114" spans="3:6">
+      <c r="F114" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6">
+      <c r="E115" s="5">
+        <v>4</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="3:6">
+      <c r="F116" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="3:6">
+      <c r="F117" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="3:6">
+      <c r="F118" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6">
+      <c r="E119" s="5">
+        <v>5</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6">
+      <c r="F120" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="121" spans="3:6">
+      <c r="F121" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6">
+      <c r="F122" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6">
+      <c r="F123" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6">
+      <c r="E124" s="5">
+        <v>6</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6">
+      <c r="C127" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6">
+      <c r="D128" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="4:5">
+      <c r="D129" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="4:5">
+      <c r="D130" s="5">
+        <v>1</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="131" spans="4:5">
+      <c r="E131" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" spans="4:5">
+      <c r="D133" s="5">
+        <v>2</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="4:5">
+      <c r="E134" s="5" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="135" spans="4:5">
+      <c r="E135" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="137" spans="4:5">
+      <c r="D137" s="5">
+        <v>3</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="138" spans="4:5">
+      <c r="E138" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="139" spans="4:5">
+      <c r="E139" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="140" spans="4:5">
+      <c r="E140" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="141" spans="4:5">
+      <c r="E141" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="142" spans="4:5">
+      <c r="E142" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="144" spans="4:5">
+      <c r="D144" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="22">
+        <v>2</v>
+      </c>
+      <c r="C147" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="C148" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="D150" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="D151" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="D152" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="E153" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="E155" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="E156" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="E157" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="C159" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="161" spans="3:12">
+      <c r="D161" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="162" spans="3:12">
+      <c r="D162" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" spans="3:12">
+      <c r="E163" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="10"/>
+    </row>
+    <row r="164" spans="3:12">
+      <c r="E164" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F164" s="12"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="13"/>
+    </row>
+    <row r="165" spans="3:12">
+      <c r="E165" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F165" s="12"/>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="13"/>
+    </row>
+    <row r="166" spans="3:12">
+      <c r="E166" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="16"/>
+    </row>
+    <row r="168" spans="3:12">
+      <c r="E168" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="169" spans="3:12">
+      <c r="E169" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F169" s="9"/>
+      <c r="G169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="9"/>
+      <c r="L169" s="10"/>
+    </row>
+    <row r="170" spans="3:12">
+      <c r="E170" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="I170" s="12"/>
+      <c r="J170" s="12"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="13"/>
+    </row>
+    <row r="171" spans="3:12">
+      <c r="E171" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F171" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="16"/>
+    </row>
+    <row r="173" spans="3:12">
+      <c r="C173" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175" spans="3:12">
+      <c r="D175" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" spans="3:12">
+      <c r="D176" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E176" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5">
+      <c r="E177" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="178" spans="3:5">
+      <c r="D178" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5">
+      <c r="E179" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5">
+      <c r="E180" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5">
+      <c r="E181" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5">
+      <c r="E182" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5">
+      <c r="E183" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="184" spans="3:5">
+      <c r="E184" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="186" spans="3:5">
+      <c r="C186" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="188" spans="3:5">
+      <c r="D188" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E188" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5">
+      <c r="D189" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5">
+      <c r="D190" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E190" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5">
+      <c r="E191" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5">
+      <c r="E192" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="4:14">
+      <c r="D195" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="196" spans="4:14">
+      <c r="E196" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="197" spans="4:14">
+      <c r="E197" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="9"/>
+      <c r="L197" s="9"/>
+      <c r="M197" s="9"/>
+      <c r="N197" s="10"/>
+    </row>
+    <row r="198" spans="4:14">
+      <c r="E198" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F198" s="12"/>
+      <c r="G198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="I198" s="12"/>
+      <c r="J198" s="12"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="12"/>
+      <c r="N198" s="13"/>
+    </row>
+    <row r="199" spans="4:14">
+      <c r="E199" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F199" s="12"/>
+      <c r="G199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="I199" s="12"/>
+      <c r="J199" s="12"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="12"/>
+      <c r="N199" s="13"/>
+    </row>
+    <row r="200" spans="4:14">
+      <c r="E200" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F200" s="12"/>
+      <c r="G200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="I200" s="12"/>
+      <c r="J200" s="12"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="12"/>
+      <c r="N200" s="13"/>
+    </row>
+    <row r="201" spans="4:14">
+      <c r="E201" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F201" s="12"/>
+      <c r="G201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="I201" s="12"/>
+      <c r="J201" s="12"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="12"/>
+      <c r="N201" s="13"/>
+    </row>
+    <row r="202" spans="4:14">
+      <c r="E202" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F202" s="12"/>
+      <c r="G202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="I202" s="12"/>
+      <c r="J202" s="12"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="12"/>
+      <c r="N202" s="13"/>
+    </row>
+    <row r="203" spans="4:14">
+      <c r="E203" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F203" s="12"/>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="12"/>
+      <c r="N203" s="13"/>
+    </row>
+    <row r="204" spans="4:14">
+      <c r="E204" s="11"/>
+      <c r="F204" s="12"/>
+      <c r="G204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="I204" s="12"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="12"/>
+      <c r="M204" s="12"/>
+      <c r="N204" s="13"/>
+    </row>
+    <row r="205" spans="4:14">
+      <c r="E205" s="11"/>
+      <c r="F205" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="12"/>
+      <c r="N205" s="13"/>
+    </row>
+    <row r="206" spans="4:14">
+      <c r="E206" s="11"/>
+      <c r="F206" s="12"/>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="12"/>
+      <c r="N206" s="13"/>
+    </row>
+    <row r="207" spans="4:14">
+      <c r="E207" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F207" s="12"/>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="12"/>
+      <c r="L207" s="12"/>
+      <c r="M207" s="12"/>
+      <c r="N207" s="13"/>
+    </row>
+    <row r="208" spans="4:14">
+      <c r="E208" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F208" s="12"/>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
+      <c r="L208" s="12"/>
+      <c r="M208" s="12"/>
+      <c r="N208" s="13"/>
+    </row>
+    <row r="209" spans="5:14">
+      <c r="E209" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F209" s="19"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19"/>
+      <c r="I209" s="19"/>
+      <c r="J209" s="19"/>
+      <c r="K209" s="19"/>
+      <c r="L209" s="19"/>
+      <c r="M209" s="12"/>
+      <c r="N209" s="13"/>
+    </row>
+    <row r="210" spans="5:14">
+      <c r="E210" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F210" s="19"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="19"/>
+      <c r="I210" s="19"/>
+      <c r="J210" s="19"/>
+      <c r="K210" s="19"/>
+      <c r="L210" s="19"/>
+      <c r="M210" s="12"/>
+      <c r="N210" s="13"/>
+    </row>
+    <row r="211" spans="5:14">
+      <c r="E211" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F211" s="19"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="19"/>
+      <c r="I211" s="19"/>
+      <c r="J211" s="19"/>
+      <c r="K211" s="19"/>
+      <c r="L211" s="19"/>
+      <c r="M211" s="12"/>
+      <c r="N211" s="13"/>
+    </row>
+    <row r="212" spans="5:14">
+      <c r="E212" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F212" s="19"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+      <c r="I212" s="19"/>
+      <c r="J212" s="19"/>
+      <c r="K212" s="19"/>
+      <c r="L212" s="19"/>
+      <c r="M212" s="12"/>
+      <c r="N212" s="13"/>
+    </row>
+    <row r="213" spans="5:14">
+      <c r="E213" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F213" s="19"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
+      <c r="I213" s="19"/>
+      <c r="J213" s="19"/>
+      <c r="K213" s="19"/>
+      <c r="L213" s="19"/>
+      <c r="M213" s="12"/>
+      <c r="N213" s="13"/>
+    </row>
+    <row r="214" spans="5:14">
+      <c r="E214" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
+      <c r="I214" s="19"/>
+      <c r="J214" s="19"/>
+      <c r="K214" s="19"/>
+      <c r="L214" s="19"/>
+      <c r="M214" s="12"/>
+      <c r="N214" s="13"/>
+    </row>
+    <row r="215" spans="5:14">
+      <c r="E215" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F215" s="21"/>
+      <c r="G215" s="21"/>
+      <c r="H215" s="21"/>
+      <c r="I215" s="21"/>
+      <c r="J215" s="21"/>
+      <c r="K215" s="21"/>
+      <c r="L215" s="21"/>
+      <c r="M215" s="15"/>
+      <c r="N215" s="16"/>
+    </row>
+    <row r="217" spans="5:14">
+      <c r="E217" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="218" spans="5:14">
+      <c r="E218" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="219" spans="5:14">
+      <c r="E219" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="221" spans="5:14">
+      <c r="E221" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="222" spans="5:14">
+      <c r="E222" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="223" spans="5:14">
+      <c r="E223" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="224" spans="5:14">
+      <c r="E224" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="226" spans="3:5">
+      <c r="E226" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="227" spans="3:5">
+      <c r="E227" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="229" spans="3:5">
+      <c r="C229" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="231" spans="3:5">
+      <c r="D231" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="232" spans="3:5">
+      <c r="E232" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="233" spans="3:5">
+      <c r="D233" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="3:5">
+      <c r="D234" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="235" spans="3:5">
+      <c r="E235" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="237" spans="3:5">
+      <c r="D237" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="238" spans="3:5">
+      <c r="E238" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="239" spans="3:5">
+      <c r="E239" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="240" spans="3:5">
+      <c r="E240" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="241" spans="4:5">
+      <c r="E241" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="242" spans="4:5">
+      <c r="E242" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="243" spans="4:5">
+      <c r="E243" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="246" spans="4:5">
+      <c r="D246" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="247" spans="4:5">
+      <c r="D247" s="23"/>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" s="22">
+        <v>3</v>
+      </c>
+      <c r="C274" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5">
+      <c r="C275" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="276" spans="2:5">
+      <c r="D276" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E276" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="D277" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="D278" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E278" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5">
+      <c r="E279" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5">
+      <c r="E280" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="E281" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="E282" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="E283" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="284" spans="2:5">
+      <c r="E284" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="E285" s="5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="286" spans="2:5">
+      <c r="E286" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="E287" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="288" spans="2:5">
+      <c r="E288" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="292" spans="3:5">
+      <c r="D292" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E292" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="3:5">
+      <c r="E293" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="294" spans="3:5">
+      <c r="E294" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="296" spans="3:5">
+      <c r="C296" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="297" spans="3:5">
+      <c r="D297" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E297" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="3:5">
+      <c r="D298" s="5">
+        <v>1</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="299" spans="3:5">
+      <c r="E299" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="300" spans="3:5">
+      <c r="E300" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="301" spans="3:5">
+      <c r="E301" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="302" spans="3:5">
+      <c r="E302" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="304" spans="3:5">
+      <c r="D304" s="5">
+        <v>2</v>
+      </c>
+      <c r="E304" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5">
+      <c r="E305" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5">
+      <c r="E306" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5">
+      <c r="E307" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="E308" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="314" spans="2:5">
+      <c r="B314" s="22">
+        <v>4</v>
+      </c>
+      <c r="C314" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
+    <hyperlink ref="B12" location="Git_与远程主机的交互" tooltip="Git_与远程主机的交互" display="与远程仓库交互"/>
+    <hyperlink ref="B6" location="Git_管理本地仓库" tooltip="Git_管理本地仓库" display="管理本地仓库"/>
+    <hyperlink ref="B13" location="Git_配置" tooltip="Git_配置" display="git配置"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F57"/>
   <sheetViews>
@@ -2829,1411 +4517,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N295"/>
-  <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="22"/>
-    <col min="3" max="3" width="12.1640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="B2" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="25" t="s">
-        <v>236</v>
-      </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="5" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="22">
-        <v>1</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="C18" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="D19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="D20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="D21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="E22" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="E23" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="E24" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="D25" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="E26" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="E28" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="E29" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="E30" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="E32" s="5" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="E33" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="D36" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
-      <c r="E37" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="D40" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="D41" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="E42" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="D44" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="E45" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="E46" s="5" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="E47" s="5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="E48" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13">
-      <c r="E49" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13">
-      <c r="E50" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="52" spans="4:13">
-      <c r="D52" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13">
-      <c r="E53" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13">
-      <c r="E54" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13">
-      <c r="E55" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="56" spans="4:13">
-      <c r="E56" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13">
-      <c r="D60" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6">
-      <c r="C88" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6">
-      <c r="D89" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6">
-      <c r="D90" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6">
-      <c r="E91" s="5">
-        <v>1</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6">
-      <c r="F92" s="5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6">
-      <c r="E94" s="5">
-        <v>2</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6">
-      <c r="F95" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="97" spans="4:6">
-      <c r="E97" s="5">
-        <v>3</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6">
-      <c r="F98" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="100" spans="4:6">
-      <c r="D100" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="101" spans="4:6">
-      <c r="E101" s="5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="4:6">
-      <c r="E102" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="103" spans="4:6">
-      <c r="E103" s="5">
-        <v>1</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="104" spans="4:6">
-      <c r="F104" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="105" spans="4:6">
-      <c r="E105" s="5">
-        <v>2</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="106" spans="4:6">
-      <c r="F106" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="107" spans="4:6">
-      <c r="F107" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="108" spans="4:6">
-      <c r="F108" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109" spans="4:6">
-      <c r="F109" s="5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="110" spans="4:6">
-      <c r="F110" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="111" spans="4:6">
-      <c r="E111" s="5">
-        <v>3</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="4:6">
-      <c r="F112" s="5" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6">
-      <c r="F113" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6">
-      <c r="F114" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6">
-      <c r="E115" s="5">
-        <v>4</v>
-      </c>
-      <c r="F115" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6">
-      <c r="F116" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6">
-      <c r="F117" s="5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6">
-      <c r="F118" s="5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6">
-      <c r="E119" s="5">
-        <v>5</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6">
-      <c r="F120" s="5" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6">
-      <c r="F121" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6">
-      <c r="F122" s="5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6">
-      <c r="F123" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="124" spans="2:6">
-      <c r="E124" s="5">
-        <v>6</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="128" spans="2:6">
-      <c r="B128" s="22">
-        <v>2</v>
-      </c>
-      <c r="C128" s="25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="129" spans="3:11">
-      <c r="C129" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="131" spans="3:11">
-      <c r="D131" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="132" spans="3:11">
-      <c r="D132" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="133" spans="3:11">
-      <c r="D133" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E133" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="134" spans="3:11">
-      <c r="E134" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="136" spans="3:11">
-      <c r="E136" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="3:11">
-      <c r="E137" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="138" spans="3:11">
-      <c r="E138" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="140" spans="3:11">
-      <c r="C140" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="142" spans="3:11">
-      <c r="D142" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="143" spans="3:11">
-      <c r="D143" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="144" spans="3:11">
-      <c r="E144" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="10"/>
-    </row>
-    <row r="145" spans="3:12">
-      <c r="E145" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
-      <c r="I145" s="12"/>
-      <c r="J145" s="12"/>
-      <c r="K145" s="13"/>
-    </row>
-    <row r="146" spans="3:12">
-      <c r="E146" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="13"/>
-    </row>
-    <row r="147" spans="3:12">
-      <c r="E147" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="15"/>
-      <c r="I147" s="15"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="16"/>
-    </row>
-    <row r="149" spans="3:12">
-      <c r="E149" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" spans="3:12">
-      <c r="E150" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="I150" s="9"/>
-      <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
-      <c r="L150" s="10"/>
-    </row>
-    <row r="151" spans="3:12">
-      <c r="E151" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="13"/>
-    </row>
-    <row r="152" spans="3:12">
-      <c r="E152" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G152" s="15"/>
-      <c r="H152" s="15"/>
-      <c r="I152" s="15"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="15"/>
-      <c r="L152" s="16"/>
-    </row>
-    <row r="154" spans="3:12">
-      <c r="C154" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="156" spans="3:12">
-      <c r="D156" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="157" spans="3:12">
-      <c r="D157" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="158" spans="3:12">
-      <c r="E158" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="159" spans="3:12">
-      <c r="D159" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="160" spans="3:12">
-      <c r="E160" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5">
-      <c r="E161" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5">
-      <c r="E162" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="163" spans="3:5">
-      <c r="E163" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5">
-      <c r="E164" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5">
-      <c r="E165" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="167" spans="3:5">
-      <c r="C167" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5">
-      <c r="D169" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5">
-      <c r="D170" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="171" spans="3:5">
-      <c r="D171" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="172" spans="3:5">
-      <c r="E172" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="173" spans="3:5">
-      <c r="E173" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5">
-      <c r="D176" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="177" spans="5:14">
-      <c r="E177" s="5" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="178" spans="5:14">
-      <c r="E178" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F178" s="9"/>
-      <c r="G178" s="9"/>
-      <c r="H178" s="9"/>
-      <c r="I178" s="9"/>
-      <c r="J178" s="9"/>
-      <c r="K178" s="9"/>
-      <c r="L178" s="9"/>
-      <c r="M178" s="9"/>
-      <c r="N178" s="10"/>
-    </row>
-    <row r="179" spans="5:14">
-      <c r="E179" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F179" s="12"/>
-      <c r="G179" s="12"/>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
-      <c r="M179" s="12"/>
-      <c r="N179" s="13"/>
-    </row>
-    <row r="180" spans="5:14">
-      <c r="E180" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F180" s="12"/>
-      <c r="G180" s="12"/>
-      <c r="H180" s="12"/>
-      <c r="I180" s="12"/>
-      <c r="J180" s="12"/>
-      <c r="K180" s="12"/>
-      <c r="L180" s="12"/>
-      <c r="M180" s="12"/>
-      <c r="N180" s="13"/>
-    </row>
-    <row r="181" spans="5:14">
-      <c r="E181" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F181" s="12"/>
-      <c r="G181" s="12"/>
-      <c r="H181" s="12"/>
-      <c r="I181" s="12"/>
-      <c r="J181" s="12"/>
-      <c r="K181" s="12"/>
-      <c r="L181" s="12"/>
-      <c r="M181" s="12"/>
-      <c r="N181" s="13"/>
-    </row>
-    <row r="182" spans="5:14">
-      <c r="E182" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F182" s="12"/>
-      <c r="G182" s="12"/>
-      <c r="H182" s="12"/>
-      <c r="I182" s="12"/>
-      <c r="J182" s="12"/>
-      <c r="K182" s="12"/>
-      <c r="L182" s="12"/>
-      <c r="M182" s="12"/>
-      <c r="N182" s="13"/>
-    </row>
-    <row r="183" spans="5:14">
-      <c r="E183" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F183" s="12"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="12"/>
-      <c r="I183" s="12"/>
-      <c r="J183" s="12"/>
-      <c r="K183" s="12"/>
-      <c r="L183" s="12"/>
-      <c r="M183" s="12"/>
-      <c r="N183" s="13"/>
-    </row>
-    <row r="184" spans="5:14">
-      <c r="E184" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F184" s="12"/>
-      <c r="G184" s="12"/>
-      <c r="H184" s="12"/>
-      <c r="I184" s="12"/>
-      <c r="J184" s="12"/>
-      <c r="K184" s="12"/>
-      <c r="L184" s="12"/>
-      <c r="M184" s="12"/>
-      <c r="N184" s="13"/>
-    </row>
-    <row r="185" spans="5:14">
-      <c r="E185" s="11"/>
-      <c r="F185" s="12"/>
-      <c r="G185" s="12"/>
-      <c r="H185" s="12"/>
-      <c r="I185" s="12"/>
-      <c r="J185" s="12"/>
-      <c r="K185" s="12"/>
-      <c r="L185" s="12"/>
-      <c r="M185" s="12"/>
-      <c r="N185" s="13"/>
-    </row>
-    <row r="186" spans="5:14">
-      <c r="E186" s="11"/>
-      <c r="F186" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G186" s="12"/>
-      <c r="H186" s="12"/>
-      <c r="I186" s="12"/>
-      <c r="J186" s="12"/>
-      <c r="K186" s="12"/>
-      <c r="L186" s="12"/>
-      <c r="M186" s="12"/>
-      <c r="N186" s="13"/>
-    </row>
-    <row r="187" spans="5:14">
-      <c r="E187" s="11"/>
-      <c r="F187" s="12"/>
-      <c r="G187" s="12"/>
-      <c r="H187" s="12"/>
-      <c r="I187" s="12"/>
-      <c r="J187" s="12"/>
-      <c r="K187" s="12"/>
-      <c r="L187" s="12"/>
-      <c r="M187" s="12"/>
-      <c r="N187" s="13"/>
-    </row>
-    <row r="188" spans="5:14">
-      <c r="E188" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F188" s="12"/>
-      <c r="G188" s="12"/>
-      <c r="H188" s="12"/>
-      <c r="I188" s="12"/>
-      <c r="J188" s="12"/>
-      <c r="K188" s="12"/>
-      <c r="L188" s="12"/>
-      <c r="M188" s="12"/>
-      <c r="N188" s="13"/>
-    </row>
-    <row r="189" spans="5:14">
-      <c r="E189" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F189" s="12"/>
-      <c r="G189" s="12"/>
-      <c r="H189" s="12"/>
-      <c r="I189" s="12"/>
-      <c r="J189" s="12"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
-      <c r="M189" s="12"/>
-      <c r="N189" s="13"/>
-    </row>
-    <row r="190" spans="5:14">
-      <c r="E190" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F190" s="19"/>
-      <c r="G190" s="19"/>
-      <c r="H190" s="19"/>
-      <c r="I190" s="19"/>
-      <c r="J190" s="19"/>
-      <c r="K190" s="19"/>
-      <c r="L190" s="19"/>
-      <c r="M190" s="12"/>
-      <c r="N190" s="13"/>
-    </row>
-    <row r="191" spans="5:14">
-      <c r="E191" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="12"/>
-      <c r="N191" s="13"/>
-    </row>
-    <row r="192" spans="5:14">
-      <c r="E192" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F192" s="19"/>
-      <c r="G192" s="19"/>
-      <c r="H192" s="19"/>
-      <c r="I192" s="19"/>
-      <c r="J192" s="19"/>
-      <c r="K192" s="19"/>
-      <c r="L192" s="19"/>
-      <c r="M192" s="12"/>
-      <c r="N192" s="13"/>
-    </row>
-    <row r="193" spans="5:14">
-      <c r="E193" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F193" s="19"/>
-      <c r="G193" s="19"/>
-      <c r="H193" s="19"/>
-      <c r="I193" s="19"/>
-      <c r="J193" s="19"/>
-      <c r="K193" s="19"/>
-      <c r="L193" s="19"/>
-      <c r="M193" s="12"/>
-      <c r="N193" s="13"/>
-    </row>
-    <row r="194" spans="5:14">
-      <c r="E194" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="F194" s="19"/>
-      <c r="G194" s="19"/>
-      <c r="H194" s="19"/>
-      <c r="I194" s="19"/>
-      <c r="J194" s="19"/>
-      <c r="K194" s="19"/>
-      <c r="L194" s="19"/>
-      <c r="M194" s="12"/>
-      <c r="N194" s="13"/>
-    </row>
-    <row r="195" spans="5:14">
-      <c r="E195" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F195" s="19"/>
-      <c r="G195" s="19"/>
-      <c r="H195" s="19"/>
-      <c r="I195" s="19"/>
-      <c r="J195" s="19"/>
-      <c r="K195" s="19"/>
-      <c r="L195" s="19"/>
-      <c r="M195" s="12"/>
-      <c r="N195" s="13"/>
-    </row>
-    <row r="196" spans="5:14">
-      <c r="E196" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F196" s="21"/>
-      <c r="G196" s="21"/>
-      <c r="H196" s="21"/>
-      <c r="I196" s="21"/>
-      <c r="J196" s="21"/>
-      <c r="K196" s="21"/>
-      <c r="L196" s="21"/>
-      <c r="M196" s="15"/>
-      <c r="N196" s="16"/>
-    </row>
-    <row r="198" spans="5:14">
-      <c r="E198" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="199" spans="5:14">
-      <c r="E199" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="200" spans="5:14">
-      <c r="E200" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="202" spans="5:14">
-      <c r="E202" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="203" spans="5:14">
-      <c r="E203" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="204" spans="5:14">
-      <c r="E204" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="205" spans="5:14">
-      <c r="E205" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="207" spans="5:14">
-      <c r="E207" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="208" spans="5:14">
-      <c r="E208" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="210" spans="3:5">
-      <c r="C210" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D210" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="212" spans="3:5">
-      <c r="D212" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="213" spans="3:5">
-      <c r="E213" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="214" spans="3:5">
-      <c r="D214" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E214" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="215" spans="3:5">
-      <c r="D215" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E215" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="216" spans="3:5">
-      <c r="E216" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="218" spans="3:5">
-      <c r="D218" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="219" spans="3:5">
-      <c r="E219" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="220" spans="3:5">
-      <c r="E220" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="221" spans="3:5">
-      <c r="E221" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="222" spans="3:5">
-      <c r="E222" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="223" spans="3:5">
-      <c r="E223" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="224" spans="3:5">
-      <c r="E224" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="227" spans="4:4">
-      <c r="D227" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="228" spans="4:4">
-      <c r="D228" s="23"/>
-    </row>
-    <row r="255" spans="2:4">
-      <c r="B255" s="22">
-        <v>3</v>
-      </c>
-      <c r="C255" s="25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="2:4">
-      <c r="C256" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="257" spans="4:5">
-      <c r="D257" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E257" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="258" spans="4:5">
-      <c r="D258" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E258" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="259" spans="4:5">
-      <c r="D259" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="260" spans="4:5">
-      <c r="E260" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="261" spans="4:5">
-      <c r="E261" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="262" spans="4:5">
-      <c r="E262" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="263" spans="4:5">
-      <c r="E263" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="264" spans="4:5">
-      <c r="E264" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="265" spans="4:5">
-      <c r="E265" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="266" spans="4:5">
-      <c r="E266" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="267" spans="4:5">
-      <c r="E267" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="268" spans="4:5">
-      <c r="E268" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="269" spans="4:5">
-      <c r="E269" s="5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="273" spans="3:5">
-      <c r="D273" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E273" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="274" spans="3:5">
-      <c r="E274" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="275" spans="3:5">
-      <c r="E275" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="277" spans="3:5">
-      <c r="C277" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D277" s="5" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="278" spans="3:5">
-      <c r="D278" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E278" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="279" spans="3:5">
-      <c r="D279" s="5">
-        <v>1</v>
-      </c>
-      <c r="E279" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="280" spans="3:5">
-      <c r="E280" s="5" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="281" spans="3:5">
-      <c r="E281" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="282" spans="3:5">
-      <c r="E282" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="283" spans="3:5">
-      <c r="E283" s="6" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="285" spans="3:5">
-      <c r="D285" s="5">
-        <v>2</v>
-      </c>
-      <c r="E285" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="286" spans="3:5">
-      <c r="E286" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="287" spans="3:5">
-      <c r="E287" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="288" spans="3:5">
-      <c r="E288" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="289" spans="2:5">
-      <c r="E289" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="295" spans="2:5">
-      <c r="B295" s="22">
-        <v>4</v>
-      </c>
-      <c r="C295" s="24" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回"/>
-    <hyperlink ref="B12" location="Git_与远程主机的交互" tooltip="Git_与远程主机的交互" display="与远程仓库交互"/>
-    <hyperlink ref="B6" location="Git_管理本地仓库" tooltip="Git_管理本地仓库" display="管理本地仓库"/>
-    <hyperlink ref="B13" location="Git_配置" tooltip="Git_配置" display="git配置"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4437,11 +4720,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -4493,13 +4774,13 @@
     <row r="8" spans="1:4">
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="5"/>
       <c r="D9" s="2" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4526,27 +4807,32 @@
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="2" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="1" t="s">
-        <v>275</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="1" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="1" t="s">
-        <v>281</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="1" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
+    <workbookView xWindow="11400" yWindow="2020" windowWidth="25520" windowHeight="15600" tabRatio="627" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Excel使用技巧" sheetId="6" r:id="rId6"/>
     <sheet name="VI使用技巧" sheetId="7" r:id="rId7"/>
     <sheet name="终端的使用" sheetId="8" r:id="rId8"/>
+    <sheet name="JavaScript" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_.gitignore">Git的使用!$D$290</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="460">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -475,10 +476,6 @@
   </si>
   <si>
     <t>git diff master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git merge master</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2092,6 +2089,118 @@
   <si>
     <t>Could not find developer disk image</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git merge origin/master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>innerHTML</t>
+  </si>
+  <si>
+    <t>ECMAScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undefined、Null、Boolean、Number和String</t>
+  </si>
+  <si>
+    <t>引用数据类型(Object)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeof运算符：查看变量类型，对变量或值调用typeof运算符将返回下列值之一：</t>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>undefined  – 如果变量是 Undefined 类型的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string            – 如果变量是 String 类型的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number       – 如果变量是 Number 类型的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean      – 如果变量是 Boolean 类型的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>object         – 如果变量是一种引用类型或 Null 类型(null 被认为是对象的占位符)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用的函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTimeout("alert("hello js"),5000);   // 5000毫秒(5秒)之后执行alert("hello js") 这段代码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTimeout("myFunc()",2000);     // 2秒后执行 myFunc() 方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTimeout() 方法用于在指定的毫秒数后调用函数或计算表达式.只执行一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setInterval("myFunc()",2000);   // 每隔2秒中都执行myFunc()方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setInterval()   // 每隔一段时间都会执行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见的JS事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onload()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载事件,如 &lt;body onload = "test()"&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.flyne.org/article/407</t>
   </si>
 </sst>
 </file>
@@ -2305,7 +2414,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2382,8 +2491,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2471,8 +2583,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="79">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2548,6 +2661,9 @@
     <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3122,7 +3238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -3132,30 +3250,38 @@
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" s="2" customFormat="1">
+    <row r="3" spans="2:4">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="2" customFormat="1">
+    <row r="4" spans="2:4">
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" s="2" customFormat="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="C5" s="35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:4" s="2" customFormat="1">
+    <row r="7" spans="2:4">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:4" s="2" customFormat="1">
+    <row r="12" spans="2:4">
       <c r="B12" s="2">
         <v>1</v>
       </c>
@@ -3163,22 +3289,22 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:4" s="2" customFormat="1">
+    <row r="13" spans="2:4">
       <c r="C13" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" s="2" customFormat="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="D14" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" s="2" customFormat="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
       <c r="D15" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" s="2" customFormat="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
       <c r="B16" s="2">
         <v>2</v>
       </c>
@@ -3188,31 +3314,31 @@
     </row>
     <row r="17" spans="3:4" s="9" customFormat="1">
       <c r="C17" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="3:4" s="9" customFormat="1">
       <c r="C18" s="1"/>
       <c r="D18" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="3:4" s="9" customFormat="1">
       <c r="C19" s="1"/>
       <c r="D19" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="3:4" s="9" customFormat="1">
       <c r="C20" s="1"/>
       <c r="D20" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="3:4" s="9" customFormat="1">
       <c r="C21" s="1"/>
       <c r="D21" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="3:4" s="9" customFormat="1">
@@ -3220,122 +3346,122 @@
     </row>
     <row r="23" spans="3:4" s="9" customFormat="1">
       <c r="C23" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="3:4" s="9" customFormat="1">
       <c r="C24" s="14"/>
       <c r="D24" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="3:4" s="9" customFormat="1">
       <c r="C25" s="14"/>
       <c r="D25" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="3:4" s="9" customFormat="1">
       <c r="C26" s="14"/>
       <c r="D26" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="27" spans="3:4" s="9" customFormat="1">
       <c r="C27" s="14"/>
       <c r="D27" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="28" spans="3:4" s="9" customFormat="1">
       <c r="C28" s="14"/>
       <c r="D28" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="3:4" s="9" customFormat="1">
       <c r="C29" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="3:4" s="9" customFormat="1">
       <c r="C30" s="8"/>
       <c r="D30" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="3:4" s="9" customFormat="1">
       <c r="C31" s="7"/>
       <c r="D31" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="3:4" s="9" customFormat="1">
       <c r="C32" s="7"/>
       <c r="D32" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="2" customFormat="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" s="2">
         <v>3</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="2" customFormat="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
       <c r="D35" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" s="2" customFormat="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" s="2">
         <v>4</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" s="2" customFormat="1">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
       <c r="D39" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="D40" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="2" customFormat="1">
-      <c r="D40" s="2" t="s">
+    <row r="41" spans="2:4">
+      <c r="D41" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="41" spans="2:4" s="2" customFormat="1">
-      <c r="D41" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" s="2" customFormat="1">
+    <row r="43" spans="2:4">
       <c r="B43" s="2">
         <v>5</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" s="2" customFormat="1">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
       <c r="D44" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="D45" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="2" customFormat="1">
-      <c r="D45" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" s="2" customFormat="1">
+    <row r="48" spans="2:4">
       <c r="B48" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="2:4" s="2" customFormat="1">
+    <row r="49" spans="2:4">
       <c r="B49" s="2">
         <v>1</v>
       </c>
@@ -3343,24 +3469,24 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:4" s="2" customFormat="1">
+    <row r="50" spans="2:4">
       <c r="C50" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="2:4" s="2" customFormat="1">
+    <row r="51" spans="2:4">
       <c r="D51" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" s="2" customFormat="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
       <c r="D52" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" s="2" customFormat="1">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
       <c r="D53" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3404,7 +3530,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3413,19 +3539,19 @@
     </row>
     <row r="3" spans="1:3" outlineLevel="1">
       <c r="B3" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="9"/>
     </row>
     <row r="4" spans="1:3" outlineLevel="1">
       <c r="B4" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" outlineLevel="1">
       <c r="B5" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C5" s="9"/>
     </row>
@@ -3435,32 +3561,32 @@
     </row>
     <row r="7" spans="1:3" outlineLevel="1">
       <c r="B7" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" outlineLevel="1">
       <c r="B8" s="1"/>
       <c r="C8" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3" outlineLevel="1">
       <c r="B9" s="1"/>
       <c r="C9" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3" outlineLevel="1">
       <c r="B10" s="1"/>
       <c r="C10" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3" outlineLevel="1">
       <c r="B11" s="1"/>
       <c r="C11" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3" outlineLevel="1">
@@ -3469,66 +3595,66 @@
     </row>
     <row r="13" spans="1:3" outlineLevel="1">
       <c r="B13" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" outlineLevel="1">
       <c r="B14" s="14"/>
       <c r="C14" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:3" outlineLevel="1">
       <c r="B15" s="14"/>
       <c r="C15" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:3" outlineLevel="1">
       <c r="B16" s="14"/>
       <c r="C16" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:4" outlineLevel="1">
       <c r="B17" s="14"/>
       <c r="C17" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:4" outlineLevel="1">
       <c r="B18" s="14"/>
       <c r="C18" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:4" outlineLevel="1">
       <c r="B19" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:4" outlineLevel="1">
       <c r="B20" s="8"/>
       <c r="C20" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:4" outlineLevel="1">
       <c r="C21" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:4" outlineLevel="1">
       <c r="C22" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:4" outlineLevel="1"/>
     <row r="24" spans="1:4" outlineLevel="1">
       <c r="B24" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:4" outlineLevel="1">
@@ -3551,244 +3677,244 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="C32" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="D34" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="D35" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="E36" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="E37" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="E38" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="E40" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="E42" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="E43" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="4:5">
       <c r="E44" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="4:5">
       <c r="E46" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="4:5">
       <c r="E47" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="D50" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="E51" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="D54" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="D55" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="E56" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="D58" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="E59" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="E60" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="E61" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="E62" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="E63" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="E64" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="4:13">
       <c r="D66" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="67" spans="4:13">
       <c r="E67" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="4:13">
       <c r="E68" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="4:13">
       <c r="E69" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="70" spans="4:13">
       <c r="E70" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" spans="4:13">
       <c r="D74" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="M74" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="D103" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="D104" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3796,12 +3922,12 @@
         <v>1</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="F106" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3809,12 +3935,12 @@
         <v>2</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="F109" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3822,30 +3948,30 @@
         <v>3</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="F112" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="4:6">
       <c r="D114" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="115" spans="4:6">
       <c r="E115" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="4:6">
       <c r="E116" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117" spans="4:6">
@@ -3853,12 +3979,12 @@
         <v>1</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="4:6">
       <c r="F118" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="4:6">
@@ -3866,32 +3992,32 @@
         <v>2</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="120" spans="4:6">
       <c r="F120" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="121" spans="4:6">
       <c r="F121" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="4:6">
       <c r="F122" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="4:6">
       <c r="F123" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124" spans="4:6">
       <c r="F124" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="125" spans="4:6">
@@ -3899,22 +4025,22 @@
         <v>3</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="4:6">
       <c r="F126" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="4:6">
       <c r="F127" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="4:6">
       <c r="F128" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3922,22 +4048,22 @@
         <v>4</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="F130" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="F131" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="F132" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3945,27 +4071,27 @@
         <v>5</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="F134" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="F135" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="F136" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="F137" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3973,31 +4099,31 @@
         <v>6</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C141" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D141" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="D142" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="D143" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4005,12 +4131,12 @@
         <v>1</v>
       </c>
       <c r="E144" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="4:5">
       <c r="E145" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="4:5">
@@ -4018,17 +4144,17 @@
         <v>2</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="4:5">
       <c r="E148" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="4:5">
       <c r="E149" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="4:5">
@@ -4036,59 +4162,59 @@
         <v>3</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="152" spans="4:5">
       <c r="E152" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" spans="4:5">
       <c r="E153" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="4:5">
       <c r="E154" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" spans="4:5">
       <c r="E155" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="4:5">
       <c r="E156" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="158" spans="4:5">
       <c r="D158" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E158" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B161" s="7">
         <v>2</v>
       </c>
       <c r="C161" s="19" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="C162" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D162" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4117,7 +4243,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="E167" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4137,10 +4263,10 @@
     </row>
     <row r="173" spans="1:5">
       <c r="C173" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4148,7 +4274,7 @@
         <v>47</v>
       </c>
       <c r="E175" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4225,7 +4351,7 @@
         <v>55</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G184" s="24"/>
       <c r="H184" s="24"/>
@@ -4239,7 +4365,7 @@
         <v>55</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G185" s="27"/>
       <c r="H185" s="27"/>
@@ -4250,13 +4376,13 @@
     </row>
     <row r="187" spans="1:12">
       <c r="A187" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D187" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -4264,7 +4390,7 @@
         <v>47</v>
       </c>
       <c r="E189" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -4290,17 +4416,17 @@
     </row>
     <row r="193" spans="1:5">
       <c r="E193" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="E194" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="E195" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4315,18 +4441,18 @@
     </row>
     <row r="198" spans="1:5">
       <c r="E198" s="9" t="s">
-        <v>116</v>
+        <v>431</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D200" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4373,7 +4499,7 @@
     </row>
     <row r="210" spans="4:14">
       <c r="E210" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="211" spans="4:14">
@@ -4528,7 +4654,7 @@
     </row>
     <row r="222" spans="4:14">
       <c r="E222" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F222" s="24"/>
       <c r="G222" s="24"/>
@@ -4640,7 +4766,7 @@
     </row>
     <row r="231" spans="5:14">
       <c r="E231" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="232" spans="5:14">
@@ -4685,13 +4811,13 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4768,7 +4894,7 @@
     </row>
     <row r="260" spans="4:5">
       <c r="D260" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="261" spans="4:5">
@@ -4776,132 +4902,132 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B289" s="7">
         <v>3</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="C290" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D290" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="D291" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E291" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="E291" s="9" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="D292" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E292" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="E292" s="9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="D293" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E293" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="E293" s="9" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="E294" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="E295" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="E296" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="E297" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="E298" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="E299" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="E300" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="E301" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="E302" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="E303" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="D307" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E307" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="E308" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="E309" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C311" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D311" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="D312" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E312" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -4909,27 +5035,27 @@
         <v>1</v>
       </c>
       <c r="E313" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="E314" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="E315" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="E316" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="E317" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -4937,38 +5063,38 @@
         <v>2</v>
       </c>
       <c r="E319" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="E320" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="E321" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="E322" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="E323" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B329" s="7">
         <v>4</v>
       </c>
       <c r="C329" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -5028,12 +5154,12 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5046,7 +5172,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="D7" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5300,7 +5426,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" ht="17">
       <c r="A1" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5311,7 +5437,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5319,7 +5445,7 @@
         <v>107</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5335,46 +5461,46 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>300</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -5382,46 +5508,46 @@
         <v>3</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="B40" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="C43" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="C44" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="C45" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5455,7 +5581,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="17">
       <c r="A1" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5463,31 +5589,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5495,12 +5621,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5508,30 +5634,30 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5539,26 +5665,26 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5592,7 +5718,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5600,20 +5726,20 @@
         <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5621,25 +5747,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="9"/>
       <c r="D9" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5650,48 +5776,48 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="9"/>
       <c r="D12" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5723,30 +5849,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5754,12 +5880,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5767,12 +5893,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5780,73 +5906,73 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="D17" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="D18" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="D19" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="D20" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="3:6">
       <c r="D21" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="D22" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="3:6">
       <c r="D23" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -5854,23 +5980,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="D27" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="D28" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -5878,15 +6004,15 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="D31" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -5894,25 +6020,25 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="D34" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="D35" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="E36" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -5945,33 +6071,33 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5979,32 +6105,32 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="C8" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6012,17 +6138,17 @@
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -6030,22 +6156,195 @@
         <v>3</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="C20" s="38" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="C22" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="39" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="39" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" s="39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="39" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="39" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="D12" s="39" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="39" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="D18" s="39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" s="39" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="D20" s="39" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" s="39" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="D22" s="39" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" s="39" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" s="39" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="D29" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="D30" s="39" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="D31" s="39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="D34" s="39" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="D35" s="39" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" s="39" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" s="39" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="D46" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="D47" s="39" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60" s="39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="D61" s="39" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="2020" windowWidth="25520" windowHeight="15600" tabRatio="627" activeTab="8"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="473">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2200,7 +2200,60 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.flyne.org/article/407</t>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些情况下,需要了解本机哪些端口被占用,以便某些应用使用为被占用的端口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsof -i -P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以加参数过滤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上命令可见端口6003,31732,8020,80,5037是被占用了的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsof -n -P -i tcp -s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在终端输入一下命令:命令是以小写的"L"开头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看端口的使用情况:lsof -i -P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果忘记了终端命令了怎么办?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Mac OSX中一个工具名字叫做"网络使用工具", 该工具在比较新的版本中是被隐藏了的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在spotlight中搜索出来,有个"端口 "的TAB,可以检测端口的使用情况,不过利用可视化工具检测会比较缓慢,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能用命令的情况下,还是用命令,速度快多了.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2495,7 +2548,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2584,6 +2637,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -2903,6 +2962,87 @@
         <a:xfrm>
           <a:off x="3454400" y="3898900"/>
           <a:ext cx="3695700" cy="3035300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1841500" y="5892800"/>
+          <a:ext cx="10998200" cy="4597400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1854200" y="11074400"/>
+          <a:ext cx="10807700" cy="2273300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3236,11 +3376,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D53"/>
+  <dimension ref="B3:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -3456,36 +3594,41 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
+    <row r="46" spans="2:4">
+      <c r="D46" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2">
+    <row r="51" spans="2:4">
+      <c r="B51" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
-      <c r="C50" s="11" t="s">
+    <row r="52" spans="2:4">
+      <c r="C52" s="11" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="D51" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="D52" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="D53" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="D54" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="D55" s="2" t="s">
         <v>403</v>
       </c>
     </row>
@@ -3494,7 +3637,7 @@
   <hyperlinks>
     <hyperlink ref="C5" location="宏的使用!A1" tooltip="宏的使用" display="宏的使用"/>
     <hyperlink ref="C16" location="Git的使用!A1" tooltip="Git" display="Git"/>
-    <hyperlink ref="C50" location="Mac使用技巧!A1" tooltip="常用小技巧" display="使用技巧"/>
+    <hyperlink ref="C52" location="Mac使用技巧!A1" tooltip="常用小技巧" display="使用技巧"/>
     <hyperlink ref="C13" location="Xcode调试常见问题!A1" tooltip="Xcode调试常见异常信息" display="调试常见问题"/>
     <hyperlink ref="C38" location="VI使用技巧!A1" tooltip="文本编辑器VI/VIM的使用技巧" display="vi/vim"/>
     <hyperlink ref="C43" location="终端的使用!A1" tooltip="终端的使用技巧" display="终端"/>
@@ -6058,129 +6201,203 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="41"/>
+    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="2" t="s">
+      <c r="B1" s="40"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="41">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="D4" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="D5" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="C6" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="2">
+    <row r="7" spans="1:4">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="D8" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="D9" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="1:4">
+      <c r="D10" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="1:4">
+      <c r="D11" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="1:4">
+      <c r="D12" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2">
+    <row r="14" spans="1:4">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:4">
+      <c r="D15" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:4">
+      <c r="D16" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="2">
+    <row r="18" spans="2:4">
+      <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="2" t="s">
+    <row r="19" spans="2:4">
+      <c r="D19" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="38" t="s">
+    <row r="20" spans="2:4">
+      <c r="D20" s="38" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="2:4">
+      <c r="D22" s="2" t="s">
         <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="41">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="D65" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="D68" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="D69" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
+    <hyperlink ref="A67" location="Git的使用!A1" tooltip="返回" display="top"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6191,10 +6408,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -6337,14 +6554,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
+    <row r="60" spans="3:3">
       <c r="C60" s="39" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="D61" s="39" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -6193,9 +6193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="2020" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="627" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="473">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2200,7 +2200,60 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.flyne.org/article/407</t>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些情况下,需要了解本机哪些端口被占用,以便某些应用使用为被占用的端口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsof -i -P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以加参数过滤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上命令可见端口6003,31732,8020,80,5037是被占用了的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsof -n -P -i tcp -s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在终端输入一下命令:命令是以小写的"L"开头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看端口的使用情况:lsof -i -P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果忘记了终端命令了怎么办?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Mac OSX中一个工具名字叫做"网络使用工具", 该工具在比较新的版本中是被隐藏了的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在spotlight中搜索出来,有个"端口 "的TAB,可以检测端口的使用情况,不过利用可视化工具检测会比较缓慢,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能用命令的情况下,还是用命令,速度快多了.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2495,7 +2548,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2584,6 +2637,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="79">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -2903,6 +2962,87 @@
         <a:xfrm>
           <a:off x="3454400" y="3898900"/>
           <a:ext cx="3695700" cy="3035300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1841500" y="5892800"/>
+          <a:ext cx="10998200" cy="4597400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1854200" y="11074400"/>
+          <a:ext cx="10807700" cy="2273300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3236,9 +3376,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D53"/>
+  <dimension ref="B3:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -3454,36 +3594,41 @@
         <v>417</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
-      <c r="B48" s="2" t="s">
+    <row r="46" spans="2:4">
+      <c r="D46" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
-      <c r="B49" s="2">
+    <row r="51" spans="2:4">
+      <c r="B51" s="2">
         <v>1</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
-      <c r="C50" s="11" t="s">
+    <row r="52" spans="2:4">
+      <c r="C52" s="11" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4">
-      <c r="D51" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="D52" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="D53" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="D54" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="D55" s="2" t="s">
         <v>403</v>
       </c>
     </row>
@@ -3492,7 +3637,7 @@
   <hyperlinks>
     <hyperlink ref="C5" location="宏的使用!A1" tooltip="宏的使用" display="宏的使用"/>
     <hyperlink ref="C16" location="Git的使用!A1" tooltip="Git" display="Git"/>
-    <hyperlink ref="C50" location="Mac使用技巧!A1" tooltip="常用小技巧" display="使用技巧"/>
+    <hyperlink ref="C52" location="Mac使用技巧!A1" tooltip="常用小技巧" display="使用技巧"/>
     <hyperlink ref="C13" location="Xcode调试常见问题!A1" tooltip="Xcode调试常见异常信息" display="调试常见问题"/>
     <hyperlink ref="C38" location="VI使用技巧!A1" tooltip="文本编辑器VI/VIM的使用技巧" display="vi/vim"/>
     <hyperlink ref="C43" location="终端的使用!A1" tooltip="终端的使用技巧" display="终端"/>
@@ -6056,129 +6201,203 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.83203125" style="41"/>
+    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="2" t="s">
+      <c r="B1" s="40"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="41">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="1:4">
+      <c r="D4" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:4">
+      <c r="D5" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:4">
+      <c r="C6" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" s="2">
+    <row r="7" spans="1:4">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="C8" s="2" t="s">
+    <row r="8" spans="1:4">
+      <c r="D8" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="1:4">
+      <c r="D9" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="1:4">
+      <c r="D10" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="5" t="s">
+    <row r="11" spans="1:4">
+      <c r="D11" s="5" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="C12" s="2" t="s">
+    <row r="12" spans="1:4">
+      <c r="D12" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2">
+    <row r="14" spans="1:4">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="1:4">
+      <c r="D15" s="2" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="2" t="s">
+    <row r="16" spans="1:4">
+      <c r="D16" s="2" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="2">
+    <row r="18" spans="2:4">
+      <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
-      <c r="C19" s="2" t="s">
+    <row r="19" spans="2:4">
+      <c r="D19" s="2" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="C20" s="38" t="s">
+    <row r="20" spans="2:4">
+      <c r="D20" s="38" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="2" t="s">
+    <row r="22" spans="2:4">
+      <c r="D22" s="2" t="s">
         <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="41">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="D65" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="D68" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="D69" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" s="2" t="s">
+        <v>472</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
+    <hyperlink ref="A67" location="Git的使用!A1" tooltip="返回" display="top"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6189,9 +6408,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -6333,14 +6552,9 @@
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="3:4">
+    <row r="60" spans="3:3">
       <c r="C60" s="39" t="s">
         <v>458</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="D61" s="39" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="627" activeTab="8"/>
+    <workbookView xWindow="2880" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="474">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2196,10 +2196,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>参考文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>背景</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2253,6 +2249,14 @@
   </si>
   <si>
     <t>能用命令的情况下,还是用命令,速度快多了.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jquery</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AJAX</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3378,7 +3382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -3596,7 +3600,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -6203,9 +6207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -6329,38 +6331,38 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -6368,25 +6370,25 @@
         <v>419</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="D68" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="D69" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="D70" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -6408,9 +6410,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -6552,9 +6554,14 @@
         <v>457</v>
       </c>
     </row>
-    <row r="60" spans="3:3">
-      <c r="C60" s="39" t="s">
-        <v>458</v>
+    <row r="55" spans="3:3">
+      <c r="C55" s="39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57" s="39" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="260" windowWidth="25600" windowHeight="16060" tabRatio="627"/>
+    <workbookView xWindow="2680" yWindow="100" windowWidth="27880" windowHeight="19360" tabRatio="627" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="VI使用技巧" sheetId="7" r:id="rId7"/>
     <sheet name="终端的使用" sheetId="8" r:id="rId8"/>
     <sheet name="JavaScript" sheetId="9" r:id="rId9"/>
+    <sheet name="HTML" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_.gitignore">Git的使用!$D$290</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="520">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1174,10 +1175,6 @@
   </si>
   <si>
     <t xml:space="preserve">    选中单元格-&gt;工具栏中的"插入"-&gt;"名称"-&gt;"定义"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2 做超链接</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2114,10 +2111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>JavaScript</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>基本数据类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2257,6 +2250,208 @@
   </si>
   <si>
     <t>AJAX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addEventListener(eventString,event,boolean)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;input id="dyBtn" type="button" value="dynamic button event" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var btnObj = document.getElementById("dyBtn");</t>
+  </si>
+  <si>
+    <t>btnObj.addEventListener("click",dyBtnListener,true);</t>
+  </si>
+  <si>
+    <t>&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>function dyBtnListener () {alert("button clicked!");}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把函数单独写出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把函数内嵌在参数中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnObj.addEventListener("click",function(){alert("button clicked!")},true);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>script的代码要写在元素的后面；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法的第二个参数写函数的名字，不要加括号，如果加了括号，则默认不点击也执行了。</t>
+  </si>
+  <si>
+    <t>http://www.runoob.com/jsref/dom-obj-event.html</t>
+  </si>
+  <si>
+    <t>如：鼠标的点击事件onClick,则用"click";双击事件ondblclick,则用"dblclick"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于第一个参数，是事件的名字,不要加上"on"前缀.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该事件是HTML DOM 事件，更多的事件说明,参考以下文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法的第三个参数，表示事件在捕获阶段还是冒泡阶段触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true:在捕获阶段触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于冒泡阶段和捕获阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false:(默认)在冒泡阶段触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件捕获阶段：事件从最上一级标签开始往下查找，直到捕获到事件目标(target)。</t>
+  </si>
+  <si>
+    <t>事件冒泡阶段：事件从事件目标(target)开始，往上冒泡直到页面的最上一级标签。</t>
+  </si>
+  <si>
+    <t>备注:这说明事件是可以传播的，也可以阻止，当然，也不是所有的事件都能冒泡，比如load,unload,blur,focus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于阻止事件的传播，有很多版本，有时间再做整理，以下两张图，比较清晰说明事件的冒泡与捕获原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数内部声明变量的时候，一定要使用var关键字.如果不用的话，你实际上声明了一个全局变量.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript组成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2 完成超链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在使用Excel做文档的时候，新建一个sheet,我们可能会做同一个操作，那就是字体样式大小，内容的模版等等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能不能做个功能，比如一个按钮，点一下，这些相同的设置就完成了.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel的宏，能够想写程序一样，完成某些自定义的功能.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时区域：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭包(Closure)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>onload()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;element onload="script"&gt;</t>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;body onload = "showHello()"&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在body元素加入onload,那么在页面加载完了之后，就会执行showHello()函数.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>某个元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加载完成之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用一段script代码</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某函数的外部读取该函数内部的变量；可以是数据一直保存在内存中，而不会函数执行完就将其局部变量销毁.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2471,7 +2666,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2551,17 +2746,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2647,8 +2847,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="87">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2727,6 +2943,14 @@
     <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2852,13 +3076,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -3047,6 +3271,87 @@
         <a:xfrm>
           <a:off x="1854200" y="11074400"/>
           <a:ext cx="10807700" cy="2273300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="15570200"/>
+          <a:ext cx="3327400" cy="2565400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8280400" y="20764500"/>
+          <a:ext cx="3505200" cy="2540000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3382,7 +3687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -3402,11 +3707,11 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3415,7 +3720,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -3432,7 +3737,7 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3450,157 +3755,157 @@
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="3:4" s="9" customFormat="1">
-      <c r="C17" s="11" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" s="9" customFormat="1">
+    <row r="17" spans="3:4" s="8" customFormat="1">
+      <c r="C17" s="10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" s="8" customFormat="1">
       <c r="C18" s="1"/>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="3:4" s="9" customFormat="1">
+    <row r="19" spans="3:4" s="8" customFormat="1">
       <c r="C19" s="1"/>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="20" spans="3:4" s="9" customFormat="1">
+    <row r="20" spans="3:4" s="8" customFormat="1">
       <c r="C20" s="1"/>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="3:4" s="9" customFormat="1">
+    <row r="21" spans="3:4" s="8" customFormat="1">
       <c r="C21" s="1"/>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="3:4" s="9" customFormat="1">
+    <row r="22" spans="3:4" s="8" customFormat="1">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:4" s="9" customFormat="1">
-      <c r="C23" s="13" t="s">
+    <row r="23" spans="3:4" s="8" customFormat="1">
+      <c r="C23" s="12" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="3:4" s="9" customFormat="1">
-      <c r="C24" s="14"/>
-      <c r="D24" s="9" t="s">
+    <row r="24" spans="3:4" s="8" customFormat="1">
+      <c r="C24" s="13"/>
+      <c r="D24" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" s="8" customFormat="1">
+      <c r="C25" s="13"/>
+      <c r="D25" s="8" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="25" spans="3:4" s="9" customFormat="1">
-      <c r="C25" s="14"/>
-      <c r="D25" s="9" t="s">
+    <row r="26" spans="3:4" s="8" customFormat="1">
+      <c r="C26" s="13"/>
+      <c r="D26" s="8" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="3:4" s="9" customFormat="1">
-      <c r="C26" s="14"/>
-      <c r="D26" s="9" t="s">
+    <row r="27" spans="3:4" s="8" customFormat="1">
+      <c r="C27" s="13"/>
+      <c r="D27" s="8" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="27" spans="3:4" s="9" customFormat="1">
-      <c r="C27" s="14"/>
-      <c r="D27" s="9" t="s">
+    <row r="28" spans="3:4" s="8" customFormat="1">
+      <c r="C28" s="13"/>
+      <c r="D28" s="8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="28" spans="3:4" s="9" customFormat="1">
-      <c r="C28" s="14"/>
-      <c r="D28" s="9" t="s">
+    <row r="29" spans="3:4" s="8" customFormat="1">
+      <c r="C29" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" s="8" customFormat="1">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" s="8" customFormat="1">
+      <c r="C31" s="6"/>
+      <c r="D31" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="29" spans="3:4" s="9" customFormat="1">
-      <c r="C29" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" s="9" customFormat="1">
-      <c r="C30" s="8"/>
-      <c r="D30" s="9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" s="9" customFormat="1">
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
+    <row r="32" spans="3:4" s="8" customFormat="1">
+      <c r="C32" s="6"/>
+      <c r="D32" s="7" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" s="9" customFormat="1">
-      <c r="C32" s="7"/>
-      <c r="D32" s="8" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" s="2">
         <v>3</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="D35" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>304</v>
+      <c r="C38" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="D39" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="2">
         <v>5</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>374</v>
+      <c r="C43" s="10" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -3617,7 +3922,7 @@
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3628,12 +3933,12 @@
     </row>
     <row r="54" spans="2:4">
       <c r="D54" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="D55" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3660,6 +3965,27 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="38"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N329"/>
@@ -3668,1579 +3994,1579 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="7"/>
-    <col min="3" max="3" width="12.1640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="6"/>
+    <col min="3" max="3" width="12.1640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>418</v>
+      <c r="A1" s="44" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" outlineLevel="1">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" outlineLevel="1">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" outlineLevel="1">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" outlineLevel="1">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" outlineLevel="1">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" outlineLevel="1">
       <c r="B8" s="1"/>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:3" outlineLevel="1">
       <c r="B9" s="1"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:3" outlineLevel="1">
       <c r="B10" s="1"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:3" outlineLevel="1">
       <c r="B11" s="1"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:3" outlineLevel="1">
       <c r="B12" s="1"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" outlineLevel="1">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" outlineLevel="1">
-      <c r="B14" s="14"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="11" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" outlineLevel="1">
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:3" outlineLevel="1">
-      <c r="B15" s="14"/>
-      <c r="C15" s="12" t="s">
+    <row r="16" spans="1:3" outlineLevel="1">
+      <c r="B16" s="13"/>
+      <c r="C16" s="11" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="16" spans="1:3" outlineLevel="1">
-      <c r="B16" s="14"/>
-      <c r="C16" s="12" t="s">
+    <row r="17" spans="1:4" outlineLevel="1">
+      <c r="B17" s="13"/>
+      <c r="C17" s="11" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="17" spans="1:4" outlineLevel="1">
-      <c r="B17" s="14"/>
-      <c r="C17" s="12" t="s">
+    <row r="18" spans="1:4" outlineLevel="1">
+      <c r="B18" s="13"/>
+      <c r="C18" s="11" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="18" spans="1:4" outlineLevel="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="12" t="s">
+    <row r="19" spans="1:4" outlineLevel="1">
+      <c r="B19" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" outlineLevel="1">
+      <c r="B20" s="7"/>
+      <c r="C20" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" outlineLevel="1">
+      <c r="C21" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:4" outlineLevel="1">
-      <c r="B19" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" outlineLevel="1">
-      <c r="B20" s="8"/>
-      <c r="C20" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" outlineLevel="1">
-      <c r="C21" s="13" t="s">
+    <row r="22" spans="1:4" outlineLevel="1">
+      <c r="C22" s="12" t="s">
         <v>409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" outlineLevel="1">
-      <c r="C22" s="13" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:4" outlineLevel="1"/>
     <row r="24" spans="1:4" outlineLevel="1">
-      <c r="B24" s="13" t="s">
-        <v>429</v>
+      <c r="B24" s="12" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:4" outlineLevel="1">
-      <c r="B25" s="13"/>
+      <c r="B25" s="12"/>
     </row>
     <row r="26" spans="1:4" outlineLevel="1">
-      <c r="B26" s="13"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:4" outlineLevel="1">
-      <c r="B27" s="13"/>
+      <c r="B27" s="12"/>
     </row>
     <row r="28" spans="1:4" outlineLevel="1">
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:4" outlineLevel="1">
-      <c r="B29" s="9"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="B30" s="15"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5">
+      <c r="D35" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5">
+      <c r="E36" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5">
+      <c r="E37" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5">
+      <c r="E38" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5">
+      <c r="E40" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5">
+      <c r="E42" s="16" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5">
+      <c r="E43" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5">
+      <c r="E44" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="4:5">
+      <c r="E46" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="4:5">
+      <c r="E47" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="D50" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="E51" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="D54" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="D55" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="E56" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="D58" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="E59" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="E60" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="E61" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="E62" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="E63" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="E64" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13">
+      <c r="D66" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13">
+      <c r="E67" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13">
+      <c r="E68" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13">
+      <c r="E69" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13">
+      <c r="E70" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13">
+      <c r="D74" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M74" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="D103" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="D104" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="E105" s="8">
+        <v>1</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="F106" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="E108" s="8">
+        <v>2</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="F109" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="E111" s="8">
+        <v>3</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="F112" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6">
+      <c r="D114" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6">
+      <c r="E115" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6">
+      <c r="E116" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6">
+      <c r="E117" s="8">
+        <v>1</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6">
+      <c r="F118" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6">
+      <c r="E119" s="8">
+        <v>2</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6">
+      <c r="F120" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6">
+      <c r="F121" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6">
+      <c r="F122" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6">
+      <c r="F123" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6">
+      <c r="F124" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6">
+      <c r="E125" s="8">
+        <v>3</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6">
+      <c r="F126" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6">
+      <c r="F127" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6">
+      <c r="F128" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="E129" s="8">
+        <v>4</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="F130" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="F131" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="F132" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="E133" s="8">
+        <v>5</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="F134" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="F135" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="F136" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="F137" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="E138" s="8">
+        <v>6</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="D142" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="D143" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="D144" s="8">
+        <v>1</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5">
+      <c r="E145" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5">
+      <c r="D147" s="8">
+        <v>2</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5">
+      <c r="E148" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5">
+      <c r="E149" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5">
+      <c r="D151" s="8">
+        <v>3</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5">
+      <c r="E152" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5">
+      <c r="E153" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5">
+      <c r="E154" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5">
+      <c r="E155" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5">
+      <c r="E156" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5">
+      <c r="D158" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="B161" s="6">
+        <v>2</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="C162" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="D164" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="D165" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="D166" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="E167" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="E169" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="E170" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="E171" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="C173" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="D175" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="D176" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="E177" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F177" s="20"/>
+      <c r="G177" s="20"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="20"/>
+      <c r="J177" s="20"/>
+      <c r="K177" s="21"/>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="E178" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F178" s="23"/>
+      <c r="G178" s="23"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="23"/>
+      <c r="J178" s="23"/>
+      <c r="K178" s="24"/>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="E179" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F179" s="23"/>
+      <c r="G179" s="23"/>
+      <c r="H179" s="23"/>
+      <c r="I179" s="23"/>
+      <c r="J179" s="23"/>
+      <c r="K179" s="24"/>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="E180" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F180" s="26"/>
+      <c r="G180" s="26"/>
+      <c r="H180" s="26"/>
+      <c r="I180" s="26"/>
+      <c r="J180" s="26"/>
+      <c r="K180" s="27"/>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="E182" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="E183" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F183" s="20"/>
+      <c r="G183" s="20"/>
+      <c r="H183" s="20"/>
+      <c r="I183" s="20"/>
+      <c r="J183" s="20"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="21"/>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="E184" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F184" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="G184" s="23"/>
+      <c r="H184" s="23"/>
+      <c r="I184" s="23"/>
+      <c r="J184" s="23"/>
+      <c r="K184" s="23"/>
+      <c r="L184" s="24"/>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="E185" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F185" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="G185" s="26"/>
+      <c r="H185" s="26"/>
+      <c r="I185" s="26"/>
+      <c r="J185" s="26"/>
+      <c r="K185" s="26"/>
+      <c r="L185" s="27"/>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="D189" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="D190" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="E191" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="D192" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="E193" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="E194" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="E195" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="E196" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="E197" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="E198" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="D202" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="D203" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="D204" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="E205" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="E206" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="4:14">
+      <c r="D209" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="210" spans="4:14">
+      <c r="E210" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="211" spans="4:14">
+      <c r="E211" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F211" s="20"/>
+      <c r="G211" s="20"/>
+      <c r="H211" s="20"/>
+      <c r="I211" s="20"/>
+      <c r="J211" s="20"/>
+      <c r="K211" s="20"/>
+      <c r="L211" s="20"/>
+      <c r="M211" s="20"/>
+      <c r="N211" s="21"/>
+    </row>
+    <row r="212" spans="4:14">
+      <c r="E212" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F212" s="23"/>
+      <c r="G212" s="23"/>
+      <c r="H212" s="23"/>
+      <c r="I212" s="23"/>
+      <c r="J212" s="23"/>
+      <c r="K212" s="23"/>
+      <c r="L212" s="23"/>
+      <c r="M212" s="23"/>
+      <c r="N212" s="24"/>
+    </row>
+    <row r="213" spans="4:14">
+      <c r="E213" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F213" s="23"/>
+      <c r="G213" s="23"/>
+      <c r="H213" s="23"/>
+      <c r="I213" s="23"/>
+      <c r="J213" s="23"/>
+      <c r="K213" s="23"/>
+      <c r="L213" s="23"/>
+      <c r="M213" s="23"/>
+      <c r="N213" s="24"/>
+    </row>
+    <row r="214" spans="4:14">
+      <c r="E214" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F214" s="23"/>
+      <c r="G214" s="23"/>
+      <c r="H214" s="23"/>
+      <c r="I214" s="23"/>
+      <c r="J214" s="23"/>
+      <c r="K214" s="23"/>
+      <c r="L214" s="23"/>
+      <c r="M214" s="23"/>
+      <c r="N214" s="24"/>
+    </row>
+    <row r="215" spans="4:14">
+      <c r="E215" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F215" s="23"/>
+      <c r="G215" s="23"/>
+      <c r="H215" s="23"/>
+      <c r="I215" s="23"/>
+      <c r="J215" s="23"/>
+      <c r="K215" s="23"/>
+      <c r="L215" s="23"/>
+      <c r="M215" s="23"/>
+      <c r="N215" s="24"/>
+    </row>
+    <row r="216" spans="4:14">
+      <c r="E216" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F216" s="23"/>
+      <c r="G216" s="23"/>
+      <c r="H216" s="23"/>
+      <c r="I216" s="23"/>
+      <c r="J216" s="23"/>
+      <c r="K216" s="23"/>
+      <c r="L216" s="23"/>
+      <c r="M216" s="23"/>
+      <c r="N216" s="24"/>
+    </row>
+    <row r="217" spans="4:14">
+      <c r="E217" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F217" s="23"/>
+      <c r="G217" s="23"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
+      <c r="J217" s="23"/>
+      <c r="K217" s="23"/>
+      <c r="L217" s="23"/>
+      <c r="M217" s="23"/>
+      <c r="N217" s="24"/>
+    </row>
+    <row r="218" spans="4:14">
+      <c r="E218" s="22"/>
+      <c r="F218" s="23"/>
+      <c r="G218" s="23"/>
+      <c r="H218" s="23"/>
+      <c r="I218" s="23"/>
+      <c r="J218" s="23"/>
+      <c r="K218" s="23"/>
+      <c r="L218" s="23"/>
+      <c r="M218" s="23"/>
+      <c r="N218" s="24"/>
+    </row>
+    <row r="219" spans="4:14">
+      <c r="E219" s="22"/>
+      <c r="F219" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G219" s="23"/>
+      <c r="H219" s="23"/>
+      <c r="I219" s="23"/>
+      <c r="J219" s="23"/>
+      <c r="K219" s="23"/>
+      <c r="L219" s="23"/>
+      <c r="M219" s="23"/>
+      <c r="N219" s="24"/>
+    </row>
+    <row r="220" spans="4:14">
+      <c r="E220" s="22"/>
+      <c r="F220" s="23"/>
+      <c r="G220" s="23"/>
+      <c r="H220" s="23"/>
+      <c r="I220" s="23"/>
+      <c r="J220" s="23"/>
+      <c r="K220" s="23"/>
+      <c r="L220" s="23"/>
+      <c r="M220" s="23"/>
+      <c r="N220" s="24"/>
+    </row>
+    <row r="221" spans="4:14">
+      <c r="E221" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F221" s="23"/>
+      <c r="G221" s="23"/>
+      <c r="H221" s="23"/>
+      <c r="I221" s="23"/>
+      <c r="J221" s="23"/>
+      <c r="K221" s="23"/>
+      <c r="L221" s="23"/>
+      <c r="M221" s="23"/>
+      <c r="N221" s="24"/>
+    </row>
+    <row r="222" spans="4:14">
+      <c r="E222" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="F222" s="23"/>
+      <c r="G222" s="23"/>
+      <c r="H222" s="23"/>
+      <c r="I222" s="23"/>
+      <c r="J222" s="23"/>
+      <c r="K222" s="23"/>
+      <c r="L222" s="23"/>
+      <c r="M222" s="23"/>
+      <c r="N222" s="24"/>
+    </row>
+    <row r="223" spans="4:14">
+      <c r="E223" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F223" s="30"/>
+      <c r="G223" s="30"/>
+      <c r="H223" s="30"/>
+      <c r="I223" s="30"/>
+      <c r="J223" s="30"/>
+      <c r="K223" s="30"/>
+      <c r="L223" s="30"/>
+      <c r="M223" s="23"/>
+      <c r="N223" s="24"/>
+    </row>
+    <row r="224" spans="4:14">
+      <c r="E224" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F224" s="30"/>
+      <c r="G224" s="30"/>
+      <c r="H224" s="30"/>
+      <c r="I224" s="30"/>
+      <c r="J224" s="30"/>
+      <c r="K224" s="30"/>
+      <c r="L224" s="30"/>
+      <c r="M224" s="23"/>
+      <c r="N224" s="24"/>
+    </row>
+    <row r="225" spans="5:14">
+      <c r="E225" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F225" s="30"/>
+      <c r="G225" s="30"/>
+      <c r="H225" s="30"/>
+      <c r="I225" s="30"/>
+      <c r="J225" s="30"/>
+      <c r="K225" s="30"/>
+      <c r="L225" s="30"/>
+      <c r="M225" s="23"/>
+      <c r="N225" s="24"/>
+    </row>
+    <row r="226" spans="5:14">
+      <c r="E226" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F226" s="30"/>
+      <c r="G226" s="30"/>
+      <c r="H226" s="30"/>
+      <c r="I226" s="30"/>
+      <c r="J226" s="30"/>
+      <c r="K226" s="30"/>
+      <c r="L226" s="30"/>
+      <c r="M226" s="23"/>
+      <c r="N226" s="24"/>
+    </row>
+    <row r="227" spans="5:14">
+      <c r="E227" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F227" s="30"/>
+      <c r="G227" s="30"/>
+      <c r="H227" s="30"/>
+      <c r="I227" s="30"/>
+      <c r="J227" s="30"/>
+      <c r="K227" s="30"/>
+      <c r="L227" s="30"/>
+      <c r="M227" s="23"/>
+      <c r="N227" s="24"/>
+    </row>
+    <row r="228" spans="5:14">
+      <c r="E228" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F228" s="30"/>
+      <c r="G228" s="30"/>
+      <c r="H228" s="30"/>
+      <c r="I228" s="30"/>
+      <c r="J228" s="30"/>
+      <c r="K228" s="30"/>
+      <c r="L228" s="30"/>
+      <c r="M228" s="23"/>
+      <c r="N228" s="24"/>
+    </row>
+    <row r="229" spans="5:14">
+      <c r="E229" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F229" s="32"/>
+      <c r="G229" s="32"/>
+      <c r="H229" s="32"/>
+      <c r="I229" s="32"/>
+      <c r="J229" s="32"/>
+      <c r="K229" s="32"/>
+      <c r="L229" s="32"/>
+      <c r="M229" s="26"/>
+      <c r="N229" s="27"/>
+    </row>
+    <row r="231" spans="5:14">
+      <c r="E231" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="232" spans="5:14">
+      <c r="E232" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="233" spans="5:14">
+      <c r="E233" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="235" spans="5:14">
+      <c r="E235" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="236" spans="5:14">
+      <c r="E236" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="237" spans="5:14">
+      <c r="E237" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="238" spans="5:14">
+      <c r="E238" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="240" spans="5:14">
+      <c r="E240" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="E241" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="D245" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E245" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="E246" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="D247" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="D248" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="E249" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="D251" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E251" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="E252" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="E253" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="E254" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="E255" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="E256" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="257" spans="4:5">
+      <c r="E257" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260" spans="4:5">
+      <c r="D260" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="261" spans="4:5">
+      <c r="D261" s="33"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="B289" s="6">
+        <v>3</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="C290" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D290" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B31" s="7">
+    </row>
+    <row r="291" spans="1:5">
+      <c r="D291" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E291" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="D292" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E292" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="D293" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E293" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="E294" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="E295" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="E296" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="E297" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="E298" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="E299" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="E300" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="E301" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="E302" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="E303" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="D307" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E307" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="E308" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="E309" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D311" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="D312" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E312" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="D313" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="C32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="E36" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="E37" s="17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="E38" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="E40" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="E42" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="E43" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="E44" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="E46" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="E47" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="D50" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="E51" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="D54" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="D55" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="E56" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="D58" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="E59" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="E60" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="E61" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="E62" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="E63" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="E64" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="4:13">
-      <c r="D66" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="67" spans="4:13">
-      <c r="E67" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="68" spans="4:13">
-      <c r="E68" s="17" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="69" spans="4:13">
-      <c r="E69" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="70" spans="4:13">
-      <c r="E70" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="4:13">
-      <c r="D74" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="M74" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="D103" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="D104" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="E105" s="9">
-        <v>1</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="F106" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="E108" s="9">
+      <c r="E313" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="E314" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="E315" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="E316" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="E317" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="D319" s="8">
         <v>2</v>
       </c>
-      <c r="F108" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="F109" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="E111" s="9">
-        <v>3</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="F112" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6">
-      <c r="D114" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6">
-      <c r="E115" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6">
-      <c r="E116" s="9" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6">
-      <c r="E117" s="9">
-        <v>1</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6">
-      <c r="F118" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6">
-      <c r="E119" s="9">
-        <v>2</v>
-      </c>
-      <c r="F119" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6">
-      <c r="F120" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6">
-      <c r="F121" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6">
-      <c r="F122" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6">
-      <c r="F123" s="9" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6">
-      <c r="F124" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="125" spans="4:6">
-      <c r="E125" s="9">
-        <v>3</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6">
-      <c r="F126" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6">
-      <c r="F127" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6">
-      <c r="F128" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="E129" s="9">
+      <c r="E319" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="E320" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="E321" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="E322" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="E323" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="42" t="s">
+        <v>418</v>
+      </c>
+      <c r="B329" s="6">
         <v>4</v>
       </c>
-      <c r="F129" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="F130" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="F131" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="F132" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="E133" s="9">
-        <v>5</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="F134" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="F135" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="F136" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="F137" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="E138" s="9">
-        <v>6</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="D142" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="D143" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="D144" s="9">
-        <v>1</v>
-      </c>
-      <c r="E144" s="17" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="145" spans="4:5">
-      <c r="E145" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="147" spans="4:5">
-      <c r="D147" s="9">
-        <v>2</v>
-      </c>
-      <c r="E147" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="148" spans="4:5">
-      <c r="E148" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="149" spans="4:5">
-      <c r="E149" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="151" spans="4:5">
-      <c r="D151" s="9">
-        <v>3</v>
-      </c>
-      <c r="E151" s="17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="152" spans="4:5">
-      <c r="E152" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="153" spans="4:5">
-      <c r="E153" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="154" spans="4:5">
-      <c r="E154" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="155" spans="4:5">
-      <c r="E155" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="156" spans="4:5">
-      <c r="E156" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="158" spans="4:5">
-      <c r="D158" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B161" s="7">
-        <v>2</v>
-      </c>
-      <c r="C161" s="19" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="C162" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="D164" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="D165" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="D166" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="E167" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="E169" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="E170" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="E171" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="C173" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="D175" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E175" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="D176" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E176" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
-      <c r="E177" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F177" s="21"/>
-      <c r="G177" s="21"/>
-      <c r="H177" s="21"/>
-      <c r="I177" s="21"/>
-      <c r="J177" s="21"/>
-      <c r="K177" s="22"/>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="E178" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F178" s="24"/>
-      <c r="G178" s="24"/>
-      <c r="H178" s="24"/>
-      <c r="I178" s="24"/>
-      <c r="J178" s="24"/>
-      <c r="K178" s="25"/>
-    </row>
-    <row r="179" spans="1:12">
-      <c r="E179" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F179" s="24"/>
-      <c r="G179" s="24"/>
-      <c r="H179" s="24"/>
-      <c r="I179" s="24"/>
-      <c r="J179" s="24"/>
-      <c r="K179" s="25"/>
-    </row>
-    <row r="180" spans="1:12">
-      <c r="E180" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F180" s="27"/>
-      <c r="G180" s="27"/>
-      <c r="H180" s="27"/>
-      <c r="I180" s="27"/>
-      <c r="J180" s="27"/>
-      <c r="K180" s="28"/>
-    </row>
-    <row r="182" spans="1:12">
-      <c r="E182" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
-      <c r="E183" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="F183" s="21"/>
-      <c r="G183" s="21"/>
-      <c r="H183" s="21"/>
-      <c r="I183" s="21"/>
-      <c r="J183" s="21"/>
-      <c r="K183" s="21"/>
-      <c r="L183" s="22"/>
-    </row>
-    <row r="184" spans="1:12">
-      <c r="E184" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F184" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="G184" s="24"/>
-      <c r="H184" s="24"/>
-      <c r="I184" s="24"/>
-      <c r="J184" s="24"/>
-      <c r="K184" s="24"/>
-      <c r="L184" s="25"/>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="E185" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F185" s="27" t="s">
-        <v>369</v>
-      </c>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="27"/>
-      <c r="L185" s="28"/>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="A187" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C187" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
-      <c r="D189" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E189" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
-      <c r="D190" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
-      <c r="E191" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
-      <c r="D192" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E192" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="E193" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="E194" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="E195" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="E196" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="E197" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="E198" s="9" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="D202" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E202" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="D203" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E203" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="D204" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E204" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="E205" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="E206" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="209" spans="4:14">
-      <c r="D209" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="210" spans="4:14">
-      <c r="E210" s="9" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="211" spans="4:14">
-      <c r="E211" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F211" s="21"/>
-      <c r="G211" s="21"/>
-      <c r="H211" s="21"/>
-      <c r="I211" s="21"/>
-      <c r="J211" s="21"/>
-      <c r="K211" s="21"/>
-      <c r="L211" s="21"/>
-      <c r="M211" s="21"/>
-      <c r="N211" s="22"/>
-    </row>
-    <row r="212" spans="4:14">
-      <c r="E212" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F212" s="24"/>
-      <c r="G212" s="24"/>
-      <c r="H212" s="24"/>
-      <c r="I212" s="24"/>
-      <c r="J212" s="24"/>
-      <c r="K212" s="24"/>
-      <c r="L212" s="24"/>
-      <c r="M212" s="24"/>
-      <c r="N212" s="25"/>
-    </row>
-    <row r="213" spans="4:14">
-      <c r="E213" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F213" s="24"/>
-      <c r="G213" s="24"/>
-      <c r="H213" s="24"/>
-      <c r="I213" s="24"/>
-      <c r="J213" s="24"/>
-      <c r="K213" s="24"/>
-      <c r="L213" s="24"/>
-      <c r="M213" s="24"/>
-      <c r="N213" s="25"/>
-    </row>
-    <row r="214" spans="4:14">
-      <c r="E214" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F214" s="24"/>
-      <c r="G214" s="24"/>
-      <c r="H214" s="24"/>
-      <c r="I214" s="24"/>
-      <c r="J214" s="24"/>
-      <c r="K214" s="24"/>
-      <c r="L214" s="24"/>
-      <c r="M214" s="24"/>
-      <c r="N214" s="25"/>
-    </row>
-    <row r="215" spans="4:14">
-      <c r="E215" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F215" s="24"/>
-      <c r="G215" s="24"/>
-      <c r="H215" s="24"/>
-      <c r="I215" s="24"/>
-      <c r="J215" s="24"/>
-      <c r="K215" s="24"/>
-      <c r="L215" s="24"/>
-      <c r="M215" s="24"/>
-      <c r="N215" s="25"/>
-    </row>
-    <row r="216" spans="4:14">
-      <c r="E216" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="F216" s="24"/>
-      <c r="G216" s="24"/>
-      <c r="H216" s="24"/>
-      <c r="I216" s="24"/>
-      <c r="J216" s="24"/>
-      <c r="K216" s="24"/>
-      <c r="L216" s="24"/>
-      <c r="M216" s="24"/>
-      <c r="N216" s="25"/>
-    </row>
-    <row r="217" spans="4:14">
-      <c r="E217" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F217" s="24"/>
-      <c r="G217" s="24"/>
-      <c r="H217" s="24"/>
-      <c r="I217" s="24"/>
-      <c r="J217" s="24"/>
-      <c r="K217" s="24"/>
-      <c r="L217" s="24"/>
-      <c r="M217" s="24"/>
-      <c r="N217" s="25"/>
-    </row>
-    <row r="218" spans="4:14">
-      <c r="E218" s="23"/>
-      <c r="F218" s="24"/>
-      <c r="G218" s="24"/>
-      <c r="H218" s="24"/>
-      <c r="I218" s="24"/>
-      <c r="J218" s="24"/>
-      <c r="K218" s="24"/>
-      <c r="L218" s="24"/>
-      <c r="M218" s="24"/>
-      <c r="N218" s="25"/>
-    </row>
-    <row r="219" spans="4:14">
-      <c r="E219" s="23"/>
-      <c r="F219" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G219" s="24"/>
-      <c r="H219" s="24"/>
-      <c r="I219" s="24"/>
-      <c r="J219" s="24"/>
-      <c r="K219" s="24"/>
-      <c r="L219" s="24"/>
-      <c r="M219" s="24"/>
-      <c r="N219" s="25"/>
-    </row>
-    <row r="220" spans="4:14">
-      <c r="E220" s="23"/>
-      <c r="F220" s="24"/>
-      <c r="G220" s="24"/>
-      <c r="H220" s="24"/>
-      <c r="I220" s="24"/>
-      <c r="J220" s="24"/>
-      <c r="K220" s="24"/>
-      <c r="L220" s="24"/>
-      <c r="M220" s="24"/>
-      <c r="N220" s="25"/>
-    </row>
-    <row r="221" spans="4:14">
-      <c r="E221" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F221" s="24"/>
-      <c r="G221" s="24"/>
-      <c r="H221" s="24"/>
-      <c r="I221" s="24"/>
-      <c r="J221" s="24"/>
-      <c r="K221" s="24"/>
-      <c r="L221" s="24"/>
-      <c r="M221" s="24"/>
-      <c r="N221" s="25"/>
-    </row>
-    <row r="222" spans="4:14">
-      <c r="E222" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="F222" s="24"/>
-      <c r="G222" s="24"/>
-      <c r="H222" s="24"/>
-      <c r="I222" s="24"/>
-      <c r="J222" s="24"/>
-      <c r="K222" s="24"/>
-      <c r="L222" s="24"/>
-      <c r="M222" s="24"/>
-      <c r="N222" s="25"/>
-    </row>
-    <row r="223" spans="4:14">
-      <c r="E223" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F223" s="31"/>
-      <c r="G223" s="31"/>
-      <c r="H223" s="31"/>
-      <c r="I223" s="31"/>
-      <c r="J223" s="31"/>
-      <c r="K223" s="31"/>
-      <c r="L223" s="31"/>
-      <c r="M223" s="24"/>
-      <c r="N223" s="25"/>
-    </row>
-    <row r="224" spans="4:14">
-      <c r="E224" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F224" s="31"/>
-      <c r="G224" s="31"/>
-      <c r="H224" s="31"/>
-      <c r="I224" s="31"/>
-      <c r="J224" s="31"/>
-      <c r="K224" s="31"/>
-      <c r="L224" s="31"/>
-      <c r="M224" s="24"/>
-      <c r="N224" s="25"/>
-    </row>
-    <row r="225" spans="5:14">
-      <c r="E225" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F225" s="31"/>
-      <c r="G225" s="31"/>
-      <c r="H225" s="31"/>
-      <c r="I225" s="31"/>
-      <c r="J225" s="31"/>
-      <c r="K225" s="31"/>
-      <c r="L225" s="31"/>
-      <c r="M225" s="24"/>
-      <c r="N225" s="25"/>
-    </row>
-    <row r="226" spans="5:14">
-      <c r="E226" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F226" s="31"/>
-      <c r="G226" s="31"/>
-      <c r="H226" s="31"/>
-      <c r="I226" s="31"/>
-      <c r="J226" s="31"/>
-      <c r="K226" s="31"/>
-      <c r="L226" s="31"/>
-      <c r="M226" s="24"/>
-      <c r="N226" s="25"/>
-    </row>
-    <row r="227" spans="5:14">
-      <c r="E227" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F227" s="31"/>
-      <c r="G227" s="31"/>
-      <c r="H227" s="31"/>
-      <c r="I227" s="31"/>
-      <c r="J227" s="31"/>
-      <c r="K227" s="31"/>
-      <c r="L227" s="31"/>
-      <c r="M227" s="24"/>
-      <c r="N227" s="25"/>
-    </row>
-    <row r="228" spans="5:14">
-      <c r="E228" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="F228" s="31"/>
-      <c r="G228" s="31"/>
-      <c r="H228" s="31"/>
-      <c r="I228" s="31"/>
-      <c r="J228" s="31"/>
-      <c r="K228" s="31"/>
-      <c r="L228" s="31"/>
-      <c r="M228" s="24"/>
-      <c r="N228" s="25"/>
-    </row>
-    <row r="229" spans="5:14">
-      <c r="E229" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F229" s="33"/>
-      <c r="G229" s="33"/>
-      <c r="H229" s="33"/>
-      <c r="I229" s="33"/>
-      <c r="J229" s="33"/>
-      <c r="K229" s="33"/>
-      <c r="L229" s="33"/>
-      <c r="M229" s="27"/>
-      <c r="N229" s="28"/>
-    </row>
-    <row r="231" spans="5:14">
-      <c r="E231" s="9" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="232" spans="5:14">
-      <c r="E232" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="233" spans="5:14">
-      <c r="E233" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="235" spans="5:14">
-      <c r="E235" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="236" spans="5:14">
-      <c r="E236" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="237" spans="5:14">
-      <c r="E237" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="238" spans="5:14">
-      <c r="E238" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="240" spans="5:14">
-      <c r="E240" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="E241" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C243" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D243" s="9" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="D245" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E245" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="E246" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="D247" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E247" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="D248" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E248" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="E249" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="D251" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E251" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="E252" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="E253" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="E254" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="E255" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="E256" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="257" spans="4:5">
-      <c r="E257" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="260" spans="4:5">
-      <c r="D260" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="261" spans="4:5">
-      <c r="D261" s="34"/>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B289" s="7">
-        <v>3</v>
-      </c>
-      <c r="C289" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="C290" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D290" s="9" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="D291" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E291" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="D292" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E292" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="D293" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E293" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="E294" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="E295" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
-      <c r="E296" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="E297" s="9" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="E298" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="E299" s="9" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="E300" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="E301" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="E302" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="E303" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
-      <c r="D307" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E307" s="9" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="E308" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="E309" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="C311" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D311" s="9" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="D312" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E312" s="9" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="D313" s="9">
-        <v>1</v>
-      </c>
-      <c r="E313" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="E314" s="9" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="E315" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="E316" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="E317" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="D319" s="9">
-        <v>2</v>
-      </c>
-      <c r="E319" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="E320" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="E321" s="9" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="E322" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="E323" s="9" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="B329" s="7">
-        <v>4</v>
-      </c>
-      <c r="C329" s="8" t="s">
+      <c r="C329" s="7" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5295,18 +5621,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="44" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5319,7 +5645,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="D7" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5561,140 +5887,141 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="45" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="17">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="17">
+      <c r="A1" s="44" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:4">
+      <c r="B3" s="45">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:4">
+      <c r="C4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:4">
+      <c r="C5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:4">
+      <c r="B8" s="45">
         <v>2</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D9" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="D14" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" s="45">
+        <v>3</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="C10" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="C11" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="C13" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="C14" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="3">
-        <v>3</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="C40" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C40" s="3" t="s">
+    </row>
+    <row r="41" spans="2:4">
+      <c r="D41" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="C41" s="3" t="s">
+    <row r="42" spans="2:4">
+      <c r="C42" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C42" s="3" t="s">
+    </row>
+    <row r="43" spans="2:4">
+      <c r="D43" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="C43" s="3" t="s">
+    <row r="44" spans="2:4">
+      <c r="D44" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="C44" s="3" t="s">
+    <row r="45" spans="2:4">
+      <c r="D45" s="3" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="C45" s="3" t="s">
-        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -5727,7 +6054,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="17">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5739,7 +6066,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5747,7 +6074,7 @@
         <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5755,12 +6082,12 @@
         <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5768,12 +6095,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5781,22 +6108,22 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5804,7 +6131,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5823,7 +6150,7 @@
         <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5852,19 +6179,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="42" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5890,7 +6217,7 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -5898,28 +6225,28 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="9"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="C9" s="9"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5927,7 +6254,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="C12" s="9"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
         <v>238</v>
       </c>
@@ -5939,7 +6266,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5949,22 +6276,43 @@
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
       <c r="D33" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="D34" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="2" t="s">
-        <v>346</v>
+    <row r="36" spans="2:4">
+      <c r="B36" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="C37" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -5991,35 +6339,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6027,12 +6376,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6040,12 +6389,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6053,73 +6402,73 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="D17" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
-      <c r="D17" s="37" t="s">
+    <row r="18" spans="3:6">
+      <c r="D18" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
-      <c r="D18" s="37" t="s">
+    <row r="19" spans="3:6">
+      <c r="D19" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
-      <c r="D19" s="37" t="s">
+    <row r="20" spans="3:6">
+      <c r="D20" s="37" t="s">
         <v>321</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="5" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="D20" s="38" t="s">
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="D21" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="D22" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="D21" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="5" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="D22" s="38" t="s">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="D23" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="D23" s="37" t="s">
+    </row>
+    <row r="24" spans="3:6">
+      <c r="D24" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="D24" s="37" t="s">
-        <v>325</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -6127,23 +6476,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="D27" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="D28" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -6151,15 +6500,15 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="D31" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -6167,25 +6516,25 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="D34" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="D35" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="E36" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -6211,45 +6560,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="10.83203125" style="41"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="40"/>
     <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="B3" s="41">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="D4" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6257,32 +6606,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6290,17 +6639,17 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -6308,94 +6657,94 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="D20" s="38" t="s">
-        <v>385</v>
+      <c r="D20" s="37" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="D22" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="41">
+      <c r="B25" s="40">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="6" t="s">
-        <v>419</v>
+      <c r="A67" s="41" t="s">
+        <v>418</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="D68" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="D69" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="D70" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
-    <hyperlink ref="A67" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A67" location="终端的使用!A1" tooltip="top" display="top"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6410,167 +6759,397 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="39"/>
+    <col min="1" max="1" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="1:18">
+      <c r="B3" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="P3" s="38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="C4" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q4" s="38" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="C5" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="C6" s="38" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="Q7" s="38" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="R8" s="38" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="R9" s="38" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="C10" s="38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="D11" s="38" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="E12" s="46" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="C4" s="39" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="39" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="39" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="39" t="s">
+      <c r="Q12" s="38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="D13" s="38" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="Q14" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="E16" s="38" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="E18" s="38" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="E19" s="38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="E20" s="38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="E21" s="38" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="39" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="D12" s="39" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="39" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="39" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="D18" s="39" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="D19" s="39" t="s">
+    <row r="22" spans="3:5">
+      <c r="E22" s="38" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="D24" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="38" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
-      <c r="D20" s="39" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="D21" s="39" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="D22" s="39" t="s">
+    <row r="28" spans="3:5">
+      <c r="C28" s="38">
+        <v>1</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="E29" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="E30" s="38" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
-      <c r="C27" s="39" t="s">
+    <row r="31" spans="3:5">
+      <c r="E31" s="38" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
-      <c r="C28" s="39" t="s">
+    <row r="33" spans="1:6">
+      <c r="C33" s="38">
+        <v>2</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="E34" s="38" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="E35" s="38" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
-      <c r="D29" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
-      <c r="D30" s="39" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
-      <c r="D31" s="39" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="39" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
-      <c r="D34" s="39" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="D35" s="39" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" s="39" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" s="39" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="D46" s="39" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="D47" s="39" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="55" spans="3:3">
-      <c r="C55" s="39" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="C38" s="38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="46" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="3:3">
-      <c r="C57" s="39" t="s">
+    <row r="39" spans="1:6">
+      <c r="D39" s="38" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="D40" s="38">
+        <v>1</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="E41" s="38" t="s">
         <v>473</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="E42" s="38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="F43" s="38" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="F44" s="38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="F45" s="38" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="E46" s="38" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="D48" s="38">
+        <v>2</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="E49" s="38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6">
+      <c r="E50" s="38" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6">
+      <c r="F51" s="38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6">
+      <c r="F52" s="38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6">
+      <c r="E53" s="38" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6">
+      <c r="D54" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6">
+      <c r="E55" s="38" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6">
+      <c r="F56" s="38" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6">
+      <c r="F58" s="38" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6">
+      <c r="F59" s="38" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6">
+      <c r="E61" s="38" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6">
+      <c r="E62" s="38" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6">
+      <c r="F63" s="38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6">
+      <c r="F64" s="38" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="38" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="38" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="38" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="38" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="38" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="C86" s="38">
+        <v>2</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="D87" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="D88" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="D89" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="E90" s="38" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="C93" s="38" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="D94" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
+    <hyperlink ref="A86" location="JavaScript!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A38" location="JavaScript!A1" tooltip="返回" display="top"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="100" windowWidth="27880" windowHeight="19360" tabRatio="627" activeTab="9"/>
+    <workbookView xWindow="8660" yWindow="0" windowWidth="27880" windowHeight="19360" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="529">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2400,19 +2400,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>语法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;element onload="script"&gt;</t>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>例如</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;body onload = "showHello()"&gt;</t>
@@ -2452,6 +2440,111 @@
   </si>
   <si>
     <t>在某函数的外部读取该函数内部的变量；可以是数据一直保存在内存中，而不会函数执行完就将其局部变量销毁.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>div布局</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认一个div换一行，如果想横向排列两个div</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div id="second" style="width: 120px; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>float: left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">;border-style:solid;border-width: 1px; border-color: red; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>margin-left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 50;"&gt;Clicked Second&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div id="first" style="width: 100px;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> float: left</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;border-style:solid;border-width: 1px; border-color: red;"&gt;Clicked First&lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>window.onload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>window.onload = function(){</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>document.getElementById("div1").addEventListener("click",func,false);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript对象</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2666,7 +2759,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2703,6 +2796,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2864,7 +2962,7 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="92">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2951,6 +3049,11 @@
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3687,7 +3790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -3967,16 +4070,54 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="38"/>
+    <col min="1" max="1" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="38"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="44" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="38" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" s="38" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="38">
+        <v>1</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="D10" s="38" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="38" t="s">
+        <v>520</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回封面目录"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -6759,7 +6900,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R94"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7087,57 +7228,89 @@
         <v>498</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" s="41" t="s">
         <v>480</v>
       </c>
       <c r="C86" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" s="38" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="D87" s="38" t="s">
+    <row r="87" spans="1:6">
+      <c r="D87" s="38">
+        <v>1</v>
+      </c>
+      <c r="E87" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="E87" s="38" t="s">
+    </row>
+    <row r="88" spans="1:6">
+      <c r="E88" s="38" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="E89" s="38" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="F90" s="38" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="D88" s="38" t="s">
+    <row r="91" spans="1:6">
+      <c r="F91" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="E88" s="38" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="D89" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="E89" s="38" t="s">
+    </row>
+    <row r="93" spans="1:6">
+      <c r="D93" s="38">
+        <v>2</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="E94" s="38" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="E95" s="38" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="F96" s="38" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5">
+      <c r="E97" s="38" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5">
+      <c r="C101" s="38" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5">
+      <c r="C108" s="38" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5">
+      <c r="D109" s="38" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="E90" s="38" t="s">
+      <c r="E109" s="38" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="C93" s="38" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="D94" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="E94" s="38" t="s">
-        <v>519</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8660" yWindow="0" windowWidth="27880" windowHeight="19360" tabRatio="627"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,21 @@
     <sheet name="HTML" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_.gitignore">Git的使用!$D$290</definedName>
+    <definedName name="_.gitignore">Git的使用!$D$306</definedName>
     <definedName name="git_add">Git的使用!$D$32</definedName>
-    <definedName name="git_clone">Git的使用!$D$162</definedName>
+    <definedName name="git_clone">Git的使用!$D$178</definedName>
     <definedName name="git_commit">Git的使用!$D$53</definedName>
-    <definedName name="git_config">Git的使用!$D$311</definedName>
+    <definedName name="git_config">Git的使用!$D$327</definedName>
     <definedName name="git_diff">Git的使用!$D$102</definedName>
-    <definedName name="git_fetch">Git的使用!$D$187</definedName>
-    <definedName name="git_pull">Git的使用!$D$243</definedName>
-    <definedName name="git_push">Git的使用!$D$200</definedName>
-    <definedName name="git_remote">Git的使用!$D$173</definedName>
-    <definedName name="git_rm">Git的使用!$D$141</definedName>
-    <definedName name="内容.Git_分支管理">Git的使用!$C$329</definedName>
+    <definedName name="git_fetch">Git的使用!$D$203</definedName>
+    <definedName name="git_pull">Git的使用!$D$259</definedName>
+    <definedName name="git_push">Git的使用!$D$216</definedName>
+    <definedName name="git_remote">Git的使用!$D$189</definedName>
+    <definedName name="git_rm">Git的使用!$D$157</definedName>
+    <definedName name="内容.Git_分支管理">Git的使用!$C$345</definedName>
     <definedName name="内容.Git_管理本地仓库">Git的使用!$C$31</definedName>
-    <definedName name="内容.Git_配置">Git的使用!$C$289</definedName>
-    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$161</definedName>
+    <definedName name="内容.Git_配置">Git的使用!$C$305</definedName>
+    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$177</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="550">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -686,18 +686,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>假如昨天下班前公司的电脑,GitHub主机上,个人电脑3者的代码是同步的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>到了今天上班的时候，在公司的电脑前，进入workspace,在终端输入一下命令</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有显示任何差别,因为公司的电脑上worksapce和stage没有任何内容的改变,两者还是昨天下班前的状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>$git diff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -714,10 +702,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>然后昨天下班后，利用个人电脑修改了temp.txt，追加了一行信息"今晚夜色不错",并且push到了GitHun主机。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>有差分,temp.txt显示增加了一行"今晚夜色不错".</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -771,10 +755,6 @@
   </si>
   <si>
     <t>所以diff就不会有差分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上5步，实现的是本地的同步,当然如果想要同步到GitHub,则可以git push origin master:master</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2545,6 +2525,110 @@
   </si>
   <si>
     <t>JavaScript对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>昨天下班后，利用个人电脑修改了temp.txt，追加了一行信息"今晚夜色不错",并且push到了GitHun主机。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>假如昨天下班前公司电脑,GitHub主机上,个人电脑3者的代码是同步的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到了今天上班的时候，在公司电脑前，进入workspace,在终端输入以下命令</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有显示任何差别,因为公司电脑上worksapce和stage没有任何内容的改变,两者还是昨天下班前的状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取远程代码的方式,分别为pull,和fetch然后merge,一下讨论这两种情况的diff,以加深理解</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$git fetch origin master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有差分,因为fetch,是从远程主机更新代码到local repo,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>而workspace在没有merge这一步操作的时候,是没有任何变化的,暂存区也一样没有变化.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取了更新之后,我得先确认到底更新了什么,以便确认会不会对我的工作目录的文件有影响,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$git diff origin/master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令的结果显示是有差分的,以local repo为基准,我的workspace中的temp.txt显示少了一句话"今晚夜色不错".</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显然,这个结果很合理.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$ git merge origin/master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在确认差分合理的情况下,我们应该更新到工作目录,以便以这个最新版本为基础继续向前开发.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上4步，实现的是本地的同步,当然如果想要同步到GitHub,则可以git push origin master:master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上的两种获取远程主机更新的方式,推荐的是第2种方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先fetch 然后merge,而取代pull的方式(pull的方式,其实就是fetch+merge)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我们在协同开发中,得清楚更新了哪些代码,也许会存在某些有关联的文件,因为更新而导致工作目录受到影响.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2853,7 +2937,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2961,6 +3045,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -3067,13 +3160,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>287</xdr:row>
+      <xdr:row>303</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3810,7 +3903,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -3823,7 +3916,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -3864,7 +3957,7 @@
     </row>
     <row r="17" spans="3:4" s="8" customFormat="1">
       <c r="C17" s="10" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="3:4" s="8" customFormat="1">
@@ -3876,7 +3969,7 @@
     <row r="19" spans="3:4" s="8" customFormat="1">
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="3:4" s="8" customFormat="1">
@@ -3888,7 +3981,7 @@
     <row r="21" spans="3:4" s="8" customFormat="1">
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="3:4" s="8" customFormat="1">
@@ -3896,60 +3989,60 @@
     </row>
     <row r="23" spans="3:4" s="8" customFormat="1">
       <c r="C23" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="3:4" s="8" customFormat="1">
       <c r="C24" s="13"/>
       <c r="D24" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25" spans="3:4" s="8" customFormat="1">
       <c r="C25" s="13"/>
       <c r="D25" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="3:4" s="8" customFormat="1">
       <c r="C26" s="13"/>
       <c r="D26" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="3:4" s="8" customFormat="1">
       <c r="C27" s="13"/>
       <c r="D27" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="3:4" s="8" customFormat="1">
       <c r="C28" s="13"/>
       <c r="D28" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="3:4" s="8" customFormat="1">
       <c r="C29" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="3:4" s="8" customFormat="1">
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="3:4" s="8" customFormat="1">
       <c r="C31" s="6"/>
       <c r="D31" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="3:4" s="8" customFormat="1">
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -3962,7 +4055,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="D35" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -3970,22 +4063,22 @@
         <v>4</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="D39" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -3993,22 +4086,22 @@
         <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -4036,12 +4129,12 @@
     </row>
     <row r="54" spans="2:4">
       <c r="D54" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="D55" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4082,17 +4175,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="38" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="38" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4100,17 +4193,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="38" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="38" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +4222,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N329"/>
+  <dimension ref="A1:N345"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4144,7 +4237,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="44" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4153,19 +4246,19 @@
     </row>
     <row r="3" spans="1:3" outlineLevel="1">
       <c r="B3" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" outlineLevel="1">
       <c r="B4" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" outlineLevel="1">
       <c r="B5" s="9" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -4175,32 +4268,32 @@
     </row>
     <row r="7" spans="1:3" outlineLevel="1">
       <c r="B7" s="10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" outlineLevel="1">
       <c r="B8" s="1"/>
       <c r="C8" s="11" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:3" outlineLevel="1">
       <c r="B9" s="1"/>
       <c r="C9" s="11" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:3" outlineLevel="1">
       <c r="B10" s="1"/>
       <c r="C10" s="11" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:3" outlineLevel="1">
       <c r="B11" s="1"/>
       <c r="C11" s="11" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:3" outlineLevel="1">
@@ -4209,66 +4302,66 @@
     </row>
     <row r="13" spans="1:3" outlineLevel="1">
       <c r="B13" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" outlineLevel="1">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:3" outlineLevel="1">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:3" outlineLevel="1">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:4" outlineLevel="1">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:4" outlineLevel="1">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:4" outlineLevel="1">
       <c r="B19" s="12" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:4" outlineLevel="1">
       <c r="B20" s="7"/>
       <c r="C20" s="11" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:4" outlineLevel="1">
       <c r="C21" s="12" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:4" outlineLevel="1">
       <c r="C22" s="12" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:4" outlineLevel="1"/>
     <row r="24" spans="1:4" outlineLevel="1">
       <c r="B24" s="12" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="1:4" outlineLevel="1">
@@ -4291,13 +4384,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="42" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4313,7 +4406,7 @@
         <v>118</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="4:5">
@@ -4349,7 +4442,7 @@
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="8" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>126</v>
@@ -4357,32 +4450,32 @@
     </row>
     <row r="40" spans="4:5">
       <c r="E40" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="E42" s="16" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="E43" s="8" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="4:5">
       <c r="E44" s="8" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="4:5">
       <c r="E46" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="4:5">
       <c r="E47" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4400,7 +4493,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="42" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>135</v>
@@ -4422,78 +4515,78 @@
         <v>119</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="E56" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="D58" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="E59" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="E60" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="E61" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="E62" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="E63" s="8" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="E64" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="4:13">
       <c r="D66" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="4:13">
       <c r="E67" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="4:13">
       <c r="E68" s="16" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="4:13">
       <c r="E69" s="8" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="4:13">
       <c r="E70" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="4:13">
@@ -4506,10 +4599,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="42" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>158</v>
@@ -4532,33 +4625,41 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="E105" s="8">
+      <c r="E105" s="40">
         <v>1</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:6">
+      <c r="E106" s="40"/>
       <c r="F106" s="8" t="s">
         <v>165</v>
       </c>
     </row>
+    <row r="107" spans="1:6">
+      <c r="E107" s="40"/>
+    </row>
     <row r="108" spans="1:6">
-      <c r="E108" s="8">
+      <c r="E108" s="40">
         <v>2</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:6">
+      <c r="E109" s="40"/>
       <c r="F109" s="8" t="s">
         <v>166</v>
       </c>
     </row>
+    <row r="110" spans="1:6">
+      <c r="E110" s="40"/>
+    </row>
     <row r="111" spans="1:6">
-      <c r="E111" s="8">
+      <c r="E111" s="40">
         <v>3</v>
       </c>
       <c r="F111" s="8" t="s">
@@ -4575,1091 +4676,1129 @@
         <v>167</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>168</v>
+        <v>525</v>
       </c>
     </row>
     <row r="115" spans="4:6">
       <c r="E115" s="8" t="s">
-        <v>175</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="4:6">
       <c r="E116" s="8" t="s">
-        <v>169</v>
+        <v>526</v>
       </c>
     </row>
     <row r="117" spans="4:6">
-      <c r="E117" s="8">
+      <c r="E117" s="47"/>
+      <c r="F117" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6">
+      <c r="E118" s="47"/>
+      <c r="F118" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6">
+      <c r="E119" s="47"/>
+    </row>
+    <row r="120" spans="4:6">
+      <c r="E120" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6">
+      <c r="E121" s="47">
         <v>1</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F121" s="8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="118" spans="4:6">
-      <c r="F118" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6">
-      <c r="E119" s="8">
+    <row r="122" spans="4:6">
+      <c r="E122" s="48" t="s">
+        <v>529</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6">
+      <c r="E123" s="48"/>
+      <c r="F123" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6">
+      <c r="E124" s="48"/>
+      <c r="F124" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6">
+      <c r="E125" s="48"/>
+      <c r="F125" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6">
+      <c r="E126" s="48"/>
+      <c r="F126" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6">
+      <c r="E127" s="48" t="s">
+        <v>530</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6">
+      <c r="E128" s="48"/>
+      <c r="F128" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6">
+      <c r="E129" s="48"/>
+      <c r="F129" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6">
+      <c r="E130" s="48"/>
+      <c r="F130" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6">
+      <c r="E131" s="48" t="s">
+        <v>531</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6">
+      <c r="E132" s="48"/>
+      <c r="F132" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6">
+      <c r="E133" s="48"/>
+      <c r="F133" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6">
+      <c r="E134" s="48"/>
+      <c r="F134" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6">
+      <c r="E135" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6">
+      <c r="E136" s="49"/>
+      <c r="F136" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6">
+      <c r="E137" s="49"/>
+      <c r="F137" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6">
+      <c r="E138" s="49"/>
+      <c r="F138" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6">
+      <c r="E139" s="49"/>
+      <c r="F139" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6">
+      <c r="E140" s="48" t="s">
+        <v>545</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6">
+      <c r="E141" s="49"/>
+    </row>
+    <row r="142" spans="5:6">
+      <c r="E142" s="47">
         <v>2</v>
       </c>
-      <c r="F119" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="120" spans="4:6">
-      <c r="F120" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6">
-      <c r="F121" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6">
-      <c r="F122" s="8" t="s">
+      <c r="F142" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6">
+      <c r="E143" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6">
+      <c r="E144" s="48"/>
+      <c r="F144" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="E145" s="48"/>
+      <c r="F145" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="E146" s="48" t="s">
+        <v>541</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="E147" s="48"/>
+      <c r="F147" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="E148" s="48"/>
+      <c r="F148" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="E149" s="48"/>
+      <c r="F149" s="8" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="E150" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="E151" s="49"/>
+      <c r="F151" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="E152" s="49"/>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="E153" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="E154" s="49" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="E155" s="49" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="D158" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="D159" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="D160" s="8">
+        <v>1</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="E161" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163" s="8">
+        <v>2</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="E164" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="E165" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5">
+      <c r="D167" s="8">
+        <v>3</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5">
+      <c r="E168" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5">
+      <c r="E169" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5">
+      <c r="E170" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5">
+      <c r="E171" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5">
+      <c r="E172" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5">
+      <c r="D174" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B177" s="6">
+        <v>2</v>
+      </c>
+      <c r="C177" s="18" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="C178" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="D180" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="D181" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="D182" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="E183" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="E185" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="E186" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="E187" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="C189" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="D191" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="D192" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="E193" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
+      <c r="H193" s="20"/>
+      <c r="I193" s="20"/>
+      <c r="J193" s="20"/>
+      <c r="K193" s="21"/>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="E194" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F194" s="23"/>
+      <c r="G194" s="23"/>
+      <c r="H194" s="23"/>
+      <c r="I194" s="23"/>
+      <c r="J194" s="23"/>
+      <c r="K194" s="24"/>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="E195" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F195" s="23"/>
+      <c r="G195" s="23"/>
+      <c r="H195" s="23"/>
+      <c r="I195" s="23"/>
+      <c r="J195" s="23"/>
+      <c r="K195" s="24"/>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="E196" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F196" s="26"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="26"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="26"/>
+      <c r="K196" s="27"/>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="E198" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="E199" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F199" s="20"/>
+      <c r="G199" s="20"/>
+      <c r="H199" s="20"/>
+      <c r="I199" s="20"/>
+      <c r="J199" s="20"/>
+      <c r="K199" s="20"/>
+      <c r="L199" s="21"/>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="E200" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F200" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="G200" s="23"/>
+      <c r="H200" s="23"/>
+      <c r="I200" s="23"/>
+      <c r="J200" s="23"/>
+      <c r="K200" s="23"/>
+      <c r="L200" s="24"/>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="E201" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F201" s="26" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="123" spans="4:6">
-      <c r="F123" s="8" t="s">
+      <c r="G201" s="26"/>
+      <c r="H201" s="26"/>
+      <c r="I201" s="26"/>
+      <c r="J201" s="26"/>
+      <c r="K201" s="26"/>
+      <c r="L201" s="27"/>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="D205" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="D206" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="E207" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="D208" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="E209" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="E210" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="E211" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="E212" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="E213" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="E214" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="D218" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E218" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="D219" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="D220" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E220" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="E221" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="E222" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="225" spans="4:14">
+      <c r="D225" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="226" spans="4:14">
+      <c r="E226" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="124" spans="4:6">
-      <c r="F124" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="125" spans="4:6">
-      <c r="E125" s="8">
-        <v>3</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6">
-      <c r="F126" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6">
-      <c r="F127" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6">
-      <c r="F128" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="E129" s="8">
-        <v>4</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="F130" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="F131" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="F132" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="E133" s="8">
-        <v>5</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="F134" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="F135" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="F136" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="F137" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="E138" s="8">
-        <v>6</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="D142" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="D143" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="D144" s="8">
-        <v>1</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="145" spans="4:5">
-      <c r="E145" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="147" spans="4:5">
-      <c r="D147" s="8">
-        <v>2</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="148" spans="4:5">
-      <c r="E148" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="149" spans="4:5">
-      <c r="E149" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="151" spans="4:5">
-      <c r="D151" s="8">
-        <v>3</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="152" spans="4:5">
-      <c r="E152" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="153" spans="4:5">
-      <c r="E153" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="154" spans="4:5">
-      <c r="E154" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="155" spans="4:5">
-      <c r="E155" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="156" spans="4:5">
-      <c r="E156" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="158" spans="4:5">
-      <c r="D158" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="B161" s="6">
-        <v>2</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="C162" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="D164" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="D165" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
-      <c r="D166" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E166" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
-      <c r="E167" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
-      <c r="E169" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
-      <c r="E170" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
-      <c r="E171" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
-      <c r="C173" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
-      <c r="D175" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
-      <c r="D176" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12">
-      <c r="E177" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F177" s="20"/>
-      <c r="G177" s="20"/>
-      <c r="H177" s="20"/>
-      <c r="I177" s="20"/>
-      <c r="J177" s="20"/>
-      <c r="K177" s="21"/>
-    </row>
-    <row r="178" spans="1:12">
-      <c r="E178" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F178" s="23"/>
-      <c r="G178" s="23"/>
-      <c r="H178" s="23"/>
-      <c r="I178" s="23"/>
-      <c r="J178" s="23"/>
-      <c r="K178" s="24"/>
-    </row>
-    <row r="179" spans="1:12">
-      <c r="E179" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F179" s="23"/>
-      <c r="G179" s="23"/>
-      <c r="H179" s="23"/>
-      <c r="I179" s="23"/>
-      <c r="J179" s="23"/>
-      <c r="K179" s="24"/>
-    </row>
-    <row r="180" spans="1:12">
-      <c r="E180" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F180" s="26"/>
-      <c r="G180" s="26"/>
-      <c r="H180" s="26"/>
-      <c r="I180" s="26"/>
-      <c r="J180" s="26"/>
-      <c r="K180" s="27"/>
-    </row>
-    <row r="182" spans="1:12">
-      <c r="E182" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12">
-      <c r="E183" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F183" s="20"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="20"/>
-      <c r="I183" s="20"/>
-      <c r="J183" s="20"/>
-      <c r="K183" s="20"/>
-      <c r="L183" s="21"/>
-    </row>
-    <row r="184" spans="1:12">
-      <c r="E184" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F184" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="G184" s="23"/>
-      <c r="H184" s="23"/>
-      <c r="I184" s="23"/>
-      <c r="J184" s="23"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
-    </row>
-    <row r="185" spans="1:12">
-      <c r="E185" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F185" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="G185" s="26"/>
-      <c r="H185" s="26"/>
-      <c r="I185" s="26"/>
-      <c r="J185" s="26"/>
-      <c r="K185" s="26"/>
-      <c r="L185" s="27"/>
-    </row>
-    <row r="187" spans="1:12">
-      <c r="A187" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="189" spans="1:12">
-      <c r="D189" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E189" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
-      <c r="D190" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12">
-      <c r="E191" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12">
-      <c r="D192" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="E193" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="E194" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="E195" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="E196" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="E197" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="E198" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="D202" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E202" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="D203" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E203" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="D204" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
-      <c r="E205" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="E206" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="209" spans="4:14">
-      <c r="D209" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E209" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="210" spans="4:14">
-      <c r="E210" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="211" spans="4:14">
-      <c r="E211" s="19" t="s">
+    <row r="227" spans="4:14">
+      <c r="E227" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F211" s="20"/>
-      <c r="G211" s="20"/>
-      <c r="H211" s="20"/>
-      <c r="I211" s="20"/>
-      <c r="J211" s="20"/>
-      <c r="K211" s="20"/>
-      <c r="L211" s="20"/>
-      <c r="M211" s="20"/>
-      <c r="N211" s="21"/>
-    </row>
-    <row r="212" spans="4:14">
-      <c r="E212" s="22" t="s">
+      <c r="F227" s="20"/>
+      <c r="G227" s="20"/>
+      <c r="H227" s="20"/>
+      <c r="I227" s="20"/>
+      <c r="J227" s="20"/>
+      <c r="K227" s="20"/>
+      <c r="L227" s="20"/>
+      <c r="M227" s="20"/>
+      <c r="N227" s="21"/>
+    </row>
+    <row r="228" spans="4:14">
+      <c r="E228" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F212" s="23"/>
-      <c r="G212" s="23"/>
-      <c r="H212" s="23"/>
-      <c r="I212" s="23"/>
-      <c r="J212" s="23"/>
-      <c r="K212" s="23"/>
-      <c r="L212" s="23"/>
-      <c r="M212" s="23"/>
-      <c r="N212" s="24"/>
-    </row>
-    <row r="213" spans="4:14">
-      <c r="E213" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F213" s="23"/>
-      <c r="G213" s="23"/>
-      <c r="H213" s="23"/>
-      <c r="I213" s="23"/>
-      <c r="J213" s="23"/>
-      <c r="K213" s="23"/>
-      <c r="L213" s="23"/>
-      <c r="M213" s="23"/>
-      <c r="N213" s="24"/>
-    </row>
-    <row r="214" spans="4:14">
-      <c r="E214" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F214" s="23"/>
-      <c r="G214" s="23"/>
-      <c r="H214" s="23"/>
-      <c r="I214" s="23"/>
-      <c r="J214" s="23"/>
-      <c r="K214" s="23"/>
-      <c r="L214" s="23"/>
-      <c r="M214" s="23"/>
-      <c r="N214" s="24"/>
-    </row>
-    <row r="215" spans="4:14">
-      <c r="E215" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F215" s="23"/>
-      <c r="G215" s="23"/>
-      <c r="H215" s="23"/>
-      <c r="I215" s="23"/>
-      <c r="J215" s="23"/>
-      <c r="K215" s="23"/>
-      <c r="L215" s="23"/>
-      <c r="M215" s="23"/>
-      <c r="N215" s="24"/>
-    </row>
-    <row r="216" spans="4:14">
-      <c r="E216" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F216" s="23"/>
-      <c r="G216" s="23"/>
-      <c r="H216" s="23"/>
-      <c r="I216" s="23"/>
-      <c r="J216" s="23"/>
-      <c r="K216" s="23"/>
-      <c r="L216" s="23"/>
-      <c r="M216" s="23"/>
-      <c r="N216" s="24"/>
-    </row>
-    <row r="217" spans="4:14">
-      <c r="E217" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F217" s="23"/>
-      <c r="G217" s="23"/>
-      <c r="H217" s="23"/>
-      <c r="I217" s="23"/>
-      <c r="J217" s="23"/>
-      <c r="K217" s="23"/>
-      <c r="L217" s="23"/>
-      <c r="M217" s="23"/>
-      <c r="N217" s="24"/>
-    </row>
-    <row r="218" spans="4:14">
-      <c r="E218" s="22"/>
-      <c r="F218" s="23"/>
-      <c r="G218" s="23"/>
-      <c r="H218" s="23"/>
-      <c r="I218" s="23"/>
-      <c r="J218" s="23"/>
-      <c r="K218" s="23"/>
-      <c r="L218" s="23"/>
-      <c r="M218" s="23"/>
-      <c r="N218" s="24"/>
-    </row>
-    <row r="219" spans="4:14">
-      <c r="E219" s="22"/>
-      <c r="F219" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G219" s="23"/>
-      <c r="H219" s="23"/>
-      <c r="I219" s="23"/>
-      <c r="J219" s="23"/>
-      <c r="K219" s="23"/>
-      <c r="L219" s="23"/>
-      <c r="M219" s="23"/>
-      <c r="N219" s="24"/>
-    </row>
-    <row r="220" spans="4:14">
-      <c r="E220" s="22"/>
-      <c r="F220" s="23"/>
-      <c r="G220" s="23"/>
-      <c r="H220" s="23"/>
-      <c r="I220" s="23"/>
-      <c r="J220" s="23"/>
-      <c r="K220" s="23"/>
-      <c r="L220" s="23"/>
-      <c r="M220" s="23"/>
-      <c r="N220" s="24"/>
-    </row>
-    <row r="221" spans="4:14">
-      <c r="E221" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F221" s="23"/>
-      <c r="G221" s="23"/>
-      <c r="H221" s="23"/>
-      <c r="I221" s="23"/>
-      <c r="J221" s="23"/>
-      <c r="K221" s="23"/>
-      <c r="L221" s="23"/>
-      <c r="M221" s="23"/>
-      <c r="N221" s="24"/>
-    </row>
-    <row r="222" spans="4:14">
-      <c r="E222" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="F222" s="23"/>
-      <c r="G222" s="23"/>
-      <c r="H222" s="23"/>
-      <c r="I222" s="23"/>
-      <c r="J222" s="23"/>
-      <c r="K222" s="23"/>
-      <c r="L222" s="23"/>
-      <c r="M222" s="23"/>
-      <c r="N222" s="24"/>
-    </row>
-    <row r="223" spans="4:14">
-      <c r="E223" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F223" s="30"/>
-      <c r="G223" s="30"/>
-      <c r="H223" s="30"/>
-      <c r="I223" s="30"/>
-      <c r="J223" s="30"/>
-      <c r="K223" s="30"/>
-      <c r="L223" s="30"/>
-      <c r="M223" s="23"/>
-      <c r="N223" s="24"/>
-    </row>
-    <row r="224" spans="4:14">
-      <c r="E224" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F224" s="30"/>
-      <c r="G224" s="30"/>
-      <c r="H224" s="30"/>
-      <c r="I224" s="30"/>
-      <c r="J224" s="30"/>
-      <c r="K224" s="30"/>
-      <c r="L224" s="30"/>
-      <c r="M224" s="23"/>
-      <c r="N224" s="24"/>
-    </row>
-    <row r="225" spans="5:14">
-      <c r="E225" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F225" s="30"/>
-      <c r="G225" s="30"/>
-      <c r="H225" s="30"/>
-      <c r="I225" s="30"/>
-      <c r="J225" s="30"/>
-      <c r="K225" s="30"/>
-      <c r="L225" s="30"/>
-      <c r="M225" s="23"/>
-      <c r="N225" s="24"/>
-    </row>
-    <row r="226" spans="5:14">
-      <c r="E226" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F226" s="30"/>
-      <c r="G226" s="30"/>
-      <c r="H226" s="30"/>
-      <c r="I226" s="30"/>
-      <c r="J226" s="30"/>
-      <c r="K226" s="30"/>
-      <c r="L226" s="30"/>
-      <c r="M226" s="23"/>
-      <c r="N226" s="24"/>
-    </row>
-    <row r="227" spans="5:14">
-      <c r="E227" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F227" s="30"/>
-      <c r="G227" s="30"/>
-      <c r="H227" s="30"/>
-      <c r="I227" s="30"/>
-      <c r="J227" s="30"/>
-      <c r="K227" s="30"/>
-      <c r="L227" s="30"/>
-      <c r="M227" s="23"/>
-      <c r="N227" s="24"/>
-    </row>
-    <row r="228" spans="5:14">
-      <c r="E228" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F228" s="30"/>
-      <c r="G228" s="30"/>
-      <c r="H228" s="30"/>
-      <c r="I228" s="30"/>
-      <c r="J228" s="30"/>
-      <c r="K228" s="30"/>
-      <c r="L228" s="30"/>
+      <c r="F228" s="23"/>
+      <c r="G228" s="23"/>
+      <c r="H228" s="23"/>
+      <c r="I228" s="23"/>
+      <c r="J228" s="23"/>
+      <c r="K228" s="23"/>
+      <c r="L228" s="23"/>
       <c r="M228" s="23"/>
       <c r="N228" s="24"/>
     </row>
-    <row r="229" spans="5:14">
-      <c r="E229" s="31" t="s">
+    <row r="229" spans="4:14">
+      <c r="E229" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F229" s="23"/>
+      <c r="G229" s="23"/>
+      <c r="H229" s="23"/>
+      <c r="I229" s="23"/>
+      <c r="J229" s="23"/>
+      <c r="K229" s="23"/>
+      <c r="L229" s="23"/>
+      <c r="M229" s="23"/>
+      <c r="N229" s="24"/>
+    </row>
+    <row r="230" spans="4:14">
+      <c r="E230" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F230" s="23"/>
+      <c r="G230" s="23"/>
+      <c r="H230" s="23"/>
+      <c r="I230" s="23"/>
+      <c r="J230" s="23"/>
+      <c r="K230" s="23"/>
+      <c r="L230" s="23"/>
+      <c r="M230" s="23"/>
+      <c r="N230" s="24"/>
+    </row>
+    <row r="231" spans="4:14">
+      <c r="E231" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F231" s="23"/>
+      <c r="G231" s="23"/>
+      <c r="H231" s="23"/>
+      <c r="I231" s="23"/>
+      <c r="J231" s="23"/>
+      <c r="K231" s="23"/>
+      <c r="L231" s="23"/>
+      <c r="M231" s="23"/>
+      <c r="N231" s="24"/>
+    </row>
+    <row r="232" spans="4:14">
+      <c r="E232" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F232" s="23"/>
+      <c r="G232" s="23"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="23"/>
+      <c r="J232" s="23"/>
+      <c r="K232" s="23"/>
+      <c r="L232" s="23"/>
+      <c r="M232" s="23"/>
+      <c r="N232" s="24"/>
+    </row>
+    <row r="233" spans="4:14">
+      <c r="E233" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F233" s="23"/>
+      <c r="G233" s="23"/>
+      <c r="H233" s="23"/>
+      <c r="I233" s="23"/>
+      <c r="J233" s="23"/>
+      <c r="K233" s="23"/>
+      <c r="L233" s="23"/>
+      <c r="M233" s="23"/>
+      <c r="N233" s="24"/>
+    </row>
+    <row r="234" spans="4:14">
+      <c r="E234" s="22"/>
+      <c r="F234" s="23"/>
+      <c r="G234" s="23"/>
+      <c r="H234" s="23"/>
+      <c r="I234" s="23"/>
+      <c r="J234" s="23"/>
+      <c r="K234" s="23"/>
+      <c r="L234" s="23"/>
+      <c r="M234" s="23"/>
+      <c r="N234" s="24"/>
+    </row>
+    <row r="235" spans="4:14">
+      <c r="E235" s="22"/>
+      <c r="F235" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G235" s="23"/>
+      <c r="H235" s="23"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="23"/>
+      <c r="K235" s="23"/>
+      <c r="L235" s="23"/>
+      <c r="M235" s="23"/>
+      <c r="N235" s="24"/>
+    </row>
+    <row r="236" spans="4:14">
+      <c r="E236" s="22"/>
+      <c r="F236" s="23"/>
+      <c r="G236" s="23"/>
+      <c r="H236" s="23"/>
+      <c r="I236" s="23"/>
+      <c r="J236" s="23"/>
+      <c r="K236" s="23"/>
+      <c r="L236" s="23"/>
+      <c r="M236" s="23"/>
+      <c r="N236" s="24"/>
+    </row>
+    <row r="237" spans="4:14">
+      <c r="E237" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F237" s="23"/>
+      <c r="G237" s="23"/>
+      <c r="H237" s="23"/>
+      <c r="I237" s="23"/>
+      <c r="J237" s="23"/>
+      <c r="K237" s="23"/>
+      <c r="L237" s="23"/>
+      <c r="M237" s="23"/>
+      <c r="N237" s="24"/>
+    </row>
+    <row r="238" spans="4:14">
+      <c r="E238" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="F238" s="23"/>
+      <c r="G238" s="23"/>
+      <c r="H238" s="23"/>
+      <c r="I238" s="23"/>
+      <c r="J238" s="23"/>
+      <c r="K238" s="23"/>
+      <c r="L238" s="23"/>
+      <c r="M238" s="23"/>
+      <c r="N238" s="24"/>
+    </row>
+    <row r="239" spans="4:14">
+      <c r="E239" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F239" s="30"/>
+      <c r="G239" s="30"/>
+      <c r="H239" s="30"/>
+      <c r="I239" s="30"/>
+      <c r="J239" s="30"/>
+      <c r="K239" s="30"/>
+      <c r="L239" s="30"/>
+      <c r="M239" s="23"/>
+      <c r="N239" s="24"/>
+    </row>
+    <row r="240" spans="4:14">
+      <c r="E240" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F240" s="30"/>
+      <c r="G240" s="30"/>
+      <c r="H240" s="30"/>
+      <c r="I240" s="30"/>
+      <c r="J240" s="30"/>
+      <c r="K240" s="30"/>
+      <c r="L240" s="30"/>
+      <c r="M240" s="23"/>
+      <c r="N240" s="24"/>
+    </row>
+    <row r="241" spans="5:14">
+      <c r="E241" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F241" s="30"/>
+      <c r="G241" s="30"/>
+      <c r="H241" s="30"/>
+      <c r="I241" s="30"/>
+      <c r="J241" s="30"/>
+      <c r="K241" s="30"/>
+      <c r="L241" s="30"/>
+      <c r="M241" s="23"/>
+      <c r="N241" s="24"/>
+    </row>
+    <row r="242" spans="5:14">
+      <c r="E242" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F242" s="30"/>
+      <c r="G242" s="30"/>
+      <c r="H242" s="30"/>
+      <c r="I242" s="30"/>
+      <c r="J242" s="30"/>
+      <c r="K242" s="30"/>
+      <c r="L242" s="30"/>
+      <c r="M242" s="23"/>
+      <c r="N242" s="24"/>
+    </row>
+    <row r="243" spans="5:14">
+      <c r="E243" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F243" s="30"/>
+      <c r="G243" s="30"/>
+      <c r="H243" s="30"/>
+      <c r="I243" s="30"/>
+      <c r="J243" s="30"/>
+      <c r="K243" s="30"/>
+      <c r="L243" s="30"/>
+      <c r="M243" s="23"/>
+      <c r="N243" s="24"/>
+    </row>
+    <row r="244" spans="5:14">
+      <c r="E244" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F244" s="30"/>
+      <c r="G244" s="30"/>
+      <c r="H244" s="30"/>
+      <c r="I244" s="30"/>
+      <c r="J244" s="30"/>
+      <c r="K244" s="30"/>
+      <c r="L244" s="30"/>
+      <c r="M244" s="23"/>
+      <c r="N244" s="24"/>
+    </row>
+    <row r="245" spans="5:14">
+      <c r="E245" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F229" s="32"/>
-      <c r="G229" s="32"/>
-      <c r="H229" s="32"/>
-      <c r="I229" s="32"/>
-      <c r="J229" s="32"/>
-      <c r="K229" s="32"/>
-      <c r="L229" s="32"/>
-      <c r="M229" s="26"/>
-      <c r="N229" s="27"/>
-    </row>
-    <row r="231" spans="5:14">
-      <c r="E231" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="232" spans="5:14">
-      <c r="E232" s="8" t="s">
+      <c r="F245" s="32"/>
+      <c r="G245" s="32"/>
+      <c r="H245" s="32"/>
+      <c r="I245" s="32"/>
+      <c r="J245" s="32"/>
+      <c r="K245" s="32"/>
+      <c r="L245" s="32"/>
+      <c r="M245" s="26"/>
+      <c r="N245" s="27"/>
+    </row>
+    <row r="247" spans="5:14">
+      <c r="E247" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="248" spans="5:14">
+      <c r="E248" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="233" spans="5:14">
-      <c r="E233" s="8" t="s">
+    <row r="249" spans="5:14">
+      <c r="E249" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="235" spans="5:14">
-      <c r="E235" s="8" t="s">
+    <row r="251" spans="5:14">
+      <c r="E251" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="236" spans="5:14">
-      <c r="E236" s="8" t="s">
+    <row r="252" spans="5:14">
+      <c r="E252" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="5:14">
-      <c r="E237" s="8" t="s">
+    <row r="253" spans="5:14">
+      <c r="E253" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="238" spans="5:14">
-      <c r="E238" s="8" t="s">
+    <row r="254" spans="5:14">
+      <c r="E254" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="240" spans="5:14">
-      <c r="E240" s="8" t="s">
+    <row r="256" spans="5:14">
+      <c r="E256" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
-      <c r="E241" s="8" t="s">
+    <row r="257" spans="1:5">
+      <c r="E257" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="C243" s="7" t="s">
+    <row r="259" spans="1:5">
+      <c r="A259" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C259" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D243" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="D245" s="8" t="s">
+      <c r="D259" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="D261" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E245" s="8" t="s">
+      <c r="E261" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="E246" s="8" t="s">
+    <row r="262" spans="1:5">
+      <c r="E262" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="D247" s="8" t="s">
+    <row r="263" spans="1:5">
+      <c r="D263" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E247" s="8" t="s">
+      <c r="E263" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
-      <c r="D248" s="8" t="s">
+    <row r="264" spans="1:5">
+      <c r="D264" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E248" s="8" t="s">
+      <c r="E264" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="E249" s="8" t="s">
+    <row r="265" spans="1:5">
+      <c r="E265" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="D251" s="8" t="s">
+    <row r="267" spans="1:5">
+      <c r="D267" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E251" s="8" t="s">
+      <c r="E267" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
-      <c r="E252" s="8" t="s">
+    <row r="268" spans="1:5">
+      <c r="E268" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
-      <c r="E253" s="8" t="s">
+    <row r="269" spans="1:5">
+      <c r="E269" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
-      <c r="E254" s="8" t="s">
+    <row r="270" spans="1:5">
+      <c r="E270" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
-      <c r="E255" s="8" t="s">
+    <row r="271" spans="1:5">
+      <c r="E271" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
-      <c r="E256" s="8" t="s">
+    <row r="272" spans="1:5">
+      <c r="E272" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="257" spans="4:5">
-      <c r="E257" s="8" t="s">
+    <row r="273" spans="4:5">
+      <c r="E273" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="4:5">
-      <c r="D260" s="8" t="s">
+    <row r="276" spans="4:5">
+      <c r="D276" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="261" spans="4:5">
-      <c r="D261" s="33"/>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="A289" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="B289" s="6">
+    <row r="277" spans="4:5">
+      <c r="D277" s="33"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B305" s="6">
         <v>3</v>
       </c>
-      <c r="C289" s="9" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
-      <c r="C290" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D290" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="D291" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E291" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
-      <c r="D292" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E292" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
-      <c r="D293" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E293" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
-      <c r="E294" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
-      <c r="E295" s="8" t="s">
+      <c r="C305" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
-      <c r="E296" s="8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
-      <c r="E297" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
-      <c r="E298" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="E299" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="E300" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="E301" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
-      <c r="E302" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="E303" s="8" t="s">
-        <v>249</v>
+    <row r="306" spans="1:5">
+      <c r="C306" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D306" s="8" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="D307" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="E307" s="8" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
     </row>
     <row r="308" spans="1:5">
+      <c r="D308" s="8" t="s">
+        <v>213</v>
+      </c>
       <c r="E308" s="8" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="309" spans="1:5">
+      <c r="D309" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="E309" s="8" t="s">
-        <v>227</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="E310" s="8" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="C311" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="D311" s="8" t="s">
-        <v>420</v>
+      <c r="E311" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="312" spans="1:5">
-      <c r="D312" s="8" t="s">
-        <v>243</v>
-      </c>
       <c r="E312" s="8" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
     </row>
     <row r="313" spans="1:5">
-      <c r="D313" s="8">
-        <v>1</v>
-      </c>
-      <c r="E313" s="16" t="s">
-        <v>244</v>
+      <c r="E313" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="E314" s="8" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="E315" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5668,47 +5807,122 @@
       </c>
     </row>
     <row r="317" spans="1:5">
-      <c r="E317" s="16" t="s">
-        <v>248</v>
+      <c r="E317" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="E318" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="319" spans="1:5">
-      <c r="D319" s="8">
+      <c r="E319" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="D323" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E323" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="E324" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="E325" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C327" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="D328" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E328" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="D329" s="8">
+        <v>1</v>
+      </c>
+      <c r="E329" s="16" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="E330" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="E331" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="E332" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="E333" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="D335" s="8">
         <v>2</v>
       </c>
-      <c r="E319" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="E320" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="E321" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="E322" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="E323" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="B329" s="6">
+      <c r="E335" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="E336" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="E337" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="E338" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="E339" s="8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="B345" s="6">
         <v>4</v>
       </c>
-      <c r="C329" s="7" t="s">
-        <v>240</v>
+      <c r="C345" s="7" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -5721,14 +5935,14 @@
     <hyperlink ref="A31" location="Git的使用!A1" tooltip="返回" display="top"/>
     <hyperlink ref="A53" location="Git的使用!A1" tooltip="返回" display="top"/>
     <hyperlink ref="A102" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A141" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A161" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A187" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A200" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A243" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A289" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A311" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A329" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A157" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A177" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A203" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A216" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A259" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A305" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A327" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A345" location="Git的使用!A1" tooltip="返回" display="top"/>
     <hyperlink ref="C8" location="git_add" tooltip="git add" display="git add"/>
     <hyperlink ref="C9" location="git_commit" tooltip="git commit" display="git commit"/>
     <hyperlink ref="C10" location="git_diff" tooltip="git diff" display="git diff"/>
@@ -5773,7 +5987,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5786,7 +6000,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="D7" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6076,46 +6290,46 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -6123,46 +6337,46 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="C42" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6207,7 +6421,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6215,7 +6429,7 @@
         <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6223,12 +6437,12 @@
         <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="3" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6236,12 +6450,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6249,22 +6463,22 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6272,7 +6486,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6291,7 +6505,7 @@
         <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6341,20 +6555,20 @@
         <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6362,25 +6576,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="8"/>
       <c r="D9" s="5" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6391,69 +6605,69 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="2" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="D33" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -6491,25 +6705,25 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6517,12 +6731,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6530,12 +6744,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6543,73 +6757,73 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="D17" s="36" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="D18" s="36" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="D19" s="36" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="D20" s="37" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="3:6">
       <c r="D21" s="36" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="D22" s="37" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="3:6">
       <c r="D23" s="36" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" s="36" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -6617,23 +6831,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="D27" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="D28" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -6641,15 +6855,15 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="D31" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -6657,25 +6871,25 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="D34" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="D35" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="E36" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6718,28 +6932,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="D4" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6747,32 +6961,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="5" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6780,17 +6994,17 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -6798,22 +7012,22 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" s="2" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" s="37" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="D22" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -6821,64 +7035,64 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="41" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="D68" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="D69" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="D70" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -6917,114 +7131,114 @@
     </row>
     <row r="3" spans="1:18">
       <c r="B3" s="38" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="P3" s="38" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="C4" s="38" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="38" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="C5" s="38" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="C6" s="38" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="Q7" s="38" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="R8" s="38" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="R9" s="38" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="C10" s="38" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="D11" s="38" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="E12" s="46" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Q12" s="38" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="D13" s="38" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="Q14" s="38" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="E16" s="38" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="E18" s="38" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="E19" s="38" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="E20" s="38" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="E21" s="38" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="E22" s="38" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="D24" s="38" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="38" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="3:5">
@@ -7032,7 +7246,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29" spans="3:5">
@@ -7042,12 +7256,12 @@
     </row>
     <row r="30" spans="3:5">
       <c r="E30" s="38" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="E31" s="38" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7055,33 +7269,33 @@
         <v>2</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="E34" s="38" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="E35" s="38" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="41" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C38" s="38">
         <v>3</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="D39" s="38" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7089,37 +7303,37 @@
         <v>1</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="E41" s="38" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="E42" s="38" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="F43" s="38" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="F44" s="38" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="F45" s="38" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="E46" s="38" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7127,116 +7341,116 @@
         <v>2</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="4:6">
       <c r="E49" s="38" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="4:6">
       <c r="E50" s="38" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="4:6">
       <c r="F51" s="38" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52" spans="4:6">
       <c r="F52" s="38" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="4:6">
       <c r="E53" s="38" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="54" spans="4:6">
       <c r="D54" s="38" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="4:6">
       <c r="E55" s="38" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="4:6">
       <c r="F56" s="38" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="4:6">
       <c r="F58" s="38" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="4:6">
       <c r="F59" s="38" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="4:6">
       <c r="E61" s="38" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="4:6">
       <c r="E62" s="38" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="63" spans="4:6">
       <c r="F63" s="38" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="F64" s="38" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" s="38" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" s="38" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" s="38" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" s="38" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" s="38" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="41" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C86" s="38">
         <v>3</v>
       </c>
       <c r="D86" s="38" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -7244,27 +7458,27 @@
         <v>1</v>
       </c>
       <c r="E87" s="38" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="E88" s="38" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="E89" s="38" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="F90" s="38" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="F91" s="38" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -7272,45 +7486,45 @@
         <v>2</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="E94" s="38" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="E95" s="38" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="F96" s="38" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="97" spans="3:5">
       <c r="E97" s="38" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="101" spans="3:5">
       <c r="C101" s="38" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="108" spans="3:5">
       <c r="C108" s="38" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" spans="3:5">
       <c r="D109" s="38" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E109" s="38" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -19,21 +19,21 @@
     <sheet name="HTML" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_.gitignore">Git的使用!$D$306</definedName>
+    <definedName name="_.gitignore">Git的使用!$D$312</definedName>
     <definedName name="git_add">Git的使用!$D$32</definedName>
-    <definedName name="git_clone">Git的使用!$D$178</definedName>
+    <definedName name="git_clone">Git的使用!$D$184</definedName>
     <definedName name="git_commit">Git的使用!$D$53</definedName>
-    <definedName name="git_config">Git的使用!$D$327</definedName>
+    <definedName name="git_config">Git的使用!$D$333</definedName>
     <definedName name="git_diff">Git的使用!$D$102</definedName>
-    <definedName name="git_fetch">Git的使用!$D$203</definedName>
-    <definedName name="git_pull">Git的使用!$D$259</definedName>
-    <definedName name="git_push">Git的使用!$D$216</definedName>
-    <definedName name="git_remote">Git的使用!$D$189</definedName>
+    <definedName name="git_fetch">Git的使用!$D$209</definedName>
+    <definedName name="git_pull">Git的使用!$D$265</definedName>
+    <definedName name="git_push">Git的使用!$D$222</definedName>
+    <definedName name="git_remote">Git的使用!$D$195</definedName>
     <definedName name="git_rm">Git的使用!$D$157</definedName>
-    <definedName name="内容.Git_分支管理">Git的使用!$C$345</definedName>
+    <definedName name="内容.Git_分支管理">Git的使用!$C$351</definedName>
     <definedName name="内容.Git_管理本地仓库">Git的使用!$C$31</definedName>
-    <definedName name="内容.Git_配置">Git的使用!$C$305</definedName>
-    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$177</definedName>
+    <definedName name="内容.Git_配置">Git的使用!$C$311</definedName>
+    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$183</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="557">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2629,6 +2629,34 @@
   </si>
   <si>
     <t>因为我们在协同开发中,得清楚更新了哪些代码,也许会存在某些有关联的文件,因为更新而导致工作目录受到影响.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit --amend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改上一次的commit信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们在写提交commit信息的时候,需要清楚得描述出本次提交做了些什么改动,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>commit信息追求的不是简单,很多优秀的git项目都用模板规范的呢!所以养成提交准确描述是很有必要的.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是人难免会犯错,有时候我们也会写错信息.但是提交了,还能修改吗? 答案是肯定的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过git commit --amend  可以修改上一次的commit 信息,输入命令之后,进入的就是让你修改上一次提交的信息编辑界面!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3160,13 +3188,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>276</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>309</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4222,7 +4250,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N345"/>
+  <dimension ref="A1:N351"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4231,8 +4259,10 @@
     <col min="1" max="1" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="6"/>
     <col min="3" max="3" width="12.1640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="8"/>
+    <col min="4" max="4" width="12.1640625" style="8" customWidth="1"/>
+    <col min="5" max="10" width="10.83203125" style="8"/>
+    <col min="11" max="11" width="12" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4955,70 +4985,83 @@
       </c>
     </row>
     <row r="160" spans="1:6">
-      <c r="D160" s="8">
+      <c r="D160" s="47">
         <v>1</v>
       </c>
       <c r="E160" s="16" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="161" spans="4:5">
+    <row r="161" spans="3:5">
+      <c r="D161" s="47"/>
       <c r="E161" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="163" spans="4:5">
-      <c r="D163" s="8">
+    <row r="162" spans="3:5">
+      <c r="D162" s="47"/>
+    </row>
+    <row r="163" spans="3:5">
+      <c r="D163" s="47">
         <v>2</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="164" spans="4:5">
+    <row r="164" spans="3:5">
+      <c r="D164" s="47"/>
       <c r="E164" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="165" spans="4:5">
+    <row r="165" spans="3:5">
+      <c r="D165" s="47"/>
       <c r="E165" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="167" spans="4:5">
-      <c r="D167" s="8">
+    <row r="166" spans="3:5">
+      <c r="D166" s="47"/>
+    </row>
+    <row r="167" spans="3:5">
+      <c r="D167" s="47">
         <v>3</v>
       </c>
       <c r="E167" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="168" spans="4:5">
+    <row r="168" spans="3:5">
+      <c r="D168" s="47"/>
       <c r="E168" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="169" spans="4:5">
+    <row r="169" spans="3:5">
+      <c r="D169" s="47"/>
       <c r="E169" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="170" spans="4:5">
+    <row r="170" spans="3:5">
+      <c r="D170" s="47"/>
       <c r="E170" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="171" spans="4:5">
+    <row r="171" spans="3:5">
+      <c r="D171" s="47"/>
       <c r="E171" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="172" spans="4:5">
+    <row r="172" spans="3:5">
       <c r="E172" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="174" spans="4:5">
+    <row r="174" spans="3:5">
       <c r="D174" s="8" t="s">
         <v>283</v>
       </c>
@@ -5026,145 +5069,132 @@
         <v>284</v>
       </c>
     </row>
+    <row r="176" spans="3:5">
+      <c r="C176" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="42" t="s">
+      <c r="D177" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="E178" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="E179" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="E180" s="8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="E181" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="B177" s="6">
+      <c r="B183" s="6">
         <v>2</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C183" s="18" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="C178" s="7" t="s">
+    <row r="184" spans="1:5">
+      <c r="C184" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D178" s="8" t="s">
+      <c r="D184" s="8" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
-      <c r="D180" s="8" t="s">
+    <row r="186" spans="1:5">
+      <c r="D186" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E186" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
-      <c r="D181" s="8" t="s">
+    <row r="187" spans="1:5">
+      <c r="D187" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="E187" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="D182" s="8" t="s">
+    <row r="188" spans="1:5">
+      <c r="D188" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E182" s="8" t="s">
+      <c r="E188" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="E183" s="8" t="s">
+    <row r="189" spans="1:5">
+      <c r="E189" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="E185" s="8" t="s">
+    <row r="191" spans="1:5">
+      <c r="E191" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
-      <c r="E186" s="8" t="s">
+    <row r="192" spans="1:5">
+      <c r="E192" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
-      <c r="E187" s="8" t="s">
+    <row r="193" spans="3:12">
+      <c r="E193" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="C189" s="7" t="s">
+    <row r="195" spans="3:12">
+      <c r="C195" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D189" s="8" t="s">
+      <c r="D195" s="8" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="D191" s="8" t="s">
+    <row r="197" spans="3:12">
+      <c r="D197" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E191" s="8" t="s">
+      <c r="E197" s="8" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
-      <c r="D192" s="8" t="s">
+    <row r="198" spans="3:12">
+      <c r="D198" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E192" s="8" t="s">
+      <c r="E198" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
-      <c r="E193" s="19" t="s">
+    <row r="199" spans="3:12">
+      <c r="E199" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="20"/>
-      <c r="I193" s="20"/>
-      <c r="J193" s="20"/>
-      <c r="K193" s="21"/>
-    </row>
-    <row r="194" spans="1:12">
-      <c r="E194" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F194" s="23"/>
-      <c r="G194" s="23"/>
-      <c r="H194" s="23"/>
-      <c r="I194" s="23"/>
-      <c r="J194" s="23"/>
-      <c r="K194" s="24"/>
-    </row>
-    <row r="195" spans="1:12">
-      <c r="E195" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F195" s="23"/>
-      <c r="G195" s="23"/>
-      <c r="H195" s="23"/>
-      <c r="I195" s="23"/>
-      <c r="J195" s="23"/>
-      <c r="K195" s="24"/>
-    </row>
-    <row r="196" spans="1:12">
-      <c r="E196" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F196" s="26"/>
-      <c r="G196" s="26"/>
-      <c r="H196" s="26"/>
-      <c r="I196" s="26"/>
-      <c r="J196" s="26"/>
-      <c r="K196" s="27"/>
-    </row>
-    <row r="198" spans="1:12">
-      <c r="E198" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12">
-      <c r="E199" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="F199" s="20"/>
       <c r="G199" s="20"/>
@@ -5174,13 +5204,11 @@
       <c r="K199" s="20"/>
       <c r="L199" s="21"/>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="3:12">
       <c r="E200" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F200" s="23" t="s">
-        <v>362</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F200" s="23"/>
       <c r="G200" s="23"/>
       <c r="H200" s="23"/>
       <c r="I200" s="23"/>
@@ -5188,248 +5216,221 @@
       <c r="K200" s="23"/>
       <c r="L200" s="24"/>
     </row>
-    <row r="201" spans="1:12">
-      <c r="E201" s="28" t="s">
+    <row r="201" spans="3:12">
+      <c r="E201" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F201" s="23"/>
+      <c r="G201" s="23"/>
+      <c r="H201" s="23"/>
+      <c r="I201" s="23"/>
+      <c r="J201" s="23"/>
+      <c r="K201" s="23"/>
+      <c r="L201" s="24"/>
+    </row>
+    <row r="202" spans="3:12">
+      <c r="E202" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F201" s="26" t="s">
+      <c r="F202" s="26"/>
+      <c r="G202" s="26"/>
+      <c r="H202" s="26"/>
+      <c r="I202" s="26"/>
+      <c r="J202" s="26"/>
+      <c r="K202" s="26"/>
+      <c r="L202" s="27"/>
+    </row>
+    <row r="204" spans="3:12">
+      <c r="E204" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="205" spans="3:12">
+      <c r="E205" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F205" s="20"/>
+      <c r="G205" s="20"/>
+      <c r="H205" s="20"/>
+      <c r="I205" s="20"/>
+      <c r="J205" s="20"/>
+      <c r="K205" s="20"/>
+      <c r="L205" s="21"/>
+    </row>
+    <row r="206" spans="3:12">
+      <c r="E206" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F206" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="G206" s="23"/>
+      <c r="H206" s="23"/>
+      <c r="I206" s="23"/>
+      <c r="J206" s="23"/>
+      <c r="K206" s="23"/>
+      <c r="L206" s="24"/>
+    </row>
+    <row r="207" spans="3:12">
+      <c r="E207" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F207" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="G201" s="26"/>
-      <c r="H201" s="26"/>
-      <c r="I201" s="26"/>
-      <c r="J201" s="26"/>
-      <c r="K201" s="26"/>
-      <c r="L201" s="27"/>
-    </row>
-    <row r="203" spans="1:12">
-      <c r="A203" s="42" t="s">
+      <c r="G207" s="26"/>
+      <c r="H207" s="26"/>
+      <c r="I207" s="26"/>
+      <c r="J207" s="26"/>
+      <c r="K207" s="26"/>
+      <c r="L207" s="27"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="C203" s="7" t="s">
+      <c r="C209" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D203" s="8" t="s">
+      <c r="D209" s="8" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
-      <c r="D205" s="8" t="s">
+    <row r="211" spans="1:5">
+      <c r="D211" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E205" s="8" t="s">
+      <c r="E211" s="8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
-      <c r="D206" s="8" t="s">
+    <row r="212" spans="1:5">
+      <c r="D212" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E206" s="8" t="s">
+      <c r="E212" s="8" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12">
-      <c r="E207" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="208" spans="1:12">
-      <c r="D208" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="E209" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
-      <c r="E210" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="E211" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="E212" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="E213" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="D214" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="E215" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="E216" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="E217" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="E218" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="E219" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="E214" s="8" t="s">
+    <row r="220" spans="1:5">
+      <c r="E220" s="8" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="42" t="s">
+    <row r="222" spans="1:5">
+      <c r="A222" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C222" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D216" s="8" t="s">
+      <c r="D222" s="8" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="D218" s="8" t="s">
+    <row r="224" spans="1:5">
+      <c r="D224" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="E224" s="8" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="D219" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="D220" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="E221" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="E222" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="225" spans="4:14">
       <c r="D225" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="4:14">
+      <c r="D226" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E226" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="227" spans="4:14">
+      <c r="E227" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="228" spans="4:14">
+      <c r="E228" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="231" spans="4:14">
+      <c r="D231" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E225" s="8" t="s">
+      <c r="E231" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="226" spans="4:14">
-      <c r="E226" s="8" t="s">
+    <row r="232" spans="4:14">
+      <c r="E232" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="227" spans="4:14">
-      <c r="E227" s="19" t="s">
+    <row r="233" spans="4:14">
+      <c r="E233" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
-      <c r="H227" s="20"/>
-      <c r="I227" s="20"/>
-      <c r="J227" s="20"/>
-      <c r="K227" s="20"/>
-      <c r="L227" s="20"/>
-      <c r="M227" s="20"/>
-      <c r="N227" s="21"/>
-    </row>
-    <row r="228" spans="4:14">
-      <c r="E228" s="22" t="s">
+      <c r="F233" s="20"/>
+      <c r="G233" s="20"/>
+      <c r="H233" s="20"/>
+      <c r="I233" s="20"/>
+      <c r="J233" s="20"/>
+      <c r="K233" s="20"/>
+      <c r="L233" s="20"/>
+      <c r="M233" s="20"/>
+      <c r="N233" s="21"/>
+    </row>
+    <row r="234" spans="4:14">
+      <c r="E234" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F228" s="23"/>
-      <c r="G228" s="23"/>
-      <c r="H228" s="23"/>
-      <c r="I228" s="23"/>
-      <c r="J228" s="23"/>
-      <c r="K228" s="23"/>
-      <c r="L228" s="23"/>
-      <c r="M228" s="23"/>
-      <c r="N228" s="24"/>
-    </row>
-    <row r="229" spans="4:14">
-      <c r="E229" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F229" s="23"/>
-      <c r="G229" s="23"/>
-      <c r="H229" s="23"/>
-      <c r="I229" s="23"/>
-      <c r="J229" s="23"/>
-      <c r="K229" s="23"/>
-      <c r="L229" s="23"/>
-      <c r="M229" s="23"/>
-      <c r="N229" s="24"/>
-    </row>
-    <row r="230" spans="4:14">
-      <c r="E230" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F230" s="23"/>
-      <c r="G230" s="23"/>
-      <c r="H230" s="23"/>
-      <c r="I230" s="23"/>
-      <c r="J230" s="23"/>
-      <c r="K230" s="23"/>
-      <c r="L230" s="23"/>
-      <c r="M230" s="23"/>
-      <c r="N230" s="24"/>
-    </row>
-    <row r="231" spans="4:14">
-      <c r="E231" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F231" s="23"/>
-      <c r="G231" s="23"/>
-      <c r="H231" s="23"/>
-      <c r="I231" s="23"/>
-      <c r="J231" s="23"/>
-      <c r="K231" s="23"/>
-      <c r="L231" s="23"/>
-      <c r="M231" s="23"/>
-      <c r="N231" s="24"/>
-    </row>
-    <row r="232" spans="4:14">
-      <c r="E232" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F232" s="23"/>
-      <c r="G232" s="23"/>
-      <c r="H232" s="23"/>
-      <c r="I232" s="23"/>
-      <c r="J232" s="23"/>
-      <c r="K232" s="23"/>
-      <c r="L232" s="23"/>
-      <c r="M232" s="23"/>
-      <c r="N232" s="24"/>
-    </row>
-    <row r="233" spans="4:14">
-      <c r="E233" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F233" s="23"/>
-      <c r="G233" s="23"/>
-      <c r="H233" s="23"/>
-      <c r="I233" s="23"/>
-      <c r="J233" s="23"/>
-      <c r="K233" s="23"/>
-      <c r="L233" s="23"/>
-      <c r="M233" s="23"/>
-      <c r="N233" s="24"/>
-    </row>
-    <row r="234" spans="4:14">
-      <c r="E234" s="22"/>
       <c r="F234" s="23"/>
       <c r="G234" s="23"/>
       <c r="H234" s="23"/>
@@ -5441,10 +5442,10 @@
       <c r="N234" s="24"/>
     </row>
     <row r="235" spans="4:14">
-      <c r="E235" s="22"/>
-      <c r="F235" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="E235" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F235" s="23"/>
       <c r="G235" s="23"/>
       <c r="H235" s="23"/>
       <c r="I235" s="23"/>
@@ -5455,7 +5456,9 @@
       <c r="N235" s="24"/>
     </row>
     <row r="236" spans="4:14">
-      <c r="E236" s="22"/>
+      <c r="E236" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="F236" s="23"/>
       <c r="G236" s="23"/>
       <c r="H236" s="23"/>
@@ -5468,7 +5471,7 @@
     </row>
     <row r="237" spans="4:14">
       <c r="E237" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F237" s="23"/>
       <c r="G237" s="23"/>
@@ -5482,7 +5485,7 @@
     </row>
     <row r="238" spans="4:14">
       <c r="E238" s="22" t="s">
-        <v>365</v>
+        <v>67</v>
       </c>
       <c r="F238" s="23"/>
       <c r="G238" s="23"/>
@@ -5495,433 +5498,513 @@
       <c r="N238" s="24"/>
     </row>
     <row r="239" spans="4:14">
-      <c r="E239" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F239" s="30"/>
-      <c r="G239" s="30"/>
-      <c r="H239" s="30"/>
-      <c r="I239" s="30"/>
-      <c r="J239" s="30"/>
-      <c r="K239" s="30"/>
-      <c r="L239" s="30"/>
+      <c r="E239" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F239" s="23"/>
+      <c r="G239" s="23"/>
+      <c r="H239" s="23"/>
+      <c r="I239" s="23"/>
+      <c r="J239" s="23"/>
+      <c r="K239" s="23"/>
+      <c r="L239" s="23"/>
       <c r="M239" s="23"/>
       <c r="N239" s="24"/>
     </row>
     <row r="240" spans="4:14">
-      <c r="E240" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F240" s="30"/>
-      <c r="G240" s="30"/>
-      <c r="H240" s="30"/>
-      <c r="I240" s="30"/>
-      <c r="J240" s="30"/>
-      <c r="K240" s="30"/>
-      <c r="L240" s="30"/>
+      <c r="E240" s="22"/>
+      <c r="F240" s="23"/>
+      <c r="G240" s="23"/>
+      <c r="H240" s="23"/>
+      <c r="I240" s="23"/>
+      <c r="J240" s="23"/>
+      <c r="K240" s="23"/>
+      <c r="L240" s="23"/>
       <c r="M240" s="23"/>
       <c r="N240" s="24"/>
     </row>
     <row r="241" spans="5:14">
-      <c r="E241" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F241" s="30"/>
-      <c r="G241" s="30"/>
-      <c r="H241" s="30"/>
-      <c r="I241" s="30"/>
-      <c r="J241" s="30"/>
-      <c r="K241" s="30"/>
-      <c r="L241" s="30"/>
+      <c r="E241" s="22"/>
+      <c r="F241" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G241" s="23"/>
+      <c r="H241" s="23"/>
+      <c r="I241" s="23"/>
+      <c r="J241" s="23"/>
+      <c r="K241" s="23"/>
+      <c r="L241" s="23"/>
       <c r="M241" s="23"/>
       <c r="N241" s="24"/>
     </row>
     <row r="242" spans="5:14">
-      <c r="E242" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F242" s="30"/>
-      <c r="G242" s="30"/>
-      <c r="H242" s="30"/>
-      <c r="I242" s="30"/>
-      <c r="J242" s="30"/>
-      <c r="K242" s="30"/>
-      <c r="L242" s="30"/>
+      <c r="E242" s="22"/>
+      <c r="F242" s="23"/>
+      <c r="G242" s="23"/>
+      <c r="H242" s="23"/>
+      <c r="I242" s="23"/>
+      <c r="J242" s="23"/>
+      <c r="K242" s="23"/>
+      <c r="L242" s="23"/>
       <c r="M242" s="23"/>
       <c r="N242" s="24"/>
     </row>
     <row r="243" spans="5:14">
-      <c r="E243" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F243" s="30"/>
-      <c r="G243" s="30"/>
-      <c r="H243" s="30"/>
-      <c r="I243" s="30"/>
-      <c r="J243" s="30"/>
-      <c r="K243" s="30"/>
-      <c r="L243" s="30"/>
+      <c r="E243" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F243" s="23"/>
+      <c r="G243" s="23"/>
+      <c r="H243" s="23"/>
+      <c r="I243" s="23"/>
+      <c r="J243" s="23"/>
+      <c r="K243" s="23"/>
+      <c r="L243" s="23"/>
       <c r="M243" s="23"/>
       <c r="N243" s="24"/>
     </row>
     <row r="244" spans="5:14">
-      <c r="E244" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F244" s="30"/>
-      <c r="G244" s="30"/>
-      <c r="H244" s="30"/>
-      <c r="I244" s="30"/>
-      <c r="J244" s="30"/>
-      <c r="K244" s="30"/>
-      <c r="L244" s="30"/>
+      <c r="E244" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="F244" s="23"/>
+      <c r="G244" s="23"/>
+      <c r="H244" s="23"/>
+      <c r="I244" s="23"/>
+      <c r="J244" s="23"/>
+      <c r="K244" s="23"/>
+      <c r="L244" s="23"/>
       <c r="M244" s="23"/>
       <c r="N244" s="24"/>
     </row>
     <row r="245" spans="5:14">
-      <c r="E245" s="31" t="s">
+      <c r="E245" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F245" s="30"/>
+      <c r="G245" s="30"/>
+      <c r="H245" s="30"/>
+      <c r="I245" s="30"/>
+      <c r="J245" s="30"/>
+      <c r="K245" s="30"/>
+      <c r="L245" s="30"/>
+      <c r="M245" s="23"/>
+      <c r="N245" s="24"/>
+    </row>
+    <row r="246" spans="5:14">
+      <c r="E246" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F246" s="30"/>
+      <c r="G246" s="30"/>
+      <c r="H246" s="30"/>
+      <c r="I246" s="30"/>
+      <c r="J246" s="30"/>
+      <c r="K246" s="30"/>
+      <c r="L246" s="30"/>
+      <c r="M246" s="23"/>
+      <c r="N246" s="24"/>
+    </row>
+    <row r="247" spans="5:14">
+      <c r="E247" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F247" s="30"/>
+      <c r="G247" s="30"/>
+      <c r="H247" s="30"/>
+      <c r="I247" s="30"/>
+      <c r="J247" s="30"/>
+      <c r="K247" s="30"/>
+      <c r="L247" s="30"/>
+      <c r="M247" s="23"/>
+      <c r="N247" s="24"/>
+    </row>
+    <row r="248" spans="5:14">
+      <c r="E248" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F248" s="30"/>
+      <c r="G248" s="30"/>
+      <c r="H248" s="30"/>
+      <c r="I248" s="30"/>
+      <c r="J248" s="30"/>
+      <c r="K248" s="30"/>
+      <c r="L248" s="30"/>
+      <c r="M248" s="23"/>
+      <c r="N248" s="24"/>
+    </row>
+    <row r="249" spans="5:14">
+      <c r="E249" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F249" s="30"/>
+      <c r="G249" s="30"/>
+      <c r="H249" s="30"/>
+      <c r="I249" s="30"/>
+      <c r="J249" s="30"/>
+      <c r="K249" s="30"/>
+      <c r="L249" s="30"/>
+      <c r="M249" s="23"/>
+      <c r="N249" s="24"/>
+    </row>
+    <row r="250" spans="5:14">
+      <c r="E250" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F250" s="30"/>
+      <c r="G250" s="30"/>
+      <c r="H250" s="30"/>
+      <c r="I250" s="30"/>
+      <c r="J250" s="30"/>
+      <c r="K250" s="30"/>
+      <c r="L250" s="30"/>
+      <c r="M250" s="23"/>
+      <c r="N250" s="24"/>
+    </row>
+    <row r="251" spans="5:14">
+      <c r="E251" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F245" s="32"/>
-      <c r="G245" s="32"/>
-      <c r="H245" s="32"/>
-      <c r="I245" s="32"/>
-      <c r="J245" s="32"/>
-      <c r="K245" s="32"/>
-      <c r="L245" s="32"/>
-      <c r="M245" s="26"/>
-      <c r="N245" s="27"/>
-    </row>
-    <row r="247" spans="5:14">
-      <c r="E247" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="248" spans="5:14">
-      <c r="E248" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="249" spans="5:14">
-      <c r="E249" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="251" spans="5:14">
-      <c r="E251" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="252" spans="5:14">
-      <c r="E252" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="F251" s="32"/>
+      <c r="G251" s="32"/>
+      <c r="H251" s="32"/>
+      <c r="I251" s="32"/>
+      <c r="J251" s="32"/>
+      <c r="K251" s="32"/>
+      <c r="L251" s="32"/>
+      <c r="M251" s="26"/>
+      <c r="N251" s="27"/>
     </row>
     <row r="253" spans="5:14">
       <c r="E253" s="8" t="s">
-        <v>84</v>
+        <v>366</v>
       </c>
     </row>
     <row r="254" spans="5:14">
       <c r="E254" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="256" spans="5:14">
-      <c r="E256" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="255" spans="5:14">
+      <c r="E255" s="8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="E257" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="E258" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D259" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="D261" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E261" s="8" t="s">
-        <v>110</v>
+      <c r="E259" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="E260" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="E262" s="8" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="D263" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="E263" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="D264" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E264" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="E265" s="8" t="s">
-        <v>92</v>
+      <c r="A265" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D265" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="D267" s="8" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="E268" s="8" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="269" spans="1:5">
+      <c r="D269" s="8" t="s">
+        <v>89</v>
+      </c>
       <c r="E269" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="270" spans="1:5">
+      <c r="D270" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E270" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="E271" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="273" spans="4:5">
+      <c r="D273" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E273" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="274" spans="4:5">
+      <c r="E274" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="275" spans="4:5">
+      <c r="E275" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="276" spans="4:5">
+      <c r="E276" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="277" spans="4:5">
+      <c r="E277" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
-      <c r="E272" s="8" t="s">
+    <row r="278" spans="4:5">
+      <c r="E278" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="273" spans="4:5">
-      <c r="E273" s="8" t="s">
+    <row r="279" spans="4:5">
+      <c r="E279" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="276" spans="4:5">
-      <c r="D276" s="8" t="s">
+    <row r="282" spans="4:5">
+      <c r="D282" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="277" spans="4:5">
-      <c r="D277" s="33"/>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="42" t="s">
+    <row r="283" spans="4:5">
+      <c r="D283" s="33"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="B305" s="6">
+      <c r="B311" s="6">
         <v>3</v>
       </c>
-      <c r="C305" s="9" t="s">
+      <c r="C311" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
-      <c r="C306" s="7" t="s">
+    <row r="312" spans="1:5">
+      <c r="C312" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D306" s="8" t="s">
+      <c r="D312" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
-      <c r="D307" s="8" t="s">
+    <row r="313" spans="1:5">
+      <c r="D313" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E307" s="8" t="s">
+      <c r="E313" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
-      <c r="D308" s="8" t="s">
+    <row r="314" spans="1:5">
+      <c r="D314" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E308" s="8" t="s">
+      <c r="E314" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
-      <c r="D309" s="8" t="s">
+    <row r="315" spans="1:5">
+      <c r="D315" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E309" s="8" t="s">
+      <c r="E315" s="8" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="E310" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="E311" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="E312" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="E313" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="E314" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="E315" s="8" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="E316" s="8" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="E317" s="8" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="E318" s="8" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="E319" s="8" t="s">
-        <v>244</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="E320" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="E321" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="E322" s="8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="323" spans="1:5">
-      <c r="D323" s="8" t="s">
-        <v>220</v>
-      </c>
       <c r="E323" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="E324" s="8" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="E325" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="C327" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D327" s="8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="D328" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E328" s="8" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="329" spans="1:5">
-      <c r="D329" s="8">
-        <v>1</v>
-      </c>
-      <c r="E329" s="16" t="s">
-        <v>239</v>
+      <c r="D329" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="E329" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="E330" s="8" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="E331" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="E332" s="8" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="E333" s="16" t="s">
-        <v>243</v>
+      <c r="A333" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C333" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="D334" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="E334" s="8" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="D335" s="8">
-        <v>2</v>
-      </c>
-      <c r="E335" s="8" t="s">
-        <v>253</v>
+        <v>1</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="336" spans="1:5">
-      <c r="E336" s="16" t="s">
-        <v>254</v>
+      <c r="E336" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="E337" s="8" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="E338" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="E339" s="16" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="D341" s="8">
+        <v>2</v>
+      </c>
+      <c r="E341" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="E342" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="E343" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="E344" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
-      <c r="E339" s="8" t="s">
+    <row r="345" spans="1:5">
+      <c r="E345" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="42" t="s">
+    <row r="351" spans="1:5">
+      <c r="A351" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="B345" s="6">
+      <c r="B351" s="6">
         <v>4</v>
       </c>
-      <c r="C345" s="7" t="s">
+      <c r="C351" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5936,13 +6019,13 @@
     <hyperlink ref="A53" location="Git的使用!A1" tooltip="返回" display="top"/>
     <hyperlink ref="A102" location="Git的使用!A1" tooltip="返回" display="top"/>
     <hyperlink ref="A157" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A177" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A203" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A216" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A259" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A305" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A327" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A345" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A183" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A209" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A222" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A265" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A311" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A333" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A351" location="Git的使用!A1" tooltip="返回" display="top"/>
     <hyperlink ref="C8" location="git_add" tooltip="git add" display="git add"/>
     <hyperlink ref="C9" location="git_commit" tooltip="git commit" display="git commit"/>
     <hyperlink ref="C10" location="git_diff" tooltip="git diff" display="git diff"/>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
+    <workbookView xWindow="4200" yWindow="0" windowWidth="27860" windowHeight="19020" tabRatio="627" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="终端的使用" sheetId="8" r:id="rId8"/>
     <sheet name="JavaScript" sheetId="9" r:id="rId9"/>
     <sheet name="HTML" sheetId="10" r:id="rId10"/>
+    <sheet name="Hybrid" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_.gitignore">Git的使用!$D$312</definedName>
@@ -34,6 +35,7 @@
     <definedName name="内容.Git_管理本地仓库">Git的使用!$C$31</definedName>
     <definedName name="内容.Git_配置">Git的使用!$C$311</definedName>
     <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$183</definedName>
+    <definedName name="内容.JavaScript对象构建方式">JavaScript!$D$111</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="595">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2084,9 +2086,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>innerHTML</t>
-  </si>
-  <si>
     <t>ECMAScript</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2157,7 +2156,198 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>常见的JS事件</t>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某些情况下,需要了解本机哪些端口被占用,以便某些应用使用为被占用的端口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsof -i -P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以加参数过滤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上命令可见端口6003,31732,8020,80,5037是被占用了的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsof -n -P -i tcp -s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在终端输入一下命令:命令是以小写的"L"开头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看端口的使用情况:lsof -i -P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果忘记了终端命令了怎么办?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Mac OSX中一个工具名字叫做"网络使用工具", 该工具在比较新的版本中是被隐藏了的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在spotlight中搜索出来,有个"端口 "的TAB,可以检测端口的使用情况,不过利用可视化工具检测会比较缓慢,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能用命令的情况下,还是用命令,速度快多了.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>addEventListener(eventString,event,boolean)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;input id="dyBtn" type="button" value="dynamic button event" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var btnObj = document.getElementById("dyBtn");</t>
+  </si>
+  <si>
+    <t>btnObj.addEventListener("click",dyBtnListener,true);</t>
+  </si>
+  <si>
+    <t>&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>function dyBtnListener () {alert("button clicked!");}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把函数单独写出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把函数内嵌在参数中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>btnObj.addEventListener("click",function(){alert("button clicked!")},true);</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>script的代码要写在元素的后面；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法的第二个参数写函数的名字，不要加括号，如果加了括号，则默认不点击也执行了。</t>
+  </si>
+  <si>
+    <t>http://www.runoob.com/jsref/dom-obj-event.html</t>
+  </si>
+  <si>
+    <t>如：鼠标的点击事件onClick,则用"click";双击事件ondblclick,则用"dblclick"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于第一个参数，是事件的名字,不要加上"on"前缀.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>该事件是HTML DOM 事件，更多的事件说明,参考以下文档</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法的第三个参数，表示事件在捕获阶段还是冒泡阶段触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true:在捕获阶段触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于冒泡阶段和捕获阶段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false:(默认)在冒泡阶段触发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件捕获阶段：事件从最上一级标签开始往下查找，直到捕获到事件目标(target)。</t>
+  </si>
+  <si>
+    <t>事件冒泡阶段：事件从事件目标(target)开始，往上冒泡直到页面的最上一级标签。</t>
+  </si>
+  <si>
+    <t>备注:这说明事件是可以传播的，也可以阻止，当然，也不是所有的事件都能冒泡，比如load,unload,blur,focus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于阻止事件的传播，有很多版本，有时间再做整理，以下两张图，比较清晰说明事件的冒泡与捕获原理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数内部声明变量的时候，一定要使用var关键字.如果不用的话，你实际上声明了一个全局变量.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript组成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2 完成超链接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在使用Excel做文档的时候，新建一个sheet,我们可能会做同一个操作，那就是字体样式大小，内容的模版等等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能不能做个功能，比如一个按钮，点一下，这些相同的设置就完成了.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决办法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel的宏，能够想写程序一样，完成某些自定义的功能.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭包(Closure)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2165,221 +2355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>加载事件,如 &lt;body onload = "test()"&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>某些情况下,需要了解本机哪些端口被占用,以便某些应用使用为被占用的端口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决办法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lsof -i -P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>也可以加参数过滤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上命令可见端口6003,31732,8020,80,5037是被占用了的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lsof -n -P -i tcp -s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在终端输入一下命令:命令是以小写的"L"开头</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看端口的使用情况:lsof -i -P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果忘记了终端命令了怎么办?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在Mac OSX中一个工具名字叫做"网络使用工具", 该工具在比较新的版本中是被隐藏了的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在spotlight中搜索出来,有个"端口 "的TAB,可以检测端口的使用情况,不过利用可视化工具检测会比较缓慢,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能用命令的情况下,还是用命令,速度快多了.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jquery</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AJAX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>addEventListener(eventString,event,boolean)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;input id="dyBtn" type="button" value="dynamic button event" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;script&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>var btnObj = document.getElementById("dyBtn");</t>
-  </si>
-  <si>
-    <t>btnObj.addEventListener("click",dyBtnListener,true);</t>
-  </si>
-  <si>
-    <t>&lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>function dyBtnListener () {alert("button clicked!");}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>例如</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把函数单独写出来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>把函数内嵌在参数中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>btnObj.addEventListener("click",function(){alert("button clicked!")},true);</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>script的代码要写在元素的后面；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法的第二个参数写函数的名字，不要加括号，如果加了括号，则默认不点击也执行了。</t>
-  </si>
-  <si>
-    <t>http://www.runoob.com/jsref/dom-obj-event.html</t>
-  </si>
-  <si>
-    <t>如：鼠标的点击事件onClick,则用"click";双击事件ondblclick,则用"dblclick"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于第一个参数，是事件的名字,不要加上"on"前缀.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该事件是HTML DOM 事件，更多的事件说明,参考以下文档</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>方法的第三个参数，表示事件在捕获阶段还是冒泡阶段触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true:在捕获阶段触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于冒泡阶段和捕获阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>false:(默认)在冒泡阶段触发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件捕获阶段：事件从最上一级标签开始往下查找，直到捕获到事件目标(target)。</t>
-  </si>
-  <si>
-    <t>事件冒泡阶段：事件从事件目标(target)开始，往上冒泡直到页面的最上一级标签。</t>
-  </si>
-  <si>
-    <t>备注:这说明事件是可以传播的，也可以阻止，当然，也不是所有的事件都能冒泡，比如load,unload,blur,focus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于阻止事件的传播，有很多版本，有时间再做整理，以下两张图，比较清晰说明事件的冒泡与捕获原理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数内部声明变量的时候，一定要使用var关键字.如果不用的话，你实际上声明了一个全局变量.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript组成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-2 完成超链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在使用Excel做文档的时候，新建一个sheet,我们可能会做同一个操作，那就是字体样式大小，内容的模版等等</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>能不能做个功能，比如一个按钮，点一下，这些相同的设置就完成了.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决办法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Excel的宏，能够想写程序一样，完成某些自定义的功能.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>临时区域：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>闭包(Closure)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>onload()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;element onload="script"&gt;</t>
   </si>
   <si>
@@ -2388,30 +2363,6 @@
   </si>
   <si>
     <t>在body元素加入onload,那么在页面加载完了之后，就会执行showHello()函数.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>某个元素</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加载完成之后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>调用一段script代码</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2657,6 +2608,222 @@
   </si>
   <si>
     <t>通过git commit --amend  可以修改上一次的commit 信息,输入命令之后,进入的就是让你修改上一次提交的信息编辑界面!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plusready事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>此事件会在HTML5+应用的页面加载后自动触发，该事件触发后才能调用所有HTML5+ API.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以应该在此事件回调函数中调用页面初始化需要调用的HTML5+ API，而不应该在onload或DOMContentLoaded事件中调用.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function testObject () {</t>
+  </si>
+  <si>
+    <t>this.param = 1;</t>
+  </si>
+  <si>
+    <t>this.meth = function () {</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>var obj = new testObject();</t>
+  </si>
+  <si>
+    <t>alert("typeof obj:" + typeof(obj));</t>
+  </si>
+  <si>
+    <t>alert("obj.param:" + obj.param + "\n" + "obj.meth:" + obj.meth());</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;/script&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(function (p) {</t>
+  </si>
+  <si>
+    <t>p.setName = function(aName){</t>
+  </si>
+  <si>
+    <t>this.name = aName;</t>
+  </si>
+  <si>
+    <t>p.getName = function(){</t>
+  </si>
+  <si>
+    <t>return this.name;</t>
+  </si>
+  <si>
+    <t>})(person);</t>
+  </si>
+  <si>
+    <t>person.setName("samson");</t>
+  </si>
+  <si>
+    <t>alert("person's name:" + person.getName());</t>
+  </si>
+  <si>
+    <t>方式2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大括号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var animal = {</t>
+  </si>
+  <si>
+    <t>setName : function (aName) {</t>
+  </si>
+  <si>
+    <t>getName : function(){</t>
+  </si>
+  <si>
+    <t>animal.setName("Lion");</t>
+  </si>
+  <si>
+    <t>alert("animal's name:" + animal.getName());</t>
+  </si>
+  <si>
+    <t>扩展</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象中也可以构建对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(function(p){</t>
+  </si>
+  <si>
+    <t>p.friend = {</t>
+  </si>
+  <si>
+    <t>setName : function(aName){</t>
+  </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>person.friend.setName("Kate");</t>
+  </si>
+  <si>
+    <t>person.setName("Samson");</t>
+  </si>
+  <si>
+    <t>alert(person.getName() + "'s friend's name:" + person.friend.getName());</t>
+  </si>
+  <si>
+    <t>构建方式</t>
+  </si>
+  <si>
+    <t>构建方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>某个元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加载完成之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用一段script代码</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">}             // </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这里的逗号可有可无</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">           //</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 这个逗号不能少!</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>闭包(Closure)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通(function)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2965,7 +3132,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3082,6 +3249,17 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="35" applyFont="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -3512,13 +3690,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3550,13 +3728,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3576,6 +3754,158 @@
         <a:xfrm>
           <a:off x="8280400" y="20764500"/>
           <a:ext cx="3505200" cy="2540000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11201400" y="23990300"/>
+          <a:ext cx="5372100" cy="1930400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11684000" y="27470100"/>
+          <a:ext cx="5359400" cy="1955800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11722100" y="30695900"/>
+          <a:ext cx="5334000" cy="1905000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11747500" y="33883600"/>
+          <a:ext cx="5346700" cy="1943100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3911,7 +4241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -4129,7 +4459,7 @@
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -4208,12 +4538,12 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="38" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="38" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4221,17 +4551,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="38" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="38" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4240,6 +4570,59 @@
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回封面目录"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" activeCellId="1" sqref="D6 E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="44" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" s="38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="D6" s="38" t="s">
+        <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回封面目录"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4706,17 +5089,17 @@
         <v>167</v>
       </c>
       <c r="E114" s="8" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="115" spans="4:6">
       <c r="E115" s="8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="116" spans="4:6">
       <c r="E116" s="8" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="117" spans="4:6">
@@ -4728,7 +5111,7 @@
     <row r="118" spans="4:6">
       <c r="E118" s="47"/>
       <c r="F118" s="8" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="119" spans="4:6">
@@ -4736,7 +5119,7 @@
     </row>
     <row r="120" spans="4:6">
       <c r="E120" s="8" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="121" spans="4:6">
@@ -4749,7 +5132,7 @@
     </row>
     <row r="122" spans="4:6">
       <c r="E122" s="48" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F122" s="8" t="s">
         <v>168</v>
@@ -4781,7 +5164,7 @@
     </row>
     <row r="127" spans="4:6">
       <c r="E127" s="48" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="F127" s="8" t="s">
         <v>173</v>
@@ -4807,7 +5190,7 @@
     </row>
     <row r="131" spans="5:6">
       <c r="E131" s="48" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F131" s="8" t="s">
         <v>178</v>
@@ -4833,7 +5216,7 @@
     </row>
     <row r="135" spans="5:6">
       <c r="E135" s="48" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>182</v>
@@ -4865,10 +5248,10 @@
     </row>
     <row r="140" spans="5:6">
       <c r="E140" s="48" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" spans="5:6">
@@ -4879,12 +5262,12 @@
         <v>2</v>
       </c>
       <c r="F142" s="16" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="143" spans="5:6">
       <c r="E143" s="48" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="F143" s="8" t="s">
         <v>168</v>
@@ -4893,53 +5276,53 @@
     <row r="144" spans="5:6">
       <c r="E144" s="48"/>
       <c r="F144" s="8" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="E145" s="48"/>
       <c r="F145" s="8" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="E146" s="48" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F146" s="16" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="E147" s="48"/>
       <c r="F147" s="8" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="E148" s="48"/>
       <c r="F148" s="8" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="E149" s="48"/>
       <c r="F149" s="8" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="E150" s="48" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="E151" s="49"/>
       <c r="F151" s="8" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4947,17 +5330,17 @@
     </row>
     <row r="153" spans="1:6">
       <c r="E153" s="8" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="E154" s="49" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="E155" s="49" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5074,35 +5457,35 @@
         <v>268</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="D177" s="8" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="E178" s="8" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="E179" s="8" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="E180" s="8" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="E181" s="8" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6719,7 +7102,7 @@
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="2" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -6734,23 +7117,23 @@
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -7118,38 +7501,38 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -7157,25 +7540,25 @@
         <v>413</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="D68" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="D69" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="D70" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -7197,9 +7580,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R109"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -7207,415 +7590,1108 @@
     <col min="2" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:3">
       <c r="B3" s="38" t="s">
-        <v>496</v>
-      </c>
-      <c r="P3" s="38" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="C4" s="38" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q4" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:3">
       <c r="C5" s="38" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:3">
       <c r="C6" s="38" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="Q7" s="38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="R8" s="38" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="R9" s="38" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="C10" s="38" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="38" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="C9" s="60" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="38" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5">
+      <c r="D17" s="38" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5">
+      <c r="E18" s="46" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="38" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="E22" s="38" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="E24" s="38" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
-      <c r="D11" s="38" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="E12" s="46" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q12" s="38" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="D13" s="38" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="Q14" s="38" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="E16" s="38" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="E18" s="38" t="s">
+    <row r="25" spans="4:5">
+      <c r="E25" s="38" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5">
+      <c r="E26" s="38" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="E27" s="38" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
-      <c r="E19" s="38" t="s">
+    <row r="28" spans="4:5">
+      <c r="E28" s="38" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
-      <c r="E20" s="38" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="E21" s="38" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="E22" s="38" t="s">
+    <row r="30" spans="4:5">
+      <c r="D30" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="C33" s="38" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="3:5">
-      <c r="D24" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="38" t="s">
+    <row r="34" spans="1:5">
+      <c r="C34" s="38">
+        <v>1</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="E35" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="E36" s="38" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="28" spans="3:5">
-      <c r="C28" s="38">
+    <row r="37" spans="1:5">
+      <c r="E37" s="38" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="C39" s="38">
+        <v>2</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="E40" s="38" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="E41" s="38" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C44" s="38">
+        <v>3</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="D45" s="38" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="D46" s="38">
         <v>1</v>
       </c>
-      <c r="D28" s="38" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5">
-      <c r="E29" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5">
-      <c r="E30" s="38" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5">
-      <c r="E31" s="38" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="C33" s="38">
-        <v>2</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="E34" s="38" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="E35" s="38" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="41" t="s">
-        <v>475</v>
-      </c>
-      <c r="C38" s="38">
-        <v>3</v>
-      </c>
-      <c r="D38" s="46" t="s">
+      <c r="E46" s="38" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="E47" s="38" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="E48" s="38" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6">
+      <c r="F49" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="D39" s="38" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="D40" s="38">
-        <v>1</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="E41" s="38" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="E42" s="38" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="F43" s="38" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="F44" s="38" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="F45" s="38" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="E46" s="38" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="D48" s="38">
-        <v>2</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="49" spans="4:6">
-      <c r="E49" s="38" t="s">
-        <v>468</v>
-      </c>
-    </row>
     <row r="50" spans="4:6">
-      <c r="E50" s="38" t="s">
-        <v>469</v>
+      <c r="F50" s="38" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="51" spans="4:6">
       <c r="F51" s="38" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="52" spans="4:6">
-      <c r="F52" s="38" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="53" spans="4:6">
-      <c r="E53" s="38" t="s">
+      <c r="E52" s="38" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6">
+      <c r="D54" s="38">
+        <v>2</v>
+      </c>
+      <c r="E54" s="38" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="54" spans="4:6">
-      <c r="D54" s="38" t="s">
-        <v>474</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="55" spans="4:6">
       <c r="E55" s="38" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
     </row>
     <row r="56" spans="4:6">
-      <c r="F56" s="38" t="s">
-        <v>483</v>
+      <c r="E56" s="38" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6">
+      <c r="F57" s="38" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="4:6">
       <c r="F58" s="38" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="4:6">
-      <c r="F59" s="38" t="s">
-        <v>482</v>
+      <c r="E59" s="38" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6">
+      <c r="D60" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="4:6">
       <c r="E61" s="38" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="4:6">
-      <c r="E62" s="38" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="63" spans="4:6">
-      <c r="F63" s="38" t="s">
-        <v>489</v>
+      <c r="F62" s="38" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="F64" s="38" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6">
+      <c r="F65" s="38" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67" s="38" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6">
+      <c r="E68" s="38" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6">
+      <c r="F69" s="38" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6">
+      <c r="F70" s="38" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6">
+      <c r="F72" s="38" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6">
+      <c r="F73" s="38" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6">
+      <c r="F74" s="38" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6">
+      <c r="F76" s="38" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6">
+      <c r="F77" s="38" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="66" spans="6:6">
-      <c r="F66" s="38" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6">
-      <c r="F67" s="38" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6">
-      <c r="F68" s="38" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" s="38" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6">
-      <c r="F71" s="38" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="41" t="s">
-        <v>475</v>
-      </c>
-      <c r="C86" s="38">
+    <row r="92" spans="1:6">
+      <c r="A92" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="C92" s="38">
         <v>3</v>
       </c>
-      <c r="D86" s="38" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="D87" s="38">
-        <v>1</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="E88" s="38" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="E89" s="38" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="F90" s="38" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="F91" s="38" t="s">
-        <v>508</v>
+      <c r="D92" s="38" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="D93" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="E94" s="38" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="E95" s="38" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="F96" s="38" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5">
-      <c r="E97" s="38" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5">
-      <c r="C101" s="38" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5">
-      <c r="C108" s="38" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5">
-      <c r="D109" s="38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="3:6">
+      <c r="F97" s="38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="99" spans="3:6">
+      <c r="D99" s="38">
+        <v>2</v>
+      </c>
+      <c r="E99" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="E109" s="38" t="s">
+    </row>
+    <row r="100" spans="3:6">
+      <c r="E100" s="38" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="3:6">
+      <c r="E101" s="38" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="102" spans="3:6">
+      <c r="F102" s="38" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="103" spans="3:6">
+      <c r="E103" s="38" t="s">
         <v>511</v>
       </c>
+    </row>
+    <row r="106" spans="3:6">
+      <c r="C106" s="38" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="107" spans="3:6">
+      <c r="D107" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="110" spans="3:6">
+      <c r="C110" s="38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" spans="3:6">
+      <c r="D111" s="38" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="112" spans="3:6">
+      <c r="D112" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="113" spans="4:13">
+      <c r="E113" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="51"/>
+      <c r="M113" s="52"/>
+    </row>
+    <row r="114" spans="4:13">
+      <c r="E114" s="53"/>
+      <c r="F114" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="G114" s="54"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="54"/>
+      <c r="K114" s="54"/>
+      <c r="L114" s="54"/>
+      <c r="M114" s="55"/>
+    </row>
+    <row r="115" spans="4:13">
+      <c r="E115" s="53"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="H115" s="54"/>
+      <c r="I115" s="54"/>
+      <c r="J115" s="54"/>
+      <c r="K115" s="54"/>
+      <c r="L115" s="54"/>
+      <c r="M115" s="55"/>
+    </row>
+    <row r="116" spans="4:13">
+      <c r="E116" s="53"/>
+      <c r="F116" s="54"/>
+      <c r="G116" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="H116" s="54"/>
+      <c r="I116" s="54"/>
+      <c r="J116" s="54"/>
+      <c r="K116" s="54"/>
+      <c r="L116" s="54"/>
+      <c r="M116" s="55"/>
+    </row>
+    <row r="117" spans="4:13">
+      <c r="E117" s="53"/>
+      <c r="F117" s="54"/>
+      <c r="G117" s="54"/>
+      <c r="H117" s="54"/>
+      <c r="I117" s="54"/>
+      <c r="J117" s="54"/>
+      <c r="K117" s="54"/>
+      <c r="L117" s="54"/>
+      <c r="M117" s="55"/>
+    </row>
+    <row r="118" spans="4:13">
+      <c r="E118" s="53"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="54"/>
+      <c r="K118" s="54"/>
+      <c r="L118" s="54"/>
+      <c r="M118" s="55"/>
+    </row>
+    <row r="119" spans="4:13">
+      <c r="E119" s="53"/>
+      <c r="F119" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
+      <c r="L119" s="54"/>
+      <c r="M119" s="55"/>
+    </row>
+    <row r="120" spans="4:13">
+      <c r="E120" s="53"/>
+      <c r="F120" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="G120" s="54"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="54"/>
+      <c r="K120" s="54"/>
+      <c r="L120" s="54"/>
+      <c r="M120" s="55"/>
+    </row>
+    <row r="121" spans="4:13">
+      <c r="E121" s="53"/>
+      <c r="F121" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="G121" s="54"/>
+      <c r="H121" s="54"/>
+      <c r="I121" s="54"/>
+      <c r="J121" s="54"/>
+      <c r="K121" s="54"/>
+      <c r="L121" s="54"/>
+      <c r="M121" s="55"/>
+    </row>
+    <row r="122" spans="4:13">
+      <c r="E122" s="53"/>
+      <c r="F122" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="G122" s="54"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="54"/>
+      <c r="K122" s="54"/>
+      <c r="L122" s="54"/>
+      <c r="M122" s="55"/>
+    </row>
+    <row r="123" spans="4:13">
+      <c r="E123" s="53" t="s">
+        <v>562</v>
+      </c>
+      <c r="F123" s="54"/>
+      <c r="G123" s="54"/>
+      <c r="H123" s="54"/>
+      <c r="I123" s="54"/>
+      <c r="J123" s="54"/>
+      <c r="K123" s="54"/>
+      <c r="L123" s="54"/>
+      <c r="M123" s="55"/>
+    </row>
+    <row r="124" spans="4:13">
+      <c r="E124" s="56"/>
+      <c r="F124" s="57"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="57"/>
+      <c r="J124" s="57"/>
+      <c r="K124" s="57"/>
+      <c r="L124" s="57"/>
+      <c r="M124" s="58"/>
+    </row>
+    <row r="126" spans="4:13">
+      <c r="D126" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="E126" s="38" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="128" spans="4:13">
+      <c r="E128" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="F128" s="51"/>
+      <c r="G128" s="51"/>
+      <c r="H128" s="51"/>
+      <c r="I128" s="51"/>
+      <c r="J128" s="51"/>
+      <c r="K128" s="51"/>
+      <c r="L128" s="51"/>
+      <c r="M128" s="52"/>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="E129" s="53"/>
+      <c r="F129" s="54" t="s">
+        <v>563</v>
+      </c>
+      <c r="G129" s="54"/>
+      <c r="H129" s="54"/>
+      <c r="I129" s="54"/>
+      <c r="J129" s="54"/>
+      <c r="K129" s="54"/>
+      <c r="L129" s="54"/>
+      <c r="M129" s="55"/>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="E130" s="53"/>
+      <c r="F130" s="54"/>
+      <c r="G130" s="54" t="s">
+        <v>564</v>
+      </c>
+      <c r="H130" s="54"/>
+      <c r="I130" s="54"/>
+      <c r="J130" s="54"/>
+      <c r="K130" s="54"/>
+      <c r="L130" s="54"/>
+      <c r="M130" s="55"/>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="E131" s="53"/>
+      <c r="F131" s="54"/>
+      <c r="G131" s="54"/>
+      <c r="H131" s="54"/>
+      <c r="I131" s="54"/>
+      <c r="J131" s="54"/>
+      <c r="K131" s="54"/>
+      <c r="L131" s="54"/>
+      <c r="M131" s="55"/>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="E132" s="53"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="54" t="s">
+        <v>591</v>
+      </c>
+      <c r="H132" s="54"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="54"/>
+      <c r="L132" s="54"/>
+      <c r="M132" s="55"/>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="E133" s="53"/>
+      <c r="F133" s="54"/>
+      <c r="G133" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="H133" s="54"/>
+      <c r="I133" s="54"/>
+      <c r="J133" s="54"/>
+      <c r="K133" s="54"/>
+      <c r="L133" s="54"/>
+      <c r="M133" s="55"/>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="E134" s="53"/>
+      <c r="F134" s="54"/>
+      <c r="G134" s="54"/>
+      <c r="H134" s="54"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="54"/>
+      <c r="K134" s="54"/>
+      <c r="L134" s="54"/>
+      <c r="M134" s="55"/>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="E135" s="53"/>
+      <c r="F135" s="54"/>
+      <c r="G135" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="H135" s="54"/>
+      <c r="I135" s="54"/>
+      <c r="J135" s="54"/>
+      <c r="K135" s="54"/>
+      <c r="L135" s="54"/>
+      <c r="M135" s="55"/>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="E136" s="53"/>
+      <c r="F136" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="G136" s="54"/>
+      <c r="H136" s="54"/>
+      <c r="I136" s="54"/>
+      <c r="J136" s="54"/>
+      <c r="K136" s="54"/>
+      <c r="L136" s="54"/>
+      <c r="M136" s="55"/>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="E137" s="53"/>
+      <c r="F137" s="54" t="s">
+        <v>569</v>
+      </c>
+      <c r="G137" s="54"/>
+      <c r="H137" s="54"/>
+      <c r="I137" s="54"/>
+      <c r="J137" s="54"/>
+      <c r="K137" s="54"/>
+      <c r="L137" s="54"/>
+      <c r="M137" s="55"/>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="E138" s="53"/>
+      <c r="F138" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="G138" s="54"/>
+      <c r="H138" s="54"/>
+      <c r="I138" s="54"/>
+      <c r="J138" s="54"/>
+      <c r="K138" s="54"/>
+      <c r="L138" s="54"/>
+      <c r="M138" s="55"/>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="E139" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="F139" s="57"/>
+      <c r="G139" s="57"/>
+      <c r="H139" s="57"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="57"/>
+      <c r="K139" s="57"/>
+      <c r="L139" s="57"/>
+      <c r="M139" s="58"/>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="D141" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="E141" s="38" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="E143" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="F143" s="51"/>
+      <c r="G143" s="51"/>
+      <c r="H143" s="51"/>
+      <c r="I143" s="51"/>
+      <c r="J143" s="51"/>
+      <c r="K143" s="51"/>
+      <c r="L143" s="51"/>
+      <c r="M143" s="52"/>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="E144" s="53"/>
+      <c r="F144" s="54" t="s">
+        <v>573</v>
+      </c>
+      <c r="G144" s="54"/>
+      <c r="H144" s="54"/>
+      <c r="I144" s="54"/>
+      <c r="J144" s="54"/>
+      <c r="K144" s="54"/>
+      <c r="L144" s="54"/>
+      <c r="M144" s="55"/>
+    </row>
+    <row r="145" spans="4:14">
+      <c r="E145" s="53"/>
+      <c r="F145" s="54"/>
+      <c r="G145" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="H145" s="54"/>
+      <c r="I145" s="54"/>
+      <c r="J145" s="54"/>
+      <c r="K145" s="54"/>
+      <c r="L145" s="54"/>
+      <c r="M145" s="55"/>
+    </row>
+    <row r="146" spans="4:14">
+      <c r="E146" s="53"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="54"/>
+      <c r="H146" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="I146" s="54"/>
+      <c r="J146" s="54"/>
+      <c r="K146" s="54"/>
+      <c r="L146" s="54"/>
+      <c r="M146" s="55"/>
+    </row>
+    <row r="147" spans="4:14">
+      <c r="E147" s="53"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="54" t="s">
+        <v>592</v>
+      </c>
+      <c r="H147" s="59"/>
+      <c r="I147" s="54"/>
+      <c r="J147" s="54"/>
+      <c r="K147" s="54"/>
+      <c r="L147" s="54"/>
+      <c r="M147" s="55"/>
+    </row>
+    <row r="148" spans="4:14">
+      <c r="E148" s="53"/>
+      <c r="F148" s="54"/>
+      <c r="G148" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="H148" s="54"/>
+      <c r="I148" s="54"/>
+      <c r="J148" s="54"/>
+      <c r="K148" s="54"/>
+      <c r="L148" s="54"/>
+      <c r="M148" s="55"/>
+    </row>
+    <row r="149" spans="4:14">
+      <c r="E149" s="53"/>
+      <c r="F149" s="54"/>
+      <c r="G149" s="54"/>
+      <c r="H149" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="I149" s="54"/>
+      <c r="J149" s="54"/>
+      <c r="K149" s="54"/>
+      <c r="L149" s="54"/>
+      <c r="M149" s="55"/>
+    </row>
+    <row r="150" spans="4:14">
+      <c r="E150" s="53"/>
+      <c r="F150" s="54"/>
+      <c r="G150" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="H150" s="54"/>
+      <c r="I150" s="54"/>
+      <c r="J150" s="54"/>
+      <c r="K150" s="54"/>
+      <c r="L150" s="54"/>
+      <c r="M150" s="55"/>
+    </row>
+    <row r="151" spans="4:14">
+      <c r="E151" s="53"/>
+      <c r="F151" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="G151" s="54"/>
+      <c r="H151" s="54"/>
+      <c r="I151" s="54"/>
+      <c r="J151" s="54"/>
+      <c r="K151" s="54"/>
+      <c r="L151" s="54"/>
+      <c r="M151" s="55"/>
+    </row>
+    <row r="152" spans="4:14">
+      <c r="E152" s="53"/>
+      <c r="F152" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="G152" s="54"/>
+      <c r="H152" s="54"/>
+      <c r="I152" s="54"/>
+      <c r="J152" s="54"/>
+      <c r="K152" s="54"/>
+      <c r="L152" s="54"/>
+      <c r="M152" s="55"/>
+    </row>
+    <row r="153" spans="4:14">
+      <c r="E153" s="53"/>
+      <c r="F153" s="54" t="s">
+        <v>577</v>
+      </c>
+      <c r="G153" s="54"/>
+      <c r="H153" s="54"/>
+      <c r="I153" s="54"/>
+      <c r="J153" s="54"/>
+      <c r="K153" s="54"/>
+      <c r="L153" s="54"/>
+      <c r="M153" s="55"/>
+    </row>
+    <row r="154" spans="4:14">
+      <c r="E154" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="F154" s="57"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="57"/>
+      <c r="K154" s="57"/>
+      <c r="L154" s="57"/>
+      <c r="M154" s="58"/>
+    </row>
+    <row r="157" spans="4:14">
+      <c r="D157" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="E157" s="38" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="159" spans="4:14">
+      <c r="E159" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="F159" s="51"/>
+      <c r="G159" s="51"/>
+      <c r="H159" s="51"/>
+      <c r="I159" s="51"/>
+      <c r="J159" s="51"/>
+      <c r="K159" s="51"/>
+      <c r="L159" s="51"/>
+      <c r="M159" s="51"/>
+      <c r="N159" s="52"/>
+    </row>
+    <row r="160" spans="4:14">
+      <c r="E160" s="53"/>
+      <c r="F160" s="54" t="s">
+        <v>580</v>
+      </c>
+      <c r="G160" s="54"/>
+      <c r="H160" s="54"/>
+      <c r="I160" s="54"/>
+      <c r="J160" s="54"/>
+      <c r="K160" s="54"/>
+      <c r="L160" s="54"/>
+      <c r="M160" s="54"/>
+      <c r="N160" s="55"/>
+    </row>
+    <row r="161" spans="5:14">
+      <c r="E161" s="53"/>
+      <c r="F161" s="54"/>
+      <c r="G161" s="54" t="s">
+        <v>581</v>
+      </c>
+      <c r="H161" s="54"/>
+      <c r="I161" s="54"/>
+      <c r="J161" s="54"/>
+      <c r="K161" s="54"/>
+      <c r="L161" s="54"/>
+      <c r="M161" s="54"/>
+      <c r="N161" s="55"/>
+    </row>
+    <row r="162" spans="5:14">
+      <c r="E162" s="53"/>
+      <c r="F162" s="54"/>
+      <c r="G162" s="54"/>
+      <c r="H162" s="54" t="s">
+        <v>582</v>
+      </c>
+      <c r="I162" s="54"/>
+      <c r="J162" s="54"/>
+      <c r="K162" s="54"/>
+      <c r="L162" s="54"/>
+      <c r="M162" s="54"/>
+      <c r="N162" s="55"/>
+    </row>
+    <row r="163" spans="5:14">
+      <c r="E163" s="53"/>
+      <c r="F163" s="54"/>
+      <c r="G163" s="54"/>
+      <c r="H163" s="54"/>
+      <c r="I163" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="J163" s="54"/>
+      <c r="K163" s="54"/>
+      <c r="L163" s="54"/>
+      <c r="M163" s="54"/>
+      <c r="N163" s="55"/>
+    </row>
+    <row r="164" spans="5:14">
+      <c r="E164" s="53"/>
+      <c r="F164" s="54"/>
+      <c r="G164" s="54"/>
+      <c r="H164" s="54" t="s">
+        <v>583</v>
+      </c>
+      <c r="I164" s="54"/>
+      <c r="J164" s="54"/>
+      <c r="K164" s="54"/>
+      <c r="L164" s="54"/>
+      <c r="M164" s="54"/>
+      <c r="N164" s="55"/>
+    </row>
+    <row r="165" spans="5:14">
+      <c r="E165" s="53"/>
+      <c r="F165" s="54"/>
+      <c r="G165" s="54"/>
+      <c r="H165" s="54" t="s">
+        <v>575</v>
+      </c>
+      <c r="I165" s="54"/>
+      <c r="J165" s="54"/>
+      <c r="K165" s="54"/>
+      <c r="L165" s="54"/>
+      <c r="M165" s="54"/>
+      <c r="N165" s="55"/>
+    </row>
+    <row r="166" spans="5:14">
+      <c r="E166" s="53"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="54"/>
+      <c r="H166" s="54"/>
+      <c r="I166" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="J166" s="54"/>
+      <c r="K166" s="54"/>
+      <c r="L166" s="54"/>
+      <c r="M166" s="54"/>
+      <c r="N166" s="55"/>
+    </row>
+    <row r="167" spans="5:14">
+      <c r="E167" s="53"/>
+      <c r="F167" s="54"/>
+      <c r="G167" s="54"/>
+      <c r="H167" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="I167" s="54"/>
+      <c r="J167" s="54"/>
+      <c r="K167" s="54"/>
+      <c r="L167" s="54"/>
+      <c r="M167" s="54"/>
+      <c r="N167" s="55"/>
+    </row>
+    <row r="168" spans="5:14">
+      <c r="E168" s="53"/>
+      <c r="F168" s="54"/>
+      <c r="G168" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="H168" s="54"/>
+      <c r="I168" s="54"/>
+      <c r="J168" s="54"/>
+      <c r="K168" s="54"/>
+      <c r="L168" s="54"/>
+      <c r="M168" s="54"/>
+      <c r="N168" s="55"/>
+    </row>
+    <row r="169" spans="5:14">
+      <c r="E169" s="53"/>
+      <c r="F169" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="G169" s="54"/>
+      <c r="H169" s="54"/>
+      <c r="I169" s="54"/>
+      <c r="J169" s="54"/>
+      <c r="K169" s="54"/>
+      <c r="L169" s="54"/>
+      <c r="M169" s="54"/>
+      <c r="N169" s="55"/>
+    </row>
+    <row r="170" spans="5:14">
+      <c r="E170" s="53"/>
+      <c r="F170" s="54" t="s">
+        <v>585</v>
+      </c>
+      <c r="G170" s="54"/>
+      <c r="H170" s="54"/>
+      <c r="I170" s="54"/>
+      <c r="J170" s="54"/>
+      <c r="K170" s="54"/>
+      <c r="L170" s="54"/>
+      <c r="M170" s="54"/>
+      <c r="N170" s="55"/>
+    </row>
+    <row r="171" spans="5:14">
+      <c r="E171" s="53"/>
+      <c r="F171" s="54" t="s">
+        <v>584</v>
+      </c>
+      <c r="G171" s="54"/>
+      <c r="H171" s="54"/>
+      <c r="I171" s="54"/>
+      <c r="J171" s="54"/>
+      <c r="K171" s="54"/>
+      <c r="L171" s="54"/>
+      <c r="M171" s="54"/>
+      <c r="N171" s="55"/>
+    </row>
+    <row r="172" spans="5:14">
+      <c r="E172" s="53"/>
+      <c r="F172" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="G172" s="54"/>
+      <c r="H172" s="54"/>
+      <c r="I172" s="54"/>
+      <c r="J172" s="54"/>
+      <c r="K172" s="54"/>
+      <c r="L172" s="54"/>
+      <c r="M172" s="54"/>
+      <c r="N172" s="55"/>
+    </row>
+    <row r="173" spans="5:14">
+      <c r="E173" s="56" t="s">
+        <v>562</v>
+      </c>
+      <c r="F173" s="57"/>
+      <c r="G173" s="57"/>
+      <c r="H173" s="57"/>
+      <c r="I173" s="57"/>
+      <c r="J173" s="57"/>
+      <c r="K173" s="57"/>
+      <c r="L173" s="57"/>
+      <c r="M173" s="57"/>
+      <c r="N173" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
-    <hyperlink ref="A86" location="JavaScript!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A38" location="JavaScript!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A92" location="JavaScript!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A44" location="JavaScript!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="C9" location="内容.JavaScript对象构建方式" tooltip="JavaScript对象构建方式" display="构建方式"/>
+    <hyperlink ref="A141" location="JavaScript!A1" tooltip="返回" display="top"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="0" windowWidth="27860" windowHeight="19020" tabRatio="627" activeTab="8"/>
+    <workbookView xWindow="2540" yWindow="40" windowWidth="27860" windowHeight="19020" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,21 @@
     <sheet name="Hybrid" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_.gitignore">Git的使用!$D$312</definedName>
+    <definedName name="_.gitignore">Git的使用!$D$323</definedName>
     <definedName name="git_add">Git的使用!$D$32</definedName>
-    <definedName name="git_clone">Git的使用!$D$184</definedName>
+    <definedName name="git_clone">Git的使用!$D$195</definedName>
     <definedName name="git_commit">Git的使用!$D$53</definedName>
-    <definedName name="git_config">Git的使用!$D$333</definedName>
+    <definedName name="git_config">Git的使用!$D$344</definedName>
     <definedName name="git_diff">Git的使用!$D$102</definedName>
-    <definedName name="git_fetch">Git的使用!$D$209</definedName>
-    <definedName name="git_pull">Git的使用!$D$265</definedName>
-    <definedName name="git_push">Git的使用!$D$222</definedName>
-    <definedName name="git_remote">Git的使用!$D$195</definedName>
-    <definedName name="git_rm">Git的使用!$D$157</definedName>
-    <definedName name="内容.Git_分支管理">Git的使用!$C$351</definedName>
+    <definedName name="git_fetch">Git的使用!$D$220</definedName>
+    <definedName name="git_pull">Git的使用!$D$276</definedName>
+    <definedName name="git_push">Git的使用!$D$233</definedName>
+    <definedName name="git_remote">Git的使用!$D$206</definedName>
+    <definedName name="git_rm">Git的使用!$D$168</definedName>
+    <definedName name="内容.Git_分支管理">Git的使用!$C$362</definedName>
     <definedName name="内容.Git_管理本地仓库">Git的使用!$C$31</definedName>
-    <definedName name="内容.Git_配置">Git的使用!$C$311</definedName>
-    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$183</definedName>
+    <definedName name="内容.Git_配置">Git的使用!$C$322</definedName>
+    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$194</definedName>
     <definedName name="内容.JavaScript对象构建方式">JavaScript!$D$111</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="602">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -669,10 +669,6 @@
   </si>
   <si>
     <t>git diff HEAD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对比worksapce与最近一次commit的差别</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2824,6 +2820,37 @@
   </si>
   <si>
     <t>普通(function)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比worksapce与最近一次commit的差别,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即如果你workspace中所有的修改都commit了,那么这个命令是不会显示有任何差分的</t>
+  </si>
+  <si>
+    <t>即如果你修改了workspace中的文件，但是没有add进入暂存区，那么这个就有差分.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>即如果你修改了workspace中的文件，也add进了暂存区,但是没有commit，那么这个是有差分的.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比local repo master分支与workspace的差分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff master origin/master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比local repo的master分支与远程主机的master分支的差分</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3366,13 +3393,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>282</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>309</xdr:row>
+      <xdr:row>320</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4241,7 +4268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -4261,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -4274,7 +4301,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -4315,7 +4342,7 @@
     </row>
     <row r="17" spans="3:4" s="8" customFormat="1">
       <c r="C17" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="3:4" s="8" customFormat="1">
@@ -4327,7 +4354,7 @@
     <row r="19" spans="3:4" s="8" customFormat="1">
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="3:4" s="8" customFormat="1">
@@ -4339,7 +4366,7 @@
     <row r="21" spans="3:4" s="8" customFormat="1">
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="3:4" s="8" customFormat="1">
@@ -4347,60 +4374,60 @@
     </row>
     <row r="23" spans="3:4" s="8" customFormat="1">
       <c r="C23" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="3:4" s="8" customFormat="1">
       <c r="C24" s="13"/>
       <c r="D24" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="25" spans="3:4" s="8" customFormat="1">
       <c r="C25" s="13"/>
       <c r="D25" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="3:4" s="8" customFormat="1">
       <c r="C26" s="13"/>
       <c r="D26" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="3:4" s="8" customFormat="1">
       <c r="C27" s="13"/>
       <c r="D27" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="3:4" s="8" customFormat="1">
       <c r="C28" s="13"/>
       <c r="D28" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="3:4" s="8" customFormat="1">
       <c r="C29" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="3:4" s="8" customFormat="1">
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="3:4" s="8" customFormat="1">
       <c r="C31" s="6"/>
       <c r="D31" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="32" spans="3:4" s="8" customFormat="1">
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -4413,7 +4440,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="D35" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -4421,22 +4448,22 @@
         <v>4</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="D39" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -4444,22 +4471,22 @@
         <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -4487,12 +4514,12 @@
     </row>
     <row r="54" spans="2:4">
       <c r="D54" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="D55" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4533,17 +4560,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4551,17 +4578,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="38" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -4595,25 +4622,25 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>550</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="D6" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4633,7 +4660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N351"/>
+  <dimension ref="A1:N362"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4650,7 +4677,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4659,19 +4686,19 @@
     </row>
     <row r="3" spans="1:3" outlineLevel="1">
       <c r="B3" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" outlineLevel="1">
       <c r="B4" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" outlineLevel="1">
       <c r="B5" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -4681,32 +4708,32 @@
     </row>
     <row r="7" spans="1:3" outlineLevel="1">
       <c r="B7" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" outlineLevel="1">
       <c r="B8" s="1"/>
       <c r="C8" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3" outlineLevel="1">
       <c r="B9" s="1"/>
       <c r="C9" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:3" outlineLevel="1">
       <c r="B10" s="1"/>
       <c r="C10" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:3" outlineLevel="1">
       <c r="B11" s="1"/>
       <c r="C11" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:3" outlineLevel="1">
@@ -4715,66 +4742,66 @@
     </row>
     <row r="13" spans="1:3" outlineLevel="1">
       <c r="B13" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" outlineLevel="1">
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:3" outlineLevel="1">
       <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:3" outlineLevel="1">
       <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:4" outlineLevel="1">
       <c r="B17" s="13"/>
       <c r="C17" s="11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:4" outlineLevel="1">
       <c r="B18" s="13"/>
       <c r="C18" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:4" outlineLevel="1">
       <c r="B19" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:4" outlineLevel="1">
       <c r="B20" s="7"/>
       <c r="C20" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:4" outlineLevel="1">
       <c r="C21" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:4" outlineLevel="1">
       <c r="C22" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:4" outlineLevel="1"/>
     <row r="24" spans="1:4" outlineLevel="1">
       <c r="B24" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:4" outlineLevel="1">
@@ -4797,13 +4824,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B31" s="6">
         <v>1</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4819,7 +4846,7 @@
         <v>118</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="4:5">
@@ -4855,7 +4882,7 @@
     </row>
     <row r="39" spans="4:5">
       <c r="D39" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>126</v>
@@ -4863,32 +4890,32 @@
     </row>
     <row r="40" spans="4:5">
       <c r="E40" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="E42" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="E43" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="4:5">
       <c r="E44" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46" spans="4:5">
       <c r="E46" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="4:5">
       <c r="E47" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4906,7 +4933,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>135</v>
@@ -4928,78 +4955,78 @@
         <v>119</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="E56" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="D58" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="E59" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="E60" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="E61" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="E62" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="E63" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="E64" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="4:13">
       <c r="D66" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="67" spans="4:13">
       <c r="E67" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="4:13">
       <c r="E68" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="4:13">
       <c r="E69" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="4:13">
       <c r="E70" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="4:13">
@@ -5012,10 +5039,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>158</v>
@@ -5038,1357 +5065,1410 @@
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="E105" s="40">
+      <c r="E105" s="9">
         <v>1</v>
       </c>
       <c r="F105" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="E106" s="9"/>
+      <c r="F106" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="E107" s="9"/>
+      <c r="F107" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="E109" s="9">
+        <v>2</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="E110" s="9"/>
+      <c r="F110" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="E111" s="9"/>
+      <c r="F111" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="4:6">
+      <c r="E113" s="9">
+        <v>3</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6">
+      <c r="E114" s="9"/>
+      <c r="F114" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6">
+      <c r="E115" s="9"/>
+      <c r="F115" s="8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6">
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117" spans="4:6">
+      <c r="E117" s="9">
+        <v>4</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6">
+      <c r="E118" s="9"/>
+      <c r="F118" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6">
+      <c r="E121" s="9">
+        <v>5</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6">
+      <c r="E122" s="9"/>
+      <c r="F122" s="8" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6">
+      <c r="E123" s="9"/>
+    </row>
+    <row r="125" spans="4:6">
+      <c r="D125" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6">
+      <c r="E126" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6">
+      <c r="E127" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6">
+      <c r="E128" s="47"/>
+      <c r="F128" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6">
+      <c r="E129" s="47"/>
+      <c r="F129" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6">
+      <c r="E130" s="47"/>
+    </row>
+    <row r="131" spans="5:6">
+      <c r="E131" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6">
+      <c r="E132" s="47">
+        <v>1</v>
+      </c>
+      <c r="F132" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
-      <c r="E106" s="40"/>
-      <c r="F106" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="E107" s="40"/>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="E108" s="40">
-        <v>2</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="E109" s="40"/>
-      <c r="F109" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="E110" s="40"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="E111" s="40">
-        <v>3</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="F112" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6">
-      <c r="D114" s="8" t="s">
+    <row r="133" spans="5:6">
+      <c r="E133" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="F133" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6">
-      <c r="E115" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6">
-      <c r="E116" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="117" spans="4:6">
-      <c r="E117" s="47"/>
-      <c r="F117" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6">
-      <c r="E118" s="47"/>
-      <c r="F118" s="8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="119" spans="4:6">
-      <c r="E119" s="47"/>
-    </row>
-    <row r="120" spans="4:6">
-      <c r="E120" s="8" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6">
-      <c r="E121" s="47">
-        <v>1</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6">
-      <c r="E122" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6">
-      <c r="E123" s="48"/>
-      <c r="F123" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="124" spans="4:6">
-      <c r="E124" s="48"/>
-      <c r="F124" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="125" spans="4:6">
-      <c r="E125" s="48"/>
-      <c r="F125" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6">
-      <c r="E126" s="48"/>
-      <c r="F126" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6">
-      <c r="E127" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6">
-      <c r="E128" s="48"/>
-      <c r="F128" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="129" spans="5:6">
-      <c r="E129" s="48"/>
-      <c r="F129" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="130" spans="5:6">
-      <c r="E130" s="48"/>
-      <c r="F130" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="131" spans="5:6">
-      <c r="E131" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="5:6">
-      <c r="E132" s="48"/>
-      <c r="F132" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="5:6">
-      <c r="E133" s="48"/>
-      <c r="F133" s="8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="134" spans="5:6">
       <c r="E134" s="48"/>
       <c r="F134" s="8" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135" spans="5:6">
-      <c r="E135" s="48" t="s">
-        <v>524</v>
-      </c>
+      <c r="E135" s="48"/>
       <c r="F135" s="8" t="s">
-        <v>182</v>
+        <v>357</v>
       </c>
     </row>
     <row r="136" spans="5:6">
-      <c r="E136" s="49"/>
+      <c r="E136" s="48"/>
       <c r="F136" s="8" t="s">
-        <v>179</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137" spans="5:6">
-      <c r="E137" s="49"/>
+      <c r="E137" s="48"/>
       <c r="F137" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="138" spans="5:6">
-      <c r="E138" s="49"/>
+      <c r="E138" s="48" t="s">
+        <v>521</v>
+      </c>
       <c r="F138" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139" spans="5:6">
-      <c r="E139" s="49"/>
+      <c r="E139" s="48"/>
       <c r="F139" s="8" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="5:6">
-      <c r="E140" s="48" t="s">
-        <v>537</v>
-      </c>
+      <c r="E140" s="48"/>
       <c r="F140" s="8" t="s">
-        <v>538</v>
+        <v>174</v>
       </c>
     </row>
     <row r="141" spans="5:6">
-      <c r="E141" s="49"/>
+      <c r="E141" s="48"/>
+      <c r="F141" s="8" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="142" spans="5:6">
-      <c r="E142" s="47">
-        <v>2</v>
-      </c>
-      <c r="F142" s="16" t="s">
-        <v>525</v>
+      <c r="E142" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="143" spans="5:6">
-      <c r="E143" s="48" t="s">
-        <v>526</v>
-      </c>
+      <c r="E143" s="48"/>
       <c r="F143" s="8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="144" spans="5:6">
       <c r="E144" s="48"/>
       <c r="F144" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6">
       <c r="E145" s="48"/>
       <c r="F145" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6">
+      <c r="E146" s="48" t="s">
+        <v>523</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6">
+      <c r="E147" s="49"/>
+      <c r="F147" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6">
+      <c r="E148" s="49"/>
+      <c r="F148" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6">
+      <c r="E149" s="49"/>
+      <c r="F149" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6">
+      <c r="E150" s="49"/>
+      <c r="F150" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6">
+      <c r="E151" s="48" t="s">
+        <v>536</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6">
+      <c r="E152" s="49"/>
+    </row>
+    <row r="153" spans="5:6">
+      <c r="E153" s="47">
+        <v>2</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6">
+      <c r="E154" s="48" t="s">
+        <v>525</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6">
+      <c r="E155" s="48"/>
+      <c r="F155" s="8" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6">
+      <c r="E156" s="48"/>
+      <c r="F156" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6">
+      <c r="E157" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="158" spans="5:6">
+      <c r="E158" s="48"/>
+      <c r="F158" s="8" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
-      <c r="E146" s="48" t="s">
+    <row r="159" spans="5:6">
+      <c r="E159" s="48"/>
+      <c r="F159" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="160" spans="5:6">
+      <c r="E160" s="48"/>
+      <c r="F160" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="E161" s="48" t="s">
         <v>533</v>
       </c>
-      <c r="F146" s="16" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="E147" s="48"/>
-      <c r="F147" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="E148" s="48"/>
-      <c r="F148" s="8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="E149" s="48"/>
-      <c r="F149" s="8" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="E150" s="48" t="s">
+      <c r="F161" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="F150" s="16" t="s">
+    </row>
+    <row r="162" spans="1:6">
+      <c r="E162" s="49"/>
+      <c r="F162" s="8" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
-      <c r="E151" s="49"/>
-      <c r="F151" s="8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="E152" s="49"/>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="E153" s="8" t="s">
+    <row r="163" spans="1:6">
+      <c r="E163" s="49"/>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="E164" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="E165" s="49" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
-      <c r="E154" s="49" t="s">
+    <row r="166" spans="1:6">
+      <c r="E166" s="49" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="E155" s="49" t="s">
+    <row r="168" spans="1:6">
+      <c r="A168" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="D169" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="D170" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="D171" s="47">
+        <v>1</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="D172" s="47"/>
+      <c r="E172" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="D173" s="47"/>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="D174" s="47">
+        <v>2</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="D175" s="47"/>
+      <c r="E175" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="D176" s="47"/>
+      <c r="E176" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="177" spans="3:5">
+      <c r="D177" s="47"/>
+    </row>
+    <row r="178" spans="3:5">
+      <c r="D178" s="47">
+        <v>3</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="179" spans="3:5">
+      <c r="D179" s="47"/>
+      <c r="E179" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="180" spans="3:5">
+      <c r="D180" s="47"/>
+      <c r="E180" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="181" spans="3:5">
+      <c r="D181" s="47"/>
+      <c r="E181" s="8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182" spans="3:5">
+      <c r="D182" s="47"/>
+      <c r="E182" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="183" spans="3:5">
+      <c r="E183" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="185" spans="3:5">
+      <c r="D185" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="187" spans="3:5">
+      <c r="C187" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D187" s="8" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D157" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="D158" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E158" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="D159" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="D160" s="47">
-        <v>1</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5">
-      <c r="D161" s="47"/>
-      <c r="E161" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="162" spans="3:5">
-      <c r="D162" s="47"/>
-    </row>
-    <row r="163" spans="3:5">
-      <c r="D163" s="47">
+    <row r="188" spans="3:5">
+      <c r="D188" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="189" spans="3:5">
+      <c r="E189" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="190" spans="3:5">
+      <c r="E190" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="191" spans="3:5">
+      <c r="E191" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="192" spans="3:5">
+      <c r="E192" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="B194" s="6">
         <v>2</v>
       </c>
-      <c r="E163" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="164" spans="3:5">
-      <c r="D164" s="47"/>
-      <c r="E164" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="165" spans="3:5">
-      <c r="D165" s="47"/>
-      <c r="E165" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="166" spans="3:5">
-      <c r="D166" s="47"/>
-    </row>
-    <row r="167" spans="3:5">
-      <c r="D167" s="47">
-        <v>3</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="168" spans="3:5">
-      <c r="D168" s="47"/>
-      <c r="E168" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="169" spans="3:5">
-      <c r="D169" s="47"/>
-      <c r="E169" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="170" spans="3:5">
-      <c r="D170" s="47"/>
-      <c r="E170" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="171" spans="3:5">
-      <c r="D171" s="47"/>
-      <c r="E171" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="172" spans="3:5">
-      <c r="E172" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="174" spans="3:5">
-      <c r="D174" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="176" spans="3:5">
-      <c r="C176" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
-      <c r="D177" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
-      <c r="E178" s="8" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="E179" s="8" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
-      <c r="E180" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="E181" s="8" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="B183" s="6">
-        <v>2</v>
-      </c>
-      <c r="C183" s="18" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="C184" s="7" t="s">
+      <c r="C194" s="18" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="C195" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D195" s="8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="D197" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="D198" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="D199" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="E200" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="E202" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="E203" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="E204" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="C206" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D206" s="8" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
-      <c r="D186" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="D187" s="8" t="s">
+    <row r="208" spans="1:5">
+      <c r="D208" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E208" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="D209" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="E210" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F210" s="20"/>
+      <c r="G210" s="20"/>
+      <c r="H210" s="20"/>
+      <c r="I210" s="20"/>
+      <c r="J210" s="20"/>
+      <c r="K210" s="20"/>
+      <c r="L210" s="21"/>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="E211" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F211" s="23"/>
+      <c r="G211" s="23"/>
+      <c r="H211" s="23"/>
+      <c r="I211" s="23"/>
+      <c r="J211" s="23"/>
+      <c r="K211" s="23"/>
+      <c r="L211" s="24"/>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="E212" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F212" s="23"/>
+      <c r="G212" s="23"/>
+      <c r="H212" s="23"/>
+      <c r="I212" s="23"/>
+      <c r="J212" s="23"/>
+      <c r="K212" s="23"/>
+      <c r="L212" s="24"/>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="E213" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F213" s="26"/>
+      <c r="G213" s="26"/>
+      <c r="H213" s="26"/>
+      <c r="I213" s="26"/>
+      <c r="J213" s="26"/>
+      <c r="K213" s="26"/>
+      <c r="L213" s="27"/>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="E215" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="E216" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F216" s="20"/>
+      <c r="G216" s="20"/>
+      <c r="H216" s="20"/>
+      <c r="I216" s="20"/>
+      <c r="J216" s="20"/>
+      <c r="K216" s="20"/>
+      <c r="L216" s="21"/>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="E217" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F217" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="G217" s="23"/>
+      <c r="H217" s="23"/>
+      <c r="I217" s="23"/>
+      <c r="J217" s="23"/>
+      <c r="K217" s="23"/>
+      <c r="L217" s="24"/>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="E218" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F218" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="G218" s="26"/>
+      <c r="H218" s="26"/>
+      <c r="I218" s="26"/>
+      <c r="J218" s="26"/>
+      <c r="K218" s="26"/>
+      <c r="L218" s="27"/>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="D222" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E222" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="D223" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E187" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="D188" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="E189" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
-      <c r="E191" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
-      <c r="E192" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="193" spans="3:12">
-      <c r="E193" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="195" spans="3:12">
-      <c r="C195" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="197" spans="3:12">
-      <c r="D197" s="8" t="s">
+      <c r="E223" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="E224" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="D225" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="E226" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="E227" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="E228" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="E229" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="E230" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="E231" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="D235" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E197" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="198" spans="3:12">
-      <c r="D198" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="199" spans="3:12">
-      <c r="E199" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F199" s="20"/>
-      <c r="G199" s="20"/>
-      <c r="H199" s="20"/>
-      <c r="I199" s="20"/>
-      <c r="J199" s="20"/>
-      <c r="K199" s="20"/>
-      <c r="L199" s="21"/>
-    </row>
-    <row r="200" spans="3:12">
-      <c r="E200" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F200" s="23"/>
-      <c r="G200" s="23"/>
-      <c r="H200" s="23"/>
-      <c r="I200" s="23"/>
-      <c r="J200" s="23"/>
-      <c r="K200" s="23"/>
-      <c r="L200" s="24"/>
-    </row>
-    <row r="201" spans="3:12">
-      <c r="E201" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F201" s="23"/>
-      <c r="G201" s="23"/>
-      <c r="H201" s="23"/>
-      <c r="I201" s="23"/>
-      <c r="J201" s="23"/>
-      <c r="K201" s="23"/>
-      <c r="L201" s="24"/>
-    </row>
-    <row r="202" spans="3:12">
-      <c r="E202" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F202" s="26"/>
-      <c r="G202" s="26"/>
-      <c r="H202" s="26"/>
-      <c r="I202" s="26"/>
-      <c r="J202" s="26"/>
-      <c r="K202" s="26"/>
-      <c r="L202" s="27"/>
-    </row>
-    <row r="204" spans="3:12">
-      <c r="E204" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="205" spans="3:12">
-      <c r="E205" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F205" s="20"/>
-      <c r="G205" s="20"/>
-      <c r="H205" s="20"/>
-      <c r="I205" s="20"/>
-      <c r="J205" s="20"/>
-      <c r="K205" s="20"/>
-      <c r="L205" s="21"/>
-    </row>
-    <row r="206" spans="3:12">
-      <c r="E206" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F206" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="G206" s="23"/>
-      <c r="H206" s="23"/>
-      <c r="I206" s="23"/>
-      <c r="J206" s="23"/>
-      <c r="K206" s="23"/>
-      <c r="L206" s="24"/>
-    </row>
-    <row r="207" spans="3:12">
-      <c r="E207" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F207" s="26" t="s">
+      <c r="E235" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="D236" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="D237" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="E238" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="E239" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="4:14">
+      <c r="D242" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="243" spans="4:14">
+      <c r="E243" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="G207" s="26"/>
-      <c r="H207" s="26"/>
-      <c r="I207" s="26"/>
-      <c r="J207" s="26"/>
-      <c r="K207" s="26"/>
-      <c r="L207" s="27"/>
-    </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="C209" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D209" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
-      <c r="D211" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E211" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
-      <c r="D212" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E212" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
-      <c r="E213" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
-      <c r="D214" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E214" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="E215" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
-      <c r="E216" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="E217" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="E218" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="E219" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
-      <c r="E220" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="C222" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D222" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="D224" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E224" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="225" spans="4:14">
-      <c r="D225" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E225" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="226" spans="4:14">
-      <c r="D226" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E226" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="227" spans="4:14">
-      <c r="E227" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="228" spans="4:14">
-      <c r="E228" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="231" spans="4:14">
-      <c r="D231" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E231" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="232" spans="4:14">
-      <c r="E232" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="233" spans="4:14">
-      <c r="E233" s="19" t="s">
+    </row>
+    <row r="244" spans="4:14">
+      <c r="E244" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F233" s="20"/>
-      <c r="G233" s="20"/>
-      <c r="H233" s="20"/>
-      <c r="I233" s="20"/>
-      <c r="J233" s="20"/>
-      <c r="K233" s="20"/>
-      <c r="L233" s="20"/>
-      <c r="M233" s="20"/>
-      <c r="N233" s="21"/>
-    </row>
-    <row r="234" spans="4:14">
-      <c r="E234" s="22" t="s">
+      <c r="F244" s="20"/>
+      <c r="G244" s="20"/>
+      <c r="H244" s="20"/>
+      <c r="I244" s="20"/>
+      <c r="J244" s="20"/>
+      <c r="K244" s="20"/>
+      <c r="L244" s="20"/>
+      <c r="M244" s="20"/>
+      <c r="N244" s="21"/>
+    </row>
+    <row r="245" spans="4:14">
+      <c r="E245" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="F234" s="23"/>
-      <c r="G234" s="23"/>
-      <c r="H234" s="23"/>
-      <c r="I234" s="23"/>
-      <c r="J234" s="23"/>
-      <c r="K234" s="23"/>
-      <c r="L234" s="23"/>
-      <c r="M234" s="23"/>
-      <c r="N234" s="24"/>
-    </row>
-    <row r="235" spans="4:14">
-      <c r="E235" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F235" s="23"/>
-      <c r="G235" s="23"/>
-      <c r="H235" s="23"/>
-      <c r="I235" s="23"/>
-      <c r="J235" s="23"/>
-      <c r="K235" s="23"/>
-      <c r="L235" s="23"/>
-      <c r="M235" s="23"/>
-      <c r="N235" s="24"/>
-    </row>
-    <row r="236" spans="4:14">
-      <c r="E236" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F236" s="23"/>
-      <c r="G236" s="23"/>
-      <c r="H236" s="23"/>
-      <c r="I236" s="23"/>
-      <c r="J236" s="23"/>
-      <c r="K236" s="23"/>
-      <c r="L236" s="23"/>
-      <c r="M236" s="23"/>
-      <c r="N236" s="24"/>
-    </row>
-    <row r="237" spans="4:14">
-      <c r="E237" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F237" s="23"/>
-      <c r="G237" s="23"/>
-      <c r="H237" s="23"/>
-      <c r="I237" s="23"/>
-      <c r="J237" s="23"/>
-      <c r="K237" s="23"/>
-      <c r="L237" s="23"/>
-      <c r="M237" s="23"/>
-      <c r="N237" s="24"/>
-    </row>
-    <row r="238" spans="4:14">
-      <c r="E238" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F238" s="23"/>
-      <c r="G238" s="23"/>
-      <c r="H238" s="23"/>
-      <c r="I238" s="23"/>
-      <c r="J238" s="23"/>
-      <c r="K238" s="23"/>
-      <c r="L238" s="23"/>
-      <c r="M238" s="23"/>
-      <c r="N238" s="24"/>
-    </row>
-    <row r="239" spans="4:14">
-      <c r="E239" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F239" s="23"/>
-      <c r="G239" s="23"/>
-      <c r="H239" s="23"/>
-      <c r="I239" s="23"/>
-      <c r="J239" s="23"/>
-      <c r="K239" s="23"/>
-      <c r="L239" s="23"/>
-      <c r="M239" s="23"/>
-      <c r="N239" s="24"/>
-    </row>
-    <row r="240" spans="4:14">
-      <c r="E240" s="22"/>
-      <c r="F240" s="23"/>
-      <c r="G240" s="23"/>
-      <c r="H240" s="23"/>
-      <c r="I240" s="23"/>
-      <c r="J240" s="23"/>
-      <c r="K240" s="23"/>
-      <c r="L240" s="23"/>
-      <c r="M240" s="23"/>
-      <c r="N240" s="24"/>
-    </row>
-    <row r="241" spans="5:14">
-      <c r="E241" s="22"/>
-      <c r="F241" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G241" s="23"/>
-      <c r="H241" s="23"/>
-      <c r="I241" s="23"/>
-      <c r="J241" s="23"/>
-      <c r="K241" s="23"/>
-      <c r="L241" s="23"/>
-      <c r="M241" s="23"/>
-      <c r="N241" s="24"/>
-    </row>
-    <row r="242" spans="5:14">
-      <c r="E242" s="22"/>
-      <c r="F242" s="23"/>
-      <c r="G242" s="23"/>
-      <c r="H242" s="23"/>
-      <c r="I242" s="23"/>
-      <c r="J242" s="23"/>
-      <c r="K242" s="23"/>
-      <c r="L242" s="23"/>
-      <c r="M242" s="23"/>
-      <c r="N242" s="24"/>
-    </row>
-    <row r="243" spans="5:14">
-      <c r="E243" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F243" s="23"/>
-      <c r="G243" s="23"/>
-      <c r="H243" s="23"/>
-      <c r="I243" s="23"/>
-      <c r="J243" s="23"/>
-      <c r="K243" s="23"/>
-      <c r="L243" s="23"/>
-      <c r="M243" s="23"/>
-      <c r="N243" s="24"/>
-    </row>
-    <row r="244" spans="5:14">
-      <c r="E244" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="F244" s="23"/>
-      <c r="G244" s="23"/>
-      <c r="H244" s="23"/>
-      <c r="I244" s="23"/>
-      <c r="J244" s="23"/>
-      <c r="K244" s="23"/>
-      <c r="L244" s="23"/>
-      <c r="M244" s="23"/>
-      <c r="N244" s="24"/>
-    </row>
-    <row r="245" spans="5:14">
-      <c r="E245" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F245" s="30"/>
-      <c r="G245" s="30"/>
-      <c r="H245" s="30"/>
-      <c r="I245" s="30"/>
-      <c r="J245" s="30"/>
-      <c r="K245" s="30"/>
-      <c r="L245" s="30"/>
+      <c r="F245" s="23"/>
+      <c r="G245" s="23"/>
+      <c r="H245" s="23"/>
+      <c r="I245" s="23"/>
+      <c r="J245" s="23"/>
+      <c r="K245" s="23"/>
+      <c r="L245" s="23"/>
       <c r="M245" s="23"/>
       <c r="N245" s="24"/>
     </row>
-    <row r="246" spans="5:14">
-      <c r="E246" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F246" s="30"/>
-      <c r="G246" s="30"/>
-      <c r="H246" s="30"/>
-      <c r="I246" s="30"/>
-      <c r="J246" s="30"/>
-      <c r="K246" s="30"/>
-      <c r="L246" s="30"/>
+    <row r="246" spans="4:14">
+      <c r="E246" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F246" s="23"/>
+      <c r="G246" s="23"/>
+      <c r="H246" s="23"/>
+      <c r="I246" s="23"/>
+      <c r="J246" s="23"/>
+      <c r="K246" s="23"/>
+      <c r="L246" s="23"/>
       <c r="M246" s="23"/>
       <c r="N246" s="24"/>
     </row>
-    <row r="247" spans="5:14">
-      <c r="E247" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F247" s="30"/>
-      <c r="G247" s="30"/>
-      <c r="H247" s="30"/>
-      <c r="I247" s="30"/>
-      <c r="J247" s="30"/>
-      <c r="K247" s="30"/>
-      <c r="L247" s="30"/>
+    <row r="247" spans="4:14">
+      <c r="E247" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F247" s="23"/>
+      <c r="G247" s="23"/>
+      <c r="H247" s="23"/>
+      <c r="I247" s="23"/>
+      <c r="J247" s="23"/>
+      <c r="K247" s="23"/>
+      <c r="L247" s="23"/>
       <c r="M247" s="23"/>
       <c r="N247" s="24"/>
     </row>
-    <row r="248" spans="5:14">
-      <c r="E248" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F248" s="30"/>
-      <c r="G248" s="30"/>
-      <c r="H248" s="30"/>
-      <c r="I248" s="30"/>
-      <c r="J248" s="30"/>
-      <c r="K248" s="30"/>
-      <c r="L248" s="30"/>
+    <row r="248" spans="4:14">
+      <c r="E248" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F248" s="23"/>
+      <c r="G248" s="23"/>
+      <c r="H248" s="23"/>
+      <c r="I248" s="23"/>
+      <c r="J248" s="23"/>
+      <c r="K248" s="23"/>
+      <c r="L248" s="23"/>
       <c r="M248" s="23"/>
       <c r="N248" s="24"/>
     </row>
-    <row r="249" spans="5:14">
-      <c r="E249" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F249" s="30"/>
-      <c r="G249" s="30"/>
-      <c r="H249" s="30"/>
-      <c r="I249" s="30"/>
-      <c r="J249" s="30"/>
-      <c r="K249" s="30"/>
-      <c r="L249" s="30"/>
+    <row r="249" spans="4:14">
+      <c r="E249" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F249" s="23"/>
+      <c r="G249" s="23"/>
+      <c r="H249" s="23"/>
+      <c r="I249" s="23"/>
+      <c r="J249" s="23"/>
+      <c r="K249" s="23"/>
+      <c r="L249" s="23"/>
       <c r="M249" s="23"/>
       <c r="N249" s="24"/>
     </row>
-    <row r="250" spans="5:14">
-      <c r="E250" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F250" s="30"/>
-      <c r="G250" s="30"/>
-      <c r="H250" s="30"/>
-      <c r="I250" s="30"/>
-      <c r="J250" s="30"/>
-      <c r="K250" s="30"/>
-      <c r="L250" s="30"/>
+    <row r="250" spans="4:14">
+      <c r="E250" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F250" s="23"/>
+      <c r="G250" s="23"/>
+      <c r="H250" s="23"/>
+      <c r="I250" s="23"/>
+      <c r="J250" s="23"/>
+      <c r="K250" s="23"/>
+      <c r="L250" s="23"/>
       <c r="M250" s="23"/>
       <c r="N250" s="24"/>
     </row>
-    <row r="251" spans="5:14">
-      <c r="E251" s="31" t="s">
+    <row r="251" spans="4:14">
+      <c r="E251" s="22"/>
+      <c r="F251" s="23"/>
+      <c r="G251" s="23"/>
+      <c r="H251" s="23"/>
+      <c r="I251" s="23"/>
+      <c r="J251" s="23"/>
+      <c r="K251" s="23"/>
+      <c r="L251" s="23"/>
+      <c r="M251" s="23"/>
+      <c r="N251" s="24"/>
+    </row>
+    <row r="252" spans="4:14">
+      <c r="E252" s="22"/>
+      <c r="F252" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G252" s="23"/>
+      <c r="H252" s="23"/>
+      <c r="I252" s="23"/>
+      <c r="J252" s="23"/>
+      <c r="K252" s="23"/>
+      <c r="L252" s="23"/>
+      <c r="M252" s="23"/>
+      <c r="N252" s="24"/>
+    </row>
+    <row r="253" spans="4:14">
+      <c r="E253" s="22"/>
+      <c r="F253" s="23"/>
+      <c r="G253" s="23"/>
+      <c r="H253" s="23"/>
+      <c r="I253" s="23"/>
+      <c r="J253" s="23"/>
+      <c r="K253" s="23"/>
+      <c r="L253" s="23"/>
+      <c r="M253" s="23"/>
+      <c r="N253" s="24"/>
+    </row>
+    <row r="254" spans="4:14">
+      <c r="E254" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F254" s="23"/>
+      <c r="G254" s="23"/>
+      <c r="H254" s="23"/>
+      <c r="I254" s="23"/>
+      <c r="J254" s="23"/>
+      <c r="K254" s="23"/>
+      <c r="L254" s="23"/>
+      <c r="M254" s="23"/>
+      <c r="N254" s="24"/>
+    </row>
+    <row r="255" spans="4:14">
+      <c r="E255" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="F255" s="23"/>
+      <c r="G255" s="23"/>
+      <c r="H255" s="23"/>
+      <c r="I255" s="23"/>
+      <c r="J255" s="23"/>
+      <c r="K255" s="23"/>
+      <c r="L255" s="23"/>
+      <c r="M255" s="23"/>
+      <c r="N255" s="24"/>
+    </row>
+    <row r="256" spans="4:14">
+      <c r="E256" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F256" s="30"/>
+      <c r="G256" s="30"/>
+      <c r="H256" s="30"/>
+      <c r="I256" s="30"/>
+      <c r="J256" s="30"/>
+      <c r="K256" s="30"/>
+      <c r="L256" s="30"/>
+      <c r="M256" s="23"/>
+      <c r="N256" s="24"/>
+    </row>
+    <row r="257" spans="5:14">
+      <c r="E257" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F257" s="30"/>
+      <c r="G257" s="30"/>
+      <c r="H257" s="30"/>
+      <c r="I257" s="30"/>
+      <c r="J257" s="30"/>
+      <c r="K257" s="30"/>
+      <c r="L257" s="30"/>
+      <c r="M257" s="23"/>
+      <c r="N257" s="24"/>
+    </row>
+    <row r="258" spans="5:14">
+      <c r="E258" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F258" s="30"/>
+      <c r="G258" s="30"/>
+      <c r="H258" s="30"/>
+      <c r="I258" s="30"/>
+      <c r="J258" s="30"/>
+      <c r="K258" s="30"/>
+      <c r="L258" s="30"/>
+      <c r="M258" s="23"/>
+      <c r="N258" s="24"/>
+    </row>
+    <row r="259" spans="5:14">
+      <c r="E259" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F259" s="30"/>
+      <c r="G259" s="30"/>
+      <c r="H259" s="30"/>
+      <c r="I259" s="30"/>
+      <c r="J259" s="30"/>
+      <c r="K259" s="30"/>
+      <c r="L259" s="30"/>
+      <c r="M259" s="23"/>
+      <c r="N259" s="24"/>
+    </row>
+    <row r="260" spans="5:14">
+      <c r="E260" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F260" s="30"/>
+      <c r="G260" s="30"/>
+      <c r="H260" s="30"/>
+      <c r="I260" s="30"/>
+      <c r="J260" s="30"/>
+      <c r="K260" s="30"/>
+      <c r="L260" s="30"/>
+      <c r="M260" s="23"/>
+      <c r="N260" s="24"/>
+    </row>
+    <row r="261" spans="5:14">
+      <c r="E261" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F261" s="30"/>
+      <c r="G261" s="30"/>
+      <c r="H261" s="30"/>
+      <c r="I261" s="30"/>
+      <c r="J261" s="30"/>
+      <c r="K261" s="30"/>
+      <c r="L261" s="30"/>
+      <c r="M261" s="23"/>
+      <c r="N261" s="24"/>
+    </row>
+    <row r="262" spans="5:14">
+      <c r="E262" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F251" s="32"/>
-      <c r="G251" s="32"/>
-      <c r="H251" s="32"/>
-      <c r="I251" s="32"/>
-      <c r="J251" s="32"/>
-      <c r="K251" s="32"/>
-      <c r="L251" s="32"/>
-      <c r="M251" s="26"/>
-      <c r="N251" s="27"/>
-    </row>
-    <row r="253" spans="5:14">
-      <c r="E253" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="254" spans="5:14">
-      <c r="E254" s="8" t="s">
+      <c r="F262" s="32"/>
+      <c r="G262" s="32"/>
+      <c r="H262" s="32"/>
+      <c r="I262" s="32"/>
+      <c r="J262" s="32"/>
+      <c r="K262" s="32"/>
+      <c r="L262" s="32"/>
+      <c r="M262" s="26"/>
+      <c r="N262" s="27"/>
+    </row>
+    <row r="264" spans="5:14">
+      <c r="E264" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="265" spans="5:14">
+      <c r="E265" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="255" spans="5:14">
-      <c r="E255" s="8" t="s">
+    <row r="266" spans="5:14">
+      <c r="E266" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
-      <c r="E257" s="8" t="s">
+    <row r="268" spans="5:14">
+      <c r="E268" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
-      <c r="E258" s="8" t="s">
+    <row r="269" spans="5:14">
+      <c r="E269" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
-      <c r="E259" s="8" t="s">
+    <row r="270" spans="5:14">
+      <c r="E270" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
-      <c r="E260" s="8" t="s">
+    <row r="271" spans="5:14">
+      <c r="E271" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
-      <c r="E262" s="8" t="s">
+    <row r="273" spans="1:5">
+      <c r="E273" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
-      <c r="E263" s="8" t="s">
+    <row r="274" spans="1:5">
+      <c r="E274" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="42" t="s">
+    <row r="276" spans="1:5">
+      <c r="A276" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D276" s="8" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="D278" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E278" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="E279" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="D280" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E280" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="D281" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E281" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="E282" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="D284" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E284" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="E285" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="E286" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="E287" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="E288" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="289" spans="4:5">
+      <c r="E289" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="290" spans="4:5">
+      <c r="E290" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="293" spans="4:5">
+      <c r="D293" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="294" spans="4:5">
+      <c r="D294" s="33"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="B322" s="6">
+        <v>3</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="C323" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D323" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C265" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D265" s="8" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="D267" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E267" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="E268" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="D269" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E269" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="D270" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E270" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="E271" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="273" spans="4:5">
-      <c r="D273" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E273" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="274" spans="4:5">
-      <c r="E274" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="275" spans="4:5">
-      <c r="E275" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="276" spans="4:5">
-      <c r="E276" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="277" spans="4:5">
-      <c r="E277" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="278" spans="4:5">
-      <c r="E278" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="279" spans="4:5">
-      <c r="E279" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="282" spans="4:5">
-      <c r="D282" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="283" spans="4:5">
-      <c r="D283" s="33"/>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="B311" s="6">
-        <v>3</v>
-      </c>
-      <c r="C311" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="C312" s="7" t="s">
+    </row>
+    <row r="324" spans="1:5">
+      <c r="D324" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D312" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="D313" s="8" t="s">
+      <c r="E324" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E313" s="8" t="s">
+    </row>
+    <row r="325" spans="1:5">
+      <c r="D325" s="8" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="D314" s="8" t="s">
+      <c r="E325" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E314" s="8" t="s">
+    </row>
+    <row r="326" spans="1:5">
+      <c r="D326" s="8" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="D315" s="8" t="s">
+      <c r="E326" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E315" s="8" t="s">
+    </row>
+    <row r="327" spans="1:5">
+      <c r="E327" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
-      <c r="E316" s="8" t="s">
+    <row r="328" spans="1:5">
+      <c r="E328" s="8" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
-      <c r="E317" s="8" t="s">
+    <row r="329" spans="1:5">
+      <c r="E329" s="8" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="E318" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="E319" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="E320" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="E321" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="E322" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="E323" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="E324" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="E325" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="D329" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="E329" s="8" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="E330" s="8" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="E331" s="8" t="s">
-        <v>222</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="E332" s="8" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="C333" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>415</v>
+      <c r="E333" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="334" spans="1:5">
-      <c r="D334" s="8" t="s">
-        <v>238</v>
-      </c>
       <c r="E334" s="8" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="335" spans="1:5">
-      <c r="D335" s="8">
-        <v>1</v>
-      </c>
-      <c r="E335" s="16" t="s">
-        <v>239</v>
+      <c r="E335" s="8" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="E336" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="D340" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E340" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="E341" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="E342" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C344" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D344" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="D345" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E345" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="D346" s="8">
+        <v>1</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="E347" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="E348" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
-      <c r="E337" s="8" t="s">
+    <row r="349" spans="1:5">
+      <c r="E349" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
-      <c r="E338" s="8" t="s">
+    <row r="350" spans="1:5">
+      <c r="E350" s="16" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
-      <c r="E339" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="D341" s="8">
+    <row r="352" spans="1:5">
+      <c r="D352" s="8">
         <v>2</v>
       </c>
-      <c r="E341" s="8" t="s">
+      <c r="E352" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="E353" s="16" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
-      <c r="E342" s="16" t="s">
+    <row r="354" spans="1:5">
+      <c r="E354" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
-      <c r="E343" s="8" t="s">
+    <row r="355" spans="1:5">
+      <c r="E355" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
-      <c r="E344" s="8" t="s">
+    <row r="356" spans="1:5">
+      <c r="E356" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
-      <c r="E345" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="42" t="s">
-        <v>413</v>
-      </c>
-      <c r="B351" s="6">
+    <row r="362" spans="1:5">
+      <c r="A362" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="B362" s="6">
         <v>4</v>
       </c>
-      <c r="C351" s="7" t="s">
-        <v>235</v>
+      <c r="C362" s="7" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -6401,14 +6481,14 @@
     <hyperlink ref="A31" location="Git的使用!A1" tooltip="返回" display="top"/>
     <hyperlink ref="A53" location="Git的使用!A1" tooltip="返回" display="top"/>
     <hyperlink ref="A102" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A157" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A183" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A209" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A222" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A265" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A311" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A333" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A351" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A168" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A194" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A220" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A233" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A276" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A322" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A344" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A362" location="Git的使用!A1" tooltip="返回" display="top"/>
     <hyperlink ref="C8" location="git_add" tooltip="git add" display="git add"/>
     <hyperlink ref="C9" location="git_commit" tooltip="git commit" display="git commit"/>
     <hyperlink ref="C10" location="git_diff" tooltip="git diff" display="git diff"/>
@@ -6453,7 +6533,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6466,7 +6546,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="D7" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6756,46 +6836,46 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>289</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>293</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -6803,46 +6883,46 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="C42" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -6887,7 +6967,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6895,7 +6975,7 @@
         <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6903,12 +6983,12 @@
         <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6916,12 +6996,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6929,22 +7009,22 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6952,7 +7032,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6971,7 +7051,7 @@
         <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7021,20 +7101,20 @@
         <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7042,25 +7122,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="8"/>
       <c r="D9" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7071,69 +7151,69 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="D33" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -7171,25 +7251,25 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7197,12 +7277,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7210,12 +7290,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7223,73 +7303,73 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="D17" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="D18" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="D19" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="D20" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="3:6">
       <c r="D21" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="D22" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="3:6">
       <c r="D23" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -7297,23 +7377,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="D27" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="D28" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -7321,15 +7401,15 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="D31" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -7337,25 +7417,25 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="D34" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="D35" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="E36" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -7398,28 +7478,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="D4" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7427,32 +7507,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7460,17 +7540,17 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -7478,22 +7558,22 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="D22" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -7501,64 +7581,64 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="41" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="D68" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="D69" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="D70" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -7582,7 +7662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -7597,95 +7677,95 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="38" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="60" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="E18" s="46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" s="38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="4:5">
       <c r="E22" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="4:5">
       <c r="E24" s="38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="4:5">
       <c r="E25" s="38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="4:5">
       <c r="E26" s="38" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="E27" s="38" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="E28" s="38" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="E30" s="38" t="s">
         <v>488</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="C33" s="38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7693,7 +7773,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7703,12 +7783,12 @@
     </row>
     <row r="36" spans="1:5">
       <c r="E36" s="38" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="E37" s="38" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7716,33 +7796,33 @@
         <v>2</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="E40" s="38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="E41" s="38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C44" s="38">
         <v>3</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="D45" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -7750,37 +7830,37 @@
         <v>1</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="E47" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="E48" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="4:6">
       <c r="F49" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="4:6">
       <c r="F50" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="51" spans="4:6">
       <c r="F51" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="4:6">
       <c r="E52" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="4:6">
@@ -7788,116 +7868,116 @@
         <v>2</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="55" spans="4:6">
       <c r="E55" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="56" spans="4:6">
       <c r="E56" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57" spans="4:6">
       <c r="F57" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="4:6">
       <c r="F58" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="4:6">
       <c r="E59" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="60" spans="4:6">
       <c r="D60" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="4:6">
       <c r="E61" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="4:6">
       <c r="F62" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="F64" s="38" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="5:6">
       <c r="F65" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="5:6">
       <c r="E67" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68" spans="5:6">
       <c r="E68" s="38" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="5:6">
       <c r="F69" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70" spans="5:6">
       <c r="F70" s="38" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="72" spans="5:6">
       <c r="F72" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73" spans="5:6">
       <c r="F73" s="38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="74" spans="5:6">
       <c r="F74" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="5:6">
       <c r="F76" s="38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="5:6">
       <c r="F77" s="38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C92" s="38">
         <v>3</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -7905,27 +7985,27 @@
         <v>1</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="E94" s="38" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="E95" s="38" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="F96" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="3:6">
       <c r="F97" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="3:6">
@@ -7933,63 +8013,63 @@
         <v>2</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" spans="3:6">
       <c r="E100" s="38" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="101" spans="3:6">
       <c r="E101" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="102" spans="3:6">
       <c r="F102" s="38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="103" spans="3:6">
       <c r="E103" s="38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="106" spans="3:6">
       <c r="C106" s="38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="3:6">
       <c r="D107" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="E107" s="38" t="s">
         <v>502</v>
-      </c>
-      <c r="E107" s="38" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="110" spans="3:6">
       <c r="C110" s="38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="111" spans="3:6">
       <c r="D111" s="38" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="112" spans="3:6">
       <c r="D112" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E112" s="38" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113" spans="4:13">
       <c r="E113" s="50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F113" s="51"/>
       <c r="G113" s="51"/>
@@ -8003,7 +8083,7 @@
     <row r="114" spans="4:13">
       <c r="E114" s="53"/>
       <c r="F114" s="54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G114" s="54"/>
       <c r="H114" s="54"/>
@@ -8017,7 +8097,7 @@
       <c r="E115" s="53"/>
       <c r="F115" s="54"/>
       <c r="G115" s="54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H115" s="54"/>
       <c r="I115" s="54"/>
@@ -8030,7 +8110,7 @@
       <c r="E116" s="53"/>
       <c r="F116" s="54"/>
       <c r="G116" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H116" s="54"/>
       <c r="I116" s="54"/>
@@ -8054,7 +8134,7 @@
       <c r="E118" s="53"/>
       <c r="F118" s="54"/>
       <c r="G118" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H118" s="54"/>
       <c r="I118" s="54"/>
@@ -8066,7 +8146,7 @@
     <row r="119" spans="4:13">
       <c r="E119" s="53"/>
       <c r="F119" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G119" s="54"/>
       <c r="H119" s="54"/>
@@ -8079,7 +8159,7 @@
     <row r="120" spans="4:13">
       <c r="E120" s="53"/>
       <c r="F120" s="54" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G120" s="54"/>
       <c r="H120" s="54"/>
@@ -8092,7 +8172,7 @@
     <row r="121" spans="4:13">
       <c r="E121" s="53"/>
       <c r="F121" s="54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G121" s="54"/>
       <c r="H121" s="54"/>
@@ -8105,7 +8185,7 @@
     <row r="122" spans="4:13">
       <c r="E122" s="53"/>
       <c r="F122" s="54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G122" s="54"/>
       <c r="H122" s="54"/>
@@ -8117,7 +8197,7 @@
     </row>
     <row r="123" spans="4:13">
       <c r="E123" s="53" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F123" s="54"/>
       <c r="G123" s="54"/>
@@ -8141,15 +8221,15 @@
     </row>
     <row r="126" spans="4:13">
       <c r="D126" s="38" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E126" s="38" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="128" spans="4:13">
       <c r="E128" s="50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F128" s="51"/>
       <c r="G128" s="51"/>
@@ -8163,7 +8243,7 @@
     <row r="129" spans="1:13">
       <c r="E129" s="53"/>
       <c r="F129" s="54" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G129" s="54"/>
       <c r="H129" s="54"/>
@@ -8177,7 +8257,7 @@
       <c r="E130" s="53"/>
       <c r="F130" s="54"/>
       <c r="G130" s="54" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H130" s="54"/>
       <c r="I130" s="54"/>
@@ -8201,7 +8281,7 @@
       <c r="E132" s="53"/>
       <c r="F132" s="54"/>
       <c r="G132" s="54" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H132" s="54"/>
       <c r="I132" s="54"/>
@@ -8214,7 +8294,7 @@
       <c r="E133" s="53"/>
       <c r="F133" s="54"/>
       <c r="G133" s="54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H133" s="54"/>
       <c r="I133" s="54"/>
@@ -8238,7 +8318,7 @@
       <c r="E135" s="53"/>
       <c r="F135" s="54"/>
       <c r="G135" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H135" s="54"/>
       <c r="I135" s="54"/>
@@ -8250,7 +8330,7 @@
     <row r="136" spans="1:13">
       <c r="E136" s="53"/>
       <c r="F136" s="54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G136" s="54"/>
       <c r="H136" s="54"/>
@@ -8263,7 +8343,7 @@
     <row r="137" spans="1:13">
       <c r="E137" s="53"/>
       <c r="F137" s="54" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G137" s="54"/>
       <c r="H137" s="54"/>
@@ -8276,7 +8356,7 @@
     <row r="138" spans="1:13">
       <c r="E138" s="53"/>
       <c r="F138" s="54" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G138" s="54"/>
       <c r="H138" s="54"/>
@@ -8288,7 +8368,7 @@
     </row>
     <row r="139" spans="1:13">
       <c r="E139" s="56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F139" s="57"/>
       <c r="G139" s="57"/>
@@ -8301,18 +8381,18 @@
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D141" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="E141" s="38" t="s">
         <v>571</v>
-      </c>
-      <c r="E141" s="38" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="E143" s="50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F143" s="51"/>
       <c r="G143" s="51"/>
@@ -8326,7 +8406,7 @@
     <row r="144" spans="1:13">
       <c r="E144" s="53"/>
       <c r="F144" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G144" s="54"/>
       <c r="H144" s="54"/>
@@ -8340,7 +8420,7 @@
       <c r="E145" s="53"/>
       <c r="F145" s="54"/>
       <c r="G145" s="54" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H145" s="54"/>
       <c r="I145" s="54"/>
@@ -8354,7 +8434,7 @@
       <c r="F146" s="54"/>
       <c r="G146" s="54"/>
       <c r="H146" s="54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I146" s="54"/>
       <c r="J146" s="54"/>
@@ -8366,7 +8446,7 @@
       <c r="E147" s="53"/>
       <c r="F147" s="54"/>
       <c r="G147" s="54" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H147" s="59"/>
       <c r="I147" s="54"/>
@@ -8379,7 +8459,7 @@
       <c r="E148" s="53"/>
       <c r="F148" s="54"/>
       <c r="G148" s="54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H148" s="54"/>
       <c r="I148" s="54"/>
@@ -8393,7 +8473,7 @@
       <c r="F149" s="54"/>
       <c r="G149" s="54"/>
       <c r="H149" s="54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I149" s="54"/>
       <c r="J149" s="54"/>
@@ -8405,7 +8485,7 @@
       <c r="E150" s="53"/>
       <c r="F150" s="54"/>
       <c r="G150" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H150" s="54"/>
       <c r="I150" s="54"/>
@@ -8417,7 +8497,7 @@
     <row r="151" spans="4:14">
       <c r="E151" s="53"/>
       <c r="F151" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G151" s="54"/>
       <c r="H151" s="54"/>
@@ -8430,7 +8510,7 @@
     <row r="152" spans="4:14">
       <c r="E152" s="53"/>
       <c r="F152" s="54" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G152" s="54"/>
       <c r="H152" s="54"/>
@@ -8443,7 +8523,7 @@
     <row r="153" spans="4:14">
       <c r="E153" s="53"/>
       <c r="F153" s="54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G153" s="54"/>
       <c r="H153" s="54"/>
@@ -8455,7 +8535,7 @@
     </row>
     <row r="154" spans="4:14">
       <c r="E154" s="56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F154" s="57"/>
       <c r="G154" s="57"/>
@@ -8468,15 +8548,15 @@
     </row>
     <row r="157" spans="4:14">
       <c r="D157" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="E157" s="38" t="s">
         <v>578</v>
-      </c>
-      <c r="E157" s="38" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="159" spans="4:14">
       <c r="E159" s="50" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F159" s="51"/>
       <c r="G159" s="51"/>
@@ -8491,7 +8571,7 @@
     <row r="160" spans="4:14">
       <c r="E160" s="53"/>
       <c r="F160" s="54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G160" s="54"/>
       <c r="H160" s="54"/>
@@ -8506,7 +8586,7 @@
       <c r="E161" s="53"/>
       <c r="F161" s="54"/>
       <c r="G161" s="54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H161" s="54"/>
       <c r="I161" s="54"/>
@@ -8521,7 +8601,7 @@
       <c r="F162" s="54"/>
       <c r="G162" s="54"/>
       <c r="H162" s="54" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I162" s="54"/>
       <c r="J162" s="54"/>
@@ -8536,7 +8616,7 @@
       <c r="G163" s="54"/>
       <c r="H163" s="54"/>
       <c r="I163" s="54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J163" s="54"/>
       <c r="K163" s="54"/>
@@ -8549,7 +8629,7 @@
       <c r="F164" s="54"/>
       <c r="G164" s="54"/>
       <c r="H164" s="54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I164" s="54"/>
       <c r="J164" s="54"/>
@@ -8563,7 +8643,7 @@
       <c r="F165" s="54"/>
       <c r="G165" s="54"/>
       <c r="H165" s="54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I165" s="54"/>
       <c r="J165" s="54"/>
@@ -8578,7 +8658,7 @@
       <c r="G166" s="54"/>
       <c r="H166" s="54"/>
       <c r="I166" s="54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J166" s="54"/>
       <c r="K166" s="54"/>
@@ -8591,7 +8671,7 @@
       <c r="F167" s="54"/>
       <c r="G167" s="54"/>
       <c r="H167" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I167" s="54"/>
       <c r="J167" s="54"/>
@@ -8604,7 +8684,7 @@
       <c r="E168" s="53"/>
       <c r="F168" s="54"/>
       <c r="G168" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H168" s="54"/>
       <c r="I168" s="54"/>
@@ -8617,7 +8697,7 @@
     <row r="169" spans="5:14">
       <c r="E169" s="53"/>
       <c r="F169" s="54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G169" s="54"/>
       <c r="H169" s="54"/>
@@ -8631,7 +8711,7 @@
     <row r="170" spans="5:14">
       <c r="E170" s="53"/>
       <c r="F170" s="54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G170" s="54"/>
       <c r="H170" s="54"/>
@@ -8645,7 +8725,7 @@
     <row r="171" spans="5:14">
       <c r="E171" s="53"/>
       <c r="F171" s="54" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G171" s="54"/>
       <c r="H171" s="54"/>
@@ -8659,7 +8739,7 @@
     <row r="172" spans="5:14">
       <c r="E172" s="53"/>
       <c r="F172" s="54" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G172" s="54"/>
       <c r="H172" s="54"/>
@@ -8672,7 +8752,7 @@
     </row>
     <row r="173" spans="5:14">
       <c r="E173" s="56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F173" s="57"/>
       <c r="G173" s="57"/>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="40" windowWidth="27860" windowHeight="19020" tabRatio="627"/>
+    <workbookView xWindow="1620" yWindow="0" windowWidth="27860" windowHeight="19020" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,21 @@
     <sheet name="Hybrid" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_.gitignore">Git的使用!$D$323</definedName>
-    <definedName name="git_add">Git的使用!$D$32</definedName>
-    <definedName name="git_clone">Git的使用!$D$195</definedName>
-    <definedName name="git_commit">Git的使用!$D$53</definedName>
-    <definedName name="git_config">Git的使用!$D$344</definedName>
-    <definedName name="git_diff">Git的使用!$D$102</definedName>
-    <definedName name="git_fetch">Git的使用!$D$220</definedName>
-    <definedName name="git_pull">Git的使用!$D$276</definedName>
-    <definedName name="git_push">Git的使用!$D$233</definedName>
-    <definedName name="git_remote">Git的使用!$D$206</definedName>
-    <definedName name="git_rm">Git的使用!$D$168</definedName>
-    <definedName name="内容.Git_分支管理">Git的使用!$C$362</definedName>
-    <definedName name="内容.Git_管理本地仓库">Git的使用!$C$31</definedName>
-    <definedName name="内容.Git_配置">Git的使用!$C$322</definedName>
-    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$194</definedName>
+    <definedName name="_.gitignore">Git的使用!$D$344</definedName>
+    <definedName name="git_add">Git的使用!$D$82</definedName>
+    <definedName name="git_clone">Git的使用!$D$216</definedName>
+    <definedName name="git_commit">Git的使用!$D$103</definedName>
+    <definedName name="git_config">Git的使用!$D$365</definedName>
+    <definedName name="git_diff">Git的使用!$D$130</definedName>
+    <definedName name="git_fetch">Git的使用!$D$241</definedName>
+    <definedName name="git_pull">Git的使用!$D$297</definedName>
+    <definedName name="git_push">Git的使用!$D$254</definedName>
+    <definedName name="git_remote">Git的使用!$D$227</definedName>
+    <definedName name="git_rm">Git的使用!$D$195</definedName>
+    <definedName name="内容.Git_分支管理">Git的使用!$C$383</definedName>
+    <definedName name="内容.Git_管理本地仓库">Git的使用!$C$81</definedName>
+    <definedName name="内容.Git_配置">Git的使用!$C$343</definedName>
+    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$215</definedName>
     <definedName name="内容.JavaScript对象构建方式">JavaScript!$D$111</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="678">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -720,10 +720,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>然后在终端输入命令 git diff 活着git diff -cached</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>输入 git add temp.txt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -732,10 +728,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>git diff --cached （有两行的差分)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>因为git add 是将workspace的更新提交到stage(对local repo没有影响),所以stage跟workspace是一样的，而local repo还是之前的状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1085,10 +1077,6 @@
   </si>
   <si>
     <t>1-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git rm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2022,34 +2010,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>.gitignore</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git config</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git clone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git remote</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git fetch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git push</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git pull</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Git_管理本地仓库</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2088,9 +2048,6 @@
   <si>
     <t>基本数据类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Undefined、Null、Boolean、Number和String</t>
   </si>
   <si>
     <t>引用数据类型(Object)</t>
@@ -2491,10 +2448,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获取远程代码的方式,分别为pull,和fetch然后merge,一下讨论这两种情况的diff,以加深理解</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2531,10 +2484,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>$git diff origin/master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>命令的结果显示是有差分的,以local repo为基准,我的workspace中的temp.txt显示少了一句话"今晚夜色不错".</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2559,14 +2508,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上4步，实现的是本地的同步,当然如果想要同步到GitHub,则可以git push origin master:master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>以上的两种获取远程主机更新的方式,推荐的是第2种方式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2623,31 +2564,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>方式1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>function testObject () {</t>
-  </si>
-  <si>
-    <t>this.param = 1;</t>
-  </si>
-  <si>
-    <t>this.meth = function () {</t>
-  </si>
-  <si>
     <t>}</t>
   </si>
   <si>
-    <t>var obj = new testObject();</t>
-  </si>
-  <si>
-    <t>alert("typeof obj:" + typeof(obj));</t>
-  </si>
-  <si>
-    <t>alert("obj.param:" + obj.param + "\n" + "obj.meth:" + obj.meth());</t>
-  </si>
-  <si>
     <t>&lt;script&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2680,14 +2599,6 @@
     <t>alert("person's name:" + person.getName());</t>
   </si>
   <si>
-    <t>方式2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大括号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>var animal = {</t>
   </si>
   <si>
@@ -2733,10 +2644,6 @@
   </si>
   <si>
     <t>构建方式</t>
-  </si>
-  <si>
-    <t>构建方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>JavaScript对象</t>
@@ -2819,10 +2726,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>普通(function)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>对比worksapce与最近一次commit的差别,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2842,15 +2745,432 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>对比local repo master分支与workspace的差分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>git diff master origin/master</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对比local repo的master分支与远程主机的master分支的差分</t>
+    <t>git diff origin/master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比local repository中的 master分支与workspace的差分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比local repository中的master分支与远程主机的master分支的差分</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你在worksapce中修改了temp.txt文件，但没有提交,则该命令</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有差分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(因为local repository根本就没变化)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>比如</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你在worksapce中修改了temp.txt文件，但没有提交,则该命令</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="16"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有差分</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取远程代码的方式,分别为pull,和fetch+merge,以下简单讨论这两种情况的diff,以加深理解，(操作的顺序不同结果有差异,原理是一样的)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后在终端输入命令 git diff 或者git diff -cached</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached （有两行的差分)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$git diff master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff --cached</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff HEAD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git diff origin/master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add .</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add -u</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git add doc/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -m "commit message"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit -a -m "commit message"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit --amend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git commit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm -n file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm --cached file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm -n --cached file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git checkout -- file  // --与file中间有个空格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git rm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git remote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git pull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>.gitignore</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">花括号,该方式相当与调用Object的构造函数 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var animal={} 相当于var animal = new Object()</t>
+  </si>
+  <si>
+    <t>var man = new Object();</t>
+  </si>
+  <si>
+    <t>man.pName = "Coco";</t>
+  </si>
+  <si>
+    <t>man.pAge = "20";</t>
+  </si>
+  <si>
+    <t>man.speaking = function(){</t>
+  </si>
+  <si>
+    <t>alert("I can speaking English");</t>
+  </si>
+  <si>
+    <t>alert("Name:" + man.pName + "\n "+"Age:" + man.pAge);</t>
+  </si>
+  <si>
+    <t>man.speaking();</t>
+  </si>
+  <si>
+    <t>// Object的构造函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象的属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object的构造函数new Object()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于通过该方式构建的对象，都是Object的对象,只是扩展了属性和方法.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于需要分门别类的处理,显然不能满足要求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function其实也是个对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Undefined、Null、Boolean、Number和String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有返回值,或者返回值是基本类型(Undefined、Null、Boolean、Number和String)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么返回值就是new创建的一个匿名对象；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果返回值是一个引用类型(Array,Function,Object),那么这个引用类型就会覆盖匿名对象.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>function Person(){</t>
+  </si>
+  <si>
+    <t>// 年龄属性PAge</t>
+  </si>
+  <si>
+    <t>this.setAge = function(age){</t>
+  </si>
+  <si>
+    <t>this.pAge = age;</t>
+  </si>
+  <si>
+    <t>this.getAge = function(){</t>
+  </si>
+  <si>
+    <t>return this.pAge;</t>
+  </si>
+  <si>
+    <t>// 姓名属性pName</t>
+  </si>
+  <si>
+    <t>this.setName = function(name){</t>
+  </si>
+  <si>
+    <t>this.pName = name;</t>
+  </si>
+  <si>
+    <t>this.getName = function(){</t>
+  </si>
+  <si>
+    <t>return this.pName;</t>
+  </si>
+  <si>
+    <t>// 类方法</t>
+  </si>
+  <si>
+    <t>this.saySomething = function(){</t>
+  </si>
+  <si>
+    <t>var boy = new Person();</t>
+  </si>
+  <si>
+    <t>boy.setName("John");</t>
+  </si>
+  <si>
+    <t>boy.setAge(20);</t>
+  </si>
+  <si>
+    <t>boy.saySomething();</t>
+  </si>
+  <si>
+    <t>alert("My name is " + this.pName + " " + this.pAge + " years old.");</t>
+  </si>
+  <si>
+    <t>alert(typeof(this.pName));</t>
+  </si>
+  <si>
+    <t>if(this.pName == undefined || this.pName == null){</t>
+  </si>
+  <si>
+    <t>alert("pName has not been set yet.");</t>
+  </si>
+  <si>
+    <t>alert("Hello,I am " + this.pAge + " years old.");</t>
+  </si>
+  <si>
+    <t>}else{</t>
+  </si>
+  <si>
+    <t>this.pAge = 18;          //默认的年龄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert("boy' name:" + boy.getName());</t>
+  </si>
+  <si>
+    <t>var girl = new Person();</t>
+  </si>
+  <si>
+    <t>// Person的对象boy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// person的对象girl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert("boy's age:" + boy.pAge);         // 打印的是18,未设置时,堆内存中该值是18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert("boy' age:" + boy.pAge);         // 打印的是20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl.saySomething();       // pName未设置时,该值是undefined</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 实例操作类的静态变量</t>
+  </si>
+  <si>
+    <t>this.setCount = function(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person.count ++; </t>
+  </si>
+  <si>
+    <t>// 静态变量的使用</t>
+  </si>
+  <si>
+    <t>Person.count = 10;</t>
+  </si>
+  <si>
+    <t>Person.personArray = [];</t>
+  </si>
+  <si>
+    <t>// prototype的使用</t>
+  </si>
+  <si>
+    <t>Person.prototype.printCount = function(){</t>
+  </si>
+  <si>
+    <t>alert("prototype function:" + Person.count);</t>
+  </si>
+  <si>
+    <t>// 数组的使用,相当与new Array();</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alert(boy instanceof Person);          // true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Person.personArray.push(boy);      // 往数组里面接入元素用push(),反之用pop()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Person.personArray.push(girl);</t>
+  </si>
+  <si>
+    <t>var arr = Person.personArray;</t>
+  </si>
+  <si>
+    <t>alert(arr.length);                   // 该数组的长度是2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr[0].saySomething();       // 该数组的第一个元素是boy对象,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 定义在类中的属性或者方法，每一个对象都有一个副本,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 而定义成prototype类型,则所有的类实例都共享一个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2858,7 +3178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2964,6 +3284,23 @@
       <u/>
       <sz val="16"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
@@ -3159,7 +3496,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3287,6 +3624,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="35" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -3393,13 +3737,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>320</xdr:row>
+      <xdr:row>341</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3431,7 +3775,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7791450" cy="5133975"/>
@@ -3464,13 +3808,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3792,52 +4136,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11201400" y="23990300"/>
-          <a:ext cx="5372100" cy="1930400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>213</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3848,7 +4154,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3869,13 +4175,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>229</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>238</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3886,7 +4192,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3907,18 +4213,56 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>244</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>253</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11747500" y="33883600"/>
+          <a:ext cx="5346700" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3931,8 +4275,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11747500" y="33883600"/>
-          <a:ext cx="5346700" cy="1943100"/>
+          <a:off x="11722100" y="24180800"/>
+          <a:ext cx="5308600" cy="1955800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11696700" y="26352500"/>
+          <a:ext cx="5359400" cy="1943100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4288,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -4301,7 +4683,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -4342,7 +4724,7 @@
     </row>
     <row r="17" spans="3:4" s="8" customFormat="1">
       <c r="C17" s="10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="3:4" s="8" customFormat="1">
@@ -4354,7 +4736,7 @@
     <row r="19" spans="3:4" s="8" customFormat="1">
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="3:4" s="8" customFormat="1">
@@ -4366,7 +4748,7 @@
     <row r="21" spans="3:4" s="8" customFormat="1">
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="3:4" s="8" customFormat="1">
@@ -4374,60 +4756,60 @@
     </row>
     <row r="23" spans="3:4" s="8" customFormat="1">
       <c r="C23" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="3:4" s="8" customFormat="1">
       <c r="C24" s="13"/>
       <c r="D24" s="8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="3:4" s="8" customFormat="1">
       <c r="C25" s="13"/>
       <c r="D25" s="8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="3:4" s="8" customFormat="1">
       <c r="C26" s="13"/>
       <c r="D26" s="8" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="3:4" s="8" customFormat="1">
       <c r="C27" s="13"/>
       <c r="D27" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="28" spans="3:4" s="8" customFormat="1">
       <c r="C28" s="13"/>
       <c r="D28" s="8" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="3:4" s="8" customFormat="1">
       <c r="C29" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="3:4" s="8" customFormat="1">
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="3:4" s="8" customFormat="1">
       <c r="C31" s="6"/>
       <c r="D31" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="32" spans="3:4" s="8" customFormat="1">
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -4440,7 +4822,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="D35" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -4448,22 +4830,22 @@
         <v>4</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="D39" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -4471,22 +4853,22 @@
         <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="2" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -4514,12 +4896,12 @@
     </row>
     <row r="54" spans="2:4">
       <c r="D54" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="D55" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4560,17 +4942,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="38" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="38" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4578,17 +4960,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="38" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="38" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -4622,25 +5004,25 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="38" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="38" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="D6" s="38" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4660,7 +5042,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N362"/>
+  <dimension ref="A1:N383"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -4675,1833 +5057,1954 @@
     <col min="12" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" outlineLevel="1">
+    <row r="3" spans="1:4" outlineLevel="1">
       <c r="B3" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" outlineLevel="1">
+    <row r="4" spans="1:4" outlineLevel="1">
       <c r="B4" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:3" outlineLevel="1">
+    <row r="5" spans="1:4" outlineLevel="1">
       <c r="B5" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" outlineLevel="1">
+    <row r="6" spans="1:4" outlineLevel="1">
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:3" outlineLevel="1">
+    <row r="7" spans="1:4" outlineLevel="1">
       <c r="B7" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" outlineLevel="1">
+    <row r="8" spans="1:4" outlineLevel="1">
       <c r="B8" s="1"/>
       <c r="C8" s="11" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" outlineLevel="1">
-      <c r="B9" s="1"/>
-      <c r="C9" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" outlineLevel="1">
+      <c r="B9" s="12"/>
+      <c r="D9" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" outlineLevel="1">
+      <c r="B10" s="12"/>
+      <c r="D10" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" outlineLevel="1">
+      <c r="B11" s="12"/>
+      <c r="D11" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" outlineLevel="1">
+      <c r="B12" s="12"/>
+      <c r="D12" s="8" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" outlineLevel="1">
+      <c r="B13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" outlineLevel="1">
+      <c r="B14" s="1"/>
+      <c r="C14" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" outlineLevel="1">
+      <c r="B15" s="1"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" outlineLevel="1">
+      <c r="B16" s="12"/>
+      <c r="D16" s="8" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" outlineLevel="1">
+      <c r="B17" s="12"/>
+      <c r="D17" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" outlineLevel="1">
+      <c r="B18" s="12"/>
+      <c r="D18" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" outlineLevel="1">
+      <c r="B19" s="1"/>
+      <c r="C19" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" outlineLevel="1">
+      <c r="B20" s="12"/>
+      <c r="D20" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" outlineLevel="1">
+      <c r="B21" s="12"/>
+      <c r="D21" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" outlineLevel="1">
+      <c r="B22" s="12"/>
+      <c r="D22" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" outlineLevel="1">
+      <c r="B23" s="12"/>
+      <c r="D23" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" outlineLevel="1">
+      <c r="B24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" outlineLevel="1">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="2:4" outlineLevel="1">
+      <c r="B26" s="1"/>
+      <c r="C26" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:3" outlineLevel="1">
-      <c r="B10" s="1"/>
-      <c r="C10" s="11" t="s">
+    <row r="27" spans="2:4" outlineLevel="1">
+      <c r="B27" s="12"/>
+      <c r="D27" s="8" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" outlineLevel="1">
+      <c r="B28" s="12"/>
+      <c r="D28" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" outlineLevel="1">
+      <c r="B29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" outlineLevel="1">
+      <c r="B30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" outlineLevel="1">
+      <c r="B31" s="1"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="32" spans="2:4" outlineLevel="1">
+      <c r="B32" s="12"/>
+      <c r="C32" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" outlineLevel="1">
+      <c r="B33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" outlineLevel="1">
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" spans="2:4" outlineLevel="1">
+      <c r="B35" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="8"/>
+    </row>
+    <row r="36" spans="2:4" outlineLevel="1">
+      <c r="B36" s="13"/>
+      <c r="C36" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" outlineLevel="1">
+      <c r="B37" s="13"/>
+      <c r="C37" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" outlineLevel="1">
+      <c r="B38" s="13"/>
+      <c r="C38" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" outlineLevel="1">
+      <c r="B39" s="13"/>
+      <c r="C39" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" outlineLevel="1">
+      <c r="B40" s="13"/>
+      <c r="C40" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" outlineLevel="1">
+      <c r="B41" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="8"/>
+    </row>
+    <row r="42" spans="2:4" outlineLevel="1">
+      <c r="B42" s="7"/>
+      <c r="C42" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" outlineLevel="1">
+      <c r="C43" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" outlineLevel="1">
+      <c r="C44" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" outlineLevel="1"/>
+    <row r="46" spans="2:4" outlineLevel="1">
+      <c r="B46" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" outlineLevel="1">
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="2:4" outlineLevel="1">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="2:13" outlineLevel="1">
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="2:13" outlineLevel="1">
+      <c r="B50" s="8"/>
+    </row>
+    <row r="51" spans="2:13" outlineLevel="1">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="D54" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B81" s="6">
+        <v>1</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="C82" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D82" s="62" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="D83" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="D84" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="D85" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="E86" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="E87" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="E88" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="D89" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="E90" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="E92" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="E93" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="E94" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="E96" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="E97" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="D100" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="E101" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D103" s="62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="D104" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="D105" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="E106" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="D108" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="E109" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="E110" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="E111" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="E112" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5">
+      <c r="E113" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5">
+      <c r="E114" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5">
+      <c r="D116" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5">
+      <c r="E117" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5">
+      <c r="E118" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5">
+      <c r="E119" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5">
+      <c r="E120" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5">
+      <c r="D122" s="62" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5">
+      <c r="D123" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5">
+      <c r="E124" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5">
+      <c r="E125" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5">
+      <c r="E126" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5">
+      <c r="E127" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D130" s="62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="D131" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="D132" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="E133" s="9">
+        <v>1</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="E134" s="9"/>
+      <c r="F134" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="E135" s="9"/>
+      <c r="F135" s="8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="E137" s="9">
+        <v>2</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="E138" s="9"/>
+      <c r="F138" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="E139" s="9"/>
+      <c r="F139" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="E141" s="9">
+        <v>3</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="E142" s="9"/>
+      <c r="F142" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="E143" s="9"/>
+      <c r="F143" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" spans="4:6">
+      <c r="E145" s="9">
+        <v>4</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6">
+      <c r="E146" s="9"/>
+      <c r="F146" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6">
+      <c r="F147" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6">
+      <c r="E149" s="9">
+        <v>5</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6">
+      <c r="E150" s="9"/>
+      <c r="F150" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6">
+      <c r="E151" s="9"/>
+      <c r="F151" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6">
+      <c r="D153" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6">
+      <c r="E154" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6">
+      <c r="E155" s="8" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6">
+      <c r="E156" s="47"/>
+      <c r="F156" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6">
+      <c r="E157" s="47"/>
+      <c r="F157" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6">
+      <c r="E158" s="47"/>
+    </row>
+    <row r="159" spans="4:6">
+      <c r="E159" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6">
+      <c r="E160" s="47">
+        <v>1</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6">
+      <c r="E161" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6">
+      <c r="E162" s="48"/>
+      <c r="F162" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6">
+      <c r="E163" s="48"/>
+      <c r="F163" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6">
+      <c r="E164" s="48"/>
+      <c r="F164" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6">
+      <c r="E165" s="48"/>
+      <c r="F165" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6">
+      <c r="E166" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6">
+      <c r="E167" s="48"/>
+      <c r="F167" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6">
+      <c r="E168" s="48"/>
+      <c r="F168" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6">
+      <c r="E169" s="48"/>
+      <c r="F169" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6">
+      <c r="E170" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6">
+      <c r="E171" s="48"/>
+      <c r="F171" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6">
+      <c r="E172" s="48"/>
+      <c r="F172" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6">
+      <c r="E173" s="48"/>
+      <c r="F173" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6">
+      <c r="E174" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6">
+      <c r="E175" s="49"/>
+      <c r="F175" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6">
+      <c r="E176" s="49"/>
+      <c r="F176" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6">
+      <c r="E177" s="49"/>
+      <c r="F177" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6">
+      <c r="E178" s="49"/>
+      <c r="F178" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6">
+      <c r="E179" s="49"/>
+    </row>
+    <row r="180" spans="5:6">
+      <c r="E180" s="47">
+        <v>2</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6">
+      <c r="E181" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6">
+      <c r="E182" s="48"/>
+      <c r="F182" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6">
+      <c r="E183" s="48"/>
+      <c r="F183" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6">
+      <c r="E184" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6">
+      <c r="E185" s="48"/>
+      <c r="F185" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6">
+      <c r="E186" s="48"/>
+      <c r="F186" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6">
+      <c r="E187" s="48"/>
+      <c r="F187" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6">
+      <c r="E188" s="48" t="s">
+        <v>520</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6">
+      <c r="E189" s="49"/>
+      <c r="F189" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6">
+      <c r="E190" s="49"/>
+    </row>
+    <row r="191" spans="5:6">
+      <c r="E191" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6">
+      <c r="E192" s="49" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="E193" s="49" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C195" s="7" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" outlineLevel="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="11" t="s">
+      <c r="D195" s="62" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="D196" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E196" s="8" t="s">
         <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" outlineLevel="1">
-      <c r="B12" s="1"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" outlineLevel="1">
-      <c r="B13" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" outlineLevel="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="11" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" outlineLevel="1">
-      <c r="B15" s="13"/>
-      <c r="C15" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" outlineLevel="1">
-      <c r="B16" s="13"/>
-      <c r="C16" s="11" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" outlineLevel="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" outlineLevel="1">
-      <c r="B18" s="13"/>
-      <c r="C18" s="11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" outlineLevel="1">
-      <c r="B19" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" outlineLevel="1">
-      <c r="B20" s="7"/>
-      <c r="C20" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" outlineLevel="1">
-      <c r="C21" s="12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" outlineLevel="1">
-      <c r="C22" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" outlineLevel="1"/>
-    <row r="24" spans="1:4" outlineLevel="1">
-      <c r="B24" s="12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" outlineLevel="1">
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="1:4" outlineLevel="1">
-      <c r="B26" s="12"/>
-    </row>
-    <row r="27" spans="1:4" outlineLevel="1">
-      <c r="B27" s="12"/>
-    </row>
-    <row r="28" spans="1:4" outlineLevel="1">
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" outlineLevel="1">
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" s="14"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="C32" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="D35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="E36" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="E37" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5">
-      <c r="E38" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="D39" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="E40" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5">
-      <c r="E42" s="16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5">
-      <c r="E43" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5">
-      <c r="E44" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5">
-      <c r="E46" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="4:5">
-      <c r="E47" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="D50" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="E51" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="D54" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="D55" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="E56" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="D58" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="E59" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="E60" s="8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="E61" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="E62" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="E63" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="E64" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="66" spans="4:13">
-      <c r="D66" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="4:13">
-      <c r="E67" s="8" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="4:13">
-      <c r="E68" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="4:13">
-      <c r="E69" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="70" spans="4:13">
-      <c r="E70" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="4:13">
-      <c r="D74" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="M74" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="D103" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="D104" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="E105" s="9">
-        <v>1</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="E106" s="9"/>
-      <c r="F106" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="E107" s="9"/>
-      <c r="F107" s="8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="E108" s="9"/>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="E109" s="9">
-        <v>2</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="E110" s="9"/>
-      <c r="F110" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="E111" s="9"/>
-      <c r="F111" s="8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="E112" s="9"/>
-    </row>
-    <row r="113" spans="4:6">
-      <c r="E113" s="9">
-        <v>3</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="114" spans="4:6">
-      <c r="E114" s="9"/>
-      <c r="F114" s="8" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="115" spans="4:6">
-      <c r="E115" s="9"/>
-      <c r="F115" s="8" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="116" spans="4:6">
-      <c r="E116" s="9"/>
-    </row>
-    <row r="117" spans="4:6">
-      <c r="E117" s="9">
-        <v>4</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="118" spans="4:6">
-      <c r="E118" s="9"/>
-      <c r="F118" s="8" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="121" spans="4:6">
-      <c r="E121" s="9">
-        <v>5</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="122" spans="4:6">
-      <c r="E122" s="9"/>
-      <c r="F122" s="8" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="123" spans="4:6">
-      <c r="E123" s="9"/>
-    </row>
-    <row r="125" spans="4:6">
-      <c r="D125" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="126" spans="4:6">
-      <c r="E126" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="127" spans="4:6">
-      <c r="E127" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="128" spans="4:6">
-      <c r="E128" s="47"/>
-      <c r="F128" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="5:6">
-      <c r="E129" s="47"/>
-      <c r="F129" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="130" spans="5:6">
-      <c r="E130" s="47"/>
-    </row>
-    <row r="131" spans="5:6">
-      <c r="E131" s="8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="132" spans="5:6">
-      <c r="E132" s="47">
-        <v>1</v>
-      </c>
-      <c r="F132" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="5:6">
-      <c r="E133" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="5:6">
-      <c r="E134" s="48"/>
-      <c r="F134" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="135" spans="5:6">
-      <c r="E135" s="48"/>
-      <c r="F135" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="136" spans="5:6">
-      <c r="E136" s="48"/>
-      <c r="F136" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="137" spans="5:6">
-      <c r="E137" s="48"/>
-      <c r="F137" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="138" spans="5:6">
-      <c r="E138" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="F138" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="139" spans="5:6">
-      <c r="E139" s="48"/>
-      <c r="F139" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="140" spans="5:6">
-      <c r="E140" s="48"/>
-      <c r="F140" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="5:6">
-      <c r="E141" s="48"/>
-      <c r="F141" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="142" spans="5:6">
-      <c r="E142" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="5:6">
-      <c r="E143" s="48"/>
-      <c r="F143" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="144" spans="5:6">
-      <c r="E144" s="48"/>
-      <c r="F144" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="145" spans="5:6">
-      <c r="E145" s="48"/>
-      <c r="F145" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="146" spans="5:6">
-      <c r="E146" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="147" spans="5:6">
-      <c r="E147" s="49"/>
-      <c r="F147" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="148" spans="5:6">
-      <c r="E148" s="49"/>
-      <c r="F148" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="149" spans="5:6">
-      <c r="E149" s="49"/>
-      <c r="F149" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="150" spans="5:6">
-      <c r="E150" s="49"/>
-      <c r="F150" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="151" spans="5:6">
-      <c r="E151" s="48" t="s">
-        <v>536</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="152" spans="5:6">
-      <c r="E152" s="49"/>
-    </row>
-    <row r="153" spans="5:6">
-      <c r="E153" s="47">
-        <v>2</v>
-      </c>
-      <c r="F153" s="16" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="154" spans="5:6">
-      <c r="E154" s="48" t="s">
-        <v>525</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="155" spans="5:6">
-      <c r="E155" s="48"/>
-      <c r="F155" s="8" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="156" spans="5:6">
-      <c r="E156" s="48"/>
-      <c r="F156" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="157" spans="5:6">
-      <c r="E157" s="48" t="s">
-        <v>532</v>
-      </c>
-      <c r="F157" s="16" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="158" spans="5:6">
-      <c r="E158" s="48"/>
-      <c r="F158" s="8" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="159" spans="5:6">
-      <c r="E159" s="48"/>
-      <c r="F159" s="8" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="160" spans="5:6">
-      <c r="E160" s="48"/>
-      <c r="F160" s="8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="E161" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="F161" s="16" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="E162" s="49"/>
-      <c r="F162" s="8" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="E163" s="49"/>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="E164" s="8" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="E165" s="49" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="E166" s="49" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D168" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="D169" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="D170" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="D171" s="47">
-        <v>1</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="D172" s="47"/>
-      <c r="E172" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="D173" s="47"/>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="D174" s="47">
-        <v>2</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="D175" s="47"/>
-      <c r="E175" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="D176" s="47"/>
-      <c r="E176" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="177" spans="3:5">
-      <c r="D177" s="47"/>
-    </row>
-    <row r="178" spans="3:5">
-      <c r="D178" s="47">
-        <v>3</v>
-      </c>
-      <c r="E178" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="179" spans="3:5">
-      <c r="D179" s="47"/>
-      <c r="E179" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="180" spans="3:5">
-      <c r="D180" s="47"/>
-      <c r="E180" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="181" spans="3:5">
-      <c r="D181" s="47"/>
-      <c r="E181" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="182" spans="3:5">
-      <c r="D182" s="47"/>
-      <c r="E182" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="183" spans="3:5">
-      <c r="E183" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="185" spans="3:5">
-      <c r="D185" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E185" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="187" spans="3:5">
-      <c r="C187" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="188" spans="3:5">
-      <c r="D188" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="189" spans="3:5">
-      <c r="E189" s="8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="190" spans="3:5">
-      <c r="E190" s="8" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="191" spans="3:5">
-      <c r="E191" s="8" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="192" spans="3:5">
-      <c r="E192" s="8" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="B194" s="6">
-        <v>2</v>
-      </c>
-      <c r="C194" s="18" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
-      <c r="C195" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="D197" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="D198" s="47">
+        <v>1</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="D199" s="47"/>
+      <c r="E199" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="D200" s="47"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="D201" s="47">
+        <v>2</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="D202" s="47"/>
+      <c r="E202" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="D203" s="47"/>
+      <c r="E203" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="D204" s="47"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="D205" s="47">
+        <v>3</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="D206" s="47"/>
+      <c r="E206" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="D207" s="47"/>
+      <c r="E207" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="D208" s="47"/>
+      <c r="E208" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="D209" s="47"/>
+      <c r="E209" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="E210" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="D212" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B215" s="6">
+        <v>2</v>
+      </c>
+      <c r="C215" s="18" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="C216" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D216" s="62" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="D218" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E197" s="8" t="s">
+      <c r="E218" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
-      <c r="D198" s="8" t="s">
+    <row r="219" spans="1:5">
+      <c r="D219" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E198" s="8" t="s">
+      <c r="E219" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
-      <c r="D199" s="8" t="s">
+    <row r="220" spans="1:5">
+      <c r="D220" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E199" s="8" t="s">
+      <c r="E220" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="E200" s="8" t="s">
+    <row r="221" spans="1:5">
+      <c r="E221" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="E223" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="E224" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="225" spans="3:12">
+      <c r="E225" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="227" spans="3:12">
+      <c r="C227" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D227" s="62" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="229" spans="3:12">
+      <c r="D229" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="230" spans="3:12">
+      <c r="D230" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="231" spans="3:12">
+      <c r="E231" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F231" s="20"/>
+      <c r="G231" s="20"/>
+      <c r="H231" s="20"/>
+      <c r="I231" s="20"/>
+      <c r="J231" s="20"/>
+      <c r="K231" s="20"/>
+      <c r="L231" s="21"/>
+    </row>
+    <row r="232" spans="3:12">
+      <c r="E232" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F232" s="23"/>
+      <c r="G232" s="23"/>
+      <c r="H232" s="23"/>
+      <c r="I232" s="23"/>
+      <c r="J232" s="23"/>
+      <c r="K232" s="23"/>
+      <c r="L232" s="24"/>
+    </row>
+    <row r="233" spans="3:12">
+      <c r="E233" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F233" s="23"/>
+      <c r="G233" s="23"/>
+      <c r="H233" s="23"/>
+      <c r="I233" s="23"/>
+      <c r="J233" s="23"/>
+      <c r="K233" s="23"/>
+      <c r="L233" s="24"/>
+    </row>
+    <row r="234" spans="3:12">
+      <c r="E234" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F234" s="26"/>
+      <c r="G234" s="26"/>
+      <c r="H234" s="26"/>
+      <c r="I234" s="26"/>
+      <c r="J234" s="26"/>
+      <c r="K234" s="26"/>
+      <c r="L234" s="27"/>
+    </row>
+    <row r="236" spans="3:12">
+      <c r="E236" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="237" spans="3:12">
+      <c r="E237" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F237" s="20"/>
+      <c r="G237" s="20"/>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="20"/>
+      <c r="K237" s="20"/>
+      <c r="L237" s="21"/>
+    </row>
+    <row r="238" spans="3:12">
+      <c r="E238" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F238" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="G238" s="23"/>
+      <c r="H238" s="23"/>
+      <c r="I238" s="23"/>
+      <c r="J238" s="23"/>
+      <c r="K238" s="23"/>
+      <c r="L238" s="24"/>
+    </row>
+    <row r="239" spans="3:12">
+      <c r="E239" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F239" s="26" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="E202" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="E203" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="E204" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
-      <c r="C206" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="D208" s="8" t="s">
+      <c r="G239" s="26"/>
+      <c r="H239" s="26"/>
+      <c r="I239" s="26"/>
+      <c r="J239" s="26"/>
+      <c r="K239" s="26"/>
+      <c r="L239" s="27"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D241" s="62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="D243" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E208" s="8" t="s">
+      <c r="E243" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="D244" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E244" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="E245" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="D246" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="E247" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="E248" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="E249" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="E250" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="E251" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="E252" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D254" s="62" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="D256" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" spans="4:14">
+      <c r="D257" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E257" s="61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="258" spans="4:14">
+      <c r="D258" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E258" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="259" spans="4:14">
+      <c r="E259" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="4:14">
+      <c r="E260" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="263" spans="4:14">
+      <c r="D263" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E263" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="264" spans="4:14">
+      <c r="E264" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
-      <c r="D209" s="8" t="s">
+    <row r="265" spans="4:14">
+      <c r="E265" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F265" s="20"/>
+      <c r="G265" s="20"/>
+      <c r="H265" s="20"/>
+      <c r="I265" s="20"/>
+      <c r="J265" s="20"/>
+      <c r="K265" s="20"/>
+      <c r="L265" s="20"/>
+      <c r="M265" s="20"/>
+      <c r="N265" s="21"/>
+    </row>
+    <row r="266" spans="4:14">
+      <c r="E266" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="F266" s="23"/>
+      <c r="G266" s="23"/>
+      <c r="H266" s="23"/>
+      <c r="I266" s="23"/>
+      <c r="J266" s="23"/>
+      <c r="K266" s="23"/>
+      <c r="L266" s="23"/>
+      <c r="M266" s="23"/>
+      <c r="N266" s="24"/>
+    </row>
+    <row r="267" spans="4:14">
+      <c r="E267" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F267" s="23"/>
+      <c r="G267" s="23"/>
+      <c r="H267" s="23"/>
+      <c r="I267" s="23"/>
+      <c r="J267" s="23"/>
+      <c r="K267" s="23"/>
+      <c r="L267" s="23"/>
+      <c r="M267" s="23"/>
+      <c r="N267" s="24"/>
+    </row>
+    <row r="268" spans="4:14">
+      <c r="E268" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F268" s="23"/>
+      <c r="G268" s="23"/>
+      <c r="H268" s="23"/>
+      <c r="I268" s="23"/>
+      <c r="J268" s="23"/>
+      <c r="K268" s="23"/>
+      <c r="L268" s="23"/>
+      <c r="M268" s="23"/>
+      <c r="N268" s="24"/>
+    </row>
+    <row r="269" spans="4:14">
+      <c r="E269" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F269" s="23"/>
+      <c r="G269" s="23"/>
+      <c r="H269" s="23"/>
+      <c r="I269" s="23"/>
+      <c r="J269" s="23"/>
+      <c r="K269" s="23"/>
+      <c r="L269" s="23"/>
+      <c r="M269" s="23"/>
+      <c r="N269" s="24"/>
+    </row>
+    <row r="270" spans="4:14">
+      <c r="E270" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F270" s="23"/>
+      <c r="G270" s="23"/>
+      <c r="H270" s="23"/>
+      <c r="I270" s="23"/>
+      <c r="J270" s="23"/>
+      <c r="K270" s="23"/>
+      <c r="L270" s="23"/>
+      <c r="M270" s="23"/>
+      <c r="N270" s="24"/>
+    </row>
+    <row r="271" spans="4:14">
+      <c r="E271" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F271" s="23"/>
+      <c r="G271" s="23"/>
+      <c r="H271" s="23"/>
+      <c r="I271" s="23"/>
+      <c r="J271" s="23"/>
+      <c r="K271" s="23"/>
+      <c r="L271" s="23"/>
+      <c r="M271" s="23"/>
+      <c r="N271" s="24"/>
+    </row>
+    <row r="272" spans="4:14">
+      <c r="E272" s="22"/>
+      <c r="F272" s="23"/>
+      <c r="G272" s="23"/>
+      <c r="H272" s="23"/>
+      <c r="I272" s="23"/>
+      <c r="J272" s="23"/>
+      <c r="K272" s="23"/>
+      <c r="L272" s="23"/>
+      <c r="M272" s="23"/>
+      <c r="N272" s="24"/>
+    </row>
+    <row r="273" spans="5:14">
+      <c r="E273" s="22"/>
+      <c r="F273" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G273" s="23"/>
+      <c r="H273" s="23"/>
+      <c r="I273" s="23"/>
+      <c r="J273" s="23"/>
+      <c r="K273" s="23"/>
+      <c r="L273" s="23"/>
+      <c r="M273" s="23"/>
+      <c r="N273" s="24"/>
+    </row>
+    <row r="274" spans="5:14">
+      <c r="E274" s="22"/>
+      <c r="F274" s="23"/>
+      <c r="G274" s="23"/>
+      <c r="H274" s="23"/>
+      <c r="I274" s="23"/>
+      <c r="J274" s="23"/>
+      <c r="K274" s="23"/>
+      <c r="L274" s="23"/>
+      <c r="M274" s="23"/>
+      <c r="N274" s="24"/>
+    </row>
+    <row r="275" spans="5:14">
+      <c r="E275" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F275" s="23"/>
+      <c r="G275" s="23"/>
+      <c r="H275" s="23"/>
+      <c r="I275" s="23"/>
+      <c r="J275" s="23"/>
+      <c r="K275" s="23"/>
+      <c r="L275" s="23"/>
+      <c r="M275" s="23"/>
+      <c r="N275" s="24"/>
+    </row>
+    <row r="276" spans="5:14">
+      <c r="E276" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="F276" s="23"/>
+      <c r="G276" s="23"/>
+      <c r="H276" s="23"/>
+      <c r="I276" s="23"/>
+      <c r="J276" s="23"/>
+      <c r="K276" s="23"/>
+      <c r="L276" s="23"/>
+      <c r="M276" s="23"/>
+      <c r="N276" s="24"/>
+    </row>
+    <row r="277" spans="5:14">
+      <c r="E277" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F277" s="30"/>
+      <c r="G277" s="30"/>
+      <c r="H277" s="30"/>
+      <c r="I277" s="30"/>
+      <c r="J277" s="30"/>
+      <c r="K277" s="30"/>
+      <c r="L277" s="30"/>
+      <c r="M277" s="23"/>
+      <c r="N277" s="24"/>
+    </row>
+    <row r="278" spans="5:14">
+      <c r="E278" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F278" s="30"/>
+      <c r="G278" s="30"/>
+      <c r="H278" s="30"/>
+      <c r="I278" s="30"/>
+      <c r="J278" s="30"/>
+      <c r="K278" s="30"/>
+      <c r="L278" s="30"/>
+      <c r="M278" s="23"/>
+      <c r="N278" s="24"/>
+    </row>
+    <row r="279" spans="5:14">
+      <c r="E279" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F279" s="30"/>
+      <c r="G279" s="30"/>
+      <c r="H279" s="30"/>
+      <c r="I279" s="30"/>
+      <c r="J279" s="30"/>
+      <c r="K279" s="30"/>
+      <c r="L279" s="30"/>
+      <c r="M279" s="23"/>
+      <c r="N279" s="24"/>
+    </row>
+    <row r="280" spans="5:14">
+      <c r="E280" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F280" s="30"/>
+      <c r="G280" s="30"/>
+      <c r="H280" s="30"/>
+      <c r="I280" s="30"/>
+      <c r="J280" s="30"/>
+      <c r="K280" s="30"/>
+      <c r="L280" s="30"/>
+      <c r="M280" s="23"/>
+      <c r="N280" s="24"/>
+    </row>
+    <row r="281" spans="5:14">
+      <c r="E281" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F281" s="30"/>
+      <c r="G281" s="30"/>
+      <c r="H281" s="30"/>
+      <c r="I281" s="30"/>
+      <c r="J281" s="30"/>
+      <c r="K281" s="30"/>
+      <c r="L281" s="30"/>
+      <c r="M281" s="23"/>
+      <c r="N281" s="24"/>
+    </row>
+    <row r="282" spans="5:14">
+      <c r="E282" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F282" s="30"/>
+      <c r="G282" s="30"/>
+      <c r="H282" s="30"/>
+      <c r="I282" s="30"/>
+      <c r="J282" s="30"/>
+      <c r="K282" s="30"/>
+      <c r="L282" s="30"/>
+      <c r="M282" s="23"/>
+      <c r="N282" s="24"/>
+    </row>
+    <row r="283" spans="5:14">
+      <c r="E283" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F283" s="32"/>
+      <c r="G283" s="32"/>
+      <c r="H283" s="32"/>
+      <c r="I283" s="32"/>
+      <c r="J283" s="32"/>
+      <c r="K283" s="32"/>
+      <c r="L283" s="32"/>
+      <c r="M283" s="26"/>
+      <c r="N283" s="27"/>
+    </row>
+    <row r="285" spans="5:14">
+      <c r="E285" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="286" spans="5:14">
+      <c r="E286" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="287" spans="5:14">
+      <c r="E287" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="E289" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="E290" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="E291" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="E292" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="E294" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="E295" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D297" s="62" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="D299" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E299" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="E300" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="D301" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E301" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="D302" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E209" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12">
-      <c r="E210" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F210" s="20"/>
-      <c r="G210" s="20"/>
-      <c r="H210" s="20"/>
-      <c r="I210" s="20"/>
-      <c r="J210" s="20"/>
-      <c r="K210" s="20"/>
-      <c r="L210" s="21"/>
-    </row>
-    <row r="211" spans="1:12">
-      <c r="E211" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F211" s="23"/>
-      <c r="G211" s="23"/>
-      <c r="H211" s="23"/>
-      <c r="I211" s="23"/>
-      <c r="J211" s="23"/>
-      <c r="K211" s="23"/>
-      <c r="L211" s="24"/>
-    </row>
-    <row r="212" spans="1:12">
-      <c r="E212" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F212" s="23"/>
-      <c r="G212" s="23"/>
-      <c r="H212" s="23"/>
-      <c r="I212" s="23"/>
-      <c r="J212" s="23"/>
-      <c r="K212" s="23"/>
-      <c r="L212" s="24"/>
-    </row>
-    <row r="213" spans="1:12">
-      <c r="E213" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F213" s="26"/>
-      <c r="G213" s="26"/>
-      <c r="H213" s="26"/>
-      <c r="I213" s="26"/>
-      <c r="J213" s="26"/>
-      <c r="K213" s="26"/>
-      <c r="L213" s="27"/>
-    </row>
-    <row r="215" spans="1:12">
-      <c r="E215" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12">
-      <c r="E216" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F216" s="20"/>
-      <c r="G216" s="20"/>
-      <c r="H216" s="20"/>
-      <c r="I216" s="20"/>
-      <c r="J216" s="20"/>
-      <c r="K216" s="20"/>
-      <c r="L216" s="21"/>
-    </row>
-    <row r="217" spans="1:12">
-      <c r="E217" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F217" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="G217" s="23"/>
-      <c r="H217" s="23"/>
-      <c r="I217" s="23"/>
-      <c r="J217" s="23"/>
-      <c r="K217" s="23"/>
-      <c r="L217" s="24"/>
-    </row>
-    <row r="218" spans="1:12">
-      <c r="E218" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F218" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="G218" s="26"/>
-      <c r="H218" s="26"/>
-      <c r="I218" s="26"/>
-      <c r="J218" s="26"/>
-      <c r="K218" s="26"/>
-      <c r="L218" s="27"/>
-    </row>
-    <row r="220" spans="1:12">
-      <c r="A220" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12">
-      <c r="D222" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E222" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12">
-      <c r="D223" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E223" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12">
-      <c r="E224" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
-      <c r="D225" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E225" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
-      <c r="E226" s="8" t="s">
+      <c r="E302" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="E303" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="305" spans="4:5">
+      <c r="D305" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="306" spans="4:5">
+      <c r="E306" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="307" spans="4:5">
+      <c r="E307" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="308" spans="4:5">
+      <c r="E308" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="309" spans="4:5">
+      <c r="E309" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="310" spans="4:5">
+      <c r="E310" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="311" spans="4:5">
+      <c r="E311" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="314" spans="4:5">
+      <c r="D314" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="315" spans="4:5">
+      <c r="D315" s="33"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B343" s="6">
+        <v>3</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="C344" s="7" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
-      <c r="E227" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
-      <c r="E228" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
-      <c r="E229" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
-      <c r="E230" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="E231" s="8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="C233" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="D235" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E235" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="D236" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E236" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="D237" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E237" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="E238" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="E239" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="242" spans="4:14">
-      <c r="D242" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E242" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="243" spans="4:14">
-      <c r="E243" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="244" spans="4:14">
-      <c r="E244" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F244" s="20"/>
-      <c r="G244" s="20"/>
-      <c r="H244" s="20"/>
-      <c r="I244" s="20"/>
-      <c r="J244" s="20"/>
-      <c r="K244" s="20"/>
-      <c r="L244" s="20"/>
-      <c r="M244" s="20"/>
-      <c r="N244" s="21"/>
-    </row>
-    <row r="245" spans="4:14">
-      <c r="E245" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F245" s="23"/>
-      <c r="G245" s="23"/>
-      <c r="H245" s="23"/>
-      <c r="I245" s="23"/>
-      <c r="J245" s="23"/>
-      <c r="K245" s="23"/>
-      <c r="L245" s="23"/>
-      <c r="M245" s="23"/>
-      <c r="N245" s="24"/>
-    </row>
-    <row r="246" spans="4:14">
-      <c r="E246" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F246" s="23"/>
-      <c r="G246" s="23"/>
-      <c r="H246" s="23"/>
-      <c r="I246" s="23"/>
-      <c r="J246" s="23"/>
-      <c r="K246" s="23"/>
-      <c r="L246" s="23"/>
-      <c r="M246" s="23"/>
-      <c r="N246" s="24"/>
-    </row>
-    <row r="247" spans="4:14">
-      <c r="E247" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F247" s="23"/>
-      <c r="G247" s="23"/>
-      <c r="H247" s="23"/>
-      <c r="I247" s="23"/>
-      <c r="J247" s="23"/>
-      <c r="K247" s="23"/>
-      <c r="L247" s="23"/>
-      <c r="M247" s="23"/>
-      <c r="N247" s="24"/>
-    </row>
-    <row r="248" spans="4:14">
-      <c r="E248" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F248" s="23"/>
-      <c r="G248" s="23"/>
-      <c r="H248" s="23"/>
-      <c r="I248" s="23"/>
-      <c r="J248" s="23"/>
-      <c r="K248" s="23"/>
-      <c r="L248" s="23"/>
-      <c r="M248" s="23"/>
-      <c r="N248" s="24"/>
-    </row>
-    <row r="249" spans="4:14">
-      <c r="E249" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F249" s="23"/>
-      <c r="G249" s="23"/>
-      <c r="H249" s="23"/>
-      <c r="I249" s="23"/>
-      <c r="J249" s="23"/>
-      <c r="K249" s="23"/>
-      <c r="L249" s="23"/>
-      <c r="M249" s="23"/>
-      <c r="N249" s="24"/>
-    </row>
-    <row r="250" spans="4:14">
-      <c r="E250" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="F250" s="23"/>
-      <c r="G250" s="23"/>
-      <c r="H250" s="23"/>
-      <c r="I250" s="23"/>
-      <c r="J250" s="23"/>
-      <c r="K250" s="23"/>
-      <c r="L250" s="23"/>
-      <c r="M250" s="23"/>
-      <c r="N250" s="24"/>
-    </row>
-    <row r="251" spans="4:14">
-      <c r="E251" s="22"/>
-      <c r="F251" s="23"/>
-      <c r="G251" s="23"/>
-      <c r="H251" s="23"/>
-      <c r="I251" s="23"/>
-      <c r="J251" s="23"/>
-      <c r="K251" s="23"/>
-      <c r="L251" s="23"/>
-      <c r="M251" s="23"/>
-      <c r="N251" s="24"/>
-    </row>
-    <row r="252" spans="4:14">
-      <c r="E252" s="22"/>
-      <c r="F252" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="G252" s="23"/>
-      <c r="H252" s="23"/>
-      <c r="I252" s="23"/>
-      <c r="J252" s="23"/>
-      <c r="K252" s="23"/>
-      <c r="L252" s="23"/>
-      <c r="M252" s="23"/>
-      <c r="N252" s="24"/>
-    </row>
-    <row r="253" spans="4:14">
-      <c r="E253" s="22"/>
-      <c r="F253" s="23"/>
-      <c r="G253" s="23"/>
-      <c r="H253" s="23"/>
-      <c r="I253" s="23"/>
-      <c r="J253" s="23"/>
-      <c r="K253" s="23"/>
-      <c r="L253" s="23"/>
-      <c r="M253" s="23"/>
-      <c r="N253" s="24"/>
-    </row>
-    <row r="254" spans="4:14">
-      <c r="E254" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F254" s="23"/>
-      <c r="G254" s="23"/>
-      <c r="H254" s="23"/>
-      <c r="I254" s="23"/>
-      <c r="J254" s="23"/>
-      <c r="K254" s="23"/>
-      <c r="L254" s="23"/>
-      <c r="M254" s="23"/>
-      <c r="N254" s="24"/>
-    </row>
-    <row r="255" spans="4:14">
-      <c r="E255" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="F255" s="23"/>
-      <c r="G255" s="23"/>
-      <c r="H255" s="23"/>
-      <c r="I255" s="23"/>
-      <c r="J255" s="23"/>
-      <c r="K255" s="23"/>
-      <c r="L255" s="23"/>
-      <c r="M255" s="23"/>
-      <c r="N255" s="24"/>
-    </row>
-    <row r="256" spans="4:14">
-      <c r="E256" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F256" s="30"/>
-      <c r="G256" s="30"/>
-      <c r="H256" s="30"/>
-      <c r="I256" s="30"/>
-      <c r="J256" s="30"/>
-      <c r="K256" s="30"/>
-      <c r="L256" s="30"/>
-      <c r="M256" s="23"/>
-      <c r="N256" s="24"/>
-    </row>
-    <row r="257" spans="5:14">
-      <c r="E257" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F257" s="30"/>
-      <c r="G257" s="30"/>
-      <c r="H257" s="30"/>
-      <c r="I257" s="30"/>
-      <c r="J257" s="30"/>
-      <c r="K257" s="30"/>
-      <c r="L257" s="30"/>
-      <c r="M257" s="23"/>
-      <c r="N257" s="24"/>
-    </row>
-    <row r="258" spans="5:14">
-      <c r="E258" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F258" s="30"/>
-      <c r="G258" s="30"/>
-      <c r="H258" s="30"/>
-      <c r="I258" s="30"/>
-      <c r="J258" s="30"/>
-      <c r="K258" s="30"/>
-      <c r="L258" s="30"/>
-      <c r="M258" s="23"/>
-      <c r="N258" s="24"/>
-    </row>
-    <row r="259" spans="5:14">
-      <c r="E259" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F259" s="30"/>
-      <c r="G259" s="30"/>
-      <c r="H259" s="30"/>
-      <c r="I259" s="30"/>
-      <c r="J259" s="30"/>
-      <c r="K259" s="30"/>
-      <c r="L259" s="30"/>
-      <c r="M259" s="23"/>
-      <c r="N259" s="24"/>
-    </row>
-    <row r="260" spans="5:14">
-      <c r="E260" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F260" s="30"/>
-      <c r="G260" s="30"/>
-      <c r="H260" s="30"/>
-      <c r="I260" s="30"/>
-      <c r="J260" s="30"/>
-      <c r="K260" s="30"/>
-      <c r="L260" s="30"/>
-      <c r="M260" s="23"/>
-      <c r="N260" s="24"/>
-    </row>
-    <row r="261" spans="5:14">
-      <c r="E261" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F261" s="30"/>
-      <c r="G261" s="30"/>
-      <c r="H261" s="30"/>
-      <c r="I261" s="30"/>
-      <c r="J261" s="30"/>
-      <c r="K261" s="30"/>
-      <c r="L261" s="30"/>
-      <c r="M261" s="23"/>
-      <c r="N261" s="24"/>
-    </row>
-    <row r="262" spans="5:14">
-      <c r="E262" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="F262" s="32"/>
-      <c r="G262" s="32"/>
-      <c r="H262" s="32"/>
-      <c r="I262" s="32"/>
-      <c r="J262" s="32"/>
-      <c r="K262" s="32"/>
-      <c r="L262" s="32"/>
-      <c r="M262" s="26"/>
-      <c r="N262" s="27"/>
-    </row>
-    <row r="264" spans="5:14">
-      <c r="E264" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="265" spans="5:14">
-      <c r="E265" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="266" spans="5:14">
-      <c r="E266" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="268" spans="5:14">
-      <c r="E268" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="269" spans="5:14">
-      <c r="E269" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="270" spans="5:14">
-      <c r="E270" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="271" spans="5:14">
-      <c r="E271" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="E273" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="E274" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="C276" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D276" s="8" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
-      <c r="D278" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E278" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
-      <c r="E279" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
-      <c r="D280" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E280" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
-      <c r="D281" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E281" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
-      <c r="E282" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
-      <c r="D284" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E284" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
-      <c r="E285" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
-      <c r="E286" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
-      <c r="E287" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
-      <c r="E288" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="289" spans="4:5">
-      <c r="E289" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="290" spans="4:5">
-      <c r="E290" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="293" spans="4:5">
-      <c r="D293" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="294" spans="4:5">
-      <c r="D294" s="33"/>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="B322" s="6">
-        <v>3</v>
-      </c>
-      <c r="C322" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="C323" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D323" s="8" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="D324" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E324" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="D325" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E325" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="D326" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E326" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="E327" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="E328" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="E329" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="E330" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="E331" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="E332" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="E333" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="E334" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="E335" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="E336" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="D340" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E340" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="E341" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="E342" s="8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="C344" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="D344" s="8" t="s">
-        <v>414</v>
+      <c r="D344" s="62" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="D345" s="8" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="E345" s="8" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
     </row>
     <row r="346" spans="1:5">
-      <c r="D346" s="8">
-        <v>1</v>
-      </c>
-      <c r="E346" s="16" t="s">
-        <v>238</v>
+      <c r="D346" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E346" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="347" spans="1:5">
+      <c r="D347" s="8" t="s">
+        <v>212</v>
+      </c>
       <c r="E347" s="8" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="E348" s="8" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="E349" s="8" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
     </row>
     <row r="350" spans="1:5">
-      <c r="E350" s="16" t="s">
-        <v>242</v>
+      <c r="E350" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="E351" s="8" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="352" spans="1:5">
-      <c r="D352" s="8">
-        <v>2</v>
-      </c>
       <c r="E352" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="353" spans="1:5">
-      <c r="E353" s="16" t="s">
-        <v>253</v>
+      <c r="E353" s="8" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="E354" s="8" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="E355" s="8" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="E356" s="8" t="s">
-        <v>256</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="E357" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="D361" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E361" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="42" t="s">
-        <v>412</v>
-      </c>
-      <c r="B362" s="6">
+      <c r="E362" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="E363" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="C365" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D365" s="62" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="D366" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E366" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="D367" s="8">
+        <v>1</v>
+      </c>
+      <c r="E367" s="16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="E368" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="E369" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="E370" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="E371" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="D373" s="8">
+        <v>2</v>
+      </c>
+      <c r="E373" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="E374" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="E375" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="E376" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="E377" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="B383" s="6">
         <v>4</v>
       </c>
-      <c r="C362" s="7" t="s">
-        <v>234</v>
+      <c r="C383" s="7" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回封面目录"/>
-    <hyperlink ref="B13" location="内容.Git_与远程主机的交互" tooltip="Git_与远程主机的交互" display="与远程仓库交互"/>
+    <hyperlink ref="B35" location="内容.Git_与远程主机的交互" tooltip="Git_与远程主机的交互" display="与远程仓库交互"/>
     <hyperlink ref="B7" location="内容.Git_管理本地仓库" tooltip="Git_管理本地仓库" display="管理本地仓库"/>
-    <hyperlink ref="B19" location="内容.Git_配置" tooltip="Git_配置" display="Git配置"/>
-    <hyperlink ref="A31" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A53" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A102" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A168" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A194" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A220" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A233" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A276" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A322" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A344" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A362" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="B41" location="内容.Git_配置" tooltip="Git_配置" display="Git配置"/>
+    <hyperlink ref="A81" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A103" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A130" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A195" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A215" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A241" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A254" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A297" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A343" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A365" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A383" location="Git的使用!A1" tooltip="返回" display="top"/>
     <hyperlink ref="C8" location="git_add" tooltip="git add" display="git add"/>
-    <hyperlink ref="C9" location="git_commit" tooltip="git commit" display="git commit"/>
-    <hyperlink ref="C10" location="git_diff" tooltip="git diff" display="git diff"/>
-    <hyperlink ref="C11" location="git_rm" tooltip="git rm" display="git rm"/>
-    <hyperlink ref="C14" location="git_clone" tooltip="git clone" display="git clone"/>
-    <hyperlink ref="C15" location="git_remote" tooltip="git remote" display="git remote"/>
-    <hyperlink ref="C16" location="git_fetch" tooltip="git fetch" display="git fetch"/>
-    <hyperlink ref="C17" location="git_push" tooltip="git push" display="git push"/>
-    <hyperlink ref="C18" location="git_pull" tooltip="git pull" display="git pull"/>
-    <hyperlink ref="C21" location="git_config" tooltip="git config" display="git config"/>
-    <hyperlink ref="C20" location="_.gitignore" tooltip="gitignore" display=".gitignore的配置(忽略某些文件的版本管理)"/>
-    <hyperlink ref="C22" location="git_config" tooltip="git config --unset" display="git config --unset"/>
-    <hyperlink ref="B24" location="内容.Git_分支管理" tooltip="Git分支管理" display="Git分支管理"/>
+    <hyperlink ref="C14" location="git_commit" tooltip="git commit" display="git commit"/>
+    <hyperlink ref="C19" location="git_diff" tooltip="git diff" display="git diff"/>
+    <hyperlink ref="C26" location="git_rm" tooltip="git rm" display="git rm"/>
+    <hyperlink ref="C36" location="git_clone" tooltip="git clone" display="git clone"/>
+    <hyperlink ref="C37" location="git_remote" tooltip="git remote" display="git remote"/>
+    <hyperlink ref="C38" location="git_fetch" tooltip="git fetch" display="git fetch"/>
+    <hyperlink ref="C39" location="git_push" tooltip="git push" display="git push"/>
+    <hyperlink ref="C40" location="git_pull" tooltip="git pull" display="git pull"/>
+    <hyperlink ref="C43" location="git_config" tooltip="git config" display="git config"/>
+    <hyperlink ref="C42" location="_.gitignore" tooltip="gitignore" display=".gitignore的配置(忽略某些文件的版本管理)"/>
+    <hyperlink ref="C44" location="git_config" tooltip="git config --unset" display="git config --unset"/>
+    <hyperlink ref="B46" location="内容.Git_分支管理" tooltip="Git分支管理" display="Git分支管理"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6533,7 +7036,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6546,7 +7049,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="D7" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6836,46 +7339,46 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -6883,46 +7386,46 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="C42" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -6967,7 +7470,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6975,7 +7478,7 @@
         <v>147</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6983,12 +7486,12 @@
         <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6996,12 +7499,12 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7009,22 +7512,22 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7032,7 +7535,7 @@
         <v>150</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7051,7 +7554,7 @@
         <v>147</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7101,20 +7604,20 @@
         <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7122,25 +7625,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="8"/>
       <c r="D9" s="5" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7151,69 +7654,69 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="2" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="D33" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" s="2" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7251,25 +7754,25 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7277,12 +7780,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7290,12 +7793,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7303,73 +7806,73 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="D17" s="36" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="D18" s="36" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="D19" s="36" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="D20" s="37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="3:6">
       <c r="D21" s="36" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="D22" s="37" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="3:6">
       <c r="D23" s="36" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" s="36" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -7377,23 +7880,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="D27" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="D28" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -7401,15 +7904,15 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="D31" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -7417,25 +7920,25 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="D34" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="D35" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="E36" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -7478,28 +7981,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="D4" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7507,32 +8010,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7540,17 +8043,17 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -7558,22 +8061,22 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" s="37" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="D22" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -7581,64 +8084,64 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="2" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="2" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="2" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="2" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="41" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="D68" s="2" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="D69" s="2" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="D70" s="2" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -7660,7 +8163,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:P260"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7677,95 +8180,95 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="38" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="C4" s="38" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="C5" s="38" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="38" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="38" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="60" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="38" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="4:5">
       <c r="D17" s="38" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="4:5">
       <c r="E18" s="46" t="s">
-        <v>430</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="4:5">
       <c r="D19" s="38" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="4:5">
       <c r="E22" s="38" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="4:5">
       <c r="E24" s="38" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="25" spans="4:5">
       <c r="E25" s="38" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="4:5">
       <c r="E26" s="38" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="4:5">
       <c r="E27" s="38" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="4:5">
       <c r="E28" s="38" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="4:5">
       <c r="D30" s="38" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="C33" s="38" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7773,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7783,12 +8286,12 @@
     </row>
     <row r="36" spans="1:5">
       <c r="E36" s="38" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="E37" s="38" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -7796,33 +8299,33 @@
         <v>2</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="E40" s="38" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="E41" s="38" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="41" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C44" s="38">
         <v>3</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="D45" s="38" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -7830,37 +8333,37 @@
         <v>1</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="E47" s="38" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="E48" s="38" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="4:6">
       <c r="F49" s="38" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50" spans="4:6">
       <c r="F50" s="38" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="4:6">
       <c r="F51" s="38" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="4:6">
       <c r="E52" s="38" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="4:6">
@@ -7868,116 +8371,114 @@
         <v>2</v>
       </c>
       <c r="E54" s="38" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="4:6">
       <c r="E55" s="38" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="4:6">
       <c r="E56" s="38" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="4:6">
       <c r="F57" s="38" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="4:6">
       <c r="F58" s="38" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="4:6">
       <c r="E59" s="38" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="4:6">
       <c r="D60" s="38" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="61" spans="4:6">
       <c r="E61" s="38" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
     </row>
     <row r="62" spans="4:6">
       <c r="F62" s="38" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="64" spans="4:6">
       <c r="F64" s="38" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="65" spans="5:6">
       <c r="F65" s="38" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="5:6">
       <c r="E67" s="38" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="68" spans="5:6">
       <c r="E68" s="38" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="5:6">
       <c r="F69" s="38" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="5:6">
       <c r="F70" s="38" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="5:6">
       <c r="F72" s="38" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
     </row>
     <row r="73" spans="5:6">
       <c r="F73" s="38" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
     </row>
     <row r="74" spans="5:6">
       <c r="F74" s="38" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
     </row>
     <row r="76" spans="5:6">
       <c r="F76" s="38" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="5:6">
       <c r="F77" s="38" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="41" t="s">
-        <v>468</v>
-      </c>
+      <c r="A92" s="41"/>
       <c r="C92" s="38">
         <v>3</v>
       </c>
       <c r="D92" s="38" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -7985,143 +8486,116 @@
         <v>1</v>
       </c>
       <c r="E93" s="38" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="E94" s="38" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="E95" s="38" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="F96" s="38" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15">
       <c r="F97" s="38" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="99" spans="3:6">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15">
       <c r="D99" s="38">
         <v>2</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15">
       <c r="E100" s="38" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15">
       <c r="E101" s="38" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15">
       <c r="F102" s="38" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="103" spans="3:6">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="103" spans="3:15">
       <c r="E103" s="38" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="106" spans="3:6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="106" spans="3:15">
       <c r="C106" s="38" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" spans="3:15">
       <c r="D107" s="38" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="E107" s="38" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="110" spans="3:6">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="110" spans="3:15">
       <c r="C110" s="38" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="111" spans="3:6">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="111" spans="3:15">
       <c r="D111" s="38" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6">
-      <c r="D112" s="38" t="s">
-        <v>552</v>
-      </c>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="112" spans="3:15">
       <c r="E112" s="38" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="113" spans="4:13">
-      <c r="E113" s="50" t="s">
-        <v>560</v>
-      </c>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="51"/>
-      <c r="J113" s="51"/>
-      <c r="K113" s="51"/>
-      <c r="L113" s="51"/>
-      <c r="M113" s="52"/>
-    </row>
-    <row r="114" spans="4:13">
-      <c r="E114" s="53"/>
-      <c r="F114" s="54" t="s">
-        <v>553</v>
-      </c>
-      <c r="G114" s="54"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="54"/>
-      <c r="K114" s="54"/>
-      <c r="L114" s="54"/>
-      <c r="M114" s="55"/>
-    </row>
-    <row r="115" spans="4:13">
-      <c r="E115" s="53"/>
-      <c r="F115" s="54"/>
-      <c r="G115" s="54" t="s">
-        <v>554</v>
-      </c>
-      <c r="H115" s="54"/>
-      <c r="I115" s="54"/>
-      <c r="J115" s="54"/>
-      <c r="K115" s="54"/>
-      <c r="L115" s="54"/>
-      <c r="M115" s="55"/>
-    </row>
-    <row r="116" spans="4:13">
-      <c r="E116" s="53"/>
-      <c r="F116" s="54"/>
-      <c r="G116" s="54" t="s">
-        <v>555</v>
-      </c>
-      <c r="H116" s="54"/>
-      <c r="I116" s="54"/>
-      <c r="J116" s="54"/>
-      <c r="K116" s="54"/>
-      <c r="L116" s="54"/>
-      <c r="M116" s="55"/>
-    </row>
-    <row r="117" spans="4:13">
+        <v>619</v>
+      </c>
+      <c r="O112" s="38" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="113" spans="3:15">
+      <c r="E113" s="38" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="114" spans="3:15">
+      <c r="E114" s="38" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="116" spans="3:15">
+      <c r="E116" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
+      <c r="L116" s="51"/>
+      <c r="M116" s="52"/>
+    </row>
+    <row r="117" spans="3:15">
       <c r="E117" s="53"/>
-      <c r="F117" s="54"/>
+      <c r="F117" s="54" t="s">
+        <v>616</v>
+      </c>
       <c r="G117" s="54"/>
       <c r="H117" s="54"/>
       <c r="I117" s="54"/>
@@ -8130,12 +8604,12 @@
       <c r="L117" s="54"/>
       <c r="M117" s="55"/>
     </row>
-    <row r="118" spans="4:13">
+    <row r="118" spans="3:15">
       <c r="E118" s="53"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="54" t="s">
-        <v>556</v>
-      </c>
+      <c r="F118" s="59" t="s">
+        <v>609</v>
+      </c>
+      <c r="G118" s="54"/>
       <c r="H118" s="54"/>
       <c r="I118" s="54"/>
       <c r="J118" s="54"/>
@@ -8143,10 +8617,10 @@
       <c r="L118" s="54"/>
       <c r="M118" s="55"/>
     </row>
-    <row r="119" spans="4:13">
+    <row r="119" spans="3:15">
       <c r="E119" s="53"/>
       <c r="F119" s="54" t="s">
-        <v>556</v>
+        <v>610</v>
       </c>
       <c r="G119" s="54"/>
       <c r="H119" s="54"/>
@@ -8156,10 +8630,10 @@
       <c r="L119" s="54"/>
       <c r="M119" s="55"/>
     </row>
-    <row r="120" spans="4:13">
+    <row r="120" spans="3:15">
       <c r="E120" s="53"/>
       <c r="F120" s="54" t="s">
-        <v>557</v>
+        <v>611</v>
       </c>
       <c r="G120" s="54"/>
       <c r="H120" s="54"/>
@@ -8169,10 +8643,10 @@
       <c r="L120" s="54"/>
       <c r="M120" s="55"/>
     </row>
-    <row r="121" spans="4:13">
+    <row r="121" spans="3:15">
       <c r="E121" s="53"/>
       <c r="F121" s="54" t="s">
-        <v>558</v>
+        <v>612</v>
       </c>
       <c r="G121" s="54"/>
       <c r="H121" s="54"/>
@@ -8182,24 +8656,27 @@
       <c r="L121" s="54"/>
       <c r="M121" s="55"/>
     </row>
-    <row r="122" spans="4:13">
+    <row r="122" spans="3:15">
       <c r="E122" s="53"/>
-      <c r="F122" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="G122" s="54"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="54" t="s">
+        <v>613</v>
+      </c>
       <c r="H122" s="54"/>
       <c r="I122" s="54"/>
       <c r="J122" s="54"/>
       <c r="K122" s="54"/>
       <c r="L122" s="54"/>
       <c r="M122" s="55"/>
-    </row>
-    <row r="123" spans="4:13">
-      <c r="E123" s="53" t="s">
-        <v>561</v>
-      </c>
-      <c r="F123" s="54"/>
+      <c r="O122" s="38" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="123" spans="3:15">
+      <c r="E123" s="53"/>
+      <c r="F123" s="54" t="s">
+        <v>537</v>
+      </c>
       <c r="G123" s="54"/>
       <c r="H123" s="54"/>
       <c r="I123" s="54"/>
@@ -8208,66 +8685,112 @@
       <c r="L123" s="54"/>
       <c r="M123" s="55"/>
     </row>
-    <row r="124" spans="4:13">
-      <c r="E124" s="56"/>
-      <c r="F124" s="57"/>
-      <c r="G124" s="57"/>
-      <c r="H124" s="57"/>
-      <c r="I124" s="57"/>
-      <c r="J124" s="57"/>
-      <c r="K124" s="57"/>
-      <c r="L124" s="57"/>
-      <c r="M124" s="58"/>
-    </row>
-    <row r="126" spans="4:13">
-      <c r="D126" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="E126" s="38" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="128" spans="4:13">
-      <c r="E128" s="50" t="s">
-        <v>560</v>
-      </c>
-      <c r="F128" s="51"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="51"/>
-      <c r="I128" s="51"/>
-      <c r="J128" s="51"/>
-      <c r="K128" s="51"/>
-      <c r="L128" s="51"/>
-      <c r="M128" s="52"/>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="E129" s="53"/>
-      <c r="F129" s="54" t="s">
-        <v>562</v>
-      </c>
+    <row r="124" spans="3:15">
+      <c r="C124" s="54"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="53"/>
+      <c r="F124" s="54" t="s">
+        <v>614</v>
+      </c>
+      <c r="G124" s="54"/>
+      <c r="H124" s="54"/>
+      <c r="I124" s="54"/>
+      <c r="J124" s="54"/>
+      <c r="K124" s="54"/>
+      <c r="L124" s="54"/>
+      <c r="M124" s="55"/>
+      <c r="N124" s="54"/>
+    </row>
+    <row r="125" spans="3:15">
+      <c r="C125" s="54"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="53"/>
+      <c r="F125" s="54" t="s">
+        <v>615</v>
+      </c>
+      <c r="G125" s="54"/>
+      <c r="H125" s="54"/>
+      <c r="I125" s="54"/>
+      <c r="J125" s="54"/>
+      <c r="K125" s="54"/>
+      <c r="L125" s="54"/>
+      <c r="M125" s="55"/>
+      <c r="N125" s="54"/>
+    </row>
+    <row r="126" spans="3:15">
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="53" t="s">
+        <v>539</v>
+      </c>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
+      <c r="L126" s="54"/>
+      <c r="M126" s="55"/>
+      <c r="N126" s="54"/>
+    </row>
+    <row r="127" spans="3:15">
+      <c r="C127" s="54"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="56"/>
+      <c r="F127" s="57"/>
+      <c r="G127" s="57"/>
+      <c r="H127" s="57"/>
+      <c r="I127" s="57"/>
+      <c r="J127" s="57"/>
+      <c r="K127" s="57"/>
+      <c r="L127" s="57"/>
+      <c r="M127" s="58"/>
+      <c r="N127" s="54"/>
+    </row>
+    <row r="128" spans="3:15">
+      <c r="C128" s="54"/>
+      <c r="D128" s="54"/>
+      <c r="N128" s="54"/>
+    </row>
+    <row r="129" spans="1:16">
+      <c r="A129" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="C129" s="54"/>
+      <c r="D129" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="E129" s="54"/>
+      <c r="F129" s="54"/>
       <c r="G129" s="54"/>
       <c r="H129" s="54"/>
       <c r="I129" s="54"/>
       <c r="J129" s="54"/>
       <c r="K129" s="54"/>
       <c r="L129" s="54"/>
-      <c r="M129" s="55"/>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="E130" s="53"/>
+      <c r="M129" s="54"/>
+      <c r="N129" s="54"/>
+    </row>
+    <row r="130" spans="1:16">
+      <c r="C130" s="54"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="54"/>
       <c r="F130" s="54"/>
-      <c r="G130" s="54" t="s">
-        <v>563</v>
-      </c>
+      <c r="G130" s="54"/>
       <c r="H130" s="54"/>
       <c r="I130" s="54"/>
       <c r="J130" s="54"/>
       <c r="K130" s="54"/>
       <c r="L130" s="54"/>
-      <c r="M130" s="55"/>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="E131" s="53"/>
+      <c r="M130" s="54"/>
+      <c r="N130" s="54"/>
+    </row>
+    <row r="131" spans="1:16">
+      <c r="C131" s="54"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="54" t="s">
+        <v>624</v>
+      </c>
       <c r="F131" s="54"/>
       <c r="G131" s="54"/>
       <c r="H131" s="54"/>
@@ -8275,36 +8798,47 @@
       <c r="J131" s="54"/>
       <c r="K131" s="54"/>
       <c r="L131" s="54"/>
-      <c r="M131" s="55"/>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="E132" s="53"/>
+      <c r="M131" s="54"/>
+      <c r="N131" s="54"/>
+    </row>
+    <row r="132" spans="1:16">
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="54" t="s">
+        <v>626</v>
+      </c>
       <c r="F132" s="54"/>
-      <c r="G132" s="54" t="s">
-        <v>590</v>
-      </c>
+      <c r="G132" s="54"/>
       <c r="H132" s="54"/>
       <c r="I132" s="54"/>
       <c r="J132" s="54"/>
       <c r="K132" s="54"/>
       <c r="L132" s="54"/>
-      <c r="M132" s="55"/>
-    </row>
-    <row r="133" spans="1:13">
-      <c r="E133" s="53"/>
+      <c r="M132" s="54"/>
+      <c r="N132" s="54"/>
+    </row>
+    <row r="133" spans="1:16">
+      <c r="C133" s="54"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="54" t="s">
+        <v>627</v>
+      </c>
       <c r="F133" s="54"/>
-      <c r="G133" s="54" t="s">
-        <v>565</v>
-      </c>
+      <c r="G133" s="54"/>
       <c r="H133" s="54"/>
       <c r="I133" s="54"/>
       <c r="J133" s="54"/>
       <c r="K133" s="54"/>
       <c r="L133" s="54"/>
-      <c r="M133" s="55"/>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="E134" s="53"/>
+      <c r="M133" s="54"/>
+      <c r="N133" s="54"/>
+    </row>
+    <row r="134" spans="1:16">
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="54" t="s">
+        <v>628</v>
+      </c>
       <c r="F134" s="54"/>
       <c r="G134" s="54"/>
       <c r="H134" s="54"/>
@@ -8312,38 +8846,47 @@
       <c r="J134" s="54"/>
       <c r="K134" s="54"/>
       <c r="L134" s="54"/>
-      <c r="M134" s="55"/>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="E135" s="53"/>
+      <c r="M134" s="54"/>
+      <c r="N134" s="54"/>
+    </row>
+    <row r="135" spans="1:16">
+      <c r="C135" s="54"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="54"/>
       <c r="F135" s="54"/>
-      <c r="G135" s="54" t="s">
-        <v>556</v>
-      </c>
+      <c r="G135" s="54"/>
       <c r="H135" s="54"/>
       <c r="I135" s="54"/>
       <c r="J135" s="54"/>
       <c r="K135" s="54"/>
       <c r="L135" s="54"/>
-      <c r="M135" s="55"/>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="E136" s="53"/>
-      <c r="F136" s="54" t="s">
-        <v>567</v>
-      </c>
-      <c r="G136" s="54"/>
-      <c r="H136" s="54"/>
-      <c r="I136" s="54"/>
-      <c r="J136" s="54"/>
-      <c r="K136" s="54"/>
-      <c r="L136" s="54"/>
-      <c r="M136" s="55"/>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="M135" s="54"/>
+      <c r="N135" s="54"/>
+    </row>
+    <row r="136" spans="1:16">
+      <c r="C136" s="54"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="F136" s="51"/>
+      <c r="G136" s="51"/>
+      <c r="H136" s="51"/>
+      <c r="I136" s="51"/>
+      <c r="J136" s="51"/>
+      <c r="K136" s="51"/>
+      <c r="L136" s="51"/>
+      <c r="M136" s="51"/>
+      <c r="N136" s="51"/>
+      <c r="O136" s="51"/>
+      <c r="P136" s="52"/>
+    </row>
+    <row r="137" spans="1:16">
+      <c r="C137" s="54"/>
+      <c r="D137" s="54"/>
       <c r="E137" s="53"/>
       <c r="F137" s="54" t="s">
-        <v>568</v>
+        <v>629</v>
       </c>
       <c r="G137" s="54"/>
       <c r="H137" s="54"/>
@@ -8351,354 +8894,564 @@
       <c r="J137" s="54"/>
       <c r="K137" s="54"/>
       <c r="L137" s="54"/>
-      <c r="M137" s="55"/>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="M137" s="54"/>
+      <c r="N137" s="54"/>
+      <c r="O137" s="54"/>
+      <c r="P137" s="55"/>
+    </row>
+    <row r="138" spans="1:16">
+      <c r="C138" s="54"/>
+      <c r="D138" s="54"/>
       <c r="E138" s="53"/>
-      <c r="F138" s="54" t="s">
-        <v>569</v>
-      </c>
-      <c r="G138" s="54"/>
+      <c r="F138" s="54"/>
+      <c r="G138" s="54" t="s">
+        <v>630</v>
+      </c>
       <c r="H138" s="54"/>
       <c r="I138" s="54"/>
       <c r="J138" s="54"/>
       <c r="K138" s="54"/>
       <c r="L138" s="54"/>
-      <c r="M138" s="55"/>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="E139" s="56" t="s">
-        <v>561</v>
-      </c>
-      <c r="F139" s="57"/>
-      <c r="G139" s="57"/>
-      <c r="H139" s="57"/>
-      <c r="I139" s="57"/>
-      <c r="J139" s="57"/>
-      <c r="K139" s="57"/>
-      <c r="L139" s="57"/>
-      <c r="M139" s="58"/>
-    </row>
-    <row r="141" spans="1:13">
-      <c r="A141" s="41" t="s">
-        <v>468</v>
-      </c>
-      <c r="D141" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="E141" s="38" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
-      <c r="E143" s="50" t="s">
-        <v>560</v>
-      </c>
-      <c r="F143" s="51"/>
-      <c r="G143" s="51"/>
-      <c r="H143" s="51"/>
-      <c r="I143" s="51"/>
-      <c r="J143" s="51"/>
-      <c r="K143" s="51"/>
-      <c r="L143" s="51"/>
-      <c r="M143" s="52"/>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="M138" s="54"/>
+      <c r="N138" s="54"/>
+      <c r="O138" s="54"/>
+      <c r="P138" s="55"/>
+    </row>
+    <row r="139" spans="1:16">
+      <c r="C139" s="54"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="53"/>
+      <c r="F139" s="54"/>
+      <c r="G139" s="54" t="s">
+        <v>652</v>
+      </c>
+      <c r="H139" s="54"/>
+      <c r="I139" s="54"/>
+      <c r="J139" s="54"/>
+      <c r="K139" s="54"/>
+      <c r="L139" s="54"/>
+      <c r="M139" s="54"/>
+      <c r="N139" s="54"/>
+      <c r="O139" s="54"/>
+      <c r="P139" s="55"/>
+    </row>
+    <row r="140" spans="1:16">
+      <c r="C140" s="54"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="53"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="54" t="s">
+        <v>631</v>
+      </c>
+      <c r="H140" s="54"/>
+      <c r="I140" s="54"/>
+      <c r="J140" s="54"/>
+      <c r="K140" s="54"/>
+      <c r="L140" s="54"/>
+      <c r="M140" s="54"/>
+      <c r="N140" s="54"/>
+      <c r="O140" s="54"/>
+      <c r="P140" s="55"/>
+    </row>
+    <row r="141" spans="1:16">
+      <c r="C141" s="54"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="53"/>
+      <c r="F141" s="54"/>
+      <c r="G141" s="54"/>
+      <c r="H141" s="54" t="s">
+        <v>632</v>
+      </c>
+      <c r="I141" s="54"/>
+      <c r="J141" s="54"/>
+      <c r="K141" s="54"/>
+      <c r="L141" s="54"/>
+      <c r="M141" s="54"/>
+      <c r="N141" s="54"/>
+      <c r="O141" s="54"/>
+      <c r="P141" s="55"/>
+    </row>
+    <row r="142" spans="1:16">
+      <c r="C142" s="54"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="54"/>
+      <c r="G142" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H142" s="54"/>
+      <c r="I142" s="54"/>
+      <c r="J142" s="54"/>
+      <c r="K142" s="54"/>
+      <c r="L142" s="54"/>
+      <c r="M142" s="54"/>
+      <c r="N142" s="54"/>
+      <c r="O142" s="54"/>
+      <c r="P142" s="55"/>
+    </row>
+    <row r="143" spans="1:16">
+      <c r="C143" s="54"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="53"/>
+      <c r="F143" s="54"/>
+      <c r="G143" s="54" t="s">
+        <v>633</v>
+      </c>
+      <c r="H143" s="54"/>
+      <c r="I143" s="54"/>
+      <c r="J143" s="54"/>
+      <c r="K143" s="54"/>
+      <c r="L143" s="54"/>
+      <c r="M143" s="54"/>
+      <c r="N143" s="54"/>
+      <c r="O143" s="54"/>
+      <c r="P143" s="55"/>
+    </row>
+    <row r="144" spans="1:16">
+      <c r="C144" s="54"/>
+      <c r="D144" s="54"/>
       <c r="E144" s="53"/>
-      <c r="F144" s="54" t="s">
-        <v>572</v>
-      </c>
+      <c r="F144" s="54"/>
       <c r="G144" s="54"/>
-      <c r="H144" s="54"/>
+      <c r="H144" s="54" t="s">
+        <v>634</v>
+      </c>
       <c r="I144" s="54"/>
       <c r="J144" s="54"/>
       <c r="K144" s="54"/>
       <c r="L144" s="54"/>
-      <c r="M144" s="55"/>
-    </row>
-    <row r="145" spans="4:14">
+      <c r="M144" s="54"/>
+      <c r="N144" s="54"/>
+      <c r="O144" s="54"/>
+      <c r="P144" s="55"/>
+    </row>
+    <row r="145" spans="3:16">
+      <c r="C145" s="54"/>
+      <c r="D145" s="54"/>
       <c r="E145" s="53"/>
       <c r="F145" s="54"/>
       <c r="G145" s="54" t="s">
-        <v>573</v>
+        <v>537</v>
       </c>
       <c r="H145" s="54"/>
       <c r="I145" s="54"/>
       <c r="J145" s="54"/>
       <c r="K145" s="54"/>
       <c r="L145" s="54"/>
-      <c r="M145" s="55"/>
-    </row>
-    <row r="146" spans="4:14">
+      <c r="M145" s="54"/>
+      <c r="N145" s="54"/>
+      <c r="O145" s="54"/>
+      <c r="P145" s="55"/>
+    </row>
+    <row r="146" spans="3:16">
+      <c r="C146" s="54"/>
+      <c r="D146" s="54"/>
       <c r="E146" s="53"/>
       <c r="F146" s="54"/>
-      <c r="G146" s="54"/>
-      <c r="H146" s="54" t="s">
-        <v>564</v>
-      </c>
+      <c r="G146" s="54" t="s">
+        <v>635</v>
+      </c>
+      <c r="H146" s="54"/>
       <c r="I146" s="54"/>
       <c r="J146" s="54"/>
       <c r="K146" s="54"/>
       <c r="L146" s="54"/>
-      <c r="M146" s="55"/>
-    </row>
-    <row r="147" spans="4:14">
+      <c r="M146" s="54"/>
+      <c r="N146" s="54"/>
+      <c r="O146" s="54"/>
+      <c r="P146" s="55"/>
+    </row>
+    <row r="147" spans="3:16">
+      <c r="C147" s="54"/>
+      <c r="D147" s="54"/>
       <c r="E147" s="53"/>
       <c r="F147" s="54"/>
       <c r="G147" s="54" t="s">
-        <v>591</v>
-      </c>
-      <c r="H147" s="59"/>
+        <v>636</v>
+      </c>
+      <c r="H147" s="54"/>
       <c r="I147" s="54"/>
       <c r="J147" s="54"/>
       <c r="K147" s="54"/>
       <c r="L147" s="54"/>
-      <c r="M147" s="55"/>
-    </row>
-    <row r="148" spans="4:14">
+      <c r="M147" s="54"/>
+      <c r="N147" s="54"/>
+      <c r="O147" s="54"/>
+      <c r="P147" s="55"/>
+    </row>
+    <row r="148" spans="3:16">
+      <c r="C148" s="54"/>
+      <c r="D148" s="54"/>
       <c r="E148" s="53"/>
       <c r="F148" s="54"/>
-      <c r="G148" s="54" t="s">
-        <v>574</v>
-      </c>
-      <c r="H148" s="54"/>
+      <c r="G148" s="54"/>
+      <c r="H148" s="54" t="s">
+        <v>637</v>
+      </c>
       <c r="I148" s="54"/>
       <c r="J148" s="54"/>
       <c r="K148" s="54"/>
       <c r="L148" s="54"/>
-      <c r="M148" s="55"/>
-    </row>
-    <row r="149" spans="4:14">
+      <c r="M148" s="54"/>
+      <c r="N148" s="54"/>
+      <c r="O148" s="54"/>
+      <c r="P148" s="55"/>
+    </row>
+    <row r="149" spans="3:16">
+      <c r="C149" s="54"/>
+      <c r="D149" s="54"/>
       <c r="E149" s="53"/>
       <c r="F149" s="54"/>
-      <c r="G149" s="54"/>
-      <c r="H149" s="54" t="s">
-        <v>566</v>
-      </c>
+      <c r="G149" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H149" s="54"/>
       <c r="I149" s="54"/>
       <c r="J149" s="54"/>
       <c r="K149" s="54"/>
       <c r="L149" s="54"/>
-      <c r="M149" s="55"/>
-    </row>
-    <row r="150" spans="4:14">
+      <c r="M149" s="54"/>
+      <c r="N149" s="54"/>
+      <c r="O149" s="54"/>
+      <c r="P149" s="55"/>
+    </row>
+    <row r="150" spans="3:16">
+      <c r="C150" s="54"/>
+      <c r="D150" s="54"/>
       <c r="E150" s="53"/>
       <c r="F150" s="54"/>
       <c r="G150" s="54" t="s">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="H150" s="54"/>
       <c r="I150" s="54"/>
       <c r="J150" s="54"/>
       <c r="K150" s="54"/>
       <c r="L150" s="54"/>
-      <c r="M150" s="55"/>
-    </row>
-    <row r="151" spans="4:14">
+      <c r="M150" s="54"/>
+      <c r="N150" s="54"/>
+      <c r="O150" s="54"/>
+      <c r="P150" s="55"/>
+    </row>
+    <row r="151" spans="3:16">
+      <c r="C151" s="54"/>
+      <c r="D151" s="54"/>
       <c r="E151" s="53"/>
-      <c r="F151" s="54" t="s">
-        <v>556</v>
-      </c>
+      <c r="F151" s="54"/>
       <c r="G151" s="54"/>
-      <c r="H151" s="54"/>
+      <c r="H151" s="54" t="s">
+        <v>639</v>
+      </c>
       <c r="I151" s="54"/>
       <c r="J151" s="54"/>
       <c r="K151" s="54"/>
       <c r="L151" s="54"/>
-      <c r="M151" s="55"/>
-    </row>
-    <row r="152" spans="4:14">
+      <c r="M151" s="54"/>
+      <c r="N151" s="54"/>
+      <c r="O151" s="54"/>
+      <c r="P151" s="55"/>
+    </row>
+    <row r="152" spans="3:16">
+      <c r="C152" s="54"/>
+      <c r="D152" s="54"/>
       <c r="E152" s="53"/>
-      <c r="F152" s="54" t="s">
-        <v>575</v>
-      </c>
-      <c r="G152" s="54"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="54" t="s">
+        <v>537</v>
+      </c>
       <c r="H152" s="54"/>
       <c r="I152" s="54"/>
       <c r="J152" s="54"/>
       <c r="K152" s="54"/>
       <c r="L152" s="54"/>
-      <c r="M152" s="55"/>
-    </row>
-    <row r="153" spans="4:14">
+      <c r="M152" s="54"/>
+      <c r="N152" s="54"/>
+      <c r="O152" s="54"/>
+      <c r="P152" s="55"/>
+    </row>
+    <row r="153" spans="3:16">
+      <c r="C153" s="54"/>
+      <c r="D153" s="54"/>
       <c r="E153" s="53"/>
-      <c r="F153" s="54" t="s">
-        <v>576</v>
-      </c>
+      <c r="F153" s="54"/>
       <c r="G153" s="54"/>
       <c r="H153" s="54"/>
       <c r="I153" s="54"/>
       <c r="J153" s="54"/>
       <c r="K153" s="54"/>
       <c r="L153" s="54"/>
-      <c r="M153" s="55"/>
-    </row>
-    <row r="154" spans="4:14">
-      <c r="E154" s="56" t="s">
-        <v>561</v>
-      </c>
-      <c r="F154" s="57"/>
-      <c r="G154" s="57"/>
-      <c r="H154" s="57"/>
-      <c r="I154" s="57"/>
-      <c r="J154" s="57"/>
-      <c r="K154" s="57"/>
-      <c r="L154" s="57"/>
-      <c r="M154" s="58"/>
-    </row>
-    <row r="157" spans="4:14">
-      <c r="D157" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="E157" s="38" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="159" spans="4:14">
-      <c r="E159" s="50" t="s">
-        <v>560</v>
-      </c>
-      <c r="F159" s="51"/>
-      <c r="G159" s="51"/>
-      <c r="H159" s="51"/>
-      <c r="I159" s="51"/>
-      <c r="J159" s="51"/>
-      <c r="K159" s="51"/>
-      <c r="L159" s="51"/>
-      <c r="M159" s="51"/>
-      <c r="N159" s="52"/>
-    </row>
-    <row r="160" spans="4:14">
+      <c r="M153" s="54"/>
+      <c r="N153" s="54"/>
+      <c r="O153" s="54"/>
+      <c r="P153" s="55"/>
+    </row>
+    <row r="154" spans="3:16">
+      <c r="C154" s="54"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="53"/>
+      <c r="F154" s="54"/>
+      <c r="G154" s="54" t="s">
+        <v>640</v>
+      </c>
+      <c r="H154" s="54"/>
+      <c r="I154" s="54"/>
+      <c r="J154" s="54"/>
+      <c r="K154" s="54"/>
+      <c r="L154" s="54"/>
+      <c r="M154" s="54"/>
+      <c r="N154" s="54"/>
+      <c r="O154" s="54"/>
+      <c r="P154" s="55"/>
+    </row>
+    <row r="155" spans="3:16">
+      <c r="C155" s="54"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="53"/>
+      <c r="F155" s="54"/>
+      <c r="G155" s="54" t="s">
+        <v>641</v>
+      </c>
+      <c r="H155" s="54"/>
+      <c r="I155" s="54"/>
+      <c r="J155" s="54"/>
+      <c r="K155" s="54"/>
+      <c r="L155" s="54"/>
+      <c r="M155" s="54"/>
+      <c r="N155" s="54"/>
+      <c r="O155" s="54"/>
+      <c r="P155" s="55"/>
+    </row>
+    <row r="156" spans="3:16">
+      <c r="C156" s="54"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="53"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="54"/>
+      <c r="H156" s="54" t="s">
+        <v>647</v>
+      </c>
+      <c r="I156" s="54"/>
+      <c r="J156" s="54"/>
+      <c r="K156" s="54"/>
+      <c r="L156" s="54"/>
+      <c r="M156" s="54"/>
+      <c r="N156" s="54"/>
+      <c r="O156" s="54"/>
+      <c r="P156" s="55"/>
+    </row>
+    <row r="157" spans="3:16">
+      <c r="C157" s="54"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="53"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="54"/>
+      <c r="H157" s="54" t="s">
+        <v>648</v>
+      </c>
+      <c r="I157" s="54"/>
+      <c r="J157" s="54"/>
+      <c r="K157" s="54"/>
+      <c r="L157" s="54"/>
+      <c r="M157" s="54"/>
+      <c r="N157" s="54"/>
+      <c r="O157" s="54"/>
+      <c r="P157" s="55"/>
+    </row>
+    <row r="158" spans="3:16">
+      <c r="C158" s="54"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="53"/>
+      <c r="F158" s="54"/>
+      <c r="G158" s="54"/>
+      <c r="H158" s="54"/>
+      <c r="I158" s="54" t="s">
+        <v>649</v>
+      </c>
+      <c r="J158" s="54"/>
+      <c r="K158" s="54"/>
+      <c r="L158" s="54"/>
+      <c r="M158" s="54"/>
+      <c r="N158" s="54"/>
+      <c r="O158" s="54"/>
+      <c r="P158" s="55"/>
+    </row>
+    <row r="159" spans="3:16">
+      <c r="C159" s="54"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="53"/>
+      <c r="F159" s="54"/>
+      <c r="G159" s="54"/>
+      <c r="H159" s="54"/>
+      <c r="I159" s="54" t="s">
+        <v>650</v>
+      </c>
+      <c r="J159" s="54"/>
+      <c r="K159" s="54"/>
+      <c r="L159" s="54"/>
+      <c r="M159" s="54"/>
+      <c r="N159" s="54"/>
+      <c r="O159" s="54"/>
+      <c r="P159" s="55"/>
+    </row>
+    <row r="160" spans="3:16">
+      <c r="C160" s="54"/>
+      <c r="D160" s="54"/>
       <c r="E160" s="53"/>
-      <c r="F160" s="54" t="s">
-        <v>579</v>
-      </c>
+      <c r="F160" s="54"/>
       <c r="G160" s="54"/>
-      <c r="H160" s="54"/>
+      <c r="H160" s="54" t="s">
+        <v>651</v>
+      </c>
       <c r="I160" s="54"/>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
       <c r="L160" s="54"/>
       <c r="M160" s="54"/>
-      <c r="N160" s="55"/>
-    </row>
-    <row r="161" spans="5:14">
+      <c r="N160" s="54"/>
+      <c r="O160" s="54"/>
+      <c r="P160" s="55"/>
+    </row>
+    <row r="161" spans="3:16">
+      <c r="C161" s="54"/>
+      <c r="D161" s="54"/>
       <c r="E161" s="53"/>
       <c r="F161" s="54"/>
-      <c r="G161" s="54" t="s">
-        <v>580</v>
-      </c>
+      <c r="G161" s="54"/>
       <c r="H161" s="54"/>
-      <c r="I161" s="54"/>
+      <c r="I161" s="54" t="s">
+        <v>646</v>
+      </c>
       <c r="J161" s="54"/>
       <c r="K161" s="54"/>
       <c r="L161" s="54"/>
       <c r="M161" s="54"/>
-      <c r="N161" s="55"/>
-    </row>
-    <row r="162" spans="5:14">
+      <c r="N161" s="54"/>
+      <c r="O161" s="54"/>
+      <c r="P161" s="55"/>
+    </row>
+    <row r="162" spans="3:16">
+      <c r="C162" s="54"/>
+      <c r="D162" s="54"/>
       <c r="E162" s="53"/>
       <c r="F162" s="54"/>
       <c r="G162" s="54"/>
       <c r="H162" s="54" t="s">
-        <v>581</v>
+        <v>537</v>
       </c>
       <c r="I162" s="54"/>
       <c r="J162" s="54"/>
       <c r="K162" s="54"/>
       <c r="L162" s="54"/>
       <c r="M162" s="54"/>
-      <c r="N162" s="55"/>
-    </row>
-    <row r="163" spans="5:14">
+      <c r="N162" s="54"/>
+      <c r="O162" s="54"/>
+      <c r="P162" s="55"/>
+    </row>
+    <row r="163" spans="3:16">
+      <c r="C163" s="54"/>
+      <c r="D163" s="54"/>
       <c r="E163" s="53"/>
       <c r="F163" s="54"/>
-      <c r="G163" s="54"/>
+      <c r="G163" s="54" t="s">
+        <v>537</v>
+      </c>
       <c r="H163" s="54"/>
-      <c r="I163" s="54" t="s">
-        <v>564</v>
-      </c>
+      <c r="I163" s="54"/>
       <c r="J163" s="54"/>
       <c r="K163" s="54"/>
       <c r="L163" s="54"/>
       <c r="M163" s="54"/>
-      <c r="N163" s="55"/>
-    </row>
-    <row r="164" spans="5:14">
+      <c r="N163" s="54"/>
+      <c r="O163" s="54"/>
+      <c r="P163" s="55"/>
+    </row>
+    <row r="164" spans="3:16">
+      <c r="C164" s="54"/>
+      <c r="D164" s="54"/>
       <c r="E164" s="53"/>
       <c r="F164" s="54"/>
       <c r="G164" s="54"/>
-      <c r="H164" s="54" t="s">
-        <v>582</v>
-      </c>
+      <c r="H164" s="54"/>
       <c r="I164" s="54"/>
       <c r="J164" s="54"/>
       <c r="K164" s="54"/>
       <c r="L164" s="54"/>
       <c r="M164" s="54"/>
-      <c r="N164" s="55"/>
-    </row>
-    <row r="165" spans="5:14">
+      <c r="N164" s="54"/>
+      <c r="O164" s="54"/>
+      <c r="P164" s="55"/>
+    </row>
+    <row r="165" spans="3:16">
+      <c r="C165" s="54"/>
+      <c r="D165" s="54"/>
       <c r="E165" s="53"/>
       <c r="F165" s="54"/>
-      <c r="G165" s="54"/>
-      <c r="H165" s="54" t="s">
-        <v>574</v>
-      </c>
+      <c r="G165" s="54" t="s">
+        <v>660</v>
+      </c>
+      <c r="H165" s="54"/>
       <c r="I165" s="54"/>
       <c r="J165" s="54"/>
       <c r="K165" s="54"/>
       <c r="L165" s="54"/>
       <c r="M165" s="54"/>
-      <c r="N165" s="55"/>
-    </row>
-    <row r="166" spans="5:14">
+      <c r="N165" s="54"/>
+      <c r="O165" s="54"/>
+      <c r="P165" s="55"/>
+    </row>
+    <row r="166" spans="3:16">
+      <c r="C166" s="54"/>
+      <c r="D166" s="54"/>
       <c r="E166" s="53"/>
       <c r="F166" s="54"/>
-      <c r="G166" s="54"/>
+      <c r="G166" s="54" t="s">
+        <v>661</v>
+      </c>
       <c r="H166" s="54"/>
-      <c r="I166" s="54" t="s">
-        <v>566</v>
-      </c>
-      <c r="J166" s="54"/>
-      <c r="K166" s="54"/>
+      <c r="I166" s="54"/>
       <c r="L166" s="54"/>
       <c r="M166" s="54"/>
-      <c r="N166" s="55"/>
-    </row>
-    <row r="167" spans="5:14">
+      <c r="N166" s="54"/>
+      <c r="O166" s="54"/>
+      <c r="P166" s="55"/>
+    </row>
+    <row r="167" spans="3:16">
+      <c r="C167" s="54"/>
+      <c r="D167" s="54"/>
       <c r="E167" s="53"/>
       <c r="F167" s="54"/>
       <c r="G167" s="54"/>
       <c r="H167" s="54" t="s">
-        <v>556</v>
+        <v>662</v>
       </c>
       <c r="I167" s="54"/>
-      <c r="J167" s="54"/>
-      <c r="K167" s="54"/>
       <c r="L167" s="54"/>
       <c r="M167" s="54"/>
-      <c r="N167" s="55"/>
-    </row>
-    <row r="168" spans="5:14">
+      <c r="N167" s="54"/>
+      <c r="O167" s="54"/>
+      <c r="P167" s="55"/>
+    </row>
+    <row r="168" spans="3:16">
+      <c r="C168" s="54"/>
+      <c r="D168" s="54"/>
       <c r="E168" s="53"/>
       <c r="F168" s="54"/>
       <c r="G168" s="54" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="H168" s="54"/>
       <c r="I168" s="54"/>
-      <c r="J168" s="54"/>
-      <c r="K168" s="54"/>
       <c r="L168" s="54"/>
       <c r="M168" s="54"/>
-      <c r="N168" s="55"/>
-    </row>
-    <row r="169" spans="5:14">
+      <c r="N168" s="54"/>
+      <c r="O168" s="54"/>
+      <c r="P168" s="55"/>
+    </row>
+    <row r="169" spans="3:16">
+      <c r="C169" s="54"/>
+      <c r="D169" s="54"/>
       <c r="E169" s="53"/>
-      <c r="F169" s="54" t="s">
-        <v>567</v>
-      </c>
+      <c r="F169" s="54"/>
       <c r="G169" s="54"/>
       <c r="H169" s="54"/>
       <c r="I169" s="54"/>
@@ -8706,12 +9459,16 @@
       <c r="K169" s="54"/>
       <c r="L169" s="54"/>
       <c r="M169" s="54"/>
-      <c r="N169" s="55"/>
-    </row>
-    <row r="170" spans="5:14">
+      <c r="N169" s="54"/>
+      <c r="O169" s="54"/>
+      <c r="P169" s="55"/>
+    </row>
+    <row r="170" spans="3:16">
+      <c r="C170" s="54"/>
+      <c r="D170" s="54"/>
       <c r="E170" s="53"/>
       <c r="F170" s="54" t="s">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="G170" s="54"/>
       <c r="H170" s="54"/>
@@ -8720,13 +9477,15 @@
       <c r="K170" s="54"/>
       <c r="L170" s="54"/>
       <c r="M170" s="54"/>
-      <c r="N170" s="55"/>
-    </row>
-    <row r="171" spans="5:14">
+      <c r="N170" s="54"/>
+      <c r="O170" s="54"/>
+      <c r="P170" s="55"/>
+    </row>
+    <row r="171" spans="3:16">
+      <c r="C171" s="54"/>
+      <c r="D171" s="54"/>
       <c r="E171" s="53"/>
-      <c r="F171" s="54" t="s">
-        <v>583</v>
-      </c>
+      <c r="F171" s="54"/>
       <c r="G171" s="54"/>
       <c r="H171" s="54"/>
       <c r="I171" s="54"/>
@@ -8734,44 +9493,1242 @@
       <c r="K171" s="54"/>
       <c r="L171" s="54"/>
       <c r="M171" s="54"/>
-      <c r="N171" s="55"/>
-    </row>
-    <row r="172" spans="5:14">
+      <c r="N171" s="54"/>
+      <c r="O171" s="54"/>
+      <c r="P171" s="55"/>
+    </row>
+    <row r="172" spans="3:16">
+      <c r="C172" s="54"/>
+      <c r="D172" s="54"/>
       <c r="E172" s="53"/>
       <c r="F172" s="54" t="s">
-        <v>585</v>
+        <v>663</v>
       </c>
       <c r="G172" s="54"/>
-      <c r="H172" s="54"/>
       <c r="I172" s="54"/>
       <c r="J172" s="54"/>
       <c r="K172" s="54"/>
       <c r="L172" s="54"/>
       <c r="M172" s="54"/>
-      <c r="N172" s="55"/>
-    </row>
-    <row r="173" spans="5:14">
-      <c r="E173" s="56" t="s">
+      <c r="N172" s="54"/>
+      <c r="O172" s="54"/>
+      <c r="P172" s="55"/>
+    </row>
+    <row r="173" spans="3:16">
+      <c r="C173" s="54"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="53"/>
+      <c r="F173" s="54" t="s">
+        <v>664</v>
+      </c>
+      <c r="G173" s="54"/>
+      <c r="I173" s="54"/>
+      <c r="J173" s="54"/>
+      <c r="K173" s="54"/>
+      <c r="L173" s="54"/>
+      <c r="M173" s="54"/>
+      <c r="N173" s="54"/>
+      <c r="O173" s="54"/>
+      <c r="P173" s="55"/>
+    </row>
+    <row r="174" spans="3:16">
+      <c r="C174" s="54"/>
+      <c r="D174" s="54"/>
+      <c r="E174" s="53"/>
+      <c r="F174" s="54"/>
+      <c r="G174" s="54"/>
+      <c r="I174" s="54"/>
+      <c r="J174" s="54"/>
+      <c r="K174" s="54"/>
+      <c r="L174" s="54"/>
+      <c r="M174" s="54"/>
+      <c r="N174" s="54"/>
+      <c r="O174" s="54"/>
+      <c r="P174" s="55"/>
+    </row>
+    <row r="175" spans="3:16">
+      <c r="C175" s="54"/>
+      <c r="D175" s="54"/>
+      <c r="E175" s="53"/>
+      <c r="F175" s="54" t="s">
+        <v>669</v>
+      </c>
+      <c r="G175" s="54"/>
+      <c r="I175" s="54"/>
+      <c r="J175" s="54"/>
+      <c r="K175" s="54"/>
+      <c r="L175" s="54"/>
+      <c r="M175" s="54"/>
+      <c r="N175" s="54"/>
+      <c r="O175" s="54"/>
+      <c r="P175" s="55"/>
+    </row>
+    <row r="176" spans="3:16">
+      <c r="C176" s="54"/>
+      <c r="D176" s="54"/>
+      <c r="E176" s="53"/>
+      <c r="F176" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="G176" s="54"/>
+      <c r="I176" s="54"/>
+      <c r="J176" s="54"/>
+      <c r="K176" s="54"/>
+      <c r="L176" s="54"/>
+      <c r="M176" s="54"/>
+      <c r="N176" s="54"/>
+      <c r="O176" s="54"/>
+      <c r="P176" s="55"/>
+    </row>
+    <row r="177" spans="3:16">
+      <c r="C177" s="54"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="53"/>
+      <c r="F177" s="54"/>
+      <c r="G177" s="54"/>
+      <c r="I177" s="54"/>
+      <c r="J177" s="54"/>
+      <c r="K177" s="54"/>
+      <c r="L177" s="54"/>
+      <c r="M177" s="54"/>
+      <c r="N177" s="54"/>
+      <c r="O177" s="54"/>
+      <c r="P177" s="55"/>
+    </row>
+    <row r="178" spans="3:16">
+      <c r="C178" s="54"/>
+      <c r="D178" s="54"/>
+      <c r="E178" s="53"/>
+      <c r="F178" s="54" t="s">
+        <v>666</v>
+      </c>
+      <c r="G178" s="54"/>
+      <c r="I178" s="54"/>
+      <c r="J178" s="54"/>
+      <c r="K178" s="54"/>
+      <c r="L178" s="54"/>
+      <c r="M178" s="54"/>
+      <c r="N178" s="54"/>
+      <c r="O178" s="54"/>
+      <c r="P178" s="55"/>
+    </row>
+    <row r="179" spans="3:16">
+      <c r="C179" s="54"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="53"/>
+      <c r="F179" s="54" t="s">
+        <v>676</v>
+      </c>
+      <c r="G179" s="54"/>
+      <c r="I179" s="54"/>
+      <c r="J179" s="54"/>
+      <c r="K179" s="54"/>
+      <c r="L179" s="54"/>
+      <c r="M179" s="54"/>
+      <c r="N179" s="54"/>
+      <c r="O179" s="54"/>
+      <c r="P179" s="55"/>
+    </row>
+    <row r="180" spans="3:16">
+      <c r="C180" s="54"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="53"/>
+      <c r="F180" s="54" t="s">
+        <v>677</v>
+      </c>
+      <c r="G180" s="54"/>
+      <c r="I180" s="54"/>
+      <c r="J180" s="54"/>
+      <c r="K180" s="54"/>
+      <c r="L180" s="54"/>
+      <c r="M180" s="54"/>
+      <c r="N180" s="54"/>
+      <c r="O180" s="54"/>
+      <c r="P180" s="55"/>
+    </row>
+    <row r="181" spans="3:16">
+      <c r="C181" s="54"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="53"/>
+      <c r="F181" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="G181" s="54"/>
+      <c r="I181" s="54"/>
+      <c r="J181" s="54"/>
+      <c r="K181" s="54"/>
+      <c r="L181" s="54"/>
+      <c r="M181" s="54"/>
+      <c r="N181" s="54"/>
+      <c r="O181" s="54"/>
+      <c r="P181" s="55"/>
+    </row>
+    <row r="182" spans="3:16">
+      <c r="C182" s="54"/>
+      <c r="D182" s="54"/>
+      <c r="E182" s="53"/>
+      <c r="F182" s="54"/>
+      <c r="G182" s="54" t="s">
+        <v>668</v>
+      </c>
+      <c r="I182" s="54"/>
+      <c r="J182" s="54"/>
+      <c r="K182" s="54"/>
+      <c r="L182" s="54"/>
+      <c r="M182" s="54"/>
+      <c r="N182" s="54"/>
+      <c r="O182" s="54"/>
+      <c r="P182" s="55"/>
+    </row>
+    <row r="183" spans="3:16">
+      <c r="C183" s="54"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="53"/>
+      <c r="F183" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="G183" s="54"/>
+      <c r="I183" s="54"/>
+      <c r="J183" s="54"/>
+      <c r="K183" s="54"/>
+      <c r="L183" s="54"/>
+      <c r="M183" s="54"/>
+      <c r="N183" s="54"/>
+      <c r="O183" s="54"/>
+      <c r="P183" s="55"/>
+    </row>
+    <row r="184" spans="3:16">
+      <c r="C184" s="54"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="53"/>
+      <c r="F184" s="54"/>
+      <c r="G184" s="54"/>
+      <c r="I184" s="54"/>
+      <c r="J184" s="54"/>
+      <c r="K184" s="54"/>
+      <c r="L184" s="54"/>
+      <c r="M184" s="54"/>
+      <c r="N184" s="54"/>
+      <c r="O184" s="54"/>
+      <c r="P184" s="55"/>
+    </row>
+    <row r="185" spans="3:16">
+      <c r="C185" s="54"/>
+      <c r="D185" s="54"/>
+      <c r="E185" s="53"/>
+      <c r="F185" s="54" t="s">
+        <v>655</v>
+      </c>
+      <c r="G185" s="54"/>
+      <c r="H185" s="54"/>
+      <c r="I185" s="54"/>
+      <c r="J185" s="54"/>
+      <c r="K185" s="54"/>
+      <c r="L185" s="54"/>
+      <c r="M185" s="54"/>
+      <c r="N185" s="54"/>
+      <c r="O185" s="54"/>
+      <c r="P185" s="55"/>
+    </row>
+    <row r="186" spans="3:16">
+      <c r="C186" s="54"/>
+      <c r="D186" s="54"/>
+      <c r="E186" s="53"/>
+      <c r="F186" s="54" t="s">
+        <v>642</v>
+      </c>
+      <c r="G186" s="54"/>
+      <c r="H186" s="54"/>
+      <c r="I186" s="54"/>
+      <c r="J186" s="54"/>
+      <c r="K186" s="54"/>
+      <c r="L186" s="54"/>
+      <c r="M186" s="54"/>
+      <c r="N186" s="54"/>
+      <c r="O186" s="54"/>
+      <c r="P186" s="55"/>
+    </row>
+    <row r="187" spans="3:16">
+      <c r="C187" s="54"/>
+      <c r="D187" s="54"/>
+      <c r="E187" s="53"/>
+      <c r="F187" s="59" t="s">
+        <v>671</v>
+      </c>
+      <c r="G187" s="54"/>
+      <c r="H187" s="54"/>
+      <c r="I187" s="54"/>
+      <c r="J187" s="54"/>
+      <c r="K187" s="54"/>
+      <c r="L187" s="54"/>
+      <c r="M187" s="54"/>
+      <c r="N187" s="54"/>
+      <c r="O187" s="54"/>
+      <c r="P187" s="55"/>
+    </row>
+    <row r="188" spans="3:16">
+      <c r="C188" s="54"/>
+      <c r="D188" s="54"/>
+      <c r="E188" s="53"/>
+      <c r="F188" s="63" t="s">
+        <v>670</v>
+      </c>
+      <c r="G188" s="54"/>
+      <c r="H188" s="54"/>
+      <c r="I188" s="54"/>
+      <c r="J188" s="54"/>
+      <c r="K188" s="54"/>
+      <c r="L188" s="54"/>
+      <c r="M188" s="54"/>
+      <c r="N188" s="54"/>
+      <c r="O188" s="54"/>
+      <c r="P188" s="55"/>
+    </row>
+    <row r="189" spans="3:16">
+      <c r="C189" s="54"/>
+      <c r="D189" s="54"/>
+      <c r="E189" s="53"/>
+      <c r="F189" s="54" t="s">
+        <v>643</v>
+      </c>
+      <c r="G189" s="54"/>
+      <c r="H189" s="54"/>
+      <c r="I189" s="54"/>
+      <c r="J189" s="54"/>
+      <c r="K189" s="54"/>
+      <c r="L189" s="54"/>
+      <c r="M189" s="54"/>
+      <c r="N189" s="54"/>
+      <c r="O189" s="54"/>
+      <c r="P189" s="55"/>
+    </row>
+    <row r="190" spans="3:16">
+      <c r="C190" s="54"/>
+      <c r="D190" s="54"/>
+      <c r="E190" s="53"/>
+      <c r="F190" s="54" t="s">
+        <v>653</v>
+      </c>
+      <c r="G190" s="54"/>
+      <c r="H190" s="54"/>
+      <c r="I190" s="54"/>
+      <c r="J190" s="54"/>
+      <c r="K190" s="54"/>
+      <c r="L190" s="54"/>
+      <c r="M190" s="54"/>
+      <c r="N190" s="54"/>
+      <c r="O190" s="54"/>
+      <c r="P190" s="55"/>
+    </row>
+    <row r="191" spans="3:16">
+      <c r="C191" s="54"/>
+      <c r="D191" s="54"/>
+      <c r="E191" s="53"/>
+      <c r="F191" s="54"/>
+      <c r="G191" s="54"/>
+      <c r="H191" s="54"/>
+      <c r="I191" s="54"/>
+      <c r="J191" s="54"/>
+      <c r="K191" s="54"/>
+      <c r="L191" s="54"/>
+      <c r="M191" s="54"/>
+      <c r="N191" s="54"/>
+      <c r="O191" s="54"/>
+      <c r="P191" s="55"/>
+    </row>
+    <row r="192" spans="3:16">
+      <c r="C192" s="54"/>
+      <c r="D192" s="54"/>
+      <c r="E192" s="53"/>
+      <c r="F192" s="54" t="s">
+        <v>657</v>
+      </c>
+      <c r="G192" s="54"/>
+      <c r="H192" s="54"/>
+      <c r="I192" s="54"/>
+      <c r="J192" s="54"/>
+      <c r="K192" s="54"/>
+      <c r="L192" s="54"/>
+      <c r="M192" s="54"/>
+      <c r="N192" s="54"/>
+      <c r="O192" s="54"/>
+      <c r="P192" s="55"/>
+    </row>
+    <row r="193" spans="3:16">
+      <c r="C193" s="54"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="53"/>
+      <c r="F193" s="54" t="s">
+        <v>644</v>
+      </c>
+      <c r="G193" s="54"/>
+      <c r="H193" s="54"/>
+      <c r="I193" s="54"/>
+      <c r="J193" s="54"/>
+      <c r="K193" s="54"/>
+      <c r="L193" s="54"/>
+      <c r="M193" s="54"/>
+      <c r="N193" s="54"/>
+      <c r="O193" s="54"/>
+      <c r="P193" s="55"/>
+    </row>
+    <row r="194" spans="3:16">
+      <c r="C194" s="54"/>
+      <c r="D194" s="54"/>
+      <c r="E194" s="53"/>
+      <c r="F194" s="54" t="s">
+        <v>658</v>
+      </c>
+      <c r="G194" s="54"/>
+      <c r="H194" s="54"/>
+      <c r="I194" s="54"/>
+      <c r="J194" s="54"/>
+      <c r="K194" s="54"/>
+      <c r="L194" s="54"/>
+      <c r="M194" s="54"/>
+      <c r="N194" s="54"/>
+      <c r="O194" s="54"/>
+      <c r="P194" s="55"/>
+    </row>
+    <row r="195" spans="3:16">
+      <c r="C195" s="54"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="53"/>
+      <c r="F195" s="54"/>
+      <c r="G195" s="54"/>
+      <c r="H195" s="54"/>
+      <c r="I195" s="54"/>
+      <c r="J195" s="54"/>
+      <c r="K195" s="54"/>
+      <c r="L195" s="54"/>
+      <c r="M195" s="54"/>
+      <c r="N195" s="54"/>
+      <c r="O195" s="54"/>
+      <c r="P195" s="55"/>
+    </row>
+    <row r="196" spans="3:16">
+      <c r="C196" s="54"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="53"/>
+      <c r="F196" s="54" t="s">
+        <v>645</v>
+      </c>
+      <c r="G196" s="54"/>
+      <c r="H196" s="54"/>
+      <c r="I196" s="54"/>
+      <c r="J196" s="54"/>
+      <c r="K196" s="54"/>
+      <c r="L196" s="54"/>
+      <c r="M196" s="54"/>
+      <c r="N196" s="54"/>
+      <c r="O196" s="54"/>
+      <c r="P196" s="55"/>
+    </row>
+    <row r="197" spans="3:16">
+      <c r="C197" s="54"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="53"/>
+      <c r="F197" s="54"/>
+      <c r="G197" s="54"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="54"/>
+      <c r="J197" s="54"/>
+      <c r="K197" s="54"/>
+      <c r="L197" s="54"/>
+      <c r="M197" s="54"/>
+      <c r="N197" s="54"/>
+      <c r="O197" s="54"/>
+      <c r="P197" s="55"/>
+    </row>
+    <row r="198" spans="3:16">
+      <c r="C198" s="54"/>
+      <c r="D198" s="54"/>
+      <c r="E198" s="53"/>
+      <c r="F198" s="54" t="s">
+        <v>656</v>
+      </c>
+      <c r="G198" s="54"/>
+      <c r="H198" s="54"/>
+      <c r="I198" s="54"/>
+      <c r="J198" s="54"/>
+      <c r="K198" s="54"/>
+      <c r="L198" s="54"/>
+      <c r="M198" s="54"/>
+      <c r="N198" s="54"/>
+      <c r="O198" s="54"/>
+      <c r="P198" s="55"/>
+    </row>
+    <row r="199" spans="3:16">
+      <c r="C199" s="54"/>
+      <c r="D199" s="54"/>
+      <c r="E199" s="53"/>
+      <c r="F199" s="54" t="s">
+        <v>654</v>
+      </c>
+      <c r="G199" s="54"/>
+      <c r="H199" s="54"/>
+      <c r="I199" s="54"/>
+      <c r="J199" s="54"/>
+      <c r="K199" s="54"/>
+      <c r="L199" s="54"/>
+      <c r="M199" s="54"/>
+      <c r="N199" s="54"/>
+      <c r="O199" s="54"/>
+      <c r="P199" s="55"/>
+    </row>
+    <row r="200" spans="3:16">
+      <c r="C200" s="54"/>
+      <c r="D200" s="54"/>
+      <c r="E200" s="53"/>
+      <c r="F200" s="59" t="s">
+        <v>672</v>
+      </c>
+      <c r="G200" s="54"/>
+      <c r="H200" s="54"/>
+      <c r="I200" s="54"/>
+      <c r="J200" s="54"/>
+      <c r="K200" s="54"/>
+      <c r="L200" s="54"/>
+      <c r="M200" s="54"/>
+      <c r="N200" s="54"/>
+      <c r="O200" s="54"/>
+      <c r="P200" s="55"/>
+    </row>
+    <row r="201" spans="3:16">
+      <c r="C201" s="54"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="53"/>
+      <c r="F201" s="54" t="s">
+        <v>659</v>
+      </c>
+      <c r="G201" s="54"/>
+      <c r="H201" s="54"/>
+      <c r="I201" s="54"/>
+      <c r="J201" s="54"/>
+      <c r="K201" s="54"/>
+      <c r="L201" s="54"/>
+      <c r="M201" s="54"/>
+      <c r="N201" s="54"/>
+      <c r="O201" s="54"/>
+      <c r="P201" s="55"/>
+    </row>
+    <row r="202" spans="3:16">
+      <c r="C202" s="54"/>
+      <c r="D202" s="54"/>
+      <c r="E202" s="53"/>
+      <c r="F202" s="54"/>
+      <c r="G202" s="54"/>
+      <c r="H202" s="54"/>
+      <c r="I202" s="54"/>
+      <c r="J202" s="54"/>
+      <c r="K202" s="54"/>
+      <c r="L202" s="54"/>
+      <c r="M202" s="54"/>
+      <c r="N202" s="54"/>
+      <c r="O202" s="54"/>
+      <c r="P202" s="55"/>
+    </row>
+    <row r="203" spans="3:16">
+      <c r="C203" s="54"/>
+      <c r="D203" s="54"/>
+      <c r="E203" s="53"/>
+      <c r="F203" s="54"/>
+      <c r="G203" s="54"/>
+      <c r="H203" s="54"/>
+      <c r="I203" s="54"/>
+      <c r="J203" s="54"/>
+      <c r="K203" s="54"/>
+      <c r="L203" s="54"/>
+      <c r="M203" s="54"/>
+      <c r="N203" s="54"/>
+      <c r="O203" s="54"/>
+      <c r="P203" s="55"/>
+    </row>
+    <row r="204" spans="3:16">
+      <c r="C204" s="54"/>
+      <c r="D204" s="54"/>
+      <c r="E204" s="53"/>
+      <c r="F204" s="54" t="s">
+        <v>673</v>
+      </c>
+      <c r="G204" s="54"/>
+      <c r="I204" s="54"/>
+      <c r="J204" s="54"/>
+      <c r="K204" s="54"/>
+      <c r="L204" s="54"/>
+      <c r="M204" s="54"/>
+      <c r="N204" s="54"/>
+      <c r="O204" s="54"/>
+      <c r="P204" s="55"/>
+    </row>
+    <row r="205" spans="3:16">
+      <c r="C205" s="54"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="53"/>
+      <c r="F205" s="54" t="s">
+        <v>674</v>
+      </c>
+      <c r="G205" s="54"/>
+      <c r="I205" s="54"/>
+      <c r="J205" s="54"/>
+      <c r="K205" s="54"/>
+      <c r="L205" s="54"/>
+      <c r="M205" s="54"/>
+      <c r="N205" s="54"/>
+      <c r="O205" s="54"/>
+      <c r="P205" s="55"/>
+    </row>
+    <row r="206" spans="3:16">
+      <c r="C206" s="54"/>
+      <c r="D206" s="54"/>
+      <c r="E206" s="53"/>
+      <c r="F206" s="54" t="s">
+        <v>675</v>
+      </c>
+      <c r="G206" s="54"/>
+      <c r="I206" s="54"/>
+      <c r="J206" s="54"/>
+      <c r="K206" s="54"/>
+      <c r="L206" s="54"/>
+      <c r="M206" s="54"/>
+      <c r="N206" s="54"/>
+      <c r="O206" s="54"/>
+      <c r="P206" s="55"/>
+    </row>
+    <row r="207" spans="3:16">
+      <c r="C207" s="54"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="53"/>
+      <c r="F207" s="54"/>
+      <c r="G207" s="54"/>
+      <c r="H207" s="54"/>
+      <c r="I207" s="54"/>
+      <c r="J207" s="54"/>
+      <c r="K207" s="54"/>
+      <c r="L207" s="54"/>
+      <c r="M207" s="54"/>
+      <c r="N207" s="54"/>
+      <c r="O207" s="54"/>
+      <c r="P207" s="55"/>
+    </row>
+    <row r="208" spans="3:16">
+      <c r="C208" s="54"/>
+      <c r="D208" s="54"/>
+      <c r="E208" s="53"/>
+      <c r="F208" s="54"/>
+      <c r="G208" s="54"/>
+      <c r="H208" s="54"/>
+      <c r="I208" s="54"/>
+      <c r="J208" s="54"/>
+      <c r="K208" s="54"/>
+      <c r="L208" s="54"/>
+      <c r="M208" s="54"/>
+      <c r="N208" s="54"/>
+      <c r="O208" s="54"/>
+      <c r="P208" s="55"/>
+    </row>
+    <row r="209" spans="3:16">
+      <c r="C209" s="54"/>
+      <c r="D209" s="54"/>
+      <c r="E209" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="F209" s="57"/>
+      <c r="G209" s="57"/>
+      <c r="H209" s="57"/>
+      <c r="I209" s="57"/>
+      <c r="J209" s="57"/>
+      <c r="K209" s="57"/>
+      <c r="L209" s="57"/>
+      <c r="M209" s="57"/>
+      <c r="N209" s="57"/>
+      <c r="O209" s="57"/>
+      <c r="P209" s="58"/>
+    </row>
+    <row r="210" spans="3:16">
+      <c r="C210" s="54"/>
+      <c r="D210" s="54"/>
+      <c r="E210" s="54"/>
+      <c r="F210" s="54"/>
+      <c r="G210" s="54"/>
+      <c r="H210" s="54"/>
+      <c r="I210" s="54"/>
+      <c r="J210" s="54"/>
+      <c r="K210" s="54"/>
+      <c r="L210" s="54"/>
+      <c r="M210" s="54"/>
+      <c r="N210" s="54"/>
+    </row>
+    <row r="211" spans="3:16">
+      <c r="C211" s="54"/>
+      <c r="D211" s="54"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="54"/>
+      <c r="G211" s="54"/>
+      <c r="H211" s="54"/>
+      <c r="I211" s="54"/>
+      <c r="J211" s="54"/>
+      <c r="K211" s="54"/>
+      <c r="L211" s="54"/>
+      <c r="M211" s="54"/>
+      <c r="N211" s="54"/>
+    </row>
+    <row r="212" spans="3:16">
+      <c r="E212" s="38" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="214" spans="3:16">
+      <c r="E214" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="F214" s="51"/>
+      <c r="G214" s="51"/>
+      <c r="H214" s="51"/>
+      <c r="I214" s="51"/>
+      <c r="J214" s="51"/>
+      <c r="K214" s="51"/>
+      <c r="L214" s="51"/>
+      <c r="M214" s="52"/>
+    </row>
+    <row r="215" spans="3:16">
+      <c r="E215" s="53"/>
+      <c r="F215" s="54" t="s">
+        <v>540</v>
+      </c>
+      <c r="G215" s="54"/>
+      <c r="H215" s="54"/>
+      <c r="I215" s="54"/>
+      <c r="J215" s="54"/>
+      <c r="K215" s="54"/>
+      <c r="L215" s="54"/>
+      <c r="M215" s="55"/>
+    </row>
+    <row r="216" spans="3:16">
+      <c r="E216" s="53"/>
+      <c r="F216" s="54"/>
+      <c r="G216" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="H216" s="54"/>
+      <c r="I216" s="54"/>
+      <c r="J216" s="54"/>
+      <c r="K216" s="54"/>
+      <c r="L216" s="54"/>
+      <c r="M216" s="55"/>
+    </row>
+    <row r="217" spans="3:16">
+      <c r="E217" s="53"/>
+      <c r="F217" s="54"/>
+      <c r="G217" s="54"/>
+      <c r="H217" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="I217" s="54"/>
+      <c r="J217" s="54"/>
+      <c r="K217" s="54"/>
+      <c r="L217" s="54"/>
+      <c r="M217" s="55"/>
+    </row>
+    <row r="218" spans="3:16">
+      <c r="E218" s="53"/>
+      <c r="F218" s="54"/>
+      <c r="G218" s="54" t="s">
+        <v>565</v>
+      </c>
+      <c r="H218" s="54"/>
+      <c r="I218" s="54"/>
+      <c r="J218" s="54"/>
+      <c r="K218" s="54"/>
+      <c r="L218" s="54"/>
+      <c r="M218" s="55"/>
+    </row>
+    <row r="219" spans="3:16">
+      <c r="E219" s="53"/>
+      <c r="F219" s="54"/>
+      <c r="G219" s="54" t="s">
+        <v>543</v>
+      </c>
+      <c r="H219" s="54"/>
+      <c r="I219" s="54"/>
+      <c r="J219" s="54"/>
+      <c r="K219" s="54"/>
+      <c r="L219" s="54"/>
+      <c r="M219" s="55"/>
+    </row>
+    <row r="220" spans="3:16">
+      <c r="E220" s="53"/>
+      <c r="F220" s="54"/>
+      <c r="G220" s="54"/>
+      <c r="H220" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="I220" s="54"/>
+      <c r="J220" s="54"/>
+      <c r="K220" s="54"/>
+      <c r="L220" s="54"/>
+      <c r="M220" s="55"/>
+    </row>
+    <row r="221" spans="3:16">
+      <c r="E221" s="53"/>
+      <c r="F221" s="54"/>
+      <c r="G221" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H221" s="54"/>
+      <c r="I221" s="54"/>
+      <c r="J221" s="54"/>
+      <c r="K221" s="54"/>
+      <c r="L221" s="54"/>
+      <c r="M221" s="55"/>
+    </row>
+    <row r="222" spans="3:16">
+      <c r="E222" s="53"/>
+      <c r="F222" s="54" t="s">
+        <v>545</v>
+      </c>
+      <c r="G222" s="54"/>
+      <c r="H222" s="54"/>
+      <c r="I222" s="54"/>
+      <c r="J222" s="54"/>
+      <c r="K222" s="54"/>
+      <c r="L222" s="54"/>
+      <c r="M222" s="55"/>
+    </row>
+    <row r="223" spans="3:16">
+      <c r="E223" s="53"/>
+      <c r="F223" s="54" t="s">
+        <v>546</v>
+      </c>
+      <c r="G223" s="54"/>
+      <c r="H223" s="54"/>
+      <c r="I223" s="54"/>
+      <c r="J223" s="54"/>
+      <c r="K223" s="54"/>
+      <c r="L223" s="54"/>
+      <c r="M223" s="55"/>
+    </row>
+    <row r="224" spans="3:16">
+      <c r="E224" s="53"/>
+      <c r="F224" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="G224" s="54"/>
+      <c r="H224" s="54"/>
+      <c r="I224" s="54"/>
+      <c r="J224" s="54"/>
+      <c r="K224" s="54"/>
+      <c r="L224" s="54"/>
+      <c r="M224" s="55"/>
+    </row>
+    <row r="225" spans="1:13">
+      <c r="E225" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="F225" s="57"/>
+      <c r="G225" s="57"/>
+      <c r="H225" s="57"/>
+      <c r="I225" s="57"/>
+      <c r="J225" s="57"/>
+      <c r="K225" s="57"/>
+      <c r="L225" s="57"/>
+      <c r="M225" s="58"/>
+    </row>
+    <row r="227" spans="1:13">
+      <c r="A227" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="E227" s="38" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13">
+      <c r="E228" s="38" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13">
+      <c r="E230" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="F230" s="51"/>
+      <c r="G230" s="51"/>
+      <c r="H230" s="51"/>
+      <c r="I230" s="51"/>
+      <c r="J230" s="51"/>
+      <c r="K230" s="51"/>
+      <c r="L230" s="51"/>
+      <c r="M230" s="52"/>
+    </row>
+    <row r="231" spans="1:13">
+      <c r="E231" s="53"/>
+      <c r="F231" s="54" t="s">
+        <v>548</v>
+      </c>
+      <c r="G231" s="54"/>
+      <c r="H231" s="54"/>
+      <c r="I231" s="54"/>
+      <c r="J231" s="54"/>
+      <c r="K231" s="54"/>
+      <c r="L231" s="54"/>
+      <c r="M231" s="55"/>
+    </row>
+    <row r="232" spans="1:13">
+      <c r="E232" s="53"/>
+      <c r="F232" s="54"/>
+      <c r="G232" s="54" t="s">
+        <v>549</v>
+      </c>
+      <c r="H232" s="54"/>
+      <c r="I232" s="54"/>
+      <c r="J232" s="54"/>
+      <c r="K232" s="54"/>
+      <c r="L232" s="54"/>
+      <c r="M232" s="55"/>
+    </row>
+    <row r="233" spans="1:13">
+      <c r="E233" s="53"/>
+      <c r="F233" s="54"/>
+      <c r="G233" s="54"/>
+      <c r="H233" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="I233" s="54"/>
+      <c r="J233" s="54"/>
+      <c r="K233" s="54"/>
+      <c r="L233" s="54"/>
+      <c r="M233" s="55"/>
+    </row>
+    <row r="234" spans="1:13">
+      <c r="E234" s="53"/>
+      <c r="F234" s="54"/>
+      <c r="G234" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="H234" s="59"/>
+      <c r="I234" s="54"/>
+      <c r="J234" s="54"/>
+      <c r="K234" s="54"/>
+      <c r="L234" s="54"/>
+      <c r="M234" s="55"/>
+    </row>
+    <row r="235" spans="1:13">
+      <c r="E235" s="53"/>
+      <c r="F235" s="54"/>
+      <c r="G235" s="54" t="s">
+        <v>550</v>
+      </c>
+      <c r="H235" s="54"/>
+      <c r="I235" s="54"/>
+      <c r="J235" s="54"/>
+      <c r="K235" s="54"/>
+      <c r="L235" s="54"/>
+      <c r="M235" s="55"/>
+    </row>
+    <row r="236" spans="1:13">
+      <c r="E236" s="53"/>
+      <c r="F236" s="54"/>
+      <c r="G236" s="54"/>
+      <c r="H236" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="I236" s="54"/>
+      <c r="J236" s="54"/>
+      <c r="K236" s="54"/>
+      <c r="L236" s="54"/>
+      <c r="M236" s="55"/>
+    </row>
+    <row r="237" spans="1:13">
+      <c r="E237" s="53"/>
+      <c r="F237" s="54"/>
+      <c r="G237" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H237" s="54"/>
+      <c r="I237" s="54"/>
+      <c r="J237" s="54"/>
+      <c r="K237" s="54"/>
+      <c r="L237" s="54"/>
+      <c r="M237" s="55"/>
+    </row>
+    <row r="238" spans="1:13">
+      <c r="E238" s="53"/>
+      <c r="F238" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="G238" s="54"/>
+      <c r="H238" s="54"/>
+      <c r="I238" s="54"/>
+      <c r="J238" s="54"/>
+      <c r="K238" s="54"/>
+      <c r="L238" s="54"/>
+      <c r="M238" s="55"/>
+    </row>
+    <row r="239" spans="1:13">
+      <c r="E239" s="53"/>
+      <c r="F239" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="G239" s="54"/>
+      <c r="H239" s="54"/>
+      <c r="I239" s="54"/>
+      <c r="J239" s="54"/>
+      <c r="K239" s="54"/>
+      <c r="L239" s="54"/>
+      <c r="M239" s="55"/>
+    </row>
+    <row r="240" spans="1:13">
+      <c r="E240" s="53"/>
+      <c r="F240" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="G240" s="54"/>
+      <c r="H240" s="54"/>
+      <c r="I240" s="54"/>
+      <c r="J240" s="54"/>
+      <c r="K240" s="54"/>
+      <c r="L240" s="54"/>
+      <c r="M240" s="55"/>
+    </row>
+    <row r="241" spans="4:14">
+      <c r="E241" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="F241" s="57"/>
+      <c r="G241" s="57"/>
+      <c r="H241" s="57"/>
+      <c r="I241" s="57"/>
+      <c r="J241" s="57"/>
+      <c r="K241" s="57"/>
+      <c r="L241" s="57"/>
+      <c r="M241" s="58"/>
+    </row>
+    <row r="244" spans="4:14">
+      <c r="D244" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="E244" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="246" spans="4:14">
+      <c r="E246" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="F246" s="51"/>
+      <c r="G246" s="51"/>
+      <c r="H246" s="51"/>
+      <c r="I246" s="51"/>
+      <c r="J246" s="51"/>
+      <c r="K246" s="51"/>
+      <c r="L246" s="51"/>
+      <c r="M246" s="51"/>
+      <c r="N246" s="52"/>
+    </row>
+    <row r="247" spans="4:14">
+      <c r="E247" s="53"/>
+      <c r="F247" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="G247" s="54"/>
+      <c r="H247" s="54"/>
+      <c r="I247" s="54"/>
+      <c r="J247" s="54"/>
+      <c r="K247" s="54"/>
+      <c r="L247" s="54"/>
+      <c r="M247" s="54"/>
+      <c r="N247" s="55"/>
+    </row>
+    <row r="248" spans="4:14">
+      <c r="E248" s="53"/>
+      <c r="F248" s="54"/>
+      <c r="G248" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="H248" s="54"/>
+      <c r="I248" s="54"/>
+      <c r="J248" s="54"/>
+      <c r="K248" s="54"/>
+      <c r="L248" s="54"/>
+      <c r="M248" s="54"/>
+      <c r="N248" s="55"/>
+    </row>
+    <row r="249" spans="4:14">
+      <c r="E249" s="53"/>
+      <c r="F249" s="54"/>
+      <c r="G249" s="54"/>
+      <c r="H249" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="I249" s="54"/>
+      <c r="J249" s="54"/>
+      <c r="K249" s="54"/>
+      <c r="L249" s="54"/>
+      <c r="M249" s="54"/>
+      <c r="N249" s="55"/>
+    </row>
+    <row r="250" spans="4:14">
+      <c r="E250" s="53"/>
+      <c r="F250" s="54"/>
+      <c r="G250" s="54"/>
+      <c r="H250" s="54"/>
+      <c r="I250" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="J250" s="54"/>
+      <c r="K250" s="54"/>
+      <c r="L250" s="54"/>
+      <c r="M250" s="54"/>
+      <c r="N250" s="55"/>
+    </row>
+    <row r="251" spans="4:14">
+      <c r="E251" s="53"/>
+      <c r="F251" s="54"/>
+      <c r="G251" s="54"/>
+      <c r="H251" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="I251" s="54"/>
+      <c r="J251" s="54"/>
+      <c r="K251" s="54"/>
+      <c r="L251" s="54"/>
+      <c r="M251" s="54"/>
+      <c r="N251" s="55"/>
+    </row>
+    <row r="252" spans="4:14">
+      <c r="E252" s="53"/>
+      <c r="F252" s="54"/>
+      <c r="G252" s="54"/>
+      <c r="H252" s="54" t="s">
+        <v>550</v>
+      </c>
+      <c r="I252" s="54"/>
+      <c r="J252" s="54"/>
+      <c r="K252" s="54"/>
+      <c r="L252" s="54"/>
+      <c r="M252" s="54"/>
+      <c r="N252" s="55"/>
+    </row>
+    <row r="253" spans="4:14">
+      <c r="E253" s="53"/>
+      <c r="F253" s="54"/>
+      <c r="G253" s="54"/>
+      <c r="H253" s="54"/>
+      <c r="I253" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="J253" s="54"/>
+      <c r="K253" s="54"/>
+      <c r="L253" s="54"/>
+      <c r="M253" s="54"/>
+      <c r="N253" s="55"/>
+    </row>
+    <row r="254" spans="4:14">
+      <c r="E254" s="53"/>
+      <c r="F254" s="54"/>
+      <c r="G254" s="54"/>
+      <c r="H254" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="I254" s="54"/>
+      <c r="J254" s="54"/>
+      <c r="K254" s="54"/>
+      <c r="L254" s="54"/>
+      <c r="M254" s="54"/>
+      <c r="N254" s="55"/>
+    </row>
+    <row r="255" spans="4:14">
+      <c r="E255" s="53"/>
+      <c r="F255" s="54"/>
+      <c r="G255" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H255" s="54"/>
+      <c r="I255" s="54"/>
+      <c r="J255" s="54"/>
+      <c r="K255" s="54"/>
+      <c r="L255" s="54"/>
+      <c r="M255" s="54"/>
+      <c r="N255" s="55"/>
+    </row>
+    <row r="256" spans="4:14">
+      <c r="E256" s="53"/>
+      <c r="F256" s="54" t="s">
+        <v>545</v>
+      </c>
+      <c r="G256" s="54"/>
+      <c r="H256" s="54"/>
+      <c r="I256" s="54"/>
+      <c r="J256" s="54"/>
+      <c r="K256" s="54"/>
+      <c r="L256" s="54"/>
+      <c r="M256" s="54"/>
+      <c r="N256" s="55"/>
+    </row>
+    <row r="257" spans="5:14">
+      <c r="E257" s="53"/>
+      <c r="F257" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="G257" s="54"/>
+      <c r="H257" s="54"/>
+      <c r="I257" s="54"/>
+      <c r="J257" s="54"/>
+      <c r="K257" s="54"/>
+      <c r="L257" s="54"/>
+      <c r="M257" s="54"/>
+      <c r="N257" s="55"/>
+    </row>
+    <row r="258" spans="5:14">
+      <c r="E258" s="53"/>
+      <c r="F258" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="G258" s="54"/>
+      <c r="H258" s="54"/>
+      <c r="I258" s="54"/>
+      <c r="J258" s="54"/>
+      <c r="K258" s="54"/>
+      <c r="L258" s="54"/>
+      <c r="M258" s="54"/>
+      <c r="N258" s="55"/>
+    </row>
+    <row r="259" spans="5:14">
+      <c r="E259" s="53"/>
+      <c r="F259" s="54" t="s">
         <v>561</v>
       </c>
-      <c r="F173" s="57"/>
-      <c r="G173" s="57"/>
-      <c r="H173" s="57"/>
-      <c r="I173" s="57"/>
-      <c r="J173" s="57"/>
-      <c r="K173" s="57"/>
-      <c r="L173" s="57"/>
-      <c r="M173" s="57"/>
-      <c r="N173" s="58"/>
+      <c r="G259" s="54"/>
+      <c r="H259" s="54"/>
+      <c r="I259" s="54"/>
+      <c r="J259" s="54"/>
+      <c r="K259" s="54"/>
+      <c r="L259" s="54"/>
+      <c r="M259" s="54"/>
+      <c r="N259" s="55"/>
+    </row>
+    <row r="260" spans="5:14">
+      <c r="E260" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="F260" s="57"/>
+      <c r="G260" s="57"/>
+      <c r="H260" s="57"/>
+      <c r="I260" s="57"/>
+      <c r="J260" s="57"/>
+      <c r="K260" s="57"/>
+      <c r="L260" s="57"/>
+      <c r="M260" s="57"/>
+      <c r="N260" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
-    <hyperlink ref="A92" location="JavaScript!A1" tooltip="返回" display="top"/>
     <hyperlink ref="A44" location="JavaScript!A1" tooltip="返回" display="top"/>
     <hyperlink ref="C9" location="内容.JavaScript对象构建方式" tooltip="JavaScript对象构建方式" display="构建方式"/>
-    <hyperlink ref="A141" location="JavaScript!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A227" location="JavaScript!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A129" location="JavaScript!A1" tooltip="返回" display="top"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="27860" windowHeight="19020" tabRatio="627"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,21 @@
     <sheet name="Hybrid" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_.gitignore">Git的使用!$D$344</definedName>
-    <definedName name="git_add">Git的使用!$D$82</definedName>
-    <definedName name="git_clone">Git的使用!$D$216</definedName>
-    <definedName name="git_commit">Git的使用!$D$103</definedName>
-    <definedName name="git_config">Git的使用!$D$365</definedName>
-    <definedName name="git_diff">Git的使用!$D$130</definedName>
-    <definedName name="git_fetch">Git的使用!$D$241</definedName>
-    <definedName name="git_pull">Git的使用!$D$297</definedName>
-    <definedName name="git_push">Git的使用!$D$254</definedName>
-    <definedName name="git_remote">Git的使用!$D$227</definedName>
-    <definedName name="git_rm">Git的使用!$D$195</definedName>
-    <definedName name="内容.Git_分支管理">Git的使用!$C$383</definedName>
-    <definedName name="内容.Git_管理本地仓库">Git的使用!$C$81</definedName>
-    <definedName name="内容.Git_配置">Git的使用!$C$343</definedName>
-    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$215</definedName>
+    <definedName name="_.gitignore">Git的使用!$D$347</definedName>
+    <definedName name="git_add">Git的使用!$D$85</definedName>
+    <definedName name="git_clone">Git的使用!$D$219</definedName>
+    <definedName name="git_commit">Git的使用!$D$106</definedName>
+    <definedName name="git_config">Git的使用!$D$368</definedName>
+    <definedName name="git_diff">Git的使用!$D$133</definedName>
+    <definedName name="git_fetch">Git的使用!$D$244</definedName>
+    <definedName name="git_pull">Git的使用!$D$300</definedName>
+    <definedName name="git_push">Git的使用!$D$257</definedName>
+    <definedName name="git_remote">Git的使用!$D$230</definedName>
+    <definedName name="git_rm">Git的使用!$D$198</definedName>
+    <definedName name="内容.Git_分支管理">Git的使用!$C$386</definedName>
+    <definedName name="内容.Git_管理本地仓库">Git的使用!$C$84</definedName>
+    <definedName name="内容.Git_配置">Git的使用!$C$346</definedName>
+    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$218</definedName>
     <definedName name="内容.JavaScript对象构建方式">JavaScript!$D$111</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="681">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3172,6 +3172,15 @@
   <si>
     <t>// 而定义成prototype类型,则所有的类实例都共享一个</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于学习需要循序渐进,在实践中成长,所以网上很多的资料,还是要在自己的工作学习中使用起来才会深刻理解</t>
+  </si>
+  <si>
+    <t>部分文献的参考:</t>
+  </si>
+  <si>
+    <t>http://justcoding.iteye.com/blog/1830388</t>
   </si>
 </sst>
 </file>
@@ -3402,7 +3411,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="92">
+  <cellStyleXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3439,6 +3448,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3632,7 +3643,7 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="92">
+  <cellStyles count="94">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3724,6 +3735,8 @@
     <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3737,13 +3750,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>314</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>341</xdr:row>
+      <xdr:row>344</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3775,7 +3788,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7791450" cy="5133975"/>
@@ -3808,13 +3821,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5042,7 +5055,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N383"/>
+  <dimension ref="A1:N386"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -5085,1359 +5098,1334 @@
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:4" outlineLevel="1">
-      <c r="B6" s="7"/>
+      <c r="B6" s="8" t="s">
+        <v>678</v>
+      </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:4" outlineLevel="1">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" outlineLevel="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" outlineLevel="1">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" outlineLevel="1">
+      <c r="B10" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" outlineLevel="1">
-      <c r="B8" s="1"/>
-      <c r="C8" s="11" t="s">
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" outlineLevel="1">
+      <c r="B11" s="1"/>
+      <c r="C11" s="11" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" outlineLevel="1">
-      <c r="B9" s="12"/>
-      <c r="D9" s="8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" outlineLevel="1">
-      <c r="B10" s="12"/>
-      <c r="D10" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" outlineLevel="1">
-      <c r="B11" s="12"/>
-      <c r="D11" s="8" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="12" spans="1:4" outlineLevel="1">
       <c r="B12" s="12"/>
       <c r="D12" s="8" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" outlineLevel="1">
+      <c r="B13" s="12"/>
+      <c r="D13" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" outlineLevel="1">
+      <c r="B14" s="12"/>
+      <c r="D14" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" outlineLevel="1">
+      <c r="B15" s="12"/>
+      <c r="D15" s="8" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="13" spans="1:4" outlineLevel="1">
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" outlineLevel="1">
-      <c r="B14" s="1"/>
-      <c r="C14" s="11" t="s">
+    <row r="16" spans="1:4" outlineLevel="1">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" outlineLevel="1">
+      <c r="B17" s="1"/>
+      <c r="C17" s="11" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="15" spans="1:4" outlineLevel="1">
-      <c r="B15" s="1"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="8" t="s">
+    <row r="18" spans="2:4" outlineLevel="1">
+      <c r="B18" s="1"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="8" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="16" spans="1:4" outlineLevel="1">
-      <c r="B16" s="12"/>
-      <c r="D16" s="8" t="s">
+    <row r="19" spans="2:4" outlineLevel="1">
+      <c r="B19" s="12"/>
+      <c r="D19" s="8" t="s">
         <v>591</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" outlineLevel="1">
-      <c r="B17" s="12"/>
-      <c r="D17" s="8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" outlineLevel="1">
-      <c r="B18" s="12"/>
-      <c r="D18" s="8" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" outlineLevel="1">
-      <c r="B19" s="1"/>
-      <c r="C19" s="11" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="2:4" outlineLevel="1">
       <c r="B20" s="12"/>
       <c r="D20" s="8" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" spans="2:4" outlineLevel="1">
       <c r="B21" s="12"/>
       <c r="D21" s="8" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="1">
-      <c r="B22" s="12"/>
-      <c r="D22" s="8" t="s">
-        <v>584</v>
+      <c r="B22" s="1"/>
+      <c r="C22" s="11" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="1">
       <c r="B23" s="12"/>
       <c r="D23" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" outlineLevel="1">
+      <c r="B24" s="12"/>
+      <c r="D24" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" outlineLevel="1">
+      <c r="B25" s="12"/>
+      <c r="D25" s="8" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" outlineLevel="1">
+      <c r="B26" s="12"/>
+      <c r="D26" s="8" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="24" spans="2:4" outlineLevel="1">
-      <c r="B24" s="8"/>
-      <c r="D24" s="8" t="s">
+    <row r="27" spans="2:4" outlineLevel="1">
+      <c r="B27" s="8"/>
+      <c r="D27" s="8" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="2:4" outlineLevel="1">
-      <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="2:4" outlineLevel="1">
-      <c r="B26" s="1"/>
-      <c r="C26" s="11" t="s">
+    <row r="28" spans="2:4" outlineLevel="1">
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" spans="2:4" outlineLevel="1">
+      <c r="B29" s="1"/>
+      <c r="C29" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="2:4" outlineLevel="1">
-      <c r="B27" s="12"/>
-      <c r="D27" s="8" t="s">
+    <row r="30" spans="2:4" outlineLevel="1">
+      <c r="B30" s="12"/>
+      <c r="D30" s="8" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="28" spans="2:4" outlineLevel="1">
-      <c r="B28" s="12"/>
-      <c r="D28" s="8" t="s">
+    <row r="31" spans="2:4" outlineLevel="1">
+      <c r="B31" s="12"/>
+      <c r="D31" s="8" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="2:4" outlineLevel="1">
-      <c r="B29" s="8"/>
-      <c r="D29" s="8" t="s">
+    <row r="32" spans="2:4" outlineLevel="1">
+      <c r="B32" s="8"/>
+      <c r="D32" s="8" t="s">
         <v>597</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" outlineLevel="1">
-      <c r="B30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" outlineLevel="1">
-      <c r="B31" s="1"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="2:4" outlineLevel="1">
-      <c r="B32" s="12"/>
-      <c r="C32" s="7" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="33" spans="2:4" outlineLevel="1">
       <c r="B33" s="8"/>
       <c r="D33" s="8" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" outlineLevel="1">
+      <c r="B34" s="1"/>
+      <c r="C34" s="8"/>
+    </row>
+    <row r="35" spans="2:4" outlineLevel="1">
+      <c r="B35" s="12"/>
+      <c r="C35" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" outlineLevel="1">
+      <c r="B36" s="8"/>
+      <c r="D36" s="8" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="2:4" outlineLevel="1">
-      <c r="B34" s="8"/>
-    </row>
-    <row r="35" spans="2:4" outlineLevel="1">
-      <c r="B35" s="12" t="s">
+    <row r="37" spans="2:4" outlineLevel="1">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="2:4" outlineLevel="1">
+      <c r="B38" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="2:4" outlineLevel="1">
-      <c r="B36" s="13"/>
-      <c r="C36" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" outlineLevel="1">
-      <c r="B37" s="13"/>
-      <c r="C37" s="11" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" outlineLevel="1">
-      <c r="B38" s="13"/>
-      <c r="C38" s="11" t="s">
-        <v>396</v>
-      </c>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="2:4" outlineLevel="1">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="2:4" outlineLevel="1">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" outlineLevel="1">
+      <c r="B41" s="13"/>
+      <c r="C41" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" outlineLevel="1">
+      <c r="B42" s="13"/>
+      <c r="C42" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" outlineLevel="1">
+      <c r="B43" s="13"/>
+      <c r="C43" s="11" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="41" spans="2:4" outlineLevel="1">
-      <c r="B41" s="12" t="s">
+    <row r="44" spans="2:4" outlineLevel="1">
+      <c r="B44" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="C41" s="8"/>
-    </row>
-    <row r="42" spans="2:4" outlineLevel="1">
-      <c r="B42" s="7"/>
-      <c r="C42" s="11" t="s">
+      <c r="C44" s="8"/>
+    </row>
+    <row r="45" spans="2:4" outlineLevel="1">
+      <c r="B45" s="7"/>
+      <c r="C45" s="11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="2:4" outlineLevel="1">
-      <c r="C43" s="12" t="s">
+    <row r="46" spans="2:4" outlineLevel="1">
+      <c r="C46" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="44" spans="2:4" outlineLevel="1">
-      <c r="C44" s="12" t="s">
+    <row r="47" spans="2:4" outlineLevel="1">
+      <c r="C47" s="12" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="2:4" outlineLevel="1"/>
-    <row r="46" spans="2:4" outlineLevel="1">
-      <c r="B46" s="12" t="s">
+    <row r="48" spans="2:4" outlineLevel="1"/>
+    <row r="49" spans="2:13" outlineLevel="1">
+      <c r="B49" s="12" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="47" spans="2:4" outlineLevel="1">
-      <c r="B47" s="12"/>
-    </row>
-    <row r="48" spans="2:4" outlineLevel="1">
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="2:13" outlineLevel="1">
-      <c r="B49" s="12"/>
-    </row>
     <row r="50" spans="2:13" outlineLevel="1">
-      <c r="B50" s="8"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="51" spans="2:13" outlineLevel="1">
-      <c r="B51" s="8"/>
-    </row>
-    <row r="52" spans="2:13">
-      <c r="B52" s="14"/>
-    </row>
-    <row r="54" spans="2:13">
-      <c r="D54" s="8" t="s">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="2:13" outlineLevel="1">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="2:13" outlineLevel="1">
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="2:13" outlineLevel="1">
+      <c r="B54" s="8"/>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="14"/>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="D57" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="M54" s="8" t="s">
+      <c r="M57" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="42" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B84" s="6">
         <v>1</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="C82" s="7" t="s">
+    <row r="85" spans="1:5">
+      <c r="C85" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D82" s="62" t="s">
+      <c r="D85" s="62" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="D83" s="8" t="s">
+    <row r="86" spans="1:5">
+      <c r="D86" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E86" s="8" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="D84" s="8" t="s">
+    <row r="87" spans="1:5">
+      <c r="D87" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E87" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="D85" s="8" t="s">
+    <row r="88" spans="1:5">
+      <c r="D88" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E88" s="16" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="E86" s="8" t="s">
+    <row r="89" spans="1:5">
+      <c r="E89" s="8" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="E87" s="16" t="s">
+    <row r="90" spans="1:5">
+      <c r="E90" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="E88" s="8" t="s">
+    <row r="91" spans="1:5">
+      <c r="E91" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="D89" s="8" t="s">
+    <row r="92" spans="1:5">
+      <c r="D92" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E92" s="16" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="E90" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="E92" s="16" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="E93" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="E94" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="E95" s="16" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="E96" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="E97" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="E99" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="E100" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="D100" s="8" t="s">
+    <row r="103" spans="1:5">
+      <c r="D103" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E103" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="E101" s="17" t="s">
+    <row r="104" spans="1:5">
+      <c r="E104" s="17" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="42" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C106" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D103" s="62" t="s">
+      <c r="D106" s="62" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="D104" s="8" t="s">
+    <row r="107" spans="1:5">
+      <c r="D107" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E107" s="8" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="D105" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E105" s="16" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="E106" s="8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="D108" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>352</v>
+        <v>119</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="E109" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="E110" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:5">
+      <c r="D111" s="8" t="s">
+        <v>189</v>
+      </c>
       <c r="E111" s="8" t="s">
-        <v>192</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="E112" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="4:5">
       <c r="E113" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="4:5">
       <c r="E114" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5">
+      <c r="E115" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="116" spans="4:5">
-      <c r="D116" s="8" t="s">
-        <v>196</v>
-      </c>
       <c r="E116" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="117" spans="4:5">
       <c r="E117" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="118" spans="4:5">
-      <c r="E118" s="16" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="119" spans="4:5">
+      <c r="D119" s="8" t="s">
+        <v>196</v>
+      </c>
       <c r="E119" s="8" t="s">
-        <v>353</v>
+        <v>197</v>
       </c>
     </row>
     <row r="120" spans="4:5">
       <c r="E120" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5">
+      <c r="E121" s="16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5">
+      <c r="E122" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5">
+      <c r="E123" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="4:5">
-      <c r="D122" s="62" t="s">
+    <row r="125" spans="4:5">
+      <c r="D125" s="62" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="123" spans="4:5">
-      <c r="D123" s="8" t="s">
+    <row r="126" spans="4:5">
+      <c r="D126" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E126" s="8" t="s">
         <v>528</v>
-      </c>
-    </row>
-    <row r="124" spans="4:5">
-      <c r="E124" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5">
-      <c r="E125" s="8" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="126" spans="4:5">
-      <c r="E126" s="8" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="127" spans="4:5">
       <c r="E127" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5">
+      <c r="E128" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="E129" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="E130" s="8" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="42" t="s">
+    <row r="133" spans="1:6">
+      <c r="A133" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C133" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D130" s="62" t="s">
+      <c r="D133" s="62" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
-      <c r="D131" s="8" t="s">
+    <row r="134" spans="1:6">
+      <c r="D134" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E131" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
-      <c r="D132" s="8" t="s">
+    <row r="135" spans="1:6">
+      <c r="D135" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E135" s="8" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
-      <c r="E133" s="9">
+    <row r="136" spans="1:6">
+      <c r="E136" s="9">
         <v>1</v>
       </c>
-      <c r="F133" s="8" t="s">
+      <c r="F136" s="8" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="E134" s="9"/>
-      <c r="F134" s="8" t="s">
+    <row r="137" spans="1:6">
+      <c r="E137" s="9"/>
+      <c r="F137" s="8" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="E135" s="9"/>
-      <c r="F135" s="8" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="E136" s="9"/>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="E137" s="9">
-        <v>2</v>
-      </c>
-      <c r="F137" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="E138" s="9"/>
       <c r="F138" s="8" t="s">
-        <v>165</v>
+        <v>570</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="E139" s="9"/>
-      <c r="F139" s="8" t="s">
-        <v>571</v>
-      </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="E140" s="9"/>
+      <c r="E140" s="9">
+        <v>2</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="E141" s="9">
-        <v>3</v>
-      </c>
+      <c r="E141" s="9"/>
       <c r="F141" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="E142" s="9"/>
       <c r="F142" s="8" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="E143" s="9"/>
-      <c r="F143" s="8" t="s">
-        <v>569</v>
-      </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="E144" s="9"/>
+      <c r="E144" s="9">
+        <v>3</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="145" spans="4:6">
-      <c r="E145" s="9">
-        <v>4</v>
-      </c>
+      <c r="E145" s="9"/>
       <c r="F145" s="8" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="146" spans="4:6">
       <c r="E146" s="9"/>
       <c r="F146" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6">
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="4:6">
+      <c r="E148" s="9">
+        <v>4</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6">
+      <c r="E149" s="9"/>
+      <c r="F149" s="8" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="147" spans="4:6">
-      <c r="F147" s="8" t="s">
+    <row r="150" spans="4:6">
+      <c r="F150" s="8" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="149" spans="4:6">
-      <c r="E149" s="9">
+    <row r="152" spans="4:6">
+      <c r="E152" s="9">
         <v>5</v>
       </c>
-      <c r="F149" s="8" t="s">
+      <c r="F152" s="8" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="150" spans="4:6">
-      <c r="E150" s="9"/>
-      <c r="F150" s="8" t="s">
+    <row r="153" spans="4:6">
+      <c r="E153" s="9"/>
+      <c r="F153" s="8" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="151" spans="4:6">
-      <c r="E151" s="9"/>
-      <c r="F151" s="8" t="s">
+    <row r="154" spans="4:6">
+      <c r="E154" s="9"/>
+      <c r="F154" s="8" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="153" spans="4:6">
-      <c r="D153" s="8" t="s">
+    <row r="156" spans="4:6">
+      <c r="D156" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="E153" s="8" t="s">
+      <c r="E156" s="8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="154" spans="4:6">
-      <c r="E154" s="8" t="s">
+    <row r="157" spans="4:6">
+      <c r="E157" s="8" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="155" spans="4:6">
-      <c r="E155" s="8" t="s">
+    <row r="158" spans="4:6">
+      <c r="E158" s="8" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="156" spans="4:6">
-      <c r="E156" s="47"/>
-      <c r="F156" s="8" t="s">
+    <row r="159" spans="4:6">
+      <c r="E159" s="47"/>
+      <c r="F159" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="157" spans="4:6">
-      <c r="E157" s="47"/>
-      <c r="F157" s="8" t="s">
+    <row r="160" spans="4:6">
+      <c r="E160" s="47"/>
+      <c r="F160" s="8" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="158" spans="4:6">
-      <c r="E158" s="47"/>
-    </row>
-    <row r="159" spans="4:6">
-      <c r="E159" s="8" t="s">
+    <row r="161" spans="5:6">
+      <c r="E161" s="47"/>
+    </row>
+    <row r="162" spans="5:6">
+      <c r="E162" s="8" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="160" spans="4:6">
-      <c r="E160" s="47">
+    <row r="163" spans="5:6">
+      <c r="E163" s="47">
         <v>1</v>
       </c>
-      <c r="F160" s="8" t="s">
+      <c r="F163" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="5:6">
-      <c r="E161" s="48" t="s">
+    <row r="164" spans="5:6">
+      <c r="E164" s="48" t="s">
         <v>508</v>
       </c>
-      <c r="F161" s="8" t="s">
+      <c r="F164" s="8" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="162" spans="5:6">
-      <c r="E162" s="48"/>
-      <c r="F162" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="163" spans="5:6">
-      <c r="E163" s="48"/>
-      <c r="F163" s="8" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="164" spans="5:6">
-      <c r="E164" s="48"/>
-      <c r="F164" s="8" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="165" spans="5:6">
       <c r="E165" s="48"/>
       <c r="F165" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="5:6">
-      <c r="E166" s="48" t="s">
-        <v>509</v>
-      </c>
+      <c r="E166" s="48"/>
       <c r="F166" s="8" t="s">
-        <v>172</v>
+        <v>354</v>
       </c>
     </row>
     <row r="167" spans="5:6">
       <c r="E167" s="48"/>
       <c r="F167" s="8" t="s">
-        <v>579</v>
+        <v>355</v>
       </c>
     </row>
     <row r="168" spans="5:6">
       <c r="E168" s="48"/>
       <c r="F168" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169" spans="5:6">
-      <c r="E169" s="48"/>
+      <c r="E169" s="48" t="s">
+        <v>509</v>
+      </c>
       <c r="F169" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="5:6">
-      <c r="E170" s="48" t="s">
-        <v>510</v>
-      </c>
+      <c r="E170" s="48"/>
       <c r="F170" s="8" t="s">
-        <v>176</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="5:6">
       <c r="E171" s="48"/>
       <c r="F171" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="172" spans="5:6">
       <c r="E172" s="48"/>
       <c r="F172" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6">
+      <c r="E173" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6">
+      <c r="E174" s="48"/>
+      <c r="F174" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6">
+      <c r="E175" s="48"/>
+      <c r="F175" s="8" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="173" spans="5:6">
-      <c r="E173" s="48"/>
-      <c r="F173" s="8" t="s">
+    <row r="176" spans="5:6">
+      <c r="E176" s="48"/>
+      <c r="F176" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="174" spans="5:6">
-      <c r="E174" s="48" t="s">
+    <row r="177" spans="5:6">
+      <c r="E177" s="48" t="s">
         <v>511</v>
       </c>
-      <c r="F174" s="8" t="s">
+      <c r="F177" s="8" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="175" spans="5:6">
-      <c r="E175" s="49"/>
-      <c r="F175" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="5:6">
-      <c r="E176" s="49"/>
-      <c r="F176" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="177" spans="5:6">
-      <c r="E177" s="49"/>
-      <c r="F177" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="178" spans="5:6">
       <c r="E178" s="49"/>
       <c r="F178" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="179" spans="5:6">
       <c r="E179" s="49"/>
+      <c r="F179" s="8" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="180" spans="5:6">
-      <c r="E180" s="47">
+      <c r="E180" s="49"/>
+      <c r="F180" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6">
+      <c r="E181" s="49"/>
+      <c r="F181" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6">
+      <c r="E182" s="49"/>
+    </row>
+    <row r="183" spans="5:6">
+      <c r="E183" s="47">
         <v>2</v>
       </c>
-      <c r="F180" s="16" t="s">
+      <c r="F183" s="16" t="s">
         <v>512</v>
-      </c>
-    </row>
-    <row r="181" spans="5:6">
-      <c r="E181" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="F181" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="182" spans="5:6">
-      <c r="E182" s="48"/>
-      <c r="F182" s="8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="183" spans="5:6">
-      <c r="E183" s="48"/>
-      <c r="F183" s="8" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="184" spans="5:6">
       <c r="E184" s="48" t="s">
-        <v>519</v>
-      </c>
-      <c r="F184" s="16" t="s">
-        <v>581</v>
+        <v>513</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="5:6">
       <c r="E185" s="48"/>
       <c r="F185" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="186" spans="5:6">
       <c r="E186" s="48"/>
       <c r="F186" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6">
+      <c r="E187" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6">
+      <c r="E188" s="48"/>
+      <c r="F188" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6">
+      <c r="E189" s="48"/>
+      <c r="F189" s="8" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="187" spans="5:6">
-      <c r="E187" s="48"/>
-      <c r="F187" s="8" t="s">
+    <row r="190" spans="5:6">
+      <c r="E190" s="48"/>
+      <c r="F190" s="8" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="188" spans="5:6">
-      <c r="E188" s="48" t="s">
+    <row r="191" spans="5:6">
+      <c r="E191" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="F188" s="16" t="s">
+      <c r="F191" s="16" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="189" spans="5:6">
-      <c r="E189" s="49"/>
-      <c r="F189" s="8" t="s">
+    <row r="192" spans="5:6">
+      <c r="E192" s="49"/>
+      <c r="F192" s="8" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="190" spans="5:6">
-      <c r="E190" s="49"/>
-    </row>
-    <row r="191" spans="5:6">
-      <c r="E191" s="8" t="s">
+    <row r="193" spans="1:5">
+      <c r="E193" s="49"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="E194" s="8" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="192" spans="5:6">
-      <c r="E192" s="49" t="s">
+    <row r="195" spans="1:5">
+      <c r="E195" s="49" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
-      <c r="E193" s="49" t="s">
+    <row r="196" spans="1:5">
+      <c r="E196" s="49" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="42" t="s">
+    <row r="198" spans="1:5">
+      <c r="A198" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C195" s="7" t="s">
+      <c r="C198" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D195" s="62" t="s">
+      <c r="D198" s="62" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
-      <c r="D196" s="8" t="s">
+    <row r="199" spans="1:5">
+      <c r="D199" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E196" s="8" t="s">
+      <c r="E199" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="D197" s="8" t="s">
+    <row r="200" spans="1:5">
+      <c r="D200" s="8" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="D198" s="47">
-        <v>1</v>
-      </c>
-      <c r="E198" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="D199" s="47"/>
-      <c r="E199" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
-      <c r="D200" s="47"/>
     </row>
     <row r="201" spans="1:5">
       <c r="D201" s="47">
-        <v>2</v>
-      </c>
-      <c r="E201" s="8" t="s">
-        <v>270</v>
+        <v>1</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="D202" s="47"/>
       <c r="E202" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="D203" s="47"/>
-      <c r="E203" s="8" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="D204" s="47"/>
+      <c r="D204" s="47">
+        <v>2</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="D205" s="47">
-        <v>3</v>
-      </c>
-      <c r="E205" s="16" t="s">
-        <v>273</v>
+      <c r="D205" s="47"/>
+      <c r="E205" s="8" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="D206" s="47"/>
       <c r="E206" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="D207" s="47"/>
-      <c r="E207" s="8" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="D208" s="47"/>
-      <c r="E208" s="8" t="s">
-        <v>276</v>
+      <c r="D208" s="47">
+        <v>3</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="D209" s="47"/>
       <c r="E209" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="D210" s="47"/>
+      <c r="E210" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="D211" s="47"/>
+      <c r="E211" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="D212" s="47"/>
+      <c r="E212" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="E210" s="8" t="s">
+    <row r="213" spans="1:5">
+      <c r="E213" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="D212" s="8" t="s">
+    <row r="215" spans="1:5">
+      <c r="D215" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E212" s="8" t="s">
+      <c r="E215" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="42" t="s">
+    <row r="218" spans="1:5">
+      <c r="A218" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="B215" s="6">
+      <c r="B218" s="6">
         <v>2</v>
       </c>
-      <c r="C215" s="18" t="s">
+      <c r="C218" s="18" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
-      <c r="C216" s="7" t="s">
+    <row r="219" spans="1:5">
+      <c r="C219" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D216" s="62" t="s">
+      <c r="D219" s="62" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="D218" s="8" t="s">
+    <row r="221" spans="1:5">
+      <c r="D221" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="E221" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
-      <c r="D219" s="8" t="s">
+    <row r="222" spans="1:5">
+      <c r="D222" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E219" s="8" t="s">
+      <c r="E222" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
-      <c r="D220" s="8" t="s">
+    <row r="223" spans="1:5">
+      <c r="D223" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E220" s="8" t="s">
+      <c r="E223" s="8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="E221" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
-      <c r="E223" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="E224" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="226" spans="3:12">
+      <c r="E226" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="227" spans="3:12">
+      <c r="E227" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="225" spans="3:12">
-      <c r="E225" s="8" t="s">
+    <row r="228" spans="3:12">
+      <c r="E228" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="3:12">
-      <c r="C227" s="7" t="s">
+    <row r="230" spans="3:12">
+      <c r="C230" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D227" s="62" t="s">
+      <c r="D230" s="62" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="229" spans="3:12">
-      <c r="D229" s="8" t="s">
+    <row r="232" spans="3:12">
+      <c r="D232" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E229" s="8" t="s">
+      <c r="E232" s="8" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="230" spans="3:12">
-      <c r="D230" s="8" t="s">
+    <row r="233" spans="3:12">
+      <c r="D233" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E230" s="8" t="s">
+      <c r="E233" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="231" spans="3:12">
-      <c r="E231" s="19" t="s">
+    <row r="234" spans="3:12">
+      <c r="E234" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F231" s="20"/>
-      <c r="G231" s="20"/>
-      <c r="H231" s="20"/>
-      <c r="I231" s="20"/>
-      <c r="J231" s="20"/>
-      <c r="K231" s="20"/>
-      <c r="L231" s="21"/>
-    </row>
-    <row r="232" spans="3:12">
-      <c r="E232" s="22" t="s">
+      <c r="F234" s="20"/>
+      <c r="G234" s="20"/>
+      <c r="H234" s="20"/>
+      <c r="I234" s="20"/>
+      <c r="J234" s="20"/>
+      <c r="K234" s="20"/>
+      <c r="L234" s="21"/>
+    </row>
+    <row r="235" spans="3:12">
+      <c r="E235" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F232" s="23"/>
-      <c r="G232" s="23"/>
-      <c r="H232" s="23"/>
-      <c r="I232" s="23"/>
-      <c r="J232" s="23"/>
-      <c r="K232" s="23"/>
-      <c r="L232" s="24"/>
-    </row>
-    <row r="233" spans="3:12">
-      <c r="E233" s="22" t="s">
+      <c r="F235" s="23"/>
+      <c r="G235" s="23"/>
+      <c r="H235" s="23"/>
+      <c r="I235" s="23"/>
+      <c r="J235" s="23"/>
+      <c r="K235" s="23"/>
+      <c r="L235" s="24"/>
+    </row>
+    <row r="236" spans="3:12">
+      <c r="E236" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F233" s="23"/>
-      <c r="G233" s="23"/>
-      <c r="H233" s="23"/>
-      <c r="I233" s="23"/>
-      <c r="J233" s="23"/>
-      <c r="K233" s="23"/>
-      <c r="L233" s="24"/>
-    </row>
-    <row r="234" spans="3:12">
-      <c r="E234" s="25" t="s">
+      <c r="F236" s="23"/>
+      <c r="G236" s="23"/>
+      <c r="H236" s="23"/>
+      <c r="I236" s="23"/>
+      <c r="J236" s="23"/>
+      <c r="K236" s="23"/>
+      <c r="L236" s="24"/>
+    </row>
+    <row r="237" spans="3:12">
+      <c r="E237" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="F234" s="26"/>
-      <c r="G234" s="26"/>
-      <c r="H234" s="26"/>
-      <c r="I234" s="26"/>
-      <c r="J234" s="26"/>
-      <c r="K234" s="26"/>
-      <c r="L234" s="27"/>
-    </row>
-    <row r="236" spans="3:12">
-      <c r="E236" s="8" t="s">
+      <c r="F237" s="26"/>
+      <c r="G237" s="26"/>
+      <c r="H237" s="26"/>
+      <c r="I237" s="26"/>
+      <c r="J237" s="26"/>
+      <c r="K237" s="26"/>
+      <c r="L237" s="27"/>
+    </row>
+    <row r="239" spans="3:12">
+      <c r="E239" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="237" spans="3:12">
-      <c r="E237" s="19" t="s">
+    <row r="240" spans="3:12">
+      <c r="E240" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
-      <c r="H237" s="20"/>
-      <c r="I237" s="20"/>
-      <c r="J237" s="20"/>
-      <c r="K237" s="20"/>
-      <c r="L237" s="21"/>
-    </row>
-    <row r="238" spans="3:12">
-      <c r="E238" s="22" t="s">
+      <c r="F240" s="20"/>
+      <c r="G240" s="20"/>
+      <c r="H240" s="20"/>
+      <c r="I240" s="20"/>
+      <c r="J240" s="20"/>
+      <c r="K240" s="20"/>
+      <c r="L240" s="21"/>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="E241" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F238" s="23" t="s">
+      <c r="F241" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="G238" s="23"/>
-      <c r="H238" s="23"/>
-      <c r="I238" s="23"/>
-      <c r="J238" s="23"/>
-      <c r="K238" s="23"/>
-      <c r="L238" s="24"/>
-    </row>
-    <row r="239" spans="3:12">
-      <c r="E239" s="28" t="s">
+      <c r="G241" s="23"/>
+      <c r="H241" s="23"/>
+      <c r="I241" s="23"/>
+      <c r="J241" s="23"/>
+      <c r="K241" s="23"/>
+      <c r="L241" s="24"/>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="E242" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F239" s="26" t="s">
+      <c r="F242" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="G239" s="26"/>
-      <c r="H239" s="26"/>
-      <c r="I239" s="26"/>
-      <c r="J239" s="26"/>
-      <c r="K239" s="26"/>
-      <c r="L239" s="27"/>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="42" t="s">
+      <c r="G242" s="26"/>
+      <c r="H242" s="26"/>
+      <c r="I242" s="26"/>
+      <c r="J242" s="26"/>
+      <c r="K242" s="26"/>
+      <c r="L242" s="27"/>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="A244" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C244" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D241" s="62" t="s">
+      <c r="D244" s="62" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
-      <c r="D243" s="8" t="s">
+    <row r="246" spans="1:12">
+      <c r="D246" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E243" s="8" t="s">
+      <c r="E246" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
-      <c r="D244" s="8" t="s">
+    <row r="247" spans="1:12">
+      <c r="D247" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E244" s="8" t="s">
+      <c r="E247" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
-      <c r="E245" s="8" t="s">
+    <row r="248" spans="1:12">
+      <c r="E248" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="D246" s="8" t="s">
+    <row r="249" spans="1:12">
+      <c r="D249" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E246" s="8" t="s">
+      <c r="E249" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="E247" s="8" t="s">
+    <row r="250" spans="1:12">
+      <c r="E250" s="8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
-      <c r="E248" s="8" t="s">
+    <row r="251" spans="1:12">
+      <c r="E251" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="E249" s="8" t="s">
+    <row r="252" spans="1:12">
+      <c r="E252" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
-      <c r="E250" s="8" t="s">
+    <row r="253" spans="1:12">
+      <c r="E253" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="E251" s="8" t="s">
+    <row r="254" spans="1:12">
+      <c r="E254" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
-      <c r="E252" s="8" t="s">
+    <row r="255" spans="1:12">
+      <c r="E255" s="8" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="42" t="s">
+    <row r="257" spans="1:14">
+      <c r="A257" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="C257" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D254" s="62" t="s">
+      <c r="D257" s="62" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
-      <c r="D256" s="8" t="s">
+    <row r="259" spans="1:14">
+      <c r="D259" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E256" s="8" t="s">
+      <c r="E259" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="257" spans="4:14">
-      <c r="D257" s="8" t="s">
+    <row r="260" spans="1:14">
+      <c r="D260" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E257" s="61" t="s">
+      <c r="E260" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="258" spans="4:14">
-      <c r="D258" s="8" t="s">
+    <row r="261" spans="1:14">
+      <c r="D261" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E258" s="8" t="s">
+      <c r="E261" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="259" spans="4:14">
-      <c r="E259" s="8" t="s">
+    <row r="262" spans="1:14">
+      <c r="E262" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="260" spans="4:14">
-      <c r="E260" s="8" t="s">
+    <row r="263" spans="1:14">
+      <c r="E263" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="263" spans="4:14">
-      <c r="D263" s="8" t="s">
+    <row r="266" spans="1:14">
+      <c r="D266" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E263" s="8" t="s">
+      <c r="E266" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="264" spans="4:14">
-      <c r="E264" s="8" t="s">
+    <row r="267" spans="1:14">
+      <c r="E267" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="265" spans="4:14">
-      <c r="E265" s="19" t="s">
+    <row r="268" spans="1:14">
+      <c r="E268" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F265" s="20"/>
-      <c r="G265" s="20"/>
-      <c r="H265" s="20"/>
-      <c r="I265" s="20"/>
-      <c r="J265" s="20"/>
-      <c r="K265" s="20"/>
-      <c r="L265" s="20"/>
-      <c r="M265" s="20"/>
-      <c r="N265" s="21"/>
-    </row>
-    <row r="266" spans="4:14">
-      <c r="E266" s="22" t="s">
+      <c r="F268" s="20"/>
+      <c r="G268" s="20"/>
+      <c r="H268" s="20"/>
+      <c r="I268" s="20"/>
+      <c r="J268" s="20"/>
+      <c r="K268" s="20"/>
+      <c r="L268" s="20"/>
+      <c r="M268" s="20"/>
+      <c r="N268" s="21"/>
+    </row>
+    <row r="269" spans="1:14">
+      <c r="E269" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="F266" s="23"/>
-      <c r="G266" s="23"/>
-      <c r="H266" s="23"/>
-      <c r="I266" s="23"/>
-      <c r="J266" s="23"/>
-      <c r="K266" s="23"/>
-      <c r="L266" s="23"/>
-      <c r="M266" s="23"/>
-      <c r="N266" s="24"/>
-    </row>
-    <row r="267" spans="4:14">
-      <c r="E267" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F267" s="23"/>
-      <c r="G267" s="23"/>
-      <c r="H267" s="23"/>
-      <c r="I267" s="23"/>
-      <c r="J267" s="23"/>
-      <c r="K267" s="23"/>
-      <c r="L267" s="23"/>
-      <c r="M267" s="23"/>
-      <c r="N267" s="24"/>
-    </row>
-    <row r="268" spans="4:14">
-      <c r="E268" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F268" s="23"/>
-      <c r="G268" s="23"/>
-      <c r="H268" s="23"/>
-      <c r="I268" s="23"/>
-      <c r="J268" s="23"/>
-      <c r="K268" s="23"/>
-      <c r="L268" s="23"/>
-      <c r="M268" s="23"/>
-      <c r="N268" s="24"/>
-    </row>
-    <row r="269" spans="4:14">
-      <c r="E269" s="22" t="s">
-        <v>66</v>
       </c>
       <c r="F269" s="23"/>
       <c r="G269" s="23"/>
@@ -6449,9 +6437,9 @@
       <c r="M269" s="23"/>
       <c r="N269" s="24"/>
     </row>
-    <row r="270" spans="4:14">
+    <row r="270" spans="1:14">
       <c r="E270" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F270" s="23"/>
       <c r="G270" s="23"/>
@@ -6463,9 +6451,9 @@
       <c r="M270" s="23"/>
       <c r="N270" s="24"/>
     </row>
-    <row r="271" spans="4:14">
+    <row r="271" spans="1:14">
       <c r="E271" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F271" s="23"/>
       <c r="G271" s="23"/>
@@ -6477,8 +6465,10 @@
       <c r="M271" s="23"/>
       <c r="N271" s="24"/>
     </row>
-    <row r="272" spans="4:14">
-      <c r="E272" s="22"/>
+    <row r="272" spans="1:14">
+      <c r="E272" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="F272" s="23"/>
       <c r="G272" s="23"/>
       <c r="H272" s="23"/>
@@ -6490,10 +6480,10 @@
       <c r="N272" s="24"/>
     </row>
     <row r="273" spans="5:14">
-      <c r="E273" s="22"/>
-      <c r="F273" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="E273" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F273" s="23"/>
       <c r="G273" s="23"/>
       <c r="H273" s="23"/>
       <c r="I273" s="23"/>
@@ -6504,7 +6494,9 @@
       <c r="N273" s="24"/>
     </row>
     <row r="274" spans="5:14">
-      <c r="E274" s="22"/>
+      <c r="E274" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="F274" s="23"/>
       <c r="G274" s="23"/>
       <c r="H274" s="23"/>
@@ -6516,9 +6508,7 @@
       <c r="N274" s="24"/>
     </row>
     <row r="275" spans="5:14">
-      <c r="E275" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="E275" s="22"/>
       <c r="F275" s="23"/>
       <c r="G275" s="23"/>
       <c r="H275" s="23"/>
@@ -6530,10 +6520,10 @@
       <c r="N275" s="24"/>
     </row>
     <row r="276" spans="5:14">
-      <c r="E276" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="F276" s="23"/>
+      <c r="E276" s="22"/>
+      <c r="F276" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="G276" s="23"/>
       <c r="H276" s="23"/>
       <c r="I276" s="23"/>
@@ -6544,50 +6534,48 @@
       <c r="N276" s="24"/>
     </row>
     <row r="277" spans="5:14">
-      <c r="E277" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F277" s="30"/>
-      <c r="G277" s="30"/>
-      <c r="H277" s="30"/>
-      <c r="I277" s="30"/>
-      <c r="J277" s="30"/>
-      <c r="K277" s="30"/>
-      <c r="L277" s="30"/>
+      <c r="E277" s="22"/>
+      <c r="F277" s="23"/>
+      <c r="G277" s="23"/>
+      <c r="H277" s="23"/>
+      <c r="I277" s="23"/>
+      <c r="J277" s="23"/>
+      <c r="K277" s="23"/>
+      <c r="L277" s="23"/>
       <c r="M277" s="23"/>
       <c r="N277" s="24"/>
     </row>
     <row r="278" spans="5:14">
-      <c r="E278" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F278" s="30"/>
-      <c r="G278" s="30"/>
-      <c r="H278" s="30"/>
-      <c r="I278" s="30"/>
-      <c r="J278" s="30"/>
-      <c r="K278" s="30"/>
-      <c r="L278" s="30"/>
+      <c r="E278" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F278" s="23"/>
+      <c r="G278" s="23"/>
+      <c r="H278" s="23"/>
+      <c r="I278" s="23"/>
+      <c r="J278" s="23"/>
+      <c r="K278" s="23"/>
+      <c r="L278" s="23"/>
       <c r="M278" s="23"/>
       <c r="N278" s="24"/>
     </row>
     <row r="279" spans="5:14">
-      <c r="E279" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F279" s="30"/>
-      <c r="G279" s="30"/>
-      <c r="H279" s="30"/>
-      <c r="I279" s="30"/>
-      <c r="J279" s="30"/>
-      <c r="K279" s="30"/>
-      <c r="L279" s="30"/>
+      <c r="E279" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="F279" s="23"/>
+      <c r="G279" s="23"/>
+      <c r="H279" s="23"/>
+      <c r="I279" s="23"/>
+      <c r="J279" s="23"/>
+      <c r="K279" s="23"/>
+      <c r="L279" s="23"/>
       <c r="M279" s="23"/>
       <c r="N279" s="24"/>
     </row>
     <row r="280" spans="5:14">
       <c r="E280" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F280" s="30"/>
       <c r="G280" s="30"/>
@@ -6601,7 +6589,7 @@
     </row>
     <row r="281" spans="5:14">
       <c r="E281" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F281" s="30"/>
       <c r="G281" s="30"/>
@@ -6615,7 +6603,7 @@
     </row>
     <row r="282" spans="5:14">
       <c r="E282" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F282" s="30"/>
       <c r="G282" s="30"/>
@@ -6628,349 +6616,391 @@
       <c r="N282" s="24"/>
     </row>
     <row r="283" spans="5:14">
-      <c r="E283" s="31" t="s">
+      <c r="E283" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F283" s="30"/>
+      <c r="G283" s="30"/>
+      <c r="H283" s="30"/>
+      <c r="I283" s="30"/>
+      <c r="J283" s="30"/>
+      <c r="K283" s="30"/>
+      <c r="L283" s="30"/>
+      <c r="M283" s="23"/>
+      <c r="N283" s="24"/>
+    </row>
+    <row r="284" spans="5:14">
+      <c r="E284" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F284" s="30"/>
+      <c r="G284" s="30"/>
+      <c r="H284" s="30"/>
+      <c r="I284" s="30"/>
+      <c r="J284" s="30"/>
+      <c r="K284" s="30"/>
+      <c r="L284" s="30"/>
+      <c r="M284" s="23"/>
+      <c r="N284" s="24"/>
+    </row>
+    <row r="285" spans="5:14">
+      <c r="E285" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F285" s="30"/>
+      <c r="G285" s="30"/>
+      <c r="H285" s="30"/>
+      <c r="I285" s="30"/>
+      <c r="J285" s="30"/>
+      <c r="K285" s="30"/>
+      <c r="L285" s="30"/>
+      <c r="M285" s="23"/>
+      <c r="N285" s="24"/>
+    </row>
+    <row r="286" spans="5:14">
+      <c r="E286" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F283" s="32"/>
-      <c r="G283" s="32"/>
-      <c r="H283" s="32"/>
-      <c r="I283" s="32"/>
-      <c r="J283" s="32"/>
-      <c r="K283" s="32"/>
-      <c r="L283" s="32"/>
-      <c r="M283" s="26"/>
-      <c r="N283" s="27"/>
-    </row>
-    <row r="285" spans="5:14">
-      <c r="E285" s="8" t="s">
+      <c r="F286" s="32"/>
+      <c r="G286" s="32"/>
+      <c r="H286" s="32"/>
+      <c r="I286" s="32"/>
+      <c r="J286" s="32"/>
+      <c r="K286" s="32"/>
+      <c r="L286" s="32"/>
+      <c r="M286" s="26"/>
+      <c r="N286" s="27"/>
+    </row>
+    <row r="288" spans="5:14">
+      <c r="E288" s="8" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="286" spans="5:14">
-      <c r="E286" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="287" spans="5:14">
-      <c r="E287" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="E289" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="E290" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
-      <c r="E291" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="E292" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="E293" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="E294" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="E295" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="E297" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="E298" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
-      <c r="A297" s="42" t="s">
+    <row r="300" spans="1:5">
+      <c r="A300" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C297" s="7" t="s">
+      <c r="C300" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D297" s="62" t="s">
+      <c r="D300" s="62" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
-      <c r="D299" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E299" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="E300" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
-      <c r="D301" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E301" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="D302" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E302" s="8" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="E303" s="8" t="s">
-        <v>92</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="D304" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E304" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="4:5">
       <c r="D305" s="8" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E305" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="306" spans="4:5">
       <c r="E306" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="307" spans="4:5">
-      <c r="E307" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="4:5">
+      <c r="D308" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="E308" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="309" spans="4:5">
       <c r="E309" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="310" spans="4:5">
       <c r="E310" s="8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="311" spans="4:5">
       <c r="E311" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="312" spans="4:5">
+      <c r="E312" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="313" spans="4:5">
+      <c r="E313" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="314" spans="4:5">
+      <c r="E314" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="314" spans="4:5">
-      <c r="D314" s="8" t="s">
+    <row r="317" spans="4:5">
+      <c r="D317" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="315" spans="4:5">
-      <c r="D315" s="33"/>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="42" t="s">
+    <row r="318" spans="4:5">
+      <c r="D318" s="33"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="B343" s="6">
+      <c r="B346" s="6">
         <v>3</v>
       </c>
-      <c r="C343" s="9" t="s">
+      <c r="C346" s="9" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
-      <c r="C344" s="7" t="s">
+    <row r="347" spans="1:5">
+      <c r="C347" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D344" s="62" t="s">
+      <c r="D347" s="62" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
-      <c r="D345" s="8" t="s">
+    <row r="348" spans="1:5">
+      <c r="D348" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E345" s="8" t="s">
+      <c r="E348" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
-      <c r="D346" s="8" t="s">
+    <row r="349" spans="1:5">
+      <c r="D349" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E346" s="8" t="s">
+      <c r="E349" s="8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
-      <c r="D347" s="8" t="s">
+    <row r="350" spans="1:5">
+      <c r="D350" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E347" s="8" t="s">
+      <c r="E350" s="8" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="E348" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="E349" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="E350" s="8" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="E351" s="8" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="E352" s="8" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="E353" s="8" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="E354" s="8" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="E355" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="E356" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="E357" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="E358" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="E359" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="E360" s="8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
-      <c r="D361" s="8" t="s">
+    <row r="364" spans="1:5">
+      <c r="D364" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E361" s="8" t="s">
+      <c r="E364" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
-      <c r="E362" s="8" t="s">
+    <row r="365" spans="1:5">
+      <c r="E365" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
-      <c r="E363" s="8" t="s">
+    <row r="366" spans="1:5">
+      <c r="E366" s="8" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
-      <c r="A365" s="42" t="s">
+    <row r="368" spans="1:5">
+      <c r="A368" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="C365" s="7" t="s">
+      <c r="C368" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="D365" s="62" t="s">
+      <c r="D368" s="62" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
-      <c r="D366" s="8" t="s">
+    <row r="369" spans="4:5">
+      <c r="D369" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E366" s="8" t="s">
+      <c r="E369" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
-      <c r="D367" s="8">
+    <row r="370" spans="4:5">
+      <c r="D370" s="8">
         <v>1</v>
       </c>
-      <c r="E367" s="16" t="s">
+      <c r="E370" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
-      <c r="E368" s="8" t="s">
+    <row r="371" spans="4:5">
+      <c r="E371" s="8" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
-      <c r="E369" s="8" t="s">
+    <row r="372" spans="4:5">
+      <c r="E372" s="8" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
-      <c r="E370" s="8" t="s">
+    <row r="373" spans="4:5">
+      <c r="E373" s="8" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
-      <c r="E371" s="16" t="s">
+    <row r="374" spans="4:5">
+      <c r="E374" s="16" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
-      <c r="D373" s="8">
+    <row r="376" spans="4:5">
+      <c r="D376" s="8">
         <v>2</v>
       </c>
-      <c r="E373" s="8" t="s">
+      <c r="E376" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
-      <c r="E374" s="16" t="s">
+    <row r="377" spans="4:5">
+      <c r="E377" s="16" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
-      <c r="E375" s="8" t="s">
+    <row r="378" spans="4:5">
+      <c r="E378" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
-      <c r="E376" s="8" t="s">
+    <row r="379" spans="4:5">
+      <c r="E379" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
-      <c r="E377" s="8" t="s">
+    <row r="380" spans="4:5">
+      <c r="E380" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
-      <c r="A383" s="42" t="s">
+    <row r="386" spans="1:3">
+      <c r="A386" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="B383" s="6">
+      <c r="B386" s="6">
         <v>4</v>
       </c>
-      <c r="C383" s="7" t="s">
+      <c r="C386" s="7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6978,33 +7008,33 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回封面目录"/>
-    <hyperlink ref="B35" location="内容.Git_与远程主机的交互" tooltip="Git_与远程主机的交互" display="与远程仓库交互"/>
-    <hyperlink ref="B7" location="内容.Git_管理本地仓库" tooltip="Git_管理本地仓库" display="管理本地仓库"/>
-    <hyperlink ref="B41" location="内容.Git_配置" tooltip="Git_配置" display="Git配置"/>
-    <hyperlink ref="A81" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A103" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A130" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A195" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A215" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A241" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A254" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A297" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A343" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A365" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A383" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="C8" location="git_add" tooltip="git add" display="git add"/>
-    <hyperlink ref="C14" location="git_commit" tooltip="git commit" display="git commit"/>
-    <hyperlink ref="C19" location="git_diff" tooltip="git diff" display="git diff"/>
-    <hyperlink ref="C26" location="git_rm" tooltip="git rm" display="git rm"/>
-    <hyperlink ref="C36" location="git_clone" tooltip="git clone" display="git clone"/>
-    <hyperlink ref="C37" location="git_remote" tooltip="git remote" display="git remote"/>
-    <hyperlink ref="C38" location="git_fetch" tooltip="git fetch" display="git fetch"/>
-    <hyperlink ref="C39" location="git_push" tooltip="git push" display="git push"/>
-    <hyperlink ref="C40" location="git_pull" tooltip="git pull" display="git pull"/>
-    <hyperlink ref="C43" location="git_config" tooltip="git config" display="git config"/>
-    <hyperlink ref="C42" location="_.gitignore" tooltip="gitignore" display=".gitignore的配置(忽略某些文件的版本管理)"/>
-    <hyperlink ref="C44" location="git_config" tooltip="git config --unset" display="git config --unset"/>
-    <hyperlink ref="B46" location="内容.Git_分支管理" tooltip="Git分支管理" display="Git分支管理"/>
+    <hyperlink ref="B38" location="内容.Git_与远程主机的交互" tooltip="Git_与远程主机的交互" display="与远程仓库交互"/>
+    <hyperlink ref="B10" location="内容.Git_管理本地仓库" tooltip="Git_管理本地仓库" display="管理本地仓库"/>
+    <hyperlink ref="B44" location="内容.Git_配置" tooltip="Git_配置" display="Git配置"/>
+    <hyperlink ref="A84" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A106" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A133" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A198" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A218" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A244" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A257" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A300" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A346" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A368" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A386" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="C11" location="git_add" tooltip="git add" display="git add"/>
+    <hyperlink ref="C17" location="git_commit" tooltip="git commit" display="git commit"/>
+    <hyperlink ref="C22" location="git_diff" tooltip="git diff" display="git diff"/>
+    <hyperlink ref="C29" location="git_rm" tooltip="git rm" display="git rm"/>
+    <hyperlink ref="C39" location="git_clone" tooltip="git clone" display="git clone"/>
+    <hyperlink ref="C40" location="git_remote" tooltip="git remote" display="git remote"/>
+    <hyperlink ref="C41" location="git_fetch" tooltip="git fetch" display="git fetch"/>
+    <hyperlink ref="C42" location="git_push" tooltip="git push" display="git push"/>
+    <hyperlink ref="C43" location="git_pull" tooltip="git pull" display="git pull"/>
+    <hyperlink ref="C46" location="git_config" tooltip="git config" display="git config"/>
+    <hyperlink ref="C45" location="_.gitignore" tooltip="gitignore" display=".gitignore的配置(忽略某些文件的版本管理)"/>
+    <hyperlink ref="C47" location="git_config" tooltip="git config --unset" display="git config --unset"/>
+    <hyperlink ref="B49" location="内容.Git_分支管理" tooltip="Git分支管理" display="Git分支管理"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -35,7 +35,7 @@
     <definedName name="内容.Git_管理本地仓库">Git的使用!$C$84</definedName>
     <definedName name="内容.Git_配置">Git的使用!$C$346</definedName>
     <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$218</definedName>
-    <definedName name="内容.JavaScript对象构建方式">JavaScript!$D$111</definedName>
+    <definedName name="内容.JavaScript对象构建方式">JavaScript!$D$117</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="696">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3181,6 +3181,65 @@
   </si>
   <si>
     <t>http://justcoding.iteye.com/blog/1830388</t>
+  </si>
+  <si>
+    <t>文献学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://benalman.com/news/2010/11/immediately-invoked-function-expression/</t>
+  </si>
+  <si>
+    <t>var person = (function () {</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>})();</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>return {</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>setName : function(name){</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>this.name = name;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>},</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>getName: fucntion(){</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>return this.name;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>person.setName("samson");</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写法1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写法2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4074,13 +4133,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4112,13 +4171,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4150,13 +4209,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>213</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>222</xdr:row>
+      <xdr:row>228</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4188,13 +4247,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>238</xdr:row>
+      <xdr:row>263</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4226,13 +4285,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>244</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>278</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4264,13 +4323,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4302,13 +4361,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8193,7 +8252,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P260"/>
+  <dimension ref="A1:P285"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -8208,504 +8267,447 @@
         <v>132</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="10"/>
+    </row>
     <row r="3" spans="1:3">
+      <c r="A3" s="10"/>
       <c r="B3" s="38" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="10"/>
+      <c r="C4" s="38" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="38" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="C4" s="38" t="s">
+    <row r="10" spans="1:3">
+      <c r="C10" s="38" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="38" t="s">
+    <row r="11" spans="1:3">
+      <c r="C11" s="38" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="C6" s="38" t="s">
+    <row r="12" spans="1:3">
+      <c r="C12" s="38" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="38" t="s">
+    <row r="14" spans="1:3">
+      <c r="B14" s="38" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="C9" s="60" t="s">
+    <row r="15" spans="1:3">
+      <c r="C15" s="60" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="38" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="38" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="38" t="s">
+    <row r="23" spans="3:5">
+      <c r="D23" s="38" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
-      <c r="E18" s="46" t="s">
+    <row r="24" spans="3:5">
+      <c r="E24" s="46" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="38" t="s">
+    <row r="25" spans="3:5">
+      <c r="D25" s="38" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="4:5">
-      <c r="E22" s="38" t="s">
+    <row r="28" spans="3:5">
+      <c r="E28" s="38" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="24" spans="4:5">
-      <c r="E24" s="38" t="s">
+    <row r="30" spans="3:5">
+      <c r="E30" s="38" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="4:5">
-      <c r="E25" s="38" t="s">
+    <row r="31" spans="3:5">
+      <c r="E31" s="38" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="4:5">
-      <c r="E26" s="38" t="s">
+    <row r="32" spans="3:5">
+      <c r="E32" s="38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="4:5">
-      <c r="E27" s="38" t="s">
+    <row r="33" spans="3:5">
+      <c r="E33" s="38" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="28" spans="4:5">
-      <c r="E28" s="38" t="s">
+    <row r="34" spans="3:5">
+      <c r="E34" s="38" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="30" spans="4:5">
-      <c r="D30" s="38" t="s">
+    <row r="36" spans="3:5">
+      <c r="D36" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E36" s="38" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="C33" s="38" t="s">
+    <row r="39" spans="3:5">
+      <c r="C39" s="38" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="C34" s="38">
+    <row r="40" spans="3:5">
+      <c r="C40" s="38">
         <v>1</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D40" s="38" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="E35" s="38" t="s">
+    <row r="41" spans="3:5">
+      <c r="E41" s="38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="E36" s="38" t="s">
+    <row r="42" spans="3:5">
+      <c r="E42" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="E37" s="38" t="s">
+    <row r="43" spans="3:5">
+      <c r="E43" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="C39" s="38">
+    <row r="45" spans="3:5">
+      <c r="C45" s="38">
         <v>2</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D45" s="38" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="E40" s="38" t="s">
+    <row r="46" spans="3:5">
+      <c r="E46" s="38" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="E41" s="38" t="s">
+    <row r="47" spans="3:5">
+      <c r="E47" s="38" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="41" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C50" s="38">
         <v>3</v>
       </c>
-      <c r="D44" s="46" t="s">
+      <c r="D50" s="46" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="D45" s="38" t="s">
+    <row r="51" spans="1:6">
+      <c r="D51" s="38" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="D46" s="38">
+    <row r="52" spans="1:6">
+      <c r="D52" s="38">
         <v>1</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E52" s="38" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="E47" s="38" t="s">
+    <row r="53" spans="1:6">
+      <c r="E53" s="38" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="E48" s="38" t="s">
+    <row r="54" spans="1:6">
+      <c r="E54" s="38" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
-      <c r="F49" s="38" t="s">
+    <row r="55" spans="1:6">
+      <c r="F55" s="38" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
-      <c r="F50" s="38" t="s">
+    <row r="56" spans="1:6">
+      <c r="F56" s="38" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
-      <c r="F51" s="38" t="s">
+    <row r="57" spans="1:6">
+      <c r="F57" s="38" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
-      <c r="E52" s="38" t="s">
+    <row r="58" spans="1:6">
+      <c r="E58" s="38" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="54" spans="4:6">
-      <c r="D54" s="38">
+    <row r="60" spans="1:6">
+      <c r="D60" s="38">
         <v>2</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E60" s="38" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="4:6">
-      <c r="E55" s="38" t="s">
+    <row r="61" spans="1:6">
+      <c r="E61" s="38" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="4:6">
-      <c r="E56" s="38" t="s">
+    <row r="62" spans="1:6">
+      <c r="E62" s="38" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="57" spans="4:6">
-      <c r="F57" s="38" t="s">
+    <row r="63" spans="1:6">
+      <c r="F63" s="38" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="58" spans="4:6">
-      <c r="F58" s="38" t="s">
+    <row r="64" spans="1:6">
+      <c r="F64" s="38" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="59" spans="4:6">
-      <c r="E59" s="38" t="s">
+    <row r="65" spans="4:6">
+      <c r="E65" s="38" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="60" spans="4:6">
-      <c r="D60" s="38" t="s">
+    <row r="66" spans="4:6">
+      <c r="D66" s="38" t="s">
         <v>456</v>
       </c>
-      <c r="E60" s="38" t="s">
+      <c r="E66" s="38" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="61" spans="4:6">
-      <c r="E61" s="38" t="s">
+    <row r="67" spans="4:6">
+      <c r="E67" s="38" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="62" spans="4:6">
-      <c r="F62" s="38" t="s">
+    <row r="68" spans="4:6">
+      <c r="F68" s="38" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="64" spans="4:6">
-      <c r="F64" s="38" t="s">
+    <row r="70" spans="4:6">
+      <c r="F70" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="65" spans="5:6">
-      <c r="F65" s="38" t="s">
+    <row r="71" spans="4:6">
+      <c r="F71" s="38" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="67" spans="5:6">
-      <c r="E67" s="38" t="s">
+    <row r="73" spans="4:6">
+      <c r="E73" s="38" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="68" spans="5:6">
-      <c r="E68" s="38" t="s">
+    <row r="74" spans="4:6">
+      <c r="E74" s="38" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="69" spans="5:6">
-      <c r="F69" s="38" t="s">
+    <row r="75" spans="4:6">
+      <c r="F75" s="38" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="70" spans="5:6">
-      <c r="F70" s="38" t="s">
+    <row r="76" spans="4:6">
+      <c r="F76" s="38" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="72" spans="5:6">
-      <c r="F72" s="38" t="s">
+    <row r="78" spans="4:6">
+      <c r="F78" s="38" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="73" spans="5:6">
-      <c r="F73" s="38" t="s">
+    <row r="79" spans="4:6">
+      <c r="F79" s="38" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="74" spans="5:6">
-      <c r="F74" s="38" t="s">
+    <row r="80" spans="4:6">
+      <c r="F80" s="38" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="76" spans="5:6">
-      <c r="F76" s="38" t="s">
+    <row r="82" spans="6:6">
+      <c r="F82" s="38" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="77" spans="5:6">
-      <c r="F77" s="38" t="s">
+    <row r="83" spans="6:6">
+      <c r="F83" s="38" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="41"/>
-      <c r="C92" s="38">
+    <row r="98" spans="1:6">
+      <c r="A98" s="41"/>
+      <c r="C98" s="38">
         <v>3</v>
       </c>
-      <c r="D92" s="38" t="s">
+      <c r="D98" s="38" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
-      <c r="D93" s="38">
+    <row r="99" spans="1:6">
+      <c r="D99" s="38">
         <v>1</v>
       </c>
-      <c r="E93" s="38" t="s">
+      <c r="E99" s="38" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="E94" s="38" t="s">
+    <row r="100" spans="1:6">
+      <c r="E100" s="38" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
-      <c r="E95" s="38" t="s">
+    <row r="101" spans="1:6">
+      <c r="E101" s="38" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
-      <c r="F96" s="38" t="s">
+    <row r="102" spans="1:6">
+      <c r="F102" s="38" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="97" spans="3:15">
-      <c r="F97" s="38" t="s">
+    <row r="103" spans="1:6">
+      <c r="F103" s="38" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="99" spans="3:15">
-      <c r="D99" s="38">
+    <row r="105" spans="1:6">
+      <c r="D105" s="38">
         <v>2</v>
       </c>
-      <c r="E99" s="38" t="s">
+      <c r="E105" s="38" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="3:15">
-      <c r="E100" s="38" t="s">
+    <row r="106" spans="1:6">
+      <c r="E106" s="38" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="101" spans="3:15">
-      <c r="E101" s="38" t="s">
+    <row r="107" spans="1:6">
+      <c r="E107" s="38" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="3:15">
-      <c r="F102" s="38" t="s">
+    <row r="108" spans="1:6">
+      <c r="F108" s="38" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="103" spans="3:15">
-      <c r="E103" s="38" t="s">
+    <row r="109" spans="1:6">
+      <c r="E109" s="38" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="106" spans="3:15">
-      <c r="C106" s="38" t="s">
+    <row r="112" spans="1:6">
+      <c r="C112" s="38" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="107" spans="3:15">
-      <c r="D107" s="38" t="s">
+    <row r="113" spans="3:15">
+      <c r="D113" s="38" t="s">
         <v>490</v>
       </c>
-      <c r="E107" s="38" t="s">
+      <c r="E113" s="38" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="110" spans="3:15">
-      <c r="C110" s="38" t="s">
+    <row r="116" spans="3:15">
+      <c r="C116" s="38" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="111" spans="3:15">
-      <c r="D111" s="38" t="s">
+    <row r="117" spans="3:15">
+      <c r="D117" s="38" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="112" spans="3:15">
-      <c r="E112" s="38" t="s">
+    <row r="118" spans="3:15">
+      <c r="E118" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="O112" s="38" t="s">
+      <c r="O118" s="38" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="113" spans="3:15">
-      <c r="E113" s="38" t="s">
+    <row r="119" spans="3:15">
+      <c r="E119" s="38" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="114" spans="3:15">
-      <c r="E114" s="38" t="s">
+    <row r="120" spans="3:15">
+      <c r="E120" s="38" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="116" spans="3:15">
-      <c r="E116" s="50" t="s">
+    <row r="122" spans="3:15">
+      <c r="E122" s="50" t="s">
         <v>538</v>
       </c>
-      <c r="F116" s="51"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="51"/>
-      <c r="I116" s="51"/>
-      <c r="J116" s="51"/>
-      <c r="K116" s="51"/>
-      <c r="L116" s="51"/>
-      <c r="M116" s="52"/>
-    </row>
-    <row r="117" spans="3:15">
-      <c r="E117" s="53"/>
-      <c r="F117" s="54" t="s">
-        <v>616</v>
-      </c>
-      <c r="G117" s="54"/>
-      <c r="H117" s="54"/>
-      <c r="I117" s="54"/>
-      <c r="J117" s="54"/>
-      <c r="K117" s="54"/>
-      <c r="L117" s="54"/>
-      <c r="M117" s="55"/>
-    </row>
-    <row r="118" spans="3:15">
-      <c r="E118" s="53"/>
-      <c r="F118" s="59" t="s">
-        <v>609</v>
-      </c>
-      <c r="G118" s="54"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="54"/>
-      <c r="K118" s="54"/>
-      <c r="L118" s="54"/>
-      <c r="M118" s="55"/>
-    </row>
-    <row r="119" spans="3:15">
-      <c r="E119" s="53"/>
-      <c r="F119" s="54" t="s">
-        <v>610</v>
-      </c>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
-      <c r="L119" s="54"/>
-      <c r="M119" s="55"/>
-    </row>
-    <row r="120" spans="3:15">
-      <c r="E120" s="53"/>
-      <c r="F120" s="54" t="s">
-        <v>611</v>
-      </c>
-      <c r="G120" s="54"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="54"/>
-      <c r="K120" s="54"/>
-      <c r="L120" s="54"/>
-      <c r="M120" s="55"/>
-    </row>
-    <row r="121" spans="3:15">
-      <c r="E121" s="53"/>
-      <c r="F121" s="54" t="s">
-        <v>612</v>
-      </c>
-      <c r="G121" s="54"/>
-      <c r="H121" s="54"/>
-      <c r="I121" s="54"/>
-      <c r="J121" s="54"/>
-      <c r="K121" s="54"/>
-      <c r="L121" s="54"/>
-      <c r="M121" s="55"/>
-    </row>
-    <row r="122" spans="3:15">
-      <c r="E122" s="53"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="54" t="s">
-        <v>613</v>
-      </c>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="54"/>
-      <c r="K122" s="54"/>
-      <c r="L122" s="54"/>
-      <c r="M122" s="55"/>
-      <c r="O122" s="38" t="s">
-        <v>617</v>
-      </c>
+      <c r="F122" s="51"/>
+      <c r="G122" s="51"/>
+      <c r="H122" s="51"/>
+      <c r="I122" s="51"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="51"/>
+      <c r="L122" s="51"/>
+      <c r="M122" s="52"/>
     </row>
     <row r="123" spans="3:15">
       <c r="E123" s="53"/>
       <c r="F123" s="54" t="s">
-        <v>537</v>
+        <v>616</v>
       </c>
       <c r="G123" s="54"/>
       <c r="H123" s="54"/>
@@ -8716,11 +8718,9 @@
       <c r="M123" s="55"/>
     </row>
     <row r="124" spans="3:15">
-      <c r="C124" s="54"/>
-      <c r="D124" s="54"/>
       <c r="E124" s="53"/>
-      <c r="F124" s="54" t="s">
-        <v>614</v>
+      <c r="F124" s="59" t="s">
+        <v>609</v>
       </c>
       <c r="G124" s="54"/>
       <c r="H124" s="54"/>
@@ -8729,14 +8729,11 @@
       <c r="K124" s="54"/>
       <c r="L124" s="54"/>
       <c r="M124" s="55"/>
-      <c r="N124" s="54"/>
     </row>
     <row r="125" spans="3:15">
-      <c r="C125" s="54"/>
-      <c r="D125" s="54"/>
       <c r="E125" s="53"/>
       <c r="F125" s="54" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G125" s="54"/>
       <c r="H125" s="54"/>
@@ -8745,15 +8742,12 @@
       <c r="K125" s="54"/>
       <c r="L125" s="54"/>
       <c r="M125" s="55"/>
-      <c r="N125" s="54"/>
     </row>
     <row r="126" spans="3:15">
-      <c r="C126" s="54"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="53" t="s">
-        <v>539</v>
-      </c>
-      <c r="F126" s="54"/>
+      <c r="E126" s="53"/>
+      <c r="F126" s="54" t="s">
+        <v>611</v>
+      </c>
       <c r="G126" s="54"/>
       <c r="H126" s="54"/>
       <c r="I126" s="54"/>
@@ -8761,81 +8755,86 @@
       <c r="K126" s="54"/>
       <c r="L126" s="54"/>
       <c r="M126" s="55"/>
-      <c r="N126" s="54"/>
     </row>
     <row r="127" spans="3:15">
-      <c r="C127" s="54"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="56"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="57"/>
-      <c r="I127" s="57"/>
-      <c r="J127" s="57"/>
-      <c r="K127" s="57"/>
-      <c r="L127" s="57"/>
-      <c r="M127" s="58"/>
-      <c r="N127" s="54"/>
+      <c r="E127" s="53"/>
+      <c r="F127" s="54" t="s">
+        <v>612</v>
+      </c>
+      <c r="G127" s="54"/>
+      <c r="H127" s="54"/>
+      <c r="I127" s="54"/>
+      <c r="J127" s="54"/>
+      <c r="K127" s="54"/>
+      <c r="L127" s="54"/>
+      <c r="M127" s="55"/>
     </row>
     <row r="128" spans="3:15">
-      <c r="C128" s="54"/>
-      <c r="D128" s="54"/>
-      <c r="N128" s="54"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="54" t="s">
+        <v>613</v>
+      </c>
+      <c r="H128" s="54"/>
+      <c r="I128" s="54"/>
+      <c r="J128" s="54"/>
+      <c r="K128" s="54"/>
+      <c r="L128" s="54"/>
+      <c r="M128" s="55"/>
+      <c r="O128" s="38" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="129" spans="1:16">
-      <c r="A129" s="41" t="s">
-        <v>457</v>
-      </c>
-      <c r="C129" s="54"/>
-      <c r="D129" s="54" t="s">
-        <v>623</v>
-      </c>
-      <c r="E129" s="54"/>
-      <c r="F129" s="54"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="54" t="s">
+        <v>537</v>
+      </c>
       <c r="G129" s="54"/>
       <c r="H129" s="54"/>
       <c r="I129" s="54"/>
       <c r="J129" s="54"/>
       <c r="K129" s="54"/>
       <c r="L129" s="54"/>
-      <c r="M129" s="54"/>
-      <c r="N129" s="54"/>
+      <c r="M129" s="55"/>
     </row>
     <row r="130" spans="1:16">
       <c r="C130" s="54"/>
       <c r="D130" s="54"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="54"/>
+      <c r="E130" s="53"/>
+      <c r="F130" s="54" t="s">
+        <v>614</v>
+      </c>
       <c r="G130" s="54"/>
       <c r="H130" s="54"/>
       <c r="I130" s="54"/>
       <c r="J130" s="54"/>
       <c r="K130" s="54"/>
       <c r="L130" s="54"/>
-      <c r="M130" s="54"/>
+      <c r="M130" s="55"/>
       <c r="N130" s="54"/>
     </row>
     <row r="131" spans="1:16">
       <c r="C131" s="54"/>
       <c r="D131" s="54"/>
-      <c r="E131" s="54" t="s">
-        <v>624</v>
-      </c>
-      <c r="F131" s="54"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="54" t="s">
+        <v>615</v>
+      </c>
       <c r="G131" s="54"/>
       <c r="H131" s="54"/>
       <c r="I131" s="54"/>
       <c r="J131" s="54"/>
       <c r="K131" s="54"/>
       <c r="L131" s="54"/>
-      <c r="M131" s="54"/>
+      <c r="M131" s="55"/>
       <c r="N131" s="54"/>
     </row>
     <row r="132" spans="1:16">
       <c r="C132" s="54"/>
       <c r="D132" s="54"/>
-      <c r="E132" s="54" t="s">
-        <v>626</v>
+      <c r="E132" s="53" t="s">
+        <v>539</v>
       </c>
       <c r="F132" s="54"/>
       <c r="G132" s="54"/>
@@ -8844,44 +8843,36 @@
       <c r="J132" s="54"/>
       <c r="K132" s="54"/>
       <c r="L132" s="54"/>
-      <c r="M132" s="54"/>
+      <c r="M132" s="55"/>
       <c r="N132" s="54"/>
     </row>
     <row r="133" spans="1:16">
       <c r="C133" s="54"/>
       <c r="D133" s="54"/>
-      <c r="E133" s="54" t="s">
-        <v>627</v>
-      </c>
-      <c r="F133" s="54"/>
-      <c r="G133" s="54"/>
-      <c r="H133" s="54"/>
-      <c r="I133" s="54"/>
-      <c r="J133" s="54"/>
-      <c r="K133" s="54"/>
-      <c r="L133" s="54"/>
-      <c r="M133" s="54"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="57"/>
+      <c r="K133" s="57"/>
+      <c r="L133" s="57"/>
+      <c r="M133" s="58"/>
       <c r="N133" s="54"/>
     </row>
     <row r="134" spans="1:16">
       <c r="C134" s="54"/>
       <c r="D134" s="54"/>
-      <c r="E134" s="54" t="s">
-        <v>628</v>
-      </c>
-      <c r="F134" s="54"/>
-      <c r="G134" s="54"/>
-      <c r="H134" s="54"/>
-      <c r="I134" s="54"/>
-      <c r="J134" s="54"/>
-      <c r="K134" s="54"/>
-      <c r="L134" s="54"/>
-      <c r="M134" s="54"/>
       <c r="N134" s="54"/>
     </row>
     <row r="135" spans="1:16">
+      <c r="A135" s="41" t="s">
+        <v>457</v>
+      </c>
       <c r="C135" s="54"/>
-      <c r="D135" s="54"/>
+      <c r="D135" s="54" t="s">
+        <v>623</v>
+      </c>
       <c r="E135" s="54"/>
       <c r="F135" s="54"/>
       <c r="G135" s="54"/>
@@ -8896,28 +8887,24 @@
     <row r="136" spans="1:16">
       <c r="C136" s="54"/>
       <c r="D136" s="54"/>
-      <c r="E136" s="50" t="s">
-        <v>538</v>
-      </c>
-      <c r="F136" s="51"/>
-      <c r="G136" s="51"/>
-      <c r="H136" s="51"/>
-      <c r="I136" s="51"/>
-      <c r="J136" s="51"/>
-      <c r="K136" s="51"/>
-      <c r="L136" s="51"/>
-      <c r="M136" s="51"/>
-      <c r="N136" s="51"/>
-      <c r="O136" s="51"/>
-      <c r="P136" s="52"/>
+      <c r="E136" s="54"/>
+      <c r="F136" s="54"/>
+      <c r="G136" s="54"/>
+      <c r="H136" s="54"/>
+      <c r="I136" s="54"/>
+      <c r="J136" s="54"/>
+      <c r="K136" s="54"/>
+      <c r="L136" s="54"/>
+      <c r="M136" s="54"/>
+      <c r="N136" s="54"/>
     </row>
     <row r="137" spans="1:16">
       <c r="C137" s="54"/>
       <c r="D137" s="54"/>
-      <c r="E137" s="53"/>
-      <c r="F137" s="54" t="s">
-        <v>629</v>
-      </c>
+      <c r="E137" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="F137" s="54"/>
       <c r="G137" s="54"/>
       <c r="H137" s="54"/>
       <c r="I137" s="54"/>
@@ -8926,17 +8913,15 @@
       <c r="L137" s="54"/>
       <c r="M137" s="54"/>
       <c r="N137" s="54"/>
-      <c r="O137" s="54"/>
-      <c r="P137" s="55"/>
     </row>
     <row r="138" spans="1:16">
       <c r="C138" s="54"/>
       <c r="D138" s="54"/>
-      <c r="E138" s="53"/>
+      <c r="E138" s="54" t="s">
+        <v>626</v>
+      </c>
       <c r="F138" s="54"/>
-      <c r="G138" s="54" t="s">
-        <v>630</v>
-      </c>
+      <c r="G138" s="54"/>
       <c r="H138" s="54"/>
       <c r="I138" s="54"/>
       <c r="J138" s="54"/>
@@ -8944,17 +8929,15 @@
       <c r="L138" s="54"/>
       <c r="M138" s="54"/>
       <c r="N138" s="54"/>
-      <c r="O138" s="54"/>
-      <c r="P138" s="55"/>
     </row>
     <row r="139" spans="1:16">
       <c r="C139" s="54"/>
       <c r="D139" s="54"/>
-      <c r="E139" s="53"/>
+      <c r="E139" s="54" t="s">
+        <v>627</v>
+      </c>
       <c r="F139" s="54"/>
-      <c r="G139" s="54" t="s">
-        <v>652</v>
-      </c>
+      <c r="G139" s="54"/>
       <c r="H139" s="54"/>
       <c r="I139" s="54"/>
       <c r="J139" s="54"/>
@@ -8962,17 +8945,15 @@
       <c r="L139" s="54"/>
       <c r="M139" s="54"/>
       <c r="N139" s="54"/>
-      <c r="O139" s="54"/>
-      <c r="P139" s="55"/>
     </row>
     <row r="140" spans="1:16">
       <c r="C140" s="54"/>
       <c r="D140" s="54"/>
-      <c r="E140" s="53"/>
+      <c r="E140" s="54" t="s">
+        <v>628</v>
+      </c>
       <c r="F140" s="54"/>
-      <c r="G140" s="54" t="s">
-        <v>631</v>
-      </c>
+      <c r="G140" s="54"/>
       <c r="H140" s="54"/>
       <c r="I140" s="54"/>
       <c r="J140" s="54"/>
@@ -8980,53 +8961,47 @@
       <c r="L140" s="54"/>
       <c r="M140" s="54"/>
       <c r="N140" s="54"/>
-      <c r="O140" s="54"/>
-      <c r="P140" s="55"/>
     </row>
     <row r="141" spans="1:16">
       <c r="C141" s="54"/>
       <c r="D141" s="54"/>
-      <c r="E141" s="53"/>
+      <c r="E141" s="54"/>
       <c r="F141" s="54"/>
       <c r="G141" s="54"/>
-      <c r="H141" s="54" t="s">
-        <v>632</v>
-      </c>
+      <c r="H141" s="54"/>
       <c r="I141" s="54"/>
       <c r="J141" s="54"/>
       <c r="K141" s="54"/>
       <c r="L141" s="54"/>
       <c r="M141" s="54"/>
       <c r="N141" s="54"/>
-      <c r="O141" s="54"/>
-      <c r="P141" s="55"/>
     </row>
     <row r="142" spans="1:16">
       <c r="C142" s="54"/>
       <c r="D142" s="54"/>
-      <c r="E142" s="53"/>
-      <c r="F142" s="54"/>
-      <c r="G142" s="54" t="s">
-        <v>537</v>
-      </c>
-      <c r="H142" s="54"/>
-      <c r="I142" s="54"/>
-      <c r="J142" s="54"/>
-      <c r="K142" s="54"/>
-      <c r="L142" s="54"/>
-      <c r="M142" s="54"/>
-      <c r="N142" s="54"/>
-      <c r="O142" s="54"/>
-      <c r="P142" s="55"/>
+      <c r="E142" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="F142" s="51"/>
+      <c r="G142" s="51"/>
+      <c r="H142" s="51"/>
+      <c r="I142" s="51"/>
+      <c r="J142" s="51"/>
+      <c r="K142" s="51"/>
+      <c r="L142" s="51"/>
+      <c r="M142" s="51"/>
+      <c r="N142" s="51"/>
+      <c r="O142" s="51"/>
+      <c r="P142" s="52"/>
     </row>
     <row r="143" spans="1:16">
       <c r="C143" s="54"/>
       <c r="D143" s="54"/>
       <c r="E143" s="53"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="54" t="s">
-        <v>633</v>
-      </c>
+      <c r="F143" s="54" t="s">
+        <v>629</v>
+      </c>
+      <c r="G143" s="54"/>
       <c r="H143" s="54"/>
       <c r="I143" s="54"/>
       <c r="J143" s="54"/>
@@ -9042,10 +9017,10 @@
       <c r="D144" s="54"/>
       <c r="E144" s="53"/>
       <c r="F144" s="54"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="54" t="s">
-        <v>634</v>
-      </c>
+      <c r="G144" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="H144" s="54"/>
       <c r="I144" s="54"/>
       <c r="J144" s="54"/>
       <c r="K144" s="54"/>
@@ -9061,7 +9036,7 @@
       <c r="E145" s="53"/>
       <c r="F145" s="54"/>
       <c r="G145" s="54" t="s">
-        <v>537</v>
+        <v>652</v>
       </c>
       <c r="H145" s="54"/>
       <c r="I145" s="54"/>
@@ -9079,7 +9054,7 @@
       <c r="E146" s="53"/>
       <c r="F146" s="54"/>
       <c r="G146" s="54" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="H146" s="54"/>
       <c r="I146" s="54"/>
@@ -9096,10 +9071,10 @@
       <c r="D147" s="54"/>
       <c r="E147" s="53"/>
       <c r="F147" s="54"/>
-      <c r="G147" s="54" t="s">
-        <v>636</v>
-      </c>
-      <c r="H147" s="54"/>
+      <c r="G147" s="54"/>
+      <c r="H147" s="54" t="s">
+        <v>632</v>
+      </c>
       <c r="I147" s="54"/>
       <c r="J147" s="54"/>
       <c r="K147" s="54"/>
@@ -9114,10 +9089,10 @@
       <c r="D148" s="54"/>
       <c r="E148" s="53"/>
       <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="54" t="s">
-        <v>637</v>
-      </c>
+      <c r="G148" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H148" s="54"/>
       <c r="I148" s="54"/>
       <c r="J148" s="54"/>
       <c r="K148" s="54"/>
@@ -9133,7 +9108,7 @@
       <c r="E149" s="53"/>
       <c r="F149" s="54"/>
       <c r="G149" s="54" t="s">
-        <v>537</v>
+        <v>633</v>
       </c>
       <c r="H149" s="54"/>
       <c r="I149" s="54"/>
@@ -9150,10 +9125,10 @@
       <c r="D150" s="54"/>
       <c r="E150" s="53"/>
       <c r="F150" s="54"/>
-      <c r="G150" s="54" t="s">
-        <v>638</v>
-      </c>
-      <c r="H150" s="54"/>
+      <c r="G150" s="54"/>
+      <c r="H150" s="54" t="s">
+        <v>634</v>
+      </c>
       <c r="I150" s="54"/>
       <c r="J150" s="54"/>
       <c r="K150" s="54"/>
@@ -9168,10 +9143,10 @@
       <c r="D151" s="54"/>
       <c r="E151" s="53"/>
       <c r="F151" s="54"/>
-      <c r="G151" s="54"/>
-      <c r="H151" s="54" t="s">
-        <v>639</v>
-      </c>
+      <c r="G151" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H151" s="54"/>
       <c r="I151" s="54"/>
       <c r="J151" s="54"/>
       <c r="K151" s="54"/>
@@ -9187,7 +9162,7 @@
       <c r="E152" s="53"/>
       <c r="F152" s="54"/>
       <c r="G152" s="54" t="s">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="H152" s="54"/>
       <c r="I152" s="54"/>
@@ -9204,7 +9179,9 @@
       <c r="D153" s="54"/>
       <c r="E153" s="53"/>
       <c r="F153" s="54"/>
-      <c r="G153" s="54"/>
+      <c r="G153" s="54" t="s">
+        <v>636</v>
+      </c>
       <c r="H153" s="54"/>
       <c r="I153" s="54"/>
       <c r="J153" s="54"/>
@@ -9220,10 +9197,10 @@
       <c r="D154" s="54"/>
       <c r="E154" s="53"/>
       <c r="F154" s="54"/>
-      <c r="G154" s="54" t="s">
-        <v>640</v>
-      </c>
-      <c r="H154" s="54"/>
+      <c r="G154" s="54"/>
+      <c r="H154" s="54" t="s">
+        <v>637</v>
+      </c>
       <c r="I154" s="54"/>
       <c r="J154" s="54"/>
       <c r="K154" s="54"/>
@@ -9239,7 +9216,7 @@
       <c r="E155" s="53"/>
       <c r="F155" s="54"/>
       <c r="G155" s="54" t="s">
-        <v>641</v>
+        <v>537</v>
       </c>
       <c r="H155" s="54"/>
       <c r="I155" s="54"/>
@@ -9256,10 +9233,10 @@
       <c r="D156" s="54"/>
       <c r="E156" s="53"/>
       <c r="F156" s="54"/>
-      <c r="G156" s="54"/>
-      <c r="H156" s="54" t="s">
-        <v>647</v>
-      </c>
+      <c r="G156" s="54" t="s">
+        <v>638</v>
+      </c>
+      <c r="H156" s="54"/>
       <c r="I156" s="54"/>
       <c r="J156" s="54"/>
       <c r="K156" s="54"/>
@@ -9276,7 +9253,7 @@
       <c r="F157" s="54"/>
       <c r="G157" s="54"/>
       <c r="H157" s="54" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="I157" s="54"/>
       <c r="J157" s="54"/>
@@ -9292,11 +9269,11 @@
       <c r="D158" s="54"/>
       <c r="E158" s="53"/>
       <c r="F158" s="54"/>
-      <c r="G158" s="54"/>
+      <c r="G158" s="54" t="s">
+        <v>537</v>
+      </c>
       <c r="H158" s="54"/>
-      <c r="I158" s="54" t="s">
-        <v>649</v>
-      </c>
+      <c r="I158" s="54"/>
       <c r="J158" s="54"/>
       <c r="K158" s="54"/>
       <c r="L158" s="54"/>
@@ -9312,9 +9289,7 @@
       <c r="F159" s="54"/>
       <c r="G159" s="54"/>
       <c r="H159" s="54"/>
-      <c r="I159" s="54" t="s">
-        <v>650</v>
-      </c>
+      <c r="I159" s="54"/>
       <c r="J159" s="54"/>
       <c r="K159" s="54"/>
       <c r="L159" s="54"/>
@@ -9328,10 +9303,10 @@
       <c r="D160" s="54"/>
       <c r="E160" s="53"/>
       <c r="F160" s="54"/>
-      <c r="G160" s="54"/>
-      <c r="H160" s="54" t="s">
-        <v>651</v>
-      </c>
+      <c r="G160" s="54" t="s">
+        <v>640</v>
+      </c>
+      <c r="H160" s="54"/>
       <c r="I160" s="54"/>
       <c r="J160" s="54"/>
       <c r="K160" s="54"/>
@@ -9346,11 +9321,11 @@
       <c r="D161" s="54"/>
       <c r="E161" s="53"/>
       <c r="F161" s="54"/>
-      <c r="G161" s="54"/>
+      <c r="G161" s="54" t="s">
+        <v>641</v>
+      </c>
       <c r="H161" s="54"/>
-      <c r="I161" s="54" t="s">
-        <v>646</v>
-      </c>
+      <c r="I161" s="54"/>
       <c r="J161" s="54"/>
       <c r="K161" s="54"/>
       <c r="L161" s="54"/>
@@ -9366,7 +9341,7 @@
       <c r="F162" s="54"/>
       <c r="G162" s="54"/>
       <c r="H162" s="54" t="s">
-        <v>537</v>
+        <v>647</v>
       </c>
       <c r="I162" s="54"/>
       <c r="J162" s="54"/>
@@ -9382,10 +9357,10 @@
       <c r="D163" s="54"/>
       <c r="E163" s="53"/>
       <c r="F163" s="54"/>
-      <c r="G163" s="54" t="s">
-        <v>537</v>
-      </c>
-      <c r="H163" s="54"/>
+      <c r="G163" s="54"/>
+      <c r="H163" s="54" t="s">
+        <v>648</v>
+      </c>
       <c r="I163" s="54"/>
       <c r="J163" s="54"/>
       <c r="K163" s="54"/>
@@ -9402,7 +9377,9 @@
       <c r="F164" s="54"/>
       <c r="G164" s="54"/>
       <c r="H164" s="54"/>
-      <c r="I164" s="54"/>
+      <c r="I164" s="54" t="s">
+        <v>649</v>
+      </c>
       <c r="J164" s="54"/>
       <c r="K164" s="54"/>
       <c r="L164" s="54"/>
@@ -9416,11 +9393,11 @@
       <c r="D165" s="54"/>
       <c r="E165" s="53"/>
       <c r="F165" s="54"/>
-      <c r="G165" s="54" t="s">
-        <v>660</v>
-      </c>
+      <c r="G165" s="54"/>
       <c r="H165" s="54"/>
-      <c r="I165" s="54"/>
+      <c r="I165" s="54" t="s">
+        <v>650</v>
+      </c>
       <c r="J165" s="54"/>
       <c r="K165" s="54"/>
       <c r="L165" s="54"/>
@@ -9434,11 +9411,13 @@
       <c r="D166" s="54"/>
       <c r="E166" s="53"/>
       <c r="F166" s="54"/>
-      <c r="G166" s="54" t="s">
-        <v>661</v>
-      </c>
-      <c r="H166" s="54"/>
+      <c r="G166" s="54"/>
+      <c r="H166" s="54" t="s">
+        <v>651</v>
+      </c>
       <c r="I166" s="54"/>
+      <c r="J166" s="54"/>
+      <c r="K166" s="54"/>
       <c r="L166" s="54"/>
       <c r="M166" s="54"/>
       <c r="N166" s="54"/>
@@ -9451,10 +9430,12 @@
       <c r="E167" s="53"/>
       <c r="F167" s="54"/>
       <c r="G167" s="54"/>
-      <c r="H167" s="54" t="s">
-        <v>662</v>
-      </c>
-      <c r="I167" s="54"/>
+      <c r="H167" s="54"/>
+      <c r="I167" s="54" t="s">
+        <v>646</v>
+      </c>
+      <c r="J167" s="54"/>
+      <c r="K167" s="54"/>
       <c r="L167" s="54"/>
       <c r="M167" s="54"/>
       <c r="N167" s="54"/>
@@ -9466,11 +9447,13 @@
       <c r="D168" s="54"/>
       <c r="E168" s="53"/>
       <c r="F168" s="54"/>
-      <c r="G168" s="54" t="s">
+      <c r="G168" s="54"/>
+      <c r="H168" s="54" t="s">
         <v>537</v>
       </c>
-      <c r="H168" s="54"/>
       <c r="I168" s="54"/>
+      <c r="J168" s="54"/>
+      <c r="K168" s="54"/>
       <c r="L168" s="54"/>
       <c r="M168" s="54"/>
       <c r="N168" s="54"/>
@@ -9482,7 +9465,9 @@
       <c r="D169" s="54"/>
       <c r="E169" s="53"/>
       <c r="F169" s="54"/>
-      <c r="G169" s="54"/>
+      <c r="G169" s="54" t="s">
+        <v>537</v>
+      </c>
       <c r="H169" s="54"/>
       <c r="I169" s="54"/>
       <c r="J169" s="54"/>
@@ -9497,9 +9482,7 @@
       <c r="C170" s="54"/>
       <c r="D170" s="54"/>
       <c r="E170" s="53"/>
-      <c r="F170" s="54" t="s">
-        <v>537</v>
-      </c>
+      <c r="F170" s="54"/>
       <c r="G170" s="54"/>
       <c r="H170" s="54"/>
       <c r="I170" s="54"/>
@@ -9516,7 +9499,9 @@
       <c r="D171" s="54"/>
       <c r="E171" s="53"/>
       <c r="F171" s="54"/>
-      <c r="G171" s="54"/>
+      <c r="G171" s="54" t="s">
+        <v>660</v>
+      </c>
       <c r="H171" s="54"/>
       <c r="I171" s="54"/>
       <c r="J171" s="54"/>
@@ -9531,13 +9516,12 @@
       <c r="C172" s="54"/>
       <c r="D172" s="54"/>
       <c r="E172" s="53"/>
-      <c r="F172" s="54" t="s">
-        <v>663</v>
-      </c>
-      <c r="G172" s="54"/>
+      <c r="F172" s="54"/>
+      <c r="G172" s="54" t="s">
+        <v>661</v>
+      </c>
+      <c r="H172" s="54"/>
       <c r="I172" s="54"/>
-      <c r="J172" s="54"/>
-      <c r="K172" s="54"/>
       <c r="L172" s="54"/>
       <c r="M172" s="54"/>
       <c r="N172" s="54"/>
@@ -9548,13 +9532,12 @@
       <c r="C173" s="54"/>
       <c r="D173" s="54"/>
       <c r="E173" s="53"/>
-      <c r="F173" s="54" t="s">
-        <v>664</v>
-      </c>
+      <c r="F173" s="54"/>
       <c r="G173" s="54"/>
+      <c r="H173" s="54" t="s">
+        <v>662</v>
+      </c>
       <c r="I173" s="54"/>
-      <c r="J173" s="54"/>
-      <c r="K173" s="54"/>
       <c r="L173" s="54"/>
       <c r="M173" s="54"/>
       <c r="N173" s="54"/>
@@ -9566,10 +9549,11 @@
       <c r="D174" s="54"/>
       <c r="E174" s="53"/>
       <c r="F174" s="54"/>
-      <c r="G174" s="54"/>
+      <c r="G174" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H174" s="54"/>
       <c r="I174" s="54"/>
-      <c r="J174" s="54"/>
-      <c r="K174" s="54"/>
       <c r="L174" s="54"/>
       <c r="M174" s="54"/>
       <c r="N174" s="54"/>
@@ -9580,10 +9564,9 @@
       <c r="C175" s="54"/>
       <c r="D175" s="54"/>
       <c r="E175" s="53"/>
-      <c r="F175" s="54" t="s">
-        <v>669</v>
-      </c>
+      <c r="F175" s="54"/>
       <c r="G175" s="54"/>
+      <c r="H175" s="54"/>
       <c r="I175" s="54"/>
       <c r="J175" s="54"/>
       <c r="K175" s="54"/>
@@ -9598,9 +9581,10 @@
       <c r="D176" s="54"/>
       <c r="E176" s="53"/>
       <c r="F176" s="54" t="s">
-        <v>665</v>
+        <v>537</v>
       </c>
       <c r="G176" s="54"/>
+      <c r="H176" s="54"/>
       <c r="I176" s="54"/>
       <c r="J176" s="54"/>
       <c r="K176" s="54"/>
@@ -9616,6 +9600,7 @@
       <c r="E177" s="53"/>
       <c r="F177" s="54"/>
       <c r="G177" s="54"/>
+      <c r="H177" s="54"/>
       <c r="I177" s="54"/>
       <c r="J177" s="54"/>
       <c r="K177" s="54"/>
@@ -9630,7 +9615,7 @@
       <c r="D178" s="54"/>
       <c r="E178" s="53"/>
       <c r="F178" s="54" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G178" s="54"/>
       <c r="I178" s="54"/>
@@ -9647,7 +9632,7 @@
       <c r="D179" s="54"/>
       <c r="E179" s="53"/>
       <c r="F179" s="54" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="G179" s="54"/>
       <c r="I179" s="54"/>
@@ -9663,9 +9648,7 @@
       <c r="C180" s="54"/>
       <c r="D180" s="54"/>
       <c r="E180" s="53"/>
-      <c r="F180" s="54" t="s">
-        <v>677</v>
-      </c>
+      <c r="F180" s="54"/>
       <c r="G180" s="54"/>
       <c r="I180" s="54"/>
       <c r="J180" s="54"/>
@@ -9681,7 +9664,7 @@
       <c r="D181" s="54"/>
       <c r="E181" s="53"/>
       <c r="F181" s="54" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G181" s="54"/>
       <c r="I181" s="54"/>
@@ -9697,10 +9680,10 @@
       <c r="C182" s="54"/>
       <c r="D182" s="54"/>
       <c r="E182" s="53"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="54" t="s">
-        <v>668</v>
-      </c>
+      <c r="F182" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="G182" s="54"/>
       <c r="I182" s="54"/>
       <c r="J182" s="54"/>
       <c r="K182" s="54"/>
@@ -9714,9 +9697,7 @@
       <c r="C183" s="54"/>
       <c r="D183" s="54"/>
       <c r="E183" s="53"/>
-      <c r="F183" s="54" t="s">
-        <v>537</v>
-      </c>
+      <c r="F183" s="54"/>
       <c r="G183" s="54"/>
       <c r="I183" s="54"/>
       <c r="J183" s="54"/>
@@ -9731,7 +9712,9 @@
       <c r="C184" s="54"/>
       <c r="D184" s="54"/>
       <c r="E184" s="53"/>
-      <c r="F184" s="54"/>
+      <c r="F184" s="54" t="s">
+        <v>666</v>
+      </c>
       <c r="G184" s="54"/>
       <c r="I184" s="54"/>
       <c r="J184" s="54"/>
@@ -9747,10 +9730,9 @@
       <c r="D185" s="54"/>
       <c r="E185" s="53"/>
       <c r="F185" s="54" t="s">
-        <v>655</v>
+        <v>676</v>
       </c>
       <c r="G185" s="54"/>
-      <c r="H185" s="54"/>
       <c r="I185" s="54"/>
       <c r="J185" s="54"/>
       <c r="K185" s="54"/>
@@ -9765,10 +9747,9 @@
       <c r="D186" s="54"/>
       <c r="E186" s="53"/>
       <c r="F186" s="54" t="s">
-        <v>642</v>
+        <v>677</v>
       </c>
       <c r="G186" s="54"/>
-      <c r="H186" s="54"/>
       <c r="I186" s="54"/>
       <c r="J186" s="54"/>
       <c r="K186" s="54"/>
@@ -9782,11 +9763,10 @@
       <c r="C187" s="54"/>
       <c r="D187" s="54"/>
       <c r="E187" s="53"/>
-      <c r="F187" s="59" t="s">
-        <v>671</v>
+      <c r="F187" s="54" t="s">
+        <v>667</v>
       </c>
       <c r="G187" s="54"/>
-      <c r="H187" s="54"/>
       <c r="I187" s="54"/>
       <c r="J187" s="54"/>
       <c r="K187" s="54"/>
@@ -9800,11 +9780,10 @@
       <c r="C188" s="54"/>
       <c r="D188" s="54"/>
       <c r="E188" s="53"/>
-      <c r="F188" s="63" t="s">
-        <v>670</v>
-      </c>
-      <c r="G188" s="54"/>
-      <c r="H188" s="54"/>
+      <c r="F188" s="54"/>
+      <c r="G188" s="54" t="s">
+        <v>668</v>
+      </c>
       <c r="I188" s="54"/>
       <c r="J188" s="54"/>
       <c r="K188" s="54"/>
@@ -9819,10 +9798,9 @@
       <c r="D189" s="54"/>
       <c r="E189" s="53"/>
       <c r="F189" s="54" t="s">
-        <v>643</v>
+        <v>537</v>
       </c>
       <c r="G189" s="54"/>
-      <c r="H189" s="54"/>
       <c r="I189" s="54"/>
       <c r="J189" s="54"/>
       <c r="K189" s="54"/>
@@ -9836,11 +9814,8 @@
       <c r="C190" s="54"/>
       <c r="D190" s="54"/>
       <c r="E190" s="53"/>
-      <c r="F190" s="54" t="s">
-        <v>653</v>
-      </c>
+      <c r="F190" s="54"/>
       <c r="G190" s="54"/>
-      <c r="H190" s="54"/>
       <c r="I190" s="54"/>
       <c r="J190" s="54"/>
       <c r="K190" s="54"/>
@@ -9854,7 +9829,9 @@
       <c r="C191" s="54"/>
       <c r="D191" s="54"/>
       <c r="E191" s="53"/>
-      <c r="F191" s="54"/>
+      <c r="F191" s="54" t="s">
+        <v>655</v>
+      </c>
       <c r="G191" s="54"/>
       <c r="H191" s="54"/>
       <c r="I191" s="54"/>
@@ -9871,7 +9848,7 @@
       <c r="D192" s="54"/>
       <c r="E192" s="53"/>
       <c r="F192" s="54" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="G192" s="54"/>
       <c r="H192" s="54"/>
@@ -9888,8 +9865,8 @@
       <c r="C193" s="54"/>
       <c r="D193" s="54"/>
       <c r="E193" s="53"/>
-      <c r="F193" s="54" t="s">
-        <v>644</v>
+      <c r="F193" s="59" t="s">
+        <v>671</v>
       </c>
       <c r="G193" s="54"/>
       <c r="H193" s="54"/>
@@ -9906,8 +9883,8 @@
       <c r="C194" s="54"/>
       <c r="D194" s="54"/>
       <c r="E194" s="53"/>
-      <c r="F194" s="54" t="s">
-        <v>658</v>
+      <c r="F194" s="63" t="s">
+        <v>670</v>
       </c>
       <c r="G194" s="54"/>
       <c r="H194" s="54"/>
@@ -9924,7 +9901,9 @@
       <c r="C195" s="54"/>
       <c r="D195" s="54"/>
       <c r="E195" s="53"/>
-      <c r="F195" s="54"/>
+      <c r="F195" s="54" t="s">
+        <v>643</v>
+      </c>
       <c r="G195" s="54"/>
       <c r="H195" s="54"/>
       <c r="I195" s="54"/>
@@ -9941,7 +9920,7 @@
       <c r="D196" s="54"/>
       <c r="E196" s="53"/>
       <c r="F196" s="54" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="G196" s="54"/>
       <c r="H196" s="54"/>
@@ -9975,7 +9954,7 @@
       <c r="D198" s="54"/>
       <c r="E198" s="53"/>
       <c r="F198" s="54" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G198" s="54"/>
       <c r="H198" s="54"/>
@@ -9993,7 +9972,7 @@
       <c r="D199" s="54"/>
       <c r="E199" s="53"/>
       <c r="F199" s="54" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G199" s="54"/>
       <c r="H199" s="54"/>
@@ -10010,8 +9989,8 @@
       <c r="C200" s="54"/>
       <c r="D200" s="54"/>
       <c r="E200" s="53"/>
-      <c r="F200" s="59" t="s">
-        <v>672</v>
+      <c r="F200" s="54" t="s">
+        <v>658</v>
       </c>
       <c r="G200" s="54"/>
       <c r="H200" s="54"/>
@@ -10028,9 +10007,7 @@
       <c r="C201" s="54"/>
       <c r="D201" s="54"/>
       <c r="E201" s="53"/>
-      <c r="F201" s="54" t="s">
-        <v>659</v>
-      </c>
+      <c r="F201" s="54"/>
       <c r="G201" s="54"/>
       <c r="H201" s="54"/>
       <c r="I201" s="54"/>
@@ -10046,7 +10023,9 @@
       <c r="C202" s="54"/>
       <c r="D202" s="54"/>
       <c r="E202" s="53"/>
-      <c r="F202" s="54"/>
+      <c r="F202" s="54" t="s">
+        <v>645</v>
+      </c>
       <c r="G202" s="54"/>
       <c r="H202" s="54"/>
       <c r="I202" s="54"/>
@@ -10079,9 +10058,10 @@
       <c r="D204" s="54"/>
       <c r="E204" s="53"/>
       <c r="F204" s="54" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="G204" s="54"/>
+      <c r="H204" s="54"/>
       <c r="I204" s="54"/>
       <c r="J204" s="54"/>
       <c r="K204" s="54"/>
@@ -10096,9 +10076,10 @@
       <c r="D205" s="54"/>
       <c r="E205" s="53"/>
       <c r="F205" s="54" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="G205" s="54"/>
+      <c r="H205" s="54"/>
       <c r="I205" s="54"/>
       <c r="J205" s="54"/>
       <c r="K205" s="54"/>
@@ -10112,10 +10093,11 @@
       <c r="C206" s="54"/>
       <c r="D206" s="54"/>
       <c r="E206" s="53"/>
-      <c r="F206" s="54" t="s">
-        <v>675</v>
+      <c r="F206" s="59" t="s">
+        <v>672</v>
       </c>
       <c r="G206" s="54"/>
+      <c r="H206" s="54"/>
       <c r="I206" s="54"/>
       <c r="J206" s="54"/>
       <c r="K206" s="54"/>
@@ -10129,7 +10111,9 @@
       <c r="C207" s="54"/>
       <c r="D207" s="54"/>
       <c r="E207" s="53"/>
-      <c r="F207" s="54"/>
+      <c r="F207" s="54" t="s">
+        <v>659</v>
+      </c>
       <c r="G207" s="54"/>
       <c r="H207" s="54"/>
       <c r="I207" s="54"/>
@@ -10160,151 +10144,177 @@
     <row r="209" spans="3:16">
       <c r="C209" s="54"/>
       <c r="D209" s="54"/>
-      <c r="E209" s="56" t="s">
-        <v>539</v>
-      </c>
-      <c r="F209" s="57"/>
-      <c r="G209" s="57"/>
-      <c r="H209" s="57"/>
-      <c r="I209" s="57"/>
-      <c r="J209" s="57"/>
-      <c r="K209" s="57"/>
-      <c r="L209" s="57"/>
-      <c r="M209" s="57"/>
-      <c r="N209" s="57"/>
-      <c r="O209" s="57"/>
-      <c r="P209" s="58"/>
+      <c r="E209" s="53"/>
+      <c r="F209" s="54"/>
+      <c r="G209" s="54"/>
+      <c r="H209" s="54"/>
+      <c r="I209" s="54"/>
+      <c r="J209" s="54"/>
+      <c r="K209" s="54"/>
+      <c r="L209" s="54"/>
+      <c r="M209" s="54"/>
+      <c r="N209" s="54"/>
+      <c r="O209" s="54"/>
+      <c r="P209" s="55"/>
     </row>
     <row r="210" spans="3:16">
       <c r="C210" s="54"/>
       <c r="D210" s="54"/>
-      <c r="E210" s="54"/>
-      <c r="F210" s="54"/>
+      <c r="E210" s="53"/>
+      <c r="F210" s="54" t="s">
+        <v>673</v>
+      </c>
       <c r="G210" s="54"/>
-      <c r="H210" s="54"/>
       <c r="I210" s="54"/>
       <c r="J210" s="54"/>
       <c r="K210" s="54"/>
       <c r="L210" s="54"/>
       <c r="M210" s="54"/>
       <c r="N210" s="54"/>
+      <c r="O210" s="54"/>
+      <c r="P210" s="55"/>
     </row>
     <row r="211" spans="3:16">
       <c r="C211" s="54"/>
       <c r="D211" s="54"/>
-      <c r="E211" s="54"/>
-      <c r="F211" s="54"/>
+      <c r="E211" s="53"/>
+      <c r="F211" s="54" t="s">
+        <v>674</v>
+      </c>
       <c r="G211" s="54"/>
-      <c r="H211" s="54"/>
       <c r="I211" s="54"/>
       <c r="J211" s="54"/>
       <c r="K211" s="54"/>
       <c r="L211" s="54"/>
       <c r="M211" s="54"/>
       <c r="N211" s="54"/>
+      <c r="O211" s="54"/>
+      <c r="P211" s="55"/>
     </row>
     <row r="212" spans="3:16">
-      <c r="E212" s="38" t="s">
-        <v>567</v>
-      </c>
+      <c r="C212" s="54"/>
+      <c r="D212" s="54"/>
+      <c r="E212" s="53"/>
+      <c r="F212" s="54" t="s">
+        <v>675</v>
+      </c>
+      <c r="G212" s="54"/>
+      <c r="I212" s="54"/>
+      <c r="J212" s="54"/>
+      <c r="K212" s="54"/>
+      <c r="L212" s="54"/>
+      <c r="M212" s="54"/>
+      <c r="N212" s="54"/>
+      <c r="O212" s="54"/>
+      <c r="P212" s="55"/>
+    </row>
+    <row r="213" spans="3:16">
+      <c r="C213" s="54"/>
+      <c r="D213" s="54"/>
+      <c r="E213" s="53"/>
+      <c r="F213" s="54"/>
+      <c r="G213" s="54"/>
+      <c r="H213" s="54"/>
+      <c r="I213" s="54"/>
+      <c r="J213" s="54"/>
+      <c r="K213" s="54"/>
+      <c r="L213" s="54"/>
+      <c r="M213" s="54"/>
+      <c r="N213" s="54"/>
+      <c r="O213" s="54"/>
+      <c r="P213" s="55"/>
     </row>
     <row r="214" spans="3:16">
-      <c r="E214" s="50" t="s">
-        <v>538</v>
-      </c>
-      <c r="F214" s="51"/>
-      <c r="G214" s="51"/>
-      <c r="H214" s="51"/>
-      <c r="I214" s="51"/>
-      <c r="J214" s="51"/>
-      <c r="K214" s="51"/>
-      <c r="L214" s="51"/>
-      <c r="M214" s="52"/>
+      <c r="C214" s="54"/>
+      <c r="D214" s="54"/>
+      <c r="E214" s="53"/>
+      <c r="F214" s="54"/>
+      <c r="G214" s="54"/>
+      <c r="H214" s="54"/>
+      <c r="I214" s="54"/>
+      <c r="J214" s="54"/>
+      <c r="K214" s="54"/>
+      <c r="L214" s="54"/>
+      <c r="M214" s="54"/>
+      <c r="N214" s="54"/>
+      <c r="O214" s="54"/>
+      <c r="P214" s="55"/>
     </row>
     <row r="215" spans="3:16">
-      <c r="E215" s="53"/>
-      <c r="F215" s="54" t="s">
-        <v>540</v>
-      </c>
-      <c r="G215" s="54"/>
-      <c r="H215" s="54"/>
-      <c r="I215" s="54"/>
-      <c r="J215" s="54"/>
-      <c r="K215" s="54"/>
-      <c r="L215" s="54"/>
-      <c r="M215" s="55"/>
+      <c r="C215" s="54"/>
+      <c r="D215" s="54"/>
+      <c r="E215" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="F215" s="57"/>
+      <c r="G215" s="57"/>
+      <c r="H215" s="57"/>
+      <c r="I215" s="57"/>
+      <c r="J215" s="57"/>
+      <c r="K215" s="57"/>
+      <c r="L215" s="57"/>
+      <c r="M215" s="57"/>
+      <c r="N215" s="57"/>
+      <c r="O215" s="57"/>
+      <c r="P215" s="58"/>
     </row>
     <row r="216" spans="3:16">
-      <c r="E216" s="53"/>
+      <c r="C216" s="54"/>
+      <c r="D216" s="54"/>
+      <c r="E216" s="54"/>
       <c r="F216" s="54"/>
-      <c r="G216" s="54" t="s">
-        <v>541</v>
-      </c>
+      <c r="G216" s="54"/>
       <c r="H216" s="54"/>
       <c r="I216" s="54"/>
       <c r="J216" s="54"/>
       <c r="K216" s="54"/>
       <c r="L216" s="54"/>
-      <c r="M216" s="55"/>
+      <c r="M216" s="54"/>
+      <c r="N216" s="54"/>
     </row>
     <row r="217" spans="3:16">
-      <c r="E217" s="53"/>
+      <c r="C217" s="54"/>
+      <c r="D217" s="54"/>
+      <c r="E217" s="54"/>
       <c r="F217" s="54"/>
       <c r="G217" s="54"/>
-      <c r="H217" s="54" t="s">
-        <v>542</v>
-      </c>
+      <c r="H217" s="54"/>
       <c r="I217" s="54"/>
       <c r="J217" s="54"/>
       <c r="K217" s="54"/>
       <c r="L217" s="54"/>
-      <c r="M217" s="55"/>
+      <c r="M217" s="54"/>
+      <c r="N217" s="54"/>
     </row>
     <row r="218" spans="3:16">
-      <c r="E218" s="53"/>
-      <c r="F218" s="54"/>
-      <c r="G218" s="54" t="s">
-        <v>565</v>
-      </c>
-      <c r="H218" s="54"/>
-      <c r="I218" s="54"/>
-      <c r="J218" s="54"/>
-      <c r="K218" s="54"/>
-      <c r="L218" s="54"/>
-      <c r="M218" s="55"/>
+      <c r="E218" s="38" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="219" spans="3:16">
-      <c r="E219" s="53"/>
-      <c r="F219" s="54"/>
-      <c r="G219" s="54" t="s">
-        <v>543</v>
-      </c>
-      <c r="H219" s="54"/>
-      <c r="I219" s="54"/>
-      <c r="J219" s="54"/>
-      <c r="K219" s="54"/>
-      <c r="L219" s="54"/>
-      <c r="M219" s="55"/>
+      <c r="E219" s="38" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="220" spans="3:16">
-      <c r="E220" s="53"/>
-      <c r="F220" s="54"/>
-      <c r="G220" s="54"/>
-      <c r="H220" s="54" t="s">
-        <v>544</v>
-      </c>
-      <c r="I220" s="54"/>
-      <c r="J220" s="54"/>
-      <c r="K220" s="54"/>
-      <c r="L220" s="54"/>
-      <c r="M220" s="55"/>
+      <c r="E220" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="F220" s="51"/>
+      <c r="G220" s="51"/>
+      <c r="H220" s="51"/>
+      <c r="I220" s="51"/>
+      <c r="J220" s="51"/>
+      <c r="K220" s="51"/>
+      <c r="L220" s="51"/>
+      <c r="M220" s="52"/>
     </row>
     <row r="221" spans="3:16">
       <c r="E221" s="53"/>
-      <c r="F221" s="54"/>
-      <c r="G221" s="54" t="s">
-        <v>537</v>
-      </c>
+      <c r="F221" s="54" t="s">
+        <v>540</v>
+      </c>
+      <c r="G221" s="54"/>
       <c r="H221" s="54"/>
       <c r="I221" s="54"/>
       <c r="J221" s="54"/>
@@ -10314,10 +10324,10 @@
     </row>
     <row r="222" spans="3:16">
       <c r="E222" s="53"/>
-      <c r="F222" s="54" t="s">
-        <v>545</v>
-      </c>
-      <c r="G222" s="54"/>
+      <c r="F222" s="54"/>
+      <c r="G222" s="54" t="s">
+        <v>541</v>
+      </c>
       <c r="H222" s="54"/>
       <c r="I222" s="54"/>
       <c r="J222" s="54"/>
@@ -10327,11 +10337,11 @@
     </row>
     <row r="223" spans="3:16">
       <c r="E223" s="53"/>
-      <c r="F223" s="54" t="s">
-        <v>546</v>
-      </c>
+      <c r="F223" s="54"/>
       <c r="G223" s="54"/>
-      <c r="H223" s="54"/>
+      <c r="H223" s="54" t="s">
+        <v>542</v>
+      </c>
       <c r="I223" s="54"/>
       <c r="J223" s="54"/>
       <c r="K223" s="54"/>
@@ -10340,10 +10350,10 @@
     </row>
     <row r="224" spans="3:16">
       <c r="E224" s="53"/>
-      <c r="F224" s="54" t="s">
-        <v>547</v>
-      </c>
-      <c r="G224" s="54"/>
+      <c r="F224" s="54"/>
+      <c r="G224" s="54" t="s">
+        <v>565</v>
+      </c>
       <c r="H224" s="54"/>
       <c r="I224" s="54"/>
       <c r="J224" s="54"/>
@@ -10351,102 +10361,138 @@
       <c r="L224" s="54"/>
       <c r="M224" s="55"/>
     </row>
-    <row r="225" spans="1:13">
-      <c r="E225" s="56" t="s">
+    <row r="225" spans="5:13">
+      <c r="E225" s="53"/>
+      <c r="F225" s="54"/>
+      <c r="G225" s="54" t="s">
+        <v>543</v>
+      </c>
+      <c r="H225" s="54"/>
+      <c r="I225" s="54"/>
+      <c r="J225" s="54"/>
+      <c r="K225" s="54"/>
+      <c r="L225" s="54"/>
+      <c r="M225" s="55"/>
+    </row>
+    <row r="226" spans="5:13">
+      <c r="E226" s="53"/>
+      <c r="F226" s="54"/>
+      <c r="G226" s="54"/>
+      <c r="H226" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="I226" s="54"/>
+      <c r="J226" s="54"/>
+      <c r="K226" s="54"/>
+      <c r="L226" s="54"/>
+      <c r="M226" s="55"/>
+    </row>
+    <row r="227" spans="5:13">
+      <c r="E227" s="53"/>
+      <c r="F227" s="54"/>
+      <c r="G227" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H227" s="54"/>
+      <c r="I227" s="54"/>
+      <c r="J227" s="54"/>
+      <c r="K227" s="54"/>
+      <c r="L227" s="54"/>
+      <c r="M227" s="55"/>
+    </row>
+    <row r="228" spans="5:13">
+      <c r="E228" s="53"/>
+      <c r="F228" s="54" t="s">
+        <v>545</v>
+      </c>
+      <c r="G228" s="54"/>
+      <c r="H228" s="54"/>
+      <c r="I228" s="54"/>
+      <c r="J228" s="54"/>
+      <c r="K228" s="54"/>
+      <c r="L228" s="54"/>
+      <c r="M228" s="55"/>
+    </row>
+    <row r="229" spans="5:13">
+      <c r="E229" s="53"/>
+      <c r="F229" s="54" t="s">
+        <v>546</v>
+      </c>
+      <c r="G229" s="54"/>
+      <c r="H229" s="54"/>
+      <c r="I229" s="54"/>
+      <c r="J229" s="54"/>
+      <c r="K229" s="54"/>
+      <c r="L229" s="54"/>
+      <c r="M229" s="55"/>
+    </row>
+    <row r="230" spans="5:13">
+      <c r="E230" s="53"/>
+      <c r="F230" s="54" t="s">
+        <v>547</v>
+      </c>
+      <c r="G230" s="54"/>
+      <c r="H230" s="54"/>
+      <c r="I230" s="54"/>
+      <c r="J230" s="54"/>
+      <c r="K230" s="54"/>
+      <c r="L230" s="54"/>
+      <c r="M230" s="55"/>
+    </row>
+    <row r="231" spans="5:13">
+      <c r="E231" s="56" t="s">
         <v>539</v>
       </c>
-      <c r="F225" s="57"/>
-      <c r="G225" s="57"/>
-      <c r="H225" s="57"/>
-      <c r="I225" s="57"/>
-      <c r="J225" s="57"/>
-      <c r="K225" s="57"/>
-      <c r="L225" s="57"/>
-      <c r="M225" s="58"/>
-    </row>
-    <row r="227" spans="1:13">
-      <c r="A227" s="41" t="s">
-        <v>457</v>
-      </c>
-      <c r="E227" s="38" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13">
-      <c r="E228" s="38" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13">
-      <c r="E230" s="50" t="s">
-        <v>538</v>
-      </c>
-      <c r="F230" s="51"/>
-      <c r="G230" s="51"/>
-      <c r="H230" s="51"/>
-      <c r="I230" s="51"/>
-      <c r="J230" s="51"/>
-      <c r="K230" s="51"/>
-      <c r="L230" s="51"/>
-      <c r="M230" s="52"/>
-    </row>
-    <row r="231" spans="1:13">
-      <c r="E231" s="53"/>
-      <c r="F231" s="54" t="s">
-        <v>548</v>
-      </c>
-      <c r="G231" s="54"/>
-      <c r="H231" s="54"/>
-      <c r="I231" s="54"/>
-      <c r="J231" s="54"/>
-      <c r="K231" s="54"/>
-      <c r="L231" s="54"/>
-      <c r="M231" s="55"/>
-    </row>
-    <row r="232" spans="1:13">
-      <c r="E232" s="53"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="57"/>
+      <c r="H231" s="57"/>
+      <c r="I231" s="57"/>
+      <c r="J231" s="57"/>
+      <c r="K231" s="57"/>
+      <c r="L231" s="57"/>
+      <c r="M231" s="58"/>
+    </row>
+    <row r="232" spans="5:13">
+      <c r="E232" s="54"/>
       <c r="F232" s="54"/>
-      <c r="G232" s="54" t="s">
-        <v>549</v>
-      </c>
+      <c r="G232" s="54"/>
       <c r="H232" s="54"/>
       <c r="I232" s="54"/>
       <c r="J232" s="54"/>
       <c r="K232" s="54"/>
       <c r="L232" s="54"/>
-      <c r="M232" s="55"/>
-    </row>
-    <row r="233" spans="1:13">
-      <c r="E233" s="53"/>
+      <c r="M232" s="54"/>
+    </row>
+    <row r="233" spans="5:13">
+      <c r="E233" s="54" t="s">
+        <v>695</v>
+      </c>
       <c r="F233" s="54"/>
       <c r="G233" s="54"/>
-      <c r="H233" s="54" t="s">
-        <v>542</v>
-      </c>
+      <c r="H233" s="54"/>
       <c r="I233" s="54"/>
       <c r="J233" s="54"/>
       <c r="K233" s="54"/>
       <c r="L233" s="54"/>
-      <c r="M233" s="55"/>
-    </row>
-    <row r="234" spans="1:13">
-      <c r="E234" s="53"/>
-      <c r="F234" s="54"/>
-      <c r="G234" s="54" t="s">
-        <v>566</v>
-      </c>
-      <c r="H234" s="59"/>
-      <c r="I234" s="54"/>
-      <c r="J234" s="54"/>
-      <c r="K234" s="54"/>
-      <c r="L234" s="54"/>
-      <c r="M234" s="55"/>
-    </row>
-    <row r="235" spans="1:13">
+      <c r="M233" s="54"/>
+    </row>
+    <row r="234" spans="5:13">
+      <c r="E234" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="F234" s="51"/>
+      <c r="G234" s="51"/>
+      <c r="H234" s="51"/>
+      <c r="I234" s="51"/>
+      <c r="J234" s="51"/>
+      <c r="K234" s="51"/>
+      <c r="L234" s="51"/>
+      <c r="M234" s="52"/>
+    </row>
+    <row r="235" spans="5:13">
       <c r="E235" s="53"/>
-      <c r="F235" s="54"/>
-      <c r="G235" s="54" t="s">
-        <v>550</v>
+      <c r="F235" s="54" t="s">
+        <v>683</v>
       </c>
       <c r="H235" s="54"/>
       <c r="I235" s="54"/>
@@ -10455,24 +10501,20 @@
       <c r="L235" s="54"/>
       <c r="M235" s="55"/>
     </row>
-    <row r="236" spans="1:13">
+    <row r="236" spans="5:13">
       <c r="E236" s="53"/>
-      <c r="F236" s="54"/>
       <c r="G236" s="54"/>
-      <c r="H236" s="54" t="s">
-        <v>544</v>
-      </c>
+      <c r="H236" s="54"/>
       <c r="I236" s="54"/>
       <c r="J236" s="54"/>
       <c r="K236" s="54"/>
       <c r="L236" s="54"/>
       <c r="M236" s="55"/>
     </row>
-    <row r="237" spans="1:13">
+    <row r="237" spans="5:13">
       <c r="E237" s="53"/>
-      <c r="F237" s="54"/>
       <c r="G237" s="54" t="s">
-        <v>537</v>
+        <v>685</v>
       </c>
       <c r="H237" s="54"/>
       <c r="I237" s="54"/>
@@ -10481,210 +10523,190 @@
       <c r="L237" s="54"/>
       <c r="M237" s="55"/>
     </row>
-    <row r="238" spans="1:13">
+    <row r="238" spans="5:13">
       <c r="E238" s="53"/>
-      <c r="F238" s="54" t="s">
-        <v>537</v>
-      </c>
       <c r="G238" s="54"/>
-      <c r="H238" s="54"/>
+      <c r="H238" s="54" t="s">
+        <v>686</v>
+      </c>
       <c r="I238" s="54"/>
       <c r="J238" s="54"/>
       <c r="K238" s="54"/>
       <c r="L238" s="54"/>
       <c r="M238" s="55"/>
     </row>
-    <row r="239" spans="1:13">
+    <row r="239" spans="5:13">
       <c r="E239" s="53"/>
-      <c r="F239" s="54" t="s">
-        <v>551</v>
-      </c>
       <c r="G239" s="54"/>
       <c r="H239" s="54"/>
-      <c r="I239" s="54"/>
+      <c r="I239" s="54" t="s">
+        <v>687</v>
+      </c>
       <c r="J239" s="54"/>
       <c r="K239" s="54"/>
       <c r="L239" s="54"/>
       <c r="M239" s="55"/>
     </row>
-    <row r="240" spans="1:13">
+    <row r="240" spans="5:13">
       <c r="E240" s="53"/>
-      <c r="F240" s="54" t="s">
-        <v>552</v>
-      </c>
       <c r="G240" s="54"/>
       <c r="H240" s="54"/>
-      <c r="I240" s="54"/>
+      <c r="I240" s="54" t="s">
+        <v>689</v>
+      </c>
       <c r="J240" s="54"/>
       <c r="K240" s="54"/>
       <c r="L240" s="54"/>
       <c r="M240" s="55"/>
     </row>
-    <row r="241" spans="4:14">
-      <c r="E241" s="56" t="s">
-        <v>539</v>
-      </c>
-      <c r="F241" s="57"/>
-      <c r="G241" s="57"/>
-      <c r="H241" s="57"/>
-      <c r="I241" s="57"/>
-      <c r="J241" s="57"/>
-      <c r="K241" s="57"/>
-      <c r="L241" s="57"/>
-      <c r="M241" s="58"/>
-    </row>
-    <row r="244" spans="4:14">
-      <c r="D244" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="E244" s="38" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="246" spans="4:14">
-      <c r="E246" s="50" t="s">
-        <v>538</v>
-      </c>
-      <c r="F246" s="51"/>
-      <c r="G246" s="51"/>
-      <c r="H246" s="51"/>
-      <c r="I246" s="51"/>
-      <c r="J246" s="51"/>
-      <c r="K246" s="51"/>
-      <c r="L246" s="51"/>
-      <c r="M246" s="51"/>
-      <c r="N246" s="52"/>
-    </row>
-    <row r="247" spans="4:14">
+    <row r="241" spans="1:13">
+      <c r="E241" s="53"/>
+      <c r="G241" s="54"/>
+      <c r="H241" s="54" t="s">
+        <v>690</v>
+      </c>
+      <c r="I241" s="54"/>
+      <c r="J241" s="54"/>
+      <c r="K241" s="54"/>
+      <c r="L241" s="54"/>
+      <c r="M241" s="55"/>
+    </row>
+    <row r="242" spans="1:13">
+      <c r="E242" s="53"/>
+      <c r="G242" s="54"/>
+      <c r="H242" s="54"/>
+      <c r="I242" s="54" t="s">
+        <v>691</v>
+      </c>
+      <c r="J242" s="54"/>
+      <c r="K242" s="54"/>
+      <c r="L242" s="54"/>
+      <c r="M242" s="55"/>
+    </row>
+    <row r="243" spans="1:13">
+      <c r="E243" s="53"/>
+      <c r="G243" s="54"/>
+      <c r="H243" s="54"/>
+      <c r="I243" s="54" t="s">
+        <v>688</v>
+      </c>
+      <c r="J243" s="54"/>
+      <c r="K243" s="54"/>
+      <c r="L243" s="54"/>
+      <c r="M243" s="55"/>
+    </row>
+    <row r="244" spans="1:13">
+      <c r="E244" s="53"/>
+      <c r="G244" s="54"/>
+      <c r="H244" s="54" t="s">
+        <v>692</v>
+      </c>
+      <c r="I244" s="54"/>
+      <c r="J244" s="54"/>
+      <c r="K244" s="54"/>
+      <c r="L244" s="54"/>
+      <c r="M244" s="55"/>
+    </row>
+    <row r="245" spans="1:13">
+      <c r="E245" s="53"/>
+      <c r="G245" s="54"/>
+      <c r="H245" s="54"/>
+      <c r="I245" s="54"/>
+      <c r="J245" s="54"/>
+      <c r="K245" s="54"/>
+      <c r="L245" s="54"/>
+      <c r="M245" s="55"/>
+    </row>
+    <row r="246" spans="1:13">
+      <c r="E246" s="53"/>
+      <c r="G246" s="54" t="s">
+        <v>684</v>
+      </c>
+      <c r="H246" s="54"/>
+      <c r="I246" s="54"/>
+      <c r="J246" s="54"/>
+      <c r="K246" s="54"/>
+      <c r="L246" s="54"/>
+      <c r="M246" s="55"/>
+    </row>
+    <row r="247" spans="1:13">
       <c r="E247" s="53"/>
       <c r="F247" s="54" t="s">
-        <v>555</v>
-      </c>
-      <c r="G247" s="54"/>
+        <v>693</v>
+      </c>
       <c r="H247" s="54"/>
       <c r="I247" s="54"/>
       <c r="J247" s="54"/>
       <c r="K247" s="54"/>
       <c r="L247" s="54"/>
-      <c r="M247" s="54"/>
-      <c r="N247" s="55"/>
-    </row>
-    <row r="248" spans="4:14">
+      <c r="M247" s="55"/>
+    </row>
+    <row r="248" spans="1:13">
       <c r="E248" s="53"/>
-      <c r="F248" s="54"/>
-      <c r="G248" s="54" t="s">
-        <v>556</v>
+      <c r="F248" s="54" t="s">
+        <v>547</v>
       </c>
       <c r="H248" s="54"/>
       <c r="I248" s="54"/>
       <c r="J248" s="54"/>
       <c r="K248" s="54"/>
       <c r="L248" s="54"/>
-      <c r="M248" s="54"/>
-      <c r="N248" s="55"/>
-    </row>
-    <row r="249" spans="4:14">
-      <c r="E249" s="53"/>
-      <c r="F249" s="54"/>
-      <c r="G249" s="54"/>
-      <c r="H249" s="54" t="s">
-        <v>557</v>
-      </c>
-      <c r="I249" s="54"/>
-      <c r="J249" s="54"/>
-      <c r="K249" s="54"/>
-      <c r="L249" s="54"/>
-      <c r="M249" s="54"/>
-      <c r="N249" s="55"/>
-    </row>
-    <row r="250" spans="4:14">
-      <c r="E250" s="53"/>
+      <c r="M248" s="55"/>
+    </row>
+    <row r="249" spans="1:13">
+      <c r="E249" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="F249" s="57"/>
+      <c r="G249" s="57"/>
+      <c r="H249" s="57"/>
+      <c r="I249" s="57"/>
+      <c r="J249" s="57"/>
+      <c r="K249" s="57"/>
+      <c r="L249" s="57"/>
+      <c r="M249" s="58"/>
+    </row>
+    <row r="250" spans="1:13">
+      <c r="E250" s="54"/>
       <c r="F250" s="54"/>
       <c r="G250" s="54"/>
       <c r="H250" s="54"/>
-      <c r="I250" s="54" t="s">
-        <v>542</v>
-      </c>
+      <c r="I250" s="54"/>
       <c r="J250" s="54"/>
       <c r="K250" s="54"/>
       <c r="L250" s="54"/>
       <c r="M250" s="54"/>
-      <c r="N250" s="55"/>
-    </row>
-    <row r="251" spans="4:14">
-      <c r="E251" s="53"/>
-      <c r="F251" s="54"/>
-      <c r="G251" s="54"/>
-      <c r="H251" s="54" t="s">
-        <v>558</v>
-      </c>
-      <c r="I251" s="54"/>
-      <c r="J251" s="54"/>
-      <c r="K251" s="54"/>
-      <c r="L251" s="54"/>
-      <c r="M251" s="54"/>
-      <c r="N251" s="55"/>
-    </row>
-    <row r="252" spans="4:14">
-      <c r="E252" s="53"/>
-      <c r="F252" s="54"/>
-      <c r="G252" s="54"/>
-      <c r="H252" s="54" t="s">
-        <v>550</v>
-      </c>
-      <c r="I252" s="54"/>
-      <c r="J252" s="54"/>
-      <c r="K252" s="54"/>
-      <c r="L252" s="54"/>
-      <c r="M252" s="54"/>
-      <c r="N252" s="55"/>
-    </row>
-    <row r="253" spans="4:14">
-      <c r="E253" s="53"/>
-      <c r="F253" s="54"/>
-      <c r="G253" s="54"/>
-      <c r="H253" s="54"/>
-      <c r="I253" s="54" t="s">
-        <v>544</v>
-      </c>
-      <c r="J253" s="54"/>
-      <c r="K253" s="54"/>
-      <c r="L253" s="54"/>
-      <c r="M253" s="54"/>
-      <c r="N253" s="55"/>
-    </row>
-    <row r="254" spans="4:14">
-      <c r="E254" s="53"/>
-      <c r="F254" s="54"/>
-      <c r="G254" s="54"/>
-      <c r="H254" s="54" t="s">
-        <v>537</v>
-      </c>
-      <c r="I254" s="54"/>
-      <c r="J254" s="54"/>
-      <c r="K254" s="54"/>
-      <c r="L254" s="54"/>
-      <c r="M254" s="54"/>
-      <c r="N254" s="55"/>
-    </row>
-    <row r="255" spans="4:14">
-      <c r="E255" s="53"/>
-      <c r="F255" s="54"/>
-      <c r="G255" s="54" t="s">
-        <v>537</v>
-      </c>
-      <c r="H255" s="54"/>
-      <c r="I255" s="54"/>
-      <c r="J255" s="54"/>
-      <c r="K255" s="54"/>
-      <c r="L255" s="54"/>
-      <c r="M255" s="54"/>
-      <c r="N255" s="55"/>
-    </row>
-    <row r="256" spans="4:14">
+    </row>
+    <row r="252" spans="1:13">
+      <c r="A252" s="41" t="s">
+        <v>457</v>
+      </c>
+      <c r="E252" s="38" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13">
+      <c r="E253" s="38" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13">
+      <c r="E255" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="F255" s="51"/>
+      <c r="G255" s="51"/>
+      <c r="H255" s="51"/>
+      <c r="I255" s="51"/>
+      <c r="J255" s="51"/>
+      <c r="K255" s="51"/>
+      <c r="L255" s="51"/>
+      <c r="M255" s="52"/>
+    </row>
+    <row r="256" spans="1:13">
       <c r="E256" s="53"/>
       <c r="F256" s="54" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G256" s="54"/>
       <c r="H256" s="54"/>
@@ -10692,73 +10714,364 @@
       <c r="J256" s="54"/>
       <c r="K256" s="54"/>
       <c r="L256" s="54"/>
-      <c r="M256" s="54"/>
-      <c r="N256" s="55"/>
-    </row>
-    <row r="257" spans="5:14">
+      <c r="M256" s="55"/>
+    </row>
+    <row r="257" spans="4:14">
       <c r="E257" s="53"/>
-      <c r="F257" s="54" t="s">
-        <v>560</v>
-      </c>
-      <c r="G257" s="54"/>
+      <c r="F257" s="54"/>
+      <c r="G257" s="54" t="s">
+        <v>549</v>
+      </c>
       <c r="H257" s="54"/>
       <c r="I257" s="54"/>
       <c r="J257" s="54"/>
       <c r="K257" s="54"/>
       <c r="L257" s="54"/>
-      <c r="M257" s="54"/>
-      <c r="N257" s="55"/>
-    </row>
-    <row r="258" spans="5:14">
+      <c r="M257" s="55"/>
+    </row>
+    <row r="258" spans="4:14">
       <c r="E258" s="53"/>
-      <c r="F258" s="54" t="s">
-        <v>559</v>
-      </c>
+      <c r="F258" s="54"/>
       <c r="G258" s="54"/>
-      <c r="H258" s="54"/>
+      <c r="H258" s="54" t="s">
+        <v>542</v>
+      </c>
       <c r="I258" s="54"/>
       <c r="J258" s="54"/>
       <c r="K258" s="54"/>
       <c r="L258" s="54"/>
-      <c r="M258" s="54"/>
-      <c r="N258" s="55"/>
-    </row>
-    <row r="259" spans="5:14">
+      <c r="M258" s="55"/>
+    </row>
+    <row r="259" spans="4:14">
       <c r="E259" s="53"/>
-      <c r="F259" s="54" t="s">
-        <v>561</v>
-      </c>
-      <c r="G259" s="54"/>
-      <c r="H259" s="54"/>
+      <c r="F259" s="54"/>
+      <c r="G259" s="54" t="s">
+        <v>566</v>
+      </c>
+      <c r="H259" s="59"/>
       <c r="I259" s="54"/>
       <c r="J259" s="54"/>
       <c r="K259" s="54"/>
       <c r="L259" s="54"/>
-      <c r="M259" s="54"/>
-      <c r="N259" s="55"/>
-    </row>
-    <row r="260" spans="5:14">
-      <c r="E260" s="56" t="s">
+      <c r="M259" s="55"/>
+    </row>
+    <row r="260" spans="4:14">
+      <c r="E260" s="53"/>
+      <c r="F260" s="54"/>
+      <c r="G260" s="54" t="s">
+        <v>550</v>
+      </c>
+      <c r="H260" s="54"/>
+      <c r="I260" s="54"/>
+      <c r="J260" s="54"/>
+      <c r="K260" s="54"/>
+      <c r="L260" s="54"/>
+      <c r="M260" s="55"/>
+    </row>
+    <row r="261" spans="4:14">
+      <c r="E261" s="53"/>
+      <c r="F261" s="54"/>
+      <c r="G261" s="54"/>
+      <c r="H261" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="I261" s="54"/>
+      <c r="J261" s="54"/>
+      <c r="K261" s="54"/>
+      <c r="L261" s="54"/>
+      <c r="M261" s="55"/>
+    </row>
+    <row r="262" spans="4:14">
+      <c r="E262" s="53"/>
+      <c r="F262" s="54"/>
+      <c r="G262" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H262" s="54"/>
+      <c r="I262" s="54"/>
+      <c r="J262" s="54"/>
+      <c r="K262" s="54"/>
+      <c r="L262" s="54"/>
+      <c r="M262" s="55"/>
+    </row>
+    <row r="263" spans="4:14">
+      <c r="E263" s="53"/>
+      <c r="F263" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="G263" s="54"/>
+      <c r="H263" s="54"/>
+      <c r="I263" s="54"/>
+      <c r="J263" s="54"/>
+      <c r="K263" s="54"/>
+      <c r="L263" s="54"/>
+      <c r="M263" s="55"/>
+    </row>
+    <row r="264" spans="4:14">
+      <c r="E264" s="53"/>
+      <c r="F264" s="54" t="s">
+        <v>551</v>
+      </c>
+      <c r="G264" s="54"/>
+      <c r="H264" s="54"/>
+      <c r="I264" s="54"/>
+      <c r="J264" s="54"/>
+      <c r="K264" s="54"/>
+      <c r="L264" s="54"/>
+      <c r="M264" s="55"/>
+    </row>
+    <row r="265" spans="4:14">
+      <c r="E265" s="53"/>
+      <c r="F265" s="54" t="s">
+        <v>552</v>
+      </c>
+      <c r="G265" s="54"/>
+      <c r="H265" s="54"/>
+      <c r="I265" s="54"/>
+      <c r="J265" s="54"/>
+      <c r="K265" s="54"/>
+      <c r="L265" s="54"/>
+      <c r="M265" s="55"/>
+    </row>
+    <row r="266" spans="4:14">
+      <c r="E266" s="56" t="s">
         <v>539</v>
       </c>
-      <c r="F260" s="57"/>
-      <c r="G260" s="57"/>
-      <c r="H260" s="57"/>
-      <c r="I260" s="57"/>
-      <c r="J260" s="57"/>
-      <c r="K260" s="57"/>
-      <c r="L260" s="57"/>
-      <c r="M260" s="57"/>
-      <c r="N260" s="58"/>
+      <c r="F266" s="57"/>
+      <c r="G266" s="57"/>
+      <c r="H266" s="57"/>
+      <c r="I266" s="57"/>
+      <c r="J266" s="57"/>
+      <c r="K266" s="57"/>
+      <c r="L266" s="57"/>
+      <c r="M266" s="58"/>
+    </row>
+    <row r="269" spans="4:14">
+      <c r="D269" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="E269" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="271" spans="4:14">
+      <c r="E271" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="F271" s="51"/>
+      <c r="G271" s="51"/>
+      <c r="H271" s="51"/>
+      <c r="I271" s="51"/>
+      <c r="J271" s="51"/>
+      <c r="K271" s="51"/>
+      <c r="L271" s="51"/>
+      <c r="M271" s="51"/>
+      <c r="N271" s="52"/>
+    </row>
+    <row r="272" spans="4:14">
+      <c r="E272" s="53"/>
+      <c r="F272" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="G272" s="54"/>
+      <c r="H272" s="54"/>
+      <c r="I272" s="54"/>
+      <c r="J272" s="54"/>
+      <c r="K272" s="54"/>
+      <c r="L272" s="54"/>
+      <c r="M272" s="54"/>
+      <c r="N272" s="55"/>
+    </row>
+    <row r="273" spans="5:14">
+      <c r="E273" s="53"/>
+      <c r="F273" s="54"/>
+      <c r="G273" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="H273" s="54"/>
+      <c r="I273" s="54"/>
+      <c r="J273" s="54"/>
+      <c r="K273" s="54"/>
+      <c r="L273" s="54"/>
+      <c r="M273" s="54"/>
+      <c r="N273" s="55"/>
+    </row>
+    <row r="274" spans="5:14">
+      <c r="E274" s="53"/>
+      <c r="F274" s="54"/>
+      <c r="G274" s="54"/>
+      <c r="H274" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="I274" s="54"/>
+      <c r="J274" s="54"/>
+      <c r="K274" s="54"/>
+      <c r="L274" s="54"/>
+      <c r="M274" s="54"/>
+      <c r="N274" s="55"/>
+    </row>
+    <row r="275" spans="5:14">
+      <c r="E275" s="53"/>
+      <c r="F275" s="54"/>
+      <c r="G275" s="54"/>
+      <c r="H275" s="54"/>
+      <c r="I275" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="J275" s="54"/>
+      <c r="K275" s="54"/>
+      <c r="L275" s="54"/>
+      <c r="M275" s="54"/>
+      <c r="N275" s="55"/>
+    </row>
+    <row r="276" spans="5:14">
+      <c r="E276" s="53"/>
+      <c r="F276" s="54"/>
+      <c r="G276" s="54"/>
+      <c r="H276" s="54" t="s">
+        <v>558</v>
+      </c>
+      <c r="I276" s="54"/>
+      <c r="J276" s="54"/>
+      <c r="K276" s="54"/>
+      <c r="L276" s="54"/>
+      <c r="M276" s="54"/>
+      <c r="N276" s="55"/>
+    </row>
+    <row r="277" spans="5:14">
+      <c r="E277" s="53"/>
+      <c r="F277" s="54"/>
+      <c r="G277" s="54"/>
+      <c r="H277" s="54" t="s">
+        <v>550</v>
+      </c>
+      <c r="I277" s="54"/>
+      <c r="J277" s="54"/>
+      <c r="K277" s="54"/>
+      <c r="L277" s="54"/>
+      <c r="M277" s="54"/>
+      <c r="N277" s="55"/>
+    </row>
+    <row r="278" spans="5:14">
+      <c r="E278" s="53"/>
+      <c r="F278" s="54"/>
+      <c r="G278" s="54"/>
+      <c r="H278" s="54"/>
+      <c r="I278" s="54" t="s">
+        <v>544</v>
+      </c>
+      <c r="J278" s="54"/>
+      <c r="K278" s="54"/>
+      <c r="L278" s="54"/>
+      <c r="M278" s="54"/>
+      <c r="N278" s="55"/>
+    </row>
+    <row r="279" spans="5:14">
+      <c r="E279" s="53"/>
+      <c r="F279" s="54"/>
+      <c r="G279" s="54"/>
+      <c r="H279" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="I279" s="54"/>
+      <c r="J279" s="54"/>
+      <c r="K279" s="54"/>
+      <c r="L279" s="54"/>
+      <c r="M279" s="54"/>
+      <c r="N279" s="55"/>
+    </row>
+    <row r="280" spans="5:14">
+      <c r="E280" s="53"/>
+      <c r="F280" s="54"/>
+      <c r="G280" s="54" t="s">
+        <v>537</v>
+      </c>
+      <c r="H280" s="54"/>
+      <c r="I280" s="54"/>
+      <c r="J280" s="54"/>
+      <c r="K280" s="54"/>
+      <c r="L280" s="54"/>
+      <c r="M280" s="54"/>
+      <c r="N280" s="55"/>
+    </row>
+    <row r="281" spans="5:14">
+      <c r="E281" s="53"/>
+      <c r="F281" s="54" t="s">
+        <v>545</v>
+      </c>
+      <c r="G281" s="54"/>
+      <c r="H281" s="54"/>
+      <c r="I281" s="54"/>
+      <c r="J281" s="54"/>
+      <c r="K281" s="54"/>
+      <c r="L281" s="54"/>
+      <c r="M281" s="54"/>
+      <c r="N281" s="55"/>
+    </row>
+    <row r="282" spans="5:14">
+      <c r="E282" s="53"/>
+      <c r="F282" s="54" t="s">
+        <v>560</v>
+      </c>
+      <c r="G282" s="54"/>
+      <c r="H282" s="54"/>
+      <c r="I282" s="54"/>
+      <c r="J282" s="54"/>
+      <c r="K282" s="54"/>
+      <c r="L282" s="54"/>
+      <c r="M282" s="54"/>
+      <c r="N282" s="55"/>
+    </row>
+    <row r="283" spans="5:14">
+      <c r="E283" s="53"/>
+      <c r="F283" s="54" t="s">
+        <v>559</v>
+      </c>
+      <c r="G283" s="54"/>
+      <c r="H283" s="54"/>
+      <c r="I283" s="54"/>
+      <c r="J283" s="54"/>
+      <c r="K283" s="54"/>
+      <c r="L283" s="54"/>
+      <c r="M283" s="54"/>
+      <c r="N283" s="55"/>
+    </row>
+    <row r="284" spans="5:14">
+      <c r="E284" s="53"/>
+      <c r="F284" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="G284" s="54"/>
+      <c r="H284" s="54"/>
+      <c r="I284" s="54"/>
+      <c r="J284" s="54"/>
+      <c r="K284" s="54"/>
+      <c r="L284" s="54"/>
+      <c r="M284" s="54"/>
+      <c r="N284" s="55"/>
+    </row>
+    <row r="285" spans="5:14">
+      <c r="E285" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="F285" s="57"/>
+      <c r="G285" s="57"/>
+      <c r="H285" s="57"/>
+      <c r="I285" s="57"/>
+      <c r="J285" s="57"/>
+      <c r="K285" s="57"/>
+      <c r="L285" s="57"/>
+      <c r="M285" s="57"/>
+      <c r="N285" s="58"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回目录"/>
-    <hyperlink ref="A44" location="JavaScript!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="C9" location="内容.JavaScript对象构建方式" tooltip="JavaScript对象构建方式" display="构建方式"/>
-    <hyperlink ref="A227" location="JavaScript!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A129" location="JavaScript!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A50" location="JavaScript!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="C15" location="内容.JavaScript对象构建方式" tooltip="JavaScript对象构建方式" display="构建方式"/>
+    <hyperlink ref="A252" location="JavaScript!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A135" location="JavaScript!A1" tooltip="返回" display="top"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="707">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3240,6 +3240,46 @@
   <si>
     <t>写法2</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>manifest配置</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行内元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>div 是块级元素，另起一行,span是行内元素，不会另起一行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然也可以通过改变样式来调整,比如style中的display为block，则另起一行，inline为不换行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div style="display:inline"&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;span style="display:block"&gt;</t>
+  </si>
+  <si>
+    <t>table 也ol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUI git</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/dcloudio/mui/</t>
+  </si>
+  <si>
+    <t>http://mobile.51cto.com/web-463667.htm</t>
   </si>
 </sst>
 </file>
@@ -5002,9 +5042,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -5043,6 +5085,39 @@
     <row r="11" spans="1:4">
       <c r="D11" s="38" t="s">
         <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="38" t="s">
+        <v>697</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="38" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="D17" s="38" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="E19" s="38" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="E20" s="38" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="38" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
@@ -5062,11 +5137,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" activeCellId="1" sqref="D6 E13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -5095,6 +5168,24 @@
     <row r="6" spans="1:4">
       <c r="D6" s="38" t="s">
         <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="38" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" s="38" t="s">
+        <v>704</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" s="38" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -8254,7 +8345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P285"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
+    <workbookView xWindow="3100" yWindow="360" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="722">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -641,10 +641,6 @@
   </si>
   <si>
     <t>文件夹右键直接新建位于该文件夹的终端</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>调试常见问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3280,6 +3276,69 @@
   </si>
   <si>
     <t>http://mobile.51cto.com/web-463667.htm</t>
+  </si>
+  <si>
+    <t>调试常见问题</t>
+  </si>
+  <si>
+    <t>调试常见问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常用配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARC(内存自动管理) 与 非ARC(内存手动管理)的混合使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target-&gt;Build Phases-&gt;Compile Sources</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在对应的m文件双击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-fobjc-arc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非ARC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-fno-objc-arc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果新建的工程本来就是ARC的,那么在没有引入非ARC的文件时，是不需要设置的,否则得在相应的文件中加入-fno-objc-arc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理,如果建的工程是非ARC的,那么在引入ARC文件是，则需要在相应的文件中加入-fobjc-arc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于如何确认工程是哪个类型的，可以在Target-&gt;Build Setting中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在搜索栏里搜索"arc"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objective-C Automatic Reference Counting一项中，可以看到你的Target,Project的对应的配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3606,7 +3665,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3741,6 +3800,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="94">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -4004,13 +4064,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -4782,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -4795,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -4813,7 +4873,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="C13" s="10" t="s">
-        <v>157</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -4836,7 +4896,7 @@
     </row>
     <row r="17" spans="3:4" s="8" customFormat="1">
       <c r="C17" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="3:4" s="8" customFormat="1">
@@ -4848,19 +4908,19 @@
     <row r="19" spans="3:4" s="8" customFormat="1">
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="3:4" s="8" customFormat="1">
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="3:4" s="8" customFormat="1">
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="3:4" s="8" customFormat="1">
@@ -4868,60 +4928,60 @@
     </row>
     <row r="23" spans="3:4" s="8" customFormat="1">
       <c r="C23" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="3:4" s="8" customFormat="1">
       <c r="C24" s="13"/>
       <c r="D24" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="3:4" s="8" customFormat="1">
       <c r="C25" s="13"/>
       <c r="D25" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="3:4" s="8" customFormat="1">
       <c r="C26" s="13"/>
       <c r="D26" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="3:4" s="8" customFormat="1">
       <c r="C27" s="13"/>
       <c r="D27" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="3:4" s="8" customFormat="1">
       <c r="C28" s="13"/>
       <c r="D28" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29" spans="3:4" s="8" customFormat="1">
       <c r="C29" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="3:4" s="8" customFormat="1">
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="3:4" s="8" customFormat="1">
       <c r="C31" s="6"/>
       <c r="D31" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="3:4" s="8" customFormat="1">
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -4934,7 +4994,7 @@
     </row>
     <row r="35" spans="2:4">
       <c r="D35" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -4942,22 +5002,22 @@
         <v>4</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="D39" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -4965,22 +5025,22 @@
         <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="2:4">
@@ -5008,12 +5068,12 @@
     </row>
     <row r="54" spans="2:4">
       <c r="D54" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="D55" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5056,17 +5116,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5074,50 +5134,50 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" s="38" t="s">
+        <v>696</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>697</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="D17" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="E19" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="E20" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="38" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -5149,43 +5209,43 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="38" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>534</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="D6" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="38" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" s="38" t="s">
+        <v>703</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>704</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="38" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +5282,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5231,38 +5291,38 @@
     </row>
     <row r="3" spans="1:4" outlineLevel="1">
       <c r="B3" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:4" outlineLevel="1">
       <c r="B4" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:4" outlineLevel="1">
       <c r="B5" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:4" outlineLevel="1">
       <c r="B6" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:4" outlineLevel="1">
       <c r="B7" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:4" outlineLevel="1">
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:4" outlineLevel="1">
@@ -5270,38 +5330,38 @@
     </row>
     <row r="10" spans="1:4" outlineLevel="1">
       <c r="B10" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:4" outlineLevel="1">
       <c r="B11" s="1"/>
       <c r="C11" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4" outlineLevel="1">
       <c r="B12" s="12"/>
       <c r="D12" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:4" outlineLevel="1">
       <c r="B13" s="12"/>
       <c r="D13" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:4" outlineLevel="1">
       <c r="B14" s="12"/>
       <c r="D14" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="1">
       <c r="B15" s="12"/>
       <c r="D15" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="16" spans="1:4" outlineLevel="1">
@@ -5310,68 +5370,68 @@
     <row r="17" spans="2:4" outlineLevel="1">
       <c r="B17" s="1"/>
       <c r="C17" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="2:4" outlineLevel="1">
       <c r="B18" s="1"/>
       <c r="C18" s="11"/>
       <c r="D18" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="19" spans="2:4" outlineLevel="1">
       <c r="B19" s="12"/>
       <c r="D19" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" spans="2:4" outlineLevel="1">
       <c r="B20" s="12"/>
       <c r="D20" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="21" spans="2:4" outlineLevel="1">
       <c r="B21" s="12"/>
       <c r="D21" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="1">
       <c r="B22" s="1"/>
       <c r="C22" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="1">
       <c r="B23" s="12"/>
       <c r="D23" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="2:4" outlineLevel="1">
       <c r="B24" s="12"/>
       <c r="D24" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="2:4" outlineLevel="1">
       <c r="B25" s="12"/>
       <c r="D25" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="26" spans="2:4" outlineLevel="1">
       <c r="B26" s="12"/>
       <c r="D26" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="2:4" outlineLevel="1">
       <c r="B27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="2:4" outlineLevel="1">
@@ -5380,31 +5440,31 @@
     <row r="29" spans="2:4" outlineLevel="1">
       <c r="B29" s="1"/>
       <c r="C29" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="2:4" outlineLevel="1">
       <c r="B30" s="12"/>
       <c r="D30" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="31" spans="2:4" outlineLevel="1">
       <c r="B31" s="12"/>
       <c r="D31" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="32" spans="2:4" outlineLevel="1">
       <c r="B32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="33" spans="2:4" outlineLevel="1">
       <c r="B33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="2:4" outlineLevel="1">
@@ -5414,13 +5474,13 @@
     <row r="35" spans="2:4" outlineLevel="1">
       <c r="B35" s="12"/>
       <c r="C35" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="36" spans="2:4" outlineLevel="1">
       <c r="B36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="2:4" outlineLevel="1">
@@ -5428,66 +5488,66 @@
     </row>
     <row r="38" spans="2:4" outlineLevel="1">
       <c r="B38" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C38" s="8"/>
     </row>
     <row r="39" spans="2:4" outlineLevel="1">
       <c r="B39" s="13"/>
       <c r="C39" s="11" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="2:4" outlineLevel="1">
       <c r="B40" s="13"/>
       <c r="C40" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="2:4" outlineLevel="1">
       <c r="B41" s="13"/>
       <c r="C41" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" spans="2:4" outlineLevel="1">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="2:4" outlineLevel="1">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="2:4" outlineLevel="1">
       <c r="B44" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C44" s="8"/>
     </row>
     <row r="45" spans="2:4" outlineLevel="1">
       <c r="B45" s="7"/>
       <c r="C45" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="2:4" outlineLevel="1">
       <c r="C46" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="47" spans="2:4" outlineLevel="1">
       <c r="C47" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="2:4" outlineLevel="1"/>
     <row r="49" spans="2:13" outlineLevel="1">
       <c r="B49" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="2:13" outlineLevel="1">
@@ -5518,13 +5578,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B84" s="6">
         <v>1</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5540,7 +5600,7 @@
         <v>118</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5576,7 +5636,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="D92" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E92" s="16" t="s">
         <v>126</v>
@@ -5584,32 +5644,32 @@
     </row>
     <row r="93" spans="1:5">
       <c r="E93" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="E95" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="E96" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="E97" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="E99" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="E100" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5627,7 +5687,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>135</v>
@@ -5649,138 +5709,138 @@
         <v>119</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="E109" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="D111" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="E112" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="4:5">
       <c r="E113" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="4:5">
       <c r="E114" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="4:5">
       <c r="E115" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="4:5">
       <c r="E116" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="4:5">
       <c r="E117" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="4:5">
       <c r="D119" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E119" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="120" spans="4:5">
       <c r="E120" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="121" spans="4:5">
       <c r="E121" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="4:5">
       <c r="E122" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="4:5">
       <c r="E123" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="4:5">
       <c r="D125" s="62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="126" spans="4:5">
       <c r="D126" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E126" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="127" spans="4:5">
       <c r="E127" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="128" spans="4:5">
       <c r="E128" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="E129" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="E130" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D133" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="D134" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E134" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="D135" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E135" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5788,19 +5848,19 @@
         <v>1</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="E137" s="9"/>
       <c r="F137" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="E138" s="9"/>
       <c r="F138" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5811,19 +5871,19 @@
         <v>2</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="E141" s="9"/>
       <c r="F141" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="E142" s="9"/>
       <c r="F142" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5834,19 +5894,19 @@
         <v>3</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="4:6">
       <c r="E145" s="9"/>
       <c r="F145" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="4:6">
       <c r="E146" s="9"/>
       <c r="F146" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="147" spans="4:6">
@@ -5857,18 +5917,18 @@
         <v>4</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="4:6">
       <c r="E149" s="9"/>
       <c r="F149" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="150" spans="4:6">
       <c r="F150" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="152" spans="4:6">
@@ -5876,49 +5936,49 @@
         <v>5</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="153" spans="4:6">
       <c r="E153" s="9"/>
       <c r="F153" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="154" spans="4:6">
       <c r="E154" s="9"/>
       <c r="F154" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="156" spans="4:6">
       <c r="D156" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="157" spans="4:6">
       <c r="E157" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="158" spans="4:6">
       <c r="E158" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159" spans="4:6">
       <c r="E159" s="47"/>
       <c r="F159" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="160" spans="4:6">
       <c r="E160" s="47"/>
       <c r="F160" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="161" spans="5:6">
@@ -5926,7 +5986,7 @@
     </row>
     <row r="162" spans="5:6">
       <c r="E162" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="163" spans="5:6">
@@ -5934,123 +5994,123 @@
         <v>1</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="164" spans="5:6">
       <c r="E164" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="165" spans="5:6">
       <c r="E165" s="48"/>
       <c r="F165" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166" spans="5:6">
       <c r="E166" s="48"/>
       <c r="F166" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="167" spans="5:6">
       <c r="E167" s="48"/>
       <c r="F167" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="168" spans="5:6">
       <c r="E168" s="48"/>
       <c r="F168" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="5:6">
       <c r="E169" s="48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="5:6">
       <c r="E170" s="48"/>
       <c r="F170" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="171" spans="5:6">
       <c r="E171" s="48"/>
       <c r="F171" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="172" spans="5:6">
       <c r="E172" s="48"/>
       <c r="F172" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="5:6">
       <c r="E173" s="48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="174" spans="5:6">
       <c r="E174" s="48"/>
       <c r="F174" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="175" spans="5:6">
       <c r="E175" s="48"/>
       <c r="F175" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="5:6">
       <c r="E176" s="48"/>
       <c r="F176" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="5:6">
       <c r="E177" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="5:6">
       <c r="E178" s="49"/>
       <c r="F178" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="5:6">
       <c r="E179" s="49"/>
       <c r="F179" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="5:6">
       <c r="E180" s="49"/>
       <c r="F180" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="5:6">
       <c r="E181" s="49"/>
       <c r="F181" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="5:6">
@@ -6061,67 +6121,67 @@
         <v>2</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="184" spans="5:6">
       <c r="E184" s="48" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="5:6">
       <c r="E185" s="48"/>
       <c r="F185" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="5:6">
       <c r="E186" s="48"/>
       <c r="F186" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="187" spans="5:6">
       <c r="E187" s="48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="188" spans="5:6">
       <c r="E188" s="48"/>
       <c r="F188" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="189" spans="5:6">
       <c r="E189" s="48"/>
       <c r="F189" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="5:6">
       <c r="E190" s="48"/>
       <c r="F190" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="191" spans="5:6">
       <c r="E191" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="F191" s="16" t="s">
         <v>520</v>
-      </c>
-      <c r="F191" s="16" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="192" spans="5:6">
       <c r="E192" s="49"/>
       <c r="F192" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6129,41 +6189,41 @@
     </row>
     <row r="194" spans="1:5">
       <c r="E194" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="E195" s="49" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="E196" s="49" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D198" s="62" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="D199" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E199" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="D200" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6171,13 +6231,13 @@
         <v>1</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="D202" s="47"/>
       <c r="E202" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6188,19 +6248,19 @@
         <v>2</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="D205" s="47"/>
       <c r="E205" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="D206" s="47"/>
       <c r="E206" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6211,55 +6271,55 @@
         <v>3</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="D209" s="47"/>
       <c r="E209" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="D210" s="47"/>
       <c r="E210" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="D211" s="47"/>
       <c r="E211" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="D212" s="47"/>
       <c r="E212" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="E213" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="D215" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E215" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B218" s="6">
         <v>2</v>
       </c>
       <c r="C218" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6267,7 +6327,7 @@
         <v>136</v>
       </c>
       <c r="D219" s="62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6296,7 +6356,7 @@
     </row>
     <row r="224" spans="1:5">
       <c r="E224" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="226" spans="3:12">
@@ -6319,7 +6379,7 @@
         <v>137</v>
       </c>
       <c r="D230" s="62" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="232" spans="3:12">
@@ -6327,7 +6387,7 @@
         <v>47</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="233" spans="3:12">
@@ -6408,7 +6468,7 @@
         <v>55</v>
       </c>
       <c r="F241" s="23" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G241" s="23"/>
       <c r="H241" s="23"/>
@@ -6422,7 +6482,7 @@
         <v>55</v>
       </c>
       <c r="F242" s="26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G242" s="26"/>
       <c r="H242" s="26"/>
@@ -6433,13 +6493,13 @@
     </row>
     <row r="244" spans="1:12">
       <c r="A244" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C244" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D244" s="62" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -6447,7 +6507,7 @@
         <v>47</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -6473,12 +6533,12 @@
     </row>
     <row r="250" spans="1:12">
       <c r="E250" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="251" spans="1:12">
       <c r="E251" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -6498,18 +6558,18 @@
     </row>
     <row r="255" spans="1:12">
       <c r="E255" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C257" s="7" t="s">
         <v>139</v>
       </c>
       <c r="D257" s="62" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="259" spans="1:14">
@@ -6556,7 +6616,7 @@
     </row>
     <row r="267" spans="1:14">
       <c r="E267" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="268" spans="1:14">
@@ -6711,7 +6771,7 @@
     </row>
     <row r="279" spans="5:14">
       <c r="E279" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F279" s="23"/>
       <c r="G279" s="23"/>
@@ -6823,7 +6883,7 @@
     </row>
     <row r="288" spans="5:14">
       <c r="E288" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -6868,13 +6928,13 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>140</v>
       </c>
       <c r="D300" s="62" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -6959,132 +7019,132 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B346" s="6">
         <v>3</v>
       </c>
       <c r="C346" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="C347" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D347" s="62" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="D348" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E348" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="E348" s="8" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="D349" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E349" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="E349" s="8" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="D350" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E350" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="E350" s="8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="E351" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="E352" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="E353" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="E354" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="E355" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="E356" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="E357" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="E358" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="E359" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="E360" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="D364" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="E365" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="E366" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C368" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D368" s="62" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="369" spans="4:5">
       <c r="D369" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E369" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="370" spans="4:5">
@@ -7092,27 +7152,27 @@
         <v>1</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="371" spans="4:5">
       <c r="E371" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="372" spans="4:5">
       <c r="E372" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="373" spans="4:5">
       <c r="E373" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="374" spans="4:5">
       <c r="E374" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="376" spans="4:5">
@@ -7120,38 +7180,38 @@
         <v>2</v>
       </c>
       <c r="E376" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="377" spans="4:5">
       <c r="E377" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="378" spans="4:5">
       <c r="E378" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="379" spans="4:5">
       <c r="E379" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="380" spans="4:5">
       <c r="E380" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B386" s="6">
         <v>4</v>
       </c>
       <c r="C386" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7216,7 +7276,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7229,7 +7289,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="D7" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7519,46 +7579,46 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>289</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -7566,46 +7626,46 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="C42" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -7626,123 +7686,196 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="2" max="3" width="12.6640625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="17">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="C5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="6" spans="1:5">
+      <c r="D6" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="3" t="s">
+    <row r="7" spans="1:5">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="C7" s="3">
+    <row r="9" spans="1:5">
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="C26" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="C29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="C30" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="D10" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="D11" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="B26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3">
-        <v>2</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="B29" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="B30" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>153</v>
+      <c r="C34" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="C35" s="3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="C36" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="D37" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="D38" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="C40" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="D41" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="D43" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="D44" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="D45" s="3" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -7784,20 +7917,20 @@
         <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7805,25 +7938,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="8"/>
       <c r="D9" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7834,69 +7967,69 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="D33" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -7934,25 +8067,25 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7960,12 +8093,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -7973,12 +8106,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7986,73 +8119,73 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="D17" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="D18" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="D19" s="36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="D20" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="3:6">
       <c r="D21" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="D22" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="3:6">
       <c r="D23" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -8060,23 +8193,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="D27" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="D28" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -8084,15 +8217,15 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="D31" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -8100,25 +8233,25 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="D34" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="D35" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="E36" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -8161,28 +8294,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="D4" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8190,32 +8323,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -8223,17 +8356,17 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -8241,22 +8374,22 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="D22" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -8264,64 +8397,64 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="41" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="D68" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="D69" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="D70" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -8364,13 +8497,13 @@
     <row r="3" spans="1:3">
       <c r="A3" s="10"/>
       <c r="B3" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10"/>
       <c r="C4" s="38" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8384,95 +8517,95 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="38" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" s="60" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="D23" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="E24" s="46" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="D25" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="E28" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="3:5">
       <c r="E30" s="38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="E31" s="38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="E32" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="E33" s="38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="E34" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="D36" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="E36" s="38" t="s">
         <v>476</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="3:5">
@@ -8480,7 +8613,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="3:5">
@@ -8490,12 +8623,12 @@
     </row>
     <row r="42" spans="3:5">
       <c r="E42" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="3:5">
       <c r="E43" s="38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="3:5">
@@ -8503,33 +8636,33 @@
         <v>2</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="3:5">
       <c r="E46" s="38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="E47" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C50" s="38">
         <v>3</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="D51" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8537,37 +8670,37 @@
         <v>1</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="E53" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="E54" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="F55" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="F56" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="F57" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="E58" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8575,105 +8708,105 @@
         <v>2</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="E61" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="E62" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="F63" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="F64" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="4:6">
       <c r="E65" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="4:6">
       <c r="D66" s="38" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="4:6">
       <c r="E67" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="4:6">
       <c r="F68" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="70" spans="4:6">
       <c r="F70" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" spans="4:6">
       <c r="F71" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="4:6">
       <c r="E73" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="4:6">
       <c r="E74" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75" spans="4:6">
       <c r="F75" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="4:6">
       <c r="F76" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="78" spans="4:6">
       <c r="F78" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="79" spans="4:6">
       <c r="F79" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="80" spans="4:6">
       <c r="F80" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8682,7 +8815,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8690,27 +8823,27 @@
         <v>1</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="E100" s="38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="E101" s="38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="F102" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="F103" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -8718,73 +8851,73 @@
         <v>2</v>
       </c>
       <c r="E105" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="E106" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="E107" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="F108" s="38" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="E109" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="C112" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="3:15">
       <c r="D113" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="E113" s="38" t="s">
         <v>490</v>
-      </c>
-      <c r="E113" s="38" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="116" spans="3:15">
       <c r="C116" s="38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="3:15">
       <c r="D117" s="38" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" spans="3:15">
       <c r="E118" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="119" spans="3:15">
       <c r="E119" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="120" spans="3:15">
       <c r="E120" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="122" spans="3:15">
       <c r="E122" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F122" s="51"/>
       <c r="G122" s="51"/>
@@ -8798,7 +8931,7 @@
     <row r="123" spans="3:15">
       <c r="E123" s="53"/>
       <c r="F123" s="54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G123" s="54"/>
       <c r="H123" s="54"/>
@@ -8811,7 +8944,7 @@
     <row r="124" spans="3:15">
       <c r="E124" s="53"/>
       <c r="F124" s="59" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G124" s="54"/>
       <c r="H124" s="54"/>
@@ -8824,7 +8957,7 @@
     <row r="125" spans="3:15">
       <c r="E125" s="53"/>
       <c r="F125" s="54" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G125" s="54"/>
       <c r="H125" s="54"/>
@@ -8837,7 +8970,7 @@
     <row r="126" spans="3:15">
       <c r="E126" s="53"/>
       <c r="F126" s="54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G126" s="54"/>
       <c r="H126" s="54"/>
@@ -8850,7 +8983,7 @@
     <row r="127" spans="3:15">
       <c r="E127" s="53"/>
       <c r="F127" s="54" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G127" s="54"/>
       <c r="H127" s="54"/>
@@ -8864,7 +8997,7 @@
       <c r="E128" s="53"/>
       <c r="F128" s="54"/>
       <c r="G128" s="54" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H128" s="54"/>
       <c r="I128" s="54"/>
@@ -8873,13 +9006,13 @@
       <c r="L128" s="54"/>
       <c r="M128" s="55"/>
       <c r="O128" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="E129" s="53"/>
       <c r="F129" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G129" s="54"/>
       <c r="H129" s="54"/>
@@ -8894,7 +9027,7 @@
       <c r="D130" s="54"/>
       <c r="E130" s="53"/>
       <c r="F130" s="54" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G130" s="54"/>
       <c r="H130" s="54"/>
@@ -8910,7 +9043,7 @@
       <c r="D131" s="54"/>
       <c r="E131" s="53"/>
       <c r="F131" s="54" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G131" s="54"/>
       <c r="H131" s="54"/>
@@ -8925,7 +9058,7 @@
       <c r="C132" s="54"/>
       <c r="D132" s="54"/>
       <c r="E132" s="53" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F132" s="54"/>
       <c r="G132" s="54"/>
@@ -8958,11 +9091,11 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C135" s="54"/>
       <c r="D135" s="54" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E135" s="54"/>
       <c r="F135" s="54"/>
@@ -8993,7 +9126,7 @@
       <c r="C137" s="54"/>
       <c r="D137" s="54"/>
       <c r="E137" s="54" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F137" s="54"/>
       <c r="G137" s="54"/>
@@ -9009,7 +9142,7 @@
       <c r="C138" s="54"/>
       <c r="D138" s="54"/>
       <c r="E138" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F138" s="54"/>
       <c r="G138" s="54"/>
@@ -9025,7 +9158,7 @@
       <c r="C139" s="54"/>
       <c r="D139" s="54"/>
       <c r="E139" s="54" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F139" s="54"/>
       <c r="G139" s="54"/>
@@ -9041,7 +9174,7 @@
       <c r="C140" s="54"/>
       <c r="D140" s="54"/>
       <c r="E140" s="54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F140" s="54"/>
       <c r="G140" s="54"/>
@@ -9071,7 +9204,7 @@
       <c r="C142" s="54"/>
       <c r="D142" s="54"/>
       <c r="E142" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F142" s="51"/>
       <c r="G142" s="51"/>
@@ -9090,7 +9223,7 @@
       <c r="D143" s="54"/>
       <c r="E143" s="53"/>
       <c r="F143" s="54" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G143" s="54"/>
       <c r="H143" s="54"/>
@@ -9109,7 +9242,7 @@
       <c r="E144" s="53"/>
       <c r="F144" s="54"/>
       <c r="G144" s="54" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H144" s="54"/>
       <c r="I144" s="54"/>
@@ -9127,7 +9260,7 @@
       <c r="E145" s="53"/>
       <c r="F145" s="54"/>
       <c r="G145" s="54" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H145" s="54"/>
       <c r="I145" s="54"/>
@@ -9145,7 +9278,7 @@
       <c r="E146" s="53"/>
       <c r="F146" s="54"/>
       <c r="G146" s="54" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H146" s="54"/>
       <c r="I146" s="54"/>
@@ -9164,7 +9297,7 @@
       <c r="F147" s="54"/>
       <c r="G147" s="54"/>
       <c r="H147" s="54" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I147" s="54"/>
       <c r="J147" s="54"/>
@@ -9181,7 +9314,7 @@
       <c r="E148" s="53"/>
       <c r="F148" s="54"/>
       <c r="G148" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H148" s="54"/>
       <c r="I148" s="54"/>
@@ -9199,7 +9332,7 @@
       <c r="E149" s="53"/>
       <c r="F149" s="54"/>
       <c r="G149" s="54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H149" s="54"/>
       <c r="I149" s="54"/>
@@ -9218,7 +9351,7 @@
       <c r="F150" s="54"/>
       <c r="G150" s="54"/>
       <c r="H150" s="54" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I150" s="54"/>
       <c r="J150" s="54"/>
@@ -9235,7 +9368,7 @@
       <c r="E151" s="53"/>
       <c r="F151" s="54"/>
       <c r="G151" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H151" s="54"/>
       <c r="I151" s="54"/>
@@ -9253,7 +9386,7 @@
       <c r="E152" s="53"/>
       <c r="F152" s="54"/>
       <c r="G152" s="54" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H152" s="54"/>
       <c r="I152" s="54"/>
@@ -9271,7 +9404,7 @@
       <c r="E153" s="53"/>
       <c r="F153" s="54"/>
       <c r="G153" s="54" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H153" s="54"/>
       <c r="I153" s="54"/>
@@ -9290,7 +9423,7 @@
       <c r="F154" s="54"/>
       <c r="G154" s="54"/>
       <c r="H154" s="54" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I154" s="54"/>
       <c r="J154" s="54"/>
@@ -9307,7 +9440,7 @@
       <c r="E155" s="53"/>
       <c r="F155" s="54"/>
       <c r="G155" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H155" s="54"/>
       <c r="I155" s="54"/>
@@ -9325,7 +9458,7 @@
       <c r="E156" s="53"/>
       <c r="F156" s="54"/>
       <c r="G156" s="54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H156" s="54"/>
       <c r="I156" s="54"/>
@@ -9344,7 +9477,7 @@
       <c r="F157" s="54"/>
       <c r="G157" s="54"/>
       <c r="H157" s="54" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I157" s="54"/>
       <c r="J157" s="54"/>
@@ -9361,7 +9494,7 @@
       <c r="E158" s="53"/>
       <c r="F158" s="54"/>
       <c r="G158" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H158" s="54"/>
       <c r="I158" s="54"/>
@@ -9395,7 +9528,7 @@
       <c r="E160" s="53"/>
       <c r="F160" s="54"/>
       <c r="G160" s="54" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H160" s="54"/>
       <c r="I160" s="54"/>
@@ -9413,7 +9546,7 @@
       <c r="E161" s="53"/>
       <c r="F161" s="54"/>
       <c r="G161" s="54" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H161" s="54"/>
       <c r="I161" s="54"/>
@@ -9432,7 +9565,7 @@
       <c r="F162" s="54"/>
       <c r="G162" s="54"/>
       <c r="H162" s="54" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I162" s="54"/>
       <c r="J162" s="54"/>
@@ -9450,7 +9583,7 @@
       <c r="F163" s="54"/>
       <c r="G163" s="54"/>
       <c r="H163" s="54" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I163" s="54"/>
       <c r="J163" s="54"/>
@@ -9469,7 +9602,7 @@
       <c r="G164" s="54"/>
       <c r="H164" s="54"/>
       <c r="I164" s="54" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J164" s="54"/>
       <c r="K164" s="54"/>
@@ -9487,7 +9620,7 @@
       <c r="G165" s="54"/>
       <c r="H165" s="54"/>
       <c r="I165" s="54" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="J165" s="54"/>
       <c r="K165" s="54"/>
@@ -9504,7 +9637,7 @@
       <c r="F166" s="54"/>
       <c r="G166" s="54"/>
       <c r="H166" s="54" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I166" s="54"/>
       <c r="J166" s="54"/>
@@ -9523,7 +9656,7 @@
       <c r="G167" s="54"/>
       <c r="H167" s="54"/>
       <c r="I167" s="54" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J167" s="54"/>
       <c r="K167" s="54"/>
@@ -9540,7 +9673,7 @@
       <c r="F168" s="54"/>
       <c r="G168" s="54"/>
       <c r="H168" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I168" s="54"/>
       <c r="J168" s="54"/>
@@ -9557,7 +9690,7 @@
       <c r="E169" s="53"/>
       <c r="F169" s="54"/>
       <c r="G169" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H169" s="54"/>
       <c r="I169" s="54"/>
@@ -9591,7 +9724,7 @@
       <c r="E171" s="53"/>
       <c r="F171" s="54"/>
       <c r="G171" s="54" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H171" s="54"/>
       <c r="I171" s="54"/>
@@ -9609,7 +9742,7 @@
       <c r="E172" s="53"/>
       <c r="F172" s="54"/>
       <c r="G172" s="54" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H172" s="54"/>
       <c r="I172" s="54"/>
@@ -9626,7 +9759,7 @@
       <c r="F173" s="54"/>
       <c r="G173" s="54"/>
       <c r="H173" s="54" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I173" s="54"/>
       <c r="L173" s="54"/>
@@ -9641,7 +9774,7 @@
       <c r="E174" s="53"/>
       <c r="F174" s="54"/>
       <c r="G174" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H174" s="54"/>
       <c r="I174" s="54"/>
@@ -9672,7 +9805,7 @@
       <c r="D176" s="54"/>
       <c r="E176" s="53"/>
       <c r="F176" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G176" s="54"/>
       <c r="H176" s="54"/>
@@ -9706,7 +9839,7 @@
       <c r="D178" s="54"/>
       <c r="E178" s="53"/>
       <c r="F178" s="54" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G178" s="54"/>
       <c r="I178" s="54"/>
@@ -9723,7 +9856,7 @@
       <c r="D179" s="54"/>
       <c r="E179" s="53"/>
       <c r="F179" s="54" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G179" s="54"/>
       <c r="I179" s="54"/>
@@ -9755,7 +9888,7 @@
       <c r="D181" s="54"/>
       <c r="E181" s="53"/>
       <c r="F181" s="54" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G181" s="54"/>
       <c r="I181" s="54"/>
@@ -9772,7 +9905,7 @@
       <c r="D182" s="54"/>
       <c r="E182" s="53"/>
       <c r="F182" s="54" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G182" s="54"/>
       <c r="I182" s="54"/>
@@ -9804,7 +9937,7 @@
       <c r="D184" s="54"/>
       <c r="E184" s="53"/>
       <c r="F184" s="54" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G184" s="54"/>
       <c r="I184" s="54"/>
@@ -9821,7 +9954,7 @@
       <c r="D185" s="54"/>
       <c r="E185" s="53"/>
       <c r="F185" s="54" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G185" s="54"/>
       <c r="I185" s="54"/>
@@ -9838,7 +9971,7 @@
       <c r="D186" s="54"/>
       <c r="E186" s="53"/>
       <c r="F186" s="54" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G186" s="54"/>
       <c r="I186" s="54"/>
@@ -9855,7 +9988,7 @@
       <c r="D187" s="54"/>
       <c r="E187" s="53"/>
       <c r="F187" s="54" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G187" s="54"/>
       <c r="I187" s="54"/>
@@ -9873,7 +10006,7 @@
       <c r="E188" s="53"/>
       <c r="F188" s="54"/>
       <c r="G188" s="54" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I188" s="54"/>
       <c r="J188" s="54"/>
@@ -9889,7 +10022,7 @@
       <c r="D189" s="54"/>
       <c r="E189" s="53"/>
       <c r="F189" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G189" s="54"/>
       <c r="I189" s="54"/>
@@ -9921,7 +10054,7 @@
       <c r="D191" s="54"/>
       <c r="E191" s="53"/>
       <c r="F191" s="54" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G191" s="54"/>
       <c r="H191" s="54"/>
@@ -9939,7 +10072,7 @@
       <c r="D192" s="54"/>
       <c r="E192" s="53"/>
       <c r="F192" s="54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G192" s="54"/>
       <c r="H192" s="54"/>
@@ -9957,7 +10090,7 @@
       <c r="D193" s="54"/>
       <c r="E193" s="53"/>
       <c r="F193" s="59" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G193" s="54"/>
       <c r="H193" s="54"/>
@@ -9975,7 +10108,7 @@
       <c r="D194" s="54"/>
       <c r="E194" s="53"/>
       <c r="F194" s="63" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G194" s="54"/>
       <c r="H194" s="54"/>
@@ -9993,7 +10126,7 @@
       <c r="D195" s="54"/>
       <c r="E195" s="53"/>
       <c r="F195" s="54" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G195" s="54"/>
       <c r="H195" s="54"/>
@@ -10011,7 +10144,7 @@
       <c r="D196" s="54"/>
       <c r="E196" s="53"/>
       <c r="F196" s="54" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G196" s="54"/>
       <c r="H196" s="54"/>
@@ -10045,7 +10178,7 @@
       <c r="D198" s="54"/>
       <c r="E198" s="53"/>
       <c r="F198" s="54" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G198" s="54"/>
       <c r="H198" s="54"/>
@@ -10063,7 +10196,7 @@
       <c r="D199" s="54"/>
       <c r="E199" s="53"/>
       <c r="F199" s="54" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G199" s="54"/>
       <c r="H199" s="54"/>
@@ -10081,7 +10214,7 @@
       <c r="D200" s="54"/>
       <c r="E200" s="53"/>
       <c r="F200" s="54" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G200" s="54"/>
       <c r="H200" s="54"/>
@@ -10115,7 +10248,7 @@
       <c r="D202" s="54"/>
       <c r="E202" s="53"/>
       <c r="F202" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G202" s="54"/>
       <c r="H202" s="54"/>
@@ -10149,7 +10282,7 @@
       <c r="D204" s="54"/>
       <c r="E204" s="53"/>
       <c r="F204" s="54" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G204" s="54"/>
       <c r="H204" s="54"/>
@@ -10167,7 +10300,7 @@
       <c r="D205" s="54"/>
       <c r="E205" s="53"/>
       <c r="F205" s="54" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G205" s="54"/>
       <c r="H205" s="54"/>
@@ -10185,7 +10318,7 @@
       <c r="D206" s="54"/>
       <c r="E206" s="53"/>
       <c r="F206" s="59" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G206" s="54"/>
       <c r="H206" s="54"/>
@@ -10203,7 +10336,7 @@
       <c r="D207" s="54"/>
       <c r="E207" s="53"/>
       <c r="F207" s="54" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G207" s="54"/>
       <c r="H207" s="54"/>
@@ -10253,7 +10386,7 @@
       <c r="D210" s="54"/>
       <c r="E210" s="53"/>
       <c r="F210" s="54" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G210" s="54"/>
       <c r="I210" s="54"/>
@@ -10270,7 +10403,7 @@
       <c r="D211" s="54"/>
       <c r="E211" s="53"/>
       <c r="F211" s="54" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G211" s="54"/>
       <c r="I211" s="54"/>
@@ -10287,7 +10420,7 @@
       <c r="D212" s="54"/>
       <c r="E212" s="53"/>
       <c r="F212" s="54" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G212" s="54"/>
       <c r="I212" s="54"/>
@@ -10335,7 +10468,7 @@
       <c r="C215" s="54"/>
       <c r="D215" s="54"/>
       <c r="E215" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F215" s="57"/>
       <c r="G215" s="57"/>
@@ -10379,17 +10512,17 @@
     </row>
     <row r="218" spans="3:16">
       <c r="E218" s="38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="219" spans="3:16">
       <c r="E219" s="38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="220" spans="3:16">
       <c r="E220" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F220" s="51"/>
       <c r="G220" s="51"/>
@@ -10403,7 +10536,7 @@
     <row r="221" spans="3:16">
       <c r="E221" s="53"/>
       <c r="F221" s="54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G221" s="54"/>
       <c r="H221" s="54"/>
@@ -10417,7 +10550,7 @@
       <c r="E222" s="53"/>
       <c r="F222" s="54"/>
       <c r="G222" s="54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H222" s="54"/>
       <c r="I222" s="54"/>
@@ -10431,7 +10564,7 @@
       <c r="F223" s="54"/>
       <c r="G223" s="54"/>
       <c r="H223" s="54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I223" s="54"/>
       <c r="J223" s="54"/>
@@ -10443,7 +10576,7 @@
       <c r="E224" s="53"/>
       <c r="F224" s="54"/>
       <c r="G224" s="54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H224" s="54"/>
       <c r="I224" s="54"/>
@@ -10456,7 +10589,7 @@
       <c r="E225" s="53"/>
       <c r="F225" s="54"/>
       <c r="G225" s="54" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H225" s="54"/>
       <c r="I225" s="54"/>
@@ -10470,7 +10603,7 @@
       <c r="F226" s="54"/>
       <c r="G226" s="54"/>
       <c r="H226" s="54" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I226" s="54"/>
       <c r="J226" s="54"/>
@@ -10482,7 +10615,7 @@
       <c r="E227" s="53"/>
       <c r="F227" s="54"/>
       <c r="G227" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H227" s="54"/>
       <c r="I227" s="54"/>
@@ -10494,7 +10627,7 @@
     <row r="228" spans="5:13">
       <c r="E228" s="53"/>
       <c r="F228" s="54" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G228" s="54"/>
       <c r="H228" s="54"/>
@@ -10507,7 +10640,7 @@
     <row r="229" spans="5:13">
       <c r="E229" s="53"/>
       <c r="F229" s="54" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G229" s="54"/>
       <c r="H229" s="54"/>
@@ -10520,7 +10653,7 @@
     <row r="230" spans="5:13">
       <c r="E230" s="53"/>
       <c r="F230" s="54" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G230" s="54"/>
       <c r="H230" s="54"/>
@@ -10532,7 +10665,7 @@
     </row>
     <row r="231" spans="5:13">
       <c r="E231" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F231" s="57"/>
       <c r="G231" s="57"/>
@@ -10556,7 +10689,7 @@
     </row>
     <row r="233" spans="5:13">
       <c r="E233" s="54" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F233" s="54"/>
       <c r="G233" s="54"/>
@@ -10569,7 +10702,7 @@
     </row>
     <row r="234" spans="5:13">
       <c r="E234" s="50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F234" s="51"/>
       <c r="G234" s="51"/>
@@ -10583,7 +10716,7 @@
     <row r="235" spans="5:13">
       <c r="E235" s="53"/>
       <c r="F235" s="54" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H235" s="54"/>
       <c r="I235" s="54"/>
@@ -10605,7 +10738,7 @@
     <row r="237" spans="5:13">
       <c r="E237" s="53"/>
       <c r="G237" s="54" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H237" s="54"/>
       <c r="I237" s="54"/>
@@ -10618,7 +10751,7 @@
       <c r="E238" s="53"/>
       <c r="G238" s="54"/>
       <c r="H238" s="54" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I238" s="54"/>
       <c r="J238" s="54"/>
@@ -10631,7 +10764,7 @@
       <c r="G239" s="54"/>
       <c r="H239" s="54"/>
       <c r="I239" s="54" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J239" s="54"/>
       <c r="K239" s="54"/>
@@ -10643,7 +10776,7 @@
       <c r="G240" s="54"/>
       <c r="H240" s="54"/>
       <c r="I240" s="54" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="J240" s="54"/>
       <c r="K240" s="54"/>
@@ -10654,7 +10787,7 @@
       <c r="E241" s="53"/>
       <c r="G241" s="54"/>
       <c r="H241" s="54" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I241" s="54"/>
       <c r="J241" s="54"/>
@@ -10667,7 +10800,7 @@
       <c r="G242" s="54"/>
       <c r="H242" s="54"/>
       <c r="I242" s="54" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J242" s="54"/>
       <c r="K242" s="54"/>
@@ -10679,7 +10812,7 @@
       <c r="G243" s="54"/>
       <c r="H243" s="54"/>
       <c r="I243" s="54" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J243" s="54"/>
       <c r="K243" s="54"/>
@@ -10690,7 +10823,7 @@
       <c r="E244" s="53"/>
       <c r="G244" s="54"/>
       <c r="H244" s="54" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I244" s="54"/>
       <c r="J244" s="54"/>
@@ -10711,7 +10844,7 @@
     <row r="246" spans="1:13">
       <c r="E246" s="53"/>
       <c r="G246" s="54" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H246" s="54"/>
       <c r="I246" s="54"/>
@@ -10723,7 +10856,7 @@
     <row r="247" spans="1:13">
       <c r="E247" s="53"/>
       <c r="F247" s="54" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H247" s="54"/>
       <c r="I247" s="54"/>
@@ -10735,7 +10868,7 @@
     <row r="248" spans="1:13">
       <c r="E248" s="53"/>
       <c r="F248" s="54" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H248" s="54"/>
       <c r="I248" s="54"/>
@@ -10746,7 +10879,7 @@
     </row>
     <row r="249" spans="1:13">
       <c r="E249" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F249" s="57"/>
       <c r="G249" s="57"/>
@@ -10770,20 +10903,20 @@
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="41" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E252" s="38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="253" spans="1:13">
       <c r="E253" s="38" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="255" spans="1:13">
       <c r="E255" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F255" s="51"/>
       <c r="G255" s="51"/>
@@ -10797,7 +10930,7 @@
     <row r="256" spans="1:13">
       <c r="E256" s="53"/>
       <c r="F256" s="54" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G256" s="54"/>
       <c r="H256" s="54"/>
@@ -10811,7 +10944,7 @@
       <c r="E257" s="53"/>
       <c r="F257" s="54"/>
       <c r="G257" s="54" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H257" s="54"/>
       <c r="I257" s="54"/>
@@ -10825,7 +10958,7 @@
       <c r="F258" s="54"/>
       <c r="G258" s="54"/>
       <c r="H258" s="54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I258" s="54"/>
       <c r="J258" s="54"/>
@@ -10837,7 +10970,7 @@
       <c r="E259" s="53"/>
       <c r="F259" s="54"/>
       <c r="G259" s="54" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H259" s="59"/>
       <c r="I259" s="54"/>
@@ -10850,7 +10983,7 @@
       <c r="E260" s="53"/>
       <c r="F260" s="54"/>
       <c r="G260" s="54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H260" s="54"/>
       <c r="I260" s="54"/>
@@ -10864,7 +10997,7 @@
       <c r="F261" s="54"/>
       <c r="G261" s="54"/>
       <c r="H261" s="54" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I261" s="54"/>
       <c r="J261" s="54"/>
@@ -10876,7 +11009,7 @@
       <c r="E262" s="53"/>
       <c r="F262" s="54"/>
       <c r="G262" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H262" s="54"/>
       <c r="I262" s="54"/>
@@ -10888,7 +11021,7 @@
     <row r="263" spans="4:14">
       <c r="E263" s="53"/>
       <c r="F263" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G263" s="54"/>
       <c r="H263" s="54"/>
@@ -10901,7 +11034,7 @@
     <row r="264" spans="4:14">
       <c r="E264" s="53"/>
       <c r="F264" s="54" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G264" s="54"/>
       <c r="H264" s="54"/>
@@ -10914,7 +11047,7 @@
     <row r="265" spans="4:14">
       <c r="E265" s="53"/>
       <c r="F265" s="54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G265" s="54"/>
       <c r="H265" s="54"/>
@@ -10926,7 +11059,7 @@
     </row>
     <row r="266" spans="4:14">
       <c r="E266" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F266" s="57"/>
       <c r="G266" s="57"/>
@@ -10939,15 +11072,15 @@
     </row>
     <row r="269" spans="4:14">
       <c r="D269" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="E269" s="38" t="s">
         <v>553</v>
-      </c>
-      <c r="E269" s="38" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="271" spans="4:14">
       <c r="E271" s="50" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F271" s="51"/>
       <c r="G271" s="51"/>
@@ -10962,7 +11095,7 @@
     <row r="272" spans="4:14">
       <c r="E272" s="53"/>
       <c r="F272" s="54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G272" s="54"/>
       <c r="H272" s="54"/>
@@ -10977,7 +11110,7 @@
       <c r="E273" s="53"/>
       <c r="F273" s="54"/>
       <c r="G273" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H273" s="54"/>
       <c r="I273" s="54"/>
@@ -10992,7 +11125,7 @@
       <c r="F274" s="54"/>
       <c r="G274" s="54"/>
       <c r="H274" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I274" s="54"/>
       <c r="J274" s="54"/>
@@ -11007,7 +11140,7 @@
       <c r="G275" s="54"/>
       <c r="H275" s="54"/>
       <c r="I275" s="54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J275" s="54"/>
       <c r="K275" s="54"/>
@@ -11020,7 +11153,7 @@
       <c r="F276" s="54"/>
       <c r="G276" s="54"/>
       <c r="H276" s="54" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I276" s="54"/>
       <c r="J276" s="54"/>
@@ -11034,7 +11167,7 @@
       <c r="F277" s="54"/>
       <c r="G277" s="54"/>
       <c r="H277" s="54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I277" s="54"/>
       <c r="J277" s="54"/>
@@ -11049,7 +11182,7 @@
       <c r="G278" s="54"/>
       <c r="H278" s="54"/>
       <c r="I278" s="54" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="J278" s="54"/>
       <c r="K278" s="54"/>
@@ -11062,7 +11195,7 @@
       <c r="F279" s="54"/>
       <c r="G279" s="54"/>
       <c r="H279" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I279" s="54"/>
       <c r="J279" s="54"/>
@@ -11075,7 +11208,7 @@
       <c r="E280" s="53"/>
       <c r="F280" s="54"/>
       <c r="G280" s="54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H280" s="54"/>
       <c r="I280" s="54"/>
@@ -11088,7 +11221,7 @@
     <row r="281" spans="5:14">
       <c r="E281" s="53"/>
       <c r="F281" s="54" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G281" s="54"/>
       <c r="H281" s="54"/>
@@ -11102,7 +11235,7 @@
     <row r="282" spans="5:14">
       <c r="E282" s="53"/>
       <c r="F282" s="54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G282" s="54"/>
       <c r="H282" s="54"/>
@@ -11116,7 +11249,7 @@
     <row r="283" spans="5:14">
       <c r="E283" s="53"/>
       <c r="F283" s="54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G283" s="54"/>
       <c r="H283" s="54"/>
@@ -11130,7 +11263,7 @@
     <row r="284" spans="5:14">
       <c r="E284" s="53"/>
       <c r="F284" s="54" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G284" s="54"/>
       <c r="H284" s="54"/>
@@ -11143,7 +11276,7 @@
     </row>
     <row r="285" spans="5:14">
       <c r="E285" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F285" s="57"/>
       <c r="G285" s="57"/>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="360" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
+    <workbookView xWindow="4080" yWindow="6020" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="745">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3338,6 +3338,87 @@
   </si>
   <si>
     <t>Objective-C Automatic Reference Counting一项中，可以看到你的Target,Project的对应的配置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>padding:10px 5px 15px 20px;</t>
+  </si>
+  <si>
+    <t>上内边距是 10px</t>
+  </si>
+  <si>
+    <t>右内边距是 5px</t>
+  </si>
+  <si>
+    <t>下内边距是 15px</t>
+  </si>
+  <si>
+    <t>左内边距是 20px</t>
+  </si>
+  <si>
+    <t>padding:10px 5px 15px;</t>
+  </si>
+  <si>
+    <t>右内边距和左内边距是 5px</t>
+  </si>
+  <si>
+    <t>padding:10px 5px;</t>
+  </si>
+  <si>
+    <t>上内边距和下内边距是 10px</t>
+  </si>
+  <si>
+    <t>padding:10px;</t>
+  </si>
+  <si>
+    <t>所有 4 个内边距都是 10px</t>
+  </si>
+  <si>
+    <t>MUI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mui框架将很多功能配置都集中在mui.init方法中，要使用某项功能，只需要在mui.init方法中完成对应参数配置即可，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前支持在mui.init方法中配置的功能包括:创建自页面,关闭页面,手势事件配置,预加载,下拉刷新,上拉加载等.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在app开发中,若要使用HTML5+API,则必须等plusready事件发生之后才能正常使用,mui将该事件封装成了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mui.plusReady()方法,涉及到HTML5＋的api，都建议写在mui.plusReady()中.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mui.plusReady(function(){</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>console.log("Current page URL:" + plus.webview.currentWebview().getURL());</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3569,7 +3650,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="94">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3606,6 +3687,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3802,7 +3884,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="94">
+  <cellStyles count="95">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3896,6 +3978,7 @@
     <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5102,10 +5185,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -5160,24 +5243,109 @@
         <v>698</v>
       </c>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="2:5">
       <c r="D17" s="38" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="2:5">
       <c r="E19" s="38" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="2:5">
       <c r="E20" s="38" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="2:5">
       <c r="C25" s="38" t="s">
         <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="38" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="38" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="D34" s="38" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="E35" s="38" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="F36" s="38" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="F37" s="38" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="F38" s="38" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="F39" s="38" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="E41" s="38" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="F42" s="38" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="F43" s="38" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="F44" s="38" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="E46" s="38" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="F47" s="38" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="F48" s="38" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="38" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="F51" s="38" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -5197,7 +5365,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5246,6 +5414,51 @@
     <row r="16" spans="1:4">
       <c r="C16" s="38" t="s">
         <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="38" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="D24" s="38" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="D25" s="38" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="D26" s="38" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="D27" s="38" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="D28" s="38" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="E29" s="38" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="F30" s="38" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="F31" s="38" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="6020" windowWidth="25520" windowHeight="15600" tabRatio="627"/>
+    <workbookView xWindow="6700" yWindow="2920" windowWidth="25600" windowHeight="16060" tabRatio="685"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="752">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3419,6 +3419,34 @@
   </si>
   <si>
     <t>}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid app开发工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbuilder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见调试问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>console.log("content"); 语句没有输出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在通过模拟器开发的时候，往往需要通过console.log()来代替alert()来提示信息.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hbuilder的控制台有两个,一个是"Hbuilder控制台",另一个是“设备控制台"(如iPhone设备或模拟器)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个时候,在模拟器或者真机上的调试想看到console.log()的输出,则需要切换到"设备控制台"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3650,7 +3678,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3687,6 +3715,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3884,7 +3913,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="96">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3979,6 +4008,7 @@
     <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5365,7 +5395,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5459,6 +5489,44 @@
     <row r="31" spans="3:6">
       <c r="F31" s="38" t="s">
         <v>744</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="38" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="C36" s="38" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="C37" s="38" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="C38" s="38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="D39" s="38" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="D40" s="38" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="D41" s="38" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="856">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3468,10 +3468,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mui.plusReady(function(){})</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mui.openWindow()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3701,12 +3697,224 @@
     <t>mui.preload()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>mui.plusReady()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过mui.preload()方法预加载，可立即返回对应webview的引用，但一次仅能预加载一个页面；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>若需加载多个webview，则需多次调用mui.preload()方法</t>
+  </si>
+  <si>
+    <t>mui.fire()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过fire()自定义的事件，给跳转的页面传递值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>webview:页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventType:自定义的事件，如"viewDidLoad","show"名字自定义，目标webview可以监听该名称的事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>data:传递的数据,通过都用javascript对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面的传值主要有两种方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过openWindow()中的参数extras定义，目标页面通过获取自身webview,即可获得这些传值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.openWindow({</t>
+  </si>
+  <si>
+    <t>'id' : 'main',</t>
+  </si>
+  <si>
+    <t>'url': 'main.html',</t>
+  </si>
+  <si>
+    <t>extras :{</t>
+  </si>
+  <si>
+    <t>account : accountField.value</t>
+  </si>
+  <si>
+    <t>show : {</t>
+  </si>
+  <si>
+    <t>aniShow :'pop-in'</t>
+  </si>
+  <si>
+    <t>waiting:{</t>
+  </si>
+  <si>
+    <t>autoShow:false</t>
+  </si>
+  <si>
+    <t>在源页面点击按钮要跳转到主页,openWindow()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.plusReady(function() {</t>
+  </si>
+  <si>
+    <t>var self = plus.webview.currentWebview();</t>
+  </si>
+  <si>
+    <t>console.log("email:" + email +" name:" + name);</t>
+  </si>
+  <si>
+    <t>var account = self.accountl;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果主页是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预加载</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的，则上面的方式就无效了！</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var mainPage = $.preload({</t>
+  </si>
+  <si>
+    <t>'url': 'main.html'</t>
+  </si>
+  <si>
+    <t>main.html预加载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// extras 页面传值方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// mian.html是预加载的,extras 页面传值方式将不起作用了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account : accountField.value,</t>
+  </si>
+  <si>
+    <t>testValue : 'testFire'</t>
+  </si>
+  <si>
+    <t>// 解决办法：fire()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>$.fire(mainPage,'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>viewDidLoad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>',{</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 通过监听上一个页面的viewDidLoad事件,获取上一个页面的传值</t>
+  </si>
+  <si>
+    <t>console.log("Listen custome event viewDidLoad");</t>
+  </si>
+  <si>
+    <t>console.log("value passed from last page:account:" + account + " testValue:" + testValue);</t>
+  </si>
+  <si>
+    <r>
+      <t>window.addEventListener("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>viewDidLoad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",function(event){</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>var account = event.detail.account;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3832,6 +4040,12 @@
       <name val="宋体 (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF008000"/>
+      <name val="宋体 (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3930,7 +4144,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4028,8 +4242,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4165,8 +4395,10 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="113">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4263,6 +4495,22 @@
     <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5649,11 +5897,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -5702,431 +5948,799 @@
         <v>705</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="38" t="s">
+    <row r="19" spans="2:4">
+      <c r="B19" s="38" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="21" spans="2:4">
+      <c r="C21" s="38" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="C22" s="38" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" s="38">
+        <v>1</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="D24" s="38" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" s="38" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="D26" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="C32" s="38" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="38" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
       <c r="C36" s="38" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="C37" s="38" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4">
-      <c r="C38" s="38">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="38" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" s="38">
         <v>1</v>
       </c>
-      <c r="D38" s="38" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4">
-      <c r="D39" s="38" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4">
       <c r="D40" s="38" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
       <c r="D41" s="38" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4">
-      <c r="C47" s="38" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4">
-      <c r="C48" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4">
-      <c r="C50" s="38" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4">
-      <c r="C51" s="38" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4">
-      <c r="C54" s="38" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4">
-      <c r="C55" s="38">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="38">
+        <v>2</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="D45" s="38" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="D46" s="38" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="D47" s="38" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="D48" s="38" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="D49" s="38" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="E50" s="38" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="F51" s="38" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="F52" s="38" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="38">
+        <v>3</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="E55" s="38" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="E56" s="38" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="E57" s="38" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="E58" s="38" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="E59" s="38" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="E60" s="38" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="E63" s="38" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="E64" s="38" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="38" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="38" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="38" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="38" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="38" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="38" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="38" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="38" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="38" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="38" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="38" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="38" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="38" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="38" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5">
+      <c r="E80" s="38" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="E81" s="38" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="E82" s="38" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="E83" s="38" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5">
+      <c r="E84" s="38" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5">
+      <c r="E85" s="38" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="86" spans="3:5">
+      <c r="E86" s="38" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="E87" s="38" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5">
+      <c r="E88" s="38" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="89" spans="3:5">
+      <c r="E89" s="38" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5">
+      <c r="E90" s="38" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5">
+      <c r="E91" s="38" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5">
+      <c r="C93" s="38">
+        <v>4</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5">
+      <c r="E94" s="38" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="95" spans="3:5">
+      <c r="E95" s="38" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="97" spans="5:8">
+      <c r="E97" s="38" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="98" spans="5:8">
+      <c r="E98" s="38">
         <v>1</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4">
-      <c r="D56" s="38" t="s">
+      <c r="F98" s="38" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="99" spans="5:8">
+      <c r="F99" s="38" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="100" spans="5:8">
+      <c r="F100" s="38" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="101" spans="5:8">
+      <c r="G101" s="38" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="102" spans="5:8">
+      <c r="H102" s="38" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="103" spans="5:8">
+      <c r="H103" s="38" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="104" spans="5:8">
+      <c r="G104" s="38" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="106" spans="5:8">
+      <c r="F106" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="107" spans="5:8">
+      <c r="G107" s="38" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="109" spans="5:8">
+      <c r="E109" s="38">
+        <v>2</v>
+      </c>
+      <c r="F109" s="38" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="110" spans="5:8">
+      <c r="F110" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="111" spans="5:8">
+      <c r="G111" s="38" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="112" spans="5:8">
+      <c r="H112" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="113" spans="3:7">
+      <c r="G113" s="38" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="115" spans="3:7">
+      <c r="E115" s="38">
+        <v>3</v>
+      </c>
+      <c r="F115" s="38" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="118" spans="3:7">
+      <c r="C118" s="38">
+        <v>5</v>
+      </c>
+      <c r="D118" s="38" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="59" spans="3:4">
-      <c r="C59" s="38">
+    <row r="119" spans="3:7">
+      <c r="E119" s="38" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="120" spans="3:7">
+      <c r="E120" s="38" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="121" spans="3:7">
+      <c r="F121" s="38" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="122" spans="3:7">
+      <c r="G122" s="38" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="123" spans="3:7">
+      <c r="G123" s="38" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="124" spans="3:7">
+      <c r="F124" s="38" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="126" spans="3:7">
+      <c r="C126" s="38">
+        <v>6</v>
+      </c>
+      <c r="D126" s="38" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="127" spans="3:7">
+      <c r="E127" s="38" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="128" spans="3:7">
+      <c r="E128" s="38" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="129" spans="5:7">
+      <c r="E129" s="38">
+        <v>1</v>
+      </c>
+      <c r="F129" s="38" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="130" spans="5:7">
+      <c r="E130" s="38">
         <v>2</v>
       </c>
-      <c r="D59" s="38" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4">
-      <c r="D60" s="38" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4">
-      <c r="D61" s="38" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4">
-      <c r="D62" s="38" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4">
-      <c r="D63" s="38" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4">
-      <c r="D64" s="38" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="E65" s="38" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6">
-      <c r="F66" s="38" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="F67" s="38" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="C69" s="38">
+      <c r="F130" s="38" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="131" spans="5:7">
+      <c r="E131" s="38">
         <v>3</v>
       </c>
-      <c r="D69" s="38" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="E70" s="38" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="E71" s="38" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="72" spans="3:6">
-      <c r="E72" s="38" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="73" spans="3:6">
-      <c r="E73" s="38" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6">
-      <c r="E74" s="38" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="75" spans="3:6">
-      <c r="E75" s="38" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="78" spans="3:6">
-      <c r="E78" s="38" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="79" spans="3:6">
-      <c r="E79" s="38" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="80" spans="3:6">
-      <c r="E80" s="38" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="38" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5">
-      <c r="E82" s="38" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5">
-      <c r="E83" s="38" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5">
-      <c r="E84" s="38" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="85" spans="5:5">
-      <c r="E85" s="38" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="38" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5">
-      <c r="E87" s="38" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="88" spans="5:5">
-      <c r="E88" s="38" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" s="38" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="90" spans="5:5">
-      <c r="E90" s="38" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="91" spans="5:5">
-      <c r="E91" s="38" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="92" spans="5:5">
-      <c r="E92" s="38" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5">
-      <c r="E93" s="38" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="94" spans="5:5">
-      <c r="E94" s="38" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="95" spans="5:5">
-      <c r="E95" s="38" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="96" spans="5:5">
-      <c r="E96" s="38" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5">
-      <c r="E97" s="38" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="98" spans="3:5">
-      <c r="E98" s="38" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5">
-      <c r="E99" s="38" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5">
-      <c r="E100" s="38" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5">
-      <c r="E101" s="38" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5">
-      <c r="E102" s="38" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5">
-      <c r="E103" s="38" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5">
-      <c r="E104" s="38" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5">
-      <c r="E105" s="38" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5">
-      <c r="E106" s="38" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5">
-      <c r="C108" s="38">
-        <v>4</v>
-      </c>
-      <c r="D108" s="38" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5">
-      <c r="E109" s="38" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5">
-      <c r="E110" s="38" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5">
-      <c r="E112" s="38" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="113" spans="5:8">
-      <c r="E113" s="38">
+      <c r="F131" s="38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="133" spans="5:7">
+      <c r="E133" s="38" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="134" spans="5:7">
+      <c r="E134" s="38" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="135" spans="5:7">
+      <c r="E135" s="38">
         <v>1</v>
       </c>
-      <c r="F113" s="38" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="114" spans="5:8">
-      <c r="F114" s="38" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="115" spans="5:8">
-      <c r="F115" s="38" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="116" spans="5:8">
-      <c r="G116" s="38" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="117" spans="5:8">
-      <c r="H117" s="38" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="118" spans="5:8">
-      <c r="H118" s="38" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="119" spans="5:8">
-      <c r="G119" s="38" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="121" spans="5:8">
-      <c r="F121" s="38" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="122" spans="5:8">
-      <c r="G122" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="124" spans="5:8">
-      <c r="E124" s="38">
+      <c r="F135" s="38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="136" spans="5:7">
+      <c r="F136" s="38" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="139" spans="5:7">
+      <c r="F139" s="38" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="140" spans="5:7">
+      <c r="F140" s="38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="141" spans="5:7">
+      <c r="G141" s="38" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="142" spans="5:7">
+      <c r="G142" s="38" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="143" spans="5:7">
+      <c r="G143" s="38" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="144" spans="5:7">
+      <c r="G144" s="38" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="145" spans="6:8">
+      <c r="H145" s="46" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="146" spans="6:8">
+      <c r="G146" s="38" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="147" spans="6:8">
+      <c r="G147" s="38" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="148" spans="6:8">
+      <c r="H148" s="38" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="149" spans="6:8">
+      <c r="G149" s="38" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="150" spans="6:8">
+      <c r="G150" s="38" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="151" spans="6:8">
+      <c r="H151" s="38" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="152" spans="6:8">
+      <c r="G152" s="38" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="153" spans="6:8">
+      <c r="F153" s="38" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="155" spans="6:8">
+      <c r="F155" s="38" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="156" spans="6:8">
+      <c r="F156" s="38" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="157" spans="6:8">
+      <c r="G157" s="38" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="158" spans="6:8">
+      <c r="G158" s="46" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="159" spans="6:8">
+      <c r="G159" s="38" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="160" spans="6:8">
+      <c r="F160" s="38" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="163" spans="5:7">
+      <c r="E163" s="38">
         <v>2</v>
       </c>
-      <c r="F124" s="38" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="125" spans="5:8">
-      <c r="F125" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="126" spans="5:8">
-      <c r="G126" s="38" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="127" spans="5:8">
-      <c r="H127" s="38" t="s">
+      <c r="F163" s="38" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="164" spans="5:7">
+      <c r="F164" s="38" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="165" spans="5:7">
+      <c r="F165" s="38" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="166" spans="5:7">
+      <c r="G166" s="38" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="167" spans="5:7">
+      <c r="G167" s="38" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="168" spans="5:7">
+      <c r="F168" s="38" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="128" spans="5:8">
-      <c r="G128" s="38" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="130" spans="3:6">
-      <c r="E130" s="38">
-        <v>3</v>
-      </c>
-      <c r="F130" s="38" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="133" spans="3:6">
-      <c r="C133" s="38">
-        <v>5</v>
-      </c>
-      <c r="D133" s="38" t="s">
-        <v>813</v>
+    <row r="170" spans="5:7">
+      <c r="F170" s="66" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="171" spans="5:7">
+      <c r="F171" s="38" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="172" spans="5:7">
+      <c r="G172" s="38" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="173" spans="5:7">
+      <c r="G173" s="38" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="174" spans="5:7">
+      <c r="F174" s="38" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="176" spans="5:7">
+      <c r="F176" s="38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="177" spans="6:8">
+      <c r="G177" s="38" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="178" spans="6:8">
+      <c r="G178" s="38" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="179" spans="6:8">
+      <c r="G179" s="65" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="180" spans="6:8">
+      <c r="G180" s="38" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="181" spans="6:8">
+      <c r="H181" s="46" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="182" spans="6:8">
+      <c r="G182" s="38" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="183" spans="6:8">
+      <c r="G183" s="38" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="184" spans="6:8">
+      <c r="H184" s="38" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="185" spans="6:8">
+      <c r="G185" s="38" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="186" spans="6:8">
+      <c r="G186" s="38" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="187" spans="6:8">
+      <c r="H187" s="38" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="188" spans="6:8">
+      <c r="G188" s="38" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="190" spans="6:8">
+      <c r="F190" s="38" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="191" spans="6:8">
+      <c r="F191" s="38" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="192" spans="6:8">
+      <c r="G192" s="38" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="193" spans="6:8">
+      <c r="G193" s="38" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="194" spans="6:8">
+      <c r="H194" s="38" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="195" spans="6:8">
+      <c r="H195" s="46" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="196" spans="6:8">
+      <c r="H196" s="38" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="197" spans="6:8">
+      <c r="G197" s="38" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="198" spans="6:8">
+      <c r="F198" s="38" t="s">
+        <v>808</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4540" yWindow="2080" windowWidth="25600" windowHeight="16060" tabRatio="760" activeTab="10"/>
+    <workbookView xWindow="6700" yWindow="620" windowWidth="25600" windowHeight="16060" tabRatio="760" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="903">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3386,10 +3386,6 @@
     <t>所有 4 个内边距都是 10px</t>
   </si>
   <si>
-    <t>MUI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mui框架将很多功能配置都集中在mui.init方法中，要使用某项功能，只需要在mui.init方法中完成对应参数配置即可，</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3908,6 +3904,168 @@
   <si>
     <t>var account = event.detail.account;</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展:返回上一级页面并且刷新上一级页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重写mui.back()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUI基本方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUI开发注意事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要使用MUI的样式以及MUI事件,必须引入MUI的css库文件和js库文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;script src="js/mui.min.js"&gt;&lt;/script&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;link href="css/mui.min.css" rel="stylesheet" /&gt;</t>
+  </si>
+  <si>
+    <t>在html &lt;head&gt;中引入css</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在&lt;scipt&gt;后引入js文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果未导入mui.min.js文件,会导致，比如做了带返回按钮样式的导航栏,点击返回却没有任何反应</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必要库文件的导入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUI基本控件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展案例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从A页面打开B页面，B页面为一个需要从服务端加载的列表页面，若在B页面loaded事件发生时就将其显示出来，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>因服务器数据尚未加载完毕，列表页面为空，用户体验不好；可通过预加载的方式改善用户体验通过：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一步，B页面loaded事件发生后，不自动显示；</t>
+  </si>
+  <si>
+    <t>//A页面中打开B页面，设置show的autoShow为false，则B页面在其loaded事件发生后，不会自动显示；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    url: 'B.html', </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      autoShow:false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  });</t>
+  </si>
+  <si>
+    <t>第二步，在B页面获取列表数据后，再关闭等待框、显示B页面</t>
+  </si>
+  <si>
+    <t>//B页面onload从服务器获取列表数据；</t>
+  </si>
+  <si>
+    <t>window.onload = function(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //从服务器获取数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //业务数据获取完毕，并已插入当前页面DOM；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  //注意：若为ajax请求，则需将如下代码放在处理完ajax响应数据之后；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  mui.plusReady(function(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //关闭等待框</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    plus.nativeUI.closeWaiting();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    //显示当前页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mui.currentWebview.show();</t>
+  </si>
+  <si>
+    <t>常用参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforeback</t>
+  </si>
+  <si>
+    <t>swipeBack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其值为ture，则支持在iPhone的左边缘右滑关闭当前页面返回上一级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.init({</t>
+  </si>
+  <si>
+    <t>执行beforeback参数对应的函数若返回false，则不再执行mui.back()方法</t>
+  </si>
+  <si>
+    <t>否则（返回true或无返回值），继续执行mui.back()方法；</t>
+  </si>
+  <si>
+    <t>然后通过自定义事件通知列表页面刷新数据，示例代码如下：</t>
+  </si>
+  <si>
+    <t>从列表打开详情页面，从详情页面再返回后希望刷新列表界面，此时可注册beforeback参数，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>beforeback: function(){</t>
+  </si>
+  <si>
+    <t>//获得列表界面的webview</t>
+  </si>
+  <si>
+    <t>var list = plus.webview.getWebviewById('list');</t>
+  </si>
+  <si>
+    <t>//触发列表界面的自定义事件（refresh）,从而进行数据刷新</t>
+  </si>
+  <si>
+    <t>mui.fire(list,'refresh');</t>
+  </si>
+  <si>
+    <t>//返回true，继续页面关闭逻辑</t>
+  </si>
+  <si>
+    <t>return true;</t>
   </si>
 </sst>
 </file>
@@ -4144,7 +4302,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4258,8 +4416,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="35" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4397,8 +4564,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="122">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4511,6 +4679,15 @@
     <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5897,7 +6074,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:H280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5950,17 +6127,17 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="C21" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="C22" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -5968,779 +6145,1073 @@
         <v>1</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="D24" s="38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="D25" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="D26" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="C32" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="38" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
-      <c r="C33" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
-      <c r="C35" s="38" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" s="38" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" s="38" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" s="38">
+    <row r="38" spans="3:5">
+      <c r="C38" s="38" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39" s="38">
         <v>1</v>
       </c>
+      <c r="D39" s="38" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
       <c r="D40" s="38" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="D41" s="38" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5">
+      <c r="E42" s="46" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5">
+      <c r="D44" s="38" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="E45" s="46" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5">
+      <c r="D46" s="46"/>
+      <c r="E46" s="38" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" s="38" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="38">
+        <v>1</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="D50" s="38" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
-      <c r="D41" s="38" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" s="38">
-        <v>2</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="D45" s="38" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="D46" s="38" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="D47" s="38" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4">
-      <c r="D48" s="38" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="D49" s="38" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6">
-      <c r="E50" s="38" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="F51" s="38" t="s">
-        <v>743</v>
-      </c>
-    </row>
     <row r="52" spans="3:6">
-      <c r="F52" s="38" t="s">
-        <v>744</v>
+      <c r="D52" s="38" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="D53" s="38" t="s">
+        <v>889</v>
       </c>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="38">
-        <v>3</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>757</v>
+      <c r="E54" s="38" t="s">
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="3:6">
       <c r="E55" s="38" t="s">
-        <v>785</v>
+        <v>891</v>
       </c>
     </row>
     <row r="56" spans="3:6">
-      <c r="E56" s="38" t="s">
-        <v>786</v>
+      <c r="F56" s="38" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="57" spans="3:6">
       <c r="E57" s="38" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="E58" s="38" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
     </row>
     <row r="59" spans="3:6">
-      <c r="E59" s="38" t="s">
-        <v>790</v>
+      <c r="D59" s="38" t="s">
+        <v>888</v>
       </c>
     </row>
     <row r="60" spans="3:6">
       <c r="E60" s="38" t="s">
-        <v>789</v>
+        <v>892</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="E61" s="38" t="s">
+        <v>893</v>
       </c>
     </row>
     <row r="63" spans="3:6">
       <c r="E63" s="38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="F64" s="38" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" s="38" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="F66" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8">
+      <c r="G67" s="38" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8">
+      <c r="H68" s="38" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8">
+      <c r="H69" s="38" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8">
+      <c r="H70" s="38" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8">
+      <c r="H71" s="38" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8">
+      <c r="H72" s="38" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8">
+      <c r="H73" s="38" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8">
+      <c r="G74" s="38" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8">
+      <c r="F75" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="C84" s="38">
+        <v>2</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="D85" s="38" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="D86" s="38" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="D87" s="38" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="D88" s="38" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="D89" s="38" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="E90" s="38" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="F91" s="38" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="F92" s="38" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="C94" s="38">
+        <v>3</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6">
+      <c r="E95" s="38" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6">
+      <c r="E96" s="38" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="38" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="38" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="38" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100" s="38" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" s="38" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="64" spans="3:6">
-      <c r="E64" s="38" t="s">
+    <row r="105" spans="5:5">
+      <c r="E105" s="38" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="38" t="s">
+    <row r="106" spans="5:5">
+      <c r="E106" s="38" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="38" t="s">
+    <row r="107" spans="5:5">
+      <c r="E107" s="38" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="38" t="s">
+    <row r="108" spans="5:5">
+      <c r="E108" s="38" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="38" t="s">
+    <row r="109" spans="5:5">
+      <c r="E109" s="38" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="38" t="s">
+    <row r="110" spans="5:5">
+      <c r="E110" s="38" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="38" t="s">
+    <row r="111" spans="5:5">
+      <c r="E111" s="38" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="38" t="s">
+    <row r="112" spans="5:5">
+      <c r="E112" s="38" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="38" t="s">
+    <row r="113" spans="5:5">
+      <c r="E113" s="38" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="38" t="s">
+    <row r="114" spans="5:5">
+      <c r="E114" s="38" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="74" spans="5:5">
-      <c r="E74" s="38" t="s">
+    <row r="115" spans="5:5">
+      <c r="E115" s="38" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="38" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="75" spans="5:5">
-      <c r="E75" s="38" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="38" t="s">
+    <row r="117" spans="5:5">
+      <c r="E117" s="38" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="38" t="s">
+    <row r="118" spans="5:5">
+      <c r="E118" s="38" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="78" spans="5:5">
-      <c r="E78" s="38" t="s">
+    <row r="119" spans="5:5">
+      <c r="E119" s="38" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="79" spans="5:5">
-      <c r="E79" s="38" t="s">
+    <row r="120" spans="5:5">
+      <c r="E120" s="38" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="80" spans="5:5">
-      <c r="E80" s="38" t="s">
+    <row r="121" spans="5:5">
+      <c r="E121" s="38" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" s="38" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="81" spans="3:5">
-      <c r="E81" s="38" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5">
-      <c r="E82" s="38" t="s">
+    <row r="123" spans="5:5">
+      <c r="E123" s="38" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="83" spans="3:5">
-      <c r="E83" s="38" t="s">
+    <row r="124" spans="5:5">
+      <c r="E124" s="38" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="84" spans="3:5">
-      <c r="E84" s="38" t="s">
+    <row r="125" spans="5:5">
+      <c r="E125" s="38" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="85" spans="3:5">
-      <c r="E85" s="38" t="s">
+    <row r="126" spans="5:5">
+      <c r="E126" s="38" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="86" spans="3:5">
-      <c r="E86" s="38" t="s">
+    <row r="127" spans="5:5">
+      <c r="E127" s="38" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="87" spans="3:5">
-      <c r="E87" s="38" t="s">
+    <row r="128" spans="5:5">
+      <c r="E128" s="38" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="88" spans="3:5">
-      <c r="E88" s="38" t="s">
+    <row r="129" spans="3:8">
+      <c r="E129" s="38" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="89" spans="3:5">
-      <c r="E89" s="38" t="s">
+    <row r="130" spans="3:8">
+      <c r="E130" s="38" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="90" spans="3:5">
-      <c r="E90" s="38" t="s">
+    <row r="131" spans="3:8">
+      <c r="E131" s="38" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="91" spans="3:5">
-      <c r="E91" s="38" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5">
-      <c r="C93" s="38">
+    <row r="133" spans="3:8">
+      <c r="C133" s="38">
         <v>4</v>
       </c>
-      <c r="D93" s="38" t="s">
+      <c r="D133" s="38" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8">
+      <c r="E134" s="38" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="94" spans="3:5">
-      <c r="E94" s="38" t="s">
+    <row r="135" spans="3:8">
+      <c r="E135" s="38" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="95" spans="3:5">
-      <c r="E95" s="38" t="s">
+    <row r="137" spans="3:8">
+      <c r="E137" s="38" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="97" spans="5:8">
-      <c r="E97" s="38" t="s">
+    <row r="138" spans="3:8">
+      <c r="E138" s="38">
+        <v>1</v>
+      </c>
+      <c r="F138" s="38" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="98" spans="5:8">
-      <c r="E98" s="38">
+    <row r="139" spans="3:8">
+      <c r="F139" s="38" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8">
+      <c r="F140" s="38" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8">
+      <c r="G141" s="38" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8">
+      <c r="H142" s="38" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8">
+      <c r="H143" s="38" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8">
+      <c r="G144" s="38" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="146" spans="5:8">
+      <c r="F146" s="38" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="147" spans="5:8">
+      <c r="G147" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="149" spans="5:8">
+      <c r="E149" s="38">
+        <v>2</v>
+      </c>
+      <c r="F149" s="38" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="150" spans="5:8">
+      <c r="F150" s="38" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="151" spans="5:8">
+      <c r="G151" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="152" spans="5:8">
+      <c r="H152" s="38" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="153" spans="5:8">
+      <c r="G153" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="155" spans="5:8">
+      <c r="E155" s="38">
+        <v>3</v>
+      </c>
+      <c r="F155" s="38" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="158" spans="5:8">
+      <c r="E158" s="38" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="159" spans="5:8">
+      <c r="F159" s="38" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7">
+      <c r="C165" s="38">
+        <v>5</v>
+      </c>
+      <c r="D165" s="38" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7">
+      <c r="E166" s="38" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7">
+      <c r="E167" s="38" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7">
+      <c r="F168" s="38" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7">
+      <c r="G169" s="38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7">
+      <c r="G170" s="38" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7">
+      <c r="F171" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7">
+      <c r="E174" s="38" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7">
+      <c r="F175" s="38" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7">
+      <c r="F176" s="38" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="177" spans="6:7">
+      <c r="F177" s="38" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="178" spans="6:7">
+      <c r="G178" s="38" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="179" spans="6:7">
+      <c r="G179" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="180" spans="6:7">
+      <c r="G180" s="38" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="181" spans="6:7">
+      <c r="G181" s="38" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="182" spans="6:7">
+      <c r="G182" s="38" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="183" spans="6:7">
+      <c r="G183" s="38" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="184" spans="6:7">
+      <c r="G184" s="38" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="186" spans="6:7">
+      <c r="F186" s="38" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="187" spans="6:7">
+      <c r="G187" s="38" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="188" spans="6:7">
+      <c r="G188" s="38" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="189" spans="6:7">
+      <c r="G189" s="38" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="190" spans="6:7">
+      <c r="G190" s="38" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="191" spans="6:7">
+      <c r="G191" s="38" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="192" spans="6:7">
+      <c r="G192" s="38" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7">
+      <c r="G193" s="38" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7">
+      <c r="G194" s="38" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7">
+      <c r="G195" s="38" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="196" spans="3:7">
+      <c r="G196" s="38" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="197" spans="3:7">
+      <c r="G197" s="38" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="198" spans="3:7">
+      <c r="G198" s="38" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="199" spans="3:7">
+      <c r="G199" s="38" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="202" spans="3:7">
+      <c r="C202" s="38">
+        <v>6</v>
+      </c>
+      <c r="D202" s="38" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="203" spans="3:7">
+      <c r="E203" s="38" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="204" spans="3:7">
+      <c r="E204" s="38" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="205" spans="3:7">
+      <c r="E205" s="38">
         <v>1</v>
       </c>
-      <c r="F98" s="38" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="99" spans="5:8">
-      <c r="F99" s="38" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="100" spans="5:8">
-      <c r="F100" s="38" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="101" spans="5:8">
-      <c r="G101" s="38" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8">
-      <c r="H102" s="38" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="103" spans="5:8">
-      <c r="H103" s="38" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="104" spans="5:8">
-      <c r="G104" s="38" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="106" spans="5:8">
-      <c r="F106" s="38" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="107" spans="5:8">
-      <c r="G107" s="38" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="109" spans="5:8">
-      <c r="E109" s="38">
+      <c r="F205" s="38" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="206" spans="3:7">
+      <c r="E206" s="38">
         <v>2</v>
       </c>
-      <c r="F109" s="38" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="110" spans="5:8">
-      <c r="F110" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="111" spans="5:8">
-      <c r="G111" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="112" spans="5:8">
-      <c r="H112" s="38" t="s">
+      <c r="F206" s="38" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="207" spans="3:7">
+      <c r="E207" s="38">
+        <v>3</v>
+      </c>
+      <c r="F207" s="38" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="209" spans="5:8">
+      <c r="E209" s="38" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="210" spans="5:8">
+      <c r="E210" s="38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="211" spans="5:8">
+      <c r="E211" s="38">
+        <v>1</v>
+      </c>
+      <c r="F211" s="38" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="212" spans="5:8">
+      <c r="F212" s="38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="215" spans="5:8">
+      <c r="F215" s="38" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="216" spans="5:8">
+      <c r="F216" s="38" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="217" spans="5:8">
+      <c r="G217" s="38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="218" spans="5:8">
+      <c r="G218" s="38" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="219" spans="5:8">
+      <c r="G219" s="38" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="220" spans="5:8">
+      <c r="G220" s="38" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="221" spans="5:8">
+      <c r="H221" s="46" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="222" spans="5:8">
+      <c r="G222" s="38" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="223" spans="5:8">
+      <c r="G223" s="38" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="224" spans="5:8">
+      <c r="H224" s="38" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="225" spans="5:8">
+      <c r="G225" s="38" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="226" spans="5:8">
+      <c r="G226" s="38" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="227" spans="5:8">
+      <c r="H227" s="38" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="228" spans="5:8">
+      <c r="G228" s="38" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="229" spans="5:8">
+      <c r="F229" s="38" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="113" spans="3:7">
-      <c r="G113" s="38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="115" spans="3:7">
-      <c r="E115" s="38">
-        <v>3</v>
-      </c>
-      <c r="F115" s="38" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="118" spans="3:7">
-      <c r="C118" s="38">
-        <v>5</v>
-      </c>
-      <c r="D118" s="38" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="119" spans="3:7">
-      <c r="E119" s="38" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="120" spans="3:7">
-      <c r="E120" s="38" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="121" spans="3:7">
-      <c r="F121" s="38" t="s">
+    <row r="231" spans="5:8">
+      <c r="F231" s="38" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="232" spans="5:8">
+      <c r="F232" s="38" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="233" spans="5:8">
+      <c r="G233" s="38" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="234" spans="5:8">
+      <c r="G234" s="46" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="235" spans="5:8">
+      <c r="G235" s="38" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="236" spans="5:8">
+      <c r="F236" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="239" spans="5:8">
+      <c r="E239" s="38">
+        <v>2</v>
+      </c>
+      <c r="F239" s="38" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="240" spans="5:8">
+      <c r="F240" s="38" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="241" spans="6:7">
+      <c r="F241" s="38" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="242" spans="6:7">
+      <c r="G242" s="38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="243" spans="6:7">
+      <c r="G243" s="38" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="122" spans="3:7">
-      <c r="G122" s="38" t="s">
+    <row r="244" spans="6:7">
+      <c r="F244" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="246" spans="6:7">
+      <c r="F246" s="66" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="247" spans="6:7">
+      <c r="F247" s="38" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="248" spans="6:7">
+      <c r="G248" s="38" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="249" spans="6:7">
+      <c r="G249" s="38" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="250" spans="6:7">
+      <c r="F250" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="252" spans="6:7">
+      <c r="F252" s="38" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="253" spans="6:7">
+      <c r="G253" s="38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="254" spans="6:7">
+      <c r="G254" s="38" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="123" spans="3:7">
-      <c r="G123" s="38" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="124" spans="3:7">
-      <c r="F124" s="38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="126" spans="3:7">
-      <c r="C126" s="38">
-        <v>6</v>
-      </c>
-      <c r="D126" s="38" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="127" spans="3:7">
-      <c r="E127" s="38" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="128" spans="3:7">
-      <c r="E128" s="38" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="129" spans="5:7">
-      <c r="E129" s="38">
-        <v>1</v>
-      </c>
-      <c r="F129" s="38" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="130" spans="5:7">
-      <c r="E130" s="38">
-        <v>2</v>
-      </c>
-      <c r="F130" s="38" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="131" spans="5:7">
-      <c r="E131" s="38">
-        <v>3</v>
-      </c>
-      <c r="F131" s="38" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="133" spans="5:7">
-      <c r="E133" s="38" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="134" spans="5:7">
-      <c r="E134" s="38" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="135" spans="5:7">
-      <c r="E135" s="38">
-        <v>1</v>
-      </c>
-      <c r="F135" s="38" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="136" spans="5:7">
-      <c r="F136" s="38" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="139" spans="5:7">
-      <c r="F139" s="38" t="s">
+    <row r="255" spans="6:7">
+      <c r="G255" s="65" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="256" spans="6:7">
+      <c r="G256" s="38" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="257" spans="6:8">
+      <c r="H257" s="46" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="258" spans="6:8">
+      <c r="G258" s="38" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="259" spans="6:8">
+      <c r="G259" s="38" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="260" spans="6:8">
+      <c r="H260" s="38" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="261" spans="6:8">
+      <c r="G261" s="38" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="262" spans="6:8">
+      <c r="G262" s="38" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="263" spans="6:8">
+      <c r="H263" s="38" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="264" spans="6:8">
+      <c r="G264" s="38" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="266" spans="6:8">
+      <c r="F266" s="38" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="140" spans="5:7">
-      <c r="F140" s="38" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="141" spans="5:7">
-      <c r="G141" s="38" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="142" spans="5:7">
-      <c r="G142" s="38" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="143" spans="5:7">
-      <c r="G143" s="38" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="144" spans="5:7">
-      <c r="G144" s="38" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="145" spans="6:8">
-      <c r="H145" s="46" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="146" spans="6:8">
-      <c r="G146" s="38" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="147" spans="6:8">
-      <c r="G147" s="38" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="148" spans="6:8">
-      <c r="H148" s="38" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="149" spans="6:8">
-      <c r="G149" s="38" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="150" spans="6:8">
-      <c r="G150" s="38" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="151" spans="6:8">
-      <c r="H151" s="38" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="152" spans="6:8">
-      <c r="G152" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="153" spans="6:8">
-      <c r="F153" s="38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="155" spans="6:8">
-      <c r="F155" s="38" t="s">
+    <row r="267" spans="6:8">
+      <c r="F267" s="38" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="156" spans="6:8">
-      <c r="F156" s="38" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="157" spans="6:8">
-      <c r="G157" s="38" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="158" spans="6:8">
-      <c r="G158" s="46" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="159" spans="6:8">
-      <c r="G159" s="38" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="160" spans="6:8">
-      <c r="F160" s="38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="163" spans="5:7">
-      <c r="E163" s="38">
-        <v>2</v>
-      </c>
-      <c r="F163" s="38" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="164" spans="5:7">
-      <c r="F164" s="38" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="165" spans="5:7">
-      <c r="F165" s="38" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="166" spans="5:7">
-      <c r="G166" s="38" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="167" spans="5:7">
-      <c r="G167" s="38" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="168" spans="5:7">
-      <c r="F168" s="38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="170" spans="5:7">
-      <c r="F170" s="66" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="171" spans="5:7">
-      <c r="F171" s="38" t="s">
+    <row r="268" spans="6:8">
+      <c r="G268" s="38" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="172" spans="5:7">
-      <c r="G172" s="38" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="173" spans="5:7">
-      <c r="G173" s="38" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="174" spans="5:7">
-      <c r="F174" s="38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="176" spans="5:7">
-      <c r="F176" s="38" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="177" spans="6:8">
-      <c r="G177" s="38" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="178" spans="6:8">
-      <c r="G178" s="38" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="179" spans="6:8">
-      <c r="G179" s="65" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="180" spans="6:8">
-      <c r="G180" s="38" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="181" spans="6:8">
-      <c r="H181" s="46" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="182" spans="6:8">
-      <c r="G182" s="38" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="183" spans="6:8">
-      <c r="G183" s="38" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="184" spans="6:8">
-      <c r="H184" s="38" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="185" spans="6:8">
-      <c r="G185" s="38" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="186" spans="6:8">
-      <c r="G186" s="38" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="187" spans="6:8">
-      <c r="H187" s="38" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="188" spans="6:8">
-      <c r="G188" s="38" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="190" spans="6:8">
-      <c r="F190" s="38" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="191" spans="6:8">
-      <c r="F191" s="38" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="192" spans="6:8">
-      <c r="G192" s="38" t="s">
+    <row r="269" spans="6:8">
+      <c r="G269" s="38" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="270" spans="6:8">
+      <c r="H270" s="38" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="193" spans="6:8">
-      <c r="G193" s="38" t="s">
+    <row r="271" spans="6:8">
+      <c r="H271" s="46" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="194" spans="6:8">
-      <c r="H194" s="38" t="s">
+    <row r="272" spans="6:8">
+      <c r="H272" s="38" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="195" spans="6:8">
-      <c r="H195" s="46" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="196" spans="6:8">
-      <c r="H196" s="38" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="197" spans="6:8">
-      <c r="G197" s="38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="198" spans="6:8">
-      <c r="F198" s="38" t="s">
-        <v>808</v>
+    <row r="273" spans="3:7">
+      <c r="G273" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="274" spans="3:7">
+      <c r="F274" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="280" spans="3:7">
+      <c r="C280" s="67" t="s">
+        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="620" windowWidth="25600" windowHeight="16060" tabRatio="760" activeTab="10"/>
+    <workbookView xWindow="6700" yWindow="620" windowWidth="25600" windowHeight="16060" tabRatio="760"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,21 @@
     <sheet name="Hybrid" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_.gitignore">Git的使用!$D$347</definedName>
-    <definedName name="git_add">Git的使用!$D$85</definedName>
-    <definedName name="git_clone">Git的使用!$D$219</definedName>
-    <definedName name="git_commit">Git的使用!$D$106</definedName>
-    <definedName name="git_config">Git的使用!$D$368</definedName>
-    <definedName name="git_diff">Git的使用!$D$133</definedName>
-    <definedName name="git_fetch">Git的使用!$D$244</definedName>
-    <definedName name="git_pull">Git的使用!$D$300</definedName>
-    <definedName name="git_push">Git的使用!$D$257</definedName>
-    <definedName name="git_remote">Git的使用!$D$230</definedName>
-    <definedName name="git_rm">Git的使用!$D$198</definedName>
-    <definedName name="内容.Git_分支管理">Git的使用!$C$386</definedName>
-    <definedName name="内容.Git_管理本地仓库">Git的使用!$C$84</definedName>
-    <definedName name="内容.Git_配置">Git的使用!$C$346</definedName>
-    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$218</definedName>
+    <definedName name="_.gitignore">Git的使用!$D$381</definedName>
+    <definedName name="git_add">Git的使用!$D$88</definedName>
+    <definedName name="git_clone">Git的使用!$D$222</definedName>
+    <definedName name="git_commit">Git的使用!$D$109</definedName>
+    <definedName name="git_config">Git的使用!$D$402</definedName>
+    <definedName name="git_diff">Git的使用!$D$136</definedName>
+    <definedName name="git_fetch">Git的使用!$D$247</definedName>
+    <definedName name="git_pull">Git的使用!$D$334</definedName>
+    <definedName name="git_push">Git的使用!$D$260</definedName>
+    <definedName name="git_remote">Git的使用!$D$233</definedName>
+    <definedName name="git_rm">Git的使用!$D$201</definedName>
+    <definedName name="内容.Git_分支管理">Git的使用!$C$429</definedName>
+    <definedName name="内容.Git_管理本地仓库">Git的使用!$C$87</definedName>
+    <definedName name="内容.Git_配置">Git的使用!$C$380</definedName>
+    <definedName name="内容.Git_与远程主机的交互">Git的使用!$C$221</definedName>
     <definedName name="内容.JavaScript对象构建方式">JavaScript!$D$117</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="940">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -328,10 +328,6 @@
   </si>
   <si>
     <t xml:space="preserve">   7c68ad8..c18b99c  master -&gt; master</t>
-  </si>
-  <si>
-    <t>a.远程主机名可以通过2的 git remote获取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>b.如果省略远程分支名,则表示将本地分支推送与之存在"追踪关系"的远程分支(通常两者的名字相同)</t>
@@ -4066,6 +4062,143 @@
   </si>
   <si>
     <t>return true;</t>
+  </si>
+  <si>
+    <t>git config push.default matching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global push.default simple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置推送到远程服务器的matching/simple方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从git 2.0开始git 默认的是simple方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.远程主机名可以通过2的 git remote查看</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>matching</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>When push.default is set to 'matching', git will push local branches</t>
+  </si>
+  <si>
+    <t>to the remote branches that already exist with the same name.</t>
+  </si>
+  <si>
+    <t>推送所有名字相同的分支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只推送当前的分支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>simple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/johnnywww/article/details/8667168</t>
+  </si>
+  <si>
+    <t>强制推送本地更新到远程服务器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>git push origin master:master -f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果确认了自己的工作目录是最新的，但是却提示远程服务器版本更加新而无法推送的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ! [rejected]        master -&gt; master (non-fast-forward)</t>
+  </si>
+  <si>
+    <t>error: failed to push some refs to 'https://github.com/sokasyn/KnowledgeSet.git'</t>
+  </si>
+  <si>
+    <t>hint: Updates were rejected because the tip of your current branch is behind</t>
+  </si>
+  <si>
+    <t>hint: its remote counterpart. Integrate the remote changes (e.g.</t>
+  </si>
+  <si>
+    <t>hint: 'git pull ...') before pushing again.</t>
+  </si>
+  <si>
+    <t>hint: See the 'Note about fast-forwards' in 'git push --help' for details.</t>
+  </si>
+  <si>
+    <t>$ git push origin master:master</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Counting objects: 11, done.</t>
+  </si>
+  <si>
+    <t>Compressing objects: 100% (11/11), done.</t>
+  </si>
+  <si>
+    <t>Writing objects: 100% (11/11), 54.87 KiB | 0 bytes/s, done.</t>
+  </si>
+  <si>
+    <t>Total 11 (delta 8), reused 0 (delta 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + 5b48ed5...5635551 master -&gt; master (forced update)</t>
+  </si>
+  <si>
+    <t>$ git push origin master -f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.ihref.com/read-16369.html</t>
+  </si>
+  <si>
+    <t>原因</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果只是一个人在开发,远程的更新其实只依赖于你，那么就不存在其他人往上面更新内容的可能，这时候，怎么会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能原因是团队的其他成员往这个分支上推送了更新,当你在本地也做了修改，但是之前没有获取这部分的更新;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现服务器比我本地版本还新呢？很可能是你本地使用了git commit --amend这样的命令导致.我遇到两次都是因为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我做了一次提交，但是还有点小修改，想跟上一次提交作为一个整体，包括提交信息,所以用了git commit --amend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4701,13 +4834,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>317</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4739,7 +4872,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7791450" cy="5133975"/>
@@ -4772,13 +4905,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5614,7 +5747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -5634,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -5647,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -5665,17 +5798,17 @@
     </row>
     <row r="13" spans="2:4">
       <c r="C13" s="10" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="D14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -5688,31 +5821,31 @@
     </row>
     <row r="17" spans="3:4" s="8" customFormat="1">
       <c r="C17" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="3:4" s="8" customFormat="1">
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="3:4" s="8" customFormat="1">
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="3:4" s="8" customFormat="1">
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="3:4" s="8" customFormat="1">
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="3:4" s="8" customFormat="1">
@@ -5720,60 +5853,60 @@
     </row>
     <row r="23" spans="3:4" s="8" customFormat="1">
       <c r="C23" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="3:4" s="8" customFormat="1">
       <c r="C24" s="13"/>
       <c r="D24" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="3:4" s="8" customFormat="1">
       <c r="C25" s="13"/>
       <c r="D25" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="3:4" s="8" customFormat="1">
       <c r="C26" s="13"/>
       <c r="D26" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="3:4" s="8" customFormat="1">
       <c r="C27" s="13"/>
       <c r="D27" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="3:4" s="8" customFormat="1">
       <c r="C28" s="13"/>
       <c r="D28" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="29" spans="3:4" s="8" customFormat="1">
       <c r="C29" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="3:4" s="8" customFormat="1">
       <c r="C30" s="7"/>
       <c r="D30" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="3:4" s="8" customFormat="1">
       <c r="C31" s="6"/>
       <c r="D31" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="3:4" s="8" customFormat="1">
       <c r="C32" s="6"/>
       <c r="D32" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -5781,12 +5914,12 @@
         <v>3</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="D35" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -5794,22 +5927,22 @@
         <v>4</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="D39" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="D40" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -5817,27 +5950,27 @@
         <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="D46" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -5845,27 +5978,27 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="C52" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="D53" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="D54" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="D55" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -5908,17 +6041,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5926,135 +6059,135 @@
         <v>1</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="38" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" s="38" t="s">
+        <v>695</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>696</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="38" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="D17" s="38" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="E19" s="38" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="E20" s="38" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="38" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="38" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="38" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="D34" s="38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="E35" s="38" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="F36" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="F37" s="38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="F38" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="F39" s="38" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="E41" s="38" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="F42" s="38" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="F43" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="F44" s="38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="E46" s="38" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="F47" s="38" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="F48" s="38" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="50" spans="5:6">
       <c r="E50" s="38" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="51" spans="5:6">
       <c r="F51" s="38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -6076,7 +6209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -6086,58 +6219,58 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="D5" s="38" t="s">
         <v>533</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="D6" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="38" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="C13" s="38" t="s">
+        <v>702</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>703</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" s="38" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="38" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="C21" s="38" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="C22" s="38" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -6145,52 +6278,52 @@
         <v>1</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="D24" s="38" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="D25" s="38" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="D26" s="38" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="38" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="C32" s="38" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="38" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="38" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="C36" s="38" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="3:5">
       <c r="C38" s="38" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="39" spans="3:5">
@@ -6198,43 +6331,43 @@
         <v>1</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="D40" s="38" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="41" spans="3:5">
       <c r="D41" s="38" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="E42" s="46" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="44" spans="3:5">
       <c r="D44" s="38" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="45" spans="3:5">
       <c r="E45" s="46" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="46" spans="3:5">
       <c r="D46" s="46"/>
       <c r="E46" s="38" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="48" spans="3:5">
       <c r="C48" s="38" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="49" spans="3:6">
@@ -6242,122 +6375,122 @@
         <v>1</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="50" spans="3:6">
       <c r="D50" s="38" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="52" spans="3:6">
       <c r="D52" s="38" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="53" spans="3:6">
       <c r="D53" s="38" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="54" spans="3:6">
       <c r="E54" s="38" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="55" spans="3:6">
       <c r="E55" s="38" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="56" spans="3:6">
       <c r="F56" s="38" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="57" spans="3:6">
       <c r="E57" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="59" spans="3:6">
       <c r="D59" s="38" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="60" spans="3:6">
       <c r="E60" s="38" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="61" spans="3:6">
       <c r="E61" s="38" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="63" spans="3:6">
       <c r="E63" s="38" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="64" spans="3:6">
       <c r="F64" s="38" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="65" spans="6:8">
       <c r="F65" s="38" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="66" spans="6:8">
       <c r="F66" s="38" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="67" spans="6:8">
       <c r="G67" s="38" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="68" spans="6:8">
       <c r="H68" s="38" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="69" spans="6:8">
       <c r="H69" s="38" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="70" spans="6:8">
       <c r="H70" s="38" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="71" spans="6:8">
       <c r="H71" s="38" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="72" spans="6:8">
       <c r="H72" s="38" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="73" spans="6:8">
       <c r="H73" s="38" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="74" spans="6:8">
       <c r="G74" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="6:8">
       <c r="F75" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="84" spans="3:6">
@@ -6365,47 +6498,47 @@
         <v>2</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="85" spans="3:6">
       <c r="D85" s="38" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" spans="3:6">
       <c r="D86" s="38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="87" spans="3:6">
       <c r="D87" s="38" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="88" spans="3:6">
       <c r="D88" s="38" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="89" spans="3:6">
       <c r="D89" s="38" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" spans="3:6">
       <c r="E90" s="38" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="91" spans="3:6">
       <c r="F91" s="38" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="92" spans="3:6">
       <c r="F92" s="38" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="94" spans="3:6">
@@ -6413,182 +6546,182 @@
         <v>3</v>
       </c>
       <c r="D94" s="38" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="95" spans="3:6">
       <c r="E95" s="38" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="96" spans="3:6">
       <c r="E96" s="38" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" s="38" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" s="38" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" s="38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="100" spans="5:5">
       <c r="E100" s="38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="103" spans="5:5">
       <c r="E103" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="104" spans="5:5">
       <c r="E104" s="38" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="106" spans="5:5">
       <c r="E106" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" s="38" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="108" spans="5:5">
       <c r="E108" s="38" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" s="38" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="110" spans="5:5">
       <c r="E110" s="38" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="111" spans="5:5">
       <c r="E111" s="38" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="112" spans="5:5">
       <c r="E112" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" s="38" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="114" spans="5:5">
       <c r="E114" s="38" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="115" spans="5:5">
       <c r="E115" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="116" spans="5:5">
       <c r="E116" s="38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" s="38" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="118" spans="5:5">
       <c r="E118" s="38" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" s="38" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="120" spans="5:5">
       <c r="E120" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="121" spans="5:5">
       <c r="E121" s="38" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="122" spans="5:5">
       <c r="E122" s="38" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="123" spans="5:5">
       <c r="E123" s="38" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" s="38" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" s="38" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" s="38" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" s="38" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" s="38" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="129" spans="3:8">
       <c r="E129" s="38" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="130" spans="3:8">
       <c r="E130" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="131" spans="3:8">
       <c r="E131" s="38" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="133" spans="3:8">
@@ -6596,22 +6729,22 @@
         <v>4</v>
       </c>
       <c r="D133" s="38" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="134" spans="3:8">
       <c r="E134" s="38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="135" spans="3:8">
       <c r="E135" s="38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="137" spans="3:8">
       <c r="E137" s="38" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="138" spans="3:8">
@@ -6619,47 +6752,47 @@
         <v>1</v>
       </c>
       <c r="F138" s="38" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="139" spans="3:8">
       <c r="F139" s="38" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="140" spans="3:8">
       <c r="F140" s="38" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="141" spans="3:8">
       <c r="G141" s="38" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="142" spans="3:8">
       <c r="H142" s="38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="143" spans="3:8">
       <c r="H143" s="38" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="144" spans="3:8">
       <c r="G144" s="38" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="146" spans="5:8">
       <c r="F146" s="38" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="147" spans="5:8">
       <c r="G147" s="38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="149" spans="5:8">
@@ -6667,27 +6800,27 @@
         <v>2</v>
       </c>
       <c r="F149" s="38" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="150" spans="5:8">
       <c r="F150" s="38" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="151" spans="5:8">
       <c r="G151" s="38" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="152" spans="5:8">
       <c r="H152" s="38" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="153" spans="5:8">
       <c r="G153" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="155" spans="5:8">
@@ -6695,17 +6828,17 @@
         <v>3</v>
       </c>
       <c r="F155" s="38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="158" spans="5:8">
       <c r="E158" s="38" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="159" spans="5:8">
       <c r="F159" s="38" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="165" spans="3:7">
@@ -6713,162 +6846,162 @@
         <v>5</v>
       </c>
       <c r="D165" s="38" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="166" spans="3:7">
       <c r="E166" s="38" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="167" spans="3:7">
       <c r="E167" s="38" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="168" spans="3:7">
       <c r="F168" s="38" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="169" spans="3:7">
       <c r="G169" s="38" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="170" spans="3:7">
       <c r="G170" s="38" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="171" spans="3:7">
       <c r="F171" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="174" spans="3:7">
       <c r="E174" s="38" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="175" spans="3:7">
       <c r="F175" s="38" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="176" spans="3:7">
       <c r="F176" s="38" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="177" spans="6:7">
       <c r="F177" s="38" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="178" spans="6:7">
       <c r="G178" s="38" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="179" spans="6:7">
       <c r="G179" s="38" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="180" spans="6:7">
       <c r="G180" s="38" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="181" spans="6:7">
       <c r="G181" s="38" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="182" spans="6:7">
       <c r="G182" s="38" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="183" spans="6:7">
       <c r="G183" s="38" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="184" spans="6:7">
       <c r="G184" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="186" spans="6:7">
       <c r="F186" s="38" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="187" spans="6:7">
       <c r="G187" s="38" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="188" spans="6:7">
       <c r="G188" s="38" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="189" spans="6:7">
       <c r="G189" s="38" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="190" spans="6:7">
       <c r="G190" s="38" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="191" spans="6:7">
       <c r="G191" s="38" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="192" spans="6:7">
       <c r="G192" s="38" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="193" spans="3:7">
       <c r="G193" s="38" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="194" spans="3:7">
       <c r="G194" s="38" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="195" spans="3:7">
       <c r="G195" s="38" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="196" spans="3:7">
       <c r="G196" s="38" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="197" spans="3:7">
       <c r="G197" s="38" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="198" spans="3:7">
       <c r="G198" s="38" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="199" spans="3:7">
       <c r="G199" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="202" spans="3:7">
@@ -6876,17 +7009,17 @@
         <v>6</v>
       </c>
       <c r="D202" s="38" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="203" spans="3:7">
       <c r="E203" s="38" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="204" spans="3:7">
       <c r="E204" s="38" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="205" spans="3:7">
@@ -6894,7 +7027,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="38" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="206" spans="3:7">
@@ -6902,7 +7035,7 @@
         <v>2</v>
       </c>
       <c r="F206" s="38" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="207" spans="3:7">
@@ -6910,17 +7043,17 @@
         <v>3</v>
       </c>
       <c r="F207" s="38" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="209" spans="5:8">
       <c r="E209" s="38" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="210" spans="5:8">
       <c r="E210" s="38" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="211" spans="5:8">
@@ -6928,117 +7061,117 @@
         <v>1</v>
       </c>
       <c r="F211" s="38" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="212" spans="5:8">
       <c r="F212" s="38" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="215" spans="5:8">
       <c r="F215" s="38" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="216" spans="5:8">
       <c r="F216" s="38" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="217" spans="5:8">
       <c r="G217" s="38" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="218" spans="5:8">
       <c r="G218" s="38" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="219" spans="5:8">
       <c r="G219" s="38" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="220" spans="5:8">
       <c r="G220" s="38" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="221" spans="5:8">
       <c r="H221" s="46" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="222" spans="5:8">
       <c r="G222" s="38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="223" spans="5:8">
       <c r="G223" s="38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="224" spans="5:8">
       <c r="H224" s="38" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="225" spans="5:8">
       <c r="G225" s="38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="226" spans="5:8">
       <c r="G226" s="38" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="227" spans="5:8">
       <c r="H227" s="38" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="228" spans="5:8">
       <c r="G228" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="229" spans="5:8">
       <c r="F229" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="231" spans="5:8">
       <c r="F231" s="38" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="232" spans="5:8">
       <c r="F232" s="38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="233" spans="5:8">
       <c r="G233" s="38" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="234" spans="5:8">
       <c r="G234" s="46" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="235" spans="5:8">
       <c r="G235" s="38" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="236" spans="5:8">
       <c r="F236" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="239" spans="5:8">
@@ -7046,172 +7179,172 @@
         <v>2</v>
       </c>
       <c r="F239" s="38" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="240" spans="5:8">
       <c r="F240" s="38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="241" spans="6:7">
       <c r="F241" s="38" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="242" spans="6:7">
       <c r="G242" s="38" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="243" spans="6:7">
       <c r="G243" s="38" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="244" spans="6:7">
       <c r="F244" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="246" spans="6:7">
       <c r="F246" s="66" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="247" spans="6:7">
       <c r="F247" s="38" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="248" spans="6:7">
       <c r="G248" s="38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="249" spans="6:7">
       <c r="G249" s="38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="250" spans="6:7">
       <c r="F250" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="252" spans="6:7">
       <c r="F252" s="38" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="253" spans="6:7">
       <c r="G253" s="38" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="254" spans="6:7">
       <c r="G254" s="38" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="255" spans="6:7">
       <c r="G255" s="65" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="256" spans="6:7">
       <c r="G256" s="38" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="257" spans="6:8">
       <c r="H257" s="46" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="258" spans="6:8">
       <c r="G258" s="38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="259" spans="6:8">
       <c r="G259" s="38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="260" spans="6:8">
       <c r="H260" s="38" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="261" spans="6:8">
       <c r="G261" s="38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="262" spans="6:8">
       <c r="G262" s="38" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="263" spans="6:8">
       <c r="H263" s="38" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="264" spans="6:8">
       <c r="G264" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="266" spans="6:8">
       <c r="F266" s="38" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="267" spans="6:8">
       <c r="F267" s="38" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="268" spans="6:8">
       <c r="G268" s="38" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="269" spans="6:8">
       <c r="G269" s="38" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="270" spans="6:8">
       <c r="H270" s="38" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="271" spans="6:8">
       <c r="H271" s="46" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="272" spans="6:8">
       <c r="H272" s="38" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="273" spans="3:7">
       <c r="G273" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="274" spans="3:7">
       <c r="F274" s="38" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="280" spans="3:7">
       <c r="C280" s="67" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -7231,7 +7364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N386"/>
+  <dimension ref="A1:N429"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -7248,7 +7381,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7257,1393 +7390,1367 @@
     </row>
     <row r="3" spans="1:4" outlineLevel="1">
       <c r="B3" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:4" outlineLevel="1">
       <c r="B4" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:4" outlineLevel="1">
       <c r="B5" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:4" outlineLevel="1">
       <c r="B6" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:4" outlineLevel="1">
       <c r="B7" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:4" outlineLevel="1">
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="9" spans="1:4" outlineLevel="1">
-      <c r="C9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="1">
-      <c r="B10" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="1">
-      <c r="B11" s="1"/>
-      <c r="C11" s="11" t="s">
-        <v>226</v>
-      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" outlineLevel="1">
-      <c r="B12" s="12"/>
-      <c r="D12" s="8" t="s">
-        <v>586</v>
-      </c>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:4" outlineLevel="1">
-      <c r="B13" s="12"/>
-      <c r="D13" s="8" t="s">
-        <v>587</v>
-      </c>
+      <c r="B13" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:4" outlineLevel="1">
-      <c r="B14" s="12"/>
-      <c r="D14" s="8" t="s">
-        <v>588</v>
+      <c r="B14" s="1"/>
+      <c r="C14" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:4" outlineLevel="1">
       <c r="B15" s="12"/>
       <c r="D15" s="8" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="16" spans="1:4" outlineLevel="1">
-      <c r="B16" s="8"/>
+      <c r="B16" s="12"/>
+      <c r="D16" s="8" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="17" spans="2:4" outlineLevel="1">
-      <c r="B17" s="1"/>
-      <c r="C17" s="11" t="s">
-        <v>261</v>
+      <c r="B17" s="12"/>
+      <c r="D17" s="8" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="2:4" outlineLevel="1">
-      <c r="B18" s="1"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="D18" s="8" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
     </row>
     <row r="19" spans="2:4" outlineLevel="1">
-      <c r="B19" s="12"/>
-      <c r="D19" s="8" t="s">
-        <v>590</v>
-      </c>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:4" outlineLevel="1">
-      <c r="B20" s="12"/>
-      <c r="D20" s="8" t="s">
-        <v>591</v>
+      <c r="B20" s="1"/>
+      <c r="C20" s="11" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="2:4" outlineLevel="1">
-      <c r="B21" s="12"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="11"/>
       <c r="D21" s="8" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="22" spans="2:4" outlineLevel="1">
-      <c r="B22" s="1"/>
-      <c r="C22" s="11" t="s">
-        <v>262</v>
+      <c r="B22" s="12"/>
+      <c r="D22" s="8" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="2:4" outlineLevel="1">
       <c r="B23" s="12"/>
       <c r="D23" s="8" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="2:4" outlineLevel="1">
       <c r="B24" s="12"/>
       <c r="D24" s="8" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="2:4" outlineLevel="1">
-      <c r="B25" s="12"/>
-      <c r="D25" s="8" t="s">
-        <v>583</v>
+      <c r="B25" s="1"/>
+      <c r="C25" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="2:4" outlineLevel="1">
       <c r="B26" s="12"/>
       <c r="D26" s="8" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" outlineLevel="1">
+      <c r="B27" s="12"/>
+      <c r="D27" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" outlineLevel="1">
+      <c r="B28" s="12"/>
+      <c r="D28" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" outlineLevel="1">
+      <c r="B29" s="12"/>
+      <c r="D29" s="8" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" outlineLevel="1">
+      <c r="B30" s="8"/>
+      <c r="D30" s="8" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="27" spans="2:4" outlineLevel="1">
-      <c r="B27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" outlineLevel="1">
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="2:4" outlineLevel="1">
-      <c r="B29" s="1"/>
-      <c r="C29" s="11" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" outlineLevel="1">
-      <c r="B30" s="12"/>
-      <c r="D30" s="8" t="s">
+    <row r="31" spans="2:4" outlineLevel="1">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="2:4" outlineLevel="1">
+      <c r="B32" s="1"/>
+      <c r="C32" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" outlineLevel="1">
+      <c r="B33" s="12"/>
+      <c r="D33" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" outlineLevel="1">
+      <c r="B34" s="12"/>
+      <c r="D34" s="8" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="31" spans="2:4" outlineLevel="1">
-      <c r="B31" s="12"/>
-      <c r="D31" s="8" t="s">
+    <row r="35" spans="2:4" outlineLevel="1">
+      <c r="B35" s="8"/>
+      <c r="D35" s="8" t="s">
         <v>595</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" outlineLevel="1">
-      <c r="B32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" outlineLevel="1">
-      <c r="B33" s="8"/>
-      <c r="D33" s="8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" outlineLevel="1">
-      <c r="B34" s="1"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="2:4" outlineLevel="1">
-      <c r="B35" s="12"/>
-      <c r="C35" s="7" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="36" spans="2:4" outlineLevel="1">
       <c r="B36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="37" spans="2:4" outlineLevel="1">
-      <c r="B37" s="8"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="2:4" outlineLevel="1">
-      <c r="B38" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C38" s="8"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="39" spans="2:4" outlineLevel="1">
-      <c r="B39" s="13"/>
-      <c r="C39" s="11" t="s">
-        <v>393</v>
+      <c r="B39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="2:4" outlineLevel="1">
-      <c r="B40" s="13"/>
-      <c r="C40" s="11" t="s">
-        <v>394</v>
-      </c>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="2:4" outlineLevel="1">
-      <c r="B41" s="13"/>
-      <c r="C41" s="11" t="s">
-        <v>395</v>
-      </c>
+      <c r="B41" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" spans="2:4" outlineLevel="1">
       <c r="B42" s="13"/>
       <c r="C42" s="11" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="2:4" outlineLevel="1">
       <c r="B43" s="13"/>
       <c r="C43" s="11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" outlineLevel="1">
+      <c r="B44" s="13"/>
+      <c r="C44" s="11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" outlineLevel="1">
+      <c r="B45" s="13"/>
+      <c r="C45" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" outlineLevel="1">
+      <c r="B46" s="13"/>
+      <c r="C46" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" outlineLevel="1">
+      <c r="B47" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="8"/>
+    </row>
+    <row r="48" spans="2:4" outlineLevel="1">
+      <c r="B48" s="7"/>
+      <c r="C48" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" outlineLevel="1">
+      <c r="C49" s="12" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="44" spans="2:4" outlineLevel="1">
-      <c r="B44" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="8"/>
-    </row>
-    <row r="45" spans="2:4" outlineLevel="1">
-      <c r="B45" s="7"/>
-      <c r="C45" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" outlineLevel="1">
-      <c r="C46" s="12" t="s">
+    <row r="50" spans="2:13" outlineLevel="1">
+      <c r="C50" s="12" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="47" spans="2:4" outlineLevel="1">
-      <c r="C47" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" outlineLevel="1"/>
-    <row r="49" spans="2:13" outlineLevel="1">
-      <c r="B49" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" outlineLevel="1">
-      <c r="B50" s="12"/>
-    </row>
-    <row r="51" spans="2:13" outlineLevel="1">
-      <c r="B51" s="12"/>
-    </row>
+    <row r="51" spans="2:13" outlineLevel="1"/>
     <row r="52" spans="2:13" outlineLevel="1">
-      <c r="B52" s="12"/>
+      <c r="B52" s="12" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="53" spans="2:13" outlineLevel="1">
-      <c r="B53" s="8"/>
+      <c r="B53" s="12"/>
     </row>
     <row r="54" spans="2:13" outlineLevel="1">
-      <c r="B54" s="8"/>
-    </row>
-    <row r="55" spans="2:13">
-      <c r="B55" s="14"/>
-    </row>
-    <row r="57" spans="2:13">
-      <c r="D57" s="8" t="s">
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="2:13" outlineLevel="1">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:13" outlineLevel="1">
+      <c r="B56" s="8"/>
+    </row>
+    <row r="57" spans="2:13" outlineLevel="1">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="14"/>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="D60" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M60" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="M57" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="42" t="s">
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87" s="6">
+        <v>1</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B84" s="6">
-        <v>1</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="C85" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D85" s="62" t="s">
+    </row>
+    <row r="88" spans="1:5">
+      <c r="C88" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="D89" s="8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="D86" s="8" t="s">
+      <c r="E89" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="D90" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E86" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="D87" s="8" t="s">
+      <c r="E90" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E87" s="8" t="s">
+    </row>
+    <row r="91" spans="1:5">
+      <c r="D91" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="D88" s="8" t="s">
+      <c r="E91" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="E88" s="16" t="s">
+    </row>
+    <row r="92" spans="1:5">
+      <c r="E92" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="E89" s="8" t="s">
+    <row r="93" spans="1:5">
+      <c r="E93" s="16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="E90" s="16" t="s">
+    <row r="94" spans="1:5">
+      <c r="E94" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="E91" s="8" t="s">
+    <row r="95" spans="1:5">
+      <c r="D95" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E95" s="16" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="D92" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="E93" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="E95" s="16" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="E96" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="E97" s="8" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="E98" s="16" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="E99" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="E100" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="E102" s="8" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="D103" s="8" t="s">
+      <c r="E103" s="8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="D106" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E103" s="16" t="s">
+    </row>
+    <row r="107" spans="1:5">
+      <c r="E107" s="17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="E104" s="17" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109" s="62" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D106" s="62" t="s">
+    <row r="110" spans="1:5">
+      <c r="D110" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E110" s="8" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="D107" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="D108" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E108" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="E109" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="D111" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>351</v>
+        <v>118</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="E112" s="8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="113" spans="4:5">
-      <c r="E113" s="8" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="4:5">
+      <c r="D114" s="8" t="s">
+        <v>187</v>
+      </c>
       <c r="E114" s="8" t="s">
-        <v>191</v>
+        <v>350</v>
       </c>
     </row>
     <row r="115" spans="4:5">
       <c r="E115" s="8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="4:5">
       <c r="E116" s="8" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" spans="4:5">
       <c r="E117" s="8" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5">
+      <c r="E118" s="8" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="4:5">
-      <c r="D119" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="E119" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="120" spans="4:5">
       <c r="E120" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="121" spans="4:5">
-      <c r="E121" s="16" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="4:5">
+      <c r="D122" s="8" t="s">
+        <v>194</v>
+      </c>
       <c r="E122" s="8" t="s">
-        <v>352</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="4:5">
       <c r="E123" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5">
+      <c r="E124" s="16" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="125" spans="4:5">
-      <c r="D125" s="62" t="s">
+      <c r="E125" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="126" spans="4:5">
+      <c r="E126" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="4:5">
+      <c r="D128" s="62" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="D129" s="8" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="126" spans="4:5">
-      <c r="D126" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>526</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="127" spans="4:5">
-      <c r="E127" s="8" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="128" spans="4:5">
-      <c r="E128" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="E129" s="8" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="E130" s="8" t="s">
-        <v>531</v>
+        <v>527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="E131" s="8" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="E132" s="8" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D133" s="62" t="s">
+      <c r="E133" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D136" s="62" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="D137" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="D134" s="8" t="s">
+      <c r="E137" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E134" s="8" t="s">
+    </row>
+    <row r="138" spans="1:6">
+      <c r="D138" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="D135" s="8" t="s">
+      <c r="E138" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E135" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="E136" s="9">
+    </row>
+    <row r="139" spans="1:6">
+      <c r="E139" s="9">
         <v>1</v>
       </c>
-      <c r="F136" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="E137" s="9"/>
-      <c r="F137" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="E138" s="9"/>
-      <c r="F138" s="8" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="E139" s="9"/>
+      <c r="F139" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="E140" s="9">
-        <v>2</v>
-      </c>
+      <c r="E140" s="9"/>
       <c r="F140" s="8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="E141" s="9"/>
       <c r="F141" s="8" t="s">
-        <v>164</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="E142" s="9"/>
-      <c r="F142" s="8" t="s">
-        <v>570</v>
-      </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="E143" s="9"/>
+      <c r="E143" s="9">
+        <v>2</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="E144" s="9">
-        <v>3</v>
-      </c>
+      <c r="E144" s="9"/>
       <c r="F144" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="4:6">
       <c r="E145" s="9"/>
       <c r="F145" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="4:6">
       <c r="E146" s="9"/>
-      <c r="F146" s="8" t="s">
-        <v>568</v>
-      </c>
     </row>
     <row r="147" spans="4:6">
-      <c r="E147" s="9"/>
+      <c r="E147" s="9">
+        <v>3</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="148" spans="4:6">
-      <c r="E148" s="9">
-        <v>4</v>
-      </c>
+      <c r="E148" s="9"/>
       <c r="F148" s="8" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="149" spans="4:6">
       <c r="E149" s="9"/>
       <c r="F149" s="8" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="4:6">
-      <c r="F150" s="8" t="s">
-        <v>576</v>
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" spans="4:6">
+      <c r="E151" s="9">
+        <v>4</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="152" spans="4:6">
-      <c r="E152" s="9">
-        <v>5</v>
-      </c>
+      <c r="E152" s="9"/>
       <c r="F152" s="8" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="153" spans="4:6">
-      <c r="E153" s="9"/>
       <c r="F153" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6">
+      <c r="E155" s="9">
+        <v>5</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6">
+      <c r="E156" s="9"/>
+      <c r="F156" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6">
+      <c r="E157" s="9"/>
+      <c r="F157" s="8" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="154" spans="4:6">
-      <c r="E154" s="9"/>
-      <c r="F154" s="8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="156" spans="4:6">
-      <c r="D156" s="8" t="s">
+    <row r="159" spans="4:6">
+      <c r="D159" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6">
+      <c r="E160" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6">
+      <c r="E161" s="8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6">
+      <c r="E162" s="47"/>
+      <c r="F162" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E156" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="157" spans="4:6">
-      <c r="E157" s="8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="158" spans="4:6">
-      <c r="E158" s="8" t="s">
+    </row>
+    <row r="163" spans="5:6">
+      <c r="E163" s="47"/>
+      <c r="F163" s="8" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="159" spans="4:6">
-      <c r="E159" s="47"/>
-      <c r="F159" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="160" spans="4:6">
-      <c r="E160" s="47"/>
-      <c r="F160" s="8" t="s">
+    <row r="164" spans="5:6">
+      <c r="E164" s="47"/>
+    </row>
+    <row r="165" spans="5:6">
+      <c r="E165" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6">
+      <c r="E166" s="47">
+        <v>1</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6">
+      <c r="E167" s="48" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="161" spans="5:6">
-      <c r="E161" s="47"/>
-    </row>
-    <row r="162" spans="5:6">
-      <c r="E162" s="8" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="163" spans="5:6">
-      <c r="E163" s="47">
-        <v>1</v>
-      </c>
-      <c r="F163" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="164" spans="5:6">
-      <c r="E164" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="F164" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="165" spans="5:6">
-      <c r="E165" s="48"/>
-      <c r="F165" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="166" spans="5:6">
-      <c r="E166" s="48"/>
-      <c r="F166" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="167" spans="5:6">
-      <c r="E167" s="48"/>
       <c r="F167" s="8" t="s">
-        <v>354</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="5:6">
       <c r="E168" s="48"/>
       <c r="F168" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="5:6">
-      <c r="E169" s="48" t="s">
-        <v>508</v>
-      </c>
+      <c r="E169" s="48"/>
       <c r="F169" s="8" t="s">
-        <v>171</v>
+        <v>352</v>
       </c>
     </row>
     <row r="170" spans="5:6">
       <c r="E170" s="48"/>
       <c r="F170" s="8" t="s">
-        <v>578</v>
+        <v>353</v>
       </c>
     </row>
     <row r="171" spans="5:6">
       <c r="E171" s="48"/>
       <c r="F171" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="5:6">
-      <c r="E172" s="48"/>
+      <c r="E172" s="48" t="s">
+        <v>507</v>
+      </c>
       <c r="F172" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="5:6">
-      <c r="E173" s="48" t="s">
-        <v>509</v>
-      </c>
+      <c r="E173" s="48"/>
       <c r="F173" s="8" t="s">
-        <v>175</v>
+        <v>577</v>
       </c>
     </row>
     <row r="174" spans="5:6">
       <c r="E174" s="48"/>
       <c r="F174" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" spans="5:6">
       <c r="E175" s="48"/>
       <c r="F175" s="8" t="s">
-        <v>579</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="5:6">
-      <c r="E176" s="48"/>
+      <c r="E176" s="48" t="s">
+        <v>508</v>
+      </c>
       <c r="F176" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6">
+      <c r="E177" s="48"/>
+      <c r="F177" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6">
+      <c r="E178" s="48"/>
+      <c r="F178" s="8" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6">
+      <c r="E179" s="48"/>
+      <c r="F179" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6">
+      <c r="E180" s="48" t="s">
+        <v>509</v>
+      </c>
+      <c r="F180" s="8" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="177" spans="5:6">
-      <c r="E177" s="48" t="s">
-        <v>510</v>
-      </c>
-      <c r="F177" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="178" spans="5:6">
-      <c r="E178" s="49"/>
-      <c r="F178" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="5:6">
-      <c r="E179" s="49"/>
-      <c r="F179" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="180" spans="5:6">
-      <c r="E180" s="49"/>
-      <c r="F180" s="8" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="181" spans="5:6">
       <c r="E181" s="49"/>
       <c r="F181" s="8" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="5:6">
       <c r="E182" s="49"/>
+      <c r="F182" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="183" spans="5:6">
-      <c r="E183" s="47">
+      <c r="E183" s="49"/>
+      <c r="F183" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6">
+      <c r="E184" s="49"/>
+      <c r="F184" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6">
+      <c r="E185" s="49"/>
+    </row>
+    <row r="186" spans="5:6">
+      <c r="E186" s="47">
         <v>2</v>
       </c>
-      <c r="F183" s="16" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="184" spans="5:6">
-      <c r="E184" s="48" t="s">
-        <v>512</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="185" spans="5:6">
-      <c r="E185" s="48"/>
-      <c r="F185" s="8" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="186" spans="5:6">
-      <c r="E186" s="48"/>
-      <c r="F186" s="8" t="s">
-        <v>514</v>
+      <c r="F186" s="16" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="187" spans="5:6">
       <c r="E187" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="F187" s="16" t="s">
-        <v>580</v>
+        <v>511</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="5:6">
       <c r="E188" s="48"/>
       <c r="F188" s="8" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="189" spans="5:6">
       <c r="E189" s="48"/>
       <c r="F189" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6">
+      <c r="E190" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6">
+      <c r="E191" s="48"/>
+      <c r="F191" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6">
+      <c r="E192" s="48"/>
+      <c r="F192" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="E193" s="48"/>
+      <c r="F193" s="8" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="190" spans="5:6">
-      <c r="E190" s="48"/>
-      <c r="F190" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="191" spans="5:6">
-      <c r="E191" s="48" t="s">
+    <row r="194" spans="1:6">
+      <c r="E194" s="48" t="s">
+        <v>518</v>
+      </c>
+      <c r="F194" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="F191" s="16" t="s">
+    </row>
+    <row r="195" spans="1:6">
+      <c r="E195" s="49"/>
+      <c r="F195" s="8" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="192" spans="5:6">
-      <c r="E192" s="49"/>
-      <c r="F192" s="8" t="s">
+    <row r="196" spans="1:6">
+      <c r="E196" s="49"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="E197" s="8" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
-      <c r="E193" s="49"/>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="E194" s="8" t="s">
+    <row r="198" spans="1:6">
+      <c r="E198" s="49" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
-      <c r="E195" s="49" t="s">
+    <row r="199" spans="1:6">
+      <c r="E199" s="49" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
-      <c r="E196" s="49" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="C198" s="7" t="s">
+    <row r="201" spans="1:6">
+      <c r="A201" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D201" s="62" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="D202" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E202" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D198" s="62" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
-      <c r="D199" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E199" s="8" t="s">
+    </row>
+    <row r="203" spans="1:6">
+      <c r="D203" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="D200" s="8" t="s">
+    <row r="204" spans="1:6">
+      <c r="D204" s="47">
+        <v>1</v>
+      </c>
+      <c r="E204" s="16" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="D201" s="47">
-        <v>1</v>
-      </c>
-      <c r="E201" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="D202" s="47"/>
-      <c r="E202" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
-      <c r="D203" s="47"/>
-    </row>
-    <row r="204" spans="1:5">
-      <c r="D204" s="47">
-        <v>2</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:6">
       <c r="D205" s="47"/>
       <c r="E205" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="D206" s="47"/>
-      <c r="E206" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
-      <c r="D207" s="47"/>
-    </row>
-    <row r="208" spans="1:5">
-      <c r="D208" s="47">
-        <v>3</v>
-      </c>
-      <c r="E208" s="16" t="s">
-        <v>272</v>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="D207" s="47">
+        <v>2</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="D208" s="47"/>
+      <c r="E208" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="D209" s="47"/>
       <c r="E209" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="D210" s="47"/>
-      <c r="E210" s="8" t="s">
-        <v>274</v>
-      </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="D211" s="47"/>
-      <c r="E211" s="8" t="s">
-        <v>275</v>
+      <c r="D211" s="47">
+        <v>3</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="D212" s="47"/>
       <c r="E212" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="D213" s="47"/>
+      <c r="E213" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="D214" s="47"/>
+      <c r="E214" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="D215" s="47"/>
+      <c r="E215" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="E216" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="E213" s="8" t="s">
+    <row r="218" spans="1:5">
+      <c r="D218" s="8" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
-      <c r="D215" s="8" t="s">
+      <c r="E218" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E215" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="B218" s="6">
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="B221" s="6">
         <v>2</v>
       </c>
-      <c r="C218" s="18" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
-      <c r="C219" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D219" s="62" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
-      <c r="D221" s="8" t="s">
+      <c r="C221" s="18" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="C222" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D222" s="62" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="D224" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E221" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
-      <c r="D222" s="8" t="s">
+      <c r="E224" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="225" spans="3:12">
+      <c r="D225" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E222" s="8" t="s">
+      <c r="E225" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
-      <c r="D223" s="8" t="s">
+    <row r="226" spans="3:12">
+      <c r="D226" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E223" s="8" t="s">
+      <c r="E226" s="8" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
-      <c r="E224" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="226" spans="3:12">
-      <c r="E226" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="227" spans="3:12">
       <c r="E227" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="229" spans="3:12">
+      <c r="E229" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="230" spans="3:12">
+      <c r="E230" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="228" spans="3:12">
-      <c r="E228" s="8" t="s">
+    <row r="231" spans="3:12">
+      <c r="E231" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="3:12">
-      <c r="C230" s="7" t="s">
+    <row r="233" spans="3:12">
+      <c r="C233" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D233" s="62" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="235" spans="3:12">
+      <c r="D235" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="236" spans="3:12">
+      <c r="D236" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="237" spans="3:12">
+      <c r="E237" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F237" s="20"/>
+      <c r="G237" s="20"/>
+      <c r="H237" s="20"/>
+      <c r="I237" s="20"/>
+      <c r="J237" s="20"/>
+      <c r="K237" s="20"/>
+      <c r="L237" s="21"/>
+    </row>
+    <row r="238" spans="3:12">
+      <c r="E238" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F238" s="23"/>
+      <c r="G238" s="23"/>
+      <c r="H238" s="23"/>
+      <c r="I238" s="23"/>
+      <c r="J238" s="23"/>
+      <c r="K238" s="23"/>
+      <c r="L238" s="24"/>
+    </row>
+    <row r="239" spans="3:12">
+      <c r="E239" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F239" s="23"/>
+      <c r="G239" s="23"/>
+      <c r="H239" s="23"/>
+      <c r="I239" s="23"/>
+      <c r="J239" s="23"/>
+      <c r="K239" s="23"/>
+      <c r="L239" s="24"/>
+    </row>
+    <row r="240" spans="3:12">
+      <c r="E240" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F240" s="26"/>
+      <c r="G240" s="26"/>
+      <c r="H240" s="26"/>
+      <c r="I240" s="26"/>
+      <c r="J240" s="26"/>
+      <c r="K240" s="26"/>
+      <c r="L240" s="27"/>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="E242" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="E243" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F243" s="20"/>
+      <c r="G243" s="20"/>
+      <c r="H243" s="20"/>
+      <c r="I243" s="20"/>
+      <c r="J243" s="20"/>
+      <c r="K243" s="20"/>
+      <c r="L243" s="21"/>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="E244" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F244" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="G244" s="23"/>
+      <c r="H244" s="23"/>
+      <c r="I244" s="23"/>
+      <c r="J244" s="23"/>
+      <c r="K244" s="23"/>
+      <c r="L244" s="24"/>
+    </row>
+    <row r="245" spans="1:12">
+      <c r="E245" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F245" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G245" s="26"/>
+      <c r="H245" s="26"/>
+      <c r="I245" s="26"/>
+      <c r="J245" s="26"/>
+      <c r="K245" s="26"/>
+      <c r="L245" s="27"/>
+    </row>
+    <row r="247" spans="1:12">
+      <c r="A247" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C247" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D230" s="62" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="232" spans="3:12">
-      <c r="D232" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E232" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="233" spans="3:12">
-      <c r="D233" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E233" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="234" spans="3:12">
-      <c r="E234" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F234" s="20"/>
-      <c r="G234" s="20"/>
-      <c r="H234" s="20"/>
-      <c r="I234" s="20"/>
-      <c r="J234" s="20"/>
-      <c r="K234" s="20"/>
-      <c r="L234" s="21"/>
-    </row>
-    <row r="235" spans="3:12">
-      <c r="E235" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F235" s="23"/>
-      <c r="G235" s="23"/>
-      <c r="H235" s="23"/>
-      <c r="I235" s="23"/>
-      <c r="J235" s="23"/>
-      <c r="K235" s="23"/>
-      <c r="L235" s="24"/>
-    </row>
-    <row r="236" spans="3:12">
-      <c r="E236" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F236" s="23"/>
-      <c r="G236" s="23"/>
-      <c r="H236" s="23"/>
-      <c r="I236" s="23"/>
-      <c r="J236" s="23"/>
-      <c r="K236" s="23"/>
-      <c r="L236" s="24"/>
-    </row>
-    <row r="237" spans="3:12">
-      <c r="E237" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F237" s="26"/>
-      <c r="G237" s="26"/>
-      <c r="H237" s="26"/>
-      <c r="I237" s="26"/>
-      <c r="J237" s="26"/>
-      <c r="K237" s="26"/>
-      <c r="L237" s="27"/>
-    </row>
-    <row r="239" spans="3:12">
-      <c r="E239" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="240" spans="3:12">
-      <c r="E240" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F240" s="20"/>
-      <c r="G240" s="20"/>
-      <c r="H240" s="20"/>
-      <c r="I240" s="20"/>
-      <c r="J240" s="20"/>
-      <c r="K240" s="20"/>
-      <c r="L240" s="21"/>
-    </row>
-    <row r="241" spans="1:12">
-      <c r="E241" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F241" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="G241" s="23"/>
-      <c r="H241" s="23"/>
-      <c r="I241" s="23"/>
-      <c r="J241" s="23"/>
-      <c r="K241" s="23"/>
-      <c r="L241" s="24"/>
-    </row>
-    <row r="242" spans="1:12">
-      <c r="E242" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F242" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="G242" s="26"/>
-      <c r="H242" s="26"/>
-      <c r="I242" s="26"/>
-      <c r="J242" s="26"/>
-      <c r="K242" s="26"/>
-      <c r="L242" s="27"/>
-    </row>
-    <row r="244" spans="1:12">
-      <c r="A244" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D244" s="62" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12">
-      <c r="D246" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E246" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="247" spans="1:12">
-      <c r="D247" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E247" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12">
-      <c r="E248" s="8" t="s">
-        <v>102</v>
+      <c r="D247" s="62" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="249" spans="1:12">
       <c r="D249" s="8" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
     </row>
     <row r="250" spans="1:12">
+      <c r="D250" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="E250" s="8" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
     </row>
     <row r="251" spans="1:12">
       <c r="E251" s="8" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
     </row>
     <row r="252" spans="1:12">
+      <c r="D252" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="E252" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="253" spans="1:12">
       <c r="E253" s="8" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
     </row>
     <row r="254" spans="1:12">
       <c r="E254" s="8" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
     </row>
     <row r="255" spans="1:12">
       <c r="E255" s="8" t="s">
-        <v>413</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="E256" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="257" spans="1:14">
-      <c r="A257" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D257" s="62" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="259" spans="1:14">
-      <c r="D259" s="8" t="s">
+      <c r="E257" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
+      <c r="E258" s="8" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
+      <c r="A260" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D260" s="62" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
+      <c r="D262" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E259" s="8" t="s">
+      <c r="E262" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
-      <c r="D260" s="8" t="s">
+    <row r="263" spans="1:14">
+      <c r="D263" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E260" s="61" t="s">
+      <c r="E263" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
-      <c r="D261" s="8" t="s">
+    <row r="264" spans="1:14">
+      <c r="D264" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E261" s="8" t="s">
+      <c r="E264" s="8" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
+      <c r="E265" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
-      <c r="E262" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="263" spans="1:14">
-      <c r="E263" s="8" t="s">
+    <row r="266" spans="1:14">
+      <c r="E266" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
-      <c r="D266" s="8" t="s">
+    <row r="269" spans="1:14">
+      <c r="D269" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E266" s="8" t="s">
+      <c r="E269" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
-      <c r="E267" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="268" spans="1:14">
-      <c r="E268" s="19" t="s">
+    <row r="270" spans="1:14">
+      <c r="E270" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
+      <c r="E271" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="F268" s="20"/>
-      <c r="G268" s="20"/>
-      <c r="H268" s="20"/>
-      <c r="I268" s="20"/>
-      <c r="J268" s="20"/>
-      <c r="K268" s="20"/>
-      <c r="L268" s="20"/>
-      <c r="M268" s="20"/>
-      <c r="N268" s="21"/>
-    </row>
-    <row r="269" spans="1:14">
-      <c r="E269" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F269" s="23"/>
-      <c r="G269" s="23"/>
-      <c r="H269" s="23"/>
-      <c r="I269" s="23"/>
-      <c r="J269" s="23"/>
-      <c r="K269" s="23"/>
-      <c r="L269" s="23"/>
-      <c r="M269" s="23"/>
-      <c r="N269" s="24"/>
-    </row>
-    <row r="270" spans="1:14">
-      <c r="E270" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F270" s="23"/>
-      <c r="G270" s="23"/>
-      <c r="H270" s="23"/>
-      <c r="I270" s="23"/>
-      <c r="J270" s="23"/>
-      <c r="K270" s="23"/>
-      <c r="L270" s="23"/>
-      <c r="M270" s="23"/>
-      <c r="N270" s="24"/>
-    </row>
-    <row r="271" spans="1:14">
-      <c r="E271" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F271" s="23"/>
-      <c r="G271" s="23"/>
-      <c r="H271" s="23"/>
-      <c r="I271" s="23"/>
-      <c r="J271" s="23"/>
-      <c r="K271" s="23"/>
-      <c r="L271" s="23"/>
-      <c r="M271" s="23"/>
-      <c r="N271" s="24"/>
+      <c r="F271" s="20"/>
+      <c r="G271" s="20"/>
+      <c r="H271" s="20"/>
+      <c r="I271" s="20"/>
+      <c r="J271" s="20"/>
+      <c r="K271" s="20"/>
+      <c r="L271" s="20"/>
+      <c r="M271" s="20"/>
+      <c r="N271" s="21"/>
     </row>
     <row r="272" spans="1:14">
       <c r="E272" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F272" s="23"/>
       <c r="G272" s="23"/>
@@ -8657,7 +8764,7 @@
     </row>
     <row r="273" spans="5:14">
       <c r="E273" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F273" s="23"/>
       <c r="G273" s="23"/>
@@ -8671,7 +8778,7 @@
     </row>
     <row r="274" spans="5:14">
       <c r="E274" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F274" s="23"/>
       <c r="G274" s="23"/>
@@ -8684,7 +8791,9 @@
       <c r="N274" s="24"/>
     </row>
     <row r="275" spans="5:14">
-      <c r="E275" s="22"/>
+      <c r="E275" s="22" t="s">
+        <v>66</v>
+      </c>
       <c r="F275" s="23"/>
       <c r="G275" s="23"/>
       <c r="H275" s="23"/>
@@ -8696,10 +8805,10 @@
       <c r="N275" s="24"/>
     </row>
     <row r="276" spans="5:14">
-      <c r="E276" s="22"/>
-      <c r="F276" s="23" t="s">
-        <v>69</v>
-      </c>
+      <c r="E276" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F276" s="23"/>
       <c r="G276" s="23"/>
       <c r="H276" s="23"/>
       <c r="I276" s="23"/>
@@ -8710,7 +8819,9 @@
       <c r="N276" s="24"/>
     </row>
     <row r="277" spans="5:14">
-      <c r="E277" s="22"/>
+      <c r="E277" s="22" t="s">
+        <v>68</v>
+      </c>
       <c r="F277" s="23"/>
       <c r="G277" s="23"/>
       <c r="H277" s="23"/>
@@ -8722,9 +8833,7 @@
       <c r="N277" s="24"/>
     </row>
     <row r="278" spans="5:14">
-      <c r="E278" s="22" t="s">
-        <v>70</v>
-      </c>
+      <c r="E278" s="22"/>
       <c r="F278" s="23"/>
       <c r="G278" s="23"/>
       <c r="H278" s="23"/>
@@ -8736,10 +8845,10 @@
       <c r="N278" s="24"/>
     </row>
     <row r="279" spans="5:14">
-      <c r="E279" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="F279" s="23"/>
+      <c r="E279" s="22"/>
+      <c r="F279" s="23" t="s">
+        <v>69</v>
+      </c>
       <c r="G279" s="23"/>
       <c r="H279" s="23"/>
       <c r="I279" s="23"/>
@@ -8750,50 +8859,48 @@
       <c r="N279" s="24"/>
     </row>
     <row r="280" spans="5:14">
-      <c r="E280" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F280" s="30"/>
-      <c r="G280" s="30"/>
-      <c r="H280" s="30"/>
-      <c r="I280" s="30"/>
-      <c r="J280" s="30"/>
-      <c r="K280" s="30"/>
-      <c r="L280" s="30"/>
+      <c r="E280" s="22"/>
+      <c r="F280" s="23"/>
+      <c r="G280" s="23"/>
+      <c r="H280" s="23"/>
+      <c r="I280" s="23"/>
+      <c r="J280" s="23"/>
+      <c r="K280" s="23"/>
+      <c r="L280" s="23"/>
       <c r="M280" s="23"/>
       <c r="N280" s="24"/>
     </row>
     <row r="281" spans="5:14">
-      <c r="E281" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="F281" s="30"/>
-      <c r="G281" s="30"/>
-      <c r="H281" s="30"/>
-      <c r="I281" s="30"/>
-      <c r="J281" s="30"/>
-      <c r="K281" s="30"/>
-      <c r="L281" s="30"/>
+      <c r="E281" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F281" s="23"/>
+      <c r="G281" s="23"/>
+      <c r="H281" s="23"/>
+      <c r="I281" s="23"/>
+      <c r="J281" s="23"/>
+      <c r="K281" s="23"/>
+      <c r="L281" s="23"/>
       <c r="M281" s="23"/>
       <c r="N281" s="24"/>
     </row>
     <row r="282" spans="5:14">
-      <c r="E282" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F282" s="30"/>
-      <c r="G282" s="30"/>
-      <c r="H282" s="30"/>
-      <c r="I282" s="30"/>
-      <c r="J282" s="30"/>
-      <c r="K282" s="30"/>
-      <c r="L282" s="30"/>
+      <c r="E282" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="F282" s="23"/>
+      <c r="G282" s="23"/>
+      <c r="H282" s="23"/>
+      <c r="I282" s="23"/>
+      <c r="J282" s="23"/>
+      <c r="K282" s="23"/>
+      <c r="L282" s="23"/>
       <c r="M282" s="23"/>
       <c r="N282" s="24"/>
     </row>
     <row r="283" spans="5:14">
       <c r="E283" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F283" s="30"/>
       <c r="G283" s="30"/>
@@ -8807,7 +8914,7 @@
     </row>
     <row r="284" spans="5:14">
       <c r="E284" s="29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F284" s="30"/>
       <c r="G284" s="30"/>
@@ -8821,7 +8928,7 @@
     </row>
     <row r="285" spans="5:14">
       <c r="E285" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F285" s="30"/>
       <c r="G285" s="30"/>
@@ -8834,383 +8941,778 @@
       <c r="N285" s="24"/>
     </row>
     <row r="286" spans="5:14">
-      <c r="E286" s="31" t="s">
+      <c r="E286" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F286" s="30"/>
+      <c r="G286" s="30"/>
+      <c r="H286" s="30"/>
+      <c r="I286" s="30"/>
+      <c r="J286" s="30"/>
+      <c r="K286" s="30"/>
+      <c r="L286" s="30"/>
+      <c r="M286" s="23"/>
+      <c r="N286" s="24"/>
+    </row>
+    <row r="287" spans="5:14">
+      <c r="E287" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F287" s="30"/>
+      <c r="G287" s="30"/>
+      <c r="H287" s="30"/>
+      <c r="I287" s="30"/>
+      <c r="J287" s="30"/>
+      <c r="K287" s="30"/>
+      <c r="L287" s="30"/>
+      <c r="M287" s="23"/>
+      <c r="N287" s="24"/>
+    </row>
+    <row r="288" spans="5:14">
+      <c r="E288" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F288" s="30"/>
+      <c r="G288" s="30"/>
+      <c r="H288" s="30"/>
+      <c r="I288" s="30"/>
+      <c r="J288" s="30"/>
+      <c r="K288" s="30"/>
+      <c r="L288" s="30"/>
+      <c r="M288" s="23"/>
+      <c r="N288" s="24"/>
+    </row>
+    <row r="289" spans="4:14">
+      <c r="E289" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F286" s="32"/>
-      <c r="G286" s="32"/>
-      <c r="H286" s="32"/>
-      <c r="I286" s="32"/>
-      <c r="J286" s="32"/>
-      <c r="K286" s="32"/>
-      <c r="L286" s="32"/>
-      <c r="M286" s="26"/>
-      <c r="N286" s="27"/>
-    </row>
-    <row r="288" spans="5:14">
-      <c r="E288" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
-      <c r="E289" s="8" t="s">
+      <c r="F289" s="32"/>
+      <c r="G289" s="32"/>
+      <c r="H289" s="32"/>
+      <c r="I289" s="32"/>
+      <c r="J289" s="32"/>
+      <c r="K289" s="32"/>
+      <c r="L289" s="32"/>
+      <c r="M289" s="26"/>
+      <c r="N289" s="27"/>
+    </row>
+    <row r="291" spans="4:14">
+      <c r="E291" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="292" spans="4:14">
+      <c r="E292" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="293" spans="4:14">
+      <c r="E293" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
-      <c r="E290" s="8" t="s">
+    <row r="295" spans="4:14">
+      <c r="E295" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
-      <c r="E292" s="8" t="s">
+    <row r="296" spans="4:14">
+      <c r="E296" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
-      <c r="E293" s="8" t="s">
+    <row r="297" spans="4:14">
+      <c r="E297" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
-      <c r="E294" s="8" t="s">
+    <row r="298" spans="4:14">
+      <c r="E298" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
-      <c r="E295" s="8" t="s">
+    <row r="300" spans="4:14">
+      <c r="E300" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
-      <c r="E297" s="8" t="s">
+    <row r="301" spans="4:14">
+      <c r="E301" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
-      <c r="E298" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
-      <c r="A300" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="C300" s="7" t="s">
+    <row r="304" spans="4:14">
+      <c r="D304" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E304" s="8" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="305" spans="4:14">
+      <c r="D305" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="E305" s="8" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="306" spans="4:14">
+      <c r="D306" s="8" t="s">
+        <v>919</v>
+      </c>
+      <c r="E306" s="8" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="308" spans="4:14">
+      <c r="E308" s="19" t="s">
+        <v>927</v>
+      </c>
+      <c r="F308" s="20"/>
+      <c r="G308" s="20"/>
+      <c r="H308" s="20"/>
+      <c r="I308" s="20"/>
+      <c r="J308" s="20"/>
+      <c r="K308" s="20"/>
+      <c r="L308" s="20"/>
+      <c r="M308" s="20"/>
+      <c r="N308" s="21"/>
+    </row>
+    <row r="309" spans="4:14">
+      <c r="E309" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F309" s="23"/>
+      <c r="G309" s="23"/>
+      <c r="H309" s="23"/>
+      <c r="I309" s="23"/>
+      <c r="J309" s="23"/>
+      <c r="K309" s="23"/>
+      <c r="L309" s="23"/>
+      <c r="M309" s="23"/>
+      <c r="N309" s="24"/>
+    </row>
+    <row r="310" spans="4:14">
+      <c r="E310" s="22" t="s">
+        <v>921</v>
+      </c>
+      <c r="F310" s="23"/>
+      <c r="G310" s="23"/>
+      <c r="H310" s="23"/>
+      <c r="I310" s="23"/>
+      <c r="J310" s="23"/>
+      <c r="K310" s="23"/>
+      <c r="L310" s="23"/>
+      <c r="M310" s="23"/>
+      <c r="N310" s="24"/>
+    </row>
+    <row r="311" spans="4:14">
+      <c r="E311" s="22" t="s">
+        <v>922</v>
+      </c>
+      <c r="F311" s="23"/>
+      <c r="G311" s="23"/>
+      <c r="H311" s="23"/>
+      <c r="I311" s="23"/>
+      <c r="J311" s="23"/>
+      <c r="K311" s="23"/>
+      <c r="L311" s="23"/>
+      <c r="M311" s="23"/>
+      <c r="N311" s="24"/>
+    </row>
+    <row r="312" spans="4:14">
+      <c r="E312" s="22" t="s">
+        <v>923</v>
+      </c>
+      <c r="F312" s="23"/>
+      <c r="G312" s="23"/>
+      <c r="H312" s="23"/>
+      <c r="I312" s="23"/>
+      <c r="J312" s="23"/>
+      <c r="K312" s="23"/>
+      <c r="L312" s="23"/>
+      <c r="M312" s="23"/>
+      <c r="N312" s="24"/>
+    </row>
+    <row r="313" spans="4:14">
+      <c r="E313" s="22" t="s">
+        <v>924</v>
+      </c>
+      <c r="F313" s="23"/>
+      <c r="G313" s="23"/>
+      <c r="H313" s="23"/>
+      <c r="I313" s="23"/>
+      <c r="J313" s="23"/>
+      <c r="K313" s="23"/>
+      <c r="L313" s="23"/>
+      <c r="M313" s="23"/>
+      <c r="N313" s="24"/>
+    </row>
+    <row r="314" spans="4:14">
+      <c r="E314" s="22" t="s">
+        <v>925</v>
+      </c>
+      <c r="F314" s="23"/>
+      <c r="G314" s="23"/>
+      <c r="H314" s="23"/>
+      <c r="I314" s="23"/>
+      <c r="J314" s="23"/>
+      <c r="K314" s="23"/>
+      <c r="L314" s="23"/>
+      <c r="M314" s="23"/>
+      <c r="N314" s="24"/>
+    </row>
+    <row r="315" spans="4:14">
+      <c r="E315" s="22" t="s">
+        <v>926</v>
+      </c>
+      <c r="F315" s="23"/>
+      <c r="G315" s="23"/>
+      <c r="H315" s="23"/>
+      <c r="I315" s="23"/>
+      <c r="J315" s="23"/>
+      <c r="K315" s="23"/>
+      <c r="L315" s="23"/>
+      <c r="M315" s="23"/>
+      <c r="N315" s="24"/>
+    </row>
+    <row r="316" spans="4:14">
+      <c r="E316" s="28"/>
+      <c r="F316" s="26"/>
+      <c r="G316" s="26"/>
+      <c r="H316" s="26"/>
+      <c r="I316" s="26"/>
+      <c r="J316" s="26"/>
+      <c r="K316" s="26"/>
+      <c r="L316" s="26"/>
+      <c r="M316" s="26"/>
+      <c r="N316" s="27"/>
+    </row>
+    <row r="318" spans="4:14">
+      <c r="E318" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="F318" s="20"/>
+      <c r="G318" s="20"/>
+      <c r="H318" s="20"/>
+      <c r="I318" s="20"/>
+      <c r="J318" s="20"/>
+      <c r="K318" s="20"/>
+      <c r="L318" s="20"/>
+      <c r="M318" s="20"/>
+      <c r="N318" s="21"/>
+    </row>
+    <row r="319" spans="4:14">
+      <c r="E319" s="22" t="s">
+        <v>928</v>
+      </c>
+      <c r="F319" s="23"/>
+      <c r="G319" s="23"/>
+      <c r="H319" s="23"/>
+      <c r="I319" s="23"/>
+      <c r="J319" s="23"/>
+      <c r="K319" s="23"/>
+      <c r="L319" s="23"/>
+      <c r="M319" s="23"/>
+      <c r="N319" s="24"/>
+    </row>
+    <row r="320" spans="4:14">
+      <c r="E320" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F320" s="23"/>
+      <c r="G320" s="23"/>
+      <c r="H320" s="23"/>
+      <c r="I320" s="23"/>
+      <c r="J320" s="23"/>
+      <c r="K320" s="23"/>
+      <c r="L320" s="23"/>
+      <c r="M320" s="23"/>
+      <c r="N320" s="24"/>
+    </row>
+    <row r="321" spans="1:14">
+      <c r="E321" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="F321" s="23"/>
+      <c r="G321" s="23"/>
+      <c r="H321" s="23"/>
+      <c r="I321" s="23"/>
+      <c r="J321" s="23"/>
+      <c r="K321" s="23"/>
+      <c r="L321" s="23"/>
+      <c r="M321" s="23"/>
+      <c r="N321" s="24"/>
+    </row>
+    <row r="322" spans="1:14">
+      <c r="E322" s="22" t="s">
+        <v>930</v>
+      </c>
+      <c r="F322" s="23"/>
+      <c r="G322" s="23"/>
+      <c r="H322" s="23"/>
+      <c r="I322" s="23"/>
+      <c r="J322" s="23"/>
+      <c r="K322" s="23"/>
+      <c r="L322" s="23"/>
+      <c r="M322" s="23"/>
+      <c r="N322" s="24"/>
+    </row>
+    <row r="323" spans="1:14">
+      <c r="E323" s="22" t="s">
+        <v>931</v>
+      </c>
+      <c r="F323" s="23"/>
+      <c r="G323" s="23"/>
+      <c r="H323" s="23"/>
+      <c r="I323" s="23"/>
+      <c r="J323" s="23"/>
+      <c r="K323" s="23"/>
+      <c r="L323" s="23"/>
+      <c r="M323" s="23"/>
+      <c r="N323" s="24"/>
+    </row>
+    <row r="324" spans="1:14">
+      <c r="E324" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F324" s="23"/>
+      <c r="G324" s="23"/>
+      <c r="H324" s="23"/>
+      <c r="I324" s="23"/>
+      <c r="J324" s="23"/>
+      <c r="K324" s="23"/>
+      <c r="L324" s="23"/>
+      <c r="M324" s="23"/>
+      <c r="N324" s="24"/>
+    </row>
+    <row r="325" spans="1:14">
+      <c r="E325" s="28" t="s">
+        <v>932</v>
+      </c>
+      <c r="F325" s="26"/>
+      <c r="G325" s="26"/>
+      <c r="H325" s="26"/>
+      <c r="I325" s="26"/>
+      <c r="J325" s="26"/>
+      <c r="K325" s="26"/>
+      <c r="L325" s="26"/>
+      <c r="M325" s="26"/>
+      <c r="N325" s="27"/>
+    </row>
+    <row r="327" spans="1:14">
+      <c r="D327" s="8" t="s">
+        <v>935</v>
+      </c>
+      <c r="E327" s="8" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14">
+      <c r="E328" s="8" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14">
+      <c r="E329" s="8" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14">
+      <c r="E330" s="8" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
+      <c r="A334" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D334" s="62" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14">
+      <c r="D336" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E336" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="337" spans="4:5">
+      <c r="E337" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="338" spans="4:5">
+      <c r="D338" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E338" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="339" spans="4:5">
+      <c r="D339" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E339" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="340" spans="4:5">
+      <c r="E340" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="342" spans="4:5">
+      <c r="D342" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E342" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="343" spans="4:5">
+      <c r="E343" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="344" spans="4:5">
+      <c r="E344" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="345" spans="4:5">
+      <c r="E345" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="346" spans="4:5">
+      <c r="E346" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="347" spans="4:5">
+      <c r="E347" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="348" spans="4:5">
+      <c r="E348" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="351" spans="4:5">
+      <c r="D351" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D300" s="62" t="s">
+    </row>
+    <row r="352" spans="4:5">
+      <c r="D352" s="33"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="B380" s="6">
+        <v>3</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="C381" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D381" s="62" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
-      <c r="D302" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E302" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
-      <c r="E303" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
-      <c r="D304" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E304" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="305" spans="4:5">
-      <c r="D305" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E305" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="306" spans="4:5">
-      <c r="E306" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="308" spans="4:5">
-      <c r="D308" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="E308" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="309" spans="4:5">
-      <c r="E309" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="310" spans="4:5">
-      <c r="E310" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="311" spans="4:5">
-      <c r="E311" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="312" spans="4:5">
-      <c r="E312" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="313" spans="4:5">
-      <c r="E313" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="314" spans="4:5">
-      <c r="E314" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="317" spans="4:5">
-      <c r="D317" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="318" spans="4:5">
-      <c r="D318" s="33"/>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="B346" s="6">
+    <row r="382" spans="1:5">
+      <c r="D382" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E382" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="D383" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E383" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="D384" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E384" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="385" spans="4:5">
+      <c r="E385" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="386" spans="4:5">
+      <c r="E386" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="387" spans="4:5">
+      <c r="E387" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="388" spans="4:5">
+      <c r="E388" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="389" spans="4:5">
+      <c r="E389" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="390" spans="4:5">
+      <c r="E390" s="8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="391" spans="4:5">
+      <c r="E391" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="392" spans="4:5">
+      <c r="E392" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="393" spans="4:5">
+      <c r="E393" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="394" spans="4:5">
+      <c r="E394" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="398" spans="4:5">
+      <c r="D398" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E398" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="399" spans="4:5">
+      <c r="E399" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="400" spans="4:5">
+      <c r="E400" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D402" s="62" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="D403" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E403" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="D404" s="40">
+        <v>1</v>
+      </c>
+      <c r="E404" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="D405" s="40"/>
+      <c r="E405" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="D406" s="40"/>
+      <c r="E406" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="D407" s="40"/>
+      <c r="E407" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="D408" s="40"/>
+      <c r="E408" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="D409" s="40"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="D410" s="40">
+        <v>2</v>
+      </c>
+      <c r="E410" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="E411" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="E412" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="E413" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="E414" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="D416" s="40">
         <v>3</v>
       </c>
-      <c r="C346" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="C347" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D347" s="62" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="D348" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E348" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="D349" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E349" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="D350" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E350" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="E351" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
-      <c r="E352" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
-      <c r="E353" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="E354" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="E355" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
-      <c r="E356" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
-      <c r="E357" s="8" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="E358" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
-      <c r="E359" s="8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
-      <c r="E360" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
-      <c r="D364" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E364" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
-      <c r="E365" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
-      <c r="E366" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
-      <c r="A368" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="C368" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D368" s="62" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="369" spans="4:5">
-      <c r="D369" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E369" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="370" spans="4:5">
-      <c r="D370" s="8">
-        <v>1</v>
-      </c>
-      <c r="E370" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="371" spans="4:5">
-      <c r="E371" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="372" spans="4:5">
-      <c r="E372" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="373" spans="4:5">
-      <c r="E373" s="8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="374" spans="4:5">
-      <c r="E374" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="376" spans="4:5">
-      <c r="D376" s="8">
-        <v>2</v>
-      </c>
-      <c r="E376" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="377" spans="4:5">
-      <c r="E377" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="378" spans="4:5">
-      <c r="E378" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="379" spans="4:5">
-      <c r="E379" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="380" spans="4:5">
-      <c r="E380" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386" s="42" t="s">
-        <v>408</v>
-      </c>
-      <c r="B386" s="6">
+      <c r="E416" s="8" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="E417" s="8" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="E418" s="8" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="E419" s="8" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="E420" s="8" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="F421" s="8" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="F422" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="F423" s="8" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="E424" s="8" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="F425" s="8" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="E426" s="8" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="F427" s="8" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="B429" s="6">
         <v>4</v>
       </c>
-      <c r="C386" s="7" t="s">
-        <v>231</v>
+      <c r="C429" s="7" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="目录!A1" tooltip="返回目录" display="返回封面目录"/>
-    <hyperlink ref="B38" location="内容.Git_与远程主机的交互" tooltip="Git_与远程主机的交互" display="与远程仓库交互"/>
-    <hyperlink ref="B10" location="内容.Git_管理本地仓库" tooltip="Git_管理本地仓库" display="管理本地仓库"/>
-    <hyperlink ref="B44" location="内容.Git_配置" tooltip="Git_配置" display="Git配置"/>
-    <hyperlink ref="A84" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A106" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A133" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A198" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A218" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A244" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A257" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A300" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A346" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A368" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="A386" location="Git的使用!A1" tooltip="返回" display="top"/>
-    <hyperlink ref="C11" location="git_add" tooltip="git add" display="git add"/>
-    <hyperlink ref="C17" location="git_commit" tooltip="git commit" display="git commit"/>
-    <hyperlink ref="C22" location="git_diff" tooltip="git diff" display="git diff"/>
-    <hyperlink ref="C29" location="git_rm" tooltip="git rm" display="git rm"/>
-    <hyperlink ref="C39" location="git_clone" tooltip="git clone" display="git clone"/>
-    <hyperlink ref="C40" location="git_remote" tooltip="git remote" display="git remote"/>
-    <hyperlink ref="C41" location="git_fetch" tooltip="git fetch" display="git fetch"/>
-    <hyperlink ref="C42" location="git_push" tooltip="git push" display="git push"/>
-    <hyperlink ref="C43" location="git_pull" tooltip="git pull" display="git pull"/>
-    <hyperlink ref="C46" location="git_config" tooltip="git config" display="git config"/>
-    <hyperlink ref="C45" location="_.gitignore" tooltip="gitignore" display=".gitignore的配置(忽略某些文件的版本管理)"/>
-    <hyperlink ref="C47" location="git_config" tooltip="git config --unset" display="git config --unset"/>
-    <hyperlink ref="B49" location="内容.Git_分支管理" tooltip="Git分支管理" display="Git分支管理"/>
+    <hyperlink ref="B41" location="内容.Git_与远程主机的交互" tooltip="Git_与远程主机的交互" display="与远程仓库交互"/>
+    <hyperlink ref="B13" location="内容.Git_管理本地仓库" tooltip="Git_管理本地仓库" display="管理本地仓库"/>
+    <hyperlink ref="B47" location="内容.Git_配置" tooltip="Git_配置" display="Git配置"/>
+    <hyperlink ref="A87" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A109" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A136" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A201" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A221" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A247" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A260" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A334" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A380" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A402" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="A429" location="Git的使用!A1" tooltip="返回" display="top"/>
+    <hyperlink ref="C14" location="git_add" tooltip="git add" display="git add"/>
+    <hyperlink ref="C20" location="git_commit" tooltip="git commit" display="git commit"/>
+    <hyperlink ref="C25" location="git_diff" tooltip="git diff" display="git diff"/>
+    <hyperlink ref="C32" location="git_rm" tooltip="git rm" display="git rm"/>
+    <hyperlink ref="C42" location="git_clone" tooltip="git clone" display="git clone"/>
+    <hyperlink ref="C43" location="git_remote" tooltip="git remote" display="git remote"/>
+    <hyperlink ref="C44" location="git_fetch" tooltip="git fetch" display="git fetch"/>
+    <hyperlink ref="C45" location="git_push" tooltip="git push" display="git push"/>
+    <hyperlink ref="C46" location="git_pull" tooltip="git pull" display="git pull"/>
+    <hyperlink ref="C49" location="git_config" tooltip="git config" display="git config"/>
+    <hyperlink ref="C48" location="_.gitignore" tooltip="gitignore" display=".gitignore的配置(忽略某些文件的版本管理)"/>
+    <hyperlink ref="C50" location="git_config" tooltip="git config --unset" display="git config --unset"/>
+    <hyperlink ref="B52" location="内容.Git_分支管理" tooltip="Git分支管理" display="Git分支管理"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9237,12 +9739,12 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9255,7 +9757,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="D7" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9510,7 +10012,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="17">
       <c r="A1" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9518,26 +10020,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -9545,46 +10047,46 @@
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>288</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -9592,46 +10094,46 @@
         <v>3</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="D41" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="C42" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="D43" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="D44" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -9665,13 +10167,13 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9679,31 +10181,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="D6" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9711,12 +10213,12 @@
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="E8" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -9724,30 +10226,30 @@
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="E10" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="E11" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="E13" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -9755,31 +10257,31 @@
         <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="C29" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="C30" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -9787,61 +10289,61 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="C35" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="C36" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="D37" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E37" s="64" t="s">
         <v>712</v>
-      </c>
-      <c r="E37" s="64" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="D38" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E38" s="64" t="s">
         <v>714</v>
-      </c>
-      <c r="E38" s="64" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="C40" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>716</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="D41" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="D43" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="D44" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="D45" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +10377,28 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="C4" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9904,25 +10406,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="8"/>
       <c r="D8" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="8"/>
       <c r="D9" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9933,69 +10435,69 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" s="8"/>
       <c r="D12" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="D13" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="D33" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="C37" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -10028,30 +10530,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10059,12 +10561,12 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10072,12 +10574,12 @@
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="D14" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10085,73 +10587,73 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="3:6">
       <c r="D17" s="36" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="3:6">
       <c r="D18" s="36" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="3:6">
       <c r="D19" s="36" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="3:6">
       <c r="D20" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="3:6">
       <c r="D21" s="36" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="22" spans="3:6">
       <c r="D22" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="3:6">
       <c r="D23" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="3:6">
       <c r="D24" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="3:6">
@@ -10159,23 +10661,23 @@
         <v>4</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="3:6">
       <c r="D27" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="3:6">
       <c r="D28" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="30" spans="3:6">
@@ -10183,15 +10685,15 @@
         <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="3:6">
       <c r="D31" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -10199,25 +10701,25 @@
         <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="D34" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="D35" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="E36" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -10251,7 +10753,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="39"/>
     </row>
@@ -10260,28 +10762,28 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="D4" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="D5" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="C6" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10289,32 +10791,32 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="D8" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="D9" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="D10" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="D12" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10322,17 +10824,17 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="D15" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -10340,22 +10842,22 @@
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="D22" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -10363,64 +10865,64 @@
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="D65" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="D68" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="D69" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="D70" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -10454,7 +10956,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -10463,13 +10965,13 @@
     <row r="3" spans="1:3">
       <c r="A3" s="10"/>
       <c r="B3" s="38" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="10"/>
       <c r="C4" s="38" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -10483,95 +10985,95 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="C15" s="60" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="D23" s="38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="E24" s="46" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="D25" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="E28" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="3:5">
       <c r="E30" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="E31" s="38" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="E32" s="38" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="E33" s="38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="E34" s="38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="D36" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="E36" s="38" t="s">
         <v>475</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" s="38" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="3:5">
@@ -10579,7 +11081,7 @@
         <v>1</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="41" spans="3:5">
@@ -10589,12 +11091,12 @@
     </row>
     <row r="42" spans="3:5">
       <c r="E42" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="3:5">
       <c r="E43" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="3:5">
@@ -10602,33 +11104,33 @@
         <v>2</v>
       </c>
       <c r="D45" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="3:5">
       <c r="E46" s="38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="E47" s="38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C50" s="38">
         <v>3</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="D51" s="38" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -10636,37 +11138,37 @@
         <v>1</v>
       </c>
       <c r="E52" s="38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="E53" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="E54" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="F55" s="38" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="F56" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="F57" s="38" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="E58" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -10674,105 +11176,105 @@
         <v>2</v>
       </c>
       <c r="E60" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="E61" s="38" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="E62" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="F63" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="F64" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="4:6">
       <c r="E65" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="4:6">
       <c r="D66" s="38" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E66" s="38" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="4:6">
       <c r="E67" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" spans="4:6">
       <c r="F68" s="38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70" spans="4:6">
       <c r="F70" s="38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" spans="4:6">
       <c r="F71" s="38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="4:6">
       <c r="E73" s="38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="4:6">
       <c r="E74" s="38" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="75" spans="4:6">
       <c r="F75" s="38" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="76" spans="4:6">
       <c r="F76" s="38" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="4:6">
       <c r="F78" s="38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="4:6">
       <c r="F79" s="38" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="4:6">
       <c r="F80" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="38" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -10781,7 +11283,7 @@
         <v>3</v>
       </c>
       <c r="D98" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -10789,27 +11291,27 @@
         <v>1</v>
       </c>
       <c r="E99" s="38" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="E100" s="38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="E101" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="F102" s="38" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="F103" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -10817,73 +11319,73 @@
         <v>2</v>
       </c>
       <c r="E105" s="38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="E106" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="E107" s="38" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="F108" s="38" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="E109" s="38" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="C112" s="38" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="113" spans="3:15">
       <c r="D113" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="E113" s="38" t="s">
         <v>489</v>
-      </c>
-      <c r="E113" s="38" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="116" spans="3:15">
       <c r="C116" s="38" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="117" spans="3:15">
       <c r="D117" s="38" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="118" spans="3:15">
       <c r="E118" s="38" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O118" s="38" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="3:15">
       <c r="E119" s="38" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="120" spans="3:15">
       <c r="E120" s="38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="122" spans="3:15">
       <c r="E122" s="50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F122" s="51"/>
       <c r="G122" s="51"/>
@@ -10897,7 +11399,7 @@
     <row r="123" spans="3:15">
       <c r="E123" s="53"/>
       <c r="F123" s="54" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G123" s="54"/>
       <c r="H123" s="54"/>
@@ -10910,7 +11412,7 @@
     <row r="124" spans="3:15">
       <c r="E124" s="53"/>
       <c r="F124" s="59" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G124" s="54"/>
       <c r="H124" s="54"/>
@@ -10923,7 +11425,7 @@
     <row r="125" spans="3:15">
       <c r="E125" s="53"/>
       <c r="F125" s="54" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G125" s="54"/>
       <c r="H125" s="54"/>
@@ -10936,7 +11438,7 @@
     <row r="126" spans="3:15">
       <c r="E126" s="53"/>
       <c r="F126" s="54" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G126" s="54"/>
       <c r="H126" s="54"/>
@@ -10949,7 +11451,7 @@
     <row r="127" spans="3:15">
       <c r="E127" s="53"/>
       <c r="F127" s="54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G127" s="54"/>
       <c r="H127" s="54"/>
@@ -10963,7 +11465,7 @@
       <c r="E128" s="53"/>
       <c r="F128" s="54"/>
       <c r="G128" s="54" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H128" s="54"/>
       <c r="I128" s="54"/>
@@ -10972,13 +11474,13 @@
       <c r="L128" s="54"/>
       <c r="M128" s="55"/>
       <c r="O128" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="129" spans="1:16">
       <c r="E129" s="53"/>
       <c r="F129" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G129" s="54"/>
       <c r="H129" s="54"/>
@@ -10993,7 +11495,7 @@
       <c r="D130" s="54"/>
       <c r="E130" s="53"/>
       <c r="F130" s="54" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G130" s="54"/>
       <c r="H130" s="54"/>
@@ -11009,7 +11511,7 @@
       <c r="D131" s="54"/>
       <c r="E131" s="53"/>
       <c r="F131" s="54" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G131" s="54"/>
       <c r="H131" s="54"/>
@@ -11024,7 +11526,7 @@
       <c r="C132" s="54"/>
       <c r="D132" s="54"/>
       <c r="E132" s="53" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F132" s="54"/>
       <c r="G132" s="54"/>
@@ -11057,11 +11559,11 @@
     </row>
     <row r="135" spans="1:16">
       <c r="A135" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C135" s="54"/>
       <c r="D135" s="54" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E135" s="54"/>
       <c r="F135" s="54"/>
@@ -11092,7 +11594,7 @@
       <c r="C137" s="54"/>
       <c r="D137" s="54"/>
       <c r="E137" s="54" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F137" s="54"/>
       <c r="G137" s="54"/>
@@ -11108,7 +11610,7 @@
       <c r="C138" s="54"/>
       <c r="D138" s="54"/>
       <c r="E138" s="54" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F138" s="54"/>
       <c r="G138" s="54"/>
@@ -11124,7 +11626,7 @@
       <c r="C139" s="54"/>
       <c r="D139" s="54"/>
       <c r="E139" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F139" s="54"/>
       <c r="G139" s="54"/>
@@ -11140,7 +11642,7 @@
       <c r="C140" s="54"/>
       <c r="D140" s="54"/>
       <c r="E140" s="54" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F140" s="54"/>
       <c r="G140" s="54"/>
@@ -11170,7 +11672,7 @@
       <c r="C142" s="54"/>
       <c r="D142" s="54"/>
       <c r="E142" s="50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F142" s="51"/>
       <c r="G142" s="51"/>
@@ -11189,7 +11691,7 @@
       <c r="D143" s="54"/>
       <c r="E143" s="53"/>
       <c r="F143" s="54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G143" s="54"/>
       <c r="H143" s="54"/>
@@ -11208,7 +11710,7 @@
       <c r="E144" s="53"/>
       <c r="F144" s="54"/>
       <c r="G144" s="54" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H144" s="54"/>
       <c r="I144" s="54"/>
@@ -11226,7 +11728,7 @@
       <c r="E145" s="53"/>
       <c r="F145" s="54"/>
       <c r="G145" s="54" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H145" s="54"/>
       <c r="I145" s="54"/>
@@ -11244,7 +11746,7 @@
       <c r="E146" s="53"/>
       <c r="F146" s="54"/>
       <c r="G146" s="54" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H146" s="54"/>
       <c r="I146" s="54"/>
@@ -11263,7 +11765,7 @@
       <c r="F147" s="54"/>
       <c r="G147" s="54"/>
       <c r="H147" s="54" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I147" s="54"/>
       <c r="J147" s="54"/>
@@ -11280,7 +11782,7 @@
       <c r="E148" s="53"/>
       <c r="F148" s="54"/>
       <c r="G148" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H148" s="54"/>
       <c r="I148" s="54"/>
@@ -11298,7 +11800,7 @@
       <c r="E149" s="53"/>
       <c r="F149" s="54"/>
       <c r="G149" s="54" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H149" s="54"/>
       <c r="I149" s="54"/>
@@ -11317,7 +11819,7 @@
       <c r="F150" s="54"/>
       <c r="G150" s="54"/>
       <c r="H150" s="54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I150" s="54"/>
       <c r="J150" s="54"/>
@@ -11334,7 +11836,7 @@
       <c r="E151" s="53"/>
       <c r="F151" s="54"/>
       <c r="G151" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H151" s="54"/>
       <c r="I151" s="54"/>
@@ -11352,7 +11854,7 @@
       <c r="E152" s="53"/>
       <c r="F152" s="54"/>
       <c r="G152" s="54" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H152" s="54"/>
       <c r="I152" s="54"/>
@@ -11370,7 +11872,7 @@
       <c r="E153" s="53"/>
       <c r="F153" s="54"/>
       <c r="G153" s="54" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H153" s="54"/>
       <c r="I153" s="54"/>
@@ -11389,7 +11891,7 @@
       <c r="F154" s="54"/>
       <c r="G154" s="54"/>
       <c r="H154" s="54" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I154" s="54"/>
       <c r="J154" s="54"/>
@@ -11406,7 +11908,7 @@
       <c r="E155" s="53"/>
       <c r="F155" s="54"/>
       <c r="G155" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H155" s="54"/>
       <c r="I155" s="54"/>
@@ -11424,7 +11926,7 @@
       <c r="E156" s="53"/>
       <c r="F156" s="54"/>
       <c r="G156" s="54" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H156" s="54"/>
       <c r="I156" s="54"/>
@@ -11443,7 +11945,7 @@
       <c r="F157" s="54"/>
       <c r="G157" s="54"/>
       <c r="H157" s="54" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I157" s="54"/>
       <c r="J157" s="54"/>
@@ -11460,7 +11962,7 @@
       <c r="E158" s="53"/>
       <c r="F158" s="54"/>
       <c r="G158" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H158" s="54"/>
       <c r="I158" s="54"/>
@@ -11494,7 +11996,7 @@
       <c r="E160" s="53"/>
       <c r="F160" s="54"/>
       <c r="G160" s="54" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H160" s="54"/>
       <c r="I160" s="54"/>
@@ -11512,7 +12014,7 @@
       <c r="E161" s="53"/>
       <c r="F161" s="54"/>
       <c r="G161" s="54" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H161" s="54"/>
       <c r="I161" s="54"/>
@@ -11531,7 +12033,7 @@
       <c r="F162" s="54"/>
       <c r="G162" s="54"/>
       <c r="H162" s="54" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I162" s="54"/>
       <c r="J162" s="54"/>
@@ -11549,7 +12051,7 @@
       <c r="F163" s="54"/>
       <c r="G163" s="54"/>
       <c r="H163" s="54" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I163" s="54"/>
       <c r="J163" s="54"/>
@@ -11568,7 +12070,7 @@
       <c r="G164" s="54"/>
       <c r="H164" s="54"/>
       <c r="I164" s="54" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J164" s="54"/>
       <c r="K164" s="54"/>
@@ -11586,7 +12088,7 @@
       <c r="G165" s="54"/>
       <c r="H165" s="54"/>
       <c r="I165" s="54" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J165" s="54"/>
       <c r="K165" s="54"/>
@@ -11603,7 +12105,7 @@
       <c r="F166" s="54"/>
       <c r="G166" s="54"/>
       <c r="H166" s="54" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I166" s="54"/>
       <c r="J166" s="54"/>
@@ -11622,7 +12124,7 @@
       <c r="G167" s="54"/>
       <c r="H167" s="54"/>
       <c r="I167" s="54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="J167" s="54"/>
       <c r="K167" s="54"/>
@@ -11639,7 +12141,7 @@
       <c r="F168" s="54"/>
       <c r="G168" s="54"/>
       <c r="H168" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I168" s="54"/>
       <c r="J168" s="54"/>
@@ -11656,7 +12158,7 @@
       <c r="E169" s="53"/>
       <c r="F169" s="54"/>
       <c r="G169" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H169" s="54"/>
       <c r="I169" s="54"/>
@@ -11690,7 +12192,7 @@
       <c r="E171" s="53"/>
       <c r="F171" s="54"/>
       <c r="G171" s="54" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H171" s="54"/>
       <c r="I171" s="54"/>
@@ -11708,7 +12210,7 @@
       <c r="E172" s="53"/>
       <c r="F172" s="54"/>
       <c r="G172" s="54" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H172" s="54"/>
       <c r="I172" s="54"/>
@@ -11725,7 +12227,7 @@
       <c r="F173" s="54"/>
       <c r="G173" s="54"/>
       <c r="H173" s="54" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I173" s="54"/>
       <c r="L173" s="54"/>
@@ -11740,7 +12242,7 @@
       <c r="E174" s="53"/>
       <c r="F174" s="54"/>
       <c r="G174" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H174" s="54"/>
       <c r="I174" s="54"/>
@@ -11771,7 +12273,7 @@
       <c r="D176" s="54"/>
       <c r="E176" s="53"/>
       <c r="F176" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G176" s="54"/>
       <c r="H176" s="54"/>
@@ -11805,7 +12307,7 @@
       <c r="D178" s="54"/>
       <c r="E178" s="53"/>
       <c r="F178" s="54" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G178" s="54"/>
       <c r="I178" s="54"/>
@@ -11822,7 +12324,7 @@
       <c r="D179" s="54"/>
       <c r="E179" s="53"/>
       <c r="F179" s="54" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G179" s="54"/>
       <c r="I179" s="54"/>
@@ -11854,7 +12356,7 @@
       <c r="D181" s="54"/>
       <c r="E181" s="53"/>
       <c r="F181" s="54" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G181" s="54"/>
       <c r="I181" s="54"/>
@@ -11871,7 +12373,7 @@
       <c r="D182" s="54"/>
       <c r="E182" s="53"/>
       <c r="F182" s="54" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G182" s="54"/>
       <c r="I182" s="54"/>
@@ -11903,7 +12405,7 @@
       <c r="D184" s="54"/>
       <c r="E184" s="53"/>
       <c r="F184" s="54" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G184" s="54"/>
       <c r="I184" s="54"/>
@@ -11920,7 +12422,7 @@
       <c r="D185" s="54"/>
       <c r="E185" s="53"/>
       <c r="F185" s="54" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G185" s="54"/>
       <c r="I185" s="54"/>
@@ -11937,7 +12439,7 @@
       <c r="D186" s="54"/>
       <c r="E186" s="53"/>
       <c r="F186" s="54" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G186" s="54"/>
       <c r="I186" s="54"/>
@@ -11954,7 +12456,7 @@
       <c r="D187" s="54"/>
       <c r="E187" s="53"/>
       <c r="F187" s="54" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G187" s="54"/>
       <c r="I187" s="54"/>
@@ -11972,7 +12474,7 @@
       <c r="E188" s="53"/>
       <c r="F188" s="54"/>
       <c r="G188" s="54" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I188" s="54"/>
       <c r="J188" s="54"/>
@@ -11988,7 +12490,7 @@
       <c r="D189" s="54"/>
       <c r="E189" s="53"/>
       <c r="F189" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G189" s="54"/>
       <c r="I189" s="54"/>
@@ -12020,7 +12522,7 @@
       <c r="D191" s="54"/>
       <c r="E191" s="53"/>
       <c r="F191" s="54" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G191" s="54"/>
       <c r="H191" s="54"/>
@@ -12038,7 +12540,7 @@
       <c r="D192" s="54"/>
       <c r="E192" s="53"/>
       <c r="F192" s="54" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G192" s="54"/>
       <c r="H192" s="54"/>
@@ -12056,7 +12558,7 @@
       <c r="D193" s="54"/>
       <c r="E193" s="53"/>
       <c r="F193" s="59" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G193" s="54"/>
       <c r="H193" s="54"/>
@@ -12074,7 +12576,7 @@
       <c r="D194" s="54"/>
       <c r="E194" s="53"/>
       <c r="F194" s="63" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G194" s="54"/>
       <c r="H194" s="54"/>
@@ -12092,7 +12594,7 @@
       <c r="D195" s="54"/>
       <c r="E195" s="53"/>
       <c r="F195" s="54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G195" s="54"/>
       <c r="H195" s="54"/>
@@ -12110,7 +12612,7 @@
       <c r="D196" s="54"/>
       <c r="E196" s="53"/>
       <c r="F196" s="54" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G196" s="54"/>
       <c r="H196" s="54"/>
@@ -12144,7 +12646,7 @@
       <c r="D198" s="54"/>
       <c r="E198" s="53"/>
       <c r="F198" s="54" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G198" s="54"/>
       <c r="H198" s="54"/>
@@ -12162,7 +12664,7 @@
       <c r="D199" s="54"/>
       <c r="E199" s="53"/>
       <c r="F199" s="54" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G199" s="54"/>
       <c r="H199" s="54"/>
@@ -12180,7 +12682,7 @@
       <c r="D200" s="54"/>
       <c r="E200" s="53"/>
       <c r="F200" s="54" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G200" s="54"/>
       <c r="H200" s="54"/>
@@ -12214,7 +12716,7 @@
       <c r="D202" s="54"/>
       <c r="E202" s="53"/>
       <c r="F202" s="54" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G202" s="54"/>
       <c r="H202" s="54"/>
@@ -12248,7 +12750,7 @@
       <c r="D204" s="54"/>
       <c r="E204" s="53"/>
       <c r="F204" s="54" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G204" s="54"/>
       <c r="H204" s="54"/>
@@ -12266,7 +12768,7 @@
       <c r="D205" s="54"/>
       <c r="E205" s="53"/>
       <c r="F205" s="54" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G205" s="54"/>
       <c r="H205" s="54"/>
@@ -12284,7 +12786,7 @@
       <c r="D206" s="54"/>
       <c r="E206" s="53"/>
       <c r="F206" s="59" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G206" s="54"/>
       <c r="H206" s="54"/>
@@ -12302,7 +12804,7 @@
       <c r="D207" s="54"/>
       <c r="E207" s="53"/>
       <c r="F207" s="54" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G207" s="54"/>
       <c r="H207" s="54"/>
@@ -12352,7 +12854,7 @@
       <c r="D210" s="54"/>
       <c r="E210" s="53"/>
       <c r="F210" s="54" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G210" s="54"/>
       <c r="I210" s="54"/>
@@ -12369,7 +12871,7 @@
       <c r="D211" s="54"/>
       <c r="E211" s="53"/>
       <c r="F211" s="54" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G211" s="54"/>
       <c r="I211" s="54"/>
@@ -12386,7 +12888,7 @@
       <c r="D212" s="54"/>
       <c r="E212" s="53"/>
       <c r="F212" s="54" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G212" s="54"/>
       <c r="I212" s="54"/>
@@ -12434,7 +12936,7 @@
       <c r="C215" s="54"/>
       <c r="D215" s="54"/>
       <c r="E215" s="56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F215" s="57"/>
       <c r="G215" s="57"/>
@@ -12478,17 +12980,17 @@
     </row>
     <row r="218" spans="3:16">
       <c r="E218" s="38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="219" spans="3:16">
       <c r="E219" s="38" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="220" spans="3:16">
       <c r="E220" s="50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F220" s="51"/>
       <c r="G220" s="51"/>
@@ -12502,7 +13004,7 @@
     <row r="221" spans="3:16">
       <c r="E221" s="53"/>
       <c r="F221" s="54" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G221" s="54"/>
       <c r="H221" s="54"/>
@@ -12516,7 +13018,7 @@
       <c r="E222" s="53"/>
       <c r="F222" s="54"/>
       <c r="G222" s="54" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H222" s="54"/>
       <c r="I222" s="54"/>
@@ -12530,7 +13032,7 @@
       <c r="F223" s="54"/>
       <c r="G223" s="54"/>
       <c r="H223" s="54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I223" s="54"/>
       <c r="J223" s="54"/>
@@ -12542,7 +13044,7 @@
       <c r="E224" s="53"/>
       <c r="F224" s="54"/>
       <c r="G224" s="54" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H224" s="54"/>
       <c r="I224" s="54"/>
@@ -12555,7 +13057,7 @@
       <c r="E225" s="53"/>
       <c r="F225" s="54"/>
       <c r="G225" s="54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H225" s="54"/>
       <c r="I225" s="54"/>
@@ -12569,7 +13071,7 @@
       <c r="F226" s="54"/>
       <c r="G226" s="54"/>
       <c r="H226" s="54" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I226" s="54"/>
       <c r="J226" s="54"/>
@@ -12581,7 +13083,7 @@
       <c r="E227" s="53"/>
       <c r="F227" s="54"/>
       <c r="G227" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H227" s="54"/>
       <c r="I227" s="54"/>
@@ -12593,7 +13095,7 @@
     <row r="228" spans="5:13">
       <c r="E228" s="53"/>
       <c r="F228" s="54" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G228" s="54"/>
       <c r="H228" s="54"/>
@@ -12606,7 +13108,7 @@
     <row r="229" spans="5:13">
       <c r="E229" s="53"/>
       <c r="F229" s="54" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G229" s="54"/>
       <c r="H229" s="54"/>
@@ -12619,7 +13121,7 @@
     <row r="230" spans="5:13">
       <c r="E230" s="53"/>
       <c r="F230" s="54" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G230" s="54"/>
       <c r="H230" s="54"/>
@@ -12631,7 +13133,7 @@
     </row>
     <row r="231" spans="5:13">
       <c r="E231" s="56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F231" s="57"/>
       <c r="G231" s="57"/>
@@ -12655,7 +13157,7 @@
     </row>
     <row r="233" spans="5:13">
       <c r="E233" s="54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F233" s="54"/>
       <c r="G233" s="54"/>
@@ -12668,7 +13170,7 @@
     </row>
     <row r="234" spans="5:13">
       <c r="E234" s="50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F234" s="51"/>
       <c r="G234" s="51"/>
@@ -12682,7 +13184,7 @@
     <row r="235" spans="5:13">
       <c r="E235" s="53"/>
       <c r="F235" s="54" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H235" s="54"/>
       <c r="I235" s="54"/>
@@ -12704,7 +13206,7 @@
     <row r="237" spans="5:13">
       <c r="E237" s="53"/>
       <c r="G237" s="54" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H237" s="54"/>
       <c r="I237" s="54"/>
@@ -12717,7 +13219,7 @@
       <c r="E238" s="53"/>
       <c r="G238" s="54"/>
       <c r="H238" s="54" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I238" s="54"/>
       <c r="J238" s="54"/>
@@ -12730,7 +13232,7 @@
       <c r="G239" s="54"/>
       <c r="H239" s="54"/>
       <c r="I239" s="54" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="J239" s="54"/>
       <c r="K239" s="54"/>
@@ -12742,7 +13244,7 @@
       <c r="G240" s="54"/>
       <c r="H240" s="54"/>
       <c r="I240" s="54" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="J240" s="54"/>
       <c r="K240" s="54"/>
@@ -12753,7 +13255,7 @@
       <c r="E241" s="53"/>
       <c r="G241" s="54"/>
       <c r="H241" s="54" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I241" s="54"/>
       <c r="J241" s="54"/>
@@ -12766,7 +13268,7 @@
       <c r="G242" s="54"/>
       <c r="H242" s="54"/>
       <c r="I242" s="54" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J242" s="54"/>
       <c r="K242" s="54"/>
@@ -12778,7 +13280,7 @@
       <c r="G243" s="54"/>
       <c r="H243" s="54"/>
       <c r="I243" s="54" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J243" s="54"/>
       <c r="K243" s="54"/>
@@ -12789,7 +13291,7 @@
       <c r="E244" s="53"/>
       <c r="G244" s="54"/>
       <c r="H244" s="54" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I244" s="54"/>
       <c r="J244" s="54"/>
@@ -12810,7 +13312,7 @@
     <row r="246" spans="1:13">
       <c r="E246" s="53"/>
       <c r="G246" s="54" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H246" s="54"/>
       <c r="I246" s="54"/>
@@ -12822,7 +13324,7 @@
     <row r="247" spans="1:13">
       <c r="E247" s="53"/>
       <c r="F247" s="54" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H247" s="54"/>
       <c r="I247" s="54"/>
@@ -12834,7 +13336,7 @@
     <row r="248" spans="1:13">
       <c r="E248" s="53"/>
       <c r="F248" s="54" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H248" s="54"/>
       <c r="I248" s="54"/>
@@ -12845,7 +13347,7 @@
     </row>
     <row r="249" spans="1:13">
       <c r="E249" s="56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F249" s="57"/>
       <c r="G249" s="57"/>
@@ -12869,20 +13371,20 @@
     </row>
     <row r="252" spans="1:13">
       <c r="A252" s="41" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E252" s="38" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="253" spans="1:13">
       <c r="E253" s="38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="255" spans="1:13">
       <c r="E255" s="50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F255" s="51"/>
       <c r="G255" s="51"/>
@@ -12896,7 +13398,7 @@
     <row r="256" spans="1:13">
       <c r="E256" s="53"/>
       <c r="F256" s="54" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G256" s="54"/>
       <c r="H256" s="54"/>
@@ -12910,7 +13412,7 @@
       <c r="E257" s="53"/>
       <c r="F257" s="54"/>
       <c r="G257" s="54" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H257" s="54"/>
       <c r="I257" s="54"/>
@@ -12924,7 +13426,7 @@
       <c r="F258" s="54"/>
       <c r="G258" s="54"/>
       <c r="H258" s="54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I258" s="54"/>
       <c r="J258" s="54"/>
@@ -12936,7 +13438,7 @@
       <c r="E259" s="53"/>
       <c r="F259" s="54"/>
       <c r="G259" s="54" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H259" s="59"/>
       <c r="I259" s="54"/>
@@ -12949,7 +13451,7 @@
       <c r="E260" s="53"/>
       <c r="F260" s="54"/>
       <c r="G260" s="54" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H260" s="54"/>
       <c r="I260" s="54"/>
@@ -12963,7 +13465,7 @@
       <c r="F261" s="54"/>
       <c r="G261" s="54"/>
       <c r="H261" s="54" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I261" s="54"/>
       <c r="J261" s="54"/>
@@ -12975,7 +13477,7 @@
       <c r="E262" s="53"/>
       <c r="F262" s="54"/>
       <c r="G262" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H262" s="54"/>
       <c r="I262" s="54"/>
@@ -12987,7 +13489,7 @@
     <row r="263" spans="4:14">
       <c r="E263" s="53"/>
       <c r="F263" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G263" s="54"/>
       <c r="H263" s="54"/>
@@ -13000,7 +13502,7 @@
     <row r="264" spans="4:14">
       <c r="E264" s="53"/>
       <c r="F264" s="54" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G264" s="54"/>
       <c r="H264" s="54"/>
@@ -13013,7 +13515,7 @@
     <row r="265" spans="4:14">
       <c r="E265" s="53"/>
       <c r="F265" s="54" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G265" s="54"/>
       <c r="H265" s="54"/>
@@ -13025,7 +13527,7 @@
     </row>
     <row r="266" spans="4:14">
       <c r="E266" s="56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F266" s="57"/>
       <c r="G266" s="57"/>
@@ -13038,15 +13540,15 @@
     </row>
     <row r="269" spans="4:14">
       <c r="D269" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="E269" s="38" t="s">
         <v>552</v>
-      </c>
-      <c r="E269" s="38" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="271" spans="4:14">
       <c r="E271" s="50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F271" s="51"/>
       <c r="G271" s="51"/>
@@ -13061,7 +13563,7 @@
     <row r="272" spans="4:14">
       <c r="E272" s="53"/>
       <c r="F272" s="54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G272" s="54"/>
       <c r="H272" s="54"/>
@@ -13076,7 +13578,7 @@
       <c r="E273" s="53"/>
       <c r="F273" s="54"/>
       <c r="G273" s="54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H273" s="54"/>
       <c r="I273" s="54"/>
@@ -13091,7 +13593,7 @@
       <c r="F274" s="54"/>
       <c r="G274" s="54"/>
       <c r="H274" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I274" s="54"/>
       <c r="J274" s="54"/>
@@ -13106,7 +13608,7 @@
       <c r="G275" s="54"/>
       <c r="H275" s="54"/>
       <c r="I275" s="54" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J275" s="54"/>
       <c r="K275" s="54"/>
@@ -13119,7 +13621,7 @@
       <c r="F276" s="54"/>
       <c r="G276" s="54"/>
       <c r="H276" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I276" s="54"/>
       <c r="J276" s="54"/>
@@ -13133,7 +13635,7 @@
       <c r="F277" s="54"/>
       <c r="G277" s="54"/>
       <c r="H277" s="54" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I277" s="54"/>
       <c r="J277" s="54"/>
@@ -13148,7 +13650,7 @@
       <c r="G278" s="54"/>
       <c r="H278" s="54"/>
       <c r="I278" s="54" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J278" s="54"/>
       <c r="K278" s="54"/>
@@ -13161,7 +13663,7 @@
       <c r="F279" s="54"/>
       <c r="G279" s="54"/>
       <c r="H279" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I279" s="54"/>
       <c r="J279" s="54"/>
@@ -13174,7 +13676,7 @@
       <c r="E280" s="53"/>
       <c r="F280" s="54"/>
       <c r="G280" s="54" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H280" s="54"/>
       <c r="I280" s="54"/>
@@ -13187,7 +13689,7 @@
     <row r="281" spans="5:14">
       <c r="E281" s="53"/>
       <c r="F281" s="54" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G281" s="54"/>
       <c r="H281" s="54"/>
@@ -13201,7 +13703,7 @@
     <row r="282" spans="5:14">
       <c r="E282" s="53"/>
       <c r="F282" s="54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G282" s="54"/>
       <c r="H282" s="54"/>
@@ -13215,7 +13717,7 @@
     <row r="283" spans="5:14">
       <c r="E283" s="53"/>
       <c r="F283" s="54" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G283" s="54"/>
       <c r="H283" s="54"/>
@@ -13229,7 +13731,7 @@
     <row r="284" spans="5:14">
       <c r="E284" s="53"/>
       <c r="F284" s="54" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G284" s="54"/>
       <c r="H284" s="54"/>
@@ -13242,7 +13744,7 @@
     </row>
     <row r="285" spans="5:14">
       <c r="E285" s="56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F285" s="57"/>
       <c r="G285" s="57"/>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6700" yWindow="620" windowWidth="25600" windowHeight="16060" tabRatio="760"/>
+    <workbookView xWindow="8880" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="760"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="963">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3414,10 +3414,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Hybrid app开发工具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Hbuilder</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4198,6 +4194,131 @@
   </si>
   <si>
     <t>我做了一次提交，但是还有点小修改，想跟上一次提交作为一个整体，包括提交信息,所以用了git commit --amend</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid app</t>
+  </si>
+  <si>
+    <t>前端开发工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI框架</t>
+  </si>
+  <si>
+    <t>使用背景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5+SDK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>而5+SDK,是把5+runtime封装为原生SDK,即可以在原生的Xcode开发工具开发及集成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以可以实现在本地打包(就是原生app的打包),</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然用Hbuilder可以开发"移动app",但是app的打包是通过云打包(Hbuilder),而且打包的大小是有限制(40M)的等等问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外,在现有原生项目中使用HTML5+ SDK替换原有的webview，以获得更强的web增强表现。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>独立应用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Widget</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Webview</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将HTML5+SDK生成的首页面设置为当前View的subView。HTML5+ SDK将对应用进行管理</t>
+  </si>
+  <si>
+    <t>运行方式和独立运行方式类似，开发者在集成时可在需要的位置启动HTML5+ SDK，显示指定的HTML5+应用</t>
+  </si>
+  <si>
+    <t>使用Webview集成方式，只支持单页面，不允许创建新的webview对象，其他API不受影响</t>
+  </si>
+  <si>
+    <t>用户可在任何页面将HTML5+ SDK的页面以Webview的形式独立显示，显示Webview页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据交互</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生app的数据储存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hybrid app数据储存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本地(浏览器储存空间)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,文件IO,远程服务器数据库</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本地(app内部)SQLite数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,文件IO,远程服务器数据库</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地浏览器储存空间在浏览器-&gt;显示web检查器,可以看到各个网站对应的储存空间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4435,7 +4556,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="122">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4472,6 +4593,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4699,7 +4826,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="122">
+  <cellStyles count="128">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4821,6 +4948,12 @@
     <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6029,9 +6162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
-    </sheetView>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -6207,11 +6338,11 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H280"/>
+  <dimension ref="A1:H324"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="38"/>
@@ -6258,1093 +6389,1275 @@
         <v>704</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="38" t="s">
+    <row r="22" spans="2:4">
+      <c r="B22" s="38" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="38">
+        <v>1</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="C25" s="38" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="C21" s="38" t="s">
+    <row r="26" spans="2:4">
+      <c r="C26" s="38" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="22" spans="2:4">
-      <c r="C22" s="38" t="s">
+    <row r="27" spans="2:4">
+      <c r="C27" s="38">
+        <v>1</v>
+      </c>
+      <c r="D27" s="38" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="C23" s="38">
+    <row r="28" spans="2:4">
+      <c r="D28" s="38" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="D29" s="38" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="D30" s="38" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="38">
+        <v>2</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="C35" s="38" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="D36" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="D37" s="38" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" hidden="1" outlineLevel="1"/>
+    <row r="39" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="D39" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="D40" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" hidden="1" outlineLevel="1"/>
+    <row r="42" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="C42" s="38" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="C43" s="38">
         <v>1</v>
       </c>
-      <c r="D23" s="38" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="D24" s="38" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="D25" s="38" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="D26" s="38" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="38" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="C32" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="C33" s="38" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="C35" s="38" t="s">
+      <c r="D43" s="38" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="D44" s="38" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="D45" s="38" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="E46" s="46" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" hidden="1" outlineLevel="1"/>
+    <row r="48" spans="2:5" hidden="1" outlineLevel="1">
+      <c r="D48" s="38" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E49" s="46" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="D50" s="46"/>
+      <c r="E50" s="38" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="52" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="C52" s="38" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="C53" s="38">
+        <v>1</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="D54" s="38" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="56" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="D56" s="38" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="D57" s="38" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E58" s="38" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E59" s="38" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="F60" s="38" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E61" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="63" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="D63" s="38" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E64" s="38" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="E65" s="38" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" hidden="1" outlineLevel="1"/>
+    <row r="67" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="E67" s="38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="68" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="F68" s="38" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="69" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="F69" s="38" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="70" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="F70" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="G71" s="38" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="H72" s="38" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="73" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="H73" s="38" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="74" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="H74" s="38" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="75" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="H75" s="38" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="76" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="H76" s="38" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="77" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="H77" s="38" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="78" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="G78" s="38" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="79" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="F79" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="80" spans="5:8" hidden="1" outlineLevel="1"/>
+    <row r="81" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="82" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="83" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="84" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="85" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="86" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="87" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="88" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="C88" s="38">
+        <v>2</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="D89" s="38" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="D90" s="38" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="D91" s="38" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="D92" s="38" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="D93" s="38" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E94" s="38" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="F95" s="38" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="F96" s="38" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" hidden="1" outlineLevel="1"/>
+    <row r="98" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="C98" s="38">
+        <v>3</v>
+      </c>
+      <c r="D98" s="38" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38" s="38" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" s="38">
+    <row r="99" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E99" s="38" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E100" s="38" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E101" s="38" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E102" s="38" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E103" s="38" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E104" s="38" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" hidden="1" outlineLevel="1"/>
+    <row r="106" spans="3:5" hidden="1" outlineLevel="1"/>
+    <row r="107" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E107" s="38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E108" s="38" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E109" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E110" s="38" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E111" s="38" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" hidden="1" outlineLevel="1">
+      <c r="E112" s="38" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E113" s="38" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E114" s="38" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E115" s="38" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E116" s="38" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E117" s="38" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E118" s="38" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E119" s="38" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E120" s="38" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E121" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E122" s="38" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E123" s="38" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E124" s="38" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E125" s="38" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E126" s="38" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E127" s="38" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" hidden="1" outlineLevel="1">
+      <c r="E128" s="38" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E129" s="38" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E130" s="38" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E131" s="38" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E132" s="38" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E133" s="38" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E134" s="38" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E135" s="38" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="136" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="137" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="C137" s="38">
+        <v>4</v>
+      </c>
+      <c r="D137" s="38" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E138" s="38" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E139" s="38" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" hidden="1" outlineLevel="1"/>
+    <row r="141" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E141" s="38" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="E142" s="38">
         <v>1</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="F142" s="38" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="F143" s="38" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" hidden="1" outlineLevel="1">
+      <c r="F144" s="38" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="145" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="G145" s="38" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="146" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="H146" s="38" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="147" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="H147" s="38" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="148" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="G148" s="38" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="149" spans="5:8" hidden="1" outlineLevel="1"/>
+    <row r="150" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="F150" s="38" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="151" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="G151" s="38" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="152" spans="5:8" hidden="1" outlineLevel="1"/>
+    <row r="153" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="E153" s="38">
+        <v>2</v>
+      </c>
+      <c r="F153" s="38" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="154" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="F154" s="38" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="155" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="G155" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="156" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="H156" s="38" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="157" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="G157" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="158" spans="5:8" hidden="1" outlineLevel="1"/>
+    <row r="159" spans="5:8" hidden="1" outlineLevel="1">
+      <c r="E159" s="38">
+        <v>3</v>
+      </c>
+      <c r="F159" s="38" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="160" spans="5:8" hidden="1" outlineLevel="1"/>
+    <row r="161" spans="3:7" hidden="1" outlineLevel="1"/>
+    <row r="162" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="E162" s="38" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="F163" s="38" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7" hidden="1" outlineLevel="1"/>
+    <row r="165" spans="3:7" hidden="1" outlineLevel="1"/>
+    <row r="166" spans="3:7" hidden="1" outlineLevel="1"/>
+    <row r="167" spans="3:7" hidden="1" outlineLevel="1"/>
+    <row r="168" spans="3:7" hidden="1" outlineLevel="1"/>
+    <row r="169" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="C169" s="38">
+        <v>5</v>
+      </c>
+      <c r="D169" s="38" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="170" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="E170" s="38" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="171" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="E171" s="38" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="F172" s="38" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G173" s="38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G174" s="38" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="F175" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7" hidden="1" outlineLevel="1"/>
+    <row r="177" spans="5:7" hidden="1" outlineLevel="1"/>
+    <row r="178" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="E178" s="38" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="179" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F179" s="38" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="180" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F180" s="38" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="181" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F181" s="38" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="182" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G182" s="38" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="183" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G183" s="38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="184" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G184" s="38" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="185" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G185" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="186" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G186" s="38" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="187" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G187" s="38" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="188" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G188" s="38" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="189" spans="5:7" hidden="1" outlineLevel="1"/>
+    <row r="190" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F190" s="38" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="191" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G191" s="38" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="192" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G192" s="38" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G193" s="38" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G194" s="38" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G195" s="38" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="196" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G196" s="38" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="197" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G197" s="38" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="198" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G198" s="38" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="199" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G199" s="38" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="200" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G200" s="38" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="201" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G201" s="38" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="202" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G202" s="38" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="203" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="G203" s="38" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="204" spans="3:7" hidden="1" outlineLevel="1"/>
+    <row r="205" spans="3:7" hidden="1" outlineLevel="1"/>
+    <row r="206" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="C206" s="38">
+        <v>6</v>
+      </c>
+      <c r="D206" s="38" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="207" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="E207" s="38" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="208" spans="3:7" hidden="1" outlineLevel="1">
+      <c r="E208" s="38" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="E209" s="38">
+        <v>1</v>
+      </c>
+      <c r="F209" s="38" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="210" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="E210" s="38">
+        <v>2</v>
+      </c>
+      <c r="F210" s="38" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="211" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="E211" s="38">
+        <v>3</v>
+      </c>
+      <c r="F211" s="38" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="212" spans="5:7" hidden="1" outlineLevel="1"/>
+    <row r="213" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="E213" s="38" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="214" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="E214" s="38" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="215" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="E215" s="38">
+        <v>1</v>
+      </c>
+      <c r="F215" s="38" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="216" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F216" s="38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="217" spans="5:7" hidden="1" outlineLevel="1"/>
+    <row r="218" spans="5:7" hidden="1" outlineLevel="1"/>
+    <row r="219" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F219" s="38" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="220" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F220" s="38" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="221" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G221" s="38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="222" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G222" s="38" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="223" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G223" s="38" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="224" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G224" s="38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="225" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="H225" s="46" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="226" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G226" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="227" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G227" s="38" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="228" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="H228" s="38" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="229" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G229" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="230" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G230" s="38" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="231" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="H231" s="38" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="232" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G232" s="38" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="233" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="F233" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="234" spans="6:8" hidden="1" outlineLevel="1"/>
+    <row r="235" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="F235" s="38" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="236" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="F236" s="38" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="237" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G237" s="38" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="238" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G238" s="46" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="239" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G239" s="38" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="240" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="F240" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="241" spans="5:7" hidden="1" outlineLevel="1"/>
+    <row r="242" spans="5:7" hidden="1" outlineLevel="1"/>
+    <row r="243" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="E243" s="38">
+        <v>2</v>
+      </c>
+      <c r="F243" s="38" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="244" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F244" s="38" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="245" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F245" s="38" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="246" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G246" s="38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="247" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G247" s="38" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="248" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F248" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="249" spans="5:7" hidden="1" outlineLevel="1"/>
+    <row r="250" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F250" s="66" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="251" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F251" s="38" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="252" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G252" s="38" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="253" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="G253" s="38" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="254" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F254" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="255" spans="5:7" hidden="1" outlineLevel="1"/>
+    <row r="256" spans="5:7" hidden="1" outlineLevel="1">
+      <c r="F256" s="38" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="257" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G257" s="38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="258" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G258" s="38" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="259" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G259" s="65" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="260" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G260" s="38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="261" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="H261" s="46" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="262" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G262" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="263" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G263" s="38" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="264" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="H264" s="38" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="265" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G265" s="38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="266" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G266" s="38" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="267" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="H267" s="38" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="268" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G268" s="38" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="6:8" hidden="1" outlineLevel="1"/>
+    <row r="270" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="F270" s="38" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="271" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="F271" s="38" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="272" spans="6:8" hidden="1" outlineLevel="1">
+      <c r="G272" s="38" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="273" spans="3:8" hidden="1" outlineLevel="1">
+      <c r="G273" s="38" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="274" spans="3:8" hidden="1" outlineLevel="1">
+      <c r="H274" s="38" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="275" spans="3:8" hidden="1" outlineLevel="1">
+      <c r="H275" s="46" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="276" spans="3:8" hidden="1" outlineLevel="1">
+      <c r="H276" s="38" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="277" spans="3:8" hidden="1" outlineLevel="1">
+      <c r="G277" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="278" spans="3:8" hidden="1" outlineLevel="1">
+      <c r="F278" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="279" spans="3:8" hidden="1" outlineLevel="1"/>
+    <row r="280" spans="3:8" collapsed="1"/>
+    <row r="284" spans="3:8">
+      <c r="C284" s="67" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
-      <c r="D40" s="38" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="D41" s="38" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5">
-      <c r="E42" s="46" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5">
-      <c r="D44" s="38" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5">
-      <c r="E45" s="46" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="D46" s="46"/>
-      <c r="E46" s="38" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="38" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="38">
+    <row r="295" spans="2:4">
+      <c r="B295" s="38">
+        <v>3</v>
+      </c>
+      <c r="C295" s="38" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4">
+      <c r="C296" s="38" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4">
+      <c r="D297" s="38" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4">
+      <c r="D298" s="38" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4">
+      <c r="D299" s="38" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4">
+      <c r="D300" s="38" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4">
+      <c r="C303" s="38" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4">
+      <c r="C304" s="38">
         <v>1</v>
       </c>
-      <c r="D49" s="38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6">
-      <c r="D50" s="38" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6">
-      <c r="D52" s="38" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6">
-      <c r="D53" s="38" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="E54" s="38" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="E55" s="38" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="F56" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="E57" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6">
-      <c r="D59" s="38" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6">
-      <c r="E60" s="38" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6">
-      <c r="E61" s="38" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="63" spans="3:6">
-      <c r="E63" s="38" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6">
-      <c r="F64" s="38" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="65" spans="6:8">
-      <c r="F65" s="38" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="66" spans="6:8">
-      <c r="F66" s="38" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="67" spans="6:8">
-      <c r="G67" s="38" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="68" spans="6:8">
-      <c r="H68" s="38" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="69" spans="6:8">
-      <c r="H69" s="38" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="70" spans="6:8">
-      <c r="H70" s="38" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="71" spans="6:8">
-      <c r="H71" s="38" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="72" spans="6:8">
-      <c r="H72" s="38" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="73" spans="6:8">
-      <c r="H73" s="38" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="74" spans="6:8">
-      <c r="G74" s="38" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="75" spans="6:8">
-      <c r="F75" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="84" spans="3:6">
-      <c r="C84" s="38">
+      <c r="D304" s="38" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="305" spans="2:5">
+      <c r="E305" s="38" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="306" spans="2:5">
+      <c r="C306" s="38">
         <v>2</v>
       </c>
-      <c r="D84" s="38" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="85" spans="3:6">
-      <c r="D85" s="38" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="86" spans="3:6">
-      <c r="D86" s="38" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="87" spans="3:6">
-      <c r="D87" s="38" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="88" spans="3:6">
-      <c r="D88" s="38" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6">
-      <c r="D89" s="38" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6">
-      <c r="E90" s="38" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6">
-      <c r="F91" s="38" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6">
-      <c r="F92" s="38" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6">
-      <c r="C94" s="38">
+      <c r="D306" s="38" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="307" spans="2:5">
+      <c r="E307" s="38" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="C308" s="38">
         <v>3</v>
       </c>
-      <c r="D94" s="38" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6">
-      <c r="E95" s="38" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="96" spans="3:6">
-      <c r="E96" s="38" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5">
-      <c r="E97" s="38" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="98" spans="5:5">
-      <c r="E98" s="38" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="38" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="100" spans="5:5">
-      <c r="E100" s="38" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="103" spans="5:5">
-      <c r="E103" s="38" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="104" spans="5:5">
-      <c r="E104" s="38" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5">
-      <c r="E105" s="38" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="106" spans="5:5">
-      <c r="E106" s="38" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="107" spans="5:5">
-      <c r="E107" s="38" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="108" spans="5:5">
-      <c r="E108" s="38" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="109" spans="5:5">
-      <c r="E109" s="38" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="110" spans="5:5">
-      <c r="E110" s="38" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="111" spans="5:5">
-      <c r="E111" s="38" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="38" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5">
-      <c r="E113" s="38" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5">
-      <c r="E114" s="38" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="115" spans="5:5">
-      <c r="E115" s="38" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5">
-      <c r="E116" s="38" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="117" spans="5:5">
-      <c r="E117" s="38" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5">
-      <c r="E118" s="38" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="119" spans="5:5">
-      <c r="E119" s="38" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5">
-      <c r="E120" s="38" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="121" spans="5:5">
-      <c r="E121" s="38" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5">
-      <c r="E122" s="38" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="38" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="38" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="38" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5">
-      <c r="E126" s="38" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="127" spans="5:5">
-      <c r="E127" s="38" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="128" spans="5:5">
-      <c r="E128" s="38" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="129" spans="3:8">
-      <c r="E129" s="38" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="130" spans="3:8">
-      <c r="E130" s="38" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="131" spans="3:8">
-      <c r="E131" s="38" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="133" spans="3:8">
-      <c r="C133" s="38">
+      <c r="D308" s="38" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="309" spans="2:5">
+      <c r="E309" s="38" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="310" spans="2:5">
+      <c r="E310" s="38" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="315" spans="2:5">
+      <c r="B315" s="38">
         <v>4</v>
       </c>
-      <c r="D133" s="38" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="134" spans="3:8">
-      <c r="E134" s="38" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="135" spans="3:8">
-      <c r="E135" s="38" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="137" spans="3:8">
-      <c r="E137" s="38" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="138" spans="3:8">
-      <c r="E138" s="38">
-        <v>1</v>
-      </c>
-      <c r="F138" s="38" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="139" spans="3:8">
-      <c r="F139" s="38" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="140" spans="3:8">
-      <c r="F140" s="38" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="141" spans="3:8">
-      <c r="G141" s="38" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="142" spans="3:8">
-      <c r="H142" s="38" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="143" spans="3:8">
-      <c r="H143" s="38" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="144" spans="3:8">
-      <c r="G144" s="38" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="146" spans="5:8">
-      <c r="F146" s="38" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="147" spans="5:8">
-      <c r="G147" s="38" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="149" spans="5:8">
-      <c r="E149" s="38">
-        <v>2</v>
-      </c>
-      <c r="F149" s="38" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="150" spans="5:8">
-      <c r="F150" s="38" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="151" spans="5:8">
-      <c r="G151" s="38" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="152" spans="5:8">
-      <c r="H152" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="153" spans="5:8">
-      <c r="G153" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="155" spans="5:8">
-      <c r="E155" s="38">
-        <v>3</v>
-      </c>
-      <c r="F155" s="38" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="158" spans="5:8">
-      <c r="E158" s="38" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="159" spans="5:8">
-      <c r="F159" s="38" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="165" spans="3:7">
-      <c r="C165" s="38">
-        <v>5</v>
-      </c>
-      <c r="D165" s="38" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="166" spans="3:7">
-      <c r="E166" s="38" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="167" spans="3:7">
-      <c r="E167" s="38" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="168" spans="3:7">
-      <c r="F168" s="38" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="169" spans="3:7">
-      <c r="G169" s="38" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="170" spans="3:7">
-      <c r="G170" s="38" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="171" spans="3:7">
-      <c r="F171" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="174" spans="3:7">
-      <c r="E174" s="38" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="175" spans="3:7">
-      <c r="F175" s="38" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="176" spans="3:7">
-      <c r="F176" s="38" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="177" spans="6:7">
-      <c r="F177" s="38" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="178" spans="6:7">
-      <c r="G178" s="38" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="179" spans="6:7">
-      <c r="G179" s="38" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="180" spans="6:7">
-      <c r="G180" s="38" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="181" spans="6:7">
-      <c r="G181" s="38" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="182" spans="6:7">
-      <c r="G182" s="38" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="183" spans="6:7">
-      <c r="G183" s="38" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="184" spans="6:7">
-      <c r="G184" s="38" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="186" spans="6:7">
-      <c r="F186" s="38" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="187" spans="6:7">
-      <c r="G187" s="38" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="188" spans="6:7">
-      <c r="G188" s="38" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="189" spans="6:7">
-      <c r="G189" s="38" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="190" spans="6:7">
-      <c r="G190" s="38" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="191" spans="6:7">
-      <c r="G191" s="38" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="192" spans="6:7">
-      <c r="G192" s="38" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="193" spans="3:7">
-      <c r="G193" s="38" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="194" spans="3:7">
-      <c r="G194" s="38" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="195" spans="3:7">
-      <c r="G195" s="38" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="196" spans="3:7">
-      <c r="G196" s="38" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="197" spans="3:7">
-      <c r="G197" s="38" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="198" spans="3:7">
-      <c r="G198" s="38" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="199" spans="3:7">
-      <c r="G199" s="38" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="202" spans="3:7">
-      <c r="C202" s="38">
-        <v>6</v>
-      </c>
-      <c r="D202" s="38" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="203" spans="3:7">
-      <c r="E203" s="38" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="204" spans="3:7">
-      <c r="E204" s="38" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="205" spans="3:7">
-      <c r="E205" s="38">
-        <v>1</v>
-      </c>
-      <c r="F205" s="38" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="206" spans="3:7">
-      <c r="E206" s="38">
-        <v>2</v>
-      </c>
-      <c r="F206" s="38" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="207" spans="3:7">
-      <c r="E207" s="38">
-        <v>3</v>
-      </c>
-      <c r="F207" s="38" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="209" spans="5:8">
-      <c r="E209" s="38" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="210" spans="5:8">
-      <c r="E210" s="38" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="211" spans="5:8">
-      <c r="E211" s="38">
-        <v>1</v>
-      </c>
-      <c r="F211" s="38" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="212" spans="5:8">
-      <c r="F212" s="38" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="215" spans="5:8">
-      <c r="F215" s="38" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="216" spans="5:8">
-      <c r="F216" s="38" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="217" spans="5:8">
-      <c r="G217" s="38" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="218" spans="5:8">
-      <c r="G218" s="38" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="219" spans="5:8">
-      <c r="G219" s="38" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="220" spans="5:8">
-      <c r="G220" s="38" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="221" spans="5:8">
-      <c r="H221" s="46" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="222" spans="5:8">
-      <c r="G222" s="38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="223" spans="5:8">
-      <c r="G223" s="38" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="224" spans="5:8">
-      <c r="H224" s="38" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="225" spans="5:8">
-      <c r="G225" s="38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="226" spans="5:8">
-      <c r="G226" s="38" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="227" spans="5:8">
-      <c r="H227" s="38" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="228" spans="5:8">
-      <c r="G228" s="38" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="229" spans="5:8">
-      <c r="F229" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="231" spans="5:8">
-      <c r="F231" s="38" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="232" spans="5:8">
-      <c r="F232" s="38" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="233" spans="5:8">
-      <c r="G233" s="38" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="234" spans="5:8">
-      <c r="G234" s="46" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="235" spans="5:8">
-      <c r="G235" s="38" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="236" spans="5:8">
-      <c r="F236" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="239" spans="5:8">
-      <c r="E239" s="38">
-        <v>2</v>
-      </c>
-      <c r="F239" s="38" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="240" spans="5:8">
-      <c r="F240" s="38" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="241" spans="6:7">
-      <c r="F241" s="38" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="242" spans="6:7">
-      <c r="G242" s="38" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="243" spans="6:7">
-      <c r="G243" s="38" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="244" spans="6:7">
-      <c r="F244" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="246" spans="6:7">
-      <c r="F246" s="66" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="247" spans="6:7">
-      <c r="F247" s="38" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="248" spans="6:7">
-      <c r="G248" s="38" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="249" spans="6:7">
-      <c r="G249" s="38" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="250" spans="6:7">
-      <c r="F250" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="252" spans="6:7">
-      <c r="F252" s="38" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="253" spans="6:7">
-      <c r="G253" s="38" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="254" spans="6:7">
-      <c r="G254" s="38" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="255" spans="6:7">
-      <c r="G255" s="65" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="256" spans="6:7">
-      <c r="G256" s="38" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="257" spans="6:8">
-      <c r="H257" s="46" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="258" spans="6:8">
-      <c r="G258" s="38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="259" spans="6:8">
-      <c r="G259" s="38" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="260" spans="6:8">
-      <c r="H260" s="38" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="261" spans="6:8">
-      <c r="G261" s="38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="262" spans="6:8">
-      <c r="G262" s="38" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="263" spans="6:8">
-      <c r="H263" s="38" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="264" spans="6:8">
-      <c r="G264" s="38" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="266" spans="6:8">
-      <c r="F266" s="38" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="267" spans="6:8">
-      <c r="F267" s="38" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="268" spans="6:8">
-      <c r="G268" s="38" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="269" spans="6:8">
-      <c r="G269" s="38" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="270" spans="6:8">
-      <c r="H270" s="38" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="271" spans="6:8">
-      <c r="H271" s="46" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="272" spans="6:8">
-      <c r="H272" s="38" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="273" spans="3:7">
-      <c r="G273" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="274" spans="3:7">
-      <c r="F274" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="280" spans="3:7">
-      <c r="C280" s="67" t="s">
-        <v>865</v>
+      <c r="C315" s="38" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="316" spans="2:5">
+      <c r="D316" s="38" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="317" spans="2:5">
+      <c r="E317" s="38" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="319" spans="2:5">
+      <c r="D319" s="38" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="320" spans="2:5">
+      <c r="E320" s="38" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="323" spans="4:5">
+      <c r="D323" s="38" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="324" spans="4:5">
+      <c r="E324" s="38" t="s">
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -7427,13 +7740,13 @@
     <row r="9" spans="1:4" outlineLevel="1">
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="10" spans="1:4" outlineLevel="1">
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:4" outlineLevel="1">
@@ -8708,7 +9021,7 @@
         <v>58</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="265" spans="1:14">
@@ -9046,28 +9359,28 @@
         <v>46</v>
       </c>
       <c r="E304" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="305" spans="4:14">
       <c r="D305" s="8" t="s">
+        <v>916</v>
+      </c>
+      <c r="E305" s="8" t="s">
         <v>917</v>
-      </c>
-      <c r="E305" s="8" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="306" spans="4:14">
       <c r="D306" s="8" t="s">
+        <v>918</v>
+      </c>
+      <c r="E306" s="8" t="s">
         <v>919</v>
-      </c>
-      <c r="E306" s="8" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="308" spans="4:14">
       <c r="E308" s="19" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F308" s="20"/>
       <c r="G308" s="20"/>
@@ -9095,7 +9408,7 @@
     </row>
     <row r="310" spans="4:14">
       <c r="E310" s="22" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F310" s="23"/>
       <c r="G310" s="23"/>
@@ -9109,7 +9422,7 @@
     </row>
     <row r="311" spans="4:14">
       <c r="E311" s="22" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F311" s="23"/>
       <c r="G311" s="23"/>
@@ -9123,7 +9436,7 @@
     </row>
     <row r="312" spans="4:14">
       <c r="E312" s="22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F312" s="23"/>
       <c r="G312" s="23"/>
@@ -9137,7 +9450,7 @@
     </row>
     <row r="313" spans="4:14">
       <c r="E313" s="22" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F313" s="23"/>
       <c r="G313" s="23"/>
@@ -9151,7 +9464,7 @@
     </row>
     <row r="314" spans="4:14">
       <c r="E314" s="22" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F314" s="23"/>
       <c r="G314" s="23"/>
@@ -9165,7 +9478,7 @@
     </row>
     <row r="315" spans="4:14">
       <c r="E315" s="22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F315" s="23"/>
       <c r="G315" s="23"/>
@@ -9191,7 +9504,7 @@
     </row>
     <row r="318" spans="4:14">
       <c r="E318" s="19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F318" s="20"/>
       <c r="G318" s="20"/>
@@ -9205,7 +9518,7 @@
     </row>
     <row r="319" spans="4:14">
       <c r="E319" s="22" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F319" s="23"/>
       <c r="G319" s="23"/>
@@ -9233,7 +9546,7 @@
     </row>
     <row r="321" spans="1:14">
       <c r="E321" s="22" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F321" s="23"/>
       <c r="G321" s="23"/>
@@ -9247,7 +9560,7 @@
     </row>
     <row r="322" spans="1:14">
       <c r="E322" s="22" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F322" s="23"/>
       <c r="G322" s="23"/>
@@ -9261,7 +9574,7 @@
     </row>
     <row r="323" spans="1:14">
       <c r="E323" s="22" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F323" s="23"/>
       <c r="G323" s="23"/>
@@ -9289,7 +9602,7 @@
     </row>
     <row r="325" spans="1:14">
       <c r="E325" s="28" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F325" s="26"/>
       <c r="G325" s="26"/>
@@ -9303,25 +9616,25 @@
     </row>
     <row r="327" spans="1:14">
       <c r="D327" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E327" s="8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="328" spans="1:14">
       <c r="E328" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="329" spans="1:14">
       <c r="E329" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="330" spans="1:14">
       <c r="E330" s="8" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="334" spans="1:14">
@@ -9613,62 +9926,62 @@
         <v>3</v>
       </c>
       <c r="E416" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="417" spans="1:6">
       <c r="E417" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="418" spans="1:6">
       <c r="E418" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="419" spans="1:6">
       <c r="E419" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="420" spans="1:6">
       <c r="E420" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="F421" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="F422" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="F423" s="8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="E424" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="F425" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="E426" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="F427" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -10946,7 +11259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P285"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>

--- a/NoteBook.xlsx
+++ b/NoteBook.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15600" tabRatio="760" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="965">
   <si>
     <t>#else</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2540,14 +2540,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>plusready事件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>此事件会在HTML5+应用的页面加载后自动触发，该事件触发后才能调用所有HTML5+ API.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4319,6 +4311,21 @@
   </si>
   <si>
     <t>本地浏览器储存空间在浏览器-&gt;显示web检查器,可以看到各个网站对应的储存空间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://dcloudio.github.io/mui/javascript/#ajax</t>
+  </si>
+  <si>
+    <t>由于墙的原因,已经迁回国内,但是原网页的方式很不错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注:plusready事件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4556,7 +4563,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4593,6 +4600,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4826,7 +4843,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="138">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4954,6 +4971,16 @@
     <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="137" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5880,7 +5907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -5931,7 +5958,7 @@
     </row>
     <row r="13" spans="2:4">
       <c r="C13" s="10" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -6162,7 +6189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -6205,120 +6232,120 @@
     </row>
     <row r="13" spans="1:4">
       <c r="C13" s="38" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="D16" s="38" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="D17" s="38" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="E19" s="38" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="E20" s="38" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="C25" s="38" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="38" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="33" spans="3:6">
       <c r="C33" s="38" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="34" spans="3:6">
       <c r="D34" s="38" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="3:6">
       <c r="E35" s="38" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="36" spans="3:6">
       <c r="F36" s="38" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="37" spans="3:6">
       <c r="F37" s="38" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="3:6">
       <c r="F38" s="38" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="39" spans="3:6">
       <c r="F39" s="38" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="41" spans="3:6">
       <c r="E41" s="38" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="42" spans="3:6">
       <c r="F42" s="38" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" spans="3:6">
       <c r="F43" s="38" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="44" spans="3:6">
       <c r="F44" s="38" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="46" spans="3:6">
       <c r="E46" s="38" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="47" spans="3:6">
       <c r="F47" s="38" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="48" spans="3:6">
       <c r="F48" s="38" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="50" spans="5:6">
       <c r="E50" s="38" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="51" spans="5:6">
       <c r="F51" s="38" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -6338,7 +6365,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H324"/>
+  <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -6348,1316 +6375,1332 @@
     <col min="2" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="44" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="C4" s="38" t="s">
+    <row r="5" spans="1:5">
+      <c r="C5" s="38" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="C8" s="38" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="C9" s="38">
+        <v>1</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="38" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11" s="38">
+        <v>2</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="E12" s="38" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" s="38">
+        <v>3</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="38" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="38">
+        <v>1</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="C22" s="38" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="C23" s="38" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="C24" s="38">
+        <v>1</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="D25" s="38" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="D26" s="38" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="D27" s="38" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="38">
+        <v>2</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" outlineLevel="1">
+      <c r="C30" s="38" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" outlineLevel="1">
+      <c r="D31" s="38" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" outlineLevel="1">
+      <c r="D32" s="38" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" outlineLevel="1"/>
+    <row r="34" spans="3:5" outlineLevel="1">
+      <c r="D34" s="38" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" outlineLevel="1">
+      <c r="D35" s="38" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" outlineLevel="1"/>
+    <row r="37" spans="3:5" outlineLevel="1">
+      <c r="C37" s="38" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" outlineLevel="1">
+      <c r="C38" s="38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" outlineLevel="1">
+      <c r="D39" s="38" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" outlineLevel="1">
+      <c r="D40" s="38" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" outlineLevel="1">
+      <c r="E41" s="46" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" outlineLevel="1"/>
+    <row r="43" spans="3:5" outlineLevel="1">
+      <c r="D43" s="38" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" outlineLevel="1">
+      <c r="E44" s="46" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" outlineLevel="1">
+      <c r="D45" s="46"/>
+      <c r="E45" s="38" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" outlineLevel="1"/>
+    <row r="47" spans="3:5" outlineLevel="1">
+      <c r="C47" s="38" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" outlineLevel="1">
+      <c r="C48" s="38">
+        <v>1</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" outlineLevel="1">
+      <c r="D49" s="38" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" outlineLevel="1"/>
+    <row r="51" spans="4:6" outlineLevel="1">
+      <c r="D51" s="38" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" outlineLevel="1">
+      <c r="D52" s="38" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" outlineLevel="1">
+      <c r="E53" s="38" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" outlineLevel="1">
+      <c r="E54" s="38" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" outlineLevel="1">
+      <c r="F55" s="38" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" outlineLevel="1">
+      <c r="E56" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" outlineLevel="1"/>
+    <row r="58" spans="4:6" outlineLevel="1">
+      <c r="D58" s="38" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" outlineLevel="1">
+      <c r="E59" s="38" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" outlineLevel="1">
+      <c r="E60" s="38" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" outlineLevel="1"/>
+    <row r="62" spans="4:6" outlineLevel="1">
+      <c r="E62" s="38" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" outlineLevel="1">
+      <c r="F63" s="38" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" outlineLevel="1">
+      <c r="F64" s="38" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" outlineLevel="1">
+      <c r="F65" s="38" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" outlineLevel="1">
+      <c r="G66" s="38" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" outlineLevel="1">
+      <c r="H67" s="38" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" outlineLevel="1">
+      <c r="H68" s="38" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" outlineLevel="1">
+      <c r="H69" s="38" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" outlineLevel="1">
+      <c r="H70" s="38" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" outlineLevel="1">
+      <c r="H71" s="38" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" outlineLevel="1">
+      <c r="H72" s="38" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" outlineLevel="1">
+      <c r="G73" s="38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" outlineLevel="1">
+      <c r="F74" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" outlineLevel="1"/>
+    <row r="76" spans="3:8" outlineLevel="1"/>
+    <row r="77" spans="3:8" outlineLevel="1">
+      <c r="C77" s="38">
+        <v>2</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" outlineLevel="1">
+      <c r="D78" s="38" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" outlineLevel="1">
+      <c r="D79" s="38" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" outlineLevel="1">
+      <c r="D80" s="38" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" outlineLevel="1">
+      <c r="D81" s="38" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="D83" s="38" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="E84" s="38" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5" s="38" t="s">
+    <row r="85" spans="3:6">
+      <c r="E85" s="38" t="s">
         <v>532</v>
       </c>
-      <c r="D5" s="38" t="s">
+    </row>
+    <row r="86" spans="3:6" outlineLevel="1">
+      <c r="D86" s="38" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" outlineLevel="1">
+      <c r="E87" s="38" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" outlineLevel="1">
+      <c r="F88" s="38" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" outlineLevel="1">
+      <c r="F89" s="38" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" outlineLevel="1"/>
+    <row r="91" spans="3:6" outlineLevel="1">
+      <c r="C91" s="38">
+        <v>3</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" outlineLevel="1">
+      <c r="E92" s="38" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" outlineLevel="1">
+      <c r="E93" s="38" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" outlineLevel="1">
+      <c r="E94" s="38" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" outlineLevel="1">
+      <c r="E95" s="38" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" outlineLevel="1">
+      <c r="E96" s="38" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" outlineLevel="1">
+      <c r="E97" s="38" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" outlineLevel="1"/>
+    <row r="99" spans="5:5" outlineLevel="1"/>
+    <row r="100" spans="5:5" outlineLevel="1">
+      <c r="E100" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" outlineLevel="1">
+      <c r="E101" s="38" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" outlineLevel="1">
+      <c r="E102" s="38" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" outlineLevel="1">
+      <c r="E103" s="38" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" outlineLevel="1">
+      <c r="E104" s="38" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" outlineLevel="1">
+      <c r="E105" s="38" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" outlineLevel="1">
+      <c r="E106" s="38" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" outlineLevel="1">
+      <c r="E107" s="38" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" outlineLevel="1">
+      <c r="E108" s="38" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" outlineLevel="1">
+      <c r="E109" s="38" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" outlineLevel="1">
+      <c r="E110" s="38" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" outlineLevel="1">
+      <c r="E111" s="38" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" outlineLevel="1">
+      <c r="E112" s="38" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" outlineLevel="1">
+      <c r="E113" s="38" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" outlineLevel="1">
+      <c r="E114" s="38" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" outlineLevel="1">
+      <c r="E115" s="38" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" outlineLevel="1">
+      <c r="E116" s="38" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" outlineLevel="1">
+      <c r="E117" s="38" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" outlineLevel="1">
+      <c r="E118" s="38" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" outlineLevel="1">
+      <c r="E119" s="38" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" outlineLevel="1">
+      <c r="E120" s="38" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" outlineLevel="1">
+      <c r="E121" s="38" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" outlineLevel="1">
+      <c r="E122" s="38" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" outlineLevel="1">
+      <c r="E123" s="38" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" outlineLevel="1">
+      <c r="E124" s="38" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" outlineLevel="1">
+      <c r="E125" s="38" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" outlineLevel="1">
+      <c r="E126" s="38" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" outlineLevel="1">
+      <c r="E127" s="38" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" outlineLevel="1">
+      <c r="E128" s="38" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" outlineLevel="1"/>
+    <row r="130" spans="3:8" outlineLevel="1">
+      <c r="C130" s="38">
+        <v>4</v>
+      </c>
+      <c r="D130" s="38" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" outlineLevel="1">
+      <c r="E131" s="38" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" outlineLevel="1">
+      <c r="E132" s="38" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" outlineLevel="1"/>
+    <row r="134" spans="3:8" outlineLevel="1">
+      <c r="E134" s="38" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" outlineLevel="1">
+      <c r="E135" s="38">
+        <v>1</v>
+      </c>
+      <c r="F135" s="38" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" outlineLevel="1">
+      <c r="F136" s="38" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" outlineLevel="1">
+      <c r="F137" s="38" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" outlineLevel="1">
+      <c r="G138" s="38" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" outlineLevel="1">
+      <c r="H139" s="38" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" outlineLevel="1">
+      <c r="H140" s="38" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" outlineLevel="1">
+      <c r="G141" s="38" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" outlineLevel="1"/>
+    <row r="143" spans="3:8" outlineLevel="1">
+      <c r="F143" s="38" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" outlineLevel="1">
+      <c r="G144" s="38" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="145" spans="5:8" outlineLevel="1"/>
+    <row r="146" spans="5:8" outlineLevel="1">
+      <c r="E146" s="38">
+        <v>2</v>
+      </c>
+      <c r="F146" s="38" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="147" spans="5:8" outlineLevel="1">
+      <c r="F147" s="38" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="148" spans="5:8" outlineLevel="1">
+      <c r="G148" s="38" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="149" spans="5:8" outlineLevel="1">
+      <c r="H149" s="38" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="150" spans="5:8" outlineLevel="1">
+      <c r="G150" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="151" spans="5:8" outlineLevel="1"/>
+    <row r="152" spans="5:8" outlineLevel="1">
+      <c r="E152" s="38">
+        <v>3</v>
+      </c>
+      <c r="F152" s="38" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="153" spans="5:8" outlineLevel="1"/>
+    <row r="154" spans="5:8" outlineLevel="1"/>
+    <row r="155" spans="5:8" outlineLevel="1">
+      <c r="E155" s="38" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="156" spans="5:8" outlineLevel="1">
+      <c r="F156" s="38" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="157" spans="5:8" outlineLevel="1"/>
+    <row r="158" spans="5:8" outlineLevel="1"/>
+    <row r="159" spans="5:8" outlineLevel="1"/>
+    <row r="160" spans="5:8" outlineLevel="1"/>
+    <row r="161" spans="3:7" outlineLevel="1"/>
+    <row r="162" spans="3:7" outlineLevel="1">
+      <c r="C162" s="38">
+        <v>5</v>
+      </c>
+      <c r="D162" s="38" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="163" spans="3:7" outlineLevel="1">
+      <c r="E163" s="38" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="164" spans="3:7" outlineLevel="1">
+      <c r="E164" s="38" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="165" spans="3:7" outlineLevel="1">
+      <c r="F165" s="38" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="166" spans="3:7" outlineLevel="1">
+      <c r="G166" s="38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="167" spans="3:7" outlineLevel="1">
+      <c r="G167" s="38" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="168" spans="3:7" outlineLevel="1">
+      <c r="F168" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="169" spans="3:7" outlineLevel="1"/>
+    <row r="170" spans="3:7" outlineLevel="1"/>
+    <row r="171" spans="3:7" outlineLevel="1">
+      <c r="E171" s="38" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="172" spans="3:7" outlineLevel="1">
+      <c r="F172" s="38" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="173" spans="3:7" outlineLevel="1">
+      <c r="F173" s="38" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="174" spans="3:7" outlineLevel="1">
+      <c r="F174" s="38" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="175" spans="3:7" outlineLevel="1">
+      <c r="G175" s="38" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="176" spans="3:7" outlineLevel="1">
+      <c r="G176" s="38" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="177" spans="6:7" outlineLevel="1">
+      <c r="G177" s="38" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="178" spans="6:7" outlineLevel="1">
+      <c r="G178" s="38" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="179" spans="6:7" outlineLevel="1">
+      <c r="G179" s="38" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="180" spans="6:7" outlineLevel="1">
+      <c r="G180" s="38" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="181" spans="6:7" outlineLevel="1">
+      <c r="G181" s="38" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="182" spans="6:7" outlineLevel="1"/>
+    <row r="183" spans="6:7" outlineLevel="1">
+      <c r="F183" s="38" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="184" spans="6:7" outlineLevel="1">
+      <c r="G184" s="38" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="185" spans="6:7" outlineLevel="1">
+      <c r="G185" s="38" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="186" spans="6:7" outlineLevel="1">
+      <c r="G186" s="38" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="187" spans="6:7" outlineLevel="1">
+      <c r="G187" s="38" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="188" spans="6:7" outlineLevel="1">
+      <c r="G188" s="38" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="189" spans="6:7" outlineLevel="1">
+      <c r="G189" s="38" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="190" spans="6:7" outlineLevel="1">
+      <c r="G190" s="38" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="191" spans="6:7" outlineLevel="1">
+      <c r="G191" s="38" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="192" spans="6:7" outlineLevel="1">
+      <c r="G192" s="38" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="193" spans="3:7" outlineLevel="1">
+      <c r="G193" s="38" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="194" spans="3:7" outlineLevel="1">
+      <c r="G194" s="38" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="195" spans="3:7" outlineLevel="1">
+      <c r="G195" s="38" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="196" spans="3:7" outlineLevel="1">
+      <c r="G196" s="38" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="D6" s="38" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="38" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="C13" s="38" t="s">
-        <v>702</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" s="38" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="38" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="38">
+    <row r="197" spans="3:7" outlineLevel="1"/>
+    <row r="198" spans="3:7" outlineLevel="1"/>
+    <row r="199" spans="3:7" outlineLevel="1">
+      <c r="C199" s="38">
+        <v>6</v>
+      </c>
+      <c r="D199" s="38" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="200" spans="3:7" outlineLevel="1">
+      <c r="E200" s="38" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="201" spans="3:7" outlineLevel="1">
+      <c r="E201" s="38" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="202" spans="3:7" outlineLevel="1">
+      <c r="E202" s="38">
         <v>1</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="F202" s="38" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="203" spans="3:7" outlineLevel="1">
+      <c r="E203" s="38">
+        <v>2</v>
+      </c>
+      <c r="F203" s="38" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="204" spans="3:7" outlineLevel="1">
+      <c r="E204" s="38">
+        <v>3</v>
+      </c>
+      <c r="F204" s="38" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="205" spans="3:7" outlineLevel="1"/>
+    <row r="206" spans="3:7" outlineLevel="1">
+      <c r="E206" s="38" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="207" spans="3:7" outlineLevel="1">
+      <c r="E207" s="38" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="208" spans="3:7" outlineLevel="1">
+      <c r="E208" s="38">
+        <v>1</v>
+      </c>
+      <c r="F208" s="38" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="209" spans="6:8" outlineLevel="1">
+      <c r="F209" s="38" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="210" spans="6:8" outlineLevel="1"/>
+    <row r="211" spans="6:8" outlineLevel="1"/>
+    <row r="212" spans="6:8" outlineLevel="1">
+      <c r="F212" s="38" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="213" spans="6:8" outlineLevel="1">
+      <c r="F213" s="38" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="214" spans="6:8" outlineLevel="1">
+      <c r="G214" s="38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="215" spans="6:8" outlineLevel="1">
+      <c r="G215" s="38" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="216" spans="6:8" outlineLevel="1">
+      <c r="G216" s="38" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="217" spans="6:8" outlineLevel="1">
+      <c r="G217" s="38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="218" spans="6:8" outlineLevel="1">
+      <c r="H218" s="46" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="219" spans="6:8" outlineLevel="1">
+      <c r="G219" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="220" spans="6:8" outlineLevel="1">
+      <c r="G220" s="38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="221" spans="6:8" outlineLevel="1">
+      <c r="H221" s="38" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="222" spans="6:8" outlineLevel="1">
+      <c r="G222" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="223" spans="6:8" outlineLevel="1">
+      <c r="G223" s="38" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="224" spans="6:8" outlineLevel="1">
+      <c r="H224" s="38" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="225" spans="5:7" outlineLevel="1">
+      <c r="G225" s="38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="226" spans="5:7" outlineLevel="1">
+      <c r="F226" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="227" spans="5:7" outlineLevel="1"/>
+    <row r="228" spans="5:7" outlineLevel="1">
+      <c r="F228" s="38" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="229" spans="5:7" outlineLevel="1">
+      <c r="F229" s="38" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="230" spans="5:7" outlineLevel="1">
+      <c r="G230" s="38" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="231" spans="5:7" outlineLevel="1">
+      <c r="G231" s="46" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="232" spans="5:7" outlineLevel="1">
+      <c r="G232" s="38" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="233" spans="5:7" outlineLevel="1">
+      <c r="F233" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="234" spans="5:7" outlineLevel="1"/>
+    <row r="235" spans="5:7" outlineLevel="1"/>
+    <row r="236" spans="5:7" outlineLevel="1">
+      <c r="E236" s="38">
+        <v>2</v>
+      </c>
+      <c r="F236" s="38" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="237" spans="5:7" outlineLevel="1">
+      <c r="F237" s="38" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="238" spans="5:7" outlineLevel="1">
+      <c r="F238" s="38" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="239" spans="5:7" outlineLevel="1">
+      <c r="G239" s="38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="240" spans="5:7" outlineLevel="1">
+      <c r="G240" s="38" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="241" spans="6:8" outlineLevel="1">
+      <c r="F241" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="242" spans="6:8" outlineLevel="1"/>
+    <row r="243" spans="6:8" outlineLevel="1">
+      <c r="F243" s="66" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="244" spans="6:8" outlineLevel="1">
+      <c r="F244" s="38" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="245" spans="6:8" outlineLevel="1">
+      <c r="G245" s="38" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="246" spans="6:8" outlineLevel="1">
+      <c r="G246" s="38" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="247" spans="6:8" outlineLevel="1">
+      <c r="F247" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="248" spans="6:8" outlineLevel="1"/>
+    <row r="249" spans="6:8" outlineLevel="1">
+      <c r="F249" s="38" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="250" spans="6:8" outlineLevel="1">
+      <c r="G250" s="38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="251" spans="6:8" outlineLevel="1">
+      <c r="G251" s="38" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="252" spans="6:8" outlineLevel="1">
+      <c r="G252" s="65" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="253" spans="6:8" outlineLevel="1">
+      <c r="G253" s="38" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="254" spans="6:8" outlineLevel="1">
+      <c r="H254" s="46" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="255" spans="6:8" outlineLevel="1">
+      <c r="G255" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="256" spans="6:8" outlineLevel="1">
+      <c r="G256" s="38" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="257" spans="6:8" outlineLevel="1">
+      <c r="H257" s="38" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="258" spans="6:8" outlineLevel="1">
+      <c r="G258" s="38" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="259" spans="6:8" outlineLevel="1">
+      <c r="G259" s="38" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="260" spans="6:8" outlineLevel="1">
+      <c r="H260" s="38" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="261" spans="6:8" outlineLevel="1">
+      <c r="G261" s="38" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="262" spans="6:8" outlineLevel="1"/>
+    <row r="263" spans="6:8" outlineLevel="1">
+      <c r="F263" s="38" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="264" spans="6:8" outlineLevel="1">
+      <c r="F264" s="38" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="265" spans="6:8" outlineLevel="1">
+      <c r="G265" s="38" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="266" spans="6:8" outlineLevel="1">
+      <c r="G266" s="38" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="267" spans="6:8" outlineLevel="1">
+      <c r="H267" s="38" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="268" spans="6:8" outlineLevel="1">
+      <c r="H268" s="46" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="269" spans="6:8" outlineLevel="1">
+      <c r="H269" s="38" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="270" spans="6:8" outlineLevel="1">
+      <c r="G270" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="271" spans="6:8" outlineLevel="1">
+      <c r="F271" s="38" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="272" spans="6:8" outlineLevel="1"/>
+    <row r="277" spans="2:3">
+      <c r="C277" s="67" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="B288" s="38">
+        <v>3</v>
+      </c>
+      <c r="C288" s="38" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="289" spans="3:5">
+      <c r="C289" s="38" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="C25" s="38" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="C26" s="38" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="C27" s="38">
+    <row r="290" spans="3:5">
+      <c r="D290" s="38" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="291" spans="3:5">
+      <c r="D291" s="38" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="292" spans="3:5">
+      <c r="D292" s="38" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="293" spans="3:5">
+      <c r="D293" s="38" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="296" spans="3:5">
+      <c r="C296" s="38" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="297" spans="3:5">
+      <c r="C297" s="38">
         <v>1</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="D28" s="38" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="D29" s="38" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="D30" s="38" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="38">
+      <c r="D297" s="38" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="298" spans="3:5">
+      <c r="E298" s="38" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="299" spans="3:5">
+      <c r="C299" s="38">
         <v>2</v>
       </c>
-      <c r="C34" s="38" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="C35" s="38" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="D36" s="38" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="D37" s="38" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" hidden="1" outlineLevel="1"/>
-    <row r="39" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="D39" s="38" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="D40" s="38" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" hidden="1" outlineLevel="1"/>
-    <row r="42" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="C42" s="38" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="C43" s="38">
-        <v>1</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="D44" s="38" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="D45" s="38" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="E46" s="46" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" hidden="1" outlineLevel="1"/>
-    <row r="48" spans="2:5" hidden="1" outlineLevel="1">
-      <c r="D48" s="38" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E49" s="46" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="D50" s="46"/>
-      <c r="E50" s="38" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="52" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="C52" s="38" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="C53" s="38">
-        <v>1</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="D54" s="38" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="56" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="D56" s="38" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="57" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="D57" s="38" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="58" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E58" s="38" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="59" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E59" s="38" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="60" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="F60" s="38" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="61" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E61" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="62" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="63" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="D63" s="38" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="64" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E64" s="38" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="65" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="E65" s="38" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="66" spans="5:8" hidden="1" outlineLevel="1"/>
-    <row r="67" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="E67" s="38" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="68" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="F68" s="38" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="69" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="F69" s="38" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="70" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="F70" s="38" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="71" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="G71" s="38" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="72" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="H72" s="38" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="73" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="H73" s="38" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="74" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="H74" s="38" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="75" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="H75" s="38" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="76" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="H76" s="38" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="77" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="H77" s="38" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="78" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="G78" s="38" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="79" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="F79" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="80" spans="5:8" hidden="1" outlineLevel="1"/>
-    <row r="81" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="82" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="83" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="84" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="85" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="86" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="87" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="88" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="C88" s="38">
-        <v>2</v>
-      </c>
-      <c r="D88" s="38" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="89" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="D89" s="38" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="90" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="D90" s="38" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="91" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="D91" s="38" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="92" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="D92" s="38" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="93" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="D93" s="38" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="94" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E94" s="38" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="95" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="F95" s="38" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="96" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="F96" s="38" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="97" spans="3:5" hidden="1" outlineLevel="1"/>
-    <row r="98" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="C98" s="38">
+      <c r="D299" s="38" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="300" spans="3:5">
+      <c r="E300" s="38" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="301" spans="3:5">
+      <c r="C301" s="38">
         <v>3</v>
       </c>
-      <c r="D98" s="38" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E99" s="38" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="100" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E100" s="38" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E101" s="38" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="102" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E102" s="38" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E103" s="38" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E104" s="38" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5" hidden="1" outlineLevel="1"/>
-    <row r="106" spans="3:5" hidden="1" outlineLevel="1"/>
-    <row r="107" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E107" s="38" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="108" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E108" s="38" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="109" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E109" s="38" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E110" s="38" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="111" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E111" s="38" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="112" spans="3:5" hidden="1" outlineLevel="1">
-      <c r="E112" s="38" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="113" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E113" s="38" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E114" s="38" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="115" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E115" s="38" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E116" s="38" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="117" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E117" s="38" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E118" s="38" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="119" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E119" s="38" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E120" s="38" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="121" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E121" s="38" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E122" s="38" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="123" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E123" s="38" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E124" s="38" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E125" s="38" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E126" s="38" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="127" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E127" s="38" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="128" spans="5:5" hidden="1" outlineLevel="1">
-      <c r="E128" s="38" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="129" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E129" s="38" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="130" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E130" s="38" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="131" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E131" s="38" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="132" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E132" s="38" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="133" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E133" s="38" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="134" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E134" s="38" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="135" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E135" s="38" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="136" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="137" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="C137" s="38">
+      <c r="D301" s="38" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="302" spans="3:5">
+      <c r="E302" s="38" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="303" spans="3:5">
+      <c r="E303" s="38" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="308" spans="2:5">
+      <c r="B308" s="38">
         <v>4</v>
       </c>
-      <c r="D137" s="38" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="138" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E138" s="38" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="139" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E139" s="38" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="140" spans="3:6" hidden="1" outlineLevel="1"/>
-    <row r="141" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E141" s="38" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="142" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="E142" s="38">
-        <v>1</v>
-      </c>
-      <c r="F142" s="38" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="143" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="F143" s="38" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="144" spans="3:6" hidden="1" outlineLevel="1">
-      <c r="F144" s="38" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="145" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="G145" s="38" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="146" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="H146" s="38" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="147" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="H147" s="38" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="148" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="G148" s="38" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="149" spans="5:8" hidden="1" outlineLevel="1"/>
-    <row r="150" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="F150" s="38" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="151" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="G151" s="38" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="152" spans="5:8" hidden="1" outlineLevel="1"/>
-    <row r="153" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="E153" s="38">
-        <v>2</v>
-      </c>
-      <c r="F153" s="38" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="154" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="F154" s="38" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="155" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="G155" s="38" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="156" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="H156" s="38" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="157" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="G157" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="158" spans="5:8" hidden="1" outlineLevel="1"/>
-    <row r="159" spans="5:8" hidden="1" outlineLevel="1">
-      <c r="E159" s="38">
-        <v>3</v>
-      </c>
-      <c r="F159" s="38" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="160" spans="5:8" hidden="1" outlineLevel="1"/>
-    <row r="161" spans="3:7" hidden="1" outlineLevel="1"/>
-    <row r="162" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="E162" s="38" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="163" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="F163" s="38" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="164" spans="3:7" hidden="1" outlineLevel="1"/>
-    <row r="165" spans="3:7" hidden="1" outlineLevel="1"/>
-    <row r="166" spans="3:7" hidden="1" outlineLevel="1"/>
-    <row r="167" spans="3:7" hidden="1" outlineLevel="1"/>
-    <row r="168" spans="3:7" hidden="1" outlineLevel="1"/>
-    <row r="169" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="C169" s="38">
-        <v>5</v>
-      </c>
-      <c r="D169" s="38" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="170" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="E170" s="38" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="171" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="E171" s="38" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="172" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="F172" s="38" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="173" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G173" s="38" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="174" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G174" s="38" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="175" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="F175" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="176" spans="3:7" hidden="1" outlineLevel="1"/>
-    <row r="177" spans="5:7" hidden="1" outlineLevel="1"/>
-    <row r="178" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="E178" s="38" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="179" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="F179" s="38" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="180" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="F180" s="38" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="181" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="F181" s="38" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="182" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G182" s="38" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="183" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G183" s="38" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="184" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G184" s="38" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="185" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G185" s="38" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="186" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G186" s="38" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="187" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G187" s="38" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="188" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G188" s="38" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="189" spans="5:7" hidden="1" outlineLevel="1"/>
-    <row r="190" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="F190" s="38" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="191" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G191" s="38" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="192" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G192" s="38" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="193" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G193" s="38" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="194" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G194" s="38" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="195" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G195" s="38" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="196" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G196" s="38" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="197" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G197" s="38" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="198" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G198" s="38" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="199" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G199" s="38" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="200" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G200" s="38" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="201" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G201" s="38" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="202" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G202" s="38" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="203" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="G203" s="38" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="204" spans="3:7" hidden="1" outlineLevel="1"/>
-    <row r="205" spans="3:7" hidden="1" outlineLevel="1"/>
-    <row r="206" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="C206" s="38">
-        <v>6</v>
-      </c>
-      <c r="D206" s="38" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="207" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="E207" s="38" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="208" spans="3:7" hidden="1" outlineLevel="1">
-      <c r="E208" s="38" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="209" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="E209" s="38">
-        <v>1</v>
-      </c>
-      <c r="F209" s="38" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="210" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="E210" s="38">
-        <v>2</v>
-      </c>
-      <c r="F210" s="38" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="211" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="E211" s="38">
-        <v>3</v>
-      </c>
-      <c r="F211" s="38" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="212" spans="5:7" hidden="1" outlineLevel="1"/>
-    <row r="213" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="E213" s="38" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="214" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="E214" s="38" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="215" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="E215" s="38">
-        <v>1</v>
-      </c>
-      <c r="F215" s="38" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="216" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="F216" s="38" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="217" spans="5:7" hidden="1" outlineLevel="1"/>
-    <row r="218" spans="5:7" hidden="1" outlineLevel="1"/>
-    <row r="219" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="F219" s="38" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="220" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="F220" s="38" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="221" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G221" s="38" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="222" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G222" s="38" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="223" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G223" s="38" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="224" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="G224" s="38" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="225" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="H225" s="46" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="226" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="G226" s="38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="227" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="G227" s="38" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="228" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="H228" s="38" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="229" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="G229" s="38" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="230" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="G230" s="38" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="231" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="H231" s="38" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="232" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="G232" s="38" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="233" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="F233" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="234" spans="6:8" hidden="1" outlineLevel="1"/>
-    <row r="235" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="F235" s="38" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="236" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="F236" s="38" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="237" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="G237" s="38" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="238" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="G238" s="46" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="239" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="G239" s="38" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="240" spans="6:8" hidden="1" outlineLevel="1">
-      <c r="F240" s="38" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="241" spans="5:7" hidden="1" outlineLevel="1"/>
-    <row r="242" spans="5:7" hidden="1" outlineLevel="1"/>
-    <row r="243" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="E243" s="38">
-        <v>2</v>
-      </c>
-      <c r="F243" s="38" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="244" spans="5:7" hidden="1" outlineLevel="1">
-      <c r="F244